--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Comentarios" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Resumen_Posts" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +17,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +61,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,6 +513,615 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1260798862759017/?dco_ad_token=AaprzcNowYg9Z8x7VPPLTUDn0JLBBhvVLiYoWBNA4nuLlQiDP5dy-AXgevLL_V3gTKAoS5-zMd5T54oY&amp;dco_ad_id=120234998089620781</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>No se consigue simplemente en mi ciudad mi hijo los ama pero solo pudimos comprar un yogopremio parecen escasos y eso que visitamos todos los supermercados sin correr con suerte😴</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>45967.14418981481</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>45967</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>03:27:38</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260798862759017/', 'commentUrl': 'https://www.facebook.com/reel/842793604791413/?comment_id=1376424560755013', 'id': 'Y29tbWVudDoxMjYxNjA5ODA2MDExMjU2XzEzNzY0MjQ1NjA3NTUwMTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI2MTYwOTgwNjAxMTI1Nl8xMzc2NDI0NTYwNzU1MDEz', 'date': '2025-11-06T03:27:38.000Z', 'text': 'No se consigue simplemente en mi ciudad mi hijo los ama pero solo pudimos comprar un yogopremio parecen escasos y eso que visitamos todos los supermercados sin correr con suerte😴', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/516293700_2878249965719326_3842548542411923153_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=M7LhpV7Yf6gQ7kNvwEzRK2A&amp;_nc_oc=AdmgG-j217PYfLoXjyKWrNIT9u-vHywQhk7CyIJY5mVOMR1Q46geYsMdSyDVkSR8UWg&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=ngz4UTv3Sf0mfnw8KyP2Ww&amp;oh=00_AfihCyC1VJwrXJdNKhlk60gtxGb39WA7tHwCkxSzgC_e4w&amp;oe=69132742', 'profileId': 'pfbid08JCHBJSCjNSXGg7K7tkUGbpQ1ttXoDqpVCRWjs62qPy7UXMfRueTKNtpAadPQk9pl', 'profileName': 'Nathalia Puentes Suárez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1261609806011256', 'postTitle': 'Libera el rugido ácido con Boggy Premio 🦖. Una explosión de sabor de fresa 🍓 y sandía 🍉 que tus hijos amarán.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260798862759017/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1260798862759017/?dco_ad_token=AaprzcNowYg9Z8x7VPPLTUDn0JLBBhvVLiYoWBNA4nuLlQiDP5dy-AXgevLL_V3gTKAoS5-zMd5T54oY&amp;dco_ad_id=120234998089620781</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>una pregunta en la gelatina donde vienen</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>45966.77980324074</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>45966</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>18:42:55</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260798862759017/', 'commentUrl': 'https://www.facebook.com/reel/842793604791413/?comment_id=1158885346423675', 'id': 'Y29tbWVudDoxMjYxNjA5ODA2MDExMjU2XzExNTg4ODUzNDY0MjM2NzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI2MTYwOTgwNjAxMTI1Nl8xMTU4ODg1MzQ2NDIzNjc1', 'date': '2025-11-05T18:42:55.000Z', 'text': 'una pregunta en la gelatina donde vienen', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/506529916_29945462461735351_8757277558212411088_n.jpg?stp=c0.0.768.768a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=q9y_-O799xYQ7kNvwFA2i9G&amp;_nc_oc=AdnckpDSx_VbbkU8tpdUdVuMKB_KHT65V0_0dGh7DZGkjktHIR1OqlU4Tg0duobvhX8&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=ngz4UTv3Sf0mfnw8KyP2Ww&amp;oh=00_Afj25diPrm2keNiCFkHcgai7sXsCz8FMPAEI6txrNdPRLQ&amp;oe=691346E7', 'profileId': 'pfbid02GcTzB4SnyoHPHFVQm5rdiJzpJa4QWu3htgxRESb7d6bisf7NV5suSJeHNE4uNEiPl', 'profileName': 'Adriana Marcela Gonzalez Guillen', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1261609806011256', 'postTitle': 'Libera el rugido ácido con Boggy Premio 🦖. Una explosión de sabor de fresa 🍓 y sandía 🍉 que tus hijos amarán.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260798862759017/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1260798862759017/?dco_ad_token=AaprzcNowYg9Z8x7VPPLTUDn0JLBBhvVLiYoWBNA4nuLlQiDP5dy-AXgevLL_V3gTKAoS5-zMd5T54oY&amp;dco_ad_id=120234998089620781</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cambien esos muñecos tan patéticos que tren esas gelatinas</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>45966.4967824074</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>45966</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>11:55:22</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260798862759017/', 'commentUrl': 'https://www.facebook.com/reel/842793604791413/?comment_id=2068817937285458', 'id': 'Y29tbWVudDoxMjYxNjA5ODA2MDExMjU2XzIwNjg4MTc5MzcyODU0NTg=', 'feedbackId': 'ZmVlZGJhY2s6MTI2MTYwOTgwNjAxMTI1Nl8yMDY4ODE3OTM3Mjg1NDU4', 'date': '2025-11-05T11:55:22.000Z', 'text': 'Cambien esos muñecos tan patéticos que tren esas gelatinas', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/452636147_8640445849305910_3401523103706757204_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PjBrvV9ZDDkQ7kNvwFwz-As&amp;_nc_oc=Adkzv2Ymq9faq9ZIaeOOADvZYfli50RnglxWye53BCQWTFIPrP-DmOu7lPNwZayTUeQ&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=ngz4UTv3Sf0mfnw8KyP2Ww&amp;oh=00_Afhigw0AfKz7qYEI20RnB7LZUw0y5r9uY9w7ORfL3e0wlA&amp;oe=69134270', 'profileId': 'pfbid021HpiHxAeqRqNU9KXZ3Nk9ec7m8CAuqxZyu56fdZqQGrGKnv5jFP76p6P3zhVWnwJl', 'profileName': 'Tifany Kim', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1261609806011256', 'postTitle': 'Libera el rugido ácido con Boggy Premio 🦖. Una explosión de sabor de fresa 🍓 y sandía 🍉 que tus hijos amarán.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260798862759017/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1260798862759017/?dco_ad_token=AaprzcNowYg9Z8x7VPPLTUDn0JLBBhvVLiYoWBNA4nuLlQiDP5dy-AXgevLL_V3gTKAoS5-zMd5T54oY&amp;dco_ad_id=120234998089620781</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>E xq con a al el</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>45964.79275462963</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>45964</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>19:01:34</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260798862759017/', 'commentUrl': 'https://www.facebook.com/reel/842793604791413/?comment_id=685002104291137', 'id': 'Y29tbWVudDoxMjYxNjA5ODA2MDExMjU2XzY4NTAwMjEwNDI5MTEzNw==', 'feedbackId': 'ZmVlZGJhY2s6MTI2MTYwOTgwNjAxMTI1Nl82ODUwMDIxMDQyOTExMzc=', 'date': '2025-11-03T19:01:34.000Z', 'text': 'E xq con a al el', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is looking up and holding their hands above their head, red hearts are floating out from their hands.', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.1997-6/555092277_24493050213698435_6998184209712050257_n.webp?_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=A1xwTKVDhcQQ7kNvwFUBGWq&amp;_nc_oc=AdmLSBgar9B-Spm4WlnOXOOyA_RxTwo2WE6jILHp7LujDGxgYx1IqMs5KPws92NS-Zk&amp;_nc_zt=26&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=ngz4UTv3Sf0mfnw8KyP2Ww&amp;oh=00_AfhXTn7ISVyUbxLxR0tPFeTxayANs-KW__VXL_Oor14opg&amp;oe=69133274', 'width': 120, 'height': 120}, 'id': '1900401237219091'}], 'profileUrl': 'https://www.facebook.com/alejandra.mazuera.940', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/536268576_2299484043837326_1613095401728935224_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Jy7tr0SCP6sQ7kNvwEt7Hfw&amp;_nc_oc=AdkdvbHJNUkIRMaL0_OE6IexS6wwpWhLq124nnMrdj0126uHcO9_r9UW_xTuOTPcAOM&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=ngz4UTv3Sf0mfnw8KyP2Ww&amp;oh=00_AfiC5URZHk1M62QkvloLs7gnQA711hIxY8k9YmueGPRUBA&amp;oe=6913376A', 'profileId': 'pfbid0ShBJcbqQjveKSExhFLeWCZBWxNXEtFjxmZa5A6qbCNBcgM22CkN1gGJsQbn9mbbJl', 'profileName': 'Alejandra Moncada', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1261609806011256', 'postTitle': 'Libera el rugido ácido con Boggy Premio 🦖. Una explosión de sabor de fresa 🍓 y sandía 🍉 que tus hijos amarán.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260798862759017/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1260798862759017/?dco_ad_token=AaprzcNowYg9Z8x7VPPLTUDn0JLBBhvVLiYoWBNA4nuLlQiDP5dy-AXgevLL_V3gTKAoS5-zMd5T54oY&amp;dco_ad_id=120234998089620781</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Colección completa ❤️</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>45963.91326388889</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>45963</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>21:55:06</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260798862759017/', 'commentUrl': 'https://www.facebook.com/reel/842793604791413/?comment_id=1033661622177735', 'id': 'Y29tbWVudDoxMjYxNjA5ODA2MDExMjU2XzEwMzM2NjE2MjIxNzc3MzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI2MTYwOTgwNjAxMTI1Nl8xMDMzNjYxNjIyMTc3NzM1', 'date': '2025-11-02T21:55:06.000Z', 'text': 'Colección completa ❤️', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-6/573341510_122176550384447701_7284453671115855444_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ICjzrpIAbFEQ7kNvwH_UqFD&amp;_nc_oc=AdncnMIciObokyYANvYjuAwsW13qIgKzzspRTyTnxaiI16kAxmS-pZsG4f16RVIBor8&amp;_nc_zt=23&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=ngz4UTv3Sf0mfnw8KyP2Ww&amp;oh=00_AfgDZu5IkDKCN5tfhlLAEXWODErdmocdpKm7VKWvvr6k6Q&amp;oe=69132CB6'}, 'id': '122176550378447701', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 720}, 'image': {'uri': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-6/573341510_122176550384447701_7284453671115855444_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ICjzrpIAbFEQ7kNvwH_UqFD&amp;_nc_oc=AdncnMIciObokyYANvYjuAwsW13qIgKzzspRTyTnxaiI16kAxmS-pZsG4f16RVIBor8&amp;_nc_zt=23&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=ngz4UTv3Sf0mfnw8KyP2Ww&amp;oh=00_AfiL-tRgZarWRp3dxgx0yggM-VhHe__2YY91YpePbUlIEw&amp;oe=69132CB6', 'width': 261, 'height': 196}, 'ocrText': 'May be an image of elephant, rhinoceros and toy'}], 'profileUrl': 'https://www.facebook.com/manu.xph.2025', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/547469007_122170558058447701_573271414999624813_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=EjKTblE3h2YQ7kNvwFbVJg8&amp;_nc_oc=AdmoKdaJHPcql5OTECvELYDN0X1sYWdRF4Zpg6EPLLyfza33C_yf7qwiUJGpwBpiLWk&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=ngz4UTv3Sf0mfnw8KyP2Ww&amp;oh=00_Afh7Pd3dZPReL88fvn9zh9rVgYD6qg9sZ2WPOGV5dI61sg&amp;oe=69132C74', 'profileId': 'pfbid07BemwXPQ4dHyp1J7AGcFNv6UfAzBbSWSNfeDHkDtkQFq7BAhENgw147FFf5ahUFRl', 'profileName': 'Manu Xph', 'likesCount': '6', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1261609806011256', 'postTitle': 'Libera el rugido ácido con Boggy Premio 🦖. Una explosión de sabor de fresa 🍓 y sandía 🍉 que tus hijos amarán.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260798862759017/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1260798862759017/?dco_ad_token=AaprzcNowYg9Z8x7VPPLTUDn0JLBBhvVLiYoWBNA4nuLlQiDP5dy-AXgevLL_V3gTKAoS5-zMd5T54oY&amp;dco_ad_id=120234998089620781</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Iguales todo locos jajaja</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>45963.34258101852</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>45963</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>08:13:19</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260798862759017/', 'commentUrl': 'https://www.facebook.com/reel/842793604791413/?comment_id=1271629494996706', 'id': 'Y29tbWVudDoxMjYxNjA5ODA2MDExMjU2XzEyNzE2Mjk0OTQ5OTY3MDY=', 'feedbackId': 'ZmVlZGJhY2s6MTI2MTYwOTgwNjAxMTI1Nl8xMjcxNjI5NDk0OTk2NzA2', 'date': '2025-11-02T08:13:19.000Z', 'text': 'Iguales todo locos jajaja', 'profileUrl': 'https://www.facebook.com/jasbleidy.garzon.9', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/338029968_780671743401466_1755277936651868816_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=3QGIs3Ipq-oQ7kNvwFwhOCo&amp;_nc_oc=Adnr1NxFGEXpflviIgc2OpQTuIe8DQhCLSIGeyJBafO-g-9qX4rX3iDitrx_0443RSQ&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=ngz4UTv3Sf0mfnw8KyP2Ww&amp;oh=00_AfiF24dHF-WyK6VKwewzKmOXzx8MZ1ccDx75sXgnQCk_Gg&amp;oe=69132324', 'profileId': '100001841013985', 'profileName': 'بريتاني النادل', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1261609806011256', 'postTitle': 'Libera el rugido ácido con Boggy Premio 🦖. Una explosión de sabor de fresa 🍓 y sandía 🍉 que tus hijos amarán.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260798862759017/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1260798862759017/?dco_ad_token=AaprzcNowYg9Z8x7VPPLTUDn0JLBBhvVLiYoWBNA4nuLlQiDP5dy-AXgevLL_V3gTKAoS5-zMd5T54oY&amp;dco_ad_id=120234998089620781</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ey ey cerdonio cerdo 🐷 ya están llamados por el cardiólogo</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>45960.82086805555</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>45960</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>19:42:03</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260798862759017/', 'commentUrl': 'https://www.facebook.com/reel/842793604791413/?comment_id=835167015824445', 'id': 'Y29tbWVudDoxMjYxNjA5ODA2MDExMjU2XzgzNTE2NzAxNTgyNDQ0NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI2MTYwOTgwNjAxMTI1Nl84MzUxNjcwMTU4MjQ0NDU=', 'date': '2025-10-30T19:42:03.000Z', 'text': 'Ey ey cerdonio cerdo 🐷 ya están llamados por el cardiólogo', 'profileUrl': 'https://www.facebook.com/jorgeleonardo.ruizpena', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/464724333_8483308751787519_1892843901210475771_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=I9216G21nqgQ7kNvwE8boSE&amp;_nc_oc=Admljn9QnbGGM7iPQSi8bOytUwBSVqeqpvtuL3CZGI5LkrKFQAWRiu6i1dEzHKkE9PQ&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=ngz4UTv3Sf0mfnw8KyP2Ww&amp;oh=00_AfjN5JO-m_hPii6Jhx8j4YwDmv_tyI0dz9jBiHkMeYmf5w&amp;oe=69133CF5', 'profileId': 'pfbid02giTuTQoo383MwU6cV1p5Bgosgbb1uHd31KZcsB7yonqM8QdgEcFkNtjrKfyfRVnPl', 'profileName': 'Jorge Leonardo Ruiz Pena', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1261609806011256', 'postTitle': 'Libera el rugido ácido con Boggy Premio 🦖. Una explosión de sabor de fresa 🍓 y sandía 🍉 que tus hijos amarán.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260798862759017/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1260798862759017/?dco_ad_token=AaprzcNowYg9Z8x7VPPLTUDn0JLBBhvVLiYoWBNA4nuLlQiDP5dy-AXgevLL_V3gTKAoS5-zMd5T54oY&amp;dco_ad_id=120234998089620781</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Puros Mochis ‘ ya otro motivo mejor 🙈</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>45959.86489583334</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>45959</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>20:45:27</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260798862759017/', 'commentUrl': 'https://www.facebook.com/reel/842793604791413/?comment_id=1152220723172385', 'id': 'Y29tbWVudDoxMjYxNjA5ODA2MDExMjU2XzExNTIyMjA3MjMxNzIzODU=', 'feedbackId': 'ZmVlZGJhY2s6MTI2MTYwOTgwNjAxMTI1Nl8xMTUyMjIwNzIzMTcyMzg1', 'date': '2025-10-29T20:45:27.000Z', 'text': 'Puros Mochis ‘ ya otro motivo mejor 🙈', 'profileUrl': 'https://www.facebook.com/liviasenith', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/476003754_9960559393958874_6369845245356066013_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=k_tnPln76OIQ7kNvwFgwRo2&amp;_nc_oc=AdnQoMoN_NTAl4IhBJHSqG22OalSnVL_ToE_FxKJW_klqGq0KnByiOp7QeT7u_1PlwE&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=ngz4UTv3Sf0mfnw8KyP2Ww&amp;oh=00_Afirj2imBel8P505sh4E-Xi-ePuJOs7819mKdYKSWx3yRA&amp;oe=6913445E', 'profileId': 'pfbid0qy8A2YUUUhqK69RXVTUiDtyg2sy542DMnrC4KhPpJeDA3AjEb56HwJuQfZCm4CBml', 'profileName': 'Livia S Guerra P', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1261609806011256', 'postTitle': 'Libera el rugido ácido con Boggy Premio 🦖. Una explosión de sabor de fresa 🍓 y sandía 🍉 que tus hijos amarán.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260798862759017/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1260798862759017/?dco_ad_token=AaprzcNowYg9Z8x7VPPLTUDn0JLBBhvVLiYoWBNA4nuLlQiDP5dy-AXgevLL_V3gTKAoS5-zMd5T54oY&amp;dco_ad_id=120234998089620781</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>En cartagena no hay dónde reclamarlos</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>45959.85836805555</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>45959</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>20:36:03</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260798862759017/', 'commentUrl': 'https://www.facebook.com/reel/842793604791413/?comment_id=1947063162535244', 'id': 'Y29tbWVudDoxMjYxNjA5ODA2MDExMjU2XzE5NDcwNjMxNjI1MzUyNDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI2MTYwOTgwNjAxMTI1Nl8xOTQ3MDYzMTYyNTM1MjQ0', 'date': '2025-10-29T20:36:03.000Z', 'text': 'En cartagena no hay dónde reclamarlos', 'profileUrl': 'https://www.facebook.com/alicia.torres.540644', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=sf_Q6oMt5UwQ7kNvwGwhrfD&amp;_nc_oc=AdkqMf1fUH0xSIFqf5nvxLnZItHdl3e4BU8m7OgW2atJjW_hMZ_hWww6R6-Oe3FMuc4&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;oh=00_Afh3QNYpMNky9zE6OYcXOx2bsXI3EDcBEXxKJOrhp52iIQ&amp;oe=6934D03A', 'profileId': 'pfbid032qNgiv9gfXopnDeCdphEGfKxYY7i6c9EP9A2CTMcofD7jC5HTJG8o5znjQPRhuCEl', 'profileName': 'Alicia Torres', 'likesCount': '0', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1261609806011256', 'postTitle': 'Libera el rugido ácido con Boggy Premio 🦖. Una explosión de sabor de fresa 🍓 y sandía 🍉 que tus hijos amarán.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260798862759017/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1260798862759017/?dco_ad_token=AaprzcNowYg9Z8x7VPPLTUDn0JLBBhvVLiYoWBNA4nuLlQiDP5dy-AXgevLL_V3gTKAoS5-zMd5T54oY&amp;dco_ad_id=120234998089620781</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>En cartagena no hay dónde cambiarlo</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>45959.85814814815</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>45959</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>20:35:44</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260798862759017/', 'commentUrl': 'https://www.facebook.com/reel/842793604791413/?comment_id=1575846933573152', 'id': 'Y29tbWVudDoxMjYxNjA5ODA2MDExMjU2XzE1NzU4NDY5MzM1NzMxNTI=', 'feedbackId': 'ZmVlZGJhY2s6MTI2MTYwOTgwNjAxMTI1Nl8xNTc1ODQ2OTMzNTczMTUy', 'date': '2025-10-29T20:35:44.000Z', 'text': 'En cartagena no hay dónde cambiarlo', 'profileUrl': 'https://www.facebook.com/alicia.torres.540644', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=sf_Q6oMt5UwQ7kNvwGwhrfD&amp;_nc_oc=AdkqMf1fUH0xSIFqf5nvxLnZItHdl3e4BU8m7OgW2atJjW_hMZ_hWww6R6-Oe3FMuc4&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;oh=00_Afh3QNYpMNky9zE6OYcXOx2bsXI3EDcBEXxKJOrhp52iIQ&amp;oe=6934D03A', 'profileId': 'pfbid032qNgiv9gfXopnDeCdphEGfKxYY7i6c9EP9A2CTMcofD7jC5HTJG8o5znjQPRhuCEl', 'profileName': 'Alicia Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1261609806011256', 'postTitle': 'Libera el rugido ácido con Boggy Premio 🦖. Una explosión de sabor de fresa 🍓 y sandía 🍉 que tus hijos amarán.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260798862759017/'}</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>post_number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>platform</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>post_url</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total_Comentarios</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total_Likes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1260798862759017/?dco_ad_token=AaprzcNowYg9Z8x7VPPLTUDn0JLBBhvVLiYoWBNA4nuLlQiDP5dy-AXgevLL_V3gTKAoS5-zMd5T54oY&amp;dco_ad_id=120234998089620781</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0000600000</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Comentarios" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Resumen_Posts" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,11 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +59,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -592,7 +590,7 @@
       <c r="G3" s="2" t="n">
         <v>45967.14418981481</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H3" s="2" t="n">
         <v>45967</v>
       </c>
       <c r="I3" t="inlineStr">
@@ -600,10 +598,8 @@
           <t>03:27:38</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="J3" t="n">
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -698,7 +694,7 @@
       <c r="G5" s="2" t="n">
         <v>45966.77980324074</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="2" t="n">
         <v>45966</v>
       </c>
       <c r="I5" t="inlineStr">
@@ -706,10 +702,8 @@
           <t>18:42:55</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="J5" t="n">
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -804,7 +798,7 @@
       <c r="G7" s="2" t="n">
         <v>45966.4967824074</v>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="H7" s="2" t="n">
         <v>45966</v>
       </c>
       <c r="I7" t="inlineStr">
@@ -812,10 +806,8 @@
           <t>11:55:22</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="J7" t="n">
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -858,7 +850,7 @@
       <c r="G8" s="2" t="n">
         <v>45964.79275462963</v>
       </c>
-      <c r="H8" s="3" t="n">
+      <c r="H8" s="2" t="n">
         <v>45964</v>
       </c>
       <c r="I8" t="inlineStr">
@@ -866,10 +858,8 @@
           <t>19:01:34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="J8" t="n">
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -932,7 +922,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260798862759017/', 'commentUrl': 'https://www.facebook.com/reel/842793604791413/?comment_id=1033661622177735', 'id': 'Y29tbWVudDoxMjYxNjA5ODA2MDExMjU2XzEwMzM2NjE2MjIxNzc3MzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI2MTYwOTgwNjAxMTI1Nl8xMDMzNjYxNjIyMTc3NzM1', 'date': '2025-11-02T21:55:06.000Z', 'text': 'Colección completa ❤️', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-6/573341510_122176550384447701_7284453671115855444_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ICjzrpIAbFEQ7kNvwH_UqFD&amp;_nc_oc=AdncnMIciObokyYANvYjuAwsW13qIgKzzspRTyTnxaiI16kAxmS-pZsG4f16RVIBor8&amp;_nc_zt=23&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=ngz4UTv3Sf0mfnw8KyP2Ww&amp;oh=00_AfgDZu5IkDKCN5tfhlLAEXWODErdmocdpKm7VKWvvr6k6Q&amp;oe=69132CB6'}, 'id': '122176550378447701', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 720}, 'image': {'uri': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-6/573341510_122176550384447701_7284453671115855444_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ICjzrpIAbFEQ7kNvwH_UqFD&amp;_nc_oc=AdncnMIciObokyYANvYjuAwsW13qIgKzzspRTyTnxaiI16kAxmS-pZsG4f16RVIBor8&amp;_nc_zt=23&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=ngz4UTv3Sf0mfnw8KyP2Ww&amp;oh=00_AfiL-tRgZarWRp3dxgx0yggM-VhHe__2YY91YpePbUlIEw&amp;oe=69132CB6', 'width': 261, 'height': 196}, 'ocrText': 'May be an image of elephant, rhinoceros and toy'}], 'profileUrl': 'https://www.facebook.com/manu.xph.2025', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/547469007_122170558058447701_573271414999624813_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=EjKTblE3h2YQ7kNvwFbVJg8&amp;_nc_oc=AdmoKdaJHPcql5OTECvELYDN0X1sYWdRF4Zpg6EPLLyfza33C_yf7qwiUJGpwBpiLWk&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=ngz4UTv3Sf0mfnw8KyP2Ww&amp;oh=00_Afh7Pd3dZPReL88fvn9zh9rVgYD6qg9sZ2WPOGV5dI61sg&amp;oe=69132C74', 'profileId': 'pfbid07BemwXPQ4dHyp1J7AGcFNv6UfAzBbSWSNfeDHkDtkQFq7BAhENgw147FFf5ahUFRl', 'profileName': 'Manu Xph', 'likesCount': '6', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1261609806011256', 'postTitle': 'Libera el rugido ácido con Boggy Premio 🦖. Una explosión de sabor de fresa 🍓 y sandía 🍉 que tus hijos amarán.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260798862759017/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260798862759017/', 'commentUrl': 'https://www.facebook.com/reel/842793604791413/?comment_id=1033661622177735', 'id': 'Y29tbWVudDoxMjYxNjA5ODA2MDExMjU2XzEwMzM2NjE2MjIxNzc3MzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI2MTYwOTgwNjAxMTI1Nl8xMDMzNjYxNjIyMTc3NzM1', 'date': '2025-11-02T21:55:06.000Z', 'text': 'Colección completa ❤️', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-6/573341510_122176550384447701_7284453671115855444_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ICjzrpIAbFEQ7kNvwG4iGTd&amp;_nc_oc=Adk5zQOjzV4MEucI-4KM-Fo-_EhgwQfiL2mL1JYAfJed13gpu8PBFef8izWRBGCa4Ik&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=a2F0_GFnO3DsI4FxtstSkQ&amp;oh=00_Afitm93CekrlCQR-JDd727NSiTB920R8cWc6FllxcCULog&amp;oe=69132CB6'}, 'id': '122176550378447701', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 720}, 'image': {'uri': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-6/573341510_122176550384447701_7284453671115855444_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ICjzrpIAbFEQ7kNvwG4iGTd&amp;_nc_oc=Adk5zQOjzV4MEucI-4KM-Fo-_EhgwQfiL2mL1JYAfJed13gpu8PBFef8izWRBGCa4Ik&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=a2F0_GFnO3DsI4FxtstSkQ&amp;oh=00_AfhOWU81FUF_lENiBhQho2daKfBjF0Bj-qyPjK7FGyrbkQ&amp;oe=69132CB6', 'width': 261, 'height': 196}, 'ocrText': 'May be an image of elephant, rhinoceros and toy'}], 'profileUrl': 'https://www.facebook.com/manu.xph.2025', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/547469007_122170558058447701_573271414999624813_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=EjKTblE3h2YQ7kNvwFykKiT&amp;_nc_oc=AdnWwiEq2twQ3JXCwq7HhVrvX5XoVXG_9vWGSSOWkkuvI4A3iFjAP3LmCHzl2cVGFYA&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=a2F0_GFnO3DsI4FxtstSkQ&amp;oh=00_Afi-zc3P6rLRpfoQCmfriZEzYhWpITHuAMKk-p3UUf9zJQ&amp;oe=69132C74', 'profileId': 'pfbid07BemwXPQ4dHyp1J7AGcFNv6UfAzBbSWSNfeDHkDtkQFq7BAhENgw147FFf5ahUFRl', 'profileName': 'Manu Xph', 'likesCount': '6', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1261609806011256', 'postTitle': 'Libera el rugido ácido con Boggy Premio 🦖. Una explosión de sabor de fresa 🍓 y sandía 🍉 que tus hijos amarán.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260798862759017/'}</t>
         </is>
       </c>
     </row>
@@ -964,7 +954,7 @@
       <c r="G10" s="2" t="n">
         <v>45963.91326388889</v>
       </c>
-      <c r="H10" s="3" t="n">
+      <c r="H10" s="2" t="n">
         <v>45963</v>
       </c>
       <c r="I10" t="inlineStr">
@@ -972,10 +962,8 @@
           <t>21:55:06</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="J10" t="n">
+        <v>6</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -986,7 +974,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260798862759017/', 'commentUrl': 'https://www.facebook.com/reel/842793604791413/?comment_id=1033661622177735', 'id': 'Y29tbWVudDoxMjYxNjA5ODA2MDExMjU2XzEwMzM2NjE2MjIxNzc3MzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI2MTYwOTgwNjAxMTI1Nl8xMDMzNjYxNjIyMTc3NzM1', 'date': '2025-11-02T21:55:06.000Z', 'text': 'Colección completa ❤️', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-6/573341510_122176550384447701_7284453671115855444_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ICjzrpIAbFEQ7kNvwG4iGTd&amp;_nc_oc=Adk5zQOjzV4MEucI-4KM-Fo-_EhgwQfiL2mL1JYAfJed13gpu8PBFef8izWRBGCa4Ik&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=a2F0_GFnO3DsI4FxtstSkQ&amp;oh=00_Afitm93CekrlCQR-JDd727NSiTB920R8cWc6FllxcCULog&amp;oe=69132CB6'}, 'id': '122176550378447701', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 720}, 'image': {'uri': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-6/573341510_122176550384447701_7284453671115855444_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ICjzrpIAbFEQ7kNvwG4iGTd&amp;_nc_oc=Adk5zQOjzV4MEucI-4KM-Fo-_EhgwQfiL2mL1JYAfJed13gpu8PBFef8izWRBGCa4Ik&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=a2F0_GFnO3DsI4FxtstSkQ&amp;oh=00_AfhOWU81FUF_lENiBhQho2daKfBjF0Bj-qyPjK7FGyrbkQ&amp;oe=69132CB6', 'width': 261, 'height': 196}, 'ocrText': 'May be an image of elephant, rhinoceros and toy'}], 'profileUrl': 'https://www.facebook.com/manu.xph.2025', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/547469007_122170558058447701_573271414999624813_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=EjKTblE3h2YQ7kNvwFykKiT&amp;_nc_oc=AdnWwiEq2twQ3JXCwq7HhVrvX5XoVXG_9vWGSSOWkkuvI4A3iFjAP3LmCHzl2cVGFYA&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=a2F0_GFnO3DsI4FxtstSkQ&amp;oh=00_Afi-zc3P6rLRpfoQCmfriZEzYhWpITHuAMKk-p3UUf9zJQ&amp;oe=69132C74', 'profileId': 'pfbid07BemwXPQ4dHyp1J7AGcFNv6UfAzBbSWSNfeDHkDtkQFq7BAhENgw147FFf5ahUFRl', 'profileName': 'Manu Xph', 'likesCount': '6', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1261609806011256', 'postTitle': 'Libera el rugido ácido con Boggy Premio 🦖. Una explosión de sabor de fresa 🍓 y sandía 🍉 que tus hijos amarán.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260798862759017/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260798862759017/', 'commentUrl': 'https://www.facebook.com/reel/842793604791413/?comment_id=1033661622177735', 'id': 'Y29tbWVudDoxMjYxNjA5ODA2MDExMjU2XzEwMzM2NjE2MjIxNzc3MzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI2MTYwOTgwNjAxMTI1Nl8xMDMzNjYxNjIyMTc3NzM1', 'date': '2025-11-02T21:55:06.000Z', 'text': 'Colección completa ❤️', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-6/573341510_122176550384447701_7284453671115855444_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ICjzrpIAbFEQ7kNvwH_UqFD&amp;_nc_oc=AdncnMIciObokyYANvYjuAwsW13qIgKzzspRTyTnxaiI16kAxmS-pZsG4f16RVIBor8&amp;_nc_zt=23&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=ngz4UTv3Sf0mfnw8KyP2Ww&amp;oh=00_AfgDZu5IkDKCN5tfhlLAEXWODErdmocdpKm7VKWvvr6k6Q&amp;oe=69132CB6'}, 'id': '122176550378447701', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 720}, 'image': {'uri': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-6/573341510_122176550384447701_7284453671115855444_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ICjzrpIAbFEQ7kNvwH_UqFD&amp;_nc_oc=AdncnMIciObokyYANvYjuAwsW13qIgKzzspRTyTnxaiI16kAxmS-pZsG4f16RVIBor8&amp;_nc_zt=23&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=ngz4UTv3Sf0mfnw8KyP2Ww&amp;oh=00_AfiL-tRgZarWRp3dxgx0yggM-VhHe__2YY91YpePbUlIEw&amp;oe=69132CB6', 'width': 261, 'height': 196}, 'ocrText': 'May be an image of elephant, rhinoceros and toy'}], 'profileUrl': 'https://www.facebook.com/manu.xph.2025', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/547469007_122170558058447701_573271414999624813_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=EjKTblE3h2YQ7kNvwFbVJg8&amp;_nc_oc=AdmoKdaJHPcql5OTECvELYDN0X1sYWdRF4Zpg6EPLLyfza33C_yf7qwiUJGpwBpiLWk&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=ngz4UTv3Sf0mfnw8KyP2Ww&amp;oh=00_Afh7Pd3dZPReL88fvn9zh9rVgYD6qg9sZ2WPOGV5dI61sg&amp;oe=69132C74', 'profileId': 'pfbid07BemwXPQ4dHyp1J7AGcFNv6UfAzBbSWSNfeDHkDtkQFq7BAhENgw147FFf5ahUFRl', 'profileName': 'Manu Xph', 'likesCount': '6', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1261609806011256', 'postTitle': 'Libera el rugido ácido con Boggy Premio 🦖. Una explosión de sabor de fresa 🍓 y sandía 🍉 que tus hijos amarán.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260798862759017/'}</t>
         </is>
       </c>
     </row>
@@ -1070,7 +1058,7 @@
       <c r="G12" s="2" t="n">
         <v>45963.34258101852</v>
       </c>
-      <c r="H12" s="3" t="n">
+      <c r="H12" s="2" t="n">
         <v>45963</v>
       </c>
       <c r="I12" t="inlineStr">
@@ -1078,10 +1066,8 @@
           <t>08:13:19</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="J12" t="n">
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1124,7 +1110,7 @@
       <c r="G13" s="2" t="n">
         <v>45960.82086805555</v>
       </c>
-      <c r="H13" s="3" t="n">
+      <c r="H13" s="2" t="n">
         <v>45960</v>
       </c>
       <c r="I13" t="inlineStr">
@@ -1132,10 +1118,8 @@
           <t>19:42:03</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="J13" t="n">
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1178,7 +1162,7 @@
       <c r="G14" s="2" t="n">
         <v>45959.86489583334</v>
       </c>
-      <c r="H14" s="3" t="n">
+      <c r="H14" s="2" t="n">
         <v>45959</v>
       </c>
       <c r="I14" t="inlineStr">
@@ -1186,10 +1170,8 @@
           <t>20:45:27</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="J14" t="n">
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1284,7 +1266,7 @@
       <c r="G16" s="2" t="n">
         <v>45959.85836805555</v>
       </c>
-      <c r="H16" s="3" t="n">
+      <c r="H16" s="2" t="n">
         <v>45959</v>
       </c>
       <c r="I16" t="inlineStr">
@@ -1292,10 +1274,8 @@
           <t>20:36:03</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="J16" t="n">
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1390,7 +1370,7 @@
       <c r="G18" s="2" t="n">
         <v>45959.85814814815</v>
       </c>
-      <c r="H18" s="3" t="n">
+      <c r="H18" s="2" t="n">
         <v>45959</v>
       </c>
       <c r="I18" t="inlineStr">
@@ -1398,10 +1378,8 @@
           <t>20:35:44</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="J18" t="n">
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1414,6 +1392,73 @@
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260798862759017/', 'commentUrl': 'https://www.facebook.com/reel/842793604791413/?comment_id=1575846933573152', 'id': 'Y29tbWVudDoxMjYxNjA5ODA2MDExMjU2XzE1NzU4NDY5MzM1NzMxNTI=', 'feedbackId': 'ZmVlZGJhY2s6MTI2MTYwOTgwNjAxMTI1Nl8xNTc1ODQ2OTMzNTczMTUy', 'date': '2025-10-29T20:35:44.000Z', 'text': 'En cartagena no hay dónde cambiarlo', 'profileUrl': 'https://www.facebook.com/alicia.torres.540644', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=sf_Q6oMt5UwQ7kNvwF7rkKf&amp;_nc_oc=AdlHtEZcNQ0wbbhSuabe8DAKLoeqhUj52Z9_wIqUmIQ6DBiD-gzvu8B8filtw9G6AF4&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;oh=00_AfhrJMTDLeT_qmdDTlmJc69G6-5n4ZPvqhdOFEZz6IyiNQ&amp;oe=6934D03A', 'profileId': 'pfbid032qNgiv9gfXopnDeCdphEGfKxYY7i6c9EP9A2CTMcofD7jC5HTJG8o5znjQPRhuCEl', 'profileName': 'Alicia Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1261609806011256', 'postTitle': 'Libera el rugido ácido con Boggy Premio 🦖. Una explosión de sabor de fresa 🍓 y sandía 🍉 que tus hijos amarán.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260798862759017/'}</t>
         </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>post_number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>platform</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>post_url</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total_Comentarios</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total_Likes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1260798862759017/?dco_ad_token=AaprzcNowYg9Z8x7VPPLTUDn0JLBBhvVLiYoWBNA4nuLlQiDP5dy-AXgevLL_V3gTKAoS5-zMd5T54oY&amp;dco_ad_id=120234998089620781</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Comentarios" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Resumen_Posts" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,7 +540,7 @@
       <c r="G2" s="2" t="n">
         <v>45953.6134837963</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="2" t="n">
         <v>45953</v>
       </c>
       <c r="I2" t="inlineStr">
@@ -549,10 +548,8 @@
           <t>14:43:25</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="J2" t="n">
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -595,7 +592,7 @@
       <c r="G3" s="2" t="n">
         <v>45951.68020833333</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H3" s="2" t="n">
         <v>45951</v>
       </c>
       <c r="I3" t="inlineStr">
@@ -603,10 +600,8 @@
           <t>16:19:30</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="J3" t="n">
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -649,7 +644,7 @@
       <c r="G4" s="2" t="n">
         <v>45951.56622685185</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="2" t="n">
         <v>45951</v>
       </c>
       <c r="I4" t="inlineStr">
@@ -657,10 +652,8 @@
           <t>13:35:22</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="J4" t="n">
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -703,7 +696,7 @@
       <c r="G5" s="2" t="n">
         <v>45946.96631944444</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="2" t="n">
         <v>45946</v>
       </c>
       <c r="I5" t="inlineStr">
@@ -711,10 +704,8 @@
           <t>23:11:30</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="J5" t="n">
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -757,7 +748,7 @@
       <c r="G6" s="2" t="n">
         <v>45946.49561342593</v>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="H6" s="2" t="n">
         <v>45946</v>
       </c>
       <c r="I6" t="inlineStr">
@@ -765,10 +756,8 @@
           <t>11:53:41</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="J6" t="n">
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -811,7 +800,7 @@
       <c r="G7" s="2" t="n">
         <v>45945.6658912037</v>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="H7" s="2" t="n">
         <v>45945</v>
       </c>
       <c r="I7" t="inlineStr">
@@ -819,10 +808,8 @@
           <t>15:58:53</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="J7" t="n">
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -883,7 +870,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=790894940521711', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2Xzc5MDg5NDk0MDUyMTcxMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl83OTA4OTQ5NDA1MjE3MTE=', 'date': '2025-10-13T15:02:06.000Z', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': "Avatar is smiling with their eyebrows upturned, they're resting their chin on their curled fists and little red hearts are floating around them.", 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.1997-6/550754586_1301752704230824_6863359776300433879_n.webp?_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=BwdGQZo9LcUQ7kNvwGylSHl&amp;_nc_oc=Adm2E9Dp3vkqWw45dHCMf3JWruj_yAKMcfTA9e5xl1TbNrgy5STSwO8Nt_7-vNescOo&amp;_nc_zt=26&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_Afi6-VLryKvoJRQF8BW64QWEAtHnSY7nlk5xe9LdoazbYw&amp;oe=691458DB', 'width': 120, 'height': 120}, 'id': '2294760351042177'}], 'profileUrl': 'https://www.facebook.com/leidis.compartir', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/436926704_122142271370189577_176725195454799216_n.jpg?stp=c7.0.212.212a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RiZn7f5B2D0Q7kNvwFaEddo&amp;_nc_oc=AdmHwcOXKl27Qd6uEKlOa4WaLVKxcf0SZAFAiwWFtGv0z8DtHTRE0ChrvWxmC0X8aws&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_AfifH-IdIG4AIe3mjMtPpm92Fusj9s12A84vUrB9KJZChw&amp;oe=69144592', 'profileId': 'pfbid07TGb7jxGfMuSYSFug7CryiyzpwxVJSxgfyKovF9pez98BsUtq2aXCGwTpw7q97GNl', 'profileName': 'Leidis Compartir', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=790894940521711', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2Xzc5MDg5NDk0MDUyMTcxMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl83OTA4OTQ5NDA1MjE3MTE=', 'date': '2025-10-13T15:02:06.000Z', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': "Avatar is smiling with their eyebrows upturned, they're resting their chin on their curled fists and little red hearts are floating around them.", 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.1997-6/550754586_1301752704230824_6863359776300433879_n.webp?_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=BwdGQZo9LcUQ7kNvwFeOvXh&amp;_nc_oc=AdmN7vbaRQV2-zw7HeuI9TQL7EUJTiWktLw1V5MKCK7EoLNzT__i-8sadngpVJjeCVY&amp;_nc_zt=26&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=xv4cDyqxlfUsyGrfXq5gPw&amp;oh=00_AfgVEFNGBF4RnkS-SEPiY4MjNyeYgZeXVYOn7gaiZJRUsw&amp;oe=691458DB', 'width': 120, 'height': 120}, 'id': '2294760351042177'}], 'profileUrl': 'https://www.facebook.com/leidis.compartir', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/436926704_122142271370189577_176725195454799216_n.jpg?stp=c7.0.212.212a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RiZn7f5B2D0Q7kNvwHDSSbU&amp;_nc_oc=AdlRkl61Z9QvD7f9GJulTUJ00vs1B3rVZ20CUNLJDLkD13vxaohIhdD37ArX1kPWUGA&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=xv4cDyqxlfUsyGrfXq5gPw&amp;oh=00_AfgzHqBNwvB7PkOZoTb2ATCpAqxh7TfURZbpz-2uIiwLZA&amp;oe=69144592', 'profileId': 'pfbid07TGb7jxGfMuSYSFug7CryiyzpwxVJSxgfyKovF9pez98BsUtq2aXCGwTpw7q97GNl', 'profileName': 'Leidis Compartir', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
         </is>
       </c>
     </row>
@@ -915,7 +902,7 @@
       <c r="G9" s="2" t="n">
         <v>45943.62460648148</v>
       </c>
-      <c r="H9" s="3" t="n">
+      <c r="H9" s="2" t="n">
         <v>45943</v>
       </c>
       <c r="I9" t="inlineStr">
@@ -923,10 +910,8 @@
           <t>14:59:26</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="J9" t="n">
+        <v>2</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -973,7 +958,7 @@
       <c r="G10" s="2" t="n">
         <v>45940.96381944444</v>
       </c>
-      <c r="H10" s="3" t="n">
+      <c r="H10" s="2" t="n">
         <v>45940</v>
       </c>
       <c r="I10" t="inlineStr">
@@ -1045,115 +1030,140 @@
         </is>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>post_number</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>platform</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>post_url</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Total_Comentarios</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total_Likes</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DPzKNF0DIqm/</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DPzKNF0DIqm/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Facebook</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>https://www.facebook.com/reel/793063333529226</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>00010002</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" s="2" t="n">
+        <v>45943.62645833333</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>45943</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>15:02:06</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=790894940521711', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2Xzc5MDg5NDk0MDUyMTcxMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl83OTA4OTQ5NDA1MjE3MTE=', 'date': '2025-10-13T15:02:06.000Z', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': "Avatar is smiling with their eyebrows upturned, they're resting their chin on their curled fists and little red hearts are floating around them.", 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.1997-6/550754586_1301752704230824_6863359776300433879_n.webp?_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=BwdGQZo9LcUQ7kNvwGylSHl&amp;_nc_oc=Adm2E9Dp3vkqWw45dHCMf3JWruj_yAKMcfTA9e5xl1TbNrgy5STSwO8Nt_7-vNescOo&amp;_nc_zt=26&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_Afi6-VLryKvoJRQF8BW64QWEAtHnSY7nlk5xe9LdoazbYw&amp;oe=691458DB', 'width': 120, 'height': 120}, 'id': '2294760351042177'}], 'profileUrl': 'https://www.facebook.com/leidis.compartir', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/436926704_122142271370189577_176725195454799216_n.jpg?stp=c7.0.212.212a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RiZn7f5B2D0Q7kNvwFaEddo&amp;_nc_oc=AdmHwcOXKl27Qd6uEKlOa4WaLVKxcf0SZAFAiwWFtGv0z8DtHTRE0ChrvWxmC0X8aws&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_AfifH-IdIG4AIe3mjMtPpm92Fusj9s12A84vUrB9KJZChw&amp;oe=69144592', 'profileId': 'pfbid07TGb7jxGfMuSYSFug7CryiyzpwxVJSxgfyKovF9pez98BsUtq2aXCGwTpw7q97GNl', 'profileName': 'Leidis Compartir', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Instagram</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DPpXWpHjMX2/</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>https://www.instagram.com/p/DPpVC6UjLlp/</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DPpVC6UjLlp/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Comentarios" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Resumen_Posts" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,7 +540,7 @@
       <c r="G2" s="2" t="n">
         <v>45953.6134837963</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="2" t="n">
         <v>45953</v>
       </c>
       <c r="I2" t="inlineStr">
@@ -549,10 +548,8 @@
           <t>14:43:25</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="J2" t="n">
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -595,7 +592,7 @@
       <c r="G3" s="2" t="n">
         <v>45951.68020833333</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H3" s="2" t="n">
         <v>45951</v>
       </c>
       <c r="I3" t="inlineStr">
@@ -603,10 +600,8 @@
           <t>16:19:30</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="J3" t="n">
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -649,7 +644,7 @@
       <c r="G4" s="2" t="n">
         <v>45951.56622685185</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="2" t="n">
         <v>45951</v>
       </c>
       <c r="I4" t="inlineStr">
@@ -657,10 +652,8 @@
           <t>13:35:22</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="J4" t="n">
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -703,7 +696,7 @@
       <c r="G5" s="2" t="n">
         <v>45946.96631944444</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="2" t="n">
         <v>45946</v>
       </c>
       <c r="I5" t="inlineStr">
@@ -711,10 +704,8 @@
           <t>23:11:30</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="J5" t="n">
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -757,7 +748,7 @@
       <c r="G6" s="2" t="n">
         <v>45946.49561342593</v>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="H6" s="2" t="n">
         <v>45946</v>
       </c>
       <c r="I6" t="inlineStr">
@@ -765,10 +756,8 @@
           <t>11:53:41</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="J6" t="n">
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -811,7 +800,7 @@
       <c r="G7" s="2" t="n">
         <v>45945.6658912037</v>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="H7" s="2" t="n">
         <v>45945</v>
       </c>
       <c r="I7" t="inlineStr">
@@ -819,10 +808,8 @@
           <t>15:58:53</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="J7" t="n">
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -883,7 +870,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=790894940521711', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2Xzc5MDg5NDk0MDUyMTcxMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl83OTA4OTQ5NDA1MjE3MTE=', 'date': '2025-10-13T15:02:06.000Z', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': "Avatar is smiling with their eyebrows upturned, they're resting their chin on their curled fists and little red hearts are floating around them.", 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.1997-6/550754586_1301752704230824_6863359776300433879_n.webp?_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=BwdGQZo9LcUQ7kNvwGylSHl&amp;_nc_oc=Adm2E9Dp3vkqWw45dHCMf3JWruj_yAKMcfTA9e5xl1TbNrgy5STSwO8Nt_7-vNescOo&amp;_nc_zt=26&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_Afi6-VLryKvoJRQF8BW64QWEAtHnSY7nlk5xe9LdoazbYw&amp;oe=691458DB', 'width': 120, 'height': 120}, 'id': '2294760351042177'}], 'profileUrl': 'https://www.facebook.com/leidis.compartir', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/436926704_122142271370189577_176725195454799216_n.jpg?stp=c7.0.212.212a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RiZn7f5B2D0Q7kNvwFaEddo&amp;_nc_oc=AdmHwcOXKl27Qd6uEKlOa4WaLVKxcf0SZAFAiwWFtGv0z8DtHTRE0ChrvWxmC0X8aws&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_AfifH-IdIG4AIe3mjMtPpm92Fusj9s12A84vUrB9KJZChw&amp;oe=69144592', 'profileId': 'pfbid07TGb7jxGfMuSYSFug7CryiyzpwxVJSxgfyKovF9pez98BsUtq2aXCGwTpw7q97GNl', 'profileName': 'Leidis Compartir', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=790894940521711', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2Xzc5MDg5NDk0MDUyMTcxMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl83OTA4OTQ5NDA1MjE3MTE=', 'date': '2025-10-13T15:02:06.000Z', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': "Avatar is smiling with their eyebrows upturned, they're resting their chin on their curled fists and little red hearts are floating around them.", 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.1997-6/550754586_1301752704230824_6863359776300433879_n.webp?_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=BwdGQZo9LcUQ7kNvwEv0nGP&amp;_nc_oc=Adll64D7Yky-KDl8D3yagnPs5DvETaCcSolZaW7-J5Q4EpkoTpbM8fDpQlT3JsIWN90_V6waAXNcPfjfYFVrB0jd&amp;_nc_zt=26&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=xbMtH7PAIClIqhJcJ5Ax7A&amp;oh=00_Afig4-OG7QoyauzfH667Ip1iSUd05Sfo_B2uJ8Q94W2q5g&amp;oe=691458DB', 'width': 120, 'height': 120}, 'id': '2294760351042177'}], 'profileUrl': 'https://www.facebook.com/leidis.compartir', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/436926704_122142271370189577_176725195454799216_n.jpg?stp=c7.0.212.212a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RiZn7f5B2D0Q7kNvwFe5MXj&amp;_nc_oc=Adk51llByVafJEMnm6TG9QgI6Os96h4paL8ErwG8f-RWEMq8mUg7xTEhJGu18aul6JEW7C9la8nrTu7uh6XdWxQm&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=xbMtH7PAIClIqhJcJ5Ax7A&amp;oh=00_AfjQwUdyiOJd958Ylz5tX3FzpfQvfsDDVRM6nxrTomLqgQ&amp;oe=69144592', 'profileId': 'pfbid07TGb7jxGfMuSYSFug7CryiyzpwxVJSxgfyKovF9pez98BsUtq2aXCGwTpw7q97GNl', 'profileName': 'Leidis Compartir', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
         </is>
       </c>
     </row>
@@ -915,7 +902,7 @@
       <c r="G9" s="2" t="n">
         <v>45943.62460648148</v>
       </c>
-      <c r="H9" s="3" t="n">
+      <c r="H9" s="2" t="n">
         <v>45943</v>
       </c>
       <c r="I9" t="inlineStr">
@@ -923,10 +910,8 @@
           <t>14:59:26</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="J9" t="n">
+        <v>2</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -973,7 +958,7 @@
       <c r="G10" s="2" t="n">
         <v>45940.96381944444</v>
       </c>
-      <c r="H10" s="3" t="n">
+      <c r="H10" s="2" t="n">
         <v>45940</v>
       </c>
       <c r="I10" t="inlineStr">
@@ -1045,115 +1030,140 @@
         </is>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>post_number</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>platform</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>post_url</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Total_Comentarios</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total_Likes</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DPzKNF0DIqm/</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DPzKNF0DIqm/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Facebook</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>https://www.facebook.com/reel/793063333529226</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>00010002</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" s="2" t="n">
+        <v>45943.62645833333</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>45943</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>15:02:06</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=790894940521711', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2Xzc5MDg5NDk0MDUyMTcxMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl83OTA4OTQ5NDA1MjE3MTE=', 'date': '2025-10-13T15:02:06.000Z', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': "Avatar is smiling with their eyebrows upturned, they're resting their chin on their curled fists and little red hearts are floating around them.", 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.1997-6/550754586_1301752704230824_6863359776300433879_n.webp?_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=BwdGQZo9LcUQ7kNvwGylSHl&amp;_nc_oc=Adm2E9Dp3vkqWw45dHCMf3JWruj_yAKMcfTA9e5xl1TbNrgy5STSwO8Nt_7-vNescOo&amp;_nc_zt=26&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_Afi6-VLryKvoJRQF8BW64QWEAtHnSY7nlk5xe9LdoazbYw&amp;oe=691458DB', 'width': 120, 'height': 120}, 'id': '2294760351042177'}], 'profileUrl': 'https://www.facebook.com/leidis.compartir', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/436926704_122142271370189577_176725195454799216_n.jpg?stp=c7.0.212.212a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RiZn7f5B2D0Q7kNvwFaEddo&amp;_nc_oc=AdmHwcOXKl27Qd6uEKlOa4WaLVKxcf0SZAFAiwWFtGv0z8DtHTRE0ChrvWxmC0X8aws&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_AfifH-IdIG4AIe3mjMtPpm92Fusj9s12A84vUrB9KJZChw&amp;oe=69144592', 'profileId': 'pfbid07TGb7jxGfMuSYSFug7CryiyzpwxVJSxgfyKovF9pez98BsUtq2aXCGwTpw7q97GNl', 'profileName': 'Leidis Compartir', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Instagram</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DPpXWpHjMX2/</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>https://www.instagram.com/p/DPpVC6UjLlp/</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DPpVC6UjLlp/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -17,11 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -61,13 +59,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -433,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,7 +538,7 @@
       <c r="G2" s="2" t="n">
         <v>45953.6134837963</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="2" t="n">
         <v>45953</v>
       </c>
       <c r="I2" t="inlineStr">
@@ -549,10 +546,8 @@
           <t>14:43:25</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="J2" t="n">
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -595,7 +590,7 @@
       <c r="G3" s="2" t="n">
         <v>45951.68020833333</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H3" s="2" t="n">
         <v>45951</v>
       </c>
       <c r="I3" t="inlineStr">
@@ -603,10 +598,8 @@
           <t>16:19:30</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="J3" t="n">
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -649,7 +642,7 @@
       <c r="G4" s="2" t="n">
         <v>45951.56622685185</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="2" t="n">
         <v>45951</v>
       </c>
       <c r="I4" t="inlineStr">
@@ -657,10 +650,8 @@
           <t>13:35:22</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="J4" t="n">
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -703,7 +694,7 @@
       <c r="G5" s="2" t="n">
         <v>45946.96631944444</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="2" t="n">
         <v>45946</v>
       </c>
       <c r="I5" t="inlineStr">
@@ -711,10 +702,8 @@
           <t>23:11:30</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="J5" t="n">
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -757,7 +746,7 @@
       <c r="G6" s="2" t="n">
         <v>45946.49561342593</v>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="H6" s="2" t="n">
         <v>45946</v>
       </c>
       <c r="I6" t="inlineStr">
@@ -765,10 +754,8 @@
           <t>11:53:41</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="J6" t="n">
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -811,7 +798,7 @@
       <c r="G7" s="2" t="n">
         <v>45945.6658912037</v>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="H7" s="2" t="n">
         <v>45945</v>
       </c>
       <c r="I7" t="inlineStr">
@@ -819,10 +806,8 @@
           <t>15:58:53</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="J7" t="n">
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -857,22 +842,24 @@
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sobrino de mi alma el Dios de la gloria te bendiga y bendiga por siempre esa madre maravillosa que tienes un abrazo enorme desde San Pablo sur de Bolivar</t>
+        </is>
+      </c>
       <c r="G8" s="2" t="n">
-        <v>45943.62645833333</v>
-      </c>
-      <c r="H8" s="3" t="n">
+        <v>45943.62460648148</v>
+      </c>
+      <c r="H8" s="2" t="n">
         <v>45943</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>15:02:06</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>14:59:26</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -883,17 +870,17 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=790894940521711', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2Xzc5MDg5NDk0MDUyMTcxMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl83OTA4OTQ5NDA1MjE3MTE=', 'date': '2025-10-13T15:02:06.000Z', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': "Avatar is smiling with their eyebrows upturned, they're resting their chin on their curled fists and little red hearts are floating around them.", 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.1997-6/550754586_1301752704230824_6863359776300433879_n.webp?_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=BwdGQZo9LcUQ7kNvwGylSHl&amp;_nc_oc=Adm2E9Dp3vkqWw45dHCMf3JWruj_yAKMcfTA9e5xl1TbNrgy5STSwO8Nt_7-vNescOo&amp;_nc_zt=26&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_Afi6-VLryKvoJRQF8BW64QWEAtHnSY7nlk5xe9LdoazbYw&amp;oe=691458DB', 'width': 120, 'height': 120}, 'id': '2294760351042177'}], 'profileUrl': 'https://www.facebook.com/leidis.compartir', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/436926704_122142271370189577_176725195454799216_n.jpg?stp=c7.0.212.212a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RiZn7f5B2D0Q7kNvwFaEddo&amp;_nc_oc=AdmHwcOXKl27Qd6uEKlOa4WaLVKxcf0SZAFAiwWFtGv0z8DtHTRE0ChrvWxmC0X8aws&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_AfifH-IdIG4AIe3mjMtPpm92Fusj9s12A84vUrB9KJZChw&amp;oe=69144592', 'profileId': 'pfbid07TGb7jxGfMuSYSFug7CryiyzpwxVJSxgfyKovF9pez98BsUtq2aXCGwTpw7q97GNl', 'profileName': 'Leidis Compartir', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=1145614760935594', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2XzExNDU2MTQ3NjA5MzU1OTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl8xMTQ1NjE0NzYwOTM1NTk0', 'date': '2025-10-13T14:59:26.000Z', 'text': 'Sobrino de mi alma el Dios de la gloria te bendiga y bendiga por siempre esa madre maravillosa que tienes un abrazo enorme desde San Pablo sur de Bolivar', 'profileUrl': 'https://www.facebook.com/leidis.compartir', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/436926704_122142271370189577_176725195454799216_n.jpg?stp=c7.0.212.212a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RiZn7f5B2D0Q7kNvwFaEddo&amp;_nc_oc=AdmHwcOXKl27Qd6uEKlOa4WaLVKxcf0SZAFAiwWFtGv0z8DtHTRE0ChrvWxmC0X8aws&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_AfifH-IdIG4AIe3mjMtPpm92Fusj9s12A84vUrB9KJZChw&amp;oe=69144592', 'profileId': 'pfbid07TGb7jxGfMuSYSFug7CryiyzpwxVJSxgfyKovF9pez98BsUtq2aXCGwTpw7q97GNl', 'profileName': 'Leidis Compartir', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -903,30 +890,32 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/reel/793063333529226</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>https://www.instagram.com/p/dppxwphjmx2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>danielapatern</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Sobrino de mi alma el Dios de la gloria te bendiga y bendiga por siempre esa madre maravillosa que tienes un abrazo enorme desde San Pablo sur de Bolivar</t>
+          <t>🤣🤣</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>45943.62460648148</v>
-      </c>
-      <c r="H9" s="3" t="n">
-        <v>45943</v>
+        <v>45940.96381944444</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>45940</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>14:59:26</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>23:07:54</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -934,20 +923,24 @@
       <c r="L9" t="b">
         <v>0</v>
       </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>https://instagram.com/danielapatern</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=1145614760935594', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2XzExNDU2MTQ3NjA5MzU1OTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl8xMTQ1NjE0NzYwOTM1NTk0', 'date': '2025-10-13T14:59:26.000Z', 'text': 'Sobrino de mi alma el Dios de la gloria te bendiga y bendiga por siempre esa madre maravillosa que tienes un abrazo enorme desde San Pablo sur de Bolivar', 'profileUrl': 'https://www.facebook.com/leidis.compartir', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/436926704_122142271370189577_176725195454799216_n.jpg?stp=c7.0.212.212a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RiZn7f5B2D0Q7kNvwFaEddo&amp;_nc_oc=AdmHwcOXKl27Qd6uEKlOa4WaLVKxcf0SZAFAiwWFtGv0z8DtHTRE0ChrvWxmC0X8aws&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_AfifH-IdIG4AIe3mjMtPpm92Fusj9s12A84vUrB9KJZChw&amp;oe=69144592', 'profileId': 'pfbid07TGb7jxGfMuSYSFug7CryiyzpwxVJSxgfyKovF9pez98BsUtq2aXCGwTpw7q97GNl', 'profileName': 'Leidis Compartir', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
+          <t>{'postUrl': 'https://www.instagram.com/p/DPpXWpHjMX2/', 'commentUrl': 'https://www.instagram.com/p/DPpXWpHjMX2/c/18540867487016204', 'id': '18540867487016204', 'text': '🤣🤣', 'ownerUsername': 'danielapatern', 'ownerProfilePicUrl': 'https://scontent-dfw5-1.cdninstagram.com/v/t51.82787-19/541612351_18523418065050571_184036140610059517_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=105&amp;ig_cache_key=GD9ZSCDLG8tZ885BAP185RLl040CbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=R4EkPk4AufoQ7kNvwEzMci4&amp;_nc_oc=Adl669Qq3vtuqbOow0hwmmt5HAo8Fpeu87irDof7UxyoGwYcdy9eOmgdW87gy1Afq0M&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.cdninstagram.com&amp;_nc_gid=l950poZa61IiKYtZ6q946A&amp;oh=00_AfjoRWMrTh51_zWzW8066yzkdHDVlNqBWnvDDyaonUanCQ&amp;oe=6914577E', 'timestamp': '2025-10-10T23:07:54.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 0, 'owner': {'fbid_v2': '17841401517104520', 'full_name': 'Daniela Paternina', 'id': '289330570', 'is_mentionable': True, 'is_private': False, 'is_verified': False, 'latest_reel_media': 1762487357, 'profile_pic_id': '3714459010825546529', 'profile_pic_url': 'https://scontent-dfw5-1.cdninstagram.com/v/t51.82787-19/541612351_18523418065050571_184036140610059517_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=105&amp;ig_cache_key=GD9ZSCDLG8tZ885BAP185RLl040CbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=R4EkPk4AufoQ7kNvwEzMci4&amp;_nc_oc=Adl669Qq3vtuqbOow0hwmmt5HAo8Fpeu87irDof7UxyoGwYcdy9eOmgdW87gy1Afq0M&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.cdninstagram.com&amp;_nc_gid=l950poZa61IiKYtZ6q946A&amp;oh=00_AfjoRWMrTh51_zWzW8066yzkdHDVlNqBWnvDDyaonUanCQ&amp;oe=6914577E', 'username': 'danielapatern'}}</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -957,28 +950,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DPpXWpHjMX2/</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>danielapatern</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>🤣🤣</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/reel/793063333529226</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" s="2" t="n">
-        <v>45940.96381944444</v>
-      </c>
-      <c r="H10" s="3" t="n">
-        <v>45940</v>
+        <v>45943.62645833333</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>45943</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>23:07:54</t>
+          <t>15:02:06</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -990,14 +975,10 @@
       <c r="L10" t="b">
         <v>0</v>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>https://instagram.com/danielapatern</t>
-        </is>
-      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DPpXWpHjMX2/', 'commentUrl': 'https://www.instagram.com/p/DPpXWpHjMX2/c/18540867487016204', 'id': '18540867487016204', 'text': '🤣🤣', 'ownerUsername': 'danielapatern', 'ownerProfilePicUrl': 'https://scontent-dfw5-1.cdninstagram.com/v/t51.82787-19/541612351_18523418065050571_184036140610059517_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=105&amp;ig_cache_key=GD9ZSCDLG8tZ885BAP185RLl040CbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=R4EkPk4AufoQ7kNvwEzMci4&amp;_nc_oc=Adl669Qq3vtuqbOow0hwmmt5HAo8Fpeu87irDof7UxyoGwYcdy9eOmgdW87gy1Afq0M&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.cdninstagram.com&amp;_nc_gid=l950poZa61IiKYtZ6q946A&amp;oh=00_AfjoRWMrTh51_zWzW8066yzkdHDVlNqBWnvDDyaonUanCQ&amp;oe=6914577E', 'timestamp': '2025-10-10T23:07:54.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 0, 'owner': {'fbid_v2': '17841401517104520', 'full_name': 'Daniela Paternina', 'id': '289330570', 'is_mentionable': True, 'is_private': False, 'is_verified': False, 'latest_reel_media': 1762487357, 'profile_pic_id': '3714459010825546529', 'profile_pic_url': 'https://scontent-dfw5-1.cdninstagram.com/v/t51.82787-19/541612351_18523418065050571_184036140610059517_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=105&amp;ig_cache_key=GD9ZSCDLG8tZ885BAP185RLl040CbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=R4EkPk4AufoQ7kNvwEzMci4&amp;_nc_oc=Adl669Qq3vtuqbOow0hwmmt5HAo8Fpeu87irDof7UxyoGwYcdy9eOmgdW87gy1Afq0M&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.cdninstagram.com&amp;_nc_gid=l950poZa61IiKYtZ6q946A&amp;oh=00_AfjoRWMrTh51_zWzW8066yzkdHDVlNqBWnvDDyaonUanCQ&amp;oe=6914577E', 'username': 'danielapatern'}}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=790894940521711', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2Xzc5MDg5NDk0MDUyMTcxMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl83OTA4OTQ5NDA1MjE3MTE=', 'date': '2025-10-13T15:02:06.000Z', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': "Avatar is smiling with their eyebrows upturned, they're resting their chin on their curled fists and little red hearts are floating around them.", 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.1997-6/550754586_1301752704230824_6863359776300433879_n.webp?_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=BwdGQZo9LcUQ7kNvwGylSHl&amp;_nc_oc=Adm2E9Dp3vkqWw45dHCMf3JWruj_yAKMcfTA9e5xl1TbNrgy5STSwO8Nt_7-vNescOo&amp;_nc_zt=26&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_Afi6-VLryKvoJRQF8BW64QWEAtHnSY7nlk5xe9LdoazbYw&amp;oe=691458DB', 'width': 120, 'height': 120}, 'id': '2294760351042177'}], 'profileUrl': 'https://www.facebook.com/leidis.compartir', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/436926704_122142271370189577_176725195454799216_n.jpg?stp=c7.0.212.212a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RiZn7f5B2D0Q7kNvwFaEddo&amp;_nc_oc=AdmHwcOXKl27Qd6uEKlOa4WaLVKxcf0SZAFAiwWFtGv0z8DtHTRE0ChrvWxmC0X8aws&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_AfifH-IdIG4AIe3mjMtPpm92Fusj9s12A84vUrB9KJZChw&amp;oe=69144592', 'profileId': 'pfbid07TGb7jxGfMuSYSFug7CryiyzpwxVJSxgfyKovF9pez98BsUtq2aXCGwTpw7q97GNl', 'profileName': 'Leidis Compartir', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
         </is>
       </c>
     </row>
@@ -1017,7 +998,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DPpVC6UjLlp/</t>
+          <t>https://www.instagram.com/p/dppvc6ujllp</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -1042,6 +1023,50 @@
       <c r="N11" t="inlineStr">
         <is>
           <t>{'url': 'https://www.instagram.com/p/DPpVC6UjLlp/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/dpzknf0diqm</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DPzKNF0DIqm/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1081,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,12 +1131,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>00010002</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1125,7 +1148,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DPpXWpHjMX2/</t>
+          <t>https://www.instagram.com/p/dppxwphjmx2</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -1146,13 +1169,34 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DPpVC6UjLlp/</t>
+          <t>https://www.instagram.com/p/dppvc6ujllp</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/dpzknf0diqm</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -17,9 +17,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -59,12 +61,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -526,28 +529,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/reel/793063333529226</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0n3r82dbjh8tk4stddiyzpingwqpj7ermfk2xategwg2gpkdfftjmbq1mrbmbi9pvl</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Que. Bello</t>
+          <t>Producto ultraprocezad malo para el cuerpo</t>
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>45953.6134837963</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>45953</v>
+        <v>45962.16460648148</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>45962</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>14:43:25</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
+          <t>03:57:02</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -558,7 +563,7 @@
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=3791301284510271', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2XzM3OTEzMDEyODQ1MTAyNzE=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl8zNzkxMzAxMjg0NTEwMjcx', 'date': '2025-10-23T14:43:25.000Z', 'text': 'Que. Bello', 'profileUrl': 'https://www.facebook.com/nirian.florezbolano', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/565118303_24857507933888832_109722164960286161_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=l6T-j4jDIkoQ7kNvwEYs4lr&amp;_nc_oc=Adlt1PbRo77n9KmCGHGtREYFYElHkoEbqs5QgEg1syzuX3dnKT2MpjFxwEYoh6mF9OE&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_AfiGUBDr5FZ-zB-T6sIcMmvm65icA-XQpACTWExZbE6ZtQ&amp;oe=69143CC7', 'profileId': '100001689060377', 'profileName': 'Nirian Florez Bolaño', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0N3R82dbJH8TK4stdDiYZPingWQpJ7eRMfk2XATEGWg2GpKDfFTJmbQ1mRbMbi9Pvl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid024iNK6sZ8HrVyEBrNSmNXZi6LBq6iJAUrYDnFa2K59ZK9hHfwvhZ483Dd9R4ewuLVl?comment_id=798037796370966', 'id': 'Y29tbWVudDoxMjQ0MTgxMTc0NDIwNzg2Xzc5ODAzNzc5NjM3MDk2Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDE4MTE3NDQyMDc4Nl83OTgwMzc3OTYzNzA5NjY=', 'date': '2025-11-01T03:57:02.000Z', 'text': 'Producto ultraprocezad malo para el cuerpo', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/575852032_25638171419123429_9063773663644836237_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=SqKrDMtiV28Q7kNvwHAcS_1&amp;_nc_oc=AdkLXAXRw2txk8W9s-B3tYrnpZIAWz3trh4LahnoeW6fYR-VXifiVLfHME3q7WvCA8g&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=V850Tvm74pVKF03KanNlwA&amp;oh=00_AfhGOtlSBjbLobMgOwybcGE0OmEimMGFhOlJHaZBHqESBQ&amp;oe=6914553B', 'profileId': 'pfbid054FCEypGgekstw5xQJAuoyotKjDyKtZzP5zRBoDMrWNWVEnpBTHDxDMexYeD5bSXl', 'profileName': 'John Jairo Penagos Maya', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244181174420786', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0N3R82dbJH8TK4stdDiYZPingWQpJ7eRMfk2XATEGWg2GpKDfFTJmbQ1mRbMbi9Pvl'}</t>
         </is>
       </c>
     </row>
@@ -584,18 +589,18 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Esa plática se perdió</t>
+          <t>Que. Bello</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>45951.68020833333</v>
+        <v>45953.6134837963</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45951</v>
+        <v>45953</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>16:19:30</t>
+          <t>14:43:25</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -610,7 +615,7 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=1145982617483696', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2XzExNDU5ODI2MTc0ODM2OTY=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl8xMTQ1OTgyNjE3NDgzNjk2', 'date': '2025-10-21T16:19:30.000Z', 'text': 'Esa plática se perdió', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/468066741_10236689396758127_1902211058902317261_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9lqVKeyyWHgQ7kNvwHnUSj9&amp;_nc_oc=AdlC_e3m2tLAGEdrlgMVzcHQL2-jlw5R1PqvO7gl2ejg_eLndFSvSvohIAPnqswY6T0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_Afh1BvMeDV1GqLOvszHMHtnpAEwQaN_vE9mJx49mWZhpVQ&amp;oe=69143CD5', 'profileId': 'pfbid02YDP6xqTZ8Lh2qZQH8Tr6TS5jJ97FwCRvjL6izaiLfZSzUeHh7f3sXkvwA7cWDwivl', 'profileName': 'Vik AN HE', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=3791301284510271', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2XzM3OTEzMDEyODQ1MTAyNzE=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl8zNzkxMzAxMjg0NTEwMjcx', 'date': '2025-10-23T14:43:25.000Z', 'text': 'Que. Bello', 'profileUrl': 'https://www.facebook.com/nirian.florezbolano', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/565118303_24857507933888832_109722164960286161_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=l6T-j4jDIkoQ7kNvwEYs4lr&amp;_nc_oc=Adlt1PbRo77n9KmCGHGtREYFYElHkoEbqs5QgEg1syzuX3dnKT2MpjFxwEYoh6mF9OE&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_AfiGUBDr5FZ-zB-T6sIcMmvm65icA-XQpACTWExZbE6ZtQ&amp;oe=69143CC7', 'profileId': '100001689060377', 'profileName': 'Nirian Florez Bolaño', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
         </is>
       </c>
     </row>
@@ -636,18 +641,18 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Que lindos bendiciones</t>
+          <t>Esa plática se perdió</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>45951.56622685185</v>
+        <v>45951.68020833333</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>45951</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>13:35:22</t>
+          <t>16:19:30</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -662,7 +667,7 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=2008725833006418', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2XzIwMDg3MjU4MzMwMDY0MTg=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl8yMDA4NzI1ODMzMDA2NDE4', 'date': '2025-10-21T13:35:22.000Z', 'text': 'Que lindos bendiciones', 'profileUrl': 'https://www.facebook.com/beatriz.turizo.7', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/323424359_860765595258666_7364400141756221588_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=B3gEGlPcIEMQ7kNvwF7UsOH&amp;_nc_oc=AdmgiJmkYhmHmizbkFno4TlJ5AYFYKKx93x9QP9kCl2S2DCTm8KWSCkNAK9vJYFWSj0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_Afjc7mrAmwMQyF7lYq0tcRU9sKNvvkcAMFHS4xoshQMeJg&amp;oe=691451DE', 'profileId': 'pfbid0AKNuoEYaYw2Mgd3reWzVmNoT8LKtjcd1DPNFjZ1VhPKQySF5tLFwDi9q97F63g2Ml', 'profileName': 'Beatriz Turizo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=1145982617483696', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2XzExNDU5ODI2MTc0ODM2OTY=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl8xMTQ1OTgyNjE3NDgzNjk2', 'date': '2025-10-21T16:19:30.000Z', 'text': 'Esa plática se perdió', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/468066741_10236689396758127_1902211058902317261_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9lqVKeyyWHgQ7kNvwHnUSj9&amp;_nc_oc=AdlC_e3m2tLAGEdrlgMVzcHQL2-jlw5R1PqvO7gl2ejg_eLndFSvSvohIAPnqswY6T0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_Afh1BvMeDV1GqLOvszHMHtnpAEwQaN_vE9mJx49mWZhpVQ&amp;oe=69143CD5', 'profileId': 'pfbid02YDP6xqTZ8Lh2qZQH8Tr6TS5jJ97FwCRvjL6izaiLfZSzUeHh7f3sXkvwA7cWDwivl', 'profileName': 'Vik AN HE', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
         </is>
       </c>
     </row>
@@ -688,22 +693,22 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Un saludo para la mama pense que era tu pareja que joven y bella</t>
+          <t>Que lindos bendiciones</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>45946.96631944444</v>
+        <v>45951.56622685185</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45946</v>
+        <v>45951</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>23:11:30</t>
+          <t>13:35:22</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -714,13 +719,13 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=1818958738827795', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2XzE4MTg5NTg3Mzg4Mjc3OTU=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl8xODE4OTU4NzM4ODI3Nzk1', 'date': '2025-10-16T23:11:30.000Z', 'text': 'Un saludo para la mama pense que era tu pareja que joven y bella', 'profileUrl': 'https://www.facebook.com/vidal.murillo.98', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t1.6435-1/95821462_706189896796164_1843464276283490304_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=C7srGqj5KboQ7kNvwEgVqgE&amp;_nc_oc=AdlPCeKTUldYJRtfnW0Nx3DrYhMn7DroI7NbWoABYMCWMuWcB1zUVglguJ6PPo2tCI0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_AfgxN5gsJv9ilGNx-E48zhX69trmrKs_DEys3X1xFLsh8A&amp;oe=6935C139', 'profileId': 'pfbid026nPZNNNLjGd8t3CAZyjUr2qLUjSXmDzHYyzs34c9GbXNjoA9f4z5XQVDQy69hyXWl', 'profileName': 'Vidal Murillo', 'likesCount': '1', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=2008725833006418', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2XzIwMDg3MjU4MzMwMDY0MTg=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl8yMDA4NzI1ODMzMDA2NDE4', 'date': '2025-10-21T13:35:22.000Z', 'text': 'Que lindos bendiciones', 'profileUrl': 'https://www.facebook.com/beatriz.turizo.7', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/323424359_860765595258666_7364400141756221588_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=B3gEGlPcIEMQ7kNvwF7UsOH&amp;_nc_oc=AdmgiJmkYhmHmizbkFno4TlJ5AYFYKKx93x9QP9kCl2S2DCTm8KWSCkNAK9vJYFWSj0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_Afjc7mrAmwMQyF7lYq0tcRU9sKNvvkcAMFHS4xoshQMeJg&amp;oe=691451DE', 'profileId': 'pfbid0AKNuoEYaYw2Mgd3reWzVmNoT8LKtjcd1DPNFjZ1VhPKQySF5tLFwDi9q97F63g2Ml', 'profileName': 'Beatriz Turizo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -734,28 +739,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/reel/793063333529226</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0n3r82dbjh8tk4stddiyzpingwqpj7ermfk2xategwg2gpkdfftjmbq1mrbmbi9pvl</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Amén</t>
+          <t>Deli deli</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>45946.49561342593</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>45946</v>
+        <v>45948.16364583333</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>45948</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>11:53:41</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
+          <t>03:55:39</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -766,13 +773,13 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=752530881138903', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2Xzc1MjUzMDg4MTEzODkwMw==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl83NTI1MzA4ODExMzg5MDM=', 'date': '2025-10-16T11:53:41.000Z', 'text': 'Amén', 'profileUrl': 'https://www.facebook.com/people/Paola-Barrios/pfbid0D9rAsDY4qUYW7B2gUDbLKgGkxDNDTSdKcMEv4YxJcSTzBbijCA5aT9uCpbw2ySq8l/', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/559231836_1880085192904289_6440287088472312909_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=wJ-9Y598aw8Q7kNvwHFu6eY&amp;_nc_oc=AdlverX1dcPk-F9xao5QvJXmdXqFa7sleKv6n75B4pP1SdbyGGBwkYOaUoD5NbPrv1Y&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_AfhRP-U2wZWuKGfGrOej-kFftk_MQoQVWSwjcn2es2wnnA&amp;oe=69143D71', 'profileId': 'pfbid0D9rAsDY4qUYW7B2gUDbLKgGkxDNDTSdKcMEv4YxJcSTzBbijCA5aT9uCpbw2ySq8l', 'profileName': 'Paola Barrios', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0N3R82dbJH8TK4stdDiYZPingWQpJ7eRMfk2XATEGWg2GpKDfFTJmbQ1mRbMbi9Pvl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid024iNK6sZ8HrVyEBrNSmNXZi6LBq6iJAUrYDnFa2K59ZK9hHfwvhZ483Dd9R4ewuLVl?comment_id=1951209025726720', 'id': 'Y29tbWVudDoxMjQ0MTgxMTc0NDIwNzg2XzE5NTEyMDkwMjU3MjY3MjA=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDE4MTE3NDQyMDc4Nl8xOTUxMjA5MDI1NzI2NzIw', 'date': '2025-10-18T03:55:39.000Z', 'text': 'Deli deli', 'profileUrl': 'https://www.facebook.com/luzmarina.rodriguezrondon.7', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/462128442_2883175915369298_8048828132347884007_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=wN_S-9w5a7wQ7kNvwHzHOub&amp;_nc_oc=AdmipYlTeXbbfUGucWR8-P7GRcV9vYvjXQNP7kBZebEj3090GQ1aIhrvQnguhDSn2wk&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=V850Tvm74pVKF03KanNlwA&amp;oh=00_Afj_ePOmHqK79Qm3xB0E_UqFneutaZaXFtjEYPJr14pCPg&amp;oe=69147546', 'profileId': 'pfbid0tSxJch6kyjWy5RJB67zzdXqb6YQiGtjPzroDK9YDdFJTiM9j5o9bX3RyrNXoCv7pl', 'profileName': 'Luz Marina Rodriguez Rondon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244181174420786', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0N3R82dbJH8TK4stdDiYZPingWQpJ7eRMfk2XATEGWg2GpKDfFTJmbQ1mRbMbi9Pvl'}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -786,28 +793,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/reel/793063333529226</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0n3r82dbjh8tk4stddiyzpingwqpj7ermfk2xategwg2gpkdfftjmbq1mrbmbi9pvl</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sean serios q se la pasan ofreciendo cosas  y a la hora no dan nada dejen de montar cosas q no van a regalar</t>
+          <t>Me gusta ese combo 😍💯!!️</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>45945.6658912037</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>45945</v>
+        <v>45948.04265046296</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>45948</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>15:58:53</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
+          <t>01:01:25</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -818,7 +827,7 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=805078185822237', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2XzgwNTA3ODE4NTgyMjIzNw==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl84MDUwNzgxODU4MjIyMzc=', 'date': '2025-10-15T15:58:53.000Z', 'text': 'Sean serios q se la pasan ofreciendo cosas  y a la hora no dan nada dejen de montar cosas q no van a regalar', 'profileUrl': 'https://www.facebook.com/people/Vale-Gonz%C3%A1lez/pfbid02wCjAByNskZ93eBnT7xUjqCsi2wQA9Q7wbfubPCf9xXf5MTKpSe7h29RGs44at8UWl/', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/454549187_122104502066452899_3667558201248221709_n.jpg?stp=c0.96.575.575a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=rYZAx7qJs-AQ7kNvwFrnQ3h&amp;_nc_oc=Adla4UyKhPh57bQ5Ihkmspz_qQCV30I4Z13YTk5iV9OnzV6twrXrSg-xkUksCnOBro4&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_Afg4a9UtVeTO2CPuiVNrazyOtAaBx_VIRm61pVcomubN6Q&amp;oe=69143A52', 'profileId': 'pfbid02wCjAByNskZ93eBnT7xUjqCsi2wQA9Q7wbfubPCf9xXf5MTKpSe7h29RGs44at8UWl', 'profileName': 'Vale González', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0N3R82dbJH8TK4stdDiYZPingWQpJ7eRMfk2XATEGWg2GpKDfFTJmbQ1mRbMbi9Pvl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid024iNK6sZ8HrVyEBrNSmNXZi6LBq6iJAUrYDnFa2K59ZK9hHfwvhZ483Dd9R4ewuLVl?comment_id=842590628223265', 'id': 'Y29tbWVudDoxMjQ0MTgxMTc0NDIwNzg2Xzg0MjU5MDYyODIyMzI2NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDE4MTE3NDQyMDc4Nl84NDI1OTA2MjgyMjMyNjU=', 'date': '2025-10-18T01:01:25.000Z', 'text': 'Me gusta ese combo 😍💯‼️', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/515263787_24905706092353478_6766726787804716101_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=OBstSFtu53kQ7kNvwHevLmI&amp;_nc_oc=AdnGZEJ-44zf2a5BQ2G8u2QuDn19w8pTUojnQgjRGKLQiPKZfPWOyvEcpFoyZ7BZRkQ&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=V850Tvm74pVKF03KanNlwA&amp;oh=00_AfiL75wfcQdbrZ_56hImNlvTQxywAezyzrzSwQYYgRdvdw&amp;oe=69146DE2', 'profileId': 'pfbid0216gegWpjyneB1sd56XXYNMTzYRFzUugHxW81hVGG5QugGa81KhrEota331khYPJbl', 'profileName': 'Nixon Stalin', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1244181174420786', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0N3R82dbJH8TK4stdDiYZPingWQpJ7eRMfk2XATEGWg2GpKDfFTJmbQ1mRbMbi9Pvl'}</t>
         </is>
       </c>
     </row>
@@ -844,22 +853,22 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Sobrino de mi alma el Dios de la gloria te bendiga y bendiga por siempre esa madre maravillosa que tienes un abrazo enorme desde San Pablo sur de Bolivar</t>
+          <t>Un saludo para la mama pense que era tu pareja que joven y bella</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>45943.62460648148</v>
+        <v>45946.96631944444</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45943</v>
+        <v>45946</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>14:59:26</t>
+          <t>23:11:30</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -870,17 +879,17 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=1145614760935594', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2XzExNDU2MTQ3NjA5MzU1OTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl8xMTQ1NjE0NzYwOTM1NTk0', 'date': '2025-10-13T14:59:26.000Z', 'text': 'Sobrino de mi alma el Dios de la gloria te bendiga y bendiga por siempre esa madre maravillosa que tienes un abrazo enorme desde San Pablo sur de Bolivar', 'profileUrl': 'https://www.facebook.com/leidis.compartir', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/436926704_122142271370189577_176725195454799216_n.jpg?stp=c7.0.212.212a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RiZn7f5B2D0Q7kNvwFaEddo&amp;_nc_oc=AdmHwcOXKl27Qd6uEKlOa4WaLVKxcf0SZAFAiwWFtGv0z8DtHTRE0ChrvWxmC0X8aws&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_AfifH-IdIG4AIe3mjMtPpm92Fusj9s12A84vUrB9KJZChw&amp;oe=69144592', 'profileId': 'pfbid07TGb7jxGfMuSYSFug7CryiyzpwxVJSxgfyKovF9pez98BsUtq2aXCGwTpw7q97GNl', 'profileName': 'Leidis Compartir', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=1818958738827795', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2XzE4MTg5NTg3Mzg4Mjc3OTU=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl8xODE4OTU4NzM4ODI3Nzk1', 'date': '2025-10-16T23:11:30.000Z', 'text': 'Un saludo para la mama pense que era tu pareja que joven y bella', 'profileUrl': 'https://www.facebook.com/vidal.murillo.98', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t1.6435-1/95821462_706189896796164_1843464276283490304_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=C7srGqj5KboQ7kNvwEgVqgE&amp;_nc_oc=AdlPCeKTUldYJRtfnW0Nx3DrYhMn7DroI7NbWoABYMCWMuWcB1zUVglguJ6PPo2tCI0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_AfgxN5gsJv9ilGNx-E48zhX69trmrKs_DEys3X1xFLsh8A&amp;oe=6935C139', 'profileId': 'pfbid026nPZNNNLjGd8t3CAZyjUr2qLUjSXmDzHYyzs34c9GbXNjoA9f4z5XQVDQy69hyXWl', 'profileName': 'Vidal Murillo', 'likesCount': '1', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -890,28 +899,24 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/dppxwphjmx2</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>danielapatern</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/reel/793063333529226</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>🤣🤣</t>
+          <t>Amén</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>45940.96381944444</v>
+        <v>45946.49561342593</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45940</v>
+        <v>45946</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>23:07:54</t>
+          <t>11:53:41</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -923,14 +928,10 @@
       <c r="L9" t="b">
         <v>0</v>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>https://instagram.com/danielapatern</t>
-        </is>
-      </c>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DPpXWpHjMX2/', 'commentUrl': 'https://www.instagram.com/p/DPpXWpHjMX2/c/18540867487016204', 'id': '18540867487016204', 'text': '🤣🤣', 'ownerUsername': 'danielapatern', 'ownerProfilePicUrl': 'https://scontent-dfw5-1.cdninstagram.com/v/t51.82787-19/541612351_18523418065050571_184036140610059517_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=105&amp;ig_cache_key=GD9ZSCDLG8tZ885BAP185RLl040CbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=R4EkPk4AufoQ7kNvwEzMci4&amp;_nc_oc=Adl669Qq3vtuqbOow0hwmmt5HAo8Fpeu87irDof7UxyoGwYcdy9eOmgdW87gy1Afq0M&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.cdninstagram.com&amp;_nc_gid=l950poZa61IiKYtZ6q946A&amp;oh=00_AfjoRWMrTh51_zWzW8066yzkdHDVlNqBWnvDDyaonUanCQ&amp;oe=6914577E', 'timestamp': '2025-10-10T23:07:54.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 0, 'owner': {'fbid_v2': '17841401517104520', 'full_name': 'Daniela Paternina', 'id': '289330570', 'is_mentionable': True, 'is_private': False, 'is_verified': False, 'latest_reel_media': 1762487357, 'profile_pic_id': '3714459010825546529', 'profile_pic_url': 'https://scontent-dfw5-1.cdninstagram.com/v/t51.82787-19/541612351_18523418065050571_184036140610059517_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=105&amp;ig_cache_key=GD9ZSCDLG8tZ885BAP185RLl040CbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=R4EkPk4AufoQ7kNvwEzMci4&amp;_nc_oc=Adl669Qq3vtuqbOow0hwmmt5HAo8Fpeu87irDof7UxyoGwYcdy9eOmgdW87gy1Afq0M&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.cdninstagram.com&amp;_nc_gid=l950poZa61IiKYtZ6q946A&amp;oh=00_AfjoRWMrTh51_zWzW8066yzkdHDVlNqBWnvDDyaonUanCQ&amp;oe=6914577E', 'username': 'danielapatern'}}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=752530881138903', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2Xzc1MjUzMDg4MTEzODkwMw==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl83NTI1MzA4ODExMzg5MDM=', 'date': '2025-10-16T11:53:41.000Z', 'text': 'Amén', 'profileUrl': 'https://www.facebook.com/people/Paola-Barrios/pfbid0D9rAsDY4qUYW7B2gUDbLKgGkxDNDTSdKcMEv4YxJcSTzBbijCA5aT9uCpbw2ySq8l/', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/559231836_1880085192904289_6440287088472312909_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=wJ-9Y598aw8Q7kNvwHFu6eY&amp;_nc_oc=AdlverX1dcPk-F9xao5QvJXmdXqFa7sleKv6n75B4pP1SdbyGGBwkYOaUoD5NbPrv1Y&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_AfhRP-U2wZWuKGfGrOej-kFftk_MQoQVWSwjcn2es2wnnA&amp;oe=69143D71', 'profileId': 'pfbid0D9rAsDY4qUYW7B2gUDbLKgGkxDNDTSdKcMEv4YxJcSTzBbijCA5aT9uCpbw2ySq8l', 'profileName': 'Paola Barrios', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
         </is>
       </c>
     </row>
@@ -954,16 +955,20 @@
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sean serios q se la pasan ofreciendo cosas  y a la hora no dan nada dejen de montar cosas q no van a regalar</t>
+        </is>
+      </c>
       <c r="G10" s="2" t="n">
-        <v>45943.62645833333</v>
+        <v>45945.6658912037</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>15:02:06</t>
+          <t>15:58:53</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -978,17 +983,17 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=790894940521711', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2Xzc5MDg5NDk0MDUyMTcxMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl83OTA4OTQ5NDA1MjE3MTE=', 'date': '2025-10-13T15:02:06.000Z', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': "Avatar is smiling with their eyebrows upturned, they're resting their chin on their curled fists and little red hearts are floating around them.", 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.1997-6/550754586_1301752704230824_6863359776300433879_n.webp?_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=BwdGQZo9LcUQ7kNvwGylSHl&amp;_nc_oc=Adm2E9Dp3vkqWw45dHCMf3JWruj_yAKMcfTA9e5xl1TbNrgy5STSwO8Nt_7-vNescOo&amp;_nc_zt=26&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_Afi6-VLryKvoJRQF8BW64QWEAtHnSY7nlk5xe9LdoazbYw&amp;oe=691458DB', 'width': 120, 'height': 120}, 'id': '2294760351042177'}], 'profileUrl': 'https://www.facebook.com/leidis.compartir', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/436926704_122142271370189577_176725195454799216_n.jpg?stp=c7.0.212.212a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RiZn7f5B2D0Q7kNvwFaEddo&amp;_nc_oc=AdmHwcOXKl27Qd6uEKlOa4WaLVKxcf0SZAFAiwWFtGv0z8DtHTRE0ChrvWxmC0X8aws&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_AfifH-IdIG4AIe3mjMtPpm92Fusj9s12A84vUrB9KJZChw&amp;oe=69144592', 'profileId': 'pfbid07TGb7jxGfMuSYSFug7CryiyzpwxVJSxgfyKovF9pez98BsUtq2aXCGwTpw7q97GNl', 'profileName': 'Leidis Compartir', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=805078185822237', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2XzgwNTA3ODE4NTgyMjIzNw==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl84MDUwNzgxODU4MjIyMzc=', 'date': '2025-10-15T15:58:53.000Z', 'text': 'Sean serios q se la pasan ofreciendo cosas  y a la hora no dan nada dejen de montar cosas q no van a regalar', 'profileUrl': 'https://www.facebook.com/people/Vale-Gonz%C3%A1lez/pfbid02wCjAByNskZ93eBnT7xUjqCsi2wQA9Q7wbfubPCf9xXf5MTKpSe7h29RGs44at8UWl/', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/454549187_122104502066452899_3667558201248221709_n.jpg?stp=c0.96.575.575a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=rYZAx7qJs-AQ7kNvwFrnQ3h&amp;_nc_oc=Adla4UyKhPh57bQ5Ihkmspz_qQCV30I4Z13YTk5iV9OnzV6twrXrSg-xkUksCnOBro4&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_Afg4a9UtVeTO2CPuiVNrazyOtAaBx_VIRm61pVcomubN6Q&amp;oe=69143A52', 'profileId': 'pfbid02wCjAByNskZ93eBnT7xUjqCsi2wQA9Q7wbfubPCf9xXf5MTKpSe7h29RGs44at8UWl', 'profileName': 'Vale González', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -998,16 +1003,28 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/dppvc6ujllp</t>
+          <t>https://www.facebook.com/reel/793063333529226</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sobrino de mi alma el Dios de la gloria te bendiga y bendiga por siempre esa madre maravillosa que tienes un abrazo enorme desde San Pablo sur de Bolivar</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>45943.62460648148</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>45943</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>14:59:26</t>
+        </is>
+      </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1015,58 +1032,202 @@
       <c r="L11" t="b">
         <v>0</v>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DPpVC6UjLlp/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=1145614760935594', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2XzExNDU2MTQ3NjA5MzU1OTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl8xMTQ1NjE0NzYwOTM1NTk0', 'date': '2025-10-13T14:59:26.000Z', 'text': 'Sobrino de mi alma el Dios de la gloria te bendiga y bendiga por siempre esa madre maravillosa que tienes un abrazo enorme desde San Pablo sur de Bolivar', 'profileUrl': 'https://www.facebook.com/leidis.compartir', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/436926704_122142271370189577_176725195454799216_n.jpg?stp=c7.0.212.212a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RiZn7f5B2D0Q7kNvwFaEddo&amp;_nc_oc=AdmHwcOXKl27Qd6uEKlOa4WaLVKxcf0SZAFAiwWFtGv0z8DtHTRE0ChrvWxmC0X8aws&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_AfifH-IdIG4AIe3mjMtPpm92Fusj9s12A84vUrB9KJZChw&amp;oe=69144592', 'profileId': 'pfbid07TGb7jxGfMuSYSFug7CryiyzpwxVJSxgfyKovF9pez98BsUtq2aXCGwTpw7q97GNl', 'profileName': 'Leidis Compartir', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/dppxwphjmx2</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>danielapatern</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>🤣🤣</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>45940.96381944444</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>23:07:54</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>https://instagram.com/danielapatern</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DPpXWpHjMX2/', 'commentUrl': 'https://www.instagram.com/p/DPpXWpHjMX2/c/18540867487016204', 'id': '18540867487016204', 'text': '🤣🤣', 'ownerUsername': 'danielapatern', 'ownerProfilePicUrl': 'https://scontent-dfw5-1.cdninstagram.com/v/t51.82787-19/541612351_18523418065050571_184036140610059517_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=105&amp;ig_cache_key=GD9ZSCDLG8tZ885BAP185RLl040CbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=R4EkPk4AufoQ7kNvwEzMci4&amp;_nc_oc=Adl669Qq3vtuqbOow0hwmmt5HAo8Fpeu87irDof7UxyoGwYcdy9eOmgdW87gy1Afq0M&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.cdninstagram.com&amp;_nc_gid=l950poZa61IiKYtZ6q946A&amp;oh=00_AfjoRWMrTh51_zWzW8066yzkdHDVlNqBWnvDDyaonUanCQ&amp;oe=6914577E', 'timestamp': '2025-10-10T23:07:54.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 0, 'owner': {'fbid_v2': '17841401517104520', 'full_name': 'Daniela Paternina', 'id': '289330570', 'is_mentionable': True, 'is_private': False, 'is_verified': False, 'latest_reel_media': 1762487357, 'profile_pic_id': '3714459010825546529', 'profile_pic_url': 'https://scontent-dfw5-1.cdninstagram.com/v/t51.82787-19/541612351_18523418065050571_184036140610059517_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=105&amp;ig_cache_key=GD9ZSCDLG8tZ885BAP185RLl040CbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=R4EkPk4AufoQ7kNvwEzMci4&amp;_nc_oc=Adl669Qq3vtuqbOow0hwmmt5HAo8Fpeu87irDof7UxyoGwYcdy9eOmgdW87gy1Afq0M&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.cdninstagram.com&amp;_nc_gid=l950poZa61IiKYtZ6q946A&amp;oh=00_AfjoRWMrTh51_zWzW8066yzkdHDVlNqBWnvDDyaonUanCQ&amp;oe=6914577E', 'username': 'danielapatern'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/dppvc6ujllp</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DPpVC6UjLlp/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
         <v>4</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Instagram</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>CAMPAÑA_MANUAL_MULTIPLE</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>https://www.instagram.com/p/dpzknf0diqm</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" t="inlineStr">
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>https://instagram.com/</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>{'url': 'https://www.instagram.com/p/DPzKNF0DIqm/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/dppxa4uddh4</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DPpXA4uDDh4/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1242,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1200,6 +1361,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0n3r82dbjh8tk4stddiyzpingwqpj7ermfk2xategwg2gpkdfftjmbq1mrbmbi9pvl</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/dppxa4uddh4</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -17,11 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -61,13 +59,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -541,7 +538,7 @@
       <c r="G2" s="2" t="n">
         <v>45962.16460648148</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="2" t="n">
         <v>45962</v>
       </c>
       <c r="I2" t="inlineStr">
@@ -549,10 +546,8 @@
           <t>03:57:02</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="J2" t="n">
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -751,7 +746,7 @@
       <c r="G6" s="2" t="n">
         <v>45948.16364583333</v>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="H6" s="2" t="n">
         <v>45948</v>
       </c>
       <c r="I6" t="inlineStr">
@@ -759,10 +754,8 @@
           <t>03:55:39</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="J6" t="n">
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -805,7 +798,7 @@
       <c r="G7" s="2" t="n">
         <v>45948.04265046296</v>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="H7" s="2" t="n">
         <v>45948</v>
       </c>
       <c r="I7" t="inlineStr">
@@ -813,10 +806,8 @@
           <t>01:01:25</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="J7" t="n">
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1378,10 +1369,8 @@
       <c r="D6" t="n">
         <v>3</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
+      <c r="E6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,50 +461,55 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>post_url_original</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>author_name</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>comment_text</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>created_time_processed</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>fecha_comentario</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>hora_comentario</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>likes_count</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>replies_count</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>is_reply</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>author_url</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>created_time_raw</t>
         </is>
@@ -529,34 +534,39 @@
           <t>https://www.facebook.com/100064867445065/posts/pfbid0n3r82dbjh8tk4stddiyzpingwqpj7ermfk2xategwg2gpkdfftjmbq1mrbmbi9pvl</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0n3r82dbjh8tk4stddiyzpingwqpj7ermfk2xategwg2gpkdfftjmbq1mrbmbi9pvl</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>Producto ultraprocezad malo para el cuerpo</t>
         </is>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="H2" s="2" t="n">
         <v>45962.16460648148</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="I2" s="2" t="n">
         <v>45962</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>03:57:02</t>
         </is>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr">
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0N3R82dbJH8TK4stdDiYZPingWQpJ7eRMfk2XATEGWg2GpKDfFTJmbQ1mRbMbi9Pvl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid024iNK6sZ8HrVyEBrNSmNXZi6LBq6iJAUrYDnFa2K59ZK9hHfwvhZ483Dd9R4ewuLVl?comment_id=798037796370966', 'id': 'Y29tbWVudDoxMjQ0MTgxMTc0NDIwNzg2Xzc5ODAzNzc5NjM3MDk2Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDE4MTE3NDQyMDc4Nl83OTgwMzc3OTYzNzA5NjY=', 'date': '2025-11-01T03:57:02.000Z', 'text': 'Producto ultraprocezad malo para el cuerpo', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/575852032_25638171419123429_9063773663644836237_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=SqKrDMtiV28Q7kNvwHAcS_1&amp;_nc_oc=AdkLXAXRw2txk8W9s-B3tYrnpZIAWz3trh4LahnoeW6fYR-VXifiVLfHME3q7WvCA8g&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=V850Tvm74pVKF03KanNlwA&amp;oh=00_AfhGOtlSBjbLobMgOwybcGE0OmEimMGFhOlJHaZBHqESBQ&amp;oe=6914553B', 'profileId': 'pfbid054FCEypGgekstw5xQJAuoyotKjDyKtZzP5zRBoDMrWNWVEnpBTHDxDMexYeD5bSXl', 'profileName': 'John Jairo Penagos Maya', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244181174420786', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0N3R82dbJH8TK4stdDiYZPingWQpJ7eRMfk2XATEGWg2GpKDfFTJmbQ1mRbMbi9Pvl'}</t>
         </is>
@@ -581,34 +591,39 @@
           <t>https://www.facebook.com/reel/793063333529226</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/793063333529226</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>Que. Bello</t>
         </is>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="H3" s="2" t="n">
         <v>45953.6134837963</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="I3" s="2" t="n">
         <v>45953</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>14:43:25</t>
         </is>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
-      <c r="L3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr">
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=3791301284510271', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2XzM3OTEzMDEyODQ1MTAyNzE=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl8zNzkxMzAxMjg0NTEwMjcx', 'date': '2025-10-23T14:43:25.000Z', 'text': 'Que. Bello', 'profileUrl': 'https://www.facebook.com/nirian.florezbolano', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/565118303_24857507933888832_109722164960286161_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=l6T-j4jDIkoQ7kNvwEYs4lr&amp;_nc_oc=Adlt1PbRo77n9KmCGHGtREYFYElHkoEbqs5QgEg1syzuX3dnKT2MpjFxwEYoh6mF9OE&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_AfiGUBDr5FZ-zB-T6sIcMmvm65icA-XQpACTWExZbE6ZtQ&amp;oe=69143CC7', 'profileId': '100001689060377', 'profileName': 'Nirian Florez Bolaño', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
         </is>
@@ -633,34 +648,39 @@
           <t>https://www.facebook.com/reel/793063333529226</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/793063333529226</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>Esa plática se perdió</t>
         </is>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="H4" s="2" t="n">
         <v>45951.68020833333</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="I4" s="2" t="n">
         <v>45951</v>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>16:19:30</t>
         </is>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
-      <c r="L4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=1145982617483696', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2XzExNDU5ODI2MTc0ODM2OTY=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl8xMTQ1OTgyNjE3NDgzNjk2', 'date': '2025-10-21T16:19:30.000Z', 'text': 'Esa plática se perdió', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/468066741_10236689396758127_1902211058902317261_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9lqVKeyyWHgQ7kNvwHnUSj9&amp;_nc_oc=AdlC_e3m2tLAGEdrlgMVzcHQL2-jlw5R1PqvO7gl2ejg_eLndFSvSvohIAPnqswY6T0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_Afh1BvMeDV1GqLOvszHMHtnpAEwQaN_vE9mJx49mWZhpVQ&amp;oe=69143CD5', 'profileId': 'pfbid02YDP6xqTZ8Lh2qZQH8Tr6TS5jJ97FwCRvjL6izaiLfZSzUeHh7f3sXkvwA7cWDwivl', 'profileName': 'Vik AN HE', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
         </is>
@@ -685,34 +705,39 @@
           <t>https://www.facebook.com/reel/793063333529226</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/793063333529226</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>Que lindos bendiciones</t>
         </is>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="H5" s="2" t="n">
         <v>45951.56622685185</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="I5" s="2" t="n">
         <v>45951</v>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>13:35:22</t>
         </is>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
-      <c r="L5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr">
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=2008725833006418', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2XzIwMDg3MjU4MzMwMDY0MTg=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl8yMDA4NzI1ODMzMDA2NDE4', 'date': '2025-10-21T13:35:22.000Z', 'text': 'Que lindos bendiciones', 'profileUrl': 'https://www.facebook.com/beatriz.turizo.7', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/323424359_860765595258666_7364400141756221588_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=B3gEGlPcIEMQ7kNvwF7UsOH&amp;_nc_oc=AdmgiJmkYhmHmizbkFno4TlJ5AYFYKKx93x9QP9kCl2S2DCTm8KWSCkNAK9vJYFWSj0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_Afjc7mrAmwMQyF7lYq0tcRU9sKNvvkcAMFHS4xoshQMeJg&amp;oe=691451DE', 'profileId': 'pfbid0AKNuoEYaYw2Mgd3reWzVmNoT8LKtjcd1DPNFjZ1VhPKQySF5tLFwDi9q97F63g2Ml', 'profileName': 'Beatriz Turizo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
         </is>
@@ -737,34 +762,39 @@
           <t>https://www.facebook.com/100064867445065/posts/pfbid0n3r82dbjh8tk4stddiyzpingwqpj7ermfk2xategwg2gpkdfftjmbq1mrbmbi9pvl</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0n3r82dbjh8tk4stddiyzpingwqpj7ermfk2xategwg2gpkdfftjmbq1mrbmbi9pvl</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>Deli deli</t>
         </is>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="H6" s="2" t="n">
         <v>45948.16364583333</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="I6" s="2" t="n">
         <v>45948</v>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>03:55:39</t>
         </is>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
-      <c r="L6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0N3R82dbJH8TK4stdDiYZPingWQpJ7eRMfk2XATEGWg2GpKDfFTJmbQ1mRbMbi9Pvl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid024iNK6sZ8HrVyEBrNSmNXZi6LBq6iJAUrYDnFa2K59ZK9hHfwvhZ483Dd9R4ewuLVl?comment_id=1951209025726720', 'id': 'Y29tbWVudDoxMjQ0MTgxMTc0NDIwNzg2XzE5NTEyMDkwMjU3MjY3MjA=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDE4MTE3NDQyMDc4Nl8xOTUxMjA5MDI1NzI2NzIw', 'date': '2025-10-18T03:55:39.000Z', 'text': 'Deli deli', 'profileUrl': 'https://www.facebook.com/luzmarina.rodriguezrondon.7', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/462128442_2883175915369298_8048828132347884007_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=wN_S-9w5a7wQ7kNvwHzHOub&amp;_nc_oc=AdmipYlTeXbbfUGucWR8-P7GRcV9vYvjXQNP7kBZebEj3090GQ1aIhrvQnguhDSn2wk&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=V850Tvm74pVKF03KanNlwA&amp;oh=00_Afj_ePOmHqK79Qm3xB0E_UqFneutaZaXFtjEYPJr14pCPg&amp;oe=69147546', 'profileId': 'pfbid0tSxJch6kyjWy5RJB67zzdXqb6YQiGtjPzroDK9YDdFJTiM9j5o9bX3RyrNXoCv7pl', 'profileName': 'Luz Marina Rodriguez Rondon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244181174420786', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0N3R82dbJH8TK4stdDiYZPingWQpJ7eRMfk2XATEGWg2GpKDfFTJmbQ1mRbMbi9Pvl'}</t>
         </is>
@@ -789,34 +819,39 @@
           <t>https://www.facebook.com/100064867445065/posts/pfbid0n3r82dbjh8tk4stddiyzpingwqpj7ermfk2xategwg2gpkdfftjmbq1mrbmbi9pvl</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0n3r82dbjh8tk4stddiyzpingwqpj7ermfk2xategwg2gpkdfftjmbq1mrbmbi9pvl</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>Me gusta ese combo 😍💯!!️</t>
         </is>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="H7" s="2" t="n">
         <v>45948.04265046296</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="I7" s="2" t="n">
         <v>45948</v>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>01:01:25</t>
         </is>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>1</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0N3R82dbJH8TK4stdDiYZPingWQpJ7eRMfk2XATEGWg2GpKDfFTJmbQ1mRbMbi9Pvl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid024iNK6sZ8HrVyEBrNSmNXZi6LBq6iJAUrYDnFa2K59ZK9hHfwvhZ483Dd9R4ewuLVl?comment_id=842590628223265', 'id': 'Y29tbWVudDoxMjQ0MTgxMTc0NDIwNzg2Xzg0MjU5MDYyODIyMzI2NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDE4MTE3NDQyMDc4Nl84NDI1OTA2MjgyMjMyNjU=', 'date': '2025-10-18T01:01:25.000Z', 'text': 'Me gusta ese combo 😍💯‼️', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/515263787_24905706092353478_6766726787804716101_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=OBstSFtu53kQ7kNvwHevLmI&amp;_nc_oc=AdnGZEJ-44zf2a5BQ2G8u2QuDn19w8pTUojnQgjRGKLQiPKZfPWOyvEcpFoyZ7BZRkQ&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=V850Tvm74pVKF03KanNlwA&amp;oh=00_AfiL75wfcQdbrZ_56hImNlvTQxywAezyzrzSwQYYgRdvdw&amp;oe=69146DE2', 'profileId': 'pfbid0216gegWpjyneB1sd56XXYNMTzYRFzUugHxW81hVGG5QugGa81KhrEota331khYPJbl', 'profileName': 'Nixon Stalin', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1244181174420786', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0N3R82dbJH8TK4stdDiYZPingWQpJ7eRMfk2XATEGWg2GpKDfFTJmbQ1mRbMbi9Pvl'}</t>
         </is>
@@ -841,34 +876,39 @@
           <t>https://www.facebook.com/reel/793063333529226</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/793063333529226</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>Un saludo para la mama pense que era tu pareja que joven y bella</t>
         </is>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="H8" s="2" t="n">
         <v>45946.96631944444</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="I8" s="2" t="n">
         <v>45946</v>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>23:11:30</t>
         </is>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=1818958738827795', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2XzE4MTg5NTg3Mzg4Mjc3OTU=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl8xODE4OTU4NzM4ODI3Nzk1', 'date': '2025-10-16T23:11:30.000Z', 'text': 'Un saludo para la mama pense que era tu pareja que joven y bella', 'profileUrl': 'https://www.facebook.com/vidal.murillo.98', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t1.6435-1/95821462_706189896796164_1843464276283490304_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=C7srGqj5KboQ7kNvwEgVqgE&amp;_nc_oc=AdlPCeKTUldYJRtfnW0Nx3DrYhMn7DroI7NbWoABYMCWMuWcB1zUVglguJ6PPo2tCI0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_AfgxN5gsJv9ilGNx-E48zhX69trmrKs_DEys3X1xFLsh8A&amp;oe=6935C139', 'profileId': 'pfbid026nPZNNNLjGd8t3CAZyjUr2qLUjSXmDzHYyzs34c9GbXNjoA9f4z5XQVDQy69hyXWl', 'profileName': 'Vidal Murillo', 'likesCount': '1', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
         </is>
@@ -893,34 +933,39 @@
           <t>https://www.facebook.com/reel/793063333529226</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/793063333529226</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>Amén</t>
         </is>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="H9" s="2" t="n">
         <v>45946.49561342593</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="I9" s="2" t="n">
         <v>45946</v>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>11:53:41</t>
         </is>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
-      <c r="L9" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr">
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=752530881138903', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2Xzc1MjUzMDg4MTEzODkwMw==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl83NTI1MzA4ODExMzg5MDM=', 'date': '2025-10-16T11:53:41.000Z', 'text': 'Amén', 'profileUrl': 'https://www.facebook.com/people/Paola-Barrios/pfbid0D9rAsDY4qUYW7B2gUDbLKgGkxDNDTSdKcMEv4YxJcSTzBbijCA5aT9uCpbw2ySq8l/', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/559231836_1880085192904289_6440287088472312909_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=wJ-9Y598aw8Q7kNvwHFu6eY&amp;_nc_oc=AdlverX1dcPk-F9xao5QvJXmdXqFa7sleKv6n75B4pP1SdbyGGBwkYOaUoD5NbPrv1Y&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_AfhRP-U2wZWuKGfGrOej-kFftk_MQoQVWSwjcn2es2wnnA&amp;oe=69143D71', 'profileId': 'pfbid0D9rAsDY4qUYW7B2gUDbLKgGkxDNDTSdKcMEv4YxJcSTzBbijCA5aT9uCpbw2ySq8l', 'profileName': 'Paola Barrios', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
         </is>
@@ -945,34 +990,39 @@
           <t>https://www.facebook.com/reel/793063333529226</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/793063333529226</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>Sean serios q se la pasan ofreciendo cosas  y a la hora no dan nada dejen de montar cosas q no van a regalar</t>
         </is>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="H10" s="2" t="n">
         <v>45945.6658912037</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="I10" s="2" t="n">
         <v>45945</v>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>15:58:53</t>
         </is>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
-      <c r="L10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr">
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=805078185822237', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2XzgwNTA3ODE4NTgyMjIzNw==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl84MDUwNzgxODU4MjIyMzc=', 'date': '2025-10-15T15:58:53.000Z', 'text': 'Sean serios q se la pasan ofreciendo cosas  y a la hora no dan nada dejen de montar cosas q no van a regalar', 'profileUrl': 'https://www.facebook.com/people/Vale-Gonz%C3%A1lez/pfbid02wCjAByNskZ93eBnT7xUjqCsi2wQA9Q7wbfubPCf9xXf5MTKpSe7h29RGs44at8UWl/', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/454549187_122104502066452899_3667558201248221709_n.jpg?stp=c0.96.575.575a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=rYZAx7qJs-AQ7kNvwFrnQ3h&amp;_nc_oc=Adla4UyKhPh57bQ5Ihkmspz_qQCV30I4Z13YTk5iV9OnzV6twrXrSg-xkUksCnOBro4&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_Afg4a9UtVeTO2CPuiVNrazyOtAaBx_VIRm61pVcomubN6Q&amp;oe=69143A52', 'profileId': 'pfbid02wCjAByNskZ93eBnT7xUjqCsi2wQA9Q7wbfubPCf9xXf5MTKpSe7h29RGs44at8UWl', 'profileName': 'Vale González', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
         </is>
@@ -997,34 +1047,39 @@
           <t>https://www.facebook.com/reel/793063333529226</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/793063333529226</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>Sobrino de mi alma el Dios de la gloria te bendiga y bendiga por siempre esa madre maravillosa que tienes un abrazo enorme desde San Pablo sur de Bolivar</t>
         </is>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="H11" s="2" t="n">
         <v>45943.62460648148</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="I11" s="2" t="n">
         <v>45943</v>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>14:59:26</t>
         </is>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>2</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr">
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=1145614760935594', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2XzExNDU2MTQ3NjA5MzU1OTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl8xMTQ1NjE0NzYwOTM1NTk0', 'date': '2025-10-13T14:59:26.000Z', 'text': 'Sobrino de mi alma el Dios de la gloria te bendiga y bendiga por siempre esa madre maravillosa que tienes un abrazo enorme desde San Pablo sur de Bolivar', 'profileUrl': 'https://www.facebook.com/leidis.compartir', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/436926704_122142271370189577_176725195454799216_n.jpg?stp=c7.0.212.212a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RiZn7f5B2D0Q7kNvwFaEddo&amp;_nc_oc=AdmHwcOXKl27Qd6uEKlOa4WaLVKxcf0SZAFAiwWFtGv0z8DtHTRE0ChrvWxmC0X8aws&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_AfifH-IdIG4AIe3mjMtPpm92Fusj9s12A84vUrB9KJZChw&amp;oe=69144592', 'profileId': 'pfbid07TGb7jxGfMuSYSFug7CryiyzpwxVJSxgfyKovF9pez98BsUtq2aXCGwTpw7q97GNl', 'profileName': 'Leidis Compartir', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
         </is>
@@ -1051,40 +1106,45 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>https://www.instagram.com/p/dppxwphjmx2</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>danielapatern</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>🤣🤣</t>
         </is>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="H12" s="2" t="n">
         <v>45940.96381944444</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="I12" s="2" t="n">
         <v>45940</v>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>23:07:54</t>
         </is>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
-      <c r="L12" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" t="inlineStr">
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>https://instagram.com/danielapatern</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>{'postUrl': 'https://www.instagram.com/p/DPpXWpHjMX2/', 'commentUrl': 'https://www.instagram.com/p/DPpXWpHjMX2/c/18540867487016204', 'id': '18540867487016204', 'text': '🤣🤣', 'ownerUsername': 'danielapatern', 'ownerProfilePicUrl': 'https://scontent-dfw5-1.cdninstagram.com/v/t51.82787-19/541612351_18523418065050571_184036140610059517_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=105&amp;ig_cache_key=GD9ZSCDLG8tZ885BAP185RLl040CbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=R4EkPk4AufoQ7kNvwEzMci4&amp;_nc_oc=Adl669Qq3vtuqbOow0hwmmt5HAo8Fpeu87irDof7UxyoGwYcdy9eOmgdW87gy1Afq0M&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.cdninstagram.com&amp;_nc_gid=l950poZa61IiKYtZ6q946A&amp;oh=00_AfjoRWMrTh51_zWzW8066yzkdHDVlNqBWnvDDyaonUanCQ&amp;oe=6914577E', 'timestamp': '2025-10-10T23:07:54.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 0, 'owner': {'fbid_v2': '17841401517104520', 'full_name': 'Daniela Paternina', 'id': '289330570', 'is_mentionable': True, 'is_private': False, 'is_verified': False, 'latest_reel_media': 1762487357, 'profile_pic_id': '3714459010825546529', 'profile_pic_url': 'https://scontent-dfw5-1.cdninstagram.com/v/t51.82787-19/541612351_18523418065050571_184036140610059517_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=105&amp;ig_cache_key=GD9ZSCDLG8tZ885BAP185RLl040CbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=R4EkPk4AufoQ7kNvwEzMci4&amp;_nc_oc=Adl669Qq3vtuqbOow0hwmmt5HAo8Fpeu87irDof7UxyoGwYcdy9eOmgdW87gy1Afq0M&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.cdninstagram.com&amp;_nc_gid=l950poZa61IiKYtZ6q946A&amp;oh=00_AfjoRWMrTh51_zWzW8066yzkdHDVlNqBWnvDDyaonUanCQ&amp;oe=6914577E', 'username': 'danielapatern'}}</t>
         </is>
@@ -1109,26 +1169,31 @@
           <t>https://www.instagram.com/p/dppvc6ujllp</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/dppvc6ujllp</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
         <v>0</v>
       </c>
-      <c r="L13" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" t="inlineStr">
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>https://instagram.com/</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>{'url': 'https://www.instagram.com/p/DPpVC6UjLlp/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
@@ -1153,26 +1218,31 @@
           <t>https://www.instagram.com/p/dpzknf0diqm</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/dpzknf0diqm</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
         <v>0</v>
       </c>
-      <c r="L14" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" t="inlineStr">
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>https://instagram.com/</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>{'url': 'https://www.instagram.com/p/DPzKNF0DIqm/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
@@ -1197,26 +1267,31 @@
           <t>https://www.instagram.com/p/dppxa4uddh4</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/dppxa4uddh4</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
         <v>0</v>
       </c>
-      <c r="L15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" t="inlineStr">
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>https://instagram.com/</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>{'url': 'https://www.instagram.com/p/DPpXA4uDDh4/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -17,9 +17,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -59,12 +61,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,13 +514,18 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>extraction_status</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>created_time_raw</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -531,29 +539,29 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0n3r82dbjh8tk4stddiyzpingwqpj7ermfk2xategwg2gpkdfftjmbq1mrbmbi9pvl</t>
+          <t>https://www.facebook.com/reel/793063333529226</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0n3r82dbjh8tk4stddiyzpingwqpj7ermfk2xategwg2gpkdfftjmbq1mrbmbi9pvl</t>
+          <t>https://www.facebook.com/reel/793063333529226</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Producto ultraprocezad malo para el cuerpo</t>
+          <t>Que. Bello</t>
         </is>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45962.16460648148</v>
+        <v>45953.6134837963</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>45962</v>
+        <v>45953</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>03:57:02</t>
+          <t>14:43:25</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -566,9 +574,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0N3R82dbJH8TK4stdDiYZPingWQpJ7eRMfk2XATEGWg2GpKDfFTJmbQ1mRbMbi9Pvl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid024iNK6sZ8HrVyEBrNSmNXZi6LBq6iJAUrYDnFa2K59ZK9hHfwvhZ483Dd9R4ewuLVl?comment_id=798037796370966', 'id': 'Y29tbWVudDoxMjQ0MTgxMTc0NDIwNzg2Xzc5ODAzNzc5NjM3MDk2Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDE4MTE3NDQyMDc4Nl83OTgwMzc3OTYzNzA5NjY=', 'date': '2025-11-01T03:57:02.000Z', 'text': 'Producto ultraprocezad malo para el cuerpo', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/575852032_25638171419123429_9063773663644836237_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=SqKrDMtiV28Q7kNvwHAcS_1&amp;_nc_oc=AdkLXAXRw2txk8W9s-B3tYrnpZIAWz3trh4LahnoeW6fYR-VXifiVLfHME3q7WvCA8g&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=V850Tvm74pVKF03KanNlwA&amp;oh=00_AfhGOtlSBjbLobMgOwybcGE0OmEimMGFhOlJHaZBHqESBQ&amp;oe=6914553B', 'profileId': 'pfbid054FCEypGgekstw5xQJAuoyotKjDyKtZzP5zRBoDMrWNWVEnpBTHDxDMexYeD5bSXl', 'profileName': 'John Jairo Penagos Maya', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244181174420786', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0N3R82dbJH8TK4stdDiYZPingWQpJ7eRMfk2XATEGWg2GpKDfFTJmbQ1mRbMbi9Pvl'}</t>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=3791301284510271', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2XzM3OTEzMDEyODQ1MTAyNzE=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl8zNzkxMzAxMjg0NTEwMjcx', 'date': '2025-10-23T14:43:25.000Z', 'text': 'Que. Bello', 'profileUrl': 'https://www.facebook.com/nirian.florezbolano', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/565118303_24857507933888832_109722164960286161_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=l6T-j4jDIkoQ7kNvwEYs4lr&amp;_nc_oc=Adlt1PbRo77n9KmCGHGtREYFYElHkoEbqs5QgEg1syzuX3dnKT2MpjFxwEYoh6mF9OE&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_AfiGUBDr5FZ-zB-T6sIcMmvm65icA-XQpACTWExZbE6ZtQ&amp;oe=69143CC7', 'profileId': '100001689060377', 'profileName': 'Nirian Florez Bolaño', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
         </is>
       </c>
     </row>
@@ -599,18 +608,18 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Que. Bello</t>
+          <t>Esa plática se perdió</t>
         </is>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45953.6134837963</v>
+        <v>45951.68020833333</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>45953</v>
+        <v>45951</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>14:43:25</t>
+          <t>16:19:30</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -623,9 +632,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=3791301284510271', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2XzM3OTEzMDEyODQ1MTAyNzE=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl8zNzkxMzAxMjg0NTEwMjcx', 'date': '2025-10-23T14:43:25.000Z', 'text': 'Que. Bello', 'profileUrl': 'https://www.facebook.com/nirian.florezbolano', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/565118303_24857507933888832_109722164960286161_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=l6T-j4jDIkoQ7kNvwEYs4lr&amp;_nc_oc=Adlt1PbRo77n9KmCGHGtREYFYElHkoEbqs5QgEg1syzuX3dnKT2MpjFxwEYoh6mF9OE&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_AfiGUBDr5FZ-zB-T6sIcMmvm65icA-XQpACTWExZbE6ZtQ&amp;oe=69143CC7', 'profileId': '100001689060377', 'profileName': 'Nirian Florez Bolaño', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=1145982617483696', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2XzExNDU5ODI2MTc0ODM2OTY=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl8xMTQ1OTgyNjE3NDgzNjk2', 'date': '2025-10-21T16:19:30.000Z', 'text': 'Esa plática se perdió', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/468066741_10236689396758127_1902211058902317261_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9lqVKeyyWHgQ7kNvwHnUSj9&amp;_nc_oc=AdlC_e3m2tLAGEdrlgMVzcHQL2-jlw5R1PqvO7gl2ejg_eLndFSvSvohIAPnqswY6T0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_Afh1BvMeDV1GqLOvszHMHtnpAEwQaN_vE9mJx49mWZhpVQ&amp;oe=69143CD5', 'profileId': 'pfbid02YDP6xqTZ8Lh2qZQH8Tr6TS5jJ97FwCRvjL6izaiLfZSzUeHh7f3sXkvwA7cWDwivl', 'profileName': 'Vik AN HE', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
         </is>
       </c>
     </row>
@@ -656,18 +666,18 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Esa plática se perdió</t>
+          <t>Que lindos bendiciones</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45951.68020833333</v>
+        <v>45951.56622685185</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>45951</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>16:19:30</t>
+          <t>13:35:22</t>
         </is>
       </c>
       <c r="K4" t="n">
@@ -680,9 +690,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=1145982617483696', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2XzExNDU5ODI2MTc0ODM2OTY=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl8xMTQ1OTgyNjE3NDgzNjk2', 'date': '2025-10-21T16:19:30.000Z', 'text': 'Esa plática se perdió', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/468066741_10236689396758127_1902211058902317261_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9lqVKeyyWHgQ7kNvwHnUSj9&amp;_nc_oc=AdlC_e3m2tLAGEdrlgMVzcHQL2-jlw5R1PqvO7gl2ejg_eLndFSvSvohIAPnqswY6T0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_Afh1BvMeDV1GqLOvszHMHtnpAEwQaN_vE9mJx49mWZhpVQ&amp;oe=69143CD5', 'profileId': 'pfbid02YDP6xqTZ8Lh2qZQH8Tr6TS5jJ97FwCRvjL6izaiLfZSzUeHh7f3sXkvwA7cWDwivl', 'profileName': 'Vik AN HE', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=2008725833006418', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2XzIwMDg3MjU4MzMwMDY0MTg=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl8yMDA4NzI1ODMzMDA2NDE4', 'date': '2025-10-21T13:35:22.000Z', 'text': 'Que lindos bendiciones', 'profileUrl': 'https://www.facebook.com/beatriz.turizo.7', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/323424359_860765595258666_7364400141756221588_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=B3gEGlPcIEMQ7kNvwF7UsOH&amp;_nc_oc=AdmgiJmkYhmHmizbkFno4TlJ5AYFYKKx93x9QP9kCl2S2DCTm8KWSCkNAK9vJYFWSj0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_Afjc7mrAmwMQyF7lYq0tcRU9sKNvvkcAMFHS4xoshQMeJg&amp;oe=691451DE', 'profileId': 'pfbid0AKNuoEYaYw2Mgd3reWzVmNoT8LKtjcd1DPNFjZ1VhPKQySF5tLFwDi9q97F63g2Ml', 'profileName': 'Beatriz Turizo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
         </is>
       </c>
     </row>
@@ -713,22 +724,22 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Que lindos bendiciones</t>
+          <t>Un saludo para la mama pense que era tu pareja que joven y bella</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45951.56622685185</v>
+        <v>45946.96631944444</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>45951</v>
+        <v>45946</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>13:35:22</t>
+          <t>23:11:30</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -737,15 +748,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=2008725833006418', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2XzIwMDg3MjU4MzMwMDY0MTg=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl8yMDA4NzI1ODMzMDA2NDE4', 'date': '2025-10-21T13:35:22.000Z', 'text': 'Que lindos bendiciones', 'profileUrl': 'https://www.facebook.com/beatriz.turizo.7', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/323424359_860765595258666_7364400141756221588_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=B3gEGlPcIEMQ7kNvwF7UsOH&amp;_nc_oc=AdmgiJmkYhmHmizbkFno4TlJ5AYFYKKx93x9QP9kCl2S2DCTm8KWSCkNAK9vJYFWSj0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_Afjc7mrAmwMQyF7lYq0tcRU9sKNvvkcAMFHS4xoshQMeJg&amp;oe=691451DE', 'profileId': 'pfbid0AKNuoEYaYw2Mgd3reWzVmNoT8LKtjcd1DPNFjZ1VhPKQySF5tLFwDi9q97F63g2Ml', 'profileName': 'Beatriz Turizo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=1818958738827795', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2XzE4MTg5NTg3Mzg4Mjc3OTU=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl8xODE4OTU4NzM4ODI3Nzk1', 'date': '2025-10-16T23:11:30.000Z', 'text': 'Un saludo para la mama pense que era tu pareja que joven y bella', 'profileUrl': 'https://www.facebook.com/vidal.murillo.98', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t1.6435-1/95821462_706189896796164_1843464276283490304_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=C7srGqj5KboQ7kNvwEgVqgE&amp;_nc_oc=AdlPCeKTUldYJRtfnW0Nx3DrYhMn7DroI7NbWoABYMCWMuWcB1zUVglguJ6PPo2tCI0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_AfgxN5gsJv9ilGNx-E48zhX69trmrKs_DEys3X1xFLsh8A&amp;oe=6935C139', 'profileId': 'pfbid026nPZNNNLjGd8t3CAZyjUr2qLUjSXmDzHYyzs34c9GbXNjoA9f4z5XQVDQy69hyXWl', 'profileName': 'Vidal Murillo', 'likesCount': '1', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -759,29 +771,29 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0n3r82dbjh8tk4stddiyzpingwqpj7ermfk2xategwg2gpkdfftjmbq1mrbmbi9pvl</t>
+          <t>https://www.facebook.com/reel/793063333529226</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0n3r82dbjh8tk4stddiyzpingwqpj7ermfk2xategwg2gpkdfftjmbq1mrbmbi9pvl</t>
+          <t>https://www.facebook.com/reel/793063333529226</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Deli deli</t>
+          <t>Amén</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45948.16364583333</v>
+        <v>45946.49561342593</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>45948</v>
+        <v>45946</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>03:55:39</t>
+          <t>11:53:41</t>
         </is>
       </c>
       <c r="K6" t="n">
@@ -794,15 +806,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0N3R82dbJH8TK4stdDiYZPingWQpJ7eRMfk2XATEGWg2GpKDfFTJmbQ1mRbMbi9Pvl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid024iNK6sZ8HrVyEBrNSmNXZi6LBq6iJAUrYDnFa2K59ZK9hHfwvhZ483Dd9R4ewuLVl?comment_id=1951209025726720', 'id': 'Y29tbWVudDoxMjQ0MTgxMTc0NDIwNzg2XzE5NTEyMDkwMjU3MjY3MjA=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDE4MTE3NDQyMDc4Nl8xOTUxMjA5MDI1NzI2NzIw', 'date': '2025-10-18T03:55:39.000Z', 'text': 'Deli deli', 'profileUrl': 'https://www.facebook.com/luzmarina.rodriguezrondon.7', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/462128442_2883175915369298_8048828132347884007_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=wN_S-9w5a7wQ7kNvwHzHOub&amp;_nc_oc=AdmipYlTeXbbfUGucWR8-P7GRcV9vYvjXQNP7kBZebEj3090GQ1aIhrvQnguhDSn2wk&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=V850Tvm74pVKF03KanNlwA&amp;oh=00_Afj_ePOmHqK79Qm3xB0E_UqFneutaZaXFtjEYPJr14pCPg&amp;oe=69147546', 'profileId': 'pfbid0tSxJch6kyjWy5RJB67zzdXqb6YQiGtjPzroDK9YDdFJTiM9j5o9bX3RyrNXoCv7pl', 'profileName': 'Luz Marina Rodriguez Rondon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244181174420786', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0N3R82dbJH8TK4stdDiYZPingWQpJ7eRMfk2XATEGWg2GpKDfFTJmbQ1mRbMbi9Pvl'}</t>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=752530881138903', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2Xzc1MjUzMDg4MTEzODkwMw==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl83NTI1MzA4ODExMzg5MDM=', 'date': '2025-10-16T11:53:41.000Z', 'text': 'Amén', 'profileUrl': 'https://www.facebook.com/people/Paola-Barrios/pfbid0D9rAsDY4qUYW7B2gUDbLKgGkxDNDTSdKcMEv4YxJcSTzBbijCA5aT9uCpbw2ySq8l/', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/559231836_1880085192904289_6440287088472312909_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=wJ-9Y598aw8Q7kNvwHFu6eY&amp;_nc_oc=AdlverX1dcPk-F9xao5QvJXmdXqFa7sleKv6n75B4pP1SdbyGGBwkYOaUoD5NbPrv1Y&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_AfhRP-U2wZWuKGfGrOej-kFftk_MQoQVWSwjcn2es2wnnA&amp;oe=69143D71', 'profileId': 'pfbid0D9rAsDY4qUYW7B2gUDbLKgGkxDNDTSdKcMEv4YxJcSTzBbijCA5aT9uCpbw2ySq8l', 'profileName': 'Paola Barrios', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -816,33 +829,33 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0n3r82dbjh8tk4stddiyzpingwqpj7ermfk2xategwg2gpkdfftjmbq1mrbmbi9pvl</t>
+          <t>https://www.facebook.com/reel/793063333529226</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0n3r82dbjh8tk4stddiyzpingwqpj7ermfk2xategwg2gpkdfftjmbq1mrbmbi9pvl</t>
+          <t>https://www.facebook.com/reel/793063333529226</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Me gusta ese combo 😍💯!!️</t>
+          <t>Sean serios q se la pasan ofreciendo cosas  y a la hora no dan nada dejen de montar cosas q no van a regalar</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45948.04265046296</v>
+        <v>45945.6658912037</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>45948</v>
+        <v>45945</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>01:01:25</t>
+          <t>15:58:53</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -851,9 +864,10 @@
         <v>0</v>
       </c>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0N3R82dbJH8TK4stdDiYZPingWQpJ7eRMfk2XATEGWg2GpKDfFTJmbQ1mRbMbi9Pvl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid024iNK6sZ8HrVyEBrNSmNXZi6LBq6iJAUrYDnFa2K59ZK9hHfwvhZ483Dd9R4ewuLVl?comment_id=842590628223265', 'id': 'Y29tbWVudDoxMjQ0MTgxMTc0NDIwNzg2Xzg0MjU5MDYyODIyMzI2NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDE4MTE3NDQyMDc4Nl84NDI1OTA2MjgyMjMyNjU=', 'date': '2025-10-18T01:01:25.000Z', 'text': 'Me gusta ese combo 😍💯‼️', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/515263787_24905706092353478_6766726787804716101_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=OBstSFtu53kQ7kNvwHevLmI&amp;_nc_oc=AdnGZEJ-44zf2a5BQ2G8u2QuDn19w8pTUojnQgjRGKLQiPKZfPWOyvEcpFoyZ7BZRkQ&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=V850Tvm74pVKF03KanNlwA&amp;oh=00_AfiL75wfcQdbrZ_56hImNlvTQxywAezyzrzSwQYYgRdvdw&amp;oe=69146DE2', 'profileId': 'pfbid0216gegWpjyneB1sd56XXYNMTzYRFzUugHxW81hVGG5QugGa81KhrEota331khYPJbl', 'profileName': 'Nixon Stalin', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1244181174420786', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0N3R82dbJH8TK4stdDiYZPingWQpJ7eRMfk2XATEGWg2GpKDfFTJmbQ1mRbMbi9Pvl'}</t>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=805078185822237', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2XzgwNTA3ODE4NTgyMjIzNw==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl84MDUwNzgxODU4MjIyMzc=', 'date': '2025-10-15T15:58:53.000Z', 'text': 'Sean serios q se la pasan ofreciendo cosas  y a la hora no dan nada dejen de montar cosas q no van a regalar', 'profileUrl': 'https://www.facebook.com/people/Vale-Gonz%C3%A1lez/pfbid02wCjAByNskZ93eBnT7xUjqCsi2wQA9Q7wbfubPCf9xXf5MTKpSe7h29RGs44at8UWl/', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/454549187_122104502066452899_3667558201248221709_n.jpg?stp=c0.96.575.575a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=rYZAx7qJs-AQ7kNvwFrnQ3h&amp;_nc_oc=Adla4UyKhPh57bQ5Ihkmspz_qQCV30I4Z13YTk5iV9OnzV6twrXrSg-xkUksCnOBro4&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_Afg4a9UtVeTO2CPuiVNrazyOtAaBx_VIRm61pVcomubN6Q&amp;oe=69143A52', 'profileId': 'pfbid02wCjAByNskZ93eBnT7xUjqCsi2wQA9Q7wbfubPCf9xXf5MTKpSe7h29RGs44at8UWl', 'profileName': 'Vale González', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
         </is>
       </c>
     </row>
@@ -884,22 +898,22 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Un saludo para la mama pense que era tu pareja que joven y bella</t>
+          <t>Sobrino de mi alma el Dios de la gloria te bendiga y bendiga por siempre esa madre maravillosa que tienes un abrazo enorme desde San Pablo sur de Bolivar</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45946.96631944444</v>
+        <v>45943.62460648148</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>45946</v>
+        <v>45943</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>23:11:30</t>
+          <t>14:59:26</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -908,19 +922,20 @@
         <v>0</v>
       </c>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=1818958738827795', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2XzE4MTg5NTg3Mzg4Mjc3OTU=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl8xODE4OTU4NzM4ODI3Nzk1', 'date': '2025-10-16T23:11:30.000Z', 'text': 'Un saludo para la mama pense que era tu pareja que joven y bella', 'profileUrl': 'https://www.facebook.com/vidal.murillo.98', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t1.6435-1/95821462_706189896796164_1843464276283490304_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=C7srGqj5KboQ7kNvwEgVqgE&amp;_nc_oc=AdlPCeKTUldYJRtfnW0Nx3DrYhMn7DroI7NbWoABYMCWMuWcB1zUVglguJ6PPo2tCI0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_AfgxN5gsJv9ilGNx-E48zhX69trmrKs_DEys3X1xFLsh8A&amp;oe=6935C139', 'profileId': 'pfbid026nPZNNNLjGd8t3CAZyjUr2qLUjSXmDzHYyzs34c9GbXNjoA9f4z5XQVDQy69hyXWl', 'profileName': 'Vidal Murillo', 'likesCount': '1', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=1145614760935594', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2XzExNDU2MTQ3NjA5MzU1OTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl8xMTQ1NjE0NzYwOTM1NTk0', 'date': '2025-10-13T14:59:26.000Z', 'text': 'Sobrino de mi alma el Dios de la gloria te bendiga y bendiga por siempre esa madre maravillosa que tienes un abrazo enorme desde San Pablo sur de Bolivar', 'profileUrl': 'https://www.facebook.com/leidis.compartir', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/436926704_122142271370189577_176725195454799216_n.jpg?stp=c7.0.212.212a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RiZn7f5B2D0Q7kNvwFaEddo&amp;_nc_oc=AdmHwcOXKl27Qd6uEKlOa4WaLVKxcf0SZAFAiwWFtGv0z8DtHTRE0ChrvWxmC0X8aws&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_AfifH-IdIG4AIe3mjMtPpm92Fusj9s12A84vUrB9KJZChw&amp;oe=69144592', 'profileId': 'pfbid07TGb7jxGfMuSYSFug7CryiyzpwxVJSxgfyKovF9pez98BsUtq2aXCGwTpw7q97GNl', 'profileName': 'Leidis Compartir', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -930,29 +945,33 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/reel/793063333529226</t>
+          <t>https://www.instagram.com/p/dppxwphjmx2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/reel/793063333529226</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+          <t>https://www.instagram.com/p/dppxwphjmx2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>danielapatern</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Amén</t>
+          <t>🤣🤣</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45946.49561342593</v>
+        <v>45940.96381944444</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>45946</v>
+        <v>45940</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>11:53:41</t>
+          <t>23:07:54</t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -964,20 +983,25 @@
       <c r="M9" t="b">
         <v>0</v>
       </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=752530881138903', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2Xzc1MjUzMDg4MTEzODkwMw==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl83NTI1MzA4ODExMzg5MDM=', 'date': '2025-10-16T11:53:41.000Z', 'text': 'Amén', 'profileUrl': 'https://www.facebook.com/people/Paola-Barrios/pfbid0D9rAsDY4qUYW7B2gUDbLKgGkxDNDTSdKcMEv4YxJcSTzBbijCA5aT9uCpbw2ySq8l/', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/559231836_1880085192904289_6440287088472312909_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=wJ-9Y598aw8Q7kNvwHFu6eY&amp;_nc_oc=AdlverX1dcPk-F9xao5QvJXmdXqFa7sleKv6n75B4pP1SdbyGGBwkYOaUoD5NbPrv1Y&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_AfhRP-U2wZWuKGfGrOej-kFftk_MQoQVWSwjcn2es2wnnA&amp;oe=69143D71', 'profileId': 'pfbid0D9rAsDY4qUYW7B2gUDbLKgGkxDNDTSdKcMEv4YxJcSTzBbijCA5aT9uCpbw2ySq8l', 'profileName': 'Paola Barrios', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>https://instagram.com/danielapatern</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DPpXWpHjMX2/', 'commentUrl': 'https://www.instagram.com/p/DPpXWpHjMX2/c/18540867487016204', 'id': '18540867487016204', 'text': '🤣🤣', 'ownerUsername': 'danielapatern', 'ownerProfilePicUrl': 'https://scontent-dfw5-1.cdninstagram.com/v/t51.82787-19/541612351_18523418065050571_184036140610059517_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=105&amp;ig_cache_key=GD9ZSCDLG8tZ885BAP185RLl040CbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=R4EkPk4AufoQ7kNvwEzMci4&amp;_nc_oc=Adl669Qq3vtuqbOow0hwmmt5HAo8Fpeu87irDof7UxyoGwYcdy9eOmgdW87gy1Afq0M&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.cdninstagram.com&amp;_nc_gid=l950poZa61IiKYtZ6q946A&amp;oh=00_AfjoRWMrTh51_zWzW8066yzkdHDVlNqBWnvDDyaonUanCQ&amp;oe=6914577E', 'timestamp': '2025-10-10T23:07:54.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 0, 'owner': {'fbid_v2': '17841401517104520', 'full_name': 'Daniela Paternina', 'id': '289330570', 'is_mentionable': True, 'is_private': False, 'is_verified': False, 'latest_reel_media': 1762487357, 'profile_pic_id': '3714459010825546529', 'profile_pic_url': 'https://scontent-dfw5-1.cdninstagram.com/v/t51.82787-19/541612351_18523418065050571_184036140610059517_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=105&amp;ig_cache_key=GD9ZSCDLG8tZ885BAP185RLl040CbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=R4EkPk4AufoQ7kNvwEzMci4&amp;_nc_oc=Adl669Qq3vtuqbOow0hwmmt5HAo8Fpeu87irDof7UxyoGwYcdy9eOmgdW87gy1Afq0M&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.cdninstagram.com&amp;_nc_gid=l950poZa61IiKYtZ6q946A&amp;oh=00_AfjoRWMrTh51_zWzW8066yzkdHDVlNqBWnvDDyaonUanCQ&amp;oe=6914577E', 'username': 'danielapatern'}}</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -987,31 +1011,19 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/reel/793063333529226</t>
+          <t>https://www.instagram.com/p/dppvc6ujllp</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/reel/793063333529226</t>
+          <t>https://www.instagram.com/p/dppvc6ujllp</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Sean serios q se la pasan ofreciendo cosas  y a la hora no dan nada dejen de montar cosas q no van a regalar</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>45945.6658912037</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>45945</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>15:58:53</t>
-        </is>
-      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
         <v>0</v>
       </c>
@@ -1021,20 +1033,29 @@
       <c r="M10" t="b">
         <v>0</v>
       </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=805078185822237', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2XzgwNTA3ODE4NTgyMjIzNw==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl84MDUwNzgxODU4MjIyMzc=', 'date': '2025-10-15T15:58:53.000Z', 'text': 'Sean serios q se la pasan ofreciendo cosas  y a la hora no dan nada dejen de montar cosas q no van a regalar', 'profileUrl': 'https://www.facebook.com/people/Vale-Gonz%C3%A1lez/pfbid02wCjAByNskZ93eBnT7xUjqCsi2wQA9Q7wbfubPCf9xXf5MTKpSe7h29RGs44at8UWl/', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/454549187_122104502066452899_3667558201248221709_n.jpg?stp=c0.96.575.575a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=rYZAx7qJs-AQ7kNvwFrnQ3h&amp;_nc_oc=Adla4UyKhPh57bQ5Ihkmspz_qQCV30I4Z13YTk5iV9OnzV6twrXrSg-xkUksCnOBro4&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_Afg4a9UtVeTO2CPuiVNrazyOtAaBx_VIRm61pVcomubN6Q&amp;oe=69143A52', 'profileId': 'pfbid02wCjAByNskZ93eBnT7xUjqCsi2wQA9Q7wbfubPCf9xXf5MTKpSe7h29RGs44at8UWl', 'profileName': 'Vale González', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
+          <t>NO_COMMENTS</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DPpVC6UjLlp/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1044,33 +1065,21 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/reel/793063333529226</t>
+          <t>https://www.instagram.com/p/dpzknf0diqm</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/reel/793063333529226</t>
+          <t>https://www.instagram.com/p/dpzknf0diqm</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Sobrino de mi alma el Dios de la gloria te bendiga y bendiga por siempre esa madre maravillosa que tienes un abrazo enorme desde San Pablo sur de Bolivar</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>45943.62460648148</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>45943</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>14:59:26</t>
-        </is>
-      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1078,20 +1087,29 @@
       <c r="M11" t="b">
         <v>0</v>
       </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/793063333529226', 'commentUrl': 'https://www.facebook.com/reel/793063333529226/?comment_id=1145614760935594', 'id': 'Y29tbWVudDoxMjQ0MjA0NTc0NDE4NDQ2XzExNDU2MTQ3NjA5MzU1OTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwNDU3NDQxODQ0Nl8xMTQ1NjE0NzYwOTM1NTk0', 'date': '2025-10-13T14:59:26.000Z', 'text': 'Sobrino de mi alma el Dios de la gloria te bendiga y bendiga por siempre esa madre maravillosa que tienes un abrazo enorme desde San Pablo sur de Bolivar', 'profileUrl': 'https://www.facebook.com/leidis.compartir', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/436926704_122142271370189577_176725195454799216_n.jpg?stp=c7.0.212.212a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RiZn7f5B2D0Q7kNvwFaEddo&amp;_nc_oc=AdmHwcOXKl27Qd6uEKlOa4WaLVKxcf0SZAFAiwWFtGv0z8DtHTRE0ChrvWxmC0X8aws&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=kl03MC1Xy9Hh6m8EiUqcAA&amp;oh=00_AfifH-IdIG4AIe3mjMtPpm92Fusj9s12A84vUrB9KJZChw&amp;oe=69144592', 'profileId': 'pfbid07TGb7jxGfMuSYSFug7CryiyzpwxVJSxgfyKovF9pez98BsUtq2aXCGwTpw7q97GNl', 'profileName': 'Leidis Compartir', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1244204574418446', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/793063333529226'}</t>
+          <t>NO_COMMENTS</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DPzKNF0DIqm/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1101,33 +1119,29 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/dppxwphjmx2</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0n3r82dbjh8tk4stddiyzpingwqpj7ermfk2xategwg2gpkdfftjmbq1mrbmbi9pvl</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/dppxwphjmx2</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>danielapatern</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0n3r82dbjh8tk4stddiyzpingwqpj7ermfk2xategwg2gpkdfftjmbq1mrbmbi9pvl</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>🤣🤣</t>
+          <t>Producto ultraprocezad malo para el cuerpo</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45940.96381944444</v>
+        <v>45962.16460648148</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>45940</v>
+        <v>45962</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>23:07:54</t>
+          <t>03:57:02</t>
         </is>
       </c>
       <c r="K12" t="n">
@@ -1139,24 +1153,21 @@
       <c r="M12" t="b">
         <v>0</v>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>https://instagram.com/danielapatern</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DPpXWpHjMX2/', 'commentUrl': 'https://www.instagram.com/p/DPpXWpHjMX2/c/18540867487016204', 'id': '18540867487016204', 'text': '🤣🤣', 'ownerUsername': 'danielapatern', 'ownerProfilePicUrl': 'https://scontent-dfw5-1.cdninstagram.com/v/t51.82787-19/541612351_18523418065050571_184036140610059517_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=105&amp;ig_cache_key=GD9ZSCDLG8tZ885BAP185RLl040CbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=R4EkPk4AufoQ7kNvwEzMci4&amp;_nc_oc=Adl669Qq3vtuqbOow0hwmmt5HAo8Fpeu87irDof7UxyoGwYcdy9eOmgdW87gy1Afq0M&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.cdninstagram.com&amp;_nc_gid=l950poZa61IiKYtZ6q946A&amp;oh=00_AfjoRWMrTh51_zWzW8066yzkdHDVlNqBWnvDDyaonUanCQ&amp;oe=6914577E', 'timestamp': '2025-10-10T23:07:54.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 0, 'owner': {'fbid_v2': '17841401517104520', 'full_name': 'Daniela Paternina', 'id': '289330570', 'is_mentionable': True, 'is_private': False, 'is_verified': False, 'latest_reel_media': 1762487357, 'profile_pic_id': '3714459010825546529', 'profile_pic_url': 'https://scontent-dfw5-1.cdninstagram.com/v/t51.82787-19/541612351_18523418065050571_184036140610059517_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=105&amp;ig_cache_key=GD9ZSCDLG8tZ885BAP185RLl040CbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=R4EkPk4AufoQ7kNvwEzMci4&amp;_nc_oc=Adl669Qq3vtuqbOow0hwmmt5HAo8Fpeu87irDof7UxyoGwYcdy9eOmgdW87gy1Afq0M&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.cdninstagram.com&amp;_nc_gid=l950poZa61IiKYtZ6q946A&amp;oh=00_AfjoRWMrTh51_zWzW8066yzkdHDVlNqBWnvDDyaonUanCQ&amp;oe=6914577E', 'username': 'danielapatern'}}</t>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0N3R82dbJH8TK4stdDiYZPingWQpJ7eRMfk2XATEGWg2GpKDfFTJmbQ1mRbMbi9Pvl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid024iNK6sZ8HrVyEBrNSmNXZi6LBq6iJAUrYDnFa2K59ZK9hHfwvhZ483Dd9R4ewuLVl?comment_id=798037796370966', 'id': 'Y29tbWVudDoxMjQ0MTgxMTc0NDIwNzg2Xzc5ODAzNzc5NjM3MDk2Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDE4MTE3NDQyMDc4Nl83OTgwMzc3OTYzNzA5NjY=', 'date': '2025-11-01T03:57:02.000Z', 'text': 'Producto ultraprocezad malo para el cuerpo', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/575852032_25638171419123429_9063773663644836237_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=SqKrDMtiV28Q7kNvwHAcS_1&amp;_nc_oc=AdkLXAXRw2txk8W9s-B3tYrnpZIAWz3trh4LahnoeW6fYR-VXifiVLfHME3q7WvCA8g&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=V850Tvm74pVKF03KanNlwA&amp;oh=00_AfhGOtlSBjbLobMgOwybcGE0OmEimMGFhOlJHaZBHqESBQ&amp;oe=6914553B', 'profileId': 'pfbid054FCEypGgekstw5xQJAuoyotKjDyKtZzP5zRBoDMrWNWVEnpBTHDxDMexYeD5bSXl', 'profileName': 'John Jairo Penagos Maya', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244181174420786', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0N3R82dbJH8TK4stdDiYZPingWQpJ7eRMfk2XATEGWg2GpKDfFTJmbQ1mRbMbi9Pvl'}</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1166,19 +1177,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/dppvc6ujllp</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0n3r82dbjh8tk4stddiyzpingwqpj7ermfk2xategwg2gpkdfftjmbq1mrbmbi9pvl</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/dppvc6ujllp</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0n3r82dbjh8tk4stddiyzpingwqpj7ermfk2xategwg2gpkdfftjmbq1mrbmbi9pvl</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Deli deli</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>45948.16364583333</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>45948</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>03:55:39</t>
+        </is>
+      </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
@@ -1188,24 +1211,21 @@
       <c r="M13" t="b">
         <v>0</v>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>{'url': 'https://www.instagram.com/p/DPpVC6UjLlp/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0N3R82dbJH8TK4stdDiYZPingWQpJ7eRMfk2XATEGWg2GpKDfFTJmbQ1mRbMbi9Pvl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid024iNK6sZ8HrVyEBrNSmNXZi6LBq6iJAUrYDnFa2K59ZK9hHfwvhZ483Dd9R4ewuLVl?comment_id=1951209025726720', 'id': 'Y29tbWVudDoxMjQ0MTgxMTc0NDIwNzg2XzE5NTEyMDkwMjU3MjY3MjA=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDE4MTE3NDQyMDc4Nl8xOTUxMjA5MDI1NzI2NzIw', 'date': '2025-10-18T03:55:39.000Z', 'text': 'Deli deli', 'profileUrl': 'https://www.facebook.com/luzmarina.rodriguezrondon.7', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/462128442_2883175915369298_8048828132347884007_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=wN_S-9w5a7wQ7kNvwHzHOub&amp;_nc_oc=AdmipYlTeXbbfUGucWR8-P7GRcV9vYvjXQNP7kBZebEj3090GQ1aIhrvQnguhDSn2wk&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=V850Tvm74pVKF03KanNlwA&amp;oh=00_Afj_ePOmHqK79Qm3xB0E_UqFneutaZaXFtjEYPJr14pCPg&amp;oe=69147546', 'profileId': 'pfbid0tSxJch6kyjWy5RJB67zzdXqb6YQiGtjPzroDK9YDdFJTiM9j5o9bX3RyrNXoCv7pl', 'profileName': 'Luz Marina Rodriguez Rondon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244181174420786', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0N3R82dbJH8TK4stdDiYZPingWQpJ7eRMfk2XATEGWg2GpKDfFTJmbQ1mRbMbi9Pvl'}</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1215,21 +1235,33 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/dpzknf0diqm</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0n3r82dbjh8tk4stddiyzpingwqpj7ermfk2xategwg2gpkdfftjmbq1mrbmbi9pvl</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/dpzknf0diqm</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0n3r82dbjh8tk4stddiyzpingwqpj7ermfk2xategwg2gpkdfftjmbq1mrbmbi9pvl</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Me gusta ese combo 😍💯!!️</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>45948.04265046296</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>45948</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>01:01:25</t>
+        </is>
+      </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1237,14 +1269,11 @@
       <c r="M14" t="b">
         <v>0</v>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>{'url': 'https://www.instagram.com/p/DPzKNF0DIqm/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0N3R82dbJH8TK4stdDiYZPingWQpJ7eRMfk2XATEGWg2GpKDfFTJmbQ1mRbMbi9Pvl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid024iNK6sZ8HrVyEBrNSmNXZi6LBq6iJAUrYDnFa2K59ZK9hHfwvhZ483Dd9R4ewuLVl?comment_id=842590628223265', 'id': 'Y29tbWVudDoxMjQ0MTgxMTc0NDIwNzg2Xzg0MjU5MDYyODIyMzI2NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDE4MTE3NDQyMDc4Nl84NDI1OTA2MjgyMjMyNjU=', 'date': '2025-10-18T01:01:25.000Z', 'text': 'Me gusta ese combo 😍💯‼️', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/515263787_24905706092353478_6766726787804716101_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=OBstSFtu53kQ7kNvwHevLmI&amp;_nc_oc=AdnGZEJ-44zf2a5BQ2G8u2QuDn19w8pTUojnQgjRGKLQiPKZfPWOyvEcpFoyZ7BZRkQ&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=V850Tvm74pVKF03KanNlwA&amp;oh=00_AfiL75wfcQdbrZ_56hImNlvTQxywAezyzrzSwQYYgRdvdw&amp;oe=69146DE2', 'profileId': 'pfbid0216gegWpjyneB1sd56XXYNMTzYRFzUugHxW81hVGG5QugGa81KhrEota331khYPJbl', 'profileName': 'Nixon Stalin', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1244181174420786', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0N3R82dbJH8TK4stdDiYZPingWQpJ7eRMfk2XATEGWg2GpKDfFTJmbQ1mRbMbi9Pvl'}</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1322,964 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
+          <t>NO_COMMENTS</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
           <t>{'url': 'https://www.instagram.com/p/DPpXA4uDDh4/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>7</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSynjCxPs/</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSynjCxPs/</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>8</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1260808236091413/</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1260808236091413/</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>9</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Mucho viejo cacorro, vaya a llorar a la casa joda creen que con eso van a solucionar las cosas , ya es clavo pasao</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>45980.47052083333</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>45980</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>11:17:33</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02U7XcjxEvjUVdMPmUPkRbMzgvUFTGVtrt2dpwWza32RHnngNsM5fHkdUBaDuGDf9nl?comment_id=1148609350320027', 'id': 'Y29tbWVudDoxMjc0MDA1NzQ4MTA0OTk1XzExNDg2MDkzNTAzMjAwMjc=', 'feedbackId': 'ZmVlZGJhY2s6MTI3NDAwNTc0ODEwNDk5NV8xMTQ4NjA5MzUwMzIwMDI3', 'date': '2025-11-19T11:17:33.000Z', 'text': 'Mucho viejo cacorro,</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>9</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Total el ke no sirve que no estorbe 🫩😁😁😁</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>45978.74142361111</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>45978</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>17:47:39</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02U7XcjxEvjUVdMPmUPkRbMzgvUFTGVtrt2dpwWza32RHnngNsM5fHkdUBaDuGDf9nl?comment_id=1523281158961050', 'id': 'Y29tbWVudDoxMjc0MDA1NzQ4MTA0OTk1XzE1MjMyODExNTg5NjEwNTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI3NDAwNTc0ODEwNDk5NV8xNTIzMjgxMTU4OTYxMDUw', 'date': '2025-11-17T17:47:39.000Z', 'text': 'Total el ke no sirve</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>10</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Estoy de acuerdo unos se comen las verdes y otros las maduras</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>45977.11752314815</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>45977</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>02:49:14</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0EAq2YRKyazQTBigkoUr2bdpEG8aT2d8smWCqLMbFSRc1oe5FPKMEKJpHZhyM6wjQl?comment_id=847519371075258', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1Xzg0NzUxOTM3MTA3NTI1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV84NDc1MTkzNzEwNzUyNTg=', 'date': '2025-11-16T02:49:14.000Z', 'text': 'Estoy de acuerdo unos s</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Qeee titi dijo una amiga mía jejejeje</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>45974.1278125</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>45974</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>03:04:03</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0EAq2YRKyazQTBigkoUr2bdpEG8aT2d8smWCqLMbFSRc1oe5FPKMEKJpHZhyM6wjQl?comment_id=1207180104642809', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1XzEyMDcxODAxMDQ2NDI4MDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV8xMjA3MTgwMTA0NjQyODA5', 'date': '2025-11-13T03:04:03.000Z', 'text': 'Qeee titi dijo una ami</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>11</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>El mejor Probiótico</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>45971.41180555556</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>45971</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>09:53:00</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=1220441243230897', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzEyMjA0NDEyNDMyMzA4OTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8xMjIwNDQxMjQzMjMwODk3', 'date': '2025-11-10T09:53:00.000Z', 'text': 'El mejor Probiótico'</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>11</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Igual que los anteriores</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>45969.86098379629</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>45969</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>20:39:49</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=2124276584648076', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzIxMjQyNzY1ODQ2NDgwNzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8yMTI0Mjc2NTg0NjQ4MDc2', 'date': '2025-11-08T20:39:49.000Z', 'text': 'Igual que los anteri</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>11</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Pues algo túvo que Aser le él cuando eya rrasiono así aver hombre cuando un hombre Caba con la vida dé una mujer poque ustedes no le dan tanta i portasia. Ihora sí sí los hombres cada rrato acaban con la vida dé la mujer entosse</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>45969.62359953704</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <v>45969</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>14:57:59</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=834542738933427', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzgzNDU0MjczODkzMzQyNw==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF84MzQ1NDI3Mzg5MzM0Mjc=', 'date': '2025-11-08T14:57:59.000Z', 'text': 'Pues algo túvo que As</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>12</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQHedmRjHLo/</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQHedmRjHLo/</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>13</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>matiasarturoromo</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Que mieldaaa</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>45970.1875</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>45970</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>04:30:00</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>https://instagram.com/matiasarturoromo</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18098144245606945', 'id': '18098144245606945', 'text': 'Que mieldaaa', 'ownerUsername': 'matiasarturoromo', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.82787-19/573473903_17898280404321112_6966858402340948994_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=103&amp;ig_cache_key=GG_ELiJYA5clZJY-AAJM_g-OQK9gbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>13</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>camilavalenzcaro443</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Holaa</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>45968.94402777778</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>45968</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>22:39:24</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>https://instagram.com/camilavalenzcaro443</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18034059335512099', 'id': '18034059335512099', 'text': 'Holaa', 'ownerUsername': 'camilavalenzcaro443', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.82787-19/565042982_17921020101158101_7888790515073166009_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GCbfrSHVZCSlEqs-ALkqaEYtnXptbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>13</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>camilavalenzcaro443</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Amiga linda te quiero</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>45968.94396990741</v>
+      </c>
+      <c r="I28" s="3" t="n">
+        <v>45968</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>22:39:19</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>https://instagram.com/camilavalenzcaro443</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18285197614263782', 'id': '18285197614263782', 'text': 'Amiga linda te quiero', 'ownerUsername': 'camilavalenzcaro443', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.82787-19/565042982_17921020101158101_7888790515073166009_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GCbfrSHVZCSlEqs-ALkqaEYtnXptbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=66</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>13</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>yamilemorenoporras</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Siempre escogemos alpina para la lonchera de nuestros chiquis, y para .mi un rico arequipe con quesito</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>45968.88957175926</v>
+      </c>
+      <c r="I29" s="3" t="n">
+        <v>45968</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>21:20:59</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="b">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>https://instagram.com/yamilemorenoporras</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18042448463682848', 'id': '18042448463682848', 'text': 'Siempre escogemos alpina para la lonchera de nuestros chiquis, y para .mi un rico arequipe con quesito', 'ownerUsername': 'yamilemorenoporras', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.89012-19/573323465_1219825463302212_7278921664109726296_n.png?stp=dst-webp_s150x150&amp;_nc_cat=1&amp;ig_cache_key</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>13</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>lizcano.z</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Los preferidos de mi chiqui le encantan los Dinos</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>45968.86053240741</v>
+      </c>
+      <c r="I30" s="3" t="n">
+        <v>45968</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>20:39:10</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>https://instagram.com/lizcano.z</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18144953131380182', 'id': '18144953131380182', 'text': 'Los preferidos de mi chiqui le encantan los Dinos', 'ownerUsername': 'lizcano.z', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.2885-19/332621657_6410209482345828_4629360806061933546_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GFln0xNkjSEzDcYWAOoDcC4gyz5AbkULAAAB1501500j-ccb7-5&amp;cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>13</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>renecorrea6600</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Yo compro muchos yogoyogo y la gelatina y el yogurt de bolsita y me encantaría que me mande una caja con todos los yogures 🙏 me encanta los yogures</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>45965.13641203703</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>03:16:26</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>https://instagram.com/renecorrea6600</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18069384506600468', 'id': '18069384506600468', 'text': 'Yo compro muchos yogoyogo y la gelatina y el yogurt de bolsita y me encantaría que me mande una caja con todos los yogures 🙏 me encanta los yogures', 'ownerUsername': 'renecorrea6600', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.2885-19/285767721_387465060107593_8753498132828513536_n.jpg?stp=d</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>13</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>liebe_sheibe</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Quiero uno y no encuentro los yogures se agotaron muy rápido yo quería uno,😣😕</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>45962.07112268519</v>
+      </c>
+      <c r="I32" s="3" t="n">
+        <v>45962</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>01:42:25</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="b">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>https://instagram.com/liebe_sheibe</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18079566332513278', 'id': '18079566332513278', 'text': 'Quiero uno y no encuentro los yogures se agotaron muy rápido yo quería uno,😣😕', 'ownerUsername': 'liebe_sheibe', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.89012-19/573323465_1219825463302212_7278921664109726296_n.png?stp=dst-webp_s150x150&amp;_nc_cat=1&amp;ig_cache_key=YW5vbnltb3VzX3Byb2ZpbGVfcGlj.3</t>
         </is>
       </c>
     </row>
@@ -1308,7 +2294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1342,6 +2328,16 @@
           <t>Total_Likes</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Primera_Extraccion</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Ultima_Extraccion</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1363,6 +2359,12 @@
       <c r="E2" t="n">
         <v>3</v>
       </c>
+      <c r="F2" s="2" t="n">
+        <v>45943.62460648148</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>45953.6134837963</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1384,6 +2386,12 @@
       <c r="E3" t="n">
         <v>0</v>
       </c>
+      <c r="F3" s="2" t="n">
+        <v>45940.96381944444</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>45940.96381944444</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1405,6 +2413,8 @@
       <c r="E4" t="n">
         <v>0</v>
       </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1426,6 +2436,8 @@
       <c r="E5" t="n">
         <v>0</v>
       </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1447,6 +2459,12 @@
       <c r="E6" t="n">
         <v>1</v>
       </c>
+      <c r="F6" s="2" t="n">
+        <v>45948.04265046296</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>45962.16460648148</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1467,6 +2485,191 @@
       </c>
       <c r="E7" t="n">
         <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSynjCxPs/</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1260808236091413/</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>45978.74142361111</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>45980.47052083333</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>45974.1278125</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>45977.11752314815</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>45969.62359953704</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>45971.41180555556</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQHedmRjHLo/</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>7</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>45962.07112268519</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>45970.1875</v>
       </c>
     </row>
   </sheetData>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Comentarios" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Resumen_Posts" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1444,7 +1443,7 @@
       <c r="H18" s="2" t="n">
         <v>45980.47052083333</v>
       </c>
-      <c r="I18" s="3" t="n">
+      <c r="I18" s="2" t="n">
         <v>45980</v>
       </c>
       <c r="J18" t="inlineStr">
@@ -1452,10 +1451,8 @@
           <t>11:17:33</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K18" t="n">
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1494,18 +1491,18 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Total el ke no sirve que no estorbe 🫩😁😁😁</t>
+          <t>Mucho viejo cacorro, vaya a llorar a la casa joda creen que con eso van a solucionar las cosas , ya es clavo pasao</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45978.74142361111</v>
+        <v>45980.47052083333</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>45978</v>
+        <v>45980</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>17:47:39</t>
+          <t>11:17:33</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1523,13 +1520,13 @@
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02U7XcjxEvjUVdMPmUPkRbMzgvUFTGVtrt2dpwWza32RHnngNsM5fHkdUBaDuGDf9nl?comment_id=1523281158961050', 'id': 'Y29tbWVudDoxMjc0MDA1NzQ4MTA0OTk1XzE1MjMyODExNTg5NjEwNTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI3NDAwNTc0ODEwNDk5NV8xNTIzMjgxMTU4OTYxMDUw', 'date': '2025-11-17T17:47:39.000Z', 'text': 'Total el ke no sirve</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02U7XcjxEvjUVdMPmUPkRbMzgvUFTGVtrt2dpwWza32RHnngNsM5fHkdUBaDuGDf9nl?comment_id=1148609350320027', 'id': 'Y29tbWVudDoxMjc0MDA1NzQ4MTA0OTk1XzExNDg2MDkzNTAzMjAwMjc=', 'feedbackId': 'ZmVlZGJhY2s6MTI3NDAwNTc0ODEwNDk5NV8xMTQ4NjA5MzUwMzIwMDI3', 'date': '2025-11-19T11:17:33.000Z', 'text': 'Mucho viejo cacorro,</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1539,35 +1536,33 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Estoy de acuerdo unos se comen las verdes y otros las maduras</t>
+          <t>Total el ke no sirve que no estorbe 🫩😁😁😁</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45977.11752314815</v>
-      </c>
-      <c r="I20" s="3" t="n">
-        <v>45977</v>
+        <v>45978.74142361111</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>45978</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>02:49:14</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>17:47:39</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -1579,13 +1574,13 @@
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0EAq2YRKyazQTBigkoUr2bdpEG8aT2d8smWCqLMbFSRc1oe5FPKMEKJpHZhyM6wjQl?comment_id=847519371075258', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1Xzg0NzUxOTM3MTA3NTI1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV84NDc1MTkzNzEwNzUyNTg=', 'date': '2025-11-16T02:49:14.000Z', 'text': 'Estoy de acuerdo unos s</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02U7XcjxEvjUVdMPmUPkRbMzgvUFTGVtrt2dpwWza32RHnngNsM5fHkdUBaDuGDf9nl?comment_id=1523281158961050', 'id': 'Y29tbWVudDoxMjc0MDA1NzQ4MTA0OTk1XzE1MjMyODExNTg5NjEwNTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI3NDAwNTc0ODEwNDk5NV8xNTIzMjgxMTU4OTYxMDUw', 'date': '2025-11-17T17:47:39.000Z', 'text': 'Total el ke no sirve</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1595,29 +1590,29 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Qeee titi dijo una amiga mía jejejeje</t>
+          <t>Total el ke no sirve que no estorbe 🫩😁😁😁</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45974.1278125</v>
+        <v>45978.74142361111</v>
       </c>
       <c r="I21" s="3" t="n">
-        <v>45974</v>
+        <v>45978</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>03:04:03</t>
+          <t>17:47:39</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1635,13 +1630,13 @@
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0EAq2YRKyazQTBigkoUr2bdpEG8aT2d8smWCqLMbFSRc1oe5FPKMEKJpHZhyM6wjQl?comment_id=1207180104642809', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1XzEyMDcxODAxMDQ2NDI4MDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV8xMjA3MTgwMTA0NjQyODA5', 'date': '2025-11-13T03:04:03.000Z', 'text': 'Qeee titi dijo una ami</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02U7XcjxEvjUVdMPmUPkRbMzgvUFTGVtrt2dpwWza32RHnngNsM5fHkdUBaDuGDf9nl?comment_id=1523281158961050', 'id': 'Y29tbWVudDoxMjc0MDA1NzQ4MTA0OTk1XzE1MjMyODExNTg5NjEwNTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI3NDAwNTc0ODEwNDk5NV8xNTIzMjgxMTU4OTYxMDUw', 'date': '2025-11-17T17:47:39.000Z', 'text': 'Total el ke no sirve</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1651,35 +1646,33 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>El mejor Probiótico</t>
+          <t>Estoy de acuerdo unos se comen las verdes y otros las maduras</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45971.41180555556</v>
-      </c>
-      <c r="I22" s="3" t="n">
-        <v>45971</v>
+        <v>45977.11752314815</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>45977</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>09:53:00</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>02:49:14</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -1691,13 +1684,13 @@
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=1220441243230897', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzEyMjA0NDEyNDMyMzA4OTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8xMjIwNDQxMjQzMjMwODk3', 'date': '2025-11-10T09:53:00.000Z', 'text': 'El mejor Probiótico'</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0EAq2YRKyazQTBigkoUr2bdpEG8aT2d8smWCqLMbFSRc1oe5FPKMEKJpHZhyM6wjQl?comment_id=847519371075258', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1Xzg0NzUxOTM3MTA3NTI1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV84NDc1MTkzNzEwNzUyNTg=', 'date': '2025-11-16T02:49:14.000Z', 'text': 'Estoy de acuerdo unos s</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1707,29 +1700,29 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Igual que los anteriores</t>
+          <t>Estoy de acuerdo unos se comen las verdes y otros las maduras</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45969.86098379629</v>
+        <v>45977.11752314815</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>45969</v>
+        <v>45977</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>20:39:49</t>
+          <t>02:49:14</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1747,13 +1740,13 @@
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=2124276584648076', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzIxMjQyNzY1ODQ2NDgwNzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8yMTI0Mjc2NTg0NjQ4MDc2', 'date': '2025-11-08T20:39:49.000Z', 'text': 'Igual que los anteri</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0EAq2YRKyazQTBigkoUr2bdpEG8aT2d8smWCqLMbFSRc1oe5FPKMEKJpHZhyM6wjQl?comment_id=847519371075258', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1Xzg0NzUxOTM3MTA3NTI1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV84NDc1MTkzNzEwNzUyNTg=', 'date': '2025-11-16T02:49:14.000Z', 'text': 'Estoy de acuerdo unos s</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1763,35 +1756,33 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Pues algo túvo que Aser le él cuando eya rrasiono así aver hombre cuando un hombre Caba con la vida dé una mujer poque ustedes no le dan tanta i portasia. Ihora sí sí los hombres cada rrato acaban con la vida dé la mujer entosse</t>
+          <t>Qeee titi dijo una amiga mía jejejeje</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45969.62359953704</v>
-      </c>
-      <c r="I24" s="3" t="n">
-        <v>45969</v>
+        <v>45974.1278125</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>45974</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>14:57:59</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>03:04:03</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -1803,37 +1794,51 @@
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=834542738933427', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzgzNDU0MjczODkzMzQyNw==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF84MzQ1NDI3Mzg5MzM0Mjc=', 'date': '2025-11-08T14:57:59.000Z', 'text': 'Pues algo túvo que As</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0EAq2YRKyazQTBigkoUr2bdpEG8aT2d8smWCqLMbFSRc1oe5FPKMEKJpHZhyM6wjQl?comment_id=1207180104642809', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1XzEyMDcxODAxMDQ2NDI4MDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV8xMjA3MTgwMTA0NjQyODA5', 'date': '2025-11-13T03:04:03.000Z', 'text': 'Qeee titi dijo una ami</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQHedmRjHLo/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQHedmRjHLo/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>0</v>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Qeee titi dijo una amiga mía jejejeje</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>45974.1278125</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>45974</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>03:04:03</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -1842,52 +1847,48 @@
         <v>0</v>
       </c>
       <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0EAq2YRKyazQTBigkoUr2bdpEG8aT2d8smWCqLMbFSRc1oe5FPKMEKJpHZhyM6wjQl?comment_id=1207180104642809', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1XzEyMDcxODAxMDQ2NDI4MDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV8xMjA3MTgwMTA0NjQyODA5', 'date': '2025-11-13T03:04:03.000Z', 'text': 'Qeee titi dijo una ami</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>matiasarturoromo</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Que mieldaaa</t>
+          <t>El mejor Probiótico</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
-        <v>45970.1875</v>
-      </c>
-      <c r="I26" s="3" t="n">
-        <v>45970</v>
+        <v>45971.41180555556</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>45971</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>04:30:00</t>
+          <t>09:53:00</t>
         </is>
       </c>
       <c r="K26" t="n">
@@ -1899,61 +1900,55 @@
       <c r="M26" t="b">
         <v>0</v>
       </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>https://instagram.com/matiasarturoromo</t>
-        </is>
-      </c>
+      <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18098144245606945', 'id': '18098144245606945', 'text': 'Que mieldaaa', 'ownerUsername': 'matiasarturoromo', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.82787-19/573473903_17898280404321112_6966858402340948994_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=103&amp;ig_cache_key=GG_ELiJYA5clZJY-AAJM_g-OQK9gbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=1220441243230897', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzEyMjA0NDEyNDMyMzA4OTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8xMjIwNDQxMjQzMjMwODk3', 'date': '2025-11-10T09:53:00.000Z', 'text': 'El mejor Probiótico'</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>camilavalenzcaro443</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Holaa</t>
+          <t>El mejor Probiótico</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
-        <v>45968.94402777778</v>
+        <v>45971.41180555556</v>
       </c>
       <c r="I27" s="3" t="n">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>22:39:24</t>
-        </is>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
+          <t>09:53:00</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -1961,57 +1956,49 @@
       <c r="M27" t="b">
         <v>0</v>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>https://instagram.com/camilavalenzcaro443</t>
-        </is>
-      </c>
+      <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18034059335512099', 'id': '18034059335512099', 'text': 'Holaa', 'ownerUsername': 'camilavalenzcaro443', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.82787-19/565042982_17921020101158101_7888790515073166009_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GCbfrSHVZCSlEqs-ALkqaEYtnXptbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=1220441243230897', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzEyMjA0NDEyNDMyMzA4OTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8xMjIwNDQxMjQzMjMwODk3', 'date': '2025-11-10T09:53:00.000Z', 'text': 'El mejor Probiótico'</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>camilavalenzcaro443</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Amiga linda te quiero</t>
+          <t>Igual que los anteriores</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
-        <v>45968.94396990741</v>
-      </c>
-      <c r="I28" s="3" t="n">
-        <v>45968</v>
+        <v>45969.86098379629</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>45969</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>22:39:19</t>
+          <t>20:39:49</t>
         </is>
       </c>
       <c r="K28" t="n">
@@ -2023,61 +2010,55 @@
       <c r="M28" t="b">
         <v>0</v>
       </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>https://instagram.com/camilavalenzcaro443</t>
-        </is>
-      </c>
+      <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18285197614263782', 'id': '18285197614263782', 'text': 'Amiga linda te quiero', 'ownerUsername': 'camilavalenzcaro443', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.82787-19/565042982_17921020101158101_7888790515073166009_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GCbfrSHVZCSlEqs-ALkqaEYtnXptbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=66</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=2124276584648076', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzIxMjQyNzY1ODQ2NDgwNzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8yMTI0Mjc2NTg0NjQ4MDc2', 'date': '2025-11-08T20:39:49.000Z', 'text': 'Igual que los anteri</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>yamilemorenoporras</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Siempre escogemos alpina para la lonchera de nuestros chiquis, y para .mi un rico arequipe con quesito</t>
+          <t>Igual que los anteriores</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
-        <v>45968.88957175926</v>
+        <v>45969.86098379629</v>
       </c>
       <c r="I29" s="3" t="n">
-        <v>45968</v>
+        <v>45969</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>21:20:59</t>
-        </is>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
+          <t>20:39:49</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -2085,57 +2066,49 @@
       <c r="M29" t="b">
         <v>0</v>
       </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>https://instagram.com/yamilemorenoporras</t>
-        </is>
-      </c>
+      <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18042448463682848', 'id': '18042448463682848', 'text': 'Siempre escogemos alpina para la lonchera de nuestros chiquis, y para .mi un rico arequipe con quesito', 'ownerUsername': 'yamilemorenoporras', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.89012-19/573323465_1219825463302212_7278921664109726296_n.png?stp=dst-webp_s150x150&amp;_nc_cat=1&amp;ig_cache_key</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=2124276584648076', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzIxMjQyNzY1ODQ2NDgwNzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8yMTI0Mjc2NTg0NjQ4MDc2', 'date': '2025-11-08T20:39:49.000Z', 'text': 'Igual que los anteri</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>lizcano.z</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Los preferidos de mi chiqui le encantan los Dinos</t>
+          <t>Pues algo túvo que Aser le él cuando eya rrasiono así aver hombre cuando un hombre Caba con la vida dé una mujer poque ustedes no le dan tanta i portasia. Ihora sí sí los hombres cada rrato acaban con la vida dé la mujer entosse</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
-        <v>45968.86053240741</v>
-      </c>
-      <c r="I30" s="3" t="n">
-        <v>45968</v>
+        <v>45969.62359953704</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>45969</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>20:39:10</t>
+          <t>14:57:59</t>
         </is>
       </c>
       <c r="K30" t="n">
@@ -2147,61 +2120,55 @@
       <c r="M30" t="b">
         <v>0</v>
       </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>https://instagram.com/lizcano.z</t>
-        </is>
-      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18144953131380182', 'id': '18144953131380182', 'text': 'Los preferidos de mi chiqui le encantan los Dinos', 'ownerUsername': 'lizcano.z', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.2885-19/332621657_6410209482345828_4629360806061933546_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GFln0xNkjSEzDcYWAOoDcC4gyz5AbkULAAAB1501500j-ccb7-5&amp;cc</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=834542738933427', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzgzNDU0MjczODkzMzQyNw==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF84MzQ1NDI3Mzg5MzM0Mjc=', 'date': '2025-11-08T14:57:59.000Z', 'text': 'Pues algo túvo que As</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>renecorrea6600</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Yo compro muchos yogoyogo y la gelatina y el yogurt de bolsita y me encantaría que me mande una caja con todos los yogures 🙏 me encanta los yogures</t>
+          <t>Pues algo túvo que Aser le él cuando eya rrasiono así aver hombre cuando un hombre Caba con la vida dé una mujer poque ustedes no le dan tanta i portasia. Ihora sí sí los hombres cada rrato acaban con la vida dé la mujer entosse</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
-        <v>45965.13641203703</v>
+        <v>45969.62359953704</v>
       </c>
       <c r="I31" s="3" t="n">
-        <v>45965</v>
+        <v>45969</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>03:16:26</t>
-        </is>
-      </c>
-      <c r="K31" t="n">
-        <v>1</v>
+          <t>14:57:59</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -2209,21 +2176,17 @@
       <c r="M31" t="b">
         <v>0</v>
       </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>https://instagram.com/renecorrea6600</t>
-        </is>
-      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18069384506600468', 'id': '18069384506600468', 'text': 'Yo compro muchos yogoyogo y la gelatina y el yogurt de bolsita y me encantaría que me mande una caja con todos los yogures 🙏 me encanta los yogures', 'ownerUsername': 'renecorrea6600', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.2885-19/285767721_387465060107593_8753498132828513536_n.jpg?stp=d</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=834542738933427', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzgzNDU0MjczODkzMzQyNw==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF84MzQ1NDI3Mzg5MzM0Mjc=', 'date': '2025-11-08T14:57:59.000Z', 'text': 'Pues algo túvo que As</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2233,443 +2196,902 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
+          <t>https://www.instagram.com/p/DQHedmRjHLo/</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQHedmRjHLo/</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="b">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>13</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>matiasarturoromo</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Que mieldaaa</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>45970.1875</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>45970</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>04:30:00</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="b">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>https://instagram.com/matiasarturoromo</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18098144245606945', 'id': '18098144245606945', 'text': 'Que mieldaaa', 'ownerUsername': 'matiasarturoromo', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.82787-19/573473903_17898280404321112_6966858402340948994_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=103&amp;ig_cache_key=GG_ELiJYA5clZJY-AAJM_g-OQK9gbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>13</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>matiasarturoromo</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Que mieldaaa</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>45970.1875</v>
+      </c>
+      <c r="I34" s="3" t="n">
+        <v>45970</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>04:30:00</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="b">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>https://instagram.com/matiasarturoromo</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18098144245606945', 'id': '18098144245606945', 'text': 'Que mieldaaa', 'ownerUsername': 'matiasarturoromo', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.82787-19/573473903_17898280404321112_6966858402340948994_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=103&amp;ig_cache_key=GG_ELiJYA5clZJY-AAJM_g-OQK9gbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>13</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>camilavalenzcaro443</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Holaa</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>45968.94402777778</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>22:39:24</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="b">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>https://instagram.com/camilavalenzcaro443</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18034059335512099', 'id': '18034059335512099', 'text': 'Holaa', 'ownerUsername': 'camilavalenzcaro443', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.82787-19/565042982_17921020101158101_7888790515073166009_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GCbfrSHVZCSlEqs-ALkqaEYtnXptbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>13</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>camilavalenzcaro443</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Holaa</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>45968.94402777778</v>
+      </c>
+      <c r="I36" s="3" t="n">
+        <v>45968</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>22:39:24</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="b">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>https://instagram.com/camilavalenzcaro443</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18034059335512099', 'id': '18034059335512099', 'text': 'Holaa', 'ownerUsername': 'camilavalenzcaro443', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.82787-19/565042982_17921020101158101_7888790515073166009_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GCbfrSHVZCSlEqs-ALkqaEYtnXptbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>13</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>camilavalenzcaro443</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Amiga linda te quiero</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>45968.94396990741</v>
+      </c>
+      <c r="I37" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>22:39:19</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="b">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>https://instagram.com/camilavalenzcaro443</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18285197614263782', 'id': '18285197614263782', 'text': 'Amiga linda te quiero', 'ownerUsername': 'camilavalenzcaro443', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.82787-19/565042982_17921020101158101_7888790515073166009_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GCbfrSHVZCSlEqs-ALkqaEYtnXptbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=66</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>13</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>camilavalenzcaro443</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Amiga linda te quiero</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>45968.94396990741</v>
+      </c>
+      <c r="I38" s="3" t="n">
+        <v>45968</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>22:39:19</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="b">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>https://instagram.com/camilavalenzcaro443</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18285197614263782', 'id': '18285197614263782', 'text': 'Amiga linda te quiero', 'ownerUsername': 'camilavalenzcaro443', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.82787-19/565042982_17921020101158101_7888790515073166009_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GCbfrSHVZCSlEqs-ALkqaEYtnXptbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=66</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>13</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>yamilemorenoporras</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Siempre escogemos alpina para la lonchera de nuestros chiquis, y para .mi un rico arequipe con quesito</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>45968.88957175926</v>
+      </c>
+      <c r="I39" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>21:20:59</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="b">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>https://instagram.com/yamilemorenoporras</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18042448463682848', 'id': '18042448463682848', 'text': 'Siempre escogemos alpina para la lonchera de nuestros chiquis, y para .mi un rico arequipe con quesito', 'ownerUsername': 'yamilemorenoporras', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.89012-19/573323465_1219825463302212_7278921664109726296_n.png?stp=dst-webp_s150x150&amp;_nc_cat=1&amp;ig_cache_key</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>13</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>yamilemorenoporras</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Siempre escogemos alpina para la lonchera de nuestros chiquis, y para .mi un rico arequipe con quesito</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>45968.88957175926</v>
+      </c>
+      <c r="I40" s="3" t="n">
+        <v>45968</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>21:20:59</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>https://instagram.com/yamilemorenoporras</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18042448463682848', 'id': '18042448463682848', 'text': 'Siempre escogemos alpina para la lonchera de nuestros chiquis, y para .mi un rico arequipe con quesito', 'ownerUsername': 'yamilemorenoporras', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.89012-19/573323465_1219825463302212_7278921664109726296_n.png?stp=dst-webp_s150x150&amp;_nc_cat=1&amp;ig_cache_key</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>13</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>lizcano.z</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Los preferidos de mi chiqui le encantan los Dinos</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>45968.86053240741</v>
+      </c>
+      <c r="I41" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>20:39:10</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="b">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>https://instagram.com/lizcano.z</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18144953131380182', 'id': '18144953131380182', 'text': 'Los preferidos de mi chiqui le encantan los Dinos', 'ownerUsername': 'lizcano.z', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.2885-19/332621657_6410209482345828_4629360806061933546_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GFln0xNkjSEzDcYWAOoDcC4gyz5AbkULAAAB1501500j-ccb7-5&amp;cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>13</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>lizcano.z</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Los preferidos de mi chiqui le encantan los Dinos</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>45968.86053240741</v>
+      </c>
+      <c r="I42" s="3" t="n">
+        <v>45968</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>20:39:10</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>https://instagram.com/lizcano.z</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18144953131380182', 'id': '18144953131380182', 'text': 'Los preferidos de mi chiqui le encantan los Dinos', 'ownerUsername': 'lizcano.z', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.2885-19/332621657_6410209482345828_4629360806061933546_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GFln0xNkjSEzDcYWAOoDcC4gyz5AbkULAAAB1501500j-ccb7-5&amp;cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>13</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>renecorrea6600</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Yo compro muchos yogoyogo y la gelatina y el yogurt de bolsita y me encantaría que me mande una caja con todos los yogures 🙏 me encanta los yogures</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>45965.13641203703</v>
+      </c>
+      <c r="I43" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>03:16:26</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="b">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>https://instagram.com/renecorrea6600</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18069384506600468', 'id': '18069384506600468', 'text': 'Yo compro muchos yogoyogo y la gelatina y el yogurt de bolsita y me encantaría que me mande una caja con todos los yogures 🙏 me encanta los yogures', 'ownerUsername': 'renecorrea6600', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.2885-19/285767721_387465060107593_8753498132828513536_n.jpg?stp=d</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>13</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>renecorrea6600</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Yo compro muchos yogoyogo y la gelatina y el yogurt de bolsita y me encantaría que me mande una caja con todos los yogures 🙏 me encanta los yogures</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>45965.13641203703</v>
+      </c>
+      <c r="I44" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>03:16:26</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>https://instagram.com/renecorrea6600</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18069384506600468', 'id': '18069384506600468', 'text': 'Yo compro muchos yogoyogo y la gelatina y el yogurt de bolsita y me encantaría que me mande una caja con todos los yogures 🙏 me encanta los yogures', 'ownerUsername': 'renecorrea6600', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.2885-19/285767721_387465060107593_8753498132828513536_n.jpg?stp=d</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>13</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
         <is>
           <t>liebe_sheibe</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>Quiero uno y no encuentro los yogures se agotaron muy rápido yo quería uno,😣😕</t>
         </is>
       </c>
-      <c r="H32" s="2" t="n">
+      <c r="H45" s="2" t="n">
         <v>45962.07112268519</v>
       </c>
-      <c r="I32" s="3" t="n">
+      <c r="I45" s="2" t="n">
         <v>45962</v>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>01:42:25</t>
         </is>
       </c>
-      <c r="K32" t="n">
+      <c r="K45" t="n">
         <v>1</v>
       </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="b">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>https://instagram.com/liebe_sheibe</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr">
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
         <is>
           <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18079566332513278', 'id': '18079566332513278', 'text': 'Quiero uno y no encuentro los yogures se agotaron muy rápido yo quería uno,😣😕', 'ownerUsername': 'liebe_sheibe', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.89012-19/573323465_1219825463302212_7278921664109726296_n.png?stp=dst-webp_s150x150&amp;_nc_cat=1&amp;ig_cache_key=YW5vbnltb3VzX3Byb2ZpbGVfcGlj.3</t>
         </is>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>post_number</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>platform</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>post_url</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Total_Comentarios</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total_Likes</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Primera_Extraccion</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Ultima_Extraccion</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="46">
+      <c r="A46" t="n">
+        <v>13</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>liebe_sheibe</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Quiero uno y no encuentro los yogures se agotaron muy rápido yo quería uno,😣😕</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>45962.07112268519</v>
+      </c>
+      <c r="I46" s="3" t="n">
+        <v>45962</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>01:42:25</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/reel/793063333529226</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>45943.62460648148</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>45953.6134837963</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/dppxwphjmx2</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>45940.96381944444</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>45940.96381944444</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/dppvc6ujllp</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/dpzknf0diqm</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0n3r82dbjh8tk4stddiyzpingwqpj7ermfk2xategwg2gpkdfftjmbq1mrbmbi9pvl</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>45948.04265046296</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>45962.16460648148</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/dppxa4uddh4</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSynjCxPs/</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260808236091413/</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>45978.74142361111</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>45980.47052083333</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>45974.1278125</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>45977.11752314815</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>3</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>45969.62359953704</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>45971.41180555556</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DQHedmRjHLo/</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>7</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>45962.07112268519</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>45970.1875</v>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>https://instagram.com/liebe_sheibe</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18079566332513278', 'id': '18079566332513278', 'text': 'Quiero uno y no encuentro los yogures se agotaron muy rápido yo quería uno,😣😕', 'ownerUsername': 'liebe_sheibe', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.89012-19/573323465_1219825463302212_7278921664109726296_n.png?stp=dst-webp_s150x150&amp;_nc_cat=1&amp;ig_cache_key=YW5vbnltb3VzX3Byb2ZpbGVfcGlj.3</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1497,7 +1497,7 @@
       <c r="H19" s="2" t="n">
         <v>45980.47052083333</v>
       </c>
-      <c r="I19" s="3" t="n">
+      <c r="I19" s="2" t="n">
         <v>45980</v>
       </c>
       <c r="J19" t="inlineStr">
@@ -1505,10 +1505,8 @@
           <t>11:17:33</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K19" t="n">
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -1547,22 +1545,24 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Total el ke no sirve que no estorbe 🫩😁😁😁</t>
+          <t>Mucho viejo cacorro, vaya a llorar a la casa joda creen que con eso van a solucionar las cosas , ya es clavo pasao</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45978.74142361111</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>45978</v>
+        <v>45980.47052083333</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>45980</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>17:47:39</t>
-        </is>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
+          <t>11:17:33</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -1574,7 +1574,7 @@
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02U7XcjxEvjUVdMPmUPkRbMzgvUFTGVtrt2dpwWza32RHnngNsM5fHkdUBaDuGDf9nl?comment_id=1523281158961050', 'id': 'Y29tbWVudDoxMjc0MDA1NzQ4MTA0OTk1XzE1MjMyODExNTg5NjEwNTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI3NDAwNTc0ODEwNDk5NV8xNTIzMjgxMTU4OTYxMDUw', 'date': '2025-11-17T17:47:39.000Z', 'text': 'Total el ke no sirve</t>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0QZtRpncZtCfENXMXna9cWuv7rzBYXQv4fxHFBFvrw5E3FCfyEC7ZY8tTAWyZsscLl?comment_id=1148609350320027', 'id': 'Y29tbWVudDoxMjc0MDA1NzQ4MTA0OTk1XzExNDg2MDkzNTAzMjAwMjc=', 'feedbackId': 'ZmVlZGJhY2s6MTI3NDAwNTc0ODEwNDk5NV8xMTQ4NjA5MzUwMzIwMDI3', 'date': '2025-11-19T11:17:33.000Z', 'text': 'Mucho viejo cacorro, </t>
         </is>
       </c>
     </row>
@@ -1607,7 +1607,7 @@
       <c r="H21" s="2" t="n">
         <v>45978.74142361111</v>
       </c>
-      <c r="I21" s="3" t="n">
+      <c r="I21" s="2" t="n">
         <v>45978</v>
       </c>
       <c r="J21" t="inlineStr">
@@ -1615,10 +1615,8 @@
           <t>17:47:39</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K21" t="n">
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -1636,7 +1634,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1646,29 +1644,29 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Estoy de acuerdo unos se comen las verdes y otros las maduras</t>
+          <t>Total el ke no sirve que no estorbe 🫩😁😁😁</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45977.11752314815</v>
+        <v>45978.74142361111</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>45977</v>
+        <v>45978</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>02:49:14</t>
+          <t>17:47:39</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -1684,13 +1682,13 @@
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0EAq2YRKyazQTBigkoUr2bdpEG8aT2d8smWCqLMbFSRc1oe5FPKMEKJpHZhyM6wjQl?comment_id=847519371075258', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1Xzg0NzUxOTM3MTA3NTI1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV84NDc1MTkzNzEwNzUyNTg=', 'date': '2025-11-16T02:49:14.000Z', 'text': 'Estoy de acuerdo unos s</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02U7XcjxEvjUVdMPmUPkRbMzgvUFTGVtrt2dpwWza32RHnngNsM5fHkdUBaDuGDf9nl?comment_id=1523281158961050', 'id': 'Y29tbWVudDoxMjc0MDA1NzQ4MTA0OTk1XzE1MjMyODExNTg5NjEwNTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI3NDAwNTc0ODEwNDk5NV8xNTIzMjgxMTU4OTYxMDUw', 'date': '2025-11-17T17:47:39.000Z', 'text': 'Total el ke no sirve</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1700,29 +1698,29 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Estoy de acuerdo unos se comen las verdes y otros las maduras</t>
+          <t>Total el ke no sirve que no estorbe 🫩😁😁😁</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45977.11752314815</v>
+        <v>45978.74142361111</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>45977</v>
+        <v>45978</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>02:49:14</t>
+          <t>17:47:39</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1740,7 +1738,7 @@
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0EAq2YRKyazQTBigkoUr2bdpEG8aT2d8smWCqLMbFSRc1oe5FPKMEKJpHZhyM6wjQl?comment_id=847519371075258', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1Xzg0NzUxOTM3MTA3NTI1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV84NDc1MTkzNzEwNzUyNTg=', 'date': '2025-11-16T02:49:14.000Z', 'text': 'Estoy de acuerdo unos s</t>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0QZtRpncZtCfENXMXna9cWuv7rzBYXQv4fxHFBFvrw5E3FCfyEC7ZY8tTAWyZsscLl?comment_id=1523281158961050', 'id': 'Y29tbWVudDoxMjc0MDA1NzQ4MTA0OTk1XzE1MjMyODExNTg5NjEwNTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI3NDAwNTc0ODEwNDk5NV8xNTIzMjgxMTU4OTYxMDUw', 'date': '2025-11-17T17:47:39.000Z', 'text': 'Total el ke no sirve </t>
         </is>
       </c>
     </row>
@@ -1767,18 +1765,18 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Qeee titi dijo una amiga mía jejejeje</t>
+          <t>Estoy de acuerdo unos se comen las verdes y otros las maduras</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45974.1278125</v>
+        <v>45977.11752314815</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>45974</v>
+        <v>45977</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>03:04:03</t>
+          <t>02:49:14</t>
         </is>
       </c>
       <c r="K24" t="n">
@@ -1794,7 +1792,7 @@
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0EAq2YRKyazQTBigkoUr2bdpEG8aT2d8smWCqLMbFSRc1oe5FPKMEKJpHZhyM6wjQl?comment_id=1207180104642809', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1XzEyMDcxODAxMDQ2NDI4MDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV8xMjA3MTgwMTA0NjQyODA5', 'date': '2025-11-13T03:04:03.000Z', 'text': 'Qeee titi dijo una ami</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0EAq2YRKyazQTBigkoUr2bdpEG8aT2d8smWCqLMbFSRc1oe5FPKMEKJpHZhyM6wjQl?comment_id=847519371075258', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1Xzg0NzUxOTM3MTA3NTI1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV84NDc1MTkzNzEwNzUyNTg=', 'date': '2025-11-16T02:49:14.000Z', 'text': 'Estoy de acuerdo unos s</t>
         </is>
       </c>
     </row>
@@ -1821,24 +1819,22 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Qeee titi dijo una amiga mía jejejeje</t>
+          <t>Estoy de acuerdo unos se comen las verdes y otros las maduras</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
-        <v>45974.1278125</v>
-      </c>
-      <c r="I25" s="3" t="n">
-        <v>45974</v>
+        <v>45977.11752314815</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>45977</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>03:04:03</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>02:49:14</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -1850,13 +1846,13 @@
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0EAq2YRKyazQTBigkoUr2bdpEG8aT2d8smWCqLMbFSRc1oe5FPKMEKJpHZhyM6wjQl?comment_id=1207180104642809', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1XzEyMDcxODAxMDQ2NDI4MDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV8xMjA3MTgwMTA0NjQyODA5', 'date': '2025-11-13T03:04:03.000Z', 'text': 'Qeee titi dijo una ami</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0EAq2YRKyazQTBigkoUr2bdpEG8aT2d8smWCqLMbFSRc1oe5FPKMEKJpHZhyM6wjQl?comment_id=847519371075258', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1Xzg0NzUxOTM3MTA3NTI1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV84NDc1MTkzNzEwNzUyNTg=', 'date': '2025-11-16T02:49:14.000Z', 'text': 'Estoy de acuerdo unos s</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1866,33 +1862,35 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>El mejor Probiótico</t>
+          <t>Estoy de acuerdo unos se comen las verdes y otros las maduras</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
-        <v>45971.41180555556</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>45971</v>
+        <v>45977.11752314815</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>45977</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>09:53:00</t>
-        </is>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
+          <t>02:49:14</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -1904,13 +1902,13 @@
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=1220441243230897', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzEyMjA0NDEyNDMyMzA4OTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8xMjIwNDQxMjQzMjMwODk3', 'date': '2025-11-10T09:53:00.000Z', 'text': 'El mejor Probiótico'</t>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02J2Gjj6FoSP9k6PVTZcPb96nWe7MMrC2HMPYj1CA3FR7GS4Yfk9BeVx2uU1JDTokGl?comment_id=847519371075258', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1Xzg0NzUxOTM3MTA3NTI1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV84NDc1MTkzNzEwNzUyNTg=', 'date': '2025-11-16T02:49:14.000Z', 'text': 'Estoy de acuerdo unos </t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1920,35 +1918,33 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>El mejor Probiótico</t>
+          <t>Qeee titi dijo una amiga mía jejejeje</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
-        <v>45971.41180555556</v>
-      </c>
-      <c r="I27" s="3" t="n">
-        <v>45971</v>
+        <v>45974.1278125</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>45974</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>09:53:00</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>03:04:03</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -1960,13 +1956,13 @@
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=1220441243230897', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzEyMjA0NDEyNDMyMzA4OTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8xMjIwNDQxMjQzMjMwODk3', 'date': '2025-11-10T09:53:00.000Z', 'text': 'El mejor Probiótico'</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0EAq2YRKyazQTBigkoUr2bdpEG8aT2d8smWCqLMbFSRc1oe5FPKMEKJpHZhyM6wjQl?comment_id=1207180104642809', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1XzEyMDcxODAxMDQ2NDI4MDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV8xMjA3MTgwMTA0NjQyODA5', 'date': '2025-11-13T03:04:03.000Z', 'text': 'Qeee titi dijo una ami</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1976,29 +1972,29 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Igual que los anteriores</t>
+          <t>Qeee titi dijo una amiga mía jejejeje</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
-        <v>45969.86098379629</v>
+        <v>45974.1278125</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>45969</v>
+        <v>45974</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>20:39:49</t>
+          <t>03:04:03</t>
         </is>
       </c>
       <c r="K28" t="n">
@@ -2014,13 +2010,13 @@
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=2124276584648076', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzIxMjQyNzY1ODQ2NDgwNzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8yMTI0Mjc2NTg0NjQ4MDc2', 'date': '2025-11-08T20:39:49.000Z', 'text': 'Igual que los anteri</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0EAq2YRKyazQTBigkoUr2bdpEG8aT2d8smWCqLMbFSRc1oe5FPKMEKJpHZhyM6wjQl?comment_id=1207180104642809', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1XzEyMDcxODAxMDQ2NDI4MDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV8xMjA3MTgwMTA0NjQyODA5', 'date': '2025-11-13T03:04:03.000Z', 'text': 'Qeee titi dijo una ami</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2030,29 +2026,29 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Igual que los anteriores</t>
+          <t>Qeee titi dijo una amiga mía jejejeje</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
-        <v>45969.86098379629</v>
+        <v>45974.1278125</v>
       </c>
       <c r="I29" s="3" t="n">
-        <v>45969</v>
+        <v>45974</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>20:39:49</t>
+          <t>03:04:03</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2070,7 +2066,7 @@
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=2124276584648076', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzIxMjQyNzY1ODQ2NDgwNzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8yMTI0Mjc2NTg0NjQ4MDc2', 'date': '2025-11-08T20:39:49.000Z', 'text': 'Igual que los anteri</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02J2Gjj6FoSP9k6PVTZcPb96nWe7MMrC2HMPYj1CA3FR7GS4Yfk9BeVx2uU1JDTokGl?comment_id=1207180104642809', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1XzEyMDcxODAxMDQ2NDI4MDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV8xMjA3MTgwMTA0NjQyODA5', 'date': '2025-11-13T03:04:03.000Z', 'text': 'Qeee titi dijo una am</t>
         </is>
       </c>
     </row>
@@ -2097,18 +2093,18 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Pues algo túvo que Aser le él cuando eya rrasiono así aver hombre cuando un hombre Caba con la vida dé una mujer poque ustedes no le dan tanta i portasia. Ihora sí sí los hombres cada rrato acaban con la vida dé la mujer entosse</t>
+          <t>El mejor Probiótico</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
-        <v>45969.62359953704</v>
+        <v>45971.41180555556</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>45969</v>
+        <v>45971</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>14:57:59</t>
+          <t>09:53:00</t>
         </is>
       </c>
       <c r="K30" t="n">
@@ -2124,7 +2120,7 @@
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=834542738933427', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzgzNDU0MjczODkzMzQyNw==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF84MzQ1NDI3Mzg5MzM0Mjc=', 'date': '2025-11-08T14:57:59.000Z', 'text': 'Pues algo túvo que As</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=1220441243230897', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzEyMjA0NDEyNDMyMzA4OTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8xMjIwNDQxMjQzMjMwODk3', 'date': '2025-11-10T09:53:00.000Z', 'text': 'El mejor Probiótico'</t>
         </is>
       </c>
     </row>
@@ -2151,24 +2147,22 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Pues algo túvo que Aser le él cuando eya rrasiono así aver hombre cuando un hombre Caba con la vida dé una mujer poque ustedes no le dan tanta i portasia. Ihora sí sí los hombres cada rrato acaban con la vida dé la mujer entosse</t>
+          <t>El mejor Probiótico</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
-        <v>45969.62359953704</v>
-      </c>
-      <c r="I31" s="3" t="n">
-        <v>45969</v>
+        <v>45971.41180555556</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>45971</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>14:57:59</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>09:53:00</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -2180,37 +2174,51 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=834542738933427', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzgzNDU0MjczODkzMzQyNw==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF84MzQ1NDI3Mzg5MzM0Mjc=', 'date': '2025-11-08T14:57:59.000Z', 'text': 'Pues algo túvo que As</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=1220441243230897', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzEyMjA0NDEyNDMyMzA4OTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8xMjIwNDQxMjQzMjMwODk3', 'date': '2025-11-10T09:53:00.000Z', 'text': 'El mejor Probiótico'</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQHedmRjHLo/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQHedmRjHLo/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>0</v>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>El mejor Probiótico</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>45971.41180555556</v>
+      </c>
+      <c r="I32" s="3" t="n">
+        <v>45971</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>09:53:00</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -2219,52 +2227,48 @@
         <v>0</v>
       </c>
       <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=1220441243230897', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzEyMjA0NDEyNDMyMzA4OTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8xMjIwNDQxMjQzMjMwODk3', 'date': '2025-11-10T09:53:00.000Z', 'text': 'El mejor Probiótico'</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>matiasarturoromo</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Que mieldaaa</t>
+          <t>Igual que los anteriores</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
-        <v>45970.1875</v>
+        <v>45969.86098379629</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>45970</v>
+        <v>45969</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>04:30:00</t>
+          <t>20:39:49</t>
         </is>
       </c>
       <c r="K33" t="n">
@@ -2276,57 +2280,49 @@
       <c r="M33" t="b">
         <v>0</v>
       </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>https://instagram.com/matiasarturoromo</t>
-        </is>
-      </c>
+      <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18098144245606945', 'id': '18098144245606945', 'text': 'Que mieldaaa', 'ownerUsername': 'matiasarturoromo', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.82787-19/573473903_17898280404321112_6966858402340948994_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=103&amp;ig_cache_key=GG_ELiJYA5clZJY-AAJM_g-OQK9gbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=2124276584648076', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzIxMjQyNzY1ODQ2NDgwNzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8yMTI0Mjc2NTg0NjQ4MDc2', 'date': '2025-11-08T20:39:49.000Z', 'text': 'Igual que los anteri</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>matiasarturoromo</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Que mieldaaa</t>
+          <t>Igual que los anteriores</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
-        <v>45970.1875</v>
-      </c>
-      <c r="I34" s="3" t="n">
-        <v>45970</v>
+        <v>45969.86098379629</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>45969</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>04:30:00</t>
+          <t>20:39:49</t>
         </is>
       </c>
       <c r="K34" t="n">
@@ -2338,61 +2334,55 @@
       <c r="M34" t="b">
         <v>0</v>
       </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>https://instagram.com/matiasarturoromo</t>
-        </is>
-      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18098144245606945', 'id': '18098144245606945', 'text': 'Que mieldaaa', 'ownerUsername': 'matiasarturoromo', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.82787-19/573473903_17898280404321112_6966858402340948994_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=103&amp;ig_cache_key=GG_ELiJYA5clZJY-AAJM_g-OQK9gbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=2124276584648076', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzIxMjQyNzY1ODQ2NDgwNzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8yMTI0Mjc2NTg0NjQ4MDc2', 'date': '2025-11-08T20:39:49.000Z', 'text': 'Igual que los anteri</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>camilavalenzcaro443</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Holaa</t>
+          <t>Igual que los anteriores</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
-        <v>45968.94402777778</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>45968</v>
+        <v>45969.86098379629</v>
+      </c>
+      <c r="I35" s="3" t="n">
+        <v>45969</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>22:39:24</t>
-        </is>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
+          <t>20:39:49</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -2400,57 +2390,49 @@
       <c r="M35" t="b">
         <v>0</v>
       </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>https://instagram.com/camilavalenzcaro443</t>
-        </is>
-      </c>
+      <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18034059335512099', 'id': '18034059335512099', 'text': 'Holaa', 'ownerUsername': 'camilavalenzcaro443', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.82787-19/565042982_17921020101158101_7888790515073166009_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GCbfrSHVZCSlEqs-ALkqaEYtnXptbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=2124276584648076', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzIxMjQyNzY1ODQ2NDgwNzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8yMTI0Mjc2NTg0NjQ4MDc2', 'date': '2025-11-08T20:39:49.000Z', 'text': 'Igual que los anteri</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>camilavalenzcaro443</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Holaa</t>
+          <t>Pues algo túvo que Aser le él cuando eya rrasiono así aver hombre cuando un hombre Caba con la vida dé una mujer poque ustedes no le dan tanta i portasia. Ihora sí sí los hombres cada rrato acaban con la vida dé la mujer entosse</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
-        <v>45968.94402777778</v>
-      </c>
-      <c r="I36" s="3" t="n">
-        <v>45968</v>
+        <v>45969.62359953704</v>
+      </c>
+      <c r="I36" s="2" t="n">
+        <v>45969</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>22:39:24</t>
+          <t>14:57:59</t>
         </is>
       </c>
       <c r="K36" t="n">
@@ -2462,57 +2444,49 @@
       <c r="M36" t="b">
         <v>0</v>
       </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>https://instagram.com/camilavalenzcaro443</t>
-        </is>
-      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18034059335512099', 'id': '18034059335512099', 'text': 'Holaa', 'ownerUsername': 'camilavalenzcaro443', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.82787-19/565042982_17921020101158101_7888790515073166009_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GCbfrSHVZCSlEqs-ALkqaEYtnXptbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=834542738933427', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzgzNDU0MjczODkzMzQyNw==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF84MzQ1NDI3Mzg5MzM0Mjc=', 'date': '2025-11-08T14:57:59.000Z', 'text': 'Pues algo túvo que As</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>camilavalenzcaro443</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Amiga linda te quiero</t>
+          <t>Pues algo túvo que Aser le él cuando eya rrasiono así aver hombre cuando un hombre Caba con la vida dé una mujer poque ustedes no le dan tanta i portasia. Ihora sí sí los hombres cada rrato acaban con la vida dé la mujer entosse</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
-        <v>45968.94396990741</v>
+        <v>45969.62359953704</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>45968</v>
+        <v>45969</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>22:39:19</t>
+          <t>14:57:59</t>
         </is>
       </c>
       <c r="K37" t="n">
@@ -2524,61 +2498,55 @@
       <c r="M37" t="b">
         <v>0</v>
       </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>https://instagram.com/camilavalenzcaro443</t>
-        </is>
-      </c>
+      <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18285197614263782', 'id': '18285197614263782', 'text': 'Amiga linda te quiero', 'ownerUsername': 'camilavalenzcaro443', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.82787-19/565042982_17921020101158101_7888790515073166009_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GCbfrSHVZCSlEqs-ALkqaEYtnXptbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=66</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=834542738933427', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzgzNDU0MjczODkzMzQyNw==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF84MzQ1NDI3Mzg5MzM0Mjc=', 'date': '2025-11-08T14:57:59.000Z', 'text': 'Pues algo túvo que As</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>camilavalenzcaro443</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Amiga linda te quiero</t>
+          <t>Pues algo túvo que Aser le él cuando eya rrasiono así aver hombre cuando un hombre Caba con la vida dé una mujer poque ustedes no le dan tanta i portasia. Ihora sí sí los hombres cada rrato acaban con la vida dé la mujer entosse</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
-        <v>45968.94396990741</v>
+        <v>45969.62359953704</v>
       </c>
       <c r="I38" s="3" t="n">
-        <v>45968</v>
+        <v>45969</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>22:39:19</t>
-        </is>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
+          <t>14:57:59</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -2586,21 +2554,17 @@
       <c r="M38" t="b">
         <v>0</v>
       </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>https://instagram.com/camilavalenzcaro443</t>
-        </is>
-      </c>
+      <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18285197614263782', 'id': '18285197614263782', 'text': 'Amiga linda te quiero', 'ownerUsername': 'camilavalenzcaro443', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.82787-19/565042982_17921020101158101_7888790515073166009_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GCbfrSHVZCSlEqs-ALkqaEYtnXptbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=66</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=834542738933427', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzgzNDU0MjczODkzMzQyNw==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF84MzQ1NDI3Mzg5MzM0Mjc=', 'date': '2025-11-08T14:57:59.000Z', 'text': 'Pues algo túvo que As</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2610,35 +2574,19 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+          <t>https://www.instagram.com/p/DQHedmRjHLo/</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>yamilemorenoporras</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Siempre escogemos alpina para la lonchera de nuestros chiquis, y para .mi un rico arequipe con quesito</t>
-        </is>
-      </c>
-      <c r="H39" s="2" t="n">
-        <v>45968.88957175926</v>
-      </c>
-      <c r="I39" s="2" t="n">
-        <v>45968</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>21:20:59</t>
-        </is>
-      </c>
+          <t>https://www.instagram.com/p/DQHedmRjHLo/</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
         <v>0</v>
       </c>
@@ -2648,17 +2596,13 @@
       <c r="M39" t="b">
         <v>0</v>
       </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>https://instagram.com/yamilemorenoporras</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18042448463682848', 'id': '18042448463682848', 'text': 'Siempre escogemos alpina para la lonchera de nuestros chiquis, y para .mi un rico arequipe con quesito', 'ownerUsername': 'yamilemorenoporras', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.89012-19/573323465_1219825463302212_7278921664109726296_n.png?stp=dst-webp_s150x150&amp;_nc_cat=1&amp;ig_cache_key</t>
-        </is>
-      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2682,23 +2626,23 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>yamilemorenoporras</t>
+          <t>matiasarturoromo</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Siempre escogemos alpina para la lonchera de nuestros chiquis, y para .mi un rico arequipe con quesito</t>
+          <t>Que mieldaaa</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
-        <v>45968.88957175926</v>
-      </c>
-      <c r="I40" s="3" t="n">
-        <v>45968</v>
+        <v>45970.1875</v>
+      </c>
+      <c r="I40" s="2" t="n">
+        <v>45970</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>21:20:59</t>
+          <t>04:30:00</t>
         </is>
       </c>
       <c r="K40" t="n">
@@ -2712,13 +2656,13 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>https://instagram.com/yamilemorenoporras</t>
+          <t>https://instagram.com/matiasarturoromo</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18042448463682848', 'id': '18042448463682848', 'text': 'Siempre escogemos alpina para la lonchera de nuestros chiquis, y para .mi un rico arequipe con quesito', 'ownerUsername': 'yamilemorenoporras', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.89012-19/573323465_1219825463302212_7278921664109726296_n.png?stp=dst-webp_s150x150&amp;_nc_cat=1&amp;ig_cache_key</t>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18098144245606945', 'id': '18098144245606945', 'text': 'Que mieldaaa', 'ownerUsername': 'matiasarturoromo', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.82787-19/573473903_17898280404321112_6966858402340948994_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=103&amp;ig_cache_key=GG_ELiJYA5clZJY-AAJM_g-OQK9gbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ</t>
         </is>
       </c>
     </row>
@@ -2744,23 +2688,23 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>lizcano.z</t>
+          <t>matiasarturoromo</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Los preferidos de mi chiqui le encantan los Dinos</t>
+          <t>Que mieldaaa</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
-        <v>45968.86053240741</v>
+        <v>45970.1875</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>45968</v>
+        <v>45970</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>20:39:10</t>
+          <t>04:30:00</t>
         </is>
       </c>
       <c r="K41" t="n">
@@ -2774,13 +2718,13 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>https://instagram.com/lizcano.z</t>
+          <t>https://instagram.com/matiasarturoromo</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18144953131380182', 'id': '18144953131380182', 'text': 'Los preferidos de mi chiqui le encantan los Dinos', 'ownerUsername': 'lizcano.z', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.2885-19/332621657_6410209482345828_4629360806061933546_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GFln0xNkjSEzDcYWAOoDcC4gyz5AbkULAAAB1501500j-ccb7-5&amp;cc</t>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18098144245606945', 'id': '18098144245606945', 'text': 'Que mieldaaa', 'ownerUsername': 'matiasarturoromo', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.82787-19/573473903_17898280404321112_6966858402340948994_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=103&amp;ig_cache_key=GG_ELiJYA5clZJY-AAJM_g-OQK9gbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ</t>
         </is>
       </c>
     </row>
@@ -2806,23 +2750,23 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>lizcano.z</t>
+          <t>matiasarturoromo</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Los preferidos de mi chiqui le encantan los Dinos</t>
+          <t>Que mieldaaa</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
-        <v>45968.86053240741</v>
+        <v>45970.1875</v>
       </c>
       <c r="I42" s="3" t="n">
-        <v>45968</v>
+        <v>45970</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>20:39:10</t>
+          <t>04:30:00</t>
         </is>
       </c>
       <c r="K42" t="n">
@@ -2836,13 +2780,13 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>https://instagram.com/lizcano.z</t>
+          <t>https://instagram.com/matiasarturoromo</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18144953131380182', 'id': '18144953131380182', 'text': 'Los preferidos de mi chiqui le encantan los Dinos', 'ownerUsername': 'lizcano.z', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.2885-19/332621657_6410209482345828_4629360806061933546_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GFln0xNkjSEzDcYWAOoDcC4gyz5AbkULAAAB1501500j-ccb7-5&amp;cc</t>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18098144245606945', 'id': '18098144245606945', 'text': 'Que mieldaaa', 'ownerUsername': 'matiasarturoromo', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.82787-19/573473903_17898280404321112_6966858402340948994_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=103&amp;ig_cache_key=GG_ELiJYA5clZJY-AAJM_g-OQK9gbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ</t>
         </is>
       </c>
     </row>
@@ -2868,27 +2812,27 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>renecorrea6600</t>
+          <t>camilavalenzcaro443</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Yo compro muchos yogoyogo y la gelatina y el yogurt de bolsita y me encantaría que me mande una caja con todos los yogures 🙏 me encanta los yogures</t>
+          <t>Holaa</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
-        <v>45965.13641203703</v>
+        <v>45968.94402777778</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>45965</v>
+        <v>45968</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>03:16:26</t>
+          <t>22:39:24</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -2898,13 +2842,13 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>https://instagram.com/renecorrea6600</t>
+          <t>https://instagram.com/camilavalenzcaro443</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18069384506600468', 'id': '18069384506600468', 'text': 'Yo compro muchos yogoyogo y la gelatina y el yogurt de bolsita y me encantaría que me mande una caja con todos los yogures 🙏 me encanta los yogures', 'ownerUsername': 'renecorrea6600', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.2885-19/285767721_387465060107593_8753498132828513536_n.jpg?stp=d</t>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18034059335512099', 'id': '18034059335512099', 'text': 'Holaa', 'ownerUsername': 'camilavalenzcaro443', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.82787-19/565042982_17921020101158101_7888790515073166009_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GCbfrSHVZCSlEqs-ALkqaEYtnXptbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5</t>
         </is>
       </c>
     </row>
@@ -2930,27 +2874,27 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>renecorrea6600</t>
+          <t>camilavalenzcaro443</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Yo compro muchos yogoyogo y la gelatina y el yogurt de bolsita y me encantaría que me mande una caja con todos los yogures 🙏 me encanta los yogures</t>
+          <t>Holaa</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
-        <v>45965.13641203703</v>
-      </c>
-      <c r="I44" s="3" t="n">
-        <v>45965</v>
+        <v>45968.94402777778</v>
+      </c>
+      <c r="I44" s="2" t="n">
+        <v>45968</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>03:16:26</t>
+          <t>22:39:24</t>
         </is>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -2960,13 +2904,13 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>https://instagram.com/renecorrea6600</t>
+          <t>https://instagram.com/camilavalenzcaro443</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18069384506600468', 'id': '18069384506600468', 'text': 'Yo compro muchos yogoyogo y la gelatina y el yogurt de bolsita y me encantaría que me mande una caja con todos los yogures 🙏 me encanta los yogures', 'ownerUsername': 'renecorrea6600', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.2885-19/285767721_387465060107593_8753498132828513536_n.jpg?stp=d</t>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18034059335512099', 'id': '18034059335512099', 'text': 'Holaa', 'ownerUsername': 'camilavalenzcaro443', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.82787-19/565042982_17921020101158101_7888790515073166009_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GCbfrSHVZCSlEqs-ALkqaEYtnXptbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5</t>
         </is>
       </c>
     </row>
@@ -2992,27 +2936,27 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>liebe_sheibe</t>
+          <t>camilavalenzcaro443</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Quiero uno y no encuentro los yogures se agotaron muy rápido yo quería uno,😣😕</t>
+          <t>Holaa</t>
         </is>
       </c>
       <c r="H45" s="2" t="n">
-        <v>45962.07112268519</v>
-      </c>
-      <c r="I45" s="2" t="n">
-        <v>45962</v>
+        <v>45968.94402777778</v>
+      </c>
+      <c r="I45" s="3" t="n">
+        <v>45968</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>01:42:25</t>
+          <t>22:39:24</t>
         </is>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -3022,13 +2966,13 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>https://instagram.com/liebe_sheibe</t>
+          <t>https://instagram.com/camilavalenzcaro443</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18079566332513278', 'id': '18079566332513278', 'text': 'Quiero uno y no encuentro los yogures se agotaron muy rápido yo quería uno,😣😕', 'ownerUsername': 'liebe_sheibe', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.89012-19/573323465_1219825463302212_7278921664109726296_n.png?stp=dst-webp_s150x150&amp;_nc_cat=1&amp;ig_cache_key=YW5vbnltb3VzX3Byb2ZpbGVfcGlj.3</t>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18034059335512099', 'id': '18034059335512099', 'text': 'Holaa', 'ownerUsername': 'camilavalenzcaro443', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.82787-19/565042982_17921020101158101_7888790515073166009_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GCbfrSHVZCSlEqs-ALkqaEYtnXptbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5</t>
         </is>
       </c>
     </row>
@@ -3054,27 +2998,27 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>liebe_sheibe</t>
+          <t>camilavalenzcaro443</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Quiero uno y no encuentro los yogures se agotaron muy rápido yo quería uno,😣😕</t>
+          <t>Amiga linda te quiero</t>
         </is>
       </c>
       <c r="H46" s="2" t="n">
-        <v>45962.07112268519</v>
-      </c>
-      <c r="I46" s="3" t="n">
-        <v>45962</v>
+        <v>45968.94396990741</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>45968</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>01:42:25</t>
+          <t>22:39:19</t>
         </is>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -3084,13 +3028,881 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>https://instagram.com/liebe_sheibe</t>
+          <t>https://instagram.com/camilavalenzcaro443</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18285197614263782', 'id': '18285197614263782', 'text': 'Amiga linda te quiero', 'ownerUsername': 'camilavalenzcaro443', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.82787-19/565042982_17921020101158101_7888790515073166009_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GCbfrSHVZCSlEqs-ALkqaEYtnXptbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=66</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>13</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>camilavalenzcaro443</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Amiga linda te quiero</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>45968.94396990741</v>
+      </c>
+      <c r="I47" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>22:39:19</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="b">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>https://instagram.com/camilavalenzcaro443</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18285197614263782', 'id': '18285197614263782', 'text': 'Amiga linda te quiero', 'ownerUsername': 'camilavalenzcaro443', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.82787-19/565042982_17921020101158101_7888790515073166009_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GCbfrSHVZCSlEqs-ALkqaEYtnXptbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=66</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>13</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>camilavalenzcaro443</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Amiga linda te quiero</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>45968.94396990741</v>
+      </c>
+      <c r="I48" s="3" t="n">
+        <v>45968</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>22:39:19</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>https://instagram.com/camilavalenzcaro443</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18285197614263782', 'id': '18285197614263782', 'text': 'Amiga linda te quiero', 'ownerUsername': 'camilavalenzcaro443', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.82787-19/565042982_17921020101158101_7888790515073166009_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GCbfrSHVZCSlEqs-ALkqaEYtnXptbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=66</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>13</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>yamilemorenoporras</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Siempre escogemos alpina para la lonchera de nuestros chiquis, y para .mi un rico arequipe con quesito</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>45968.88957175926</v>
+      </c>
+      <c r="I49" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>21:20:59</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>https://instagram.com/yamilemorenoporras</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18042448463682848', 'id': '18042448463682848', 'text': 'Siempre escogemos alpina para la lonchera de nuestros chiquis, y para .mi un rico arequipe con quesito', 'ownerUsername': 'yamilemorenoporras', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.89012-19/573323465_1219825463302212_7278921664109726296_n.png?stp=dst-webp_s150x150&amp;_nc_cat=1&amp;ig_cache_key</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>13</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>yamilemorenoporras</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Siempre escogemos alpina para la lonchera de nuestros chiquis, y para .mi un rico arequipe con quesito</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>45968.88957175926</v>
+      </c>
+      <c r="I50" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>21:20:59</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>https://instagram.com/yamilemorenoporras</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18042448463682848', 'id': '18042448463682848', 'text': 'Siempre escogemos alpina para la lonchera de nuestros chiquis, y para .mi un rico arequipe con quesito', 'ownerUsername': 'yamilemorenoporras', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.89012-19/573323465_1219825463302212_7278921664109726296_n.png?stp=dst-webp_s150x150&amp;_nc_cat=1&amp;ig_cache_key</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>13</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>yamilemorenoporras</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Siempre escogemos alpina para la lonchera de nuestros chiquis, y para .mi un rico arequipe con quesito</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="n">
+        <v>45968.88957175926</v>
+      </c>
+      <c r="I51" s="3" t="n">
+        <v>45968</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>21:20:59</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="b">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>https://instagram.com/yamilemorenoporras</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18042448463682848', 'id': '18042448463682848', 'text': 'Siempre escogemos alpina para la lonchera de nuestros chiquis, y para .mi un rico arequipe con quesito', 'ownerUsername': 'yamilemorenoporras', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.89012-19/573323465_1219825463302212_7278921664109726296_n.png?stp=dst-webp_s150x150&amp;_nc_cat=1&amp;ig_cache_key</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>13</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>lizcano.z</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Los preferidos de mi chiqui le encantan los Dinos</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="n">
+        <v>45968.86053240741</v>
+      </c>
+      <c r="I52" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>20:39:10</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>https://instagram.com/lizcano.z</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18144953131380182', 'id': '18144953131380182', 'text': 'Los preferidos de mi chiqui le encantan los Dinos', 'ownerUsername': 'lizcano.z', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.2885-19/332621657_6410209482345828_4629360806061933546_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GFln0xNkjSEzDcYWAOoDcC4gyz5AbkULAAAB1501500j-ccb7-5&amp;cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>13</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>lizcano.z</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Los preferidos de mi chiqui le encantan los Dinos</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="n">
+        <v>45968.86053240741</v>
+      </c>
+      <c r="I53" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>20:39:10</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="b">
+        <v>0</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>https://instagram.com/lizcano.z</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18144953131380182', 'id': '18144953131380182', 'text': 'Los preferidos de mi chiqui le encantan los Dinos', 'ownerUsername': 'lizcano.z', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.2885-19/332621657_6410209482345828_4629360806061933546_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GFln0xNkjSEzDcYWAOoDcC4gyz5AbkULAAAB1501500j-ccb7-5&amp;cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>13</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>lizcano.z</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Los preferidos de mi chiqui le encantan los Dinos</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="n">
+        <v>45968.86053240741</v>
+      </c>
+      <c r="I54" s="3" t="n">
+        <v>45968</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>20:39:10</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="b">
+        <v>0</v>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>https://instagram.com/lizcano.z</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18144953131380182', 'id': '18144953131380182', 'text': 'Los preferidos de mi chiqui le encantan los Dinos', 'ownerUsername': 'lizcano.z', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.2885-19/332621657_6410209482345828_4629360806061933546_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GFln0xNkjSEzDcYWAOoDcC4gyz5AbkULAAAB1501500j-ccb7-5&amp;cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>13</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>renecorrea6600</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Yo compro muchos yogoyogo y la gelatina y el yogurt de bolsita y me encantaría que me mande una caja con todos los yogures 🙏 me encanta los yogures</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="n">
+        <v>45965.13641203703</v>
+      </c>
+      <c r="I55" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>03:16:26</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="b">
+        <v>0</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>https://instagram.com/renecorrea6600</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18069384506600468', 'id': '18069384506600468', 'text': 'Yo compro muchos yogoyogo y la gelatina y el yogurt de bolsita y me encantaría que me mande una caja con todos los yogures 🙏 me encanta los yogures', 'ownerUsername': 'renecorrea6600', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.2885-19/285767721_387465060107593_8753498132828513536_n.jpg?stp=d</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>13</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>renecorrea6600</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Yo compro muchos yogoyogo y la gelatina y el yogurt de bolsita y me encantaría que me mande una caja con todos los yogures 🙏 me encanta los yogures</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="n">
+        <v>45965.13641203703</v>
+      </c>
+      <c r="I56" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>03:16:26</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="b">
+        <v>0</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>https://instagram.com/renecorrea6600</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18069384506600468', 'id': '18069384506600468', 'text': 'Yo compro muchos yogoyogo y la gelatina y el yogurt de bolsita y me encantaría que me mande una caja con todos los yogures 🙏 me encanta los yogures', 'ownerUsername': 'renecorrea6600', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.2885-19/285767721_387465060107593_8753498132828513536_n.jpg?stp=d</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>13</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>renecorrea6600</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Yo compro muchos yogoyogo y la gelatina y el yogurt de bolsita y me encantaría que me mande una caja con todos los yogures 🙏 me encanta los yogures</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="n">
+        <v>45965.13641203703</v>
+      </c>
+      <c r="I57" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>03:16:26</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="b">
+        <v>0</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>https://instagram.com/renecorrea6600</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18069384506600468', 'id': '18069384506600468', 'text': 'Yo compro muchos yogoyogo y la gelatina y el yogurt de bolsita y me encantaría que me mande una caja con todos los yogures 🙏 me encanta los yogures', 'ownerUsername': 'renecorrea6600', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.2885-19/285767721_387465060107593_8753498132828513536_n.jpg?stp=d</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>13</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>liebe_sheibe</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Quiero uno y no encuentro los yogures se agotaron muy rápido yo quería uno,😣😕</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="n">
+        <v>45962.07112268519</v>
+      </c>
+      <c r="I58" s="2" t="n">
+        <v>45962</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>01:42:25</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="b">
+        <v>0</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>https://instagram.com/liebe_sheibe</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
           <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18079566332513278', 'id': '18079566332513278', 'text': 'Quiero uno y no encuentro los yogures se agotaron muy rápido yo quería uno,😣😕', 'ownerUsername': 'liebe_sheibe', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.89012-19/573323465_1219825463302212_7278921664109726296_n.png?stp=dst-webp_s150x150&amp;_nc_cat=1&amp;ig_cache_key=YW5vbnltb3VzX3Byb2ZpbGVfcGlj.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>13</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>liebe_sheibe</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Quiero uno y no encuentro los yogures se agotaron muy rápido yo quería uno,😣😕</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="n">
+        <v>45962.07112268519</v>
+      </c>
+      <c r="I59" s="2" t="n">
+        <v>45962</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>01:42:25</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="b">
+        <v>0</v>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>https://instagram.com/liebe_sheibe</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18079566332513278', 'id': '18079566332513278', 'text': 'Quiero uno y no encuentro los yogures se agotaron muy rápido yo quería uno,😣😕', 'ownerUsername': 'liebe_sheibe', 'ownerProfilePicUrl': 'https://scontent-bos5-1.cdninstagram.com/v/t51.89012-19/573323465_1219825463302212_7278921664109726296_n.png?stp=dst-webp_s150x150&amp;_nc_cat=1&amp;ig_cache_key=YW5vbnltb3VzX3Byb2ZpbGVfcGlj.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>13</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>liebe_sheibe</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Quiero uno y no encuentro los yogures se agotaron muy rápido yo quería uno,😣😕</t>
+        </is>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>45962.07112268519</v>
+      </c>
+      <c r="I60" s="3" t="n">
+        <v>45962</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>01:42:25</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="b">
+        <v>0</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>https://instagram.com/liebe_sheibe</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18079566332513278', 'id': '18079566332513278', 'text': 'Quiero uno y no encuentro los yogures se agotaron muy rápido yo quería uno,😣😕', 'ownerUsername': 'liebe_sheibe', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.89012-19/573323465_1219825463302212_7278921664109726296_n.png?stp=dst-webp_s150x150&amp;_nc_cat=1&amp;ig_cache_key=YW5vbnltb3VzX3Byb2ZpbGVfcGlj.3</t>
         </is>
       </c>
     </row>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Comentarios" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Resumen_Posts" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,7 +627,7 @@
       <c r="G4" s="2" t="n">
         <v>45980.47052083333</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="2" t="n">
         <v>45980</v>
       </c>
       <c r="I4" t="inlineStr">
@@ -636,10 +635,8 @@
           <t>11:17:33</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="J4" t="n">
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -677,18 +674,18 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Total el ke no sirve que no estorbe 🫩😁😁😁</t>
+          <t>Mucho viejo cacorro, vaya a llorar a la casa joda creen que con eso van a solucionar las cosas , ya es clavo pasao</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>45978.74142361111</v>
+        <v>45980.47052083333</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>45978</v>
+        <v>45980</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>17:47:39</t>
+          <t>11:17:33</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -706,13 +703,13 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0QZtRpncZtCfENXMXna9cWuv7rzBYXQv4fxHFBFvrw5E3FCfyEC7ZY8tTAWyZsscLl?comment_id=1523281158961050', 'id': 'Y29tbWVudDoxMjc0MDA1NzQ4MTA0OTk1XzE1MjMyODExNTg5NjEwNTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI3NDAwNTc0ODEwNDk5NV8xNTIzMjgxMTU4OTYxMDUw', 'date': '2025-11-17T17:47:39.000Z', 'text': 'Total el ke no sirve </t>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0QZtRpncZtCfENXMXna9cWuv7rzBYXQv4fxHFBFvrw5E3FCfyEC7ZY8tTAWyZsscLl?comment_id=1148609350320027', 'id': 'Y29tbWVudDoxMjc0MDA1NzQ4MTA0OTk1XzExNDg2MDkzNTAzMjAwMjc=', 'feedbackId': 'ZmVlZGJhY2s6MTI3NDAwNTc0ODEwNDk5NV8xMTQ4NjA5MzUwMzIwMDI3', 'date': '2025-11-19T11:17:33.000Z', 'text': 'Mucho viejo cacorro, </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -721,35 +718,33 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Estoy de acuerdo unos se comen las verdes y otros las maduras</t>
+          <t>Total el ke no sirve que no estorbe 🫩😁😁😁</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>45977.11752314815</v>
-      </c>
-      <c r="H6" s="3" t="n">
-        <v>45977</v>
+        <v>45978.74142361111</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>45978</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>02:49:14</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>17:47:39</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -761,13 +756,13 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02J2Gjj6FoSP9k6PVTZcPb96nWe7MMrC2HMPYj1CA3FR7GS4Yfk9BeVx2uU1JDTokGl?comment_id=847519371075258', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1Xzg0NzUxOTM3MTA3NTI1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV84NDc1MTkzNzEwNzUyNTg=', 'date': '2025-11-16T02:49:14.000Z', 'text': 'Estoy de acuerdo unos </t>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0QZtRpncZtCfENXMXna9cWuv7rzBYXQv4fxHFBFvrw5E3FCfyEC7ZY8tTAWyZsscLl?comment_id=1523281158961050', 'id': 'Y29tbWVudDoxMjc0MDA1NzQ4MTA0OTk1XzE1MjMyODExNTg5NjEwNTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI3NDAwNTc0ODEwNDk5NV8xNTIzMjgxMTU4OTYxMDUw', 'date': '2025-11-17T17:47:39.000Z', 'text': 'Total el ke no sirve </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -776,29 +771,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Qeee titi dijo una amiga mía jejejeje</t>
+          <t>Total el ke no sirve que no estorbe 🫩😁😁😁</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>45974.1278125</v>
+        <v>45978.74142361111</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>45974</v>
+        <v>45978</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>03:04:03</t>
+          <t>17:47:39</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -816,13 +811,13 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02J2Gjj6FoSP9k6PVTZcPb96nWe7MMrC2HMPYj1CA3FR7GS4Yfk9BeVx2uU1JDTokGl?comment_id=1207180104642809', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1XzEyMDcxODAxMDQ2NDI4MDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV8xMjA3MTgwMTA0NjQyODA5', 'date': '2025-11-13T03:04:03.000Z', 'text': 'Qeee titi dijo una am</t>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0QZtRpncZtCfENXMXna9cWuv7rzBYXQv4fxHFBFvrw5E3FCfyEC7ZY8tTAWyZsscLl?comment_id=1523281158961050', 'id': 'Y29tbWVudDoxMjc0MDA1NzQ4MTA0OTk1XzE1MjMyODExNTg5NjEwNTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI3NDAwNTc0ODEwNDk5NV8xNTIzMjgxMTU4OTYxMDUw', 'date': '2025-11-17T17:47:39.000Z', 'text': 'Total el ke no sirve </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -831,35 +826,33 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>El mejor Probiótico</t>
+          <t>Estoy de acuerdo unos se comen las verdes y otros las maduras</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>45971.41180555556</v>
-      </c>
-      <c r="H8" s="3" t="n">
-        <v>45971</v>
+        <v>45977.11752314815</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>45977</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>09:53:00</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>02:49:14</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -871,13 +864,13 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=1220441243230897', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzEyMjA0NDEyNDMyMzA4OTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8xMjIwNDQxMjQzMjMwODk3', 'date': '2025-11-10T09:53:00.000Z', 'text': 'El mejor Probiótico'</t>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02J2Gjj6FoSP9k6PVTZcPb96nWe7MMrC2HMPYj1CA3FR7GS4Yfk9BeVx2uU1JDTokGl?comment_id=847519371075258', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1Xzg0NzUxOTM3MTA3NTI1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV84NDc1MTkzNzEwNzUyNTg=', 'date': '2025-11-16T02:49:14.000Z', 'text': 'Estoy de acuerdo unos </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -886,29 +879,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Igual que los anteriores</t>
+          <t>Estoy de acuerdo unos se comen las verdes y otros las maduras</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>45969.86098379629</v>
+        <v>45977.11752314815</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>45969</v>
+        <v>45977</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>20:39:49</t>
+          <t>02:49:14</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -926,13 +919,13 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=2124276584648076', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzIxMjQyNzY1ODQ2NDgwNzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8yMTI0Mjc2NTg0NjQ4MDc2', 'date': '2025-11-08T20:39:49.000Z', 'text': 'Igual que los anteri</t>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02J2Gjj6FoSP9k6PVTZcPb96nWe7MMrC2HMPYj1CA3FR7GS4Yfk9BeVx2uU1JDTokGl?comment_id=847519371075258', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1Xzg0NzUxOTM3MTA3NTI1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV84NDc1MTkzNzEwNzUyNTg=', 'date': '2025-11-16T02:49:14.000Z', 'text': 'Estoy de acuerdo unos </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -941,35 +934,33 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Pues algo túvo que Aser le él cuando eya rrasiono así aver hombre cuando un hombre Caba con la vida dé una mujer poque ustedes no le dan tanta i portasia. Ihora sí sí los hombres cada rrato acaban con la vida dé la mujer entosse</t>
+          <t>Qeee titi dijo una amiga mía jejejeje</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>45969.62359953704</v>
-      </c>
-      <c r="H10" s="3" t="n">
-        <v>45969</v>
+        <v>45974.1278125</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>45974</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>14:57:59</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>03:04:03</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -981,36 +972,50 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=834542738933427', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzgzNDU0MjczODkzMzQyNw==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF84MzQ1NDI3Mzg5MzM0Mjc=', 'date': '2025-11-08T14:57:59.000Z', 'text': 'Pues algo túvo que As</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02J2Gjj6FoSP9k6PVTZcPb96nWe7MMrC2HMPYj1CA3FR7GS4Yfk9BeVx2uU1JDTokGl?comment_id=1207180104642809', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1XzEyMDcxODAxMDQ2NDI4MDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV8xMjA3MTgwMTA0NjQyODA5', 'date': '2025-11-13T03:04:03.000Z', 'text': 'Qeee titi dijo una am</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQHedmRjHLo/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQHedmRjHLo/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>0</v>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Qeee titi dijo una amiga mía jejejeje</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>45974.1278125</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>45974</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>03:04:03</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1019,51 +1024,47 @@
         <v>0</v>
       </c>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02J2Gjj6FoSP9k6PVTZcPb96nWe7MMrC2HMPYj1CA3FR7GS4Yfk9BeVx2uU1JDTokGl?comment_id=1207180104642809', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1XzEyMDcxODAxMDQ2NDI4MDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV8xMjA3MTgwMTA0NjQyODA5', 'date': '2025-11-13T03:04:03.000Z', 'text': 'Qeee titi dijo una am</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>matiasarturoromo</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Que mieldaaa</t>
+          <t>El mejor Probiótico</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>45970.1875</v>
-      </c>
-      <c r="H12" s="3" t="n">
-        <v>45970</v>
+        <v>45971.41180555556</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>45971</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>04:30:00</t>
+          <t>09:53:00</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -1075,60 +1076,54 @@
       <c r="L12" t="b">
         <v>0</v>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>https://instagram.com/matiasarturoromo</t>
-        </is>
-      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18098144245606945', 'id': '18098144245606945', 'text': 'Que mieldaaa', 'ownerUsername': 'matiasarturoromo', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.82787-19/573473903_17898280404321112_6966858402340948994_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=103&amp;ig_cache_key=GG_ELiJYA5clZJY-AAJM_g-OQK9gbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=1220441243230897', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzEyMjA0NDEyNDMyMzA4OTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8xMjIwNDQxMjQzMjMwODk3', 'date': '2025-11-10T09:53:00.000Z', 'text': 'El mejor Probiótico'</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>camilavalenzcaro443</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Holaa</t>
+          <t>El mejor Probiótico</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>45968.94402777778</v>
+        <v>45971.41180555556</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>22:39:24</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
+          <t>09:53:00</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1136,56 +1131,48 @@
       <c r="L13" t="b">
         <v>0</v>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>https://instagram.com/camilavalenzcaro443</t>
-        </is>
-      </c>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18034059335512099', 'id': '18034059335512099', 'text': 'Holaa', 'ownerUsername': 'camilavalenzcaro443', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.82787-19/565042982_17921020101158101_7888790515073166009_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GCbfrSHVZCSlEqs-ALkqaEYtnXptbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=1220441243230897', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzEyMjA0NDEyNDMyMzA4OTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8xMjIwNDQxMjQzMjMwODk3', 'date': '2025-11-10T09:53:00.000Z', 'text': 'El mejor Probiótico'</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>camilavalenzcaro443</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Amiga linda te quiero</t>
+          <t>Igual que los anteriores</t>
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>45968.94396990741</v>
-      </c>
-      <c r="H14" s="3" t="n">
-        <v>45968</v>
+        <v>45969.86098379629</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>45969</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>22:39:19</t>
+          <t>20:39:49</t>
         </is>
       </c>
       <c r="J14" t="n">
@@ -1197,60 +1184,54 @@
       <c r="L14" t="b">
         <v>0</v>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>https://instagram.com/camilavalenzcaro443</t>
-        </is>
-      </c>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18285197614263782', 'id': '18285197614263782', 'text': 'Amiga linda te quiero', 'ownerUsername': 'camilavalenzcaro443', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.82787-19/565042982_17921020101158101_7888790515073166009_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GCbfrSHVZCSlEqs-ALkqaEYtnXptbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=66</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=2124276584648076', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzIxMjQyNzY1ODQ2NDgwNzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8yMTI0Mjc2NTg0NjQ4MDc2', 'date': '2025-11-08T20:39:49.000Z', 'text': 'Igual que los anteri</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>yamilemorenoporras</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Siempre escogemos alpina para la lonchera de nuestros chiquis, y para .mi un rico arequipe con quesito</t>
+          <t>Igual que los anteriores</t>
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>45968.88957175926</v>
+        <v>45969.86098379629</v>
       </c>
       <c r="H15" s="3" t="n">
-        <v>45968</v>
+        <v>45969</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>21:20:59</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
+          <t>20:39:49</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1258,56 +1239,48 @@
       <c r="L15" t="b">
         <v>0</v>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>https://instagram.com/yamilemorenoporras</t>
-        </is>
-      </c>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18042448463682848', 'id': '18042448463682848', 'text': 'Siempre escogemos alpina para la lonchera de nuestros chiquis, y para .mi un rico arequipe con quesito', 'ownerUsername': 'yamilemorenoporras', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.89012-19/573323465_1219825463302212_7278921664109726296_n.png?stp=dst-webp_s150x150&amp;_nc_cat=1&amp;ig_cache_key</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=2124276584648076', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzIxMjQyNzY1ODQ2NDgwNzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8yMTI0Mjc2NTg0NjQ4MDc2', 'date': '2025-11-08T20:39:49.000Z', 'text': 'Igual que los anteri</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>lizcano.z</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Los preferidos de mi chiqui le encantan los Dinos</t>
+          <t>Pues algo túvo que Aser le él cuando eya rrasiono así aver hombre cuando un hombre Caba con la vida dé una mujer poque ustedes no le dan tanta i portasia. Ihora sí sí los hombres cada rrato acaban con la vida dé la mujer entosse</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>45968.86053240741</v>
-      </c>
-      <c r="H16" s="3" t="n">
-        <v>45968</v>
+        <v>45969.62359953704</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>45969</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>20:39:10</t>
+          <t>14:57:59</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -1319,60 +1292,54 @@
       <c r="L16" t="b">
         <v>0</v>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>https://instagram.com/lizcano.z</t>
-        </is>
-      </c>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18144953131380182', 'id': '18144953131380182', 'text': 'Los preferidos de mi chiqui le encantan los Dinos', 'ownerUsername': 'lizcano.z', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.2885-19/332621657_6410209482345828_4629360806061933546_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GFln0xNkjSEzDcYWAOoDcC4gyz5AbkULAAAB1501500j-ccb7-5&amp;cc</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=834542738933427', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzgzNDU0MjczODkzMzQyNw==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF84MzQ1NDI3Mzg5MzM0Mjc=', 'date': '2025-11-08T14:57:59.000Z', 'text': 'Pues algo túvo que As</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>renecorrea6600</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Yo compro muchos yogoyogo y la gelatina y el yogurt de bolsita y me encantaría que me mande una caja con todos los yogures 🙏 me encanta los yogures</t>
+          <t>Pues algo túvo que Aser le él cuando eya rrasiono así aver hombre cuando un hombre Caba con la vida dé una mujer poque ustedes no le dan tanta i portasia. Ihora sí sí los hombres cada rrato acaban con la vida dé la mujer entosse</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>45965.13641203703</v>
+        <v>45969.62359953704</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>45965</v>
+        <v>45969</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>03:16:26</t>
-        </is>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
+          <t>14:57:59</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1380,310 +1347,907 @@
       <c r="L17" t="b">
         <v>0</v>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>https://instagram.com/renecorrea6600</t>
-        </is>
-      </c>
+      <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18069384506600468', 'id': '18069384506600468', 'text': 'Yo compro muchos yogoyogo y la gelatina y el yogurt de bolsita y me encantaría que me mande una caja con todos los yogures 🙏 me encanta los yogures', 'ownerUsername': 'renecorrea6600', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.2885-19/285767721_387465060107593_8753498132828513536_n.jpg?stp=d</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=834542738933427', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzgzNDU0MjczODkzMzQyNw==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF84MzQ1NDI3Mzg5MzM0Mjc=', 'date': '2025-11-08T14:57:59.000Z', 'text': 'Pues algo túvo que As</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
+        <v>6</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQHedmRjHLo/</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQHedmRjHLo/</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
         <v>7</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>Instagram</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>matiasarturoromo</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Que mieldaaa</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>45970.1875</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>45970</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>04:30:00</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>https://instagram.com/matiasarturoromo</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18098144245606945', 'id': '18098144245606945', 'text': 'Que mieldaaa', 'ownerUsername': 'matiasarturoromo', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.82787-19/573473903_17898280404321112_6966858402340948994_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=103&amp;ig_cache_key=GG_ELiJYA5clZJY-AAJM_g-OQK9gbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>7</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>matiasarturoromo</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Que mieldaaa</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>45970.1875</v>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>45970</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>04:30:00</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>https://instagram.com/matiasarturoromo</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18098144245606945', 'id': '18098144245606945', 'text': 'Que mieldaaa', 'ownerUsername': 'matiasarturoromo', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.82787-19/573473903_17898280404321112_6966858402340948994_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=103&amp;ig_cache_key=GG_ELiJYA5clZJY-AAJM_g-OQK9gbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>7</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>camilavalenzcaro443</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Holaa</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>45968.94402777778</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>22:39:24</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>https://instagram.com/camilavalenzcaro443</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18034059335512099', 'id': '18034059335512099', 'text': 'Holaa', 'ownerUsername': 'camilavalenzcaro443', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.82787-19/565042982_17921020101158101_7888790515073166009_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GCbfrSHVZCSlEqs-ALkqaEYtnXptbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>camilavalenzcaro443</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Holaa</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>45968.94402777778</v>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>45968</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>22:39:24</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>https://instagram.com/camilavalenzcaro443</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18034059335512099', 'id': '18034059335512099', 'text': 'Holaa', 'ownerUsername': 'camilavalenzcaro443', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.82787-19/565042982_17921020101158101_7888790515073166009_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GCbfrSHVZCSlEqs-ALkqaEYtnXptbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>7</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>camilavalenzcaro443</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Amiga linda te quiero</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>45968.94396990741</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>22:39:19</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>https://instagram.com/camilavalenzcaro443</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18285197614263782', 'id': '18285197614263782', 'text': 'Amiga linda te quiero', 'ownerUsername': 'camilavalenzcaro443', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.82787-19/565042982_17921020101158101_7888790515073166009_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GCbfrSHVZCSlEqs-ALkqaEYtnXptbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=66</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>7</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>camilavalenzcaro443</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Amiga linda te quiero</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>45968.94396990741</v>
+      </c>
+      <c r="H24" s="3" t="n">
+        <v>45968</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>22:39:19</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>https://instagram.com/camilavalenzcaro443</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18285197614263782', 'id': '18285197614263782', 'text': 'Amiga linda te quiero', 'ownerUsername': 'camilavalenzcaro443', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.82787-19/565042982_17921020101158101_7888790515073166009_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GCbfrSHVZCSlEqs-ALkqaEYtnXptbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=66</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>7</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>yamilemorenoporras</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Siempre escogemos alpina para la lonchera de nuestros chiquis, y para .mi un rico arequipe con quesito</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>45968.88957175926</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>21:20:59</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>https://instagram.com/yamilemorenoporras</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18042448463682848', 'id': '18042448463682848', 'text': 'Siempre escogemos alpina para la lonchera de nuestros chiquis, y para .mi un rico arequipe con quesito', 'ownerUsername': 'yamilemorenoporras', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.89012-19/573323465_1219825463302212_7278921664109726296_n.png?stp=dst-webp_s150x150&amp;_nc_cat=1&amp;ig_cache_key</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>7</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>yamilemorenoporras</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Siempre escogemos alpina para la lonchera de nuestros chiquis, y para .mi un rico arequipe con quesito</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>45968.88957175926</v>
+      </c>
+      <c r="H26" s="3" t="n">
+        <v>45968</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>21:20:59</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>https://instagram.com/yamilemorenoporras</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18042448463682848', 'id': '18042448463682848', 'text': 'Siempre escogemos alpina para la lonchera de nuestros chiquis, y para .mi un rico arequipe con quesito', 'ownerUsername': 'yamilemorenoporras', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.89012-19/573323465_1219825463302212_7278921664109726296_n.png?stp=dst-webp_s150x150&amp;_nc_cat=1&amp;ig_cache_key</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>7</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>lizcano.z</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Los preferidos de mi chiqui le encantan los Dinos</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>45968.86053240741</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>20:39:10</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>https://instagram.com/lizcano.z</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18144953131380182', 'id': '18144953131380182', 'text': 'Los preferidos de mi chiqui le encantan los Dinos', 'ownerUsername': 'lizcano.z', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.2885-19/332621657_6410209482345828_4629360806061933546_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GFln0xNkjSEzDcYWAOoDcC4gyz5AbkULAAAB1501500j-ccb7-5&amp;cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>7</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>lizcano.z</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Los preferidos de mi chiqui le encantan los Dinos</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>45968.86053240741</v>
+      </c>
+      <c r="H28" s="3" t="n">
+        <v>45968</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>20:39:10</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>https://instagram.com/lizcano.z</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18144953131380182', 'id': '18144953131380182', 'text': 'Los preferidos de mi chiqui le encantan los Dinos', 'ownerUsername': 'lizcano.z', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.2885-19/332621657_6410209482345828_4629360806061933546_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GFln0xNkjSEzDcYWAOoDcC4gyz5AbkULAAAB1501500j-ccb7-5&amp;cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>7</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>renecorrea6600</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Yo compro muchos yogoyogo y la gelatina y el yogurt de bolsita y me encantaría que me mande una caja con todos los yogures 🙏 me encanta los yogures</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>45965.13641203703</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>03:16:26</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>https://instagram.com/renecorrea6600</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18069384506600468', 'id': '18069384506600468', 'text': 'Yo compro muchos yogoyogo y la gelatina y el yogurt de bolsita y me encantaría que me mande una caja con todos los yogures 🙏 me encanta los yogures', 'ownerUsername': 'renecorrea6600', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.2885-19/285767721_387465060107593_8753498132828513536_n.jpg?stp=d</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>7</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>renecorrea6600</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Yo compro muchos yogoyogo y la gelatina y el yogurt de bolsita y me encantaría que me mande una caja con todos los yogures 🙏 me encanta los yogures</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>45965.13641203703</v>
+      </c>
+      <c r="H30" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>03:16:26</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>https://instagram.com/renecorrea6600</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18069384506600468', 'id': '18069384506600468', 'text': 'Yo compro muchos yogoyogo y la gelatina y el yogurt de bolsita y me encantaría que me mande una caja con todos los yogures 🙏 me encanta los yogures', 'ownerUsername': 'renecorrea6600', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.2885-19/285767721_387465060107593_8753498132828513536_n.jpg?stp=d</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>7</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>liebe_sheibe</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Quiero uno y no encuentro los yogures se agotaron muy rápido yo quería uno,😣😕</t>
         </is>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="G31" s="2" t="n">
         <v>45962.07112268519</v>
       </c>
-      <c r="H18" s="3" t="n">
+      <c r="H31" s="2" t="n">
         <v>45962</v>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>01:42:25</t>
         </is>
       </c>
-      <c r="J18" t="n">
+      <c r="J31" t="n">
         <v>1</v>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="b">
-        <v>0</v>
-      </c>
-      <c r="M18" t="inlineStr">
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>https://instagram.com/liebe_sheibe</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr">
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr">
         <is>
           <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18079566332513278', 'id': '18079566332513278', 'text': 'Quiero uno y no encuentro los yogures se agotaron muy rápido yo quería uno,😣😕', 'ownerUsername': 'liebe_sheibe', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.89012-19/573323465_1219825463302212_7278921664109726296_n.png?stp=dst-webp_s150x150&amp;_nc_cat=1&amp;ig_cache_key=YW5vbnltb3VzX3Byb2ZpbGVfcGlj.3</t>
         </is>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>post_number</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>platform</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>post_url</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Total_Comentarios</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total_Likes</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Primera_Extraccion</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Ultima_Extraccion</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="32">
+      <c r="A32" t="n">
+        <v>7</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>liebe_sheibe</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Quiero uno y no encuentro los yogures se agotaron muy rápido yo quería uno,😣😕</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>45962.07112268519</v>
+      </c>
+      <c r="H32" s="3" t="n">
+        <v>45962</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>01:42:25</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSynjCxPs/</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260808236091413/</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>45978.74142361111</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>45980.47052083333</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>45974.1278125</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>45977.11752314815</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>45969.62359953704</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>45971.41180555556</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DQHedmRjHLo/</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>7</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>45962.07112268519</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>45970.1875</v>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>https://instagram.com/liebe_sheibe</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18079566332513278', 'id': '18079566332513278', 'text': 'Quiero uno y no encuentro los yogures se agotaron muy rápido yo quería uno,😣😕', 'ownerUsername': 'liebe_sheibe', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.89012-19/573323465_1219825463302212_7278921664109726296_n.png?stp=dst-webp_s150x150&amp;_nc_cat=1&amp;ig_cache_key=YW5vbnltb3VzX3Byb2ZpbGVfcGlj.3</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -8,6 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="Comentarios" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Resumen_Posts" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Stats_Plataforma" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="URLs_Fallidas" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Stats_Extraccion" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,7 +684,7 @@
       <c r="G5" s="2" t="n">
         <v>45980.47052083333</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="2" t="n">
         <v>45980</v>
       </c>
       <c r="I5" t="inlineStr">
@@ -688,10 +692,8 @@
           <t>11:17:33</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="J5" t="n">
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -729,22 +731,24 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Total el ke no sirve que no estorbe 🫩😁😁😁</t>
+          <t>Mucho viejo cacorro, vaya a llorar a la casa joda creen que con eso van a solucionar las cosas , ya es clavo pasao</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>45978.74142361111</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>45978</v>
+        <v>45980.47052083333</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>45980</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>17:47:39</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
+          <t>11:17:33</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -756,7 +760,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0QZtRpncZtCfENXMXna9cWuv7rzBYXQv4fxHFBFvrw5E3FCfyEC7ZY8tTAWyZsscLl?comment_id=1523281158961050', 'id': 'Y29tbWVudDoxMjc0MDA1NzQ4MTA0OTk1XzE1MjMyODExNTg5NjEwNTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI3NDAwNTc0ODEwNDk5NV8xNTIzMjgxMTU4OTYxMDUw', 'date': '2025-11-17T17:47:39.000Z', 'text': 'Total el ke no sirve </t>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0QZtRpncZtCfENXMXna9cWuv7rzBYXQv4fxHFBFvrw5E3FCfyEC7ZY8tTAWyZsscLl?comment_id=1148609350320027', 'id': 'Y29tbWVudDoxMjc0MDA1NzQ4MTA0OTk1XzExNDg2MDkzNTAzMjAwMjc=', 'feedbackId': 'ZmVlZGJhY2s6MTI3NDAwNTc0ODEwNDk5NV8xMTQ4NjA5MzUwMzIwMDI3', 'date': '2025-11-19T11:17:33.000Z', 'text': 'Mucho viejo cacorro, </t>
         </is>
       </c>
     </row>
@@ -788,7 +792,7 @@
       <c r="G7" s="2" t="n">
         <v>45978.74142361111</v>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="H7" s="2" t="n">
         <v>45978</v>
       </c>
       <c r="I7" t="inlineStr">
@@ -796,10 +800,8 @@
           <t>17:47:39</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="J7" t="n">
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -817,7 +819,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -826,29 +828,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Estoy de acuerdo unos se comen las verdes y otros las maduras</t>
+          <t>Total el ke no sirve que no estorbe 🫩😁😁😁</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>45977.11752314815</v>
+        <v>45978.74142361111</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45977</v>
+        <v>45978</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>02:49:14</t>
+          <t>17:47:39</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -864,13 +866,13 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02J2Gjj6FoSP9k6PVTZcPb96nWe7MMrC2HMPYj1CA3FR7GS4Yfk9BeVx2uU1JDTokGl?comment_id=847519371075258', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1Xzg0NzUxOTM3MTA3NTI1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV84NDc1MTkzNzEwNzUyNTg=', 'date': '2025-11-16T02:49:14.000Z', 'text': 'Estoy de acuerdo unos </t>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0QZtRpncZtCfENXMXna9cWuv7rzBYXQv4fxHFBFvrw5E3FCfyEC7ZY8tTAWyZsscLl?comment_id=1523281158961050', 'id': 'Y29tbWVudDoxMjc0MDA1NzQ4MTA0OTk1XzE1MjMyODExNTg5NjEwNTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI3NDAwNTc0ODEwNDk5NV8xNTIzMjgxMTU4OTYxMDUw', 'date': '2025-11-17T17:47:39.000Z', 'text': 'Total el ke no sirve </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -879,29 +881,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Estoy de acuerdo unos se comen las verdes y otros las maduras</t>
+          <t>Total el ke no sirve que no estorbe 🫩😁😁😁</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>45977.11752314815</v>
+        <v>45978.74142361111</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>45977</v>
+        <v>45978</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>02:49:14</t>
+          <t>17:47:39</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -919,7 +921,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02J2Gjj6FoSP9k6PVTZcPb96nWe7MMrC2HMPYj1CA3FR7GS4Yfk9BeVx2uU1JDTokGl?comment_id=847519371075258', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1Xzg0NzUxOTM3MTA3NTI1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV84NDc1MTkzNzEwNzUyNTg=', 'date': '2025-11-16T02:49:14.000Z', 'text': 'Estoy de acuerdo unos </t>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0QZtRpncZtCfENXMXna9cWuv7rzBYXQv4fxHFBFvrw5E3FCfyEC7ZY8tTAWyZsscLl?comment_id=1523281158961050', 'id': 'Y29tbWVudDoxMjc0MDA1NzQ4MTA0OTk1XzE1MjMyODExNTg5NjEwNTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI3NDAwNTc0ODEwNDk5NV8xNTIzMjgxMTU4OTYxMDUw', 'date': '2025-11-17T17:47:39.000Z', 'text': 'Total el ke no sirve </t>
         </is>
       </c>
     </row>
@@ -945,18 +947,18 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Qeee titi dijo una amiga mía jejejeje</t>
+          <t>Estoy de acuerdo unos se comen las verdes y otros las maduras</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>45974.1278125</v>
+        <v>45977.11752314815</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45974</v>
+        <v>45977</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>03:04:03</t>
+          <t>02:49:14</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -972,7 +974,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02J2Gjj6FoSP9k6PVTZcPb96nWe7MMrC2HMPYj1CA3FR7GS4Yfk9BeVx2uU1JDTokGl?comment_id=1207180104642809', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1XzEyMDcxODAxMDQ2NDI4MDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV8xMjA3MTgwMTA0NjQyODA5', 'date': '2025-11-13T03:04:03.000Z', 'text': 'Qeee titi dijo una am</t>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02J2Gjj6FoSP9k6PVTZcPb96nWe7MMrC2HMPYj1CA3FR7GS4Yfk9BeVx2uU1JDTokGl?comment_id=847519371075258', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1Xzg0NzUxOTM3MTA3NTI1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV84NDc1MTkzNzEwNzUyNTg=', 'date': '2025-11-16T02:49:14.000Z', 'text': 'Estoy de acuerdo unos </t>
         </is>
       </c>
     </row>
@@ -998,24 +1000,22 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Qeee titi dijo una amiga mía jejejeje</t>
+          <t>Estoy de acuerdo unos se comen las verdes y otros las maduras</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>45974.1278125</v>
-      </c>
-      <c r="H11" s="3" t="n">
-        <v>45974</v>
+        <v>45977.11752314815</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>45977</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>03:04:03</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>02:49:14</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1027,13 +1027,13 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02J2Gjj6FoSP9k6PVTZcPb96nWe7MMrC2HMPYj1CA3FR7GS4Yfk9BeVx2uU1JDTokGl?comment_id=1207180104642809', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1XzEyMDcxODAxMDQ2NDI4MDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV8xMjA3MTgwMTA0NjQyODA5', 'date': '2025-11-13T03:04:03.000Z', 'text': 'Qeee titi dijo una am</t>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02J2Gjj6FoSP9k6PVTZcPb96nWe7MMrC2HMPYj1CA3FR7GS4Yfk9BeVx2uU1JDTokGl?comment_id=847519371075258', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1Xzg0NzUxOTM3MTA3NTI1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV84NDc1MTkzNzEwNzUyNTg=', 'date': '2025-11-16T02:49:14.000Z', 'text': 'Estoy de acuerdo unos </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1042,33 +1042,35 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>El mejor Probiótico</t>
+          <t>Estoy de acuerdo unos se comen las verdes y otros las maduras</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>45971.41180555556</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>45971</v>
+        <v>45977.11752314815</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>45977</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>09:53:00</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
+          <t>02:49:14</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1080,13 +1082,13 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=1220441243230897', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzEyMjA0NDEyNDMyMzA4OTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8xMjIwNDQxMjQzMjMwODk3', 'date': '2025-11-10T09:53:00.000Z', 'text': 'El mejor Probiótico'</t>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02J2Gjj6FoSP9k6PVTZcPb96nWe7MMrC2HMPYj1CA3FR7GS4Yfk9BeVx2uU1JDTokGl?comment_id=847519371075258', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1Xzg0NzUxOTM3MTA3NTI1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV84NDc1MTkzNzEwNzUyNTg=', 'date': '2025-11-16T02:49:14.000Z', 'text': 'Estoy de acuerdo unos </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1095,35 +1097,33 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>El mejor Probiótico</t>
+          <t>Qeee titi dijo una amiga mía jejejeje</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>45971.41180555556</v>
-      </c>
-      <c r="H13" s="3" t="n">
-        <v>45971</v>
+        <v>45974.1278125</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>45974</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>09:53:00</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>03:04:03</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1135,13 +1135,13 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=1220441243230897', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzEyMjA0NDEyNDMyMzA4OTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8xMjIwNDQxMjQzMjMwODk3', 'date': '2025-11-10T09:53:00.000Z', 'text': 'El mejor Probiótico'</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02J2Gjj6FoSP9k6PVTZcPb96nWe7MMrC2HMPYj1CA3FR7GS4Yfk9BeVx2uU1JDTokGl?comment_id=1207180104642809', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1XzEyMDcxODAxMDQ2NDI4MDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV8xMjA3MTgwMTA0NjQyODA5', 'date': '2025-11-13T03:04:03.000Z', 'text': 'Qeee titi dijo una am</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1150,29 +1150,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Igual que los anteriores</t>
+          <t>Qeee titi dijo una amiga mía jejejeje</t>
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>45969.86098379629</v>
+        <v>45974.1278125</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45969</v>
+        <v>45974</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>20:39:49</t>
+          <t>03:04:03</t>
         </is>
       </c>
       <c r="J14" t="n">
@@ -1188,13 +1188,13 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=2124276584648076', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzIxMjQyNzY1ODQ2NDgwNzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8yMTI0Mjc2NTg0NjQ4MDc2', 'date': '2025-11-08T20:39:49.000Z', 'text': 'Igual que los anteri</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02J2Gjj6FoSP9k6PVTZcPb96nWe7MMrC2HMPYj1CA3FR7GS4Yfk9BeVx2uU1JDTokGl?comment_id=1207180104642809', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1XzEyMDcxODAxMDQ2NDI4MDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV8xMjA3MTgwMTA0NjQyODA5', 'date': '2025-11-13T03:04:03.000Z', 'text': 'Qeee titi dijo una am</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1203,29 +1203,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Igual que los anteriores</t>
+          <t>Qeee titi dijo una amiga mía jejejeje</t>
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>45969.86098379629</v>
+        <v>45974.1278125</v>
       </c>
       <c r="H15" s="3" t="n">
-        <v>45969</v>
+        <v>45974</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>20:39:49</t>
+          <t>03:04:03</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1243,7 +1243,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=2124276584648076', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzIxMjQyNzY1ODQ2NDgwNzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8yMTI0Mjc2NTg0NjQ4MDc2', 'date': '2025-11-08T20:39:49.000Z', 'text': 'Igual que los anteri</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02J2Gjj6FoSP9k6PVTZcPb96nWe7MMrC2HMPYj1CA3FR7GS4Yfk9BeVx2uU1JDTokGl?comment_id=1207180104642809', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1XzEyMDcxODAxMDQ2NDI4MDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV8xMjA3MTgwMTA0NjQyODA5', 'date': '2025-11-13T03:04:03.000Z', 'text': 'Qeee titi dijo una am</t>
         </is>
       </c>
     </row>
@@ -1269,18 +1269,18 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Pues algo túvo que Aser le él cuando eya rrasiono así aver hombre cuando un hombre Caba con la vida dé una mujer poque ustedes no le dan tanta i portasia. Ihora sí sí los hombres cada rrato acaban con la vida dé la mujer entosse</t>
+          <t>El mejor Probiótico</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>45969.62359953704</v>
+        <v>45971.41180555556</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45969</v>
+        <v>45971</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>14:57:59</t>
+          <t>09:53:00</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -1296,7 +1296,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=834542738933427', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzgzNDU0MjczODkzMzQyNw==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF84MzQ1NDI3Mzg5MzM0Mjc=', 'date': '2025-11-08T14:57:59.000Z', 'text': 'Pues algo túvo que As</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=1220441243230897', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzEyMjA0NDEyNDMyMzA4OTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8xMjIwNDQxMjQzMjMwODk3', 'date': '2025-11-10T09:53:00.000Z', 'text': 'El mejor Probiótico'</t>
         </is>
       </c>
     </row>
@@ -1322,24 +1322,22 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Pues algo túvo que Aser le él cuando eya rrasiono así aver hombre cuando un hombre Caba con la vida dé una mujer poque ustedes no le dan tanta i portasia. Ihora sí sí los hombres cada rrato acaban con la vida dé la mujer entosse</t>
+          <t>El mejor Probiótico</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>45969.62359953704</v>
-      </c>
-      <c r="H17" s="3" t="n">
-        <v>45969</v>
+        <v>45971.41180555556</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>45971</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>14:57:59</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>09:53:00</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1351,36 +1349,50 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=834542738933427', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzgzNDU0MjczODkzMzQyNw==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF84MzQ1NDI3Mzg5MzM0Mjc=', 'date': '2025-11-08T14:57:59.000Z', 'text': 'Pues algo túvo que As</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=1220441243230897', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzEyMjA0NDEyNDMyMzA4OTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8xMjIwNDQxMjQzMjMwODk3', 'date': '2025-11-10T09:53:00.000Z', 'text': 'El mejor Probiótico'</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQHedmRjHLo/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQHedmRjHLo/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>0</v>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>El mejor Probiótico</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>45971.41180555556</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>45971</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>09:53:00</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1389,51 +1401,47 @@
         <v>0</v>
       </c>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=1220441243230897', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzEyMjA0NDEyNDMyMzA4OTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8xMjIwNDQxMjQzMjMwODk3', 'date': '2025-11-10T09:53:00.000Z', 'text': 'El mejor Probiótico'</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>matiasarturoromo</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Que mieldaaa</t>
+          <t>Igual que los anteriores</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>45970.1875</v>
+        <v>45969.86098379629</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45970</v>
+        <v>45969</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>04:30:00</t>
+          <t>20:39:49</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -1445,56 +1453,48 @@
       <c r="L19" t="b">
         <v>0</v>
       </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>https://instagram.com/matiasarturoromo</t>
-        </is>
-      </c>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18098144245606945', 'id': '18098144245606945', 'text': 'Que mieldaaa', 'ownerUsername': 'matiasarturoromo', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.82787-19/573473903_17898280404321112_6966858402340948994_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=103&amp;ig_cache_key=GG_ELiJYA5clZJY-AAJM_g-OQK9gbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=2124276584648076', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzIxMjQyNzY1ODQ2NDgwNzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8yMTI0Mjc2NTg0NjQ4MDc2', 'date': '2025-11-08T20:39:49.000Z', 'text': 'Igual que los anteri</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>matiasarturoromo</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Que mieldaaa</t>
+          <t>Igual que los anteriores</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>45970.1875</v>
-      </c>
-      <c r="H20" s="3" t="n">
-        <v>45970</v>
+        <v>45969.86098379629</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>45969</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>04:30:00</t>
+          <t>20:39:49</t>
         </is>
       </c>
       <c r="J20" t="n">
@@ -1506,60 +1506,54 @@
       <c r="L20" t="b">
         <v>0</v>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>https://instagram.com/matiasarturoromo</t>
-        </is>
-      </c>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18098144245606945', 'id': '18098144245606945', 'text': 'Que mieldaaa', 'ownerUsername': 'matiasarturoromo', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.82787-19/573473903_17898280404321112_6966858402340948994_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=103&amp;ig_cache_key=GG_ELiJYA5clZJY-AAJM_g-OQK9gbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=2124276584648076', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzIxMjQyNzY1ODQ2NDgwNzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8yMTI0Mjc2NTg0NjQ4MDc2', 'date': '2025-11-08T20:39:49.000Z', 'text': 'Igual que los anteri</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>camilavalenzcaro443</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Holaa</t>
+          <t>Igual que los anteriores</t>
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>45968.94402777778</v>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>45968</v>
+        <v>45969.86098379629</v>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>45969</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>22:39:24</t>
-        </is>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
+          <t>20:39:49</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1567,56 +1561,48 @@
       <c r="L21" t="b">
         <v>0</v>
       </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>https://instagram.com/camilavalenzcaro443</t>
-        </is>
-      </c>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18034059335512099', 'id': '18034059335512099', 'text': 'Holaa', 'ownerUsername': 'camilavalenzcaro443', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.82787-19/565042982_17921020101158101_7888790515073166009_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GCbfrSHVZCSlEqs-ALkqaEYtnXptbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=2124276584648076', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzIxMjQyNzY1ODQ2NDgwNzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8yMTI0Mjc2NTg0NjQ4MDc2', 'date': '2025-11-08T20:39:49.000Z', 'text': 'Igual que los anteri</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>camilavalenzcaro443</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Holaa</t>
+          <t>Pues algo túvo que Aser le él cuando eya rrasiono así aver hombre cuando un hombre Caba con la vida dé una mujer poque ustedes no le dan tanta i portasia. Ihora sí sí los hombres cada rrato acaban con la vida dé la mujer entosse</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>45968.94402777778</v>
-      </c>
-      <c r="H22" s="3" t="n">
-        <v>45968</v>
+        <v>45969.62359953704</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>45969</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>22:39:24</t>
+          <t>14:57:59</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -1628,56 +1614,48 @@
       <c r="L22" t="b">
         <v>0</v>
       </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>https://instagram.com/camilavalenzcaro443</t>
-        </is>
-      </c>
+      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18034059335512099', 'id': '18034059335512099', 'text': 'Holaa', 'ownerUsername': 'camilavalenzcaro443', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.82787-19/565042982_17921020101158101_7888790515073166009_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GCbfrSHVZCSlEqs-ALkqaEYtnXptbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=834542738933427', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzgzNDU0MjczODkzMzQyNw==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF84MzQ1NDI3Mzg5MzM0Mjc=', 'date': '2025-11-08T14:57:59.000Z', 'text': 'Pues algo túvo que As</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>camilavalenzcaro443</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Amiga linda te quiero</t>
+          <t>Pues algo túvo que Aser le él cuando eya rrasiono así aver hombre cuando un hombre Caba con la vida dé una mujer poque ustedes no le dan tanta i portasia. Ihora sí sí los hombres cada rrato acaban con la vida dé la mujer entosse</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>45968.94396990741</v>
+        <v>45969.62359953704</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45968</v>
+        <v>45969</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>22:39:19</t>
+          <t>14:57:59</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -1689,60 +1667,54 @@
       <c r="L23" t="b">
         <v>0</v>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>https://instagram.com/camilavalenzcaro443</t>
-        </is>
-      </c>
+      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18285197614263782', 'id': '18285197614263782', 'text': 'Amiga linda te quiero', 'ownerUsername': 'camilavalenzcaro443', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.82787-19/565042982_17921020101158101_7888790515073166009_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GCbfrSHVZCSlEqs-ALkqaEYtnXptbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=66</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=834542738933427', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzgzNDU0MjczODkzMzQyNw==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF84MzQ1NDI3Mzg5MzM0Mjc=', 'date': '2025-11-08T14:57:59.000Z', 'text': 'Pues algo túvo que As</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>camilavalenzcaro443</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Amiga linda te quiero</t>
+          <t>Pues algo túvo que Aser le él cuando eya rrasiono así aver hombre cuando un hombre Caba con la vida dé una mujer poque ustedes no le dan tanta i portasia. Ihora sí sí los hombres cada rrato acaban con la vida dé la mujer entosse</t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>45968.94396990741</v>
+        <v>45969.62359953704</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>45968</v>
+        <v>45969</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>22:39:19</t>
-        </is>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
+          <t>14:57:59</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1750,21 +1722,17 @@
       <c r="L24" t="b">
         <v>0</v>
       </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>https://instagram.com/camilavalenzcaro443</t>
-        </is>
-      </c>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18285197614263782', 'id': '18285197614263782', 'text': 'Amiga linda te quiero', 'ownerUsername': 'camilavalenzcaro443', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.82787-19/565042982_17921020101158101_7888790515073166009_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GCbfrSHVZCSlEqs-ALkqaEYtnXptbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=66</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=834542738933427', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzgzNDU0MjczODkzMzQyNw==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF84MzQ1NDI3Mzg5MzM0Mjc=', 'date': '2025-11-08T14:57:59.000Z', 'text': 'Pues algo túvo que As</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1773,35 +1741,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+          <t>https://www.instagram.com/p/DQHedmRjHLo/</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>yamilemorenoporras</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Siempre escogemos alpina para la lonchera de nuestros chiquis, y para .mi un rico arequipe con quesito</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="n">
-        <v>45968.88957175926</v>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>45968</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>21:20:59</t>
-        </is>
-      </c>
+          <t>https://www.instagram.com/p/DQHedmRjHLo/</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>0</v>
       </c>
@@ -1811,17 +1763,13 @@
       <c r="L25" t="b">
         <v>0</v>
       </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>https://instagram.com/yamilemorenoporras</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18042448463682848', 'id': '18042448463682848', 'text': 'Siempre escogemos alpina para la lonchera de nuestros chiquis, y para .mi un rico arequipe con quesito', 'ownerUsername': 'yamilemorenoporras', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.89012-19/573323465_1219825463302212_7278921664109726296_n.png?stp=dst-webp_s150x150&amp;_nc_cat=1&amp;ig_cache_key</t>
-        </is>
-      </c>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1844,23 +1792,23 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>yamilemorenoporras</t>
+          <t>matiasarturoromo</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Siempre escogemos alpina para la lonchera de nuestros chiquis, y para .mi un rico arequipe con quesito</t>
+          <t>Que mieldaaa</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>45968.88957175926</v>
-      </c>
-      <c r="H26" s="3" t="n">
-        <v>45968</v>
+        <v>45970.1875</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>45970</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>21:20:59</t>
+          <t>04:30:00</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -1874,13 +1822,13 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>https://instagram.com/yamilemorenoporras</t>
+          <t>https://instagram.com/matiasarturoromo</t>
         </is>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18042448463682848', 'id': '18042448463682848', 'text': 'Siempre escogemos alpina para la lonchera de nuestros chiquis, y para .mi un rico arequipe con quesito', 'ownerUsername': 'yamilemorenoporras', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.89012-19/573323465_1219825463302212_7278921664109726296_n.png?stp=dst-webp_s150x150&amp;_nc_cat=1&amp;ig_cache_key</t>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18098144245606945', 'id': '18098144245606945', 'text': 'Que mieldaaa', 'ownerUsername': 'matiasarturoromo', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.82787-19/573473903_17898280404321112_6966858402340948994_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=103&amp;ig_cache_key=GG_ELiJYA5clZJY-AAJM_g-OQK9gbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ</t>
         </is>
       </c>
     </row>
@@ -1905,23 +1853,23 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>lizcano.z</t>
+          <t>matiasarturoromo</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Los preferidos de mi chiqui le encantan los Dinos</t>
+          <t>Que mieldaaa</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>45968.86053240741</v>
+        <v>45970.1875</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>45968</v>
+        <v>45970</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>20:39:10</t>
+          <t>04:30:00</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -1935,13 +1883,13 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>https://instagram.com/lizcano.z</t>
+          <t>https://instagram.com/matiasarturoromo</t>
         </is>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18144953131380182', 'id': '18144953131380182', 'text': 'Los preferidos de mi chiqui le encantan los Dinos', 'ownerUsername': 'lizcano.z', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.2885-19/332621657_6410209482345828_4629360806061933546_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GFln0xNkjSEzDcYWAOoDcC4gyz5AbkULAAAB1501500j-ccb7-5&amp;cc</t>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18098144245606945', 'id': '18098144245606945', 'text': 'Que mieldaaa', 'ownerUsername': 'matiasarturoromo', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.82787-19/573473903_17898280404321112_6966858402340948994_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=103&amp;ig_cache_key=GG_ELiJYA5clZJY-AAJM_g-OQK9gbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ</t>
         </is>
       </c>
     </row>
@@ -1966,23 +1914,23 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>lizcano.z</t>
+          <t>matiasarturoromo</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Los preferidos de mi chiqui le encantan los Dinos</t>
+          <t>Que mieldaaa</t>
         </is>
       </c>
       <c r="G28" s="2" t="n">
-        <v>45968.86053240741</v>
+        <v>45970.1875</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>45968</v>
+        <v>45970</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>20:39:10</t>
+          <t>04:30:00</t>
         </is>
       </c>
       <c r="J28" t="n">
@@ -1996,13 +1944,13 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>https://instagram.com/lizcano.z</t>
+          <t>https://instagram.com/matiasarturoromo</t>
         </is>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18144953131380182', 'id': '18144953131380182', 'text': 'Los preferidos de mi chiqui le encantan los Dinos', 'ownerUsername': 'lizcano.z', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.2885-19/332621657_6410209482345828_4629360806061933546_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GFln0xNkjSEzDcYWAOoDcC4gyz5AbkULAAAB1501500j-ccb7-5&amp;cc</t>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18098144245606945', 'id': '18098144245606945', 'text': 'Que mieldaaa', 'ownerUsername': 'matiasarturoromo', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.82787-19/573473903_17898280404321112_6966858402340948994_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=103&amp;ig_cache_key=GG_ELiJYA5clZJY-AAJM_g-OQK9gbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ</t>
         </is>
       </c>
     </row>
@@ -2027,27 +1975,27 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>renecorrea6600</t>
+          <t>camilavalenzcaro443</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Yo compro muchos yogoyogo y la gelatina y el yogurt de bolsita y me encantaría que me mande una caja con todos los yogures 🙏 me encanta los yogures</t>
+          <t>Holaa</t>
         </is>
       </c>
       <c r="G29" s="2" t="n">
-        <v>45965.13641203703</v>
+        <v>45968.94402777778</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>45965</v>
+        <v>45968</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>03:16:26</t>
+          <t>22:39:24</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2057,13 +2005,13 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>https://instagram.com/renecorrea6600</t>
+          <t>https://instagram.com/camilavalenzcaro443</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18069384506600468', 'id': '18069384506600468', 'text': 'Yo compro muchos yogoyogo y la gelatina y el yogurt de bolsita y me encantaría que me mande una caja con todos los yogures 🙏 me encanta los yogures', 'ownerUsername': 'renecorrea6600', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.2885-19/285767721_387465060107593_8753498132828513536_n.jpg?stp=d</t>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18034059335512099', 'id': '18034059335512099', 'text': 'Holaa', 'ownerUsername': 'camilavalenzcaro443', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.82787-19/565042982_17921020101158101_7888790515073166009_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GCbfrSHVZCSlEqs-ALkqaEYtnXptbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5</t>
         </is>
       </c>
     </row>
@@ -2088,27 +2036,27 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>renecorrea6600</t>
+          <t>camilavalenzcaro443</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Yo compro muchos yogoyogo y la gelatina y el yogurt de bolsita y me encantaría que me mande una caja con todos los yogures 🙏 me encanta los yogures</t>
+          <t>Holaa</t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>45965.13641203703</v>
-      </c>
-      <c r="H30" s="3" t="n">
-        <v>45965</v>
+        <v>45968.94402777778</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>45968</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>03:16:26</t>
+          <t>22:39:24</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2118,13 +2066,13 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>https://instagram.com/renecorrea6600</t>
+          <t>https://instagram.com/camilavalenzcaro443</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18069384506600468', 'id': '18069384506600468', 'text': 'Yo compro muchos yogoyogo y la gelatina y el yogurt de bolsita y me encantaría que me mande una caja con todos los yogures 🙏 me encanta los yogures', 'ownerUsername': 'renecorrea6600', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.2885-19/285767721_387465060107593_8753498132828513536_n.jpg?stp=d</t>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18034059335512099', 'id': '18034059335512099', 'text': 'Holaa', 'ownerUsername': 'camilavalenzcaro443', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.82787-19/565042982_17921020101158101_7888790515073166009_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GCbfrSHVZCSlEqs-ALkqaEYtnXptbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5</t>
         </is>
       </c>
     </row>
@@ -2149,27 +2097,27 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>liebe_sheibe</t>
+          <t>camilavalenzcaro443</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Quiero uno y no encuentro los yogures se agotaron muy rápido yo quería uno,😣😕</t>
+          <t>Holaa</t>
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>45962.07112268519</v>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>45962</v>
+        <v>45968.94402777778</v>
+      </c>
+      <c r="H31" s="3" t="n">
+        <v>45968</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>01:42:25</t>
+          <t>22:39:24</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2179,13 +2127,13 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>https://instagram.com/liebe_sheibe</t>
+          <t>https://instagram.com/camilavalenzcaro443</t>
         </is>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18079566332513278', 'id': '18079566332513278', 'text': 'Quiero uno y no encuentro los yogures se agotaron muy rápido yo quería uno,😣😕', 'ownerUsername': 'liebe_sheibe', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.89012-19/573323465_1219825463302212_7278921664109726296_n.png?stp=dst-webp_s150x150&amp;_nc_cat=1&amp;ig_cache_key=YW5vbnltb3VzX3Byb2ZpbGVfcGlj.3</t>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18034059335512099', 'id': '18034059335512099', 'text': 'Holaa', 'ownerUsername': 'camilavalenzcaro443', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.82787-19/565042982_17921020101158101_7888790515073166009_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GCbfrSHVZCSlEqs-ALkqaEYtnXptbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5</t>
         </is>
       </c>
     </row>
@@ -2210,27 +2158,27 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>liebe_sheibe</t>
+          <t>camilavalenzcaro443</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Quiero uno y no encuentro los yogures se agotaron muy rápido yo quería uno,😣😕</t>
+          <t>Amiga linda te quiero</t>
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>45962.07112268519</v>
-      </c>
-      <c r="H32" s="3" t="n">
-        <v>45962</v>
+        <v>45968.94396990741</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>45968</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>01:42:25</t>
+          <t>22:39:19</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -2240,14 +2188,1315 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>https://instagram.com/liebe_sheibe</t>
+          <t>https://instagram.com/camilavalenzcaro443</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18285197614263782', 'id': '18285197614263782', 'text': 'Amiga linda te quiero', 'ownerUsername': 'camilavalenzcaro443', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.82787-19/565042982_17921020101158101_7888790515073166009_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GCbfrSHVZCSlEqs-ALkqaEYtnXptbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=66</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>7</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>camilavalenzcaro443</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Amiga linda te quiero</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>45968.94396990741</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>22:39:19</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>https://instagram.com/camilavalenzcaro443</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18285197614263782', 'id': '18285197614263782', 'text': 'Amiga linda te quiero', 'ownerUsername': 'camilavalenzcaro443', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.82787-19/565042982_17921020101158101_7888790515073166009_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GCbfrSHVZCSlEqs-ALkqaEYtnXptbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=66</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>7</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>camilavalenzcaro443</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Amiga linda te quiero</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>45968.94396990741</v>
+      </c>
+      <c r="H34" s="3" t="n">
+        <v>45968</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>22:39:19</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>https://instagram.com/camilavalenzcaro443</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18285197614263782', 'id': '18285197614263782', 'text': 'Amiga linda te quiero', 'ownerUsername': 'camilavalenzcaro443', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.82787-19/565042982_17921020101158101_7888790515073166009_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GCbfrSHVZCSlEqs-ALkqaEYtnXptbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=66</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>7</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>yamilemorenoporras</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Siempre escogemos alpina para la lonchera de nuestros chiquis, y para .mi un rico arequipe con quesito</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>45968.88957175926</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>21:20:59</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>https://instagram.com/yamilemorenoporras</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18042448463682848', 'id': '18042448463682848', 'text': 'Siempre escogemos alpina para la lonchera de nuestros chiquis, y para .mi un rico arequipe con quesito', 'ownerUsername': 'yamilemorenoporras', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.89012-19/573323465_1219825463302212_7278921664109726296_n.png?stp=dst-webp_s150x150&amp;_nc_cat=1&amp;ig_cache_key</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>7</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>yamilemorenoporras</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Siempre escogemos alpina para la lonchera de nuestros chiquis, y para .mi un rico arequipe con quesito</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>45968.88957175926</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>21:20:59</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>https://instagram.com/yamilemorenoporras</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18042448463682848', 'id': '18042448463682848', 'text': 'Siempre escogemos alpina para la lonchera de nuestros chiquis, y para .mi un rico arequipe con quesito', 'ownerUsername': 'yamilemorenoporras', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.89012-19/573323465_1219825463302212_7278921664109726296_n.png?stp=dst-webp_s150x150&amp;_nc_cat=1&amp;ig_cache_key</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>7</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>yamilemorenoporras</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Siempre escogemos alpina para la lonchera de nuestros chiquis, y para .mi un rico arequipe con quesito</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>45968.88957175926</v>
+      </c>
+      <c r="H37" s="3" t="n">
+        <v>45968</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>21:20:59</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>https://instagram.com/yamilemorenoporras</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18042448463682848', 'id': '18042448463682848', 'text': 'Siempre escogemos alpina para la lonchera de nuestros chiquis, y para .mi un rico arequipe con quesito', 'ownerUsername': 'yamilemorenoporras', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.89012-19/573323465_1219825463302212_7278921664109726296_n.png?stp=dst-webp_s150x150&amp;_nc_cat=1&amp;ig_cache_key</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>7</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>lizcano.z</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Los preferidos de mi chiqui le encantan los Dinos</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>45968.86053240741</v>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>20:39:10</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>https://instagram.com/lizcano.z</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18144953131380182', 'id': '18144953131380182', 'text': 'Los preferidos de mi chiqui le encantan los Dinos', 'ownerUsername': 'lizcano.z', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.2885-19/332621657_6410209482345828_4629360806061933546_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GFln0xNkjSEzDcYWAOoDcC4gyz5AbkULAAAB1501500j-ccb7-5&amp;cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>7</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>lizcano.z</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Los preferidos de mi chiqui le encantan los Dinos</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>45968.86053240741</v>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>20:39:10</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>https://instagram.com/lizcano.z</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18144953131380182', 'id': '18144953131380182', 'text': 'Los preferidos de mi chiqui le encantan los Dinos', 'ownerUsername': 'lizcano.z', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.2885-19/332621657_6410209482345828_4629360806061933546_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GFln0xNkjSEzDcYWAOoDcC4gyz5AbkULAAAB1501500j-ccb7-5&amp;cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>7</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>lizcano.z</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Los preferidos de mi chiqui le encantan los Dinos</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>45968.86053240741</v>
+      </c>
+      <c r="H40" s="3" t="n">
+        <v>45968</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>20:39:10</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>https://instagram.com/lizcano.z</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18144953131380182', 'id': '18144953131380182', 'text': 'Los preferidos de mi chiqui le encantan los Dinos', 'ownerUsername': 'lizcano.z', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.2885-19/332621657_6410209482345828_4629360806061933546_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GFln0xNkjSEzDcYWAOoDcC4gyz5AbkULAAAB1501500j-ccb7-5&amp;cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>7</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>renecorrea6600</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Yo compro muchos yogoyogo y la gelatina y el yogurt de bolsita y me encantaría que me mande una caja con todos los yogures 🙏 me encanta los yogures</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>45965.13641203703</v>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>03:16:26</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>https://instagram.com/renecorrea6600</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18069384506600468', 'id': '18069384506600468', 'text': 'Yo compro muchos yogoyogo y la gelatina y el yogurt de bolsita y me encantaría que me mande una caja con todos los yogures 🙏 me encanta los yogures', 'ownerUsername': 'renecorrea6600', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.2885-19/285767721_387465060107593_8753498132828513536_n.jpg?stp=d</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>7</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>renecorrea6600</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Yo compro muchos yogoyogo y la gelatina y el yogurt de bolsita y me encantaría que me mande una caja con todos los yogures 🙏 me encanta los yogures</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>45965.13641203703</v>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>03:16:26</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>https://instagram.com/renecorrea6600</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18069384506600468', 'id': '18069384506600468', 'text': 'Yo compro muchos yogoyogo y la gelatina y el yogurt de bolsita y me encantaría que me mande una caja con todos los yogures 🙏 me encanta los yogures', 'ownerUsername': 'renecorrea6600', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.2885-19/285767721_387465060107593_8753498132828513536_n.jpg?stp=d</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>7</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>renecorrea6600</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Yo compro muchos yogoyogo y la gelatina y el yogurt de bolsita y me encantaría que me mande una caja con todos los yogures 🙏 me encanta los yogures</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>45965.13641203703</v>
+      </c>
+      <c r="H43" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>03:16:26</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>https://instagram.com/renecorrea6600</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18069384506600468', 'id': '18069384506600468', 'text': 'Yo compro muchos yogoyogo y la gelatina y el yogurt de bolsita y me encantaría que me mande una caja con todos los yogures 🙏 me encanta los yogures', 'ownerUsername': 'renecorrea6600', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.2885-19/285767721_387465060107593_8753498132828513536_n.jpg?stp=d</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>liebe_sheibe</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Quiero uno y no encuentro los yogures se agotaron muy rápido yo quería uno,😣😕</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>45962.07112268519</v>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>45962</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>01:42:25</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>https://instagram.com/liebe_sheibe</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr">
+        <is>
           <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18079566332513278', 'id': '18079566332513278', 'text': 'Quiero uno y no encuentro los yogures se agotaron muy rápido yo quería uno,😣😕', 'ownerUsername': 'liebe_sheibe', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.89012-19/573323465_1219825463302212_7278921664109726296_n.png?stp=dst-webp_s150x150&amp;_nc_cat=1&amp;ig_cache_key=YW5vbnltb3VzX3Byb2ZpbGVfcGlj.3</t>
         </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>7</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>liebe_sheibe</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Quiero uno y no encuentro los yogures se agotaron muy rápido yo quería uno,😣😕</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>45962.07112268519</v>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>45962</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>01:42:25</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>https://instagram.com/liebe_sheibe</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18079566332513278', 'id': '18079566332513278', 'text': 'Quiero uno y no encuentro los yogures se agotaron muy rápido yo quería uno,😣😕', 'ownerUsername': 'liebe_sheibe', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.89012-19/573323465_1219825463302212_7278921664109726296_n.png?stp=dst-webp_s150x150&amp;_nc_cat=1&amp;ig_cache_key=YW5vbnltb3VzX3Byb2ZpbGVfcGlj.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>7</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>liebe_sheibe</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Quiero uno y no encuentro los yogures se agotaron muy rápido yo quería uno,😣😕</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>45962.07112268519</v>
+      </c>
+      <c r="H46" s="3" t="n">
+        <v>45962</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>01:42:25</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>https://instagram.com/liebe_sheibe</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18079566332513278', 'id': '18079566332513278', 'text': 'Quiero uno y no encuentro los yogures se agotaron muy rápido yo quería uno,😣😕', 'ownerUsername': 'liebe_sheibe', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.89012-19/573323465_1219825463302212_7278921664109726296_n.png?stp=dst-webp_s150x150&amp;_nc_cat=1&amp;ig_cache_key=YW5vbnltb3VzX3Byb2ZpbGVfcGlj.3</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>post_number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>platform</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>post_url</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total_Comentarios</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total_Likes</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Primera_Extraccion</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Ultima_Extraccion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSynjCxPs/</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1260808236091413/</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>45978.74142361111</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>45980.47052083333</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>45974.1278125</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>45977.11752314815</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>9</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>45969.62359953704</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>45971.41180555556</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQHedmRjHLo/</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>21</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>45962.07112268519</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>45970.1875</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>platform</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total_Posts</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total_Comentarios</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Promedio_Likes</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total_Likes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSynjCxPs/</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1260808236091413/</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQHedmRjHLo/</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>total_attempts</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>successful</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>no_comments</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>invalid_comments</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
       <c r="H4" s="2" t="n">
         <v>45980.47052083333</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="2" t="n">
         <v>45980</v>
       </c>
       <c r="J4" t="inlineStr">
@@ -651,10 +651,8 @@
           <t>11:17:33</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K4" t="n">
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -692,23 +690,23 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Total el ke no sirve que no estorbe 🫩😁😁😁</t>
+          <t>Mucho viejo cacorro, vaya a llorar a la casa joda creen que con eso van a solucionar las cosas , ya es clavo pasao</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-11-17T17:47:39.000Z</t>
+          <t>2025-11-19T11:17:33.000Z</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45978.74142361111</v>
+        <v>45980.47052083333</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>45978</v>
+        <v>45980</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>17:47:39</t>
+          <t>11:17:33</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -726,13 +724,13 @@
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0QZtRpncZtCfENXMXna9cWuv7rzBYXQv4fxHFBFvrw5E3FCfyEC7ZY8tTAWyZsscLl?comment_id=1523281158961050', 'id': 'Y29tbWVudDoxMjc0MDA1NzQ4MTA0OTk1XzE1MjMyODExNTg5NjEwNTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI3NDAwNTc0ODEwNDk5NV8xNTIzMjgxMTU4OTYxMDUw', 'date': '2025-11-17T17:47:39.000Z', 'text': 'Total el ke no sirve </t>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0QZtRpncZtCfENXMXna9cWuv7rzBYXQv4fxHFBFvrw5E3FCfyEC7ZY8tTAWyZsscLl?comment_id=1148609350320027', 'id': 'Y29tbWVudDoxMjc0MDA1NzQ4MTA0OTk1XzExNDg2MDkzNTAzMjAwMjc=', 'feedbackId': 'ZmVlZGJhY2s6MTI3NDAwNTc0ODEwNDk5NV8xMTQ4NjA5MzUwMzIwMDI3', 'date': '2025-11-19T11:17:33.000Z', 'text': 'Mucho viejo cacorro, </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -741,40 +739,38 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Estoy de acuerdo unos se comen las verdes y otros las maduras</t>
+          <t>Total el ke no sirve que no estorbe 🫩😁😁😁</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-11-16T02:49:14.000Z</t>
+          <t>2025-11-17T17:47:39.000Z</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45977.11752314815</v>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>45977</v>
+        <v>45978.74142361111</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>45978</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>02:49:14</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>17:47:39</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -786,13 +782,13 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02J2Gjj6FoSP9k6PVTZcPb96nWe7MMrC2HMPYj1CA3FR7GS4Yfk9BeVx2uU1JDTokGl?comment_id=847519371075258', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1Xzg0NzUxOTM3MTA3NTI1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV84NDc1MTkzNzEwNzUyNTg=', 'date': '2025-11-16T02:49:14.000Z', 'text': 'Estoy de acuerdo unos </t>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0QZtRpncZtCfENXMXna9cWuv7rzBYXQv4fxHFBFvrw5E3FCfyEC7ZY8tTAWyZsscLl?comment_id=1523281158961050', 'id': 'Y29tbWVudDoxMjc0MDA1NzQ4MTA0OTk1XzE1MjMyODExNTg5NjEwNTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI3NDAwNTc0ODEwNDk5NV8xNTIzMjgxMTU4OTYxMDUw', 'date': '2025-11-17T17:47:39.000Z', 'text': 'Total el ke no sirve </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -801,34 +797,34 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Qeee titi dijo una amiga mía jejejeje</t>
+          <t>Total el ke no sirve que no estorbe 🫩😁😁😁</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-11-13T03:04:03.000Z</t>
+          <t>2025-11-17T17:47:39.000Z</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45974.1278125</v>
+        <v>45978.74142361111</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>45974</v>
+        <v>45978</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>03:04:03</t>
+          <t>17:47:39</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -846,13 +842,13 @@
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02J2Gjj6FoSP9k6PVTZcPb96nWe7MMrC2HMPYj1CA3FR7GS4Yfk9BeVx2uU1JDTokGl?comment_id=1207180104642809', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1XzEyMDcxODAxMDQ2NDI4MDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV8xMjA3MTgwMTA0NjQyODA5', 'date': '2025-11-13T03:04:03.000Z', 'text': 'Qeee titi dijo una am</t>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0QZtRpncZtCfENXMXna9cWuv7rzBYXQv4fxHFBFvrw5E3FCfyEC7ZY8tTAWyZsscLl?comment_id=1523281158961050', 'id': 'Y29tbWVudDoxMjc0MDA1NzQ4MTA0OTk1XzE1MjMyODExNTg5NjEwNTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI3NDAwNTc0ODEwNDk5NV8xNTIzMjgxMTU4OTYxMDUw', 'date': '2025-11-17T17:47:39.000Z', 'text': 'Total el ke no sirve </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -861,40 +857,38 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>El mejor Probiótico</t>
+          <t>Estoy de acuerdo unos se comen las verdes y otros las maduras</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-11-10T09:53:00.000Z</t>
+          <t>2025-11-16T02:49:14.000Z</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45971.41180555556</v>
-      </c>
-      <c r="I8" s="3" t="n">
-        <v>45971</v>
+        <v>45977.11752314815</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>45977</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>09:53:00</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>02:49:14</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -906,13 +900,13 @@
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05T5TeLRszGpdXtpa6Eixw9aXiq1MVSih5VSP8fd2n3qafSHVuZ79WUwWqz4ir9ZKl?comment_id=1220441243230897', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzEyMjA0NDEyNDMyMzA4OTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8xMjIwNDQxMjQzMjMwODk3', 'date': '2025-11-10T09:53:00.000Z', 'text': 'El mejor Probiótico',</t>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02J2Gjj6FoSP9k6PVTZcPb96nWe7MMrC2HMPYj1CA3FR7GS4Yfk9BeVx2uU1JDTokGl?comment_id=847519371075258', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1Xzg0NzUxOTM3MTA3NTI1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV84NDc1MTkzNzEwNzUyNTg=', 'date': '2025-11-16T02:49:14.000Z', 'text': 'Estoy de acuerdo unos </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -921,34 +915,34 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Igual que los anteriores</t>
+          <t>Estoy de acuerdo unos se comen las verdes y otros las maduras</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-11-08T20:39:49.000Z</t>
+          <t>2025-11-16T02:49:14.000Z</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45969.86098379629</v>
+        <v>45977.11752314815</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>45969</v>
+        <v>45977</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>20:39:49</t>
+          <t>02:49:14</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -966,13 +960,13 @@
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05T5TeLRszGpdXtpa6Eixw9aXiq1MVSih5VSP8fd2n3qafSHVuZ79WUwWqz4ir9ZKl?comment_id=2124276584648076', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzIxMjQyNzY1ODQ2NDgwNzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8yMTI0Mjc2NTg0NjQ4MDc2', 'date': '2025-11-08T20:39:49.000Z', 'text': 'Igual que los anterio</t>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02J2Gjj6FoSP9k6PVTZcPb96nWe7MMrC2HMPYj1CA3FR7GS4Yfk9BeVx2uU1JDTokGl?comment_id=847519371075258', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1Xzg0NzUxOTM3MTA3NTI1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV84NDc1MTkzNzEwNzUyNTg=', 'date': '2025-11-16T02:49:14.000Z', 'text': 'Estoy de acuerdo unos </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -981,40 +975,38 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Pues algo túvo que Aser le él cuando eya rrasiono así aver hombre cuando un hombre Caba con la vida dé una mujer poque ustedes no le dan tanta i portasia. Ihora sí sí los hombres cada rrato acaban con la vida dé la mujer entosse</t>
+          <t>Qeee titi dijo una amiga mía jejejeje</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-11-08T14:57:59.000Z</t>
+          <t>2025-11-13T03:04:03.000Z</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45969.62359953704</v>
-      </c>
-      <c r="I10" s="3" t="n">
-        <v>45969</v>
+        <v>45974.1278125</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>45974</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>14:57:59</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>03:04:03</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1026,37 +1018,55 @@
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05T5TeLRszGpdXtpa6Eixw9aXiq1MVSih5VSP8fd2n3qafSHVuZ79WUwWqz4ir9ZKl?comment_id=834542738933427', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzgzNDU0MjczODkzMzQyNw==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF84MzQ1NDI3Mzg5MzM0Mjc=', 'date': '2025-11-08T14:57:59.000Z', 'text': 'Pues algo túvo que Ase</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02J2Gjj6FoSP9k6PVTZcPb96nWe7MMrC2HMPYj1CA3FR7GS4Yfk9BeVx2uU1JDTokGl?comment_id=1207180104642809', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1XzEyMDcxODAxMDQ2NDI4MDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV8xMjA3MTgwMTA0NjQyODA5', 'date': '2025-11-13T03:04:03.000Z', 'text': 'Qeee titi dijo una am</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQHedmRjHLo/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQHedmRjHLo/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>0</v>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Qeee titi dijo una amiga mía jejejeje</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2025-11-13T03:04:03.000Z</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>45974.1278125</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>45974</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>03:04:03</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1065,56 +1075,52 @@
         <v>0</v>
       </c>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02J2Gjj6FoSP9k6PVTZcPb96nWe7MMrC2HMPYj1CA3FR7GS4Yfk9BeVx2uU1JDTokGl?comment_id=1207180104642809', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1XzEyMDcxODAxMDQ2NDI4MDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV8xMjA3MTgwMTA0NjQyODA5', 'date': '2025-11-13T03:04:03.000Z', 'text': 'Qeee titi dijo una am</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>matiasarturoromo</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Que mieldaaa</t>
+          <t>El mejor Probiótico</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-11-09T04:30:00.000Z</t>
+          <t>2025-11-10T09:53:00.000Z</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45970.1875</v>
-      </c>
-      <c r="I12" s="3" t="n">
-        <v>45970</v>
+        <v>45971.41180555556</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>45971</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>04:30:00</t>
+          <t>09:53:00</t>
         </is>
       </c>
       <c r="K12" t="n">
@@ -1126,65 +1132,59 @@
       <c r="M12" t="b">
         <v>0</v>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>https://instagram.com/matiasarturoromo</t>
-        </is>
-      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18098144245606945', 'id': '18098144245606945', 'text': 'Que mieldaaa', 'ownerUsername': 'matiasarturoromo', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.82787-19/573473903_17898280404321112_6966858402340948994_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=103&amp;ig_cache_key=GG_ELiJYA5clZJY-AAJM_g-OQK9gbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05T5TeLRszGpdXtpa6Eixw9aXiq1MVSih5VSP8fd2n3qafSHVuZ79WUwWqz4ir9ZKl?comment_id=1220441243230897', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzEyMjA0NDEyNDMyMzA4OTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8xMjIwNDQxMjQzMjMwODk3', 'date': '2025-11-10T09:53:00.000Z', 'text': 'El mejor Probiótico',</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>camilavalenzcaro443</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Holaa</t>
+          <t>El mejor Probiótico</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-11-07T22:39:24.000Z</t>
+          <t>2025-11-10T09:53:00.000Z</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45968.94402777778</v>
+        <v>45971.41180555556</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>22:39:24</t>
-        </is>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
+          <t>09:53:00</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1192,61 +1192,53 @@
       <c r="M13" t="b">
         <v>0</v>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>https://instagram.com/camilavalenzcaro443</t>
-        </is>
-      </c>
+      <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18034059335512099', 'id': '18034059335512099', 'text': 'Holaa', 'ownerUsername': 'camilavalenzcaro443', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.82787-19/565042982_17921020101158101_7888790515073166009_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GCbfrSHVZCSlEqs-ALkqaEYtnXptbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05T5TeLRszGpdXtpa6Eixw9aXiq1MVSih5VSP8fd2n3qafSHVuZ79WUwWqz4ir9ZKl?comment_id=1220441243230897', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzEyMjA0NDEyNDMyMzA4OTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8xMjIwNDQxMjQzMjMwODk3', 'date': '2025-11-10T09:53:00.000Z', 'text': 'El mejor Probiótico',</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>camilavalenzcaro443</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Amiga linda te quiero</t>
+          <t>Igual que los anteriores</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-11-07T22:39:19.000Z</t>
+          <t>2025-11-08T20:39:49.000Z</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45968.94396990741</v>
-      </c>
-      <c r="I14" s="3" t="n">
-        <v>45968</v>
+        <v>45969.86098379629</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>45969</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>22:39:19</t>
+          <t>20:39:49</t>
         </is>
       </c>
       <c r="K14" t="n">
@@ -1258,65 +1250,59 @@
       <c r="M14" t="b">
         <v>0</v>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>https://instagram.com/camilavalenzcaro443</t>
-        </is>
-      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18285197614263782', 'id': '18285197614263782', 'text': 'Amiga linda te quiero', 'ownerUsername': 'camilavalenzcaro443', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.82787-19/565042982_17921020101158101_7888790515073166009_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GCbfrSHVZCSlEqs-ALkqaEYtnXptbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=66</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05T5TeLRszGpdXtpa6Eixw9aXiq1MVSih5VSP8fd2n3qafSHVuZ79WUwWqz4ir9ZKl?comment_id=2124276584648076', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzIxMjQyNzY1ODQ2NDgwNzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8yMTI0Mjc2NTg0NjQ4MDc2', 'date': '2025-11-08T20:39:49.000Z', 'text': 'Igual que los anterio</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>yamilemorenoporras</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Siempre escogemos alpina para la lonchera de nuestros chiquis, y para .mi un rico arequipe con quesito</t>
+          <t>Igual que los anteriores</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-11-07T21:20:59.000Z</t>
+          <t>2025-11-08T20:39:49.000Z</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45968.88957175926</v>
+        <v>45969.86098379629</v>
       </c>
       <c r="I15" s="3" t="n">
-        <v>45968</v>
+        <v>45969</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>21:20:59</t>
-        </is>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
+          <t>20:39:49</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1324,61 +1310,53 @@
       <c r="M15" t="b">
         <v>0</v>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>https://instagram.com/yamilemorenoporras</t>
-        </is>
-      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18042448463682848', 'id': '18042448463682848', 'text': 'Siempre escogemos alpina para la lonchera de nuestros chiquis, y para .mi un rico arequipe con quesito', 'ownerUsername': 'yamilemorenoporras', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.89012-19/573323465_1219825463302212_7278921664109726296_n.png?stp=dst-webp_s150x150&amp;_nc_cat=1&amp;ig_cache_key</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05T5TeLRszGpdXtpa6Eixw9aXiq1MVSih5VSP8fd2n3qafSHVuZ79WUwWqz4ir9ZKl?comment_id=2124276584648076', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzIxMjQyNzY1ODQ2NDgwNzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8yMTI0Mjc2NTg0NjQ4MDc2', 'date': '2025-11-08T20:39:49.000Z', 'text': 'Igual que los anterio</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>lizcano.z</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Los preferidos de mi chiqui le encantan los Dinos</t>
+          <t>Pues algo túvo que Aser le él cuando eya rrasiono así aver hombre cuando un hombre Caba con la vida dé una mujer poque ustedes no le dan tanta i portasia. Ihora sí sí los hombres cada rrato acaban con la vida dé la mujer entosse</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-11-07T20:39:10.000Z</t>
+          <t>2025-11-08T14:57:59.000Z</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45968.86053240741</v>
-      </c>
-      <c r="I16" s="3" t="n">
-        <v>45968</v>
+        <v>45969.62359953704</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>45969</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>20:39:10</t>
+          <t>14:57:59</t>
         </is>
       </c>
       <c r="K16" t="n">
@@ -1390,65 +1368,59 @@
       <c r="M16" t="b">
         <v>0</v>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>https://instagram.com/lizcano.z</t>
-        </is>
-      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18144953131380182', 'id': '18144953131380182', 'text': 'Los preferidos de mi chiqui le encantan los Dinos', 'ownerUsername': 'lizcano.z', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.2885-19/332621657_6410209482345828_4629360806061933546_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GFln0xNkjSEzDcYWAOoDcC4gyz5AbkULAAAB1501500j-ccb7-5&amp;cc</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05T5TeLRszGpdXtpa6Eixw9aXiq1MVSih5VSP8fd2n3qafSHVuZ79WUwWqz4ir9ZKl?comment_id=834542738933427', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzgzNDU0MjczODkzMzQyNw==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF84MzQ1NDI3Mzg5MzM0Mjc=', 'date': '2025-11-08T14:57:59.000Z', 'text': 'Pues algo túvo que Ase</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>renecorrea6600</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Yo compro muchos yogoyogo y la gelatina y el yogurt de bolsita y me encantaría que me mande una caja con todos los yogures 🙏 me encanta los yogures</t>
+          <t>Pues algo túvo que Aser le él cuando eya rrasiono así aver hombre cuando un hombre Caba con la vida dé una mujer poque ustedes no le dan tanta i portasia. Ihora sí sí los hombres cada rrato acaban con la vida dé la mujer entosse</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-11-04T03:16:26.000Z</t>
+          <t>2025-11-08T14:57:59.000Z</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45965.13641203703</v>
+        <v>45969.62359953704</v>
       </c>
       <c r="I17" s="3" t="n">
-        <v>45965</v>
+        <v>45969</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>03:16:26</t>
-        </is>
-      </c>
-      <c r="K17" t="n">
-        <v>1</v>
+          <t>14:57:59</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1456,79 +1428,513 @@
       <c r="M17" t="b">
         <v>0</v>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>https://instagram.com/renecorrea6600</t>
-        </is>
-      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18069384506600468', 'id': '18069384506600468', 'text': 'Yo compro muchos yogoyogo y la gelatina y el yogurt de bolsita y me encantaría que me mande una caja con todos los yogures 🙏 me encanta los yogures', 'ownerUsername': 'renecorrea6600', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.2885-19/285767721_387465060107593_8753498132828513536_n.jpg?stp=d</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05T5TeLRszGpdXtpa6Eixw9aXiq1MVSih5VSP8fd2n3qafSHVuZ79WUwWqz4ir9ZKl?comment_id=834542738933427', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzgzNDU0MjczODkzMzQyNw==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF84MzQ1NDI3Mzg5MzM0Mjc=', 'date': '2025-11-08T14:57:59.000Z', 'text': 'Pues algo túvo que Ase</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
+        <v>6</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQHedmRjHLo/</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQHedmRjHLo/</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
         <v>7</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>Instagram</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>matiasarturoromo</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Que mieldaaa</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2025-11-09T04:30:00.000Z</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>45970.1875</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>45970</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>04:30:00</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>https://instagram.com/matiasarturoromo</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18098144245606945', 'id': '18098144245606945', 'text': 'Que mieldaaa', 'ownerUsername': 'matiasarturoromo', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.82787-19/573473903_17898280404321112_6966858402340948994_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=103&amp;ig_cache_key=GG_ELiJYA5clZJY-AAJM_g-OQK9gbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>7</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>camilavalenzcaro443</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Holaa</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2025-11-07T22:39:24.000Z</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>45968.94402777778</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>22:39:24</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>https://instagram.com/camilavalenzcaro443</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18034059335512099', 'id': '18034059335512099', 'text': 'Holaa', 'ownerUsername': 'camilavalenzcaro443', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.82787-19/565042982_17921020101158101_7888790515073166009_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GCbfrSHVZCSlEqs-ALkqaEYtnXptbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>7</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>camilavalenzcaro443</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Amiga linda te quiero</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2025-11-07T22:39:19.000Z</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>45968.94396990741</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>22:39:19</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>https://instagram.com/camilavalenzcaro443</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18285197614263782', 'id': '18285197614263782', 'text': 'Amiga linda te quiero', 'ownerUsername': 'camilavalenzcaro443', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.82787-19/565042982_17921020101158101_7888790515073166009_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GCbfrSHVZCSlEqs-ALkqaEYtnXptbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=66</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>yamilemorenoporras</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Siempre escogemos alpina para la lonchera de nuestros chiquis, y para .mi un rico arequipe con quesito</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2025-11-07T21:20:59.000Z</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>45968.88957175926</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>21:20:59</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>https://instagram.com/yamilemorenoporras</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18042448463682848', 'id': '18042448463682848', 'text': 'Siempre escogemos alpina para la lonchera de nuestros chiquis, y para .mi un rico arequipe con quesito', 'ownerUsername': 'yamilemorenoporras', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.89012-19/573323465_1219825463302212_7278921664109726296_n.png?stp=dst-webp_s150x150&amp;_nc_cat=1&amp;ig_cache_key</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>7</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>lizcano.z</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Los preferidos de mi chiqui le encantan los Dinos</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-11-07T20:39:10.000Z</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>45968.86053240741</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>20:39:10</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>https://instagram.com/lizcano.z</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18144953131380182', 'id': '18144953131380182', 'text': 'Los preferidos de mi chiqui le encantan los Dinos', 'ownerUsername': 'lizcano.z', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.2885-19/332621657_6410209482345828_4629360806061933546_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GFln0xNkjSEzDcYWAOoDcC4gyz5AbkULAAAB1501500j-ccb7-5&amp;cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>7</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>renecorrea6600</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Yo compro muchos yogoyogo y la gelatina y el yogurt de bolsita y me encantaría que me mande una caja con todos los yogures 🙏 me encanta los yogures</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-11-04T03:16:26.000Z</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>45965.13641203703</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>03:16:26</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>https://instagram.com/renecorrea6600</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18069384506600468', 'id': '18069384506600468', 'text': 'Yo compro muchos yogoyogo y la gelatina y el yogurt de bolsita y me encantaría que me mande una caja con todos los yogures 🙏 me encanta los yogures', 'ownerUsername': 'renecorrea6600', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.2885-19/285767721_387465060107593_8753498132828513536_n.jpg?stp=d</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>7</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQcdoNmAF9E/#advertiser</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>liebe_sheibe</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Quiero uno y no encuentro los yogures se agotaron muy rápido yo quería uno,😣😕</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>2025-11-01T01:42:25.000Z</t>
         </is>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="H25" s="2" t="n">
         <v>45962.07112268519</v>
       </c>
-      <c r="I18" s="3" t="n">
+      <c r="I25" s="2" t="n">
         <v>45962</v>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>01:42:25</t>
         </is>
       </c>
-      <c r="K18" t="n">
+      <c r="K25" t="n">
         <v>1</v>
       </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="b">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>https://instagram.com/liebe_sheibe</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr">
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
         <is>
           <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18079566332513278', 'id': '18079566332513278', 'text': 'Quiero uno y no encuentro los yogures se agotaron muy rápido yo quería uno,😣😕', 'ownerUsername': 'liebe_sheibe', 'ownerProfilePicUrl': 'https://scontent-hel3-1.cdninstagram.com/v/t51.89012-19/573323465_1219825463302212_7278921664109726296_n.png?stp=dst-webp_s150x150&amp;_nc_cat=1&amp;ig_cache_key=YW5vbnltb3VzX3Byb2ZpbGVfcGlj.3</t>
         </is>
@@ -1651,7 +2057,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1678,7 +2084,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1705,7 +2111,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1823,7 +2229,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -20,11 +20,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -64,13 +62,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -643,7 +640,7 @@
       <c r="H4" s="2" t="n">
         <v>45980.47052083333</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="2" t="n">
         <v>45980</v>
       </c>
       <c r="J4" t="inlineStr">
@@ -651,10 +648,8 @@
           <t>11:17:33</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K4" t="n">
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -703,7 +698,7 @@
       <c r="H5" s="2" t="n">
         <v>45978.74142361111</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="2" t="n">
         <v>45978</v>
       </c>
       <c r="J5" t="inlineStr">
@@ -711,10 +706,8 @@
           <t>17:47:39</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K5" t="n">
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -763,7 +756,7 @@
       <c r="H6" s="2" t="n">
         <v>45977.11752314815</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="2" t="n">
         <v>45977</v>
       </c>
       <c r="J6" t="inlineStr">
@@ -771,10 +764,8 @@
           <t>02:49:14</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K6" t="n">
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -823,7 +814,7 @@
       <c r="H7" s="2" t="n">
         <v>45974.1278125</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="2" t="n">
         <v>45974</v>
       </c>
       <c r="J7" t="inlineStr">
@@ -831,10 +822,8 @@
           <t>03:04:03</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K7" t="n">
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -883,7 +872,7 @@
       <c r="H8" s="2" t="n">
         <v>45971.41180555556</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="2" t="n">
         <v>45971</v>
       </c>
       <c r="J8" t="inlineStr">
@@ -891,10 +880,8 @@
           <t>09:53:00</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K8" t="n">
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -943,7 +930,7 @@
       <c r="H9" s="2" t="n">
         <v>45969.86098379629</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="I9" s="2" t="n">
         <v>45969</v>
       </c>
       <c r="J9" t="inlineStr">
@@ -951,10 +938,8 @@
           <t>20:39:49</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K9" t="n">
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1003,7 +988,7 @@
       <c r="H10" s="2" t="n">
         <v>45969.62359953704</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="I10" s="2" t="n">
         <v>45969</v>
       </c>
       <c r="J10" t="inlineStr">
@@ -1011,10 +996,8 @@
           <t>14:57:59</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K10" t="n">
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1109,7 +1092,7 @@
       <c r="H12" s="2" t="n">
         <v>45970.1875</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="I12" s="2" t="n">
         <v>45970</v>
       </c>
       <c r="J12" t="inlineStr">
@@ -1175,7 +1158,7 @@
       <c r="H13" s="2" t="n">
         <v>45968.94402777778</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="I13" s="2" t="n">
         <v>45968</v>
       </c>
       <c r="J13" t="inlineStr">
@@ -1241,7 +1224,7 @@
       <c r="H14" s="2" t="n">
         <v>45968.94396990741</v>
       </c>
-      <c r="I14" s="3" t="n">
+      <c r="I14" s="2" t="n">
         <v>45968</v>
       </c>
       <c r="J14" t="inlineStr">
@@ -1307,7 +1290,7 @@
       <c r="H15" s="2" t="n">
         <v>45968.88957175926</v>
       </c>
-      <c r="I15" s="3" t="n">
+      <c r="I15" s="2" t="n">
         <v>45968</v>
       </c>
       <c r="J15" t="inlineStr">
@@ -1373,7 +1356,7 @@
       <c r="H16" s="2" t="n">
         <v>45968.86053240741</v>
       </c>
-      <c r="I16" s="3" t="n">
+      <c r="I16" s="2" t="n">
         <v>45968</v>
       </c>
       <c r="J16" t="inlineStr">
@@ -1439,7 +1422,7 @@
       <c r="H17" s="2" t="n">
         <v>45965.13641203703</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="I17" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="J17" t="inlineStr">
@@ -1505,7 +1488,7 @@
       <c r="H18" s="2" t="n">
         <v>45962.07112268519</v>
       </c>
-      <c r="I18" s="3" t="n">
+      <c r="I18" s="2" t="n">
         <v>45962</v>
       </c>
       <c r="J18" t="inlineStr">

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -20,9 +20,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -62,12 +64,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -433,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1514,6 +1517,1898 @@
       <c r="P18" t="inlineStr">
         <is>
           <t>{'postUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DQcdoNmAF9E/c/18079566332513278', 'id': '18079566332513278', 'text': 'Quiero uno y no encuentro los yogures se agotaron muy rápido yo quería uno,😣😕', 'ownerUsername': 'liebe_sheibe', 'ownerProfilePicUrl': 'https://scontent-lga3-3.cdninstagram.com/v/t51.89012-19/573323465_1219825463302212_7278921664109726296_n.png?stp=dst-webp_s150x150&amp;_nc_cat=1&amp;cb=8438d1d6-2a815c44&amp;ig_cache_key=YW5vbnltb</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>8</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1248105494028354/?dco_ad_token=Aar7Hpql98hBiJOI18EXSBE_WmTDD26v58Tf0TjEfgUvxj-3ylRwSjNd04C_h3AyhaBkiGaOSOwroVg1&amp;dco_ad_id=120234495302460781</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1248105494028354/?dco_ad_token=Aar7Hpql98hBiJOI18EXSBE_WmTDD26v58Tf0TjEfgUvxj-3ylRwSjNd04C_h3AyhaBkiGaOSOwroVg1&amp;dco_ad_id=120234495302460781</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Me encanto su sabor es deliciosa</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2025-11-03T17:47:19.000Z</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>45964.74119212963</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>45964</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>17:47:19</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1248105494028354/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0263FyZK85J5ZsWVHYsj4oGrUYdrJ8DeUphKTh4jZakagcyjSFv8dc1vnrZRuoZbq3l?comment_id=1382851180023878', 'id': 'Y29tbWVudDoxMjYxNjA4NjA5MzQ0NzA5XzEzODI4NTExODAwMjM4Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTI2MTYwODYwOTM0NDcwOV8xMzgyODUxMTgwMDIzODc4', 'date': '2025-11-03T17:47:19.000Z', 'text': 'Me encanto su sabor es deliciosa', 'profilePicture': 'https://scontent-iad3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>8</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1248105494028354/?dco_ad_token=Aar7Hpql98hBiJOI18EXSBE_WmTDD26v58Tf0TjEfgUvxj-3ylRwSjNd04C_h3AyhaBkiGaOSOwroVg1&amp;dco_ad_id=120234495302460781</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1248105494028354/?dco_ad_token=Aar7Hpql98hBiJOI18EXSBE_WmTDD26v58Tf0TjEfgUvxj-3ylRwSjNd04C_h3AyhaBkiGaOSOwroVg1&amp;dco_ad_id=120234495302460781</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>,eggrctrg bhfrskfffkskddd y dvdjdjdñ</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2025-11-02T12:52:19.000Z</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>45963.53633101852</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>45963</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>12:52:19</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1248105494028354/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0263FyZK85J5ZsWVHYsj4oGrUYdrJ8DeUphKTh4jZakagcyjSFv8dc1vnrZRuoZbq3l?comment_id=809169055066836', 'id': 'Y29tbWVudDoxMjYxNjA4NjA5MzQ0NzA5XzgwOTE2OTA1NTA2NjgzNg==', 'feedbackId': 'ZmVlZGJhY2s6MTI2MTYwODYwOTM0NDcwOV84MDkxNjkwNTUwNjY4MzY=', 'date': '2025-11-02T12:52:19.000Z', 'text': ',eggrctrg bhfrskfffkskddd y dvdjdjdñ', 'profileUrl': 'https://www.facebook.c</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>8</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1248105494028354/?dco_ad_token=Aar7Hpql98hBiJOI18EXSBE_WmTDD26v58Tf0TjEfgUvxj-3ylRwSjNd04C_h3AyhaBkiGaOSOwroVg1&amp;dco_ad_id=120234495302460781</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1248105494028354/?dco_ad_token=Aar7Hpql98hBiJOI18EXSBE_WmTDD26v58Tf0TjEfgUvxj-3ylRwSjNd04C_h3AyhaBkiGaOSOwroVg1&amp;dco_ad_id=120234495302460781</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Ese yogurt para perros demasiado costoso. Sale mas barato comprar menudencias y les gusta más.</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2025-11-01T19:37:15.000Z</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>45962.81753472222</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>45962</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>19:37:15</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1248105494028354/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0263FyZK85J5ZsWVHYsj4oGrUYdrJ8DeUphKTh4jZakagcyjSFv8dc1vnrZRuoZbq3l?comment_id=1669320904026670', 'id': 'Y29tbWVudDoxMjYxNjA4NjA5MzQ0NzA5XzE2NjkzMjA5MDQwMjY2NzA=', 'feedbackId': 'ZmVlZGJhY2s6MTI2MTYwODYwOTM0NDcwOV8xNjY5MzIwOTA0MDI2Njcw', 'date': '2025-11-01T19:37:15.000Z', 'text': 'Ese yogurt para perros demasiado costoso. Sale mas barato comprar menudenci</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>8</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1248105494028354/?dco_ad_token=Aar7Hpql98hBiJOI18EXSBE_WmTDD26v58Tf0TjEfgUvxj-3ylRwSjNd04C_h3AyhaBkiGaOSOwroVg1&amp;dco_ad_id=120234495302460781</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1248105494028354/?dco_ad_token=Aar7Hpql98hBiJOI18EXSBE_WmTDD26v58Tf0TjEfgUvxj-3ylRwSjNd04C_h3AyhaBkiGaOSOwroVg1&amp;dco_ad_id=120234495302460781</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Era el blanco mas facil</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2025-11-01T19:30:50.000Z</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>45962.8130787037</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>45962</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>19:30:50</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1248105494028354/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0263FyZK85J5ZsWVHYsj4oGrUYdrJ8DeUphKTh4jZakagcyjSFv8dc1vnrZRuoZbq3l?comment_id=1534756697439580', 'id': 'Y29tbWVudDoxMjYxNjA4NjA5MzQ0NzA5XzE1MzQ3NTY2OTc0Mzk1ODA=', 'feedbackId': 'ZmVlZGJhY2s6MTI2MTYwODYwOTM0NDcwOV8xNTM0NzU2Njk3NDM5NTgw', 'date': '2025-11-01T19:30:50.000Z', 'text': 'Era el blanco mas facil', 'profileUrl': 'https://www.facebook.com/jaimesest</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>9</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>malagon2804_</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Los productos de alpina marcaron mi infancia☺️☺️☺️</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-11-12T12:57:20.000Z</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>45973.53981481482</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>45973</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>12:57:20</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>https://instagram.com/malagon2804_</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQxPDChgGBC/', 'commentUrl': 'https://www.instagram.com/p/DQxPDChgGBC/c/18058652393550509', 'id': '18058652393550509', 'text': 'Los productos de alpina marcaron mi infancia☺️☺️☺️', 'ownerUsername': 'malagon2804_', 'ownerProfilePicUrl': 'https://scontent-iad3-2.cdninstagram.com/v/t51.2885-19/435056176_781993306828921_8403787335463675926_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=100&amp;ig_cache_key=GDBu7hl5MEUBOMcCABYoPXIOQKB0bkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_n</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>catherin_0525</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Alpina lo mejor me ha acompañado desde que estaba en mi jardín secundaria en mi lonchera ahora me acompaña en mi trabajo delicioso el yogurt de melocoton y sus pedacitos de fruta gracias por seguir con su esencia y ser parte de muchos momentos especiales de mi vida</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-11-12T11:35:26.000Z</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>45973.48293981481</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <v>45973</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>11:35:26</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>https://instagram.com/catherin_0525</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQxPDChgGBC/', 'commentUrl': 'https://www.instagram.com/p/DQxPDChgGBC/c/18081969461109887', 'id': '18081969461109887', 'text': 'Alpina lo mejor me ha acompañado desde que estaba en mi jardín secundaria en mi lonchera ahora me acompaña en mi trabajo delicioso el yogurt de melocoton y sus pedacitos de fruta gracias por seguir con su esencia y ser parte de muchos momentos especiales de mi vida', 'ownerUsername': 'catherin_0525', 'ownerProfilePicUrl': 'https:</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>9</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>andrusleon</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Hay sabores que conectan recuerdos. Sabores que nos hacen sonreír.
+Alpina está ahí: en la lonchera, en el desayuno, en los momentos simples
+y también en los importantes. Porque lo que nos alimenta de verdad, es el cariño</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2025-11-12T04:53:51.000Z</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>45973.2040625</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>45973</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>04:53:51</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>https://instagram.com/andrusleon</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQxPDChgGBC/', 'commentUrl': 'https://www.instagram.com/p/DQxPDChgGBC/c/18180186079355487', 'id': '18180186079355487', 'text': 'Hay sabores que conectan recuerdos. Sabores que nos hacen sonreír.\nAlpina está ahí: en la lonchera, en el desayuno, en los momentos simples\ny también en los importantes. Porque lo que nos alimenta de verdad, es el cariño', 'ownerUsername': 'andrusleon', 'ownerProfilePicUrl': 'https://scontent-iad3-1.cdninstagram.com/v/t51.2885-</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>9</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>daav747</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>El Yox de Alpina es tan poderoso que siento que, si lo dejo solo en la nevera, al otro día ya habrá hecho amigos y organizado una fiesta probiótica.</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2025-11-12T03:57:00.000Z</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>45973.16458333333</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>45973</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>03:57:00</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>https://instagram.com/daav747</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQxPDChgGBC/', 'commentUrl': 'https://www.instagram.com/p/DQxPDChgGBC/c/18093860161845730', 'id': '18093860161845730', 'text': 'El Yox de Alpina es tan poderoso que siento que, si lo dejo solo en la nevera, al otro día ya habrá hecho amigos y organizado una fiesta probiótica.', 'ownerUsername': 'daav747', 'ownerProfilePicUrl': 'https://scontent-iad3-2.cdninstagram.com/v/t51.82787-19/542410412_17932142268093549_6489618205558484891_n.jpg?stp=dst-jpg_e0_s150</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>9</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>mariluna152</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Son de muy buena calidad,me recuerdan mi niñez  en mi descanso del cole no podía faltar un yogurt</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2025-11-12T03:52:36.000Z</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>45973.16152777777</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>45973</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>03:52:36</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>https://instagram.com/mariluna152</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQxPDChgGBC/', 'commentUrl': 'https://www.instagram.com/p/DQxPDChgGBC/c/18124357429509419', 'id': '18124357429509419', 'text': 'Son de muy buena calidad,me recuerdan mi niñez  en mi descanso del cole no podía faltar un yogurt', 'ownerUsername': 'mariluna152', 'ownerProfilePicUrl': 'https://scontent-iad3-2.cdninstagram.com/v/t51.2885-19/321944853_500825491905746_317310835060632467_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=103&amp;ig_cache_key=GBV9MBPSHIqFf8cBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>9</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>lixy_sd</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>💛💛 quieroooo</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2025-11-12T03:16:39.000Z</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>45973.1365625</v>
+      </c>
+      <c r="I28" s="3" t="n">
+        <v>45973</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>03:16:39</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>https://instagram.com/lixy_sd</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQxPDChgGBC/', 'commentUrl': 'https://www.instagram.com/p/DQxPDChgGBC/c/18542213413048527', 'id': '18542213413048527', 'text': '💛💛 quieroooo', 'ownerUsername': 'lixy_sd', 'ownerProfilePicUrl': 'https://scontent-iad3-1.cdninstagram.com/v/t51.2885-19/460784592_546975304622706_1464601496850021140_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GNADdxtyorucePEBABQ7QDVNT1MUbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>9</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>diaberri</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Alpina de lo mejor amo el bon yur de Zucaritas , el arequipe , el queso mejor dicho todo amo todo</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2025-11-12T03:15:20.000Z</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>45973.13564814815</v>
+      </c>
+      <c r="I29" s="3" t="n">
+        <v>45973</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>03:15:20</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="b">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>https://instagram.com/diaberri</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQxPDChgGBC/', 'commentUrl': 'https://www.instagram.com/p/DQxPDChgGBC/c/18148287091425225', 'id': '18148287091425225', 'text': 'Alpina de lo mejor amo el bon yur de Zucaritas , el arequipe , el queso mejor dicho todo amo todo', 'ownerUsername': 'diaberri', 'ownerProfilePicUrl': 'https://scontent-iad3-1.cdninstagram.com/v/t51.2885-19/448064728_833440304786362_2384732210817158615_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GNjstBq6605xAvYCANd</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>9</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>giiljohanna</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Excelentes productos, que nos marcan nuestra niñez, ya que es una marca de tradición hoy en dia mi hijo disfruta de los productos en la lonchera y somo felices compartiendo cada uno de ellos cuando estamos en casa y queremos tardear, es que hay tanta variedad que son ideales para cualquier momento... Siempre productos alpina.. ❤️🤗</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2025-11-12T03:06:53.000Z</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>45973.12978009259</v>
+      </c>
+      <c r="I30" s="3" t="n">
+        <v>45973</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>03:06:53</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>https://instagram.com/giiljohanna</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQxPDChgGBC/', 'commentUrl': 'https://www.instagram.com/p/DQxPDChgGBC/c/18024362972771765', 'id': '18024362972771765', 'text': 'Excelentes productos, que nos marcan nuestra niñez, ya que es una marca de tradición hoy en dia mi hijo disfruta de los productos en la lonchera y somo felices compartiendo cada uno de ellos cuando estamos en casa y queremos tardear, es que hay tanta variedad que son ideales para cualquier momento... Siempre productos alpina.. ❤️</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>9</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>yayanrojas</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Déjame decirte que los quesos 😏🙂‍↔️</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2025-11-11T23:59:58.000Z</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>45972.99997685185</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>45972</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>23:59:58</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>https://instagram.com/yayanrojas</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQxPDChgGBC/', 'commentUrl': 'https://www.instagram.com/p/DQxPDChgGBC/c/18078172991128579', 'id': '18078172991128579', 'text': 'Déjame decirte que los quesos 😏🙂\u200d↔️', 'ownerUsername': 'yayanrojas', 'ownerProfilePicUrl': 'https://scontent-iad3-1.cdninstagram.com/v/t51.2885-19/474512718_2412023879156564_5820931327012278688_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=107&amp;ig_cache_key=GE59SBxUw4ESuZEIAKCRgogzGshQbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=66940</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>9</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>elsacuellar73</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Productos de muyyy buena calidad, por lo cual la consumiremos</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2025-11-11T23:13:35.000Z</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>45972.96776620371</v>
+      </c>
+      <c r="I32" s="3" t="n">
+        <v>45972</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>23:13:35</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="b">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>https://instagram.com/elsacuellar73</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQxPDChgGBC/', 'commentUrl': 'https://www.instagram.com/p/DQxPDChgGBC/c/18086489665953006', 'id': '18086489665953006', 'text': 'Productos de muyyy buena calidad, por lo cual la consumiremos', 'ownerUsername': 'elsacuellar73', 'ownerProfilePicUrl': 'https://scontent-iad3-2.cdninstagram.com/v/t51.2885-19/120729886_369912034383255_126474065552328485_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=103&amp;ig_cache_key=GB4xMgeXVWjbblABACXHixZ_U8EBbkULAAAB1501500j-ccb7-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>9</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>lilibatista230</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Me encanta alpina una de mis marca favorita todos sus productos son deliciosos</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2025-11-11T22:36:23.000Z</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>45972.94193287037</v>
+      </c>
+      <c r="I33" s="3" t="n">
+        <v>45972</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>22:36:23</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="b">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>https://instagram.com/lilibatista230</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQxPDChgGBC/', 'commentUrl': 'https://www.instagram.com/p/DQxPDChgGBC/c/18440368522099100', 'id': '18440368522099100', 'text': 'Me encanta alpina una de mis marca favorita todos sus productos son deliciosos', 'ownerUsername': 'lilibatista230', 'ownerProfilePicUrl': 'https://scontent-iad3-1.cdninstagram.com/v/t51.82787-19/542563204_18320640469238671_4865713012583762485_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=108&amp;ig_cache_key=GITbViCPAzqDhhZBADUKDY40fIZDb</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>9</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>erik9019</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>A la hora de mi descanso en la escuela no me podía faltar mi alpin o mi Bomyourt, me trae buenos recuerdos de esa época, pues junto con mis compañeritos no sentabamos a disfrutar y compartir de los productos de Alpina 🤗🤗</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2025-11-11T19:25:46.000Z</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>45972.80956018518</v>
+      </c>
+      <c r="I34" s="3" t="n">
+        <v>45972</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>19:25:46</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="b">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>https://instagram.com/erik9019</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQxPDChgGBC/', 'commentUrl': 'https://www.instagram.com/p/DQxPDChgGBC/c/18081339236472900', 'id': '18081339236472900', 'text': 'A la hora de mi descanso en la escuela no me podía faltar mi alpin o mi Bomyourt, me trae buenos recuerdos de esa época, pues junto con mis compañeritos no sentabamos a disfrutar y compartir de los productos de Alpina 🤗🤗', 'ownerUsername': 'erik9019', 'ownerProfilePicUrl': 'https://scontent-iad3-2.cdninstagram.com/v/t51.2885-19/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>9</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>chef_robinson</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Cuando era niño mi mama siempre me compraba bon yurt y en la actualidad lo sigo comprando porque me gusta para iniciar mi labores diarias</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2025-11-11T16:04:15.000Z</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>45972.66961805556</v>
+      </c>
+      <c r="I35" s="3" t="n">
+        <v>45972</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>16:04:15</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="b">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>https://instagram.com/chef_robinson</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQxPDChgGBC/', 'commentUrl': 'https://www.instagram.com/p/DQxPDChgGBC/c/17973287648951282', 'id': '17973287648951282', 'text': 'Cuando era niño mi mama siempre me compraba bon yurt y en la actualidad lo sigo comprando porque me gusta para iniciar mi labores diarias', 'ownerUsername': 'chef_robinson', 'ownerProfilePicUrl': 'https://scontent-iad3-1.cdninstagram.com/v/t51.2885-19/459572838_503961498930841_1185259458128777371_n.jpg?stp=dst-jpg_e0_s150x150_tt6</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>9</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>lisetha_56</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Los mejores 💙💛</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2025-11-10T23:01:41.000Z</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>45971.95950231481</v>
+      </c>
+      <c r="I36" s="3" t="n">
+        <v>45971</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>23:01:41</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="b">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>https://instagram.com/lisetha_56</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQxPDChgGBC/', 'commentUrl': 'https://www.instagram.com/p/DQxPDChgGBC/c/18109050094614085', 'id': '18109050094614085', 'text': 'Los mejores 💙💛', 'ownerUsername': 'lisetha_56', 'ownerProfilePicUrl': 'https://scontent-iad3-1.cdninstagram.com/v/t51.82787-19/518065166_17842811352537175_2903534435197254887_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=110&amp;ig_cache_key=GA4M4R5XWHZA8WM-AOf8C2svbUsobmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZy</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>9</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>girlx.love_saris</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Todas las mañanas antes de ir al Cole desayunaba con un producto de alpina,recuerdo que tomaba avena de canela o a veces con el delicioso yox, sentía que era como un motor para mí, con los productos de alpina sentía mucha energía, lista para mis exámenes y para mis deberes, nunca hubo un producto que no me gustara Ahora espero ese momento de el día en el cual me sumerjo en un momento especial el cual es abrir un producto de alpina, ya sea el increíble yogo yogo premio, aveces me dicen que ya estoy grande pero yo les digo que a mí nunca me va a dejar de gustar sentir la emoción y la felicidad de abrir un yogo yogo y ver que figurita te salió e ir completando tus colecciones poco a poco, o abrir el exquisito bonturt en todas sus presentaciones, sentir su sabor y sentir un fulgor en mí cuerpo.Definitivamente amo a alpina, sin ustedes no tendría energía y no sentiría esas emociones tan agradables que yo siento al abrir un producto.❤️❤️</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2025-11-10T21:52:29.000Z</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>45971.91144675926</v>
+      </c>
+      <c r="I37" s="3" t="n">
+        <v>45971</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>21:52:29</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="b">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>https://instagram.com/girlx.love_saris</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQxPDChgGBC/', 'commentUrl': 'https://www.instagram.com/p/DQxPDChgGBC/c/18188159791338111', 'id': '18188159791338111', 'text': 'Todas las mañanas antes de ir al Cole desayunaba con un producto de alpina,recuerdo que tomaba avena de canela o a veces con el delicioso yox, sentía que era como un motor para mí, con los productos de alpina sentía mucha energía, lista para mis exámenes y para mis deberes, nunca hubo un producto que no me gustara Ahora espero es</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>9</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>flor.castano.127</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Todo lo de alpina es super delicioso</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2025-11-10T21:16:02.000Z</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>45971.88613425926</v>
+      </c>
+      <c r="I38" s="3" t="n">
+        <v>45971</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>21:16:02</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="b">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>https://instagram.com/flor.castano.127</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQxPDChgGBC/', 'commentUrl': 'https://www.instagram.com/p/DQxPDChgGBC/c/17851867218580094', 'id': '17851867218580094', 'text': 'Todo lo de alpina es super delicioso', 'ownerUsername': 'flor.castano.127', 'ownerProfilePicUrl': 'https://scontent-iad3-1.cdninstagram.com/v/t51.2885-19/382565620_1028184138223082_6085478185380058607_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=107&amp;ig_cache_key=GPR8zRbqjVLGIKcDAO_V99cq9nNUbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>9</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>daniielap08</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>En el colegio, mi ritual de onces era sagrado: ¡bon yurt o nada! Estudiaba en la mañana y esperaba con ansias ese momento glorioso en que abría el de choco crispis... ¡una mezcla perfecta de yogur, cereal y pura felicidad! Era, sin duda, mi favorito.</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2025-11-10T13:31:46.000Z</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>45971.56372685185</v>
+      </c>
+      <c r="I39" s="3" t="n">
+        <v>45971</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>13:31:46</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="b">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>https://instagram.com/daniielap08</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQxPDChgGBC/', 'commentUrl': 'https://www.instagram.com/p/DQxPDChgGBC/c/18098114641775591', 'id': '18098114641775591', 'text': 'En el colegio, mi ritual de onces era sagrado: ¡bon yurt o nada! Estudiaba en la mañana y esperaba con ansias ese momento glorioso en que abría el de choco crispis… ¡una mezcla perfecta de yogur, cereal y pura felicidad! Era, sin duda, mi favorito.', 'ownerUsername': 'daniielap08', 'ownerProfilePicUrl': 'https://scontent-iad3-1.c</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>9</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>isabelavargasm</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>La página no sirve, llevo 5 intentos pero no abre :(</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2025-11-10T04:12:12.000Z</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>45971.17513888889</v>
+      </c>
+      <c r="I40" s="3" t="n">
+        <v>45971</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>04:12:12</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>https://instagram.com/isabelavargasm</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQxPDChgGBC/', 'commentUrl': 'https://www.instagram.com/p/DQxPDChgGBC/c/18078817106162788', 'id': '18078817106162788', 'text': 'La página no sirve, llevo 5 intentos pero no abre :(', 'ownerUsername': 'isabelavargasm', 'ownerProfilePicUrl': 'https://scontent-iad3-2.cdninstagram.com/v/t51.2885-19/242379872_487368862811016_5919482314032814787_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=106&amp;ig_cache_key=GGBscg6IQ-FnQrsBAMMaIkbNOSZSbkULAAAB1501500j-ccb7-5&amp;ccb=7-</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>9</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>anarojoo</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Bueno es una marca de mucha tradición y todo lo hace delicioso 😋.</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2025-11-10T00:56:56.000Z</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>45971.03953703704</v>
+      </c>
+      <c r="I41" s="3" t="n">
+        <v>45971</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>00:56:56</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="b">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>https://instagram.com/anarojoo</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQxPDChgGBC/', 'commentUrl': 'https://www.instagram.com/p/DQxPDChgGBC/c/18297209386260662', 'id': '18297209386260662', 'text': 'Bueno es una marca de mucha tradición y todo lo hace delicioso 😋.', 'ownerUsername': 'anarojoo', 'ownerProfilePicUrl': 'https://scontent-iad3-1.cdninstagram.com/v/t51.2885-19/482983659_667345799307802_1887458732624555543_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=102&amp;ig_cache_key=GOu_yRwaYk_N8l4CABeuS5a3mTEabkULAAAB1501500j-ccb7-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>diegodiaz1554</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>muchos recuerdos del colegio</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2025-11-09T21:25:09.000Z</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>45970.89246527778</v>
+      </c>
+      <c r="I42" s="3" t="n">
+        <v>45970</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>21:25:09</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>https://instagram.com/diegodiaz1554</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQxPDChgGBC/', 'commentUrl': 'https://www.instagram.com/p/DQxPDChgGBC/c/18363227179095488', 'id': '18363227179095488', 'text': 'muchos recuerdos del colegio', 'ownerUsername': 'diegodiaz1554', 'ownerProfilePicUrl': 'https://scontent-iad3-2.cdninstagram.com/v/t51.2885-19/466358641_615622430796811_3950531317641472170_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=100&amp;ig_cache_key=GHERzBsLrE3E5y8CAKpoE3ZNG9M2bkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>9</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>vivi__martinez4</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Delicioso todo lo que Alpina saca al mercado</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2025-11-09T16:03:21.000Z</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>45970.66899305556</v>
+      </c>
+      <c r="I43" s="3" t="n">
+        <v>45970</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>16:03:21</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="b">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>https://instagram.com/vivi__martinez4</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQxPDChgGBC/', 'commentUrl': 'https://www.instagram.com/p/DQxPDChgGBC/c/18104134765569999', 'id': '18104134765569999', 'text': 'Delicioso todo lo que Alpina saca al mercado', 'ownerUsername': 'vivi__martinez4', 'ownerProfilePicUrl': 'https://scontent-iad3-2.cdninstagram.com/v/t51.82787-19/524922551_18380263315193676_5272219162296708955_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=105&amp;ig_cache_key=GLeuSR9Mv8eJwExBAFvvswplrypJbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_n</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>9</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>_sabina_andrea_</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>La edad se olvida en el momento que te sientas a disfrutar del arequipe alpina con su cucharita, o cuando abres las zucaritas y las pruebas antes de mezclarlas y comerte tu Bon Yurt, o sacar de la nevera sin que nos vean un pedacito de queso Alpina 🙃</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2025-11-09T13:00:57.000Z</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>45970.54232638889</v>
+      </c>
+      <c r="I44" s="3" t="n">
+        <v>45970</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>13:00:57</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>https://instagram.com/_sabina_andrea_</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQxPDChgGBC/', 'commentUrl': 'https://www.instagram.com/p/DQxPDChgGBC/c/18059210963235234', 'id': '18059210963235234', 'text': 'La edad se olvida en el momento que te sientas a disfrutar del arequipe alpina con su cucharita, o cuando abres las zucaritas y las pruebas antes de mezclarlas y comerte tu Bon Yurt, o sacar de la nevera sin que nos vean un pedacito de queso Alpina 🙃', 'ownerUsername': '_sabina_andrea_', 'ownerProfilePicUrl': 'https://scontent-ia</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>9</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>dulceexcepcion</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Cuándo estaba pequeña, hace como 45 años, me enfermaba con alguna frecuencia. En oportunidades podía estar hasta tres días sin comer y con fiebre, hasta que un día a mi mamá se le ocurrió darme un yogurth Alpina de melocotón, en ese entonces no venía en vasito, sino en caja,  desde esa vez cada que me enfermaba, solamente recibía, mi yogurt Alpina de melocotón. Todavía sigue siendo delicioso. Incluso, en ocasiones en que me siento deprimida por algún asunto del trabajo, bajo a la cafetería de la empresa y el sabor de esta bebida me reconforta y me devuelve a la niñez cuando no tenía razones para preocuparme.  Gracias Alpina</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2025-11-09T09:58:22.000Z</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>45970.41553240741</v>
+      </c>
+      <c r="I45" s="3" t="n">
+        <v>45970</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>09:58:22</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>https://instagram.com/dulceexcepcion</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQxPDChgGBC/', 'commentUrl': 'https://www.instagram.com/p/DQxPDChgGBC/c/18081759251119226', 'id': '18081759251119226', 'text': 'Cuándo estaba pequeña, hace como 45 años, me enfermaba con alguna frecuencia. En oportunidades podía estar hasta tres días sin comer y con fiebre, hasta que un día a mi mamá se le ocurrió darme un yogurth Alpina de melocotón, en ese entonces no venía en vasito, sino en caja,  desde esa vez cada que me enfermaba, solamente recibía</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>9</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>wally2524</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>La mejor marca y lo más rico lo tiene productos alpina</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2025-11-09T01:59:57.000Z</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>45970.08329861111</v>
+      </c>
+      <c r="I46" s="3" t="n">
+        <v>45970</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>01:59:57</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>https://instagram.com/wally2524</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQxPDChgGBC/', 'commentUrl': 'https://www.instagram.com/p/DQxPDChgGBC/c/18044596487441818', 'id': '18044596487441818', 'text': 'La mejor marca y lo más rico lo tiene productos alpina', 'ownerUsername': 'wally2524', 'ownerProfilePicUrl': 'https://scontent-iad3-2.cdninstagram.com/v/t51.82787-19/541862627_18527646817049383_4103607402479522532_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=105&amp;ig_cache_key=GOMqTCAn2w3vy9JBAOSSdNIw8fI4bmNDAQAB1501500j-ccb7-5&amp;ccb=7-</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>9</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>yeimimejiadelgado</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Muchas veces por falta de tiempo y a veces de dinero me compraba un yogur yogo yogo y seguía manojos mis actividades, mejor mil veces el yogur q te alimenta que una gaseosa y otras cosas</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2025-11-08T01:50:19.000Z</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>45969.0766087963</v>
+      </c>
+      <c r="I47" s="3" t="n">
+        <v>45969</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>01:50:19</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="b">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>https://instagram.com/yeimimejiadelgado</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DQxPDChgGBC/', 'commentUrl': 'https://www.instagram.com/p/DQxPDChgGBC/c/17935009361982452', 'id': '17935009361982452', 'text': 'Muchas veces por falta de tiempo y a veces de dinero me compraba un yogur yogo yogo y seguía manojos mis actividades, mejor mil veces el yogur q te alimenta que una gaseosa y otras cosas', 'ownerUsername': 'yeimimejiadelgado', 'ownerProfilePicUrl': 'https://scontent-iad3-1.cdninstagram.com/v/t51.89012-19/573323465_121982546330221</t>
         </is>
       </c>
     </row>
@@ -1528,7 +3423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1748,6 +3643,60 @@
       </c>
       <c r="G8" s="2" t="n">
         <v>45970.1875</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1248105494028354/?dco_ad_token=Aar7Hpql98hBiJOI18EXSBE_WmTDD26v58Tf0TjEfgUvxj-3ylRwSjNd04C_h3AyhaBkiGaOSOwroVg1&amp;dco_ad_id=120234495302460781</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>45962.8130787037</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>45964.74119212963</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQxPDChgGBC/</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>25</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>45969.0766087963</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>45973.53981481482</v>
       </c>
     </row>
   </sheetData>
@@ -1803,10 +3752,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1822,16 +3771,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>0.29</v>
+        <v>0.09</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1949,10 +3898,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -20,11 +20,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -64,13 +62,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1553,7 +1550,7 @@
       <c r="H19" s="2" t="n">
         <v>45964.74119212963</v>
       </c>
-      <c r="I19" s="3" t="n">
+      <c r="I19" s="2" t="n">
         <v>45964</v>
       </c>
       <c r="J19" t="inlineStr">
@@ -1561,10 +1558,8 @@
           <t>17:47:19</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K19" t="n">
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -1613,7 +1608,7 @@
       <c r="H20" s="2" t="n">
         <v>45963.53633101852</v>
       </c>
-      <c r="I20" s="3" t="n">
+      <c r="I20" s="2" t="n">
         <v>45963</v>
       </c>
       <c r="J20" t="inlineStr">
@@ -1621,10 +1616,8 @@
           <t>12:52:19</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K20" t="n">
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -1673,7 +1666,7 @@
       <c r="H21" s="2" t="n">
         <v>45962.81753472222</v>
       </c>
-      <c r="I21" s="3" t="n">
+      <c r="I21" s="2" t="n">
         <v>45962</v>
       </c>
       <c r="J21" t="inlineStr">
@@ -1681,10 +1674,8 @@
           <t>19:37:15</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K21" t="n">
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -1733,7 +1724,7 @@
       <c r="H22" s="2" t="n">
         <v>45962.8130787037</v>
       </c>
-      <c r="I22" s="3" t="n">
+      <c r="I22" s="2" t="n">
         <v>45962</v>
       </c>
       <c r="J22" t="inlineStr">
@@ -1741,10 +1732,8 @@
           <t>19:30:50</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K22" t="n">
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -1797,7 +1786,7 @@
       <c r="H23" s="2" t="n">
         <v>45973.53981481482</v>
       </c>
-      <c r="I23" s="3" t="n">
+      <c r="I23" s="2" t="n">
         <v>45973</v>
       </c>
       <c r="J23" t="inlineStr">
@@ -1863,7 +1852,7 @@
       <c r="H24" s="2" t="n">
         <v>45973.48293981481</v>
       </c>
-      <c r="I24" s="3" t="n">
+      <c r="I24" s="2" t="n">
         <v>45973</v>
       </c>
       <c r="J24" t="inlineStr">
@@ -1931,7 +1920,7 @@
       <c r="H25" s="2" t="n">
         <v>45973.2040625</v>
       </c>
-      <c r="I25" s="3" t="n">
+      <c r="I25" s="2" t="n">
         <v>45973</v>
       </c>
       <c r="J25" t="inlineStr">
@@ -1997,7 +1986,7 @@
       <c r="H26" s="2" t="n">
         <v>45973.16458333333</v>
       </c>
-      <c r="I26" s="3" t="n">
+      <c r="I26" s="2" t="n">
         <v>45973</v>
       </c>
       <c r="J26" t="inlineStr">
@@ -2063,7 +2052,7 @@
       <c r="H27" s="2" t="n">
         <v>45973.16152777777</v>
       </c>
-      <c r="I27" s="3" t="n">
+      <c r="I27" s="2" t="n">
         <v>45973</v>
       </c>
       <c r="J27" t="inlineStr">
@@ -2129,7 +2118,7 @@
       <c r="H28" s="2" t="n">
         <v>45973.1365625</v>
       </c>
-      <c r="I28" s="3" t="n">
+      <c r="I28" s="2" t="n">
         <v>45973</v>
       </c>
       <c r="J28" t="inlineStr">
@@ -2195,7 +2184,7 @@
       <c r="H29" s="2" t="n">
         <v>45973.13564814815</v>
       </c>
-      <c r="I29" s="3" t="n">
+      <c r="I29" s="2" t="n">
         <v>45973</v>
       </c>
       <c r="J29" t="inlineStr">
@@ -2261,7 +2250,7 @@
       <c r="H30" s="2" t="n">
         <v>45973.12978009259</v>
       </c>
-      <c r="I30" s="3" t="n">
+      <c r="I30" s="2" t="n">
         <v>45973</v>
       </c>
       <c r="J30" t="inlineStr">
@@ -2327,7 +2316,7 @@
       <c r="H31" s="2" t="n">
         <v>45972.99997685185</v>
       </c>
-      <c r="I31" s="3" t="n">
+      <c r="I31" s="2" t="n">
         <v>45972</v>
       </c>
       <c r="J31" t="inlineStr">
@@ -2393,7 +2382,7 @@
       <c r="H32" s="2" t="n">
         <v>45972.96776620371</v>
       </c>
-      <c r="I32" s="3" t="n">
+      <c r="I32" s="2" t="n">
         <v>45972</v>
       </c>
       <c r="J32" t="inlineStr">
@@ -2459,7 +2448,7 @@
       <c r="H33" s="2" t="n">
         <v>45972.94193287037</v>
       </c>
-      <c r="I33" s="3" t="n">
+      <c r="I33" s="2" t="n">
         <v>45972</v>
       </c>
       <c r="J33" t="inlineStr">
@@ -2525,7 +2514,7 @@
       <c r="H34" s="2" t="n">
         <v>45972.80956018518</v>
       </c>
-      <c r="I34" s="3" t="n">
+      <c r="I34" s="2" t="n">
         <v>45972</v>
       </c>
       <c r="J34" t="inlineStr">
@@ -2591,7 +2580,7 @@
       <c r="H35" s="2" t="n">
         <v>45972.66961805556</v>
       </c>
-      <c r="I35" s="3" t="n">
+      <c r="I35" s="2" t="n">
         <v>45972</v>
       </c>
       <c r="J35" t="inlineStr">
@@ -2657,7 +2646,7 @@
       <c r="H36" s="2" t="n">
         <v>45971.95950231481</v>
       </c>
-      <c r="I36" s="3" t="n">
+      <c r="I36" s="2" t="n">
         <v>45971</v>
       </c>
       <c r="J36" t="inlineStr">
@@ -2723,7 +2712,7 @@
       <c r="H37" s="2" t="n">
         <v>45971.91144675926</v>
       </c>
-      <c r="I37" s="3" t="n">
+      <c r="I37" s="2" t="n">
         <v>45971</v>
       </c>
       <c r="J37" t="inlineStr">
@@ -2789,7 +2778,7 @@
       <c r="H38" s="2" t="n">
         <v>45971.88613425926</v>
       </c>
-      <c r="I38" s="3" t="n">
+      <c r="I38" s="2" t="n">
         <v>45971</v>
       </c>
       <c r="J38" t="inlineStr">
@@ -2855,7 +2844,7 @@
       <c r="H39" s="2" t="n">
         <v>45971.56372685185</v>
       </c>
-      <c r="I39" s="3" t="n">
+      <c r="I39" s="2" t="n">
         <v>45971</v>
       </c>
       <c r="J39" t="inlineStr">
@@ -2921,7 +2910,7 @@
       <c r="H40" s="2" t="n">
         <v>45971.17513888889</v>
       </c>
-      <c r="I40" s="3" t="n">
+      <c r="I40" s="2" t="n">
         <v>45971</v>
       </c>
       <c r="J40" t="inlineStr">
@@ -2987,7 +2976,7 @@
       <c r="H41" s="2" t="n">
         <v>45971.03953703704</v>
       </c>
-      <c r="I41" s="3" t="n">
+      <c r="I41" s="2" t="n">
         <v>45971</v>
       </c>
       <c r="J41" t="inlineStr">
@@ -3053,7 +3042,7 @@
       <c r="H42" s="2" t="n">
         <v>45970.89246527778</v>
       </c>
-      <c r="I42" s="3" t="n">
+      <c r="I42" s="2" t="n">
         <v>45970</v>
       </c>
       <c r="J42" t="inlineStr">
@@ -3119,7 +3108,7 @@
       <c r="H43" s="2" t="n">
         <v>45970.66899305556</v>
       </c>
-      <c r="I43" s="3" t="n">
+      <c r="I43" s="2" t="n">
         <v>45970</v>
       </c>
       <c r="J43" t="inlineStr">
@@ -3185,7 +3174,7 @@
       <c r="H44" s="2" t="n">
         <v>45970.54232638889</v>
       </c>
-      <c r="I44" s="3" t="n">
+      <c r="I44" s="2" t="n">
         <v>45970</v>
       </c>
       <c r="J44" t="inlineStr">
@@ -3251,7 +3240,7 @@
       <c r="H45" s="2" t="n">
         <v>45970.41553240741</v>
       </c>
-      <c r="I45" s="3" t="n">
+      <c r="I45" s="2" t="n">
         <v>45970</v>
       </c>
       <c r="J45" t="inlineStr">
@@ -3317,7 +3306,7 @@
       <c r="H46" s="2" t="n">
         <v>45970.08329861111</v>
       </c>
-      <c r="I46" s="3" t="n">
+      <c r="I46" s="2" t="n">
         <v>45970</v>
       </c>
       <c r="J46" t="inlineStr">
@@ -3383,7 +3372,7 @@
       <c r="H47" s="2" t="n">
         <v>45969.0766087963</v>
       </c>
-      <c r="I47" s="3" t="n">
+      <c r="I47" s="2" t="n">
         <v>45969</v>
       </c>
       <c r="J47" t="inlineStr">

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -20,9 +20,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -62,12 +64,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -433,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3398,6 +3401,6009 @@
       <c r="P47" t="inlineStr">
         <is>
           <t>{'postUrl': 'https://www.instagram.com/p/DQxPDChgGBC/', 'commentUrl': 'https://www.instagram.com/p/DQxPDChgGBC/c/17935009361982452', 'id': '17935009361982452', 'text': 'Muchas veces por falta de tiempo y a veces de dinero me compraba un yogur yogo yogo y seguía manojos mis actividades, mejor mil veces el yogur q te alimenta que una gaseosa y otras cosas', 'ownerUsername': 'yeimimejiadelgado', 'ownerProfilePicUrl': 'https://scontent-iad3-1.cdninstagram.com/v/t51.89012-19/573323465_121982546330221</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>10</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>que triste que ya no salga las verdaderas figuritas de antes como lo era los Dioses del olimpo o los del futuro y los de goku y los futbolistas y los transformers y muchos mas, lo de hoy en dia ya me da pereza coleccionar esas cosas tan aburridas</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>1760501691</v>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>45945.17697916667</v>
+      </c>
+      <c r="I48" s="3" t="n">
+        <v>45945</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>04:14:51</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7561297143858135816', 'createTime': 1760501691, 'createTimeISO': '2025-10-15T04:14:51.000Z', 'text': 'que triste que ya no salga las verdaderas figuritas de antes como lo era los Dioses del olimpo o los del futuro y los de goku y los futbolistas y los trans</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>10</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>YO LLEVO SOLO 10 😭😭🗣️🗣</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>1760497611</v>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>45945.12975694444</v>
+      </c>
+      <c r="I49" s="3" t="n">
+        <v>45945</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>03:06:51</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7561279629291111176', 'createTime': 1760497611, 'createTimeISO': '2025-10-15T03:06:51.000Z', 'text': 'YO LLEVO SOLO 10 😭😭🗣️🗣', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '750074492111</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>10</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>más fácil el baloto, un préstamo en el banco, una visa a EE UU</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1760481452</v>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>45944.94273148148</v>
+      </c>
+      <c r="I50" s="3" t="n">
+        <v>45944</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>22:37:32</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7561210138691977992', 'createTime': 1760481452, 'createTimeISO': '2025-10-14T22:37:32.000Z', 'text': 'más fácil el baloto, un préstamo en el banco, una visa a EE UU', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'rep</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>10</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>no me salió el mochi en el yogurt</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>1760480748</v>
+      </c>
+      <c r="H51" s="2" t="n">
+        <v>45944.93458333334</v>
+      </c>
+      <c r="I51" s="3" t="n">
+        <v>45944</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>22:25:48</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="b">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7561207129513509650', 'createTime': 1760480748, 'createTimeISO': '2025-10-14T22:25:48.000Z', 'text': 'no me salió el mochi en el yogurt', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>10</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Alpina me salió el t-rex morado pero me salió rojo</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>1760428398</v>
+      </c>
+      <c r="H52" s="2" t="n">
+        <v>45944.32868055555</v>
+      </c>
+      <c r="I52" s="3" t="n">
+        <v>45944</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>07:53:18</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560982374209880840', 'createTime': 1760428398, 'createTimeISO': '2025-10-14T07:53:18.000Z', 'text': 'Alpina me salió el t-rex morado pero me salió rojo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTot</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>10</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>que</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>1760393600</v>
+      </c>
+      <c r="H53" s="2" t="n">
+        <v>45943.92592592593</v>
+      </c>
+      <c r="I53" s="3" t="n">
+        <v>45943</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>22:13:20</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="b">
+        <v>0</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560832802767438612', 'createTime': 1760393600, 'createTimeISO': '2025-10-13T22:13:20.000Z', 'text': 'que', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7494658521422742536', 'uniqueId</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>10</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>yo ya tengo uno MUEJEJEJEJJE</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>1760390002</v>
+      </c>
+      <c r="H54" s="2" t="n">
+        <v>45943.88428240741</v>
+      </c>
+      <c r="I54" s="3" t="n">
+        <v>45943</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>21:13:22</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="b">
+        <v>0</v>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560817334177645328', 'createTime': 1760390002, 'createTimeISO': '2025-10-13T21:13:22.000Z', 'text': 'yo ya tengo uno MUEJEJEJEJJE', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '753153</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>10</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>yo con mis 14 mochisaurios: 👁️👄👁</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>1760334513</v>
+      </c>
+      <c r="H55" s="2" t="n">
+        <v>45943.24204861111</v>
+      </c>
+      <c r="I55" s="3" t="n">
+        <v>45943</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>05:48:33</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>2</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="b">
+        <v>0</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560579124269777672', 'createTime': 1760334513, 'createTimeISO': '2025-10-13T05:48:33.000Z', 'text': 'yo con mis 14 mochisaurios: 👁️👄👁', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '75</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>10</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>no los venden? saldría más económico.</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>1760308078</v>
+      </c>
+      <c r="H56" s="2" t="n">
+        <v>45942.93608796296</v>
+      </c>
+      <c r="I56" s="3" t="n">
+        <v>45942</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>22:27:58</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="b">
+        <v>0</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560465563730920199', 'createTime': 1760308078, 'createTimeISO': '2025-10-12T22:27:58.000Z', 'text': 'no los venden? saldría más económico.', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid'</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>10</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Ya tengo 8</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>1760299910</v>
+      </c>
+      <c r="H57" s="2" t="n">
+        <v>45942.84155092593</v>
+      </c>
+      <c r="I57" s="3" t="n">
+        <v>45942</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>20:11:50</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="b">
+        <v>0</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560430479338930962', 'createTime': 1760299910, 'createTimeISO': '2025-10-12T20:11:50.000Z', 'text': 'Ya tengo 8', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7420101536925713413', 'u</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>10</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>18,4</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>1760296080</v>
+      </c>
+      <c r="H58" s="2" t="n">
+        <v>45942.79722222222</v>
+      </c>
+      <c r="I58" s="3" t="n">
+        <v>45942</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>19:08:00</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="b">
+        <v>0</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560414054448366354', 'createTime': 1760296080, 'createTimeISO': '2025-10-12T19:08:00.000Z', 'text': '18,4', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7381118081303659525', 'uniqueI</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>10</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>si algo eso cuántos Mochis me dan</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>1760290654</v>
+      </c>
+      <c r="H59" s="2" t="n">
+        <v>45942.7344212963</v>
+      </c>
+      <c r="I59" s="3" t="n">
+        <v>45942</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>17:37:34</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="b">
+        <v>0</v>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560390745014960912', 'createTime': 1760290654, 'createTimeISO': '2025-10-12T17:37:34.000Z', 'text': 'si algo eso cuántos Mochis me dan', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>10</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4!? me e comprado 3 y no me sabía está :(</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>1760222183</v>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>45941.94193287037</v>
+      </c>
+      <c r="I60" s="3" t="n">
+        <v>45941</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>22:36:23</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="b">
+        <v>0</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560096565530116881', 'createTime': 1760222183, 'createTimeISO': '2025-10-11T22:36:23.000Z', 'text': '4!? me e comprado 3 y no me sabía está :(', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, '</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>10</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>mucha gestion para unos muñecos</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>1760204815</v>
+      </c>
+      <c r="H61" s="2" t="n">
+        <v>45941.74091435185</v>
+      </c>
+      <c r="I61" s="3" t="n">
+        <v>45941</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>17:46:55</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="b">
+        <v>0</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560022082038956808', 'createTime': 1760204815, 'createTimeISO': '2025-10-11T17:46:55.000Z', 'text': 'mucha gestion para unos muñecos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '688</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>10</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>en Colombia no hay OXXO y venden los yogo premio muy caros ):</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>1760204031</v>
+      </c>
+      <c r="H62" s="2" t="n">
+        <v>45941.73184027777</v>
+      </c>
+      <c r="I62" s="3" t="n">
+        <v>45941</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>17:33:51</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>2</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="b">
+        <v>0</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560018722665284360', 'createTime': 1760204031, 'createTimeISO': '2025-10-11T17:33:51.000Z', 'text': 'en Colombia no hay OXXO y venden los yogo premio muy caros ):', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'repl</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>10</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Estan mejor las paletas draculas y no se acaban</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>1760146204</v>
+      </c>
+      <c r="H63" s="2" t="n">
+        <v>45941.0625462963</v>
+      </c>
+      <c r="I63" s="3" t="n">
+        <v>45941</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>01:30:04</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="b">
+        <v>0</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559770330039436039', 'createTime': 1760146204, 'createTimeISO': '2025-10-11T01:30:04.000Z', 'text': 'Estan mejor las paletas draculas y no se acaban', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal'</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>10</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>pensándolo bien se ven hermosos 😻💗</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>1760115557</v>
+      </c>
+      <c r="H64" s="2" t="n">
+        <v>45940.70783564815</v>
+      </c>
+      <c r="I64" s="3" t="n">
+        <v>45940</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>16:59:17</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="b">
+        <v>0</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559638710619226881', 'createTime': 1760115557, 'createTimeISO': '2025-10-10T16:59:17.000Z', 'text': 'pensándolo bien se ven hermosos 😻💗', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>10</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>don hermosos</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>1760114751</v>
+      </c>
+      <c r="H65" s="2" t="n">
+        <v>45940.69850694444</v>
+      </c>
+      <c r="I65" s="3" t="n">
+        <v>45940</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>16:45:51</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="b">
+        <v>0</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559635269188829959', 'createTime': 1760114751, 'createTimeISO': '2025-10-10T16:45:51.000Z', 'text': 'don hermosos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7462015983667545094', </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>10</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Una pregunta yo fui y lleve todas los logos de yogurt de vasito y me dijeron que esos no se ponían?</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>1760075581</v>
+      </c>
+      <c r="H66" s="2" t="n">
+        <v>45940.24515046296</v>
+      </c>
+      <c r="I66" s="3" t="n">
+        <v>45940</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>05:53:01</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="b">
+        <v>0</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559467019110204168', 'createTime': 1760075581, 'createTimeISO': '2025-10-10T05:53:01.000Z', 'text': 'Una pregunta yo fui y lleve todas los logos de yogurt de vasito y me dijeron que esos no se ponían?', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuth</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>10</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>tuve una bolsa entera sin todo lo que piden JAJSJWJSJW</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>1760073654</v>
+      </c>
+      <c r="H67" s="2" t="n">
+        <v>45940.22284722222</v>
+      </c>
+      <c r="I67" s="3" t="n">
+        <v>45940</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>05:20:54</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="b">
+        <v>0</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559458753733739282', 'createTime': 1760073654, 'createTimeISO': '2025-10-10T05:20:54.000Z', 'text': 'tuve una bolsa entera sin todo lo que piden JAJSJWJSJW', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommen</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>10</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>ya no es lo mismo</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>1760072308</v>
+      </c>
+      <c r="H68" s="2" t="n">
+        <v>45940.20726851852</v>
+      </c>
+      <c r="I68" s="3" t="n">
+        <v>45940</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>04:58:28</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="b">
+        <v>0</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559452964297917200', 'createTime': 1760072308, 'createTimeISO': '2025-10-10T04:58:28.000Z', 'text': 'ya no es lo mismo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '74403095168463678</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>10</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Ya tengo 2 de los yogo yogo sorpresa comprando en el oxxo aquí en Bogotá</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>1760054016</v>
+      </c>
+      <c r="H69" s="2" t="n">
+        <v>45939.99555555556</v>
+      </c>
+      <c r="I69" s="3" t="n">
+        <v>45939</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>23:53:36</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="b">
+        <v>0</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559374381328745234', 'createTime': 1760054016, 'createTimeISO': '2025-10-09T23:53:36.000Z', 'text': 'Ya tengo 2 de los yogo yogo sorpresa comprando en el oxxo aquí en Bogotá', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>10</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>me encantan los mochis mi mamá nunca me compra ninguno creo que me dejes hacer ⭐😍</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>1760051473</v>
+      </c>
+      <c r="H70" s="2" t="n">
+        <v>45939.96612268518</v>
+      </c>
+      <c r="I70" s="3" t="n">
+        <v>45939</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>23:11:13</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="b">
+        <v>0</v>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559363418022249224', 'createTime': 1760051473, 'createTimeISO': '2025-10-09T23:11:13.000Z', 'text': 'me encantan los mochis mi mamá nunca me compra ninguno creo que me dejes hacer ⭐😍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repli</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>10</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>alpinaa eres el mejor me gustan tus productos❤</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>1760039410</v>
+      </c>
+      <c r="H71" s="2" t="n">
+        <v>45939.82650462963</v>
+      </c>
+      <c r="I71" s="3" t="n">
+        <v>45939</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>19:50:10</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="b">
+        <v>0</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559311644069757697', 'createTime': 1760039410, 'createTimeISO': '2025-10-09T19:50:10.000Z', 'text': 'alpinaa eres el mejor me gustan tus productos❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal':</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>10</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Mi hija estaba muy comprometida haciendo la recolección de logos recortados de YogoYogo los llevamos a OXXO y le dijeron que los recortó mal y no le dieron premio. Terrible me parece 0 estrellitas no vale la pena.</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>1760017424</v>
+      </c>
+      <c r="H72" s="2" t="n">
+        <v>45939.57203703704</v>
+      </c>
+      <c r="I72" s="3" t="n">
+        <v>45939</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>13:43:44</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="b">
+        <v>0</v>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559217240907399952', 'createTime': 1760017424, 'createTimeISO': '2025-10-09T13:43:44.000Z', 'text': 'Mi hija estaba muy comprometida haciendo la recolección de logos recortados de YogoYogo los llevamos a OXXO y le dijeron que los recortó mal y no le dieron</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>10</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>en Montería no hay OXXO pero si un todo a 1000 hay los entran</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>1759971032</v>
+      </c>
+      <c r="H73" s="2" t="n">
+        <v>45939.0350925926</v>
+      </c>
+      <c r="I73" s="3" t="n">
+        <v>45939</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>00:50:32</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="b">
+        <v>0</v>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559017957411767047', 'createTime': 1759971032, 'createTimeISO': '2025-10-09T00:50:32.000Z', 'text': 'en Montería no hay OXXO pero si un todo a 1000 hay los entran', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'repl</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>mochisaurios? es enserio? pongan figuritas buenas!!</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>1759965649</v>
+      </c>
+      <c r="H74" s="2" t="n">
+        <v>45938.97278935185</v>
+      </c>
+      <c r="I74" s="3" t="n">
+        <v>45938</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>23:20:49</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="b">
+        <v>0</v>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558994733155123969', 'createTime': 1759965649, 'createTimeISO': '2025-10-08T23:20:49.000Z', 'text': 'mochisaurios? es enserio? pongan figuritas buenas!!', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTo</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>10</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>tengo 14 en total ajaja</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>1759946263</v>
+      </c>
+      <c r="H75" s="2" t="n">
+        <v>45938.74841435185</v>
+      </c>
+      <c r="I75" s="3" t="n">
+        <v>45938</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>17:57:43</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="b">
+        <v>0</v>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558911601061217032', 'createTime': 1759946263, 'createTimeISO': '2025-10-08T17:57:43.000Z', 'text': 'tengo 14 en total ajaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '72902844495</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>10</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>a poco hay OXXO en colombia</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>1759856384</v>
+      </c>
+      <c r="H76" s="2" t="n">
+        <v>45937.70814814815</v>
+      </c>
+      <c r="I76" s="3" t="n">
+        <v>45937</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>16:59:44</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="b">
+        <v>0</v>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558525593814467336', 'createTime': 1759856384, 'createTimeISO': '2025-10-07T16:59:44.000Z', 'text': 'a poco hay OXXO en colombia', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7300666</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>10</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>mejor me compro un jugo premio y ya,aparte que esa vaina se ensucia re facil</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>1759804811</v>
+      </c>
+      <c r="H77" s="2" t="n">
+        <v>45937.11123842592</v>
+      </c>
+      <c r="I77" s="3" t="n">
+        <v>45937</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>02:40:11</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="b">
+        <v>0</v>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558304062015718152', 'createTime': 1759804811, 'createTimeISO': '2025-10-07T02:40:11.000Z', 'text': 'mejor me compro un jugo premio y ya,aparte que esa vaina se ensucia re facil', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToI</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>10</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>brooo</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>1759804153</v>
+      </c>
+      <c r="H78" s="2" t="n">
+        <v>45937.10362268519</v>
+      </c>
+      <c r="I78" s="3" t="n">
+        <v>45937</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>02:29:13</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="b">
+        <v>0</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558301251185115912', 'createTime': 1759804153, 'createTimeISO': '2025-10-07T02:29:13.000Z', 'text': 'brooo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452245536629720070', 'unique</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>10</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>loooos amooooooo❤️❤️❤️❤️❤</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>1759783101</v>
+      </c>
+      <c r="H79" s="2" t="n">
+        <v>45936.85996527778</v>
+      </c>
+      <c r="I79" s="3" t="n">
+        <v>45936</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>20:38:21</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="b">
+        <v>0</v>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558210750176805633', 'createTime': 1759783101, 'createTimeISO': '2025-10-06T20:38:21.000Z', 'text': 'loooos amooooooo❤️❤️❤️❤️❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '736720890</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>10</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Por qué Oxxo :c, no hay otro lado?</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>1759768015</v>
+      </c>
+      <c r="H80" s="2" t="n">
+        <v>45936.6853587963</v>
+      </c>
+      <c r="I80" s="3" t="n">
+        <v>45936</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>16:26:55</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="b">
+        <v>0</v>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558146025103590164', 'createTime': 1759768015, 'createTimeISO': '2025-10-06T16:26:55.000Z', 'text': 'Por qué Oxxo :c, no hay otro lado?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>10</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>do</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>1759766509</v>
+      </c>
+      <c r="H81" s="2" t="n">
+        <v>45936.66792824074</v>
+      </c>
+      <c r="I81" s="3" t="n">
+        <v>45936</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>16:01:49</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="b">
+        <v>0</v>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558139554667299585', 'createTime': 1759766509, 'createTimeISO': '2025-10-06T16:01:49.000Z', 'text': 'do', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7347759303850460166', 'uniqueId'</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>10</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>que belleza el oxxo más sercano lo tengo a 2 horas</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>1759722025</v>
+      </c>
+      <c r="H82" s="2" t="n">
+        <v>45936.15306712963</v>
+      </c>
+      <c r="I82" s="3" t="n">
+        <v>45936</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>03:40:25</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="b">
+        <v>0</v>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557948494461846290', 'createTime': 1759722025, 'createTimeISO': '2025-10-06T03:40:25.000Z', 'text': 'que belleza el oxxo más sercano lo tengo a 2 horas', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTot</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>10</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>ami me sale pura cagada un día me salió un unicornio y hoy me salió un cocodrilo (T_T)</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>1759704239</v>
+      </c>
+      <c r="H83" s="2" t="n">
+        <v>45935.94721064815</v>
+      </c>
+      <c r="I83" s="3" t="n">
+        <v>45935</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>22:43:59</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="b">
+        <v>0</v>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557872085788656392', 'createTime': 1759704239, 'createTimeISO': '2025-10-05T22:43:59.000Z', 'text': '𝚊𝚖𝚒 𝚖𝚎 𝚜𝚊𝚕𝚎 𝚙𝚞𝚛𝚊 𝚌𝚊𝚐𝚊𝚍𝚊 𝚞𝚗 𝚍𝚒́𝚊 𝚖𝚎 𝚜𝚊𝚕𝚒𝚘́ 𝚞𝚗 𝚞𝚗𝚒𝚌𝚘𝚛𝚗𝚒𝚘 𝚢 𝚑𝚘𝚢 𝚖𝚎 𝚜𝚊𝚕𝚒𝚘́ 𝚞𝚗 𝚌𝚘𝚌𝚘𝚍𝚛𝚒𝚕𝚘 (T_T)', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>10</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>yo ya tengo dos</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>1759699645</v>
+      </c>
+      <c r="H84" s="2" t="n">
+        <v>45935.89403935185</v>
+      </c>
+      <c r="I84" s="3" t="n">
+        <v>45935</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>21:27:25</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="b">
+        <v>0</v>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557852299043078928', 'createTime': 1759699645, 'createTimeISO': '2025-10-05T21:27:25.000Z', 'text': 'yo ya tengo dos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7537517920412599352</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>10</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Que yo sepa que en Colombia no ay oxoxo</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>1759689305</v>
+      </c>
+      <c r="H85" s="2" t="n">
+        <v>45935.77436342592</v>
+      </c>
+      <c r="I85" s="3" t="n">
+        <v>45935</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>18:35:05</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="b">
+        <v>0</v>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557807940859937554', 'createTime': 1759689305, 'createTimeISO': '2025-10-05T18:35:05.000Z', 'text': 'Que yo sepa que en Colombia no ay oxoxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'ui</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>10</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Yo quiero</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>1759689270</v>
+      </c>
+      <c r="H86" s="2" t="n">
+        <v>45935.77395833333</v>
+      </c>
+      <c r="I86" s="3" t="n">
+        <v>45935</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>18:34:30</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="b">
+        <v>0</v>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557807836890645255', 'createTime': 1759689270, 'createTimeISO': '2025-10-05T18:34:30.000Z', 'text': 'Yo quiero', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7543462359529440276', 'un</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>10</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Ay yo pensaba que ya se avía acabado y tambien pensaba que ya no tenía oportunidad de reclamar mis 12 tarjetas y como 7 logos 😭😭😭😔</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>1759680944</v>
+      </c>
+      <c r="H87" s="2" t="n">
+        <v>45935.67759259259</v>
+      </c>
+      <c r="I87" s="3" t="n">
+        <v>45935</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>16:15:44</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="b">
+        <v>0</v>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557772077760742152', 'createTime': 1759680944, 'createTimeISO': '2025-10-05T16:15:44.000Z', 'text': 'Ay yo pensaba que ya se avía acabado y tambien pensaba que ya no tenía oportunidad de reclamar mis 12 tarjetas y como 7 logos 😭😭😭😔', 'diggCount': 0, 'liked</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>10</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>he ido al los OXXO que aparecen y nunca los dan dicen que no tiene idea de que se trata</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>1759611417</v>
+      </c>
+      <c r="H88" s="2" t="n">
+        <v>45934.87288194444</v>
+      </c>
+      <c r="I88" s="3" t="n">
+        <v>45934</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>20:56:57</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="b">
+        <v>0</v>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557473388605375233', 'createTime': 1759611417, 'createTimeISO': '2025-10-04T20:56:57.000Z', 'text': 'he ido al los OXXO que aparecen y nunca los dan dicen que no tiene idea de que se trata', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>10</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>A QUIEN SIGOOOO❓ TEAM NEGRO[wicked]</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>1759546429</v>
+      </c>
+      <c r="H89" s="2" t="n">
+        <v>45934.12070601852</v>
+      </c>
+      <c r="I89" s="3" t="n">
+        <v>45934</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>02:53:49</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="b">
+        <v>0</v>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557194342633718546', 'createTime': 1759546429, 'createTimeISO': '2025-10-04T02:53:49.000Z', 'text': '𝘼 𝙌𝙐𝙄𝙀𝙉 𝙎𝙄𝙂𝙊𝙊𝙊𝙊❓ TEAM NEGRO[wicked]', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>10</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>muy lindos pero huelen horrible🥺</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>1759542541</v>
+      </c>
+      <c r="H90" s="2" t="n">
+        <v>45934.07570601852</v>
+      </c>
+      <c r="I90" s="3" t="n">
+        <v>45934</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>01:49:01</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>3</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="b">
+        <v>0</v>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557177612487262984', 'createTime': 1759542541, 'createTimeISO': '2025-10-04T01:49:01.000Z', 'text': 'muy lindos pero huelen horrible🥺', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '73</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>10</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Asegurando puesto Pará un futuro</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>1759539543</v>
+      </c>
+      <c r="H91" s="2" t="n">
+        <v>45934.04100694445</v>
+      </c>
+      <c r="I91" s="3" t="n">
+        <v>45934</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>00:59:03</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="b">
+        <v>0</v>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557164687345140488', 'createTime': 1759539543, 'createTimeISO': '2025-10-04T00:59:03.000Z', 'text': 'Asegurando puesto Pará un futuro', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '71</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>10</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>en San Andrés no hay oxxo</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>1759503549</v>
+      </c>
+      <c r="H92" s="2" t="n">
+        <v>45933.62440972222</v>
+      </c>
+      <c r="I92" s="3" t="n">
+        <v>45933</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>14:59:09</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="b">
+        <v>0</v>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557010184049443602', 'createTime': 1759503549, 'createTimeISO': '2025-10-03T14:59:09.000Z', 'text': 'en San Andrés no hay oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '752144968</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>10</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>yo tengo el moradoro y el verde y otro morado que es igual al verde Pero morado y voy a ir al Oxxo que queda cerca de mi casa y reclamo varios ksjsjsjs</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>1759487921</v>
+      </c>
+      <c r="H93" s="2" t="n">
+        <v>45933.44353009259</v>
+      </c>
+      <c r="I93" s="3" t="n">
+        <v>45933</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>10:38:41</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="b">
+        <v>0</v>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556943055979332372', 'createTime': 1759487921, 'createTimeISO': '2025-10-03T10:38:41.000Z', 'text': 'yo tengo el moradoro y el verde y otro morado que es igual al verde Pero morado y voy a ir al Oxxo que queda cerca de mi casa y reclamo varios ksjsjsjs', '</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>10</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>esta vez está más facil conseguirlos en alkosto pasto , más barato , los encuentras de varios sabores el yogo premio 🥰</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>1759455103</v>
+      </c>
+      <c r="H94" s="2" t="n">
+        <v>45933.06369212963</v>
+      </c>
+      <c r="I94" s="3" t="n">
+        <v>45933</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>01:31:43</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="b">
+        <v>0</v>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556802057828451090', 'createTime': 1759455103, 'createTimeISO': '2025-10-03T01:31:43.000Z', 'text': 'esta vez está más facil conseguirlos en alkosto pasto , más barato , los encuentras de varios sabores el yogo premio 🥰', 'diggCount': 0, 'likedByAuthor': F</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>10</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>y para que sirve eso, que beneficios tiene 😳</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>1759454531</v>
+      </c>
+      <c r="H95" s="2" t="n">
+        <v>45933.05707175926</v>
+      </c>
+      <c r="I95" s="3" t="n">
+        <v>45933</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>01:22:11</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="b">
+        <v>0</v>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556799608577458951', 'createTime': 1759454531, 'createTimeISO': '2025-10-03T01:22:11.000Z', 'text': 'y para que sirve eso, que beneficios tiene 😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>10</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Clarion esq en todos los países hay OXXO 🌚🌝</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>1759438387</v>
+      </c>
+      <c r="H96" s="2" t="n">
+        <v>45932.87021990741</v>
+      </c>
+      <c r="I96" s="3" t="n">
+        <v>45932</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>20:53:07</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="b">
+        <v>0</v>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556730178652275472', 'createTime': 1759438387, 'createTimeISO': '2025-10-02T20:53:07.000Z', 'text': 'Clarion esq en todos los países hay OXXO 🌚🌝', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0,</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>10</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>los dan todos</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>1759435028</v>
+      </c>
+      <c r="H97" s="2" t="n">
+        <v>45932.8313425926</v>
+      </c>
+      <c r="I97" s="3" t="n">
+        <v>45932</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>19:57:08</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="b">
+        <v>0</v>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556715834195788562', 'createTime': 1759435028, 'createTimeISO': '2025-10-02T19:57:08.000Z', 'text': 'los dan todos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7193838219199251461',</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>10</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>oigan pero no encuentro mochisaurios solo ilumimochis</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>1759433489</v>
+      </c>
+      <c r="H98" s="2" t="n">
+        <v>45932.81353009259</v>
+      </c>
+      <c r="I98" s="3" t="n">
+        <v>45932</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>19:31:29</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="b">
+        <v>0</v>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556709242481722130', 'createTime': 1759433489, 'createTimeISO': '2025-10-02T19:31:29.000Z', 'text': 'oigan pero no encuentro mochisaurios solo ilumimochis', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyComment</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>10</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Paso 1 compran un yogo yogo premio de tarrito y ya viene uno dentro.</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>1759421648</v>
+      </c>
+      <c r="H99" s="2" t="n">
+        <v>45932.67648148148</v>
+      </c>
+      <c r="I99" s="3" t="n">
+        <v>45932</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>16:14:08</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>2</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="b">
+        <v>0</v>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556658397476963090', 'createTime': 1759421648, 'createTimeISO': '2025-10-02T16:14:08.000Z', 'text': 'Paso 1 compran un yogo yogo premio de tarrito y ya viene uno dentro.', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>10</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>me encantan estos mochis pero quisiera saber el nombre de 5
+los muñequitos 🥰</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>1759407285</v>
+      </c>
+      <c r="H100" s="2" t="n">
+        <v>45932.51024305556</v>
+      </c>
+      <c r="I100" s="3" t="n">
+        <v>45932</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>12:14:45</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="n">
+        <v>2</v>
+      </c>
+      <c r="M100" t="b">
+        <v>0</v>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556596683191681808', 'createTime': 1759407285, 'createTimeISO': '2025-10-02T12:14:45.000Z', 'text': 'me encantan estos mochis pero quisiera saber el nombre de 5\nlos muñequitos 🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesTo</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>10</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Alpina me mandan la caja Porfavor y les subo un video abriéndola</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>1759357740</v>
+      </c>
+      <c r="H101" s="2" t="n">
+        <v>45931.93680555555</v>
+      </c>
+      <c r="I101" s="3" t="n">
+        <v>45931</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>22:29:00</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>2</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="b">
+        <v>0</v>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556383835371717396', 'createTime': 1759357740, 'createTimeISO': '2025-10-01T22:29:00.000Z', 'text': 'Alpina me mandan la caja Porfavor y les subo un video abriéndola', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'r</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>10</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>nena voy mal con la paleta Drácula y ya me pides que complete la de Mochis 🤣🤣</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>1759217751</v>
+      </c>
+      <c r="H102" s="2" t="n">
+        <v>45930.3165625</v>
+      </c>
+      <c r="I102" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>07:35:51</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="b">
+        <v>0</v>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555782650826031873', 'createTime': 1759217751, 'createTimeISO': '2025-09-30T07:35:51.000Z', 'text': 'nena voy mal con la paleta Drácula y ya me pides que complete la de Mochis 🤣🤣', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesTo</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>10</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>oiga mano lastima que todavía no salen los mochisaurios en los yogopremios</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>1759216989</v>
+      </c>
+      <c r="H103" s="2" t="n">
+        <v>45930.30774305556</v>
+      </c>
+      <c r="I103" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>07:23:09</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>2</v>
+      </c>
+      <c r="M103" t="b">
+        <v>0</v>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555779391944016647', 'createTime': 1759216989, 'createTimeISO': '2025-09-30T07:23:09.000Z', 'text': 'oiga mano lastima que todavía no salen los mochisaurios en los yogopremios', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId'</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>10</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>pueden quitar los mochis y volver a poner los muñequitos de gokuuuu por favor</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>1759207962</v>
+      </c>
+      <c r="H104" s="2" t="n">
+        <v>45930.20326388889</v>
+      </c>
+      <c r="I104" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>04:52:42</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="b">
+        <v>0</v>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555740607941067527', 'createTime': 1759207962, 'createTimeISO': '2025-09-30T04:52:42.000Z', 'text': 'pueden quitar los mochis y volver a poner los muñequitos de gokuuuu por favor', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesTo</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>10</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>amooo los mochiss</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>1759203020</v>
+      </c>
+      <c r="H105" s="2" t="n">
+        <v>45930.14606481481</v>
+      </c>
+      <c r="I105" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>03:30:20</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="b">
+        <v>0</v>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555719396933829377', 'createTime': 1759203020, 'createTimeISO': '2025-09-30T03:30:20.000Z', 'text': 'amooo los mochiss', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '73672089083496212</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>10</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>yo lo consigo en una papelera sin comprar el yogur</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>1759192491</v>
+      </c>
+      <c r="H106" s="2" t="n">
+        <v>45930.02420138889</v>
+      </c>
+      <c r="I106" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>00:34:51</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="b">
+        <v>0</v>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555674134270001927', 'createTime': 1759192491, 'createTimeISO': '2025-09-30T00:34:51.000Z', 'text': 'yo lo consigo en una papelera sin comprar el yogur', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTot</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>10</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Por que en oxxo por que e
+En Colombia no hay tantos oxxos</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>1759190618</v>
+      </c>
+      <c r="H107" s="2" t="n">
+        <v>45930.00252314815</v>
+      </c>
+      <c r="I107" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>00:03:38</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="b">
+        <v>0</v>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555666073921553160', 'createTime': 1759190618, 'createTimeISO': '2025-09-30T00:03:38.000Z', 'text': 'Por que en oxxo por que e\nEn Colombia no hay tantos oxxos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCo</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>10</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>el otro año mochisauros q iluminan
+te dio hambre yogo yogo [sticker]</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>1759189595</v>
+      </c>
+      <c r="H108" s="2" t="n">
+        <v>45929.99068287037</v>
+      </c>
+      <c r="I108" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>23:46:35</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="b">
+        <v>0</v>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555661675728044807', 'createTime': 1759189595, 'createTimeISO': '2025-09-29T23:46:35.000Z', 'text': 'el otro año mochisauros q iluminan\nte dio hambre yogo yogo [sticker]', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': Non</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>10</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>en muchos lugares no hay Oxxo no pensaron en nosotros</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>1759189556</v>
+      </c>
+      <c r="H109" s="2" t="n">
+        <v>45929.99023148148</v>
+      </c>
+      <c r="I109" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>23:45:56</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="b">
+        <v>0</v>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555661460748206849', 'createTime': 1759189556, 'createTimeISO': '2025-09-29T23:45:56.000Z', 'text': 'en muchos lugares no hay Oxxo no pensaron en nosotros', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyComment</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>10</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>todos los lugares no tiene esa tienda entonces para que hacen eso</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>1759189151</v>
+      </c>
+      <c r="H110" s="2" t="n">
+        <v>45929.98554398148</v>
+      </c>
+      <c r="I110" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>23:39:11</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="b">
+        <v>0</v>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555659801544475400', 'createTime': 1759189151, 'createTimeISO': '2025-09-29T23:39:11.000Z', 'text': 'todos los lugares no tiene esa tienda entonces para que hacen eso', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, '</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>10</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>ayer compré el yogo premio con la etiqueta de mochisaurios mi hijo con ilusión lo abrió y va y le sale de la coleccion pasada....Nooo así si nooo al menos quiten los de la coleccion pasada para que no pase esto</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>1759180125</v>
+      </c>
+      <c r="H111" s="2" t="n">
+        <v>45929.88107638889</v>
+      </c>
+      <c r="I111" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>21:08:45</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="b">
+        <v>0</v>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555620990967153409', 'createTime': 1759180125, 'createTimeISO': '2025-09-29T21:08:45.000Z', 'text': 'ayer compré el yogo premio con la etiqueta de mochisaurios mi hijo con ilusión lo abrió y va y le sale de la coleccion pasada....Nooo así si nooo al menos </t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>10</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>los originales plissss</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>1759178348</v>
+      </c>
+      <c r="H112" s="2" t="n">
+        <v>45929.86050925926</v>
+      </c>
+      <c r="I112" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>20:39:08</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="b">
+        <v>0</v>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555613367218963217', 'createTime': 1759178348, 'createTimeISO': '2025-09-29T20:39:08.000Z', 'text': 'los originales plissss', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '739486462654</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>10</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>no hay en Neiva 😓</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>1759168683</v>
+      </c>
+      <c r="H113" s="2" t="n">
+        <v>45929.74864583334</v>
+      </c>
+      <c r="I113" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>17:58:03</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="b">
+        <v>0</v>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555571926753313544', 'createTime': 1759168683, 'createTimeISO': '2025-09-29T17:58:03.000Z', 'text': 'no hay en Neiva 😓', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '71820109153488578</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>10</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>QUE CALIDAD🗣️🗣️🗣</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>1759168678</v>
+      </c>
+      <c r="H114" s="2" t="n">
+        <v>45929.74858796296</v>
+      </c>
+      <c r="I114" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>17:57:58</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="b">
+        <v>0</v>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555571878653592340', 'createTime': 1759168678, 'createTimeISO': '2025-09-29T17:57:58.000Z', 'text': 'QUE CALIDAD🗣️🗣️🗣', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '745831460311161344</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>10</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>saquen mochis en forma de looney toons 😁</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>1759167789</v>
+      </c>
+      <c r="H115" s="2" t="n">
+        <v>45929.73829861111</v>
+      </c>
+      <c r="I115" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>17:43:09</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>2</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="b">
+        <v>0</v>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555568041485681424', 'createTime': 1759167789, 'createTimeISO': '2025-09-29T17:43:09.000Z', 'text': 'saquen mochis en forma de looney toons 😁', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'u</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>10</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>en todas las tiendas</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>1759165995</v>
+      </c>
+      <c r="H116" s="2" t="n">
+        <v>45929.71753472222</v>
+      </c>
+      <c r="I116" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>17:13:15</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="b">
+        <v>0</v>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555560366673462037', 'createTime': 1759165995, 'createTimeISO': '2025-09-29T17:13:15.000Z', 'text': 'en todas las tiendas', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '72853820012501</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>10</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Excelente. Hacen falta estas promociones en los productos y que mejoren la calidad de la leche en bolsa</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>1759119502</v>
+      </c>
+      <c r="H117" s="2" t="n">
+        <v>45929.1794212963</v>
+      </c>
+      <c r="I117" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>04:18:22</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="b">
+        <v>0</v>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555360657135682321', 'createTime': 1759119502, 'createTimeISO': '2025-09-29T04:18:22.000Z', 'text': 'Excelente. Hacen falta estas promociones en los productos y que mejoren la calidad de la leche en bolsa', 'diggCount': 0, 'likedByAuthor': False, 'pinnedBy</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>10</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>pero si ya corte los logos y no corte lo que dice mochisaurios y tampoco tengo el código??</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>1759113614</v>
+      </c>
+      <c r="H118" s="2" t="n">
+        <v>45929.11127314815</v>
+      </c>
+      <c r="I118" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>02:40:14</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="b">
+        <v>0</v>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555335413934981895', 'createTime': 1759113614, 'createTimeISO': '2025-09-29T02:40:14.000Z', 'text': 'pero si ya corte los logos y no corte lo que dice mochisaurios y tampoco tengo el código??', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': Fals</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>10</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>es mejor la paleta Drácula</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>1759112434</v>
+      </c>
+      <c r="H119" s="2" t="n">
+        <v>45929.09761574074</v>
+      </c>
+      <c r="I119" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>02:20:34</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="b">
+        <v>0</v>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555330316220629781', 'createTime': 1759112434, 'createTimeISO': '2025-09-29T02:20:34.000Z', 'text': 'es mejor la paleta Drácula', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '74702433</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>10</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Tanta cosa para uno</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>1759104165</v>
+      </c>
+      <c r="H120" s="2" t="n">
+        <v>45929.00190972222</v>
+      </c>
+      <c r="I120" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>00:02:45</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="b">
+        <v>0</v>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555294742864954119', 'createTime': 1759104165, 'createTimeISO': '2025-09-29T00:02:45.000Z', 'text': 'Tanta cosa para uno', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '724391215816946</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>10</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>ya we déjenlo pasar🥀</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>1759100400</v>
+      </c>
+      <c r="H121" s="2" t="n">
+        <v>45928.95833333334</v>
+      </c>
+      <c r="I121" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>23:00:00</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="b">
+        <v>0</v>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555278564566205204', 'createTime': 1759100400, 'createTimeISO': '2025-09-28T23:00:00.000Z', 'text': 'ya we déjenlo pasar🥀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '74429383902517</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>10</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>en Colombia no hay OXXO</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>1759088333</v>
+      </c>
+      <c r="H122" s="2" t="n">
+        <v>45928.81866898148</v>
+      </c>
+      <c r="I122" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>19:38:53</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>5</v>
+      </c>
+      <c r="L122" t="n">
+        <v>10</v>
+      </c>
+      <c r="M122" t="b">
+        <v>0</v>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555226815825003282', 'createTime': 1759088333, 'createTimeISO': '2025-09-28T19:38:53.000Z', 'text': 'en Colombia no hay OXXO', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 10, 'uid': '7239017294</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>10</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>son mejores los de colanta</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>1759084089</v>
+      </c>
+      <c r="H123" s="2" t="n">
+        <v>45928.76954861111</v>
+      </c>
+      <c r="I123" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>18:28:09</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="b">
+        <v>0</v>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555208572725822228', 'createTime': 1759084089, 'createTimeISO': '2025-09-28T18:28:09.000Z', 'text': 'son mejores los de colanta', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '69700947</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>10</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Mucha vaina pa eso</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>1759083275</v>
+      </c>
+      <c r="H124" s="2" t="n">
+        <v>45928.76012731482</v>
+      </c>
+      <c r="I124" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>18:14:35</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="b">
+        <v>0</v>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555205113074369287', 'createTime': 1759083275, 'createTimeISO': '2025-09-28T18:14:35.000Z', 'text': 'Mucha vaina pa eso', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6936408559421850</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>10</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Soy de Colombia y vivo alado de un oxxo!! Yeii qué bien 😭💓💓</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>1759077817</v>
+      </c>
+      <c r="H125" s="2" t="n">
+        <v>45928.69695601852</v>
+      </c>
+      <c r="I125" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>16:43:37</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="b">
+        <v>0</v>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555181660511683346', 'createTime': 1759077817, 'createTimeISO': '2025-09-28T16:43:37.000Z', 'text': 'Soy de Colombia y vivo alado de un oxxo!! Yeii qué bien 😭💓💓', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyC</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>10</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>mucho trabajo para un muñeco</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>1759028194</v>
+      </c>
+      <c r="H126" s="2" t="n">
+        <v>45928.12261574074</v>
+      </c>
+      <c r="I126" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>02:56:34</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>178</v>
+      </c>
+      <c r="L126" t="n">
+        <v>8</v>
+      </c>
+      <c r="M126" t="b">
+        <v>0</v>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554968530820268818', 'createTime': 1759028194, 'createTimeISO': '2025-09-28T02:56:34.000Z', 'text': 'mucho trabajo para un muñeco', 'diggCount': 178, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 8, 'uid': '6900</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>10</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Mas fácil conseguirlos en el yogo premio</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>1759017005</v>
+      </c>
+      <c r="H127" s="2" t="n">
+        <v>45927.99311342592</v>
+      </c>
+      <c r="I127" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>23:50:05</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>38</v>
+      </c>
+      <c r="L127" t="n">
+        <v>2</v>
+      </c>
+      <c r="M127" t="b">
+        <v>0</v>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554920371642204949', 'createTime': 1759017005, 'createTimeISO': '2025-09-27T23:50:05.000Z', 'text': 'Mas fácil conseguirlos en el yogo premio', 'diggCount': 38, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, '</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>10</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>yo no los incuentroo</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>1759015389</v>
+      </c>
+      <c r="H128" s="2" t="n">
+        <v>45927.97440972222</v>
+      </c>
+      <c r="I128" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>23:23:09</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="b">
+        <v>0</v>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554913487688909576', 'createTime': 1759015389, 'createTimeISO': '2025-09-27T23:23:09.000Z', 'text': 'yo no los incuentroo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '75193555878112</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>10</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Y si en Neiva no hay Oxxo 😐</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>1759007960</v>
+      </c>
+      <c r="H129" s="2" t="n">
+        <v>45927.88842592593</v>
+      </c>
+      <c r="I129" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>21:19:20</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="b">
+        <v>0</v>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554881592553718535', 'createTime': 1759007960, 'createTimeISO': '2025-09-27T21:19:20.000Z', 'text': 'Y si en Neiva no hay Oxxo 😐', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7525546</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>10</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Aquí en Cartagena no ha Oxxos 🥺🥺🥺</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>1758990084</v>
+      </c>
+      <c r="H130" s="2" t="n">
+        <v>45927.68152777778</v>
+      </c>
+      <c r="I130" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>16:21:24</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="b">
+        <v>0</v>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554804848962847506', 'createTime': 1758990084, 'createTimeISO': '2025-09-27T16:21:24.000Z', 'text': 'Aquí en Cartagena no ha Oxxos 🥺🥺🥺', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>10</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Que pereza tan vuelta!! y aquí estamos en Colombia porque una tienda de otra parte que no tiene presencia en toda Colombia.</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>1758988615</v>
+      </c>
+      <c r="H131" s="2" t="n">
+        <v>45927.66452546296</v>
+      </c>
+      <c r="I131" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>15:56:55</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>11</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="b">
+        <v>0</v>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554798543229666055', 'createTime': 1758988615, 'createTimeISO': '2025-09-27T15:56:55.000Z', 'text': 'Que pereza tan vuelta!! y aquí estamos en Colombia porque una tienda de otra parte que no tiene presencia en toda Colombia.', 'diggCount': 11, 'likedByAuth</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>10</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Los Amooo pero Uyy un montón de cosas para el recambio!</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>1758943306</v>
+      </c>
+      <c r="H132" s="2" t="n">
+        <v>45927.14011574074</v>
+      </c>
+      <c r="I132" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>03:21:46</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="b">
+        <v>0</v>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554603916571640577', 'createTime': 1758943306, 'createTimeISO': '2025-09-27T03:21:46.000Z', 'text': 'Los Amooo pero Uyy un montón de cosas para el recambio!', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyComme</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>10</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>y si ya corte los logos y no dice mochi saurios y ya vote el empaque con el qr</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>1758935989</v>
+      </c>
+      <c r="H133" s="2" t="n">
+        <v>45927.05542824074</v>
+      </c>
+      <c r="I133" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>01:19:49</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="b">
+        <v>0</v>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554572506653803272', 'createTime': 1758935989, 'createTimeISO': '2025-09-27T01:19:49.000Z', 'text': 'y si ya corte los logos y no dice mochi saurios y ya vote el empaque con el qr', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesT</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>10</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>de cuánto se pueden reclamar</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>1758934166</v>
+      </c>
+      <c r="H134" s="2" t="n">
+        <v>45927.0343287037</v>
+      </c>
+      <c r="I134" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>00:49:26</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="b">
+        <v>0</v>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554564660893696776', 'createTime': 1758934166, 'createTimeISO': '2025-09-27T00:49:26.000Z', 'text': 'de cuánto se pueden reclamar', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '719750</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>10</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>ya me salio el morado</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>1758929462</v>
+      </c>
+      <c r="H135" s="2" t="n">
+        <v>45926.97988425926</v>
+      </c>
+      <c r="I135" s="3" t="n">
+        <v>45926</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>23:31:02</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="b">
+        <v>0</v>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr"/>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554544444331328263', 'createTime': 1758929462, 'createTimeISO': '2025-09-26T23:31:02.000Z', 'text': 'ya me salio el morado', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7343027455776</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>10</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>saquen ya otra colección 😕</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>1758928043</v>
+      </c>
+      <c r="H136" s="2" t="n">
+        <v>45926.96346064815</v>
+      </c>
+      <c r="I136" s="3" t="n">
+        <v>45926</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>23:07:23</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>3</v>
+      </c>
+      <c r="L136" t="n">
+        <v>6</v>
+      </c>
+      <c r="M136" t="b">
+        <v>0</v>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr"/>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554538366990189319', 'createTime': 1758928043, 'createTimeISO': '2025-09-26T23:07:23.000Z', 'text': 'saquen ya otra colección 😕', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 6, 'uid': '74305566</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>10</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>y las lavadoras?</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>1758925068</v>
+      </c>
+      <c r="H137" s="2" t="n">
+        <v>45926.92902777778</v>
+      </c>
+      <c r="I137" s="3" t="n">
+        <v>45926</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>22:17:48</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" t="b">
+        <v>0</v>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O137" t="inlineStr"/>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554525489421386516', 'createTime': 1758925068, 'createTimeISO': '2025-09-26T22:17:48.000Z', 'text': 'y las lavadoras?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '739052414280066765</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>10</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Hay un Oxxo al lado de mi casa literalmente AJJAJAJAJA</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>1758922793</v>
+      </c>
+      <c r="H138" s="2" t="n">
+        <v>45926.90269675926</v>
+      </c>
+      <c r="I138" s="3" t="n">
+        <v>45926</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>21:39:53</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>2</v>
+      </c>
+      <c r="M138" t="b">
+        <v>0</v>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554515810249687815', 'createTime': 1758922793, 'createTimeISO': '2025-09-26T21:39:53.000Z', 'text': 'Hay un Oxxo al lado de mi casa literalmente AJJAJAJAJA', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommen</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>10</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>y si tengo repetidos no me los cambian 😂😂</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>1758921475</v>
+      </c>
+      <c r="H139" s="2" t="n">
+        <v>45926.88744212963</v>
+      </c>
+      <c r="I139" s="3" t="n">
+        <v>45926</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>21:17:55</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="b">
+        <v>0</v>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O139" t="inlineStr"/>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554510104642650896', 'createTime': 1758921475, 'createTimeISO': '2025-09-26T21:17:55.000Z', 'text': 'y si tengo repetidos no me los cambian 😂😂', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, '</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>10</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>en colombia noa ah</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>1758917604</v>
+      </c>
+      <c r="H140" s="2" t="n">
+        <v>45926.84263888889</v>
+      </c>
+      <c r="I140" s="3" t="n">
+        <v>45926</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>20:13:24</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="b">
+        <v>0</v>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554493529289638664', 'createTime': 1758917604, 'createTimeISO': '2025-09-26T20:13:24.000Z', 'text': 'en colombia noa ah', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7503310884556309</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>10</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>pero en mi ciudad no hay oxxo</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>1758917152</v>
+      </c>
+      <c r="H141" s="2" t="n">
+        <v>45926.83740740741</v>
+      </c>
+      <c r="I141" s="3" t="n">
+        <v>45926</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>20:05:52</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="b">
+        <v>0</v>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554491584386548498', 'createTime': 1758917152, 'createTimeISO': '2025-09-26T20:05:52.000Z', 'text': 'pero en mi ciudad no hay oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '72606</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>10</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>pasa lo mismo que con los Mochis anteriores va uno a reclamar y que no hay</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>1758914668</v>
+      </c>
+      <c r="H142" s="2" t="n">
+        <v>45926.8086574074</v>
+      </c>
+      <c r="I142" s="3" t="n">
+        <v>45926</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>19:24:28</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>3</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M142" t="b">
+        <v>0</v>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554480920402084629', 'createTime': 1758914668, 'createTimeISO': '2025-09-26T19:24:28.000Z', 'text': 'pasa lo mismo que con los Mochis anteriores va uno a reclamar y que no hay', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId'</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>10</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Y si me los regala😁😁</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>1758913988</v>
+      </c>
+      <c r="H143" s="2" t="n">
+        <v>45926.80078703703</v>
+      </c>
+      <c r="I143" s="3" t="n">
+        <v>45926</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>19:13:08</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M143" t="b">
+        <v>0</v>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554477929469657857', 'createTime': 1758913988, 'createTimeISO': '2025-09-26T19:13:08.000Z', 'text': 'Y si me los regala😁😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '75307607242570</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>10</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Vuelvan los originales porfa😭</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>1758909958</v>
+      </c>
+      <c r="H144" s="2" t="n">
+        <v>45926.75414351852</v>
+      </c>
+      <c r="I144" s="3" t="n">
+        <v>45926</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>18:05:58</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>256</v>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="b">
+        <v>0</v>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554460671951520529', 'createTime': 1758909958, 'createTimeISO': '2025-09-26T18:05:58.000Z', 'text': 'Vuelvan los originales porfa😭', 'diggCount': 256, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '749</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>10</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>pero están en todos los países ?</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>1758908149</v>
+      </c>
+      <c r="H145" s="2" t="n">
+        <v>45926.73320601852</v>
+      </c>
+      <c r="I145" s="3" t="n">
+        <v>45926</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>17:35:49</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" t="n">
+        <v>2</v>
+      </c>
+      <c r="M145" t="b">
+        <v>0</v>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554452916247216913', 'createTime': 1758908149, 'createTimeISO': '2025-09-26T17:35:49.000Z', 'text': 'pero están en todos los países ?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '75</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>10</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>y si no hay en mi ciudad Oxxo?</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>1758905800</v>
+      </c>
+      <c r="H146" s="2" t="n">
+        <v>45926.70601851852</v>
+      </c>
+      <c r="I146" s="3" t="n">
+        <v>45926</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>16:56:40</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>11</v>
+      </c>
+      <c r="L146" t="n">
+        <v>3</v>
+      </c>
+      <c r="M146" t="b">
+        <v>0</v>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554442837019116305', 'createTime': 1758905800, 'createTimeISO': '2025-09-26T16:56:40.000Z', 'text': 'y si no hay en mi ciudad Oxxo?', 'diggCount': 11, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '705</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>10</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>tengo un montón de Mochis de la primera colección, valdrá mucho?</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>1758902700</v>
+      </c>
+      <c r="H147" s="2" t="n">
+        <v>45926.67013888889</v>
+      </c>
+      <c r="I147" s="3" t="n">
+        <v>45926</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>16:05:00</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="b">
+        <v>0</v>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554429537663386376', 'createTime': 1758902700, 'createTimeISO': '2025-09-26T16:05:00.000Z', 'text': 'tengo un montón de Mochis de la primera colección, valdrá mucho?', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'r</t>
         </is>
       </c>
     </row>
@@ -3412,7 +9418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3686,6 +9692,33 @@
       </c>
       <c r="G10" s="2" t="n">
         <v>45973.53981481482</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>100</v>
+      </c>
+      <c r="E11" t="n">
+        <v>537</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>45926.67013888889</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>45945.17697916667</v>
       </c>
     </row>
   </sheetData>
@@ -3699,7 +9732,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3770,6 +9803,25 @@
       </c>
       <c r="E3" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="E4" t="n">
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -3887,10 +9939,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P147"/>
+  <dimension ref="A1:P178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3435,7 +3435,7 @@
       <c r="H48" s="2" t="n">
         <v>45945.17697916667</v>
       </c>
-      <c r="I48" s="3" t="n">
+      <c r="I48" s="2" t="n">
         <v>45945</v>
       </c>
       <c r="J48" t="inlineStr">
@@ -3495,7 +3495,7 @@
       <c r="H49" s="2" t="n">
         <v>45945.12975694444</v>
       </c>
-      <c r="I49" s="3" t="n">
+      <c r="I49" s="2" t="n">
         <v>45945</v>
       </c>
       <c r="J49" t="inlineStr">
@@ -3546,21 +3546,21 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>más fácil el baloto, un préstamo en el banco, una visa a EE UU</t>
+          <t>Pensé que crecían en el agua 😁😂</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1760481452</v>
+        <v>1760486524</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>45944.94273148148</v>
+        <v>45945.00143518519</v>
       </c>
       <c r="I50" s="3" t="n">
-        <v>45944</v>
+        <v>45945</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>22:37:32</t>
+          <t>00:02:04</t>
         </is>
       </c>
       <c r="K50" t="n">
@@ -3580,7 +3580,7 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7561210138691977992', 'createTime': 1760481452, 'createTimeISO': '2025-10-14T22:37:32.000Z', 'text': 'más fácil el baloto, un préstamo en el banco, una visa a EE UU', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'rep</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7561231968739656466', 'createTime': 1760486524, 'createTimeISO': '2025-10-15T00:02:04.000Z', 'text': 'Pensé que crecían en el agua 😁😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '709</t>
         </is>
       </c>
     </row>
@@ -3606,21 +3606,21 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>no me salió el mochi en el yogurt</t>
+          <t>más fácil el baloto, un préstamo en el banco, una visa a EE UU</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1760480748</v>
+        <v>1760481452</v>
       </c>
       <c r="H51" s="2" t="n">
-        <v>45944.93458333334</v>
-      </c>
-      <c r="I51" s="3" t="n">
+        <v>45944.94273148148</v>
+      </c>
+      <c r="I51" s="2" t="n">
         <v>45944</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>22:25:48</t>
+          <t>22:37:32</t>
         </is>
       </c>
       <c r="K51" t="n">
@@ -3640,7 +3640,7 @@
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7561207129513509650', 'createTime': 1760480748, 'createTimeISO': '2025-10-14T22:25:48.000Z', 'text': 'no me salió el mochi en el yogurt', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7561210138691977992', 'createTime': 1760481452, 'createTimeISO': '2025-10-14T22:37:32.000Z', 'text': 'más fácil el baloto, un préstamo en el banco, una visa a EE UU', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'rep</t>
         </is>
       </c>
     </row>
@@ -3666,21 +3666,21 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Alpina me salió el t-rex morado pero me salió rojo</t>
+          <t>no me salió el mochi en el yogurt</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1760428398</v>
+        <v>1760480748</v>
       </c>
       <c r="H52" s="2" t="n">
-        <v>45944.32868055555</v>
-      </c>
-      <c r="I52" s="3" t="n">
+        <v>45944.93458333334</v>
+      </c>
+      <c r="I52" s="2" t="n">
         <v>45944</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>07:53:18</t>
+          <t>22:25:48</t>
         </is>
       </c>
       <c r="K52" t="n">
@@ -3700,7 +3700,7 @@
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560982374209880840', 'createTime': 1760428398, 'createTimeISO': '2025-10-14T07:53:18.000Z', 'text': 'Alpina me salió el t-rex morado pero me salió rojo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTot</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7561207129513509650', 'createTime': 1760480748, 'createTimeISO': '2025-10-14T22:25:48.000Z', 'text': 'no me salió el mochi en el yogurt', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7</t>
         </is>
       </c>
     </row>
@@ -3726,21 +3726,21 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>que</t>
+          <t>Alpina me salió el t-rex morado pero me salió rojo</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1760393600</v>
+        <v>1760428398</v>
       </c>
       <c r="H53" s="2" t="n">
-        <v>45943.92592592593</v>
-      </c>
-      <c r="I53" s="3" t="n">
-        <v>45943</v>
+        <v>45944.32868055555</v>
+      </c>
+      <c r="I53" s="2" t="n">
+        <v>45944</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>22:13:20</t>
+          <t>07:53:18</t>
         </is>
       </c>
       <c r="K53" t="n">
@@ -3760,7 +3760,7 @@
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560832802767438612', 'createTime': 1760393600, 'createTimeISO': '2025-10-13T22:13:20.000Z', 'text': 'que', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7494658521422742536', 'uniqueId</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560982374209880840', 'createTime': 1760428398, 'createTimeISO': '2025-10-14T07:53:18.000Z', 'text': 'Alpina me salió el t-rex morado pero me salió rojo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTot</t>
         </is>
       </c>
     </row>
@@ -3786,21 +3786,21 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>yo ya tengo uno MUEJEJEJEJJE</t>
+          <t>que</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1760390002</v>
+        <v>1760393600</v>
       </c>
       <c r="H54" s="2" t="n">
-        <v>45943.88428240741</v>
-      </c>
-      <c r="I54" s="3" t="n">
+        <v>45943.92592592593</v>
+      </c>
+      <c r="I54" s="2" t="n">
         <v>45943</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>21:13:22</t>
+          <t>22:13:20</t>
         </is>
       </c>
       <c r="K54" t="n">
@@ -3820,7 +3820,7 @@
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560817334177645328', 'createTime': 1760390002, 'createTimeISO': '2025-10-13T21:13:22.000Z', 'text': 'yo ya tengo uno MUEJEJEJEJJE', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '753153</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560832802767438612', 'createTime': 1760393600, 'createTimeISO': '2025-10-13T22:13:20.000Z', 'text': 'que', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7494658521422742536', 'uniqueId</t>
         </is>
       </c>
     </row>
@@ -3846,25 +3846,25 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>yo con mis 14 mochisaurios: 👁️👄👁</t>
+          <t>yo ya tengo uno MUEJEJEJEJJE</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1760334513</v>
+        <v>1760390002</v>
       </c>
       <c r="H55" s="2" t="n">
-        <v>45943.24204861111</v>
-      </c>
-      <c r="I55" s="3" t="n">
+        <v>45943.88428240741</v>
+      </c>
+      <c r="I55" s="2" t="n">
         <v>45943</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>05:48:33</t>
+          <t>21:13:22</t>
         </is>
       </c>
       <c r="K55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -3880,7 +3880,7 @@
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560579124269777672', 'createTime': 1760334513, 'createTimeISO': '2025-10-13T05:48:33.000Z', 'text': 'yo con mis 14 mochisaurios: 👁️👄👁', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '75</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560817334177645328', 'createTime': 1760390002, 'createTimeISO': '2025-10-13T21:13:22.000Z', 'text': 'yo ya tengo uno MUEJEJEJEJJE', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '753153</t>
         </is>
       </c>
     </row>
@@ -3906,25 +3906,25 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>no los venden? saldría más económico.</t>
+          <t>yo con mis 14 mochisaurios: 👁️👄👁</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1760308078</v>
+        <v>1760334513</v>
       </c>
       <c r="H56" s="2" t="n">
-        <v>45942.93608796296</v>
-      </c>
-      <c r="I56" s="3" t="n">
-        <v>45942</v>
+        <v>45943.24204861111</v>
+      </c>
+      <c r="I56" s="2" t="n">
+        <v>45943</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>22:27:58</t>
+          <t>05:48:33</t>
         </is>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -3940,7 +3940,7 @@
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560465563730920199', 'createTime': 1760308078, 'createTimeISO': '2025-10-12T22:27:58.000Z', 'text': 'no los venden? saldría más económico.', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid'</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560579124269777672', 'createTime': 1760334513, 'createTimeISO': '2025-10-13T05:48:33.000Z', 'text': 'yo con mis 14 mochisaurios: 👁️👄👁', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '75</t>
         </is>
       </c>
     </row>
@@ -3966,21 +3966,21 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Ya tengo 8</t>
+          <t>no los venden? saldría más económico.</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1760299910</v>
+        <v>1760308078</v>
       </c>
       <c r="H57" s="2" t="n">
-        <v>45942.84155092593</v>
-      </c>
-      <c r="I57" s="3" t="n">
+        <v>45942.93608796296</v>
+      </c>
+      <c r="I57" s="2" t="n">
         <v>45942</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>20:11:50</t>
+          <t>22:27:58</t>
         </is>
       </c>
       <c r="K57" t="n">
@@ -4000,7 +4000,7 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560430479338930962', 'createTime': 1760299910, 'createTimeISO': '2025-10-12T20:11:50.000Z', 'text': 'Ya tengo 8', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7420101536925713413', 'u</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560465563730920199', 'createTime': 1760308078, 'createTimeISO': '2025-10-12T22:27:58.000Z', 'text': 'no los venden? saldría más económico.', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid'</t>
         </is>
       </c>
     </row>
@@ -4026,21 +4026,21 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>18,4</t>
+          <t>Ya tengo 8</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1760296080</v>
+        <v>1760299910</v>
       </c>
       <c r="H58" s="2" t="n">
-        <v>45942.79722222222</v>
-      </c>
-      <c r="I58" s="3" t="n">
+        <v>45942.84155092593</v>
+      </c>
+      <c r="I58" s="2" t="n">
         <v>45942</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>19:08:00</t>
+          <t>20:11:50</t>
         </is>
       </c>
       <c r="K58" t="n">
@@ -4060,7 +4060,7 @@
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560414054448366354', 'createTime': 1760296080, 'createTimeISO': '2025-10-12T19:08:00.000Z', 'text': '18,4', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7381118081303659525', 'uniqueI</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560430479338930962', 'createTime': 1760299910, 'createTimeISO': '2025-10-12T20:11:50.000Z', 'text': 'Ya tengo 8', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7420101536925713413', 'u</t>
         </is>
       </c>
     </row>
@@ -4086,21 +4086,21 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>si algo eso cuántos Mochis me dan</t>
+          <t>18,4</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1760290654</v>
+        <v>1760296080</v>
       </c>
       <c r="H59" s="2" t="n">
-        <v>45942.7344212963</v>
-      </c>
-      <c r="I59" s="3" t="n">
+        <v>45942.79722222222</v>
+      </c>
+      <c r="I59" s="2" t="n">
         <v>45942</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>17:37:34</t>
+          <t>19:08:00</t>
         </is>
       </c>
       <c r="K59" t="n">
@@ -4120,7 +4120,7 @@
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560390745014960912', 'createTime': 1760290654, 'createTimeISO': '2025-10-12T17:37:34.000Z', 'text': 'si algo eso cuántos Mochis me dan', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560414054448366354', 'createTime': 1760296080, 'createTimeISO': '2025-10-12T19:08:00.000Z', 'text': '18,4', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7381118081303659525', 'uniqueI</t>
         </is>
       </c>
     </row>
@@ -4146,21 +4146,21 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>4!? me e comprado 3 y no me sabía está :(</t>
+          <t>si algo eso cuántos Mochis me dan</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1760222183</v>
+        <v>1760290654</v>
       </c>
       <c r="H60" s="2" t="n">
-        <v>45941.94193287037</v>
-      </c>
-      <c r="I60" s="3" t="n">
-        <v>45941</v>
+        <v>45942.7344212963</v>
+      </c>
+      <c r="I60" s="2" t="n">
+        <v>45942</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>22:36:23</t>
+          <t>17:37:34</t>
         </is>
       </c>
       <c r="K60" t="n">
@@ -4180,7 +4180,7 @@
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560096565530116881', 'createTime': 1760222183, 'createTimeISO': '2025-10-11T22:36:23.000Z', 'text': '4!? me e comprado 3 y no me sabía está :(', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, '</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560390745014960912', 'createTime': 1760290654, 'createTimeISO': '2025-10-12T17:37:34.000Z', 'text': 'si algo eso cuántos Mochis me dan', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7</t>
         </is>
       </c>
     </row>
@@ -4206,21 +4206,21 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>mucha gestion para unos muñecos</t>
+          <t>4!? me e comprado 3 y no me sabía está :(</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1760204815</v>
+        <v>1760222183</v>
       </c>
       <c r="H61" s="2" t="n">
-        <v>45941.74091435185</v>
-      </c>
-      <c r="I61" s="3" t="n">
+        <v>45941.94193287037</v>
+      </c>
+      <c r="I61" s="2" t="n">
         <v>45941</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>17:46:55</t>
+          <t>22:36:23</t>
         </is>
       </c>
       <c r="K61" t="n">
@@ -4240,7 +4240,7 @@
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560022082038956808', 'createTime': 1760204815, 'createTimeISO': '2025-10-11T17:46:55.000Z', 'text': 'mucha gestion para unos muñecos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '688</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560096565530116881', 'createTime': 1760222183, 'createTimeISO': '2025-10-11T22:36:23.000Z', 'text': '4!? me e comprado 3 y no me sabía está :(', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, '</t>
         </is>
       </c>
     </row>
@@ -4266,28 +4266,28 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>en Colombia no hay OXXO y venden los yogo premio muy caros ):</t>
+          <t>mucha gestion para unos muñecos</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1760204031</v>
+        <v>1760204815</v>
       </c>
       <c r="H62" s="2" t="n">
-        <v>45941.73184027777</v>
-      </c>
-      <c r="I62" s="3" t="n">
+        <v>45941.74091435185</v>
+      </c>
+      <c r="I62" s="2" t="n">
         <v>45941</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>17:33:51</t>
+          <t>17:46:55</t>
         </is>
       </c>
       <c r="K62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62" t="b">
         <v>0</v>
@@ -4300,7 +4300,7 @@
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560018722665284360', 'createTime': 1760204031, 'createTimeISO': '2025-10-11T17:33:51.000Z', 'text': 'en Colombia no hay OXXO y venden los yogo premio muy caros ):', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'repl</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560022082038956808', 'createTime': 1760204815, 'createTimeISO': '2025-10-11T17:46:55.000Z', 'text': 'mucha gestion para unos muñecos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '688</t>
         </is>
       </c>
     </row>
@@ -4326,28 +4326,28 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Estan mejor las paletas draculas y no se acaban</t>
+          <t>en Colombia no hay OXXO y venden los yogo premio muy caros ):</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1760146204</v>
+        <v>1760204031</v>
       </c>
       <c r="H63" s="2" t="n">
-        <v>45941.0625462963</v>
-      </c>
-      <c r="I63" s="3" t="n">
+        <v>45941.73184027777</v>
+      </c>
+      <c r="I63" s="2" t="n">
         <v>45941</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>01:30:04</t>
+          <t>17:33:51</t>
         </is>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" t="b">
         <v>0</v>
@@ -4360,7 +4360,7 @@
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559770330039436039', 'createTime': 1760146204, 'createTimeISO': '2025-10-11T01:30:04.000Z', 'text': 'Estan mejor las paletas draculas y no se acaban', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal'</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560018722665284360', 'createTime': 1760204031, 'createTimeISO': '2025-10-11T17:33:51.000Z', 'text': 'en Colombia no hay OXXO y venden los yogo premio muy caros ):', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'repl</t>
         </is>
       </c>
     </row>
@@ -4386,21 +4386,21 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>pensándolo bien se ven hermosos 😻💗</t>
+          <t>Estan mejor las paletas draculas y no se acaban</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1760115557</v>
+        <v>1760146204</v>
       </c>
       <c r="H64" s="2" t="n">
-        <v>45940.70783564815</v>
-      </c>
-      <c r="I64" s="3" t="n">
-        <v>45940</v>
+        <v>45941.0625462963</v>
+      </c>
+      <c r="I64" s="2" t="n">
+        <v>45941</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>16:59:17</t>
+          <t>01:30:04</t>
         </is>
       </c>
       <c r="K64" t="n">
@@ -4420,7 +4420,7 @@
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559638710619226881', 'createTime': 1760115557, 'createTimeISO': '2025-10-10T16:59:17.000Z', 'text': 'pensándolo bien se ven hermosos 😻💗', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559770330039436039', 'createTime': 1760146204, 'createTimeISO': '2025-10-11T01:30:04.000Z', 'text': 'Estan mejor las paletas draculas y no se acaban', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal'</t>
         </is>
       </c>
     </row>
@@ -4446,21 +4446,21 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>don hermosos</t>
+          <t>pensándolo bien se ven hermosos 😻💗</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1760114751</v>
+        <v>1760115557</v>
       </c>
       <c r="H65" s="2" t="n">
-        <v>45940.69850694444</v>
-      </c>
-      <c r="I65" s="3" t="n">
+        <v>45940.70783564815</v>
+      </c>
+      <c r="I65" s="2" t="n">
         <v>45940</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>16:45:51</t>
+          <t>16:59:17</t>
         </is>
       </c>
       <c r="K65" t="n">
@@ -4480,7 +4480,7 @@
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t xml:space="preserve">{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559635269188829959', 'createTime': 1760114751, 'createTimeISO': '2025-10-10T16:45:51.000Z', 'text': 'don hermosos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7462015983667545094', </t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559638710619226881', 'createTime': 1760115557, 'createTimeISO': '2025-10-10T16:59:17.000Z', 'text': 'pensándolo bien se ven hermosos 😻💗', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '</t>
         </is>
       </c>
     </row>
@@ -4506,25 +4506,25 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Una pregunta yo fui y lleve todas los logos de yogurt de vasito y me dijeron que esos no se ponían?</t>
+          <t>don hermosos</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1760075581</v>
+        <v>1760114751</v>
       </c>
       <c r="H66" s="2" t="n">
-        <v>45940.24515046296</v>
-      </c>
-      <c r="I66" s="3" t="n">
+        <v>45940.69850694444</v>
+      </c>
+      <c r="I66" s="2" t="n">
         <v>45940</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>05:53:01</t>
+          <t>16:45:51</t>
         </is>
       </c>
       <c r="K66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -4540,7 +4540,7 @@
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559467019110204168', 'createTime': 1760075581, 'createTimeISO': '2025-10-10T05:53:01.000Z', 'text': 'Una pregunta yo fui y lleve todas los logos de yogurt de vasito y me dijeron que esos no se ponían?', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuth</t>
+          <t xml:space="preserve">{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559635269188829959', 'createTime': 1760114751, 'createTimeISO': '2025-10-10T16:45:51.000Z', 'text': 'don hermosos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7462015983667545094', </t>
         </is>
       </c>
     </row>
@@ -4566,25 +4566,25 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>tuve una bolsa entera sin todo lo que piden JAJSJWJSJW</t>
+          <t>Una pregunta yo fui y lleve todas los logos de yogurt de vasito y me dijeron que esos no se ponían?</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1760073654</v>
+        <v>1760075581</v>
       </c>
       <c r="H67" s="2" t="n">
-        <v>45940.22284722222</v>
-      </c>
-      <c r="I67" s="3" t="n">
+        <v>45940.24515046296</v>
+      </c>
+      <c r="I67" s="2" t="n">
         <v>45940</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>05:20:54</t>
+          <t>05:53:01</t>
         </is>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -4600,7 +4600,7 @@
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559458753733739282', 'createTime': 1760073654, 'createTimeISO': '2025-10-10T05:20:54.000Z', 'text': 'tuve una bolsa entera sin todo lo que piden JAJSJWJSJW', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommen</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559467019110204168', 'createTime': 1760075581, 'createTimeISO': '2025-10-10T05:53:01.000Z', 'text': 'Una pregunta yo fui y lleve todas los logos de yogurt de vasito y me dijeron que esos no se ponían?', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuth</t>
         </is>
       </c>
     </row>
@@ -4626,21 +4626,21 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>ya no es lo mismo</t>
+          <t>tuve una bolsa entera sin todo lo que piden JAJSJWJSJW</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1760072308</v>
+        <v>1760073654</v>
       </c>
       <c r="H68" s="2" t="n">
-        <v>45940.20726851852</v>
-      </c>
-      <c r="I68" s="3" t="n">
+        <v>45940.22284722222</v>
+      </c>
+      <c r="I68" s="2" t="n">
         <v>45940</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>04:58:28</t>
+          <t>05:20:54</t>
         </is>
       </c>
       <c r="K68" t="n">
@@ -4660,7 +4660,7 @@
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559452964297917200', 'createTime': 1760072308, 'createTimeISO': '2025-10-10T04:58:28.000Z', 'text': 'ya no es lo mismo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '74403095168463678</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559458753733739282', 'createTime': 1760073654, 'createTimeISO': '2025-10-10T05:20:54.000Z', 'text': 'tuve una bolsa entera sin todo lo que piden JAJSJWJSJW', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommen</t>
         </is>
       </c>
     </row>
@@ -4686,21 +4686,21 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Ya tengo 2 de los yogo yogo sorpresa comprando en el oxxo aquí en Bogotá</t>
+          <t>ya no es lo mismo</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1760054016</v>
+        <v>1760072308</v>
       </c>
       <c r="H69" s="2" t="n">
-        <v>45939.99555555556</v>
-      </c>
-      <c r="I69" s="3" t="n">
-        <v>45939</v>
+        <v>45940.20726851852</v>
+      </c>
+      <c r="I69" s="2" t="n">
+        <v>45940</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>23:53:36</t>
+          <t>04:58:28</t>
         </is>
       </c>
       <c r="K69" t="n">
@@ -4720,7 +4720,7 @@
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t xml:space="preserve">{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559374381328745234', 'createTime': 1760054016, 'createTimeISO': '2025-10-09T23:53:36.000Z', 'text': 'Ya tengo 2 de los yogo yogo sorpresa comprando en el oxxo aquí en Bogotá', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': </t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559452964297917200', 'createTime': 1760072308, 'createTimeISO': '2025-10-10T04:58:28.000Z', 'text': 'ya no es lo mismo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '74403095168463678</t>
         </is>
       </c>
     </row>
@@ -4746,21 +4746,21 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>me encantan los mochis mi mamá nunca me compra ninguno creo que me dejes hacer ⭐😍</t>
+          <t>Ya tengo 2 de los yogo yogo sorpresa comprando en el oxxo aquí en Bogotá</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1760051473</v>
+        <v>1760054016</v>
       </c>
       <c r="H70" s="2" t="n">
-        <v>45939.96612268518</v>
-      </c>
-      <c r="I70" s="3" t="n">
+        <v>45939.99555555556</v>
+      </c>
+      <c r="I70" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>23:11:13</t>
+          <t>23:53:36</t>
         </is>
       </c>
       <c r="K70" t="n">
@@ -4780,7 +4780,7 @@
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559363418022249224', 'createTime': 1760051473, 'createTimeISO': '2025-10-09T23:11:13.000Z', 'text': 'me encantan los mochis mi mamá nunca me compra ninguno creo que me dejes hacer ⭐😍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repli</t>
+          <t xml:space="preserve">{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559374381328745234', 'createTime': 1760054016, 'createTimeISO': '2025-10-09T23:53:36.000Z', 'text': 'Ya tengo 2 de los yogo yogo sorpresa comprando en el oxxo aquí en Bogotá', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': </t>
         </is>
       </c>
     </row>
@@ -4806,21 +4806,21 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>alpinaa eres el mejor me gustan tus productos❤</t>
+          <t>me encantan los mochis mi mamá nunca me compra ninguno creo que me dejes hacer ⭐😍</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1760039410</v>
+        <v>1760051473</v>
       </c>
       <c r="H71" s="2" t="n">
-        <v>45939.82650462963</v>
-      </c>
-      <c r="I71" s="3" t="n">
+        <v>45939.96612268518</v>
+      </c>
+      <c r="I71" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>19:50:10</t>
+          <t>23:11:13</t>
         </is>
       </c>
       <c r="K71" t="n">
@@ -4840,7 +4840,7 @@
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559311644069757697', 'createTime': 1760039410, 'createTimeISO': '2025-10-09T19:50:10.000Z', 'text': 'alpinaa eres el mejor me gustan tus productos❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal':</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559363418022249224', 'createTime': 1760051473, 'createTimeISO': '2025-10-09T23:11:13.000Z', 'text': 'me encantan los mochis mi mamá nunca me compra ninguno creo que me dejes hacer ⭐😍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repli</t>
         </is>
       </c>
     </row>
@@ -4866,21 +4866,21 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Mi hija estaba muy comprometida haciendo la recolección de logos recortados de YogoYogo los llevamos a OXXO y le dijeron que los recortó mal y no le dieron premio. Terrible me parece 0 estrellitas no vale la pena.</t>
+          <t>alpinaa eres el mejor me gustan tus productos❤</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1760017424</v>
+        <v>1760039410</v>
       </c>
       <c r="H72" s="2" t="n">
-        <v>45939.57203703704</v>
-      </c>
-      <c r="I72" s="3" t="n">
+        <v>45939.82650462963</v>
+      </c>
+      <c r="I72" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>13:43:44</t>
+          <t>19:50:10</t>
         </is>
       </c>
       <c r="K72" t="n">
@@ -4900,7 +4900,7 @@
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559217240907399952', 'createTime': 1760017424, 'createTimeISO': '2025-10-09T13:43:44.000Z', 'text': 'Mi hija estaba muy comprometida haciendo la recolección de logos recortados de YogoYogo los llevamos a OXXO y le dijeron que los recortó mal y no le dieron</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559311644069757697', 'createTime': 1760039410, 'createTimeISO': '2025-10-09T19:50:10.000Z', 'text': 'alpinaa eres el mejor me gustan tus productos❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal':</t>
         </is>
       </c>
     </row>
@@ -4926,25 +4926,25 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>en Montería no hay OXXO pero si un todo a 1000 hay los entran</t>
+          <t>Mi hija estaba muy comprometida haciendo la recolección de logos recortados de YogoYogo los llevamos a OXXO y le dijeron que los recortó mal y no le dieron premio. Terrible me parece 0 estrellitas no vale la pena.</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1759971032</v>
+        <v>1760017424</v>
       </c>
       <c r="H73" s="2" t="n">
-        <v>45939.0350925926</v>
-      </c>
-      <c r="I73" s="3" t="n">
+        <v>45939.57203703704</v>
+      </c>
+      <c r="I73" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>00:50:32</t>
+          <t>13:43:44</t>
         </is>
       </c>
       <c r="K73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559017957411767047', 'createTime': 1759971032, 'createTimeISO': '2025-10-09T00:50:32.000Z', 'text': 'en Montería no hay OXXO pero si un todo a 1000 hay los entran', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'repl</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559217240907399952', 'createTime': 1760017424, 'createTimeISO': '2025-10-09T13:43:44.000Z', 'text': 'Mi hija estaba muy comprometida haciendo la recolección de logos recortados de YogoYogo los llevamos a OXXO y le dijeron que los recortó mal y no le dieron</t>
         </is>
       </c>
     </row>
@@ -4986,25 +4986,25 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>mochisaurios? es enserio? pongan figuritas buenas!!</t>
+          <t>en Montería no hay OXXO pero si un todo a 1000 hay los entran</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1759965649</v>
+        <v>1759971032</v>
       </c>
       <c r="H74" s="2" t="n">
-        <v>45938.97278935185</v>
-      </c>
-      <c r="I74" s="3" t="n">
-        <v>45938</v>
+        <v>45939.0350925926</v>
+      </c>
+      <c r="I74" s="2" t="n">
+        <v>45939</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>23:20:49</t>
+          <t>00:50:32</t>
         </is>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -5020,7 +5020,7 @@
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558994733155123969', 'createTime': 1759965649, 'createTimeISO': '2025-10-08T23:20:49.000Z', 'text': 'mochisaurios? es enserio? pongan figuritas buenas!!', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTo</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559017957411767047', 'createTime': 1759971032, 'createTimeISO': '2025-10-09T00:50:32.000Z', 'text': 'en Montería no hay OXXO pero si un todo a 1000 hay los entran', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'repl</t>
         </is>
       </c>
     </row>
@@ -5046,21 +5046,21 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>tengo 14 en total ajaja</t>
+          <t>mochisaurios? es enserio? pongan figuritas buenas!!</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1759946263</v>
+        <v>1759965649</v>
       </c>
       <c r="H75" s="2" t="n">
-        <v>45938.74841435185</v>
-      </c>
-      <c r="I75" s="3" t="n">
+        <v>45938.97278935185</v>
+      </c>
+      <c r="I75" s="2" t="n">
         <v>45938</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>17:57:43</t>
+          <t>23:20:49</t>
         </is>
       </c>
       <c r="K75" t="n">
@@ -5080,7 +5080,7 @@
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558911601061217032', 'createTime': 1759946263, 'createTimeISO': '2025-10-08T17:57:43.000Z', 'text': 'tengo 14 en total ajaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '72902844495</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558994733155123969', 'createTime': 1759965649, 'createTimeISO': '2025-10-08T23:20:49.000Z', 'text': 'mochisaurios? es enserio? pongan figuritas buenas!!', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTo</t>
         </is>
       </c>
     </row>
@@ -5106,28 +5106,28 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>a poco hay OXXO en colombia</t>
+          <t>tengo 14 en total ajaja</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1759856384</v>
+        <v>1759946263</v>
       </c>
       <c r="H76" s="2" t="n">
-        <v>45937.70814814815</v>
-      </c>
-      <c r="I76" s="3" t="n">
-        <v>45937</v>
+        <v>45938.74841435185</v>
+      </c>
+      <c r="I76" s="2" t="n">
+        <v>45938</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>16:59:44</t>
+          <t>17:57:43</t>
         </is>
       </c>
       <c r="K76" t="n">
         <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M76" t="b">
         <v>0</v>
@@ -5140,7 +5140,7 @@
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558525593814467336', 'createTime': 1759856384, 'createTimeISO': '2025-10-07T16:59:44.000Z', 'text': 'a poco hay OXXO en colombia', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7300666</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558911601061217032', 'createTime': 1759946263, 'createTimeISO': '2025-10-08T17:57:43.000Z', 'text': 'tengo 14 en total ajaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '72902844495</t>
         </is>
       </c>
     </row>
@@ -5166,28 +5166,28 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>mejor me compro un jugo premio y ya,aparte que esa vaina se ensucia re facil</t>
+          <t>a poco hay OXXO en colombia</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1759804811</v>
+        <v>1759856384</v>
       </c>
       <c r="H77" s="2" t="n">
-        <v>45937.11123842592</v>
-      </c>
-      <c r="I77" s="3" t="n">
+        <v>45937.70814814815</v>
+      </c>
+      <c r="I77" s="2" t="n">
         <v>45937</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>02:40:11</t>
+          <t>16:59:44</t>
         </is>
       </c>
       <c r="K77" t="n">
         <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M77" t="b">
         <v>0</v>
@@ -5200,7 +5200,7 @@
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558304062015718152', 'createTime': 1759804811, 'createTimeISO': '2025-10-07T02:40:11.000Z', 'text': 'mejor me compro un jugo premio y ya,aparte que esa vaina se ensucia re facil', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToI</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558525593814467336', 'createTime': 1759856384, 'createTimeISO': '2025-10-07T16:59:44.000Z', 'text': 'a poco hay OXXO en colombia', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7300666</t>
         </is>
       </c>
     </row>
@@ -5226,21 +5226,21 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>brooo</t>
+          <t>sale más fácil comprarles el yogo premio ahí vienen esos muñecos👌</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1759804153</v>
+        <v>1759810185</v>
       </c>
       <c r="H78" s="2" t="n">
-        <v>45937.10362268519</v>
+        <v>45937.1734375</v>
       </c>
       <c r="I78" s="3" t="n">
         <v>45937</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>04:09:45</t>
         </is>
       </c>
       <c r="K78" t="n">
@@ -5260,7 +5260,7 @@
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558301251185115912', 'createTime': 1759804153, 'createTimeISO': '2025-10-07T02:29:13.000Z', 'text': 'brooo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452245536629720070', 'unique</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558327143747928848', 'createTime': 1759810185, 'createTimeISO': '2025-10-07T04:09:45.000Z', 'text': 'sale más fácil comprarles el yogo premio ahí vienen esos muñecos👌', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, '</t>
         </is>
       </c>
     </row>
@@ -5286,21 +5286,21 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>loooos amooooooo❤️❤️❤️❤️❤</t>
+          <t>mejor me compro un jugo premio y ya,aparte que esa vaina se ensucia re facil</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1759783101</v>
+        <v>1759804811</v>
       </c>
       <c r="H79" s="2" t="n">
-        <v>45936.85996527778</v>
-      </c>
-      <c r="I79" s="3" t="n">
-        <v>45936</v>
+        <v>45937.11123842592</v>
+      </c>
+      <c r="I79" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>20:38:21</t>
+          <t>02:40:11</t>
         </is>
       </c>
       <c r="K79" t="n">
@@ -5320,7 +5320,7 @@
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558210750176805633', 'createTime': 1759783101, 'createTimeISO': '2025-10-06T20:38:21.000Z', 'text': 'loooos amooooooo❤️❤️❤️❤️❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '736720890</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558304062015718152', 'createTime': 1759804811, 'createTimeISO': '2025-10-07T02:40:11.000Z', 'text': 'mejor me compro un jugo premio y ya,aparte que esa vaina se ensucia re facil', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToI</t>
         </is>
       </c>
     </row>
@@ -5346,21 +5346,21 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Por qué Oxxo :c, no hay otro lado?</t>
+          <t>brooo</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1759768015</v>
+        <v>1759804153</v>
       </c>
       <c r="H80" s="2" t="n">
-        <v>45936.6853587963</v>
-      </c>
-      <c r="I80" s="3" t="n">
-        <v>45936</v>
+        <v>45937.10362268519</v>
+      </c>
+      <c r="I80" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>16:26:55</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="K80" t="n">
@@ -5380,7 +5380,7 @@
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558146025103590164', 'createTime': 1759768015, 'createTimeISO': '2025-10-06T16:26:55.000Z', 'text': 'Por qué Oxxo :c, no hay otro lado?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558301251185115912', 'createTime': 1759804153, 'createTimeISO': '2025-10-07T02:29:13.000Z', 'text': 'brooo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452245536629720070', 'unique</t>
         </is>
       </c>
     </row>
@@ -5406,28 +5406,28 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>do</t>
+          <t>cómo se limpian</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1759766509</v>
+        <v>1759785422</v>
       </c>
       <c r="H81" s="2" t="n">
-        <v>45936.66792824074</v>
+        <v>45936.8868287037</v>
       </c>
       <c r="I81" s="3" t="n">
         <v>45936</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>16:01:49</t>
+          <t>21:17:02</t>
         </is>
       </c>
       <c r="K81" t="n">
         <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M81" t="b">
         <v>0</v>
@@ -5440,7 +5440,7 @@
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558139554667299585', 'createTime': 1759766509, 'createTimeISO': '2025-10-06T16:01:49.000Z', 'text': 'do', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7347759303850460166', 'uniqueId'</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558220575950537488', 'createTime': 1759785422, 'createTimeISO': '2025-10-06T21:17:02.000Z', 'text': 'cómo se limpian', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7269959536781378566</t>
         </is>
       </c>
     </row>
@@ -5466,21 +5466,21 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>que belleza el oxxo más sercano lo tengo a 2 horas</t>
+          <t>loooos amooooooo❤️❤️❤️❤️❤</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1759722025</v>
+        <v>1759783101</v>
       </c>
       <c r="H82" s="2" t="n">
-        <v>45936.15306712963</v>
-      </c>
-      <c r="I82" s="3" t="n">
+        <v>45936.85996527778</v>
+      </c>
+      <c r="I82" s="2" t="n">
         <v>45936</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>03:40:25</t>
+          <t>20:38:21</t>
         </is>
       </c>
       <c r="K82" t="n">
@@ -5500,7 +5500,7 @@
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557948494461846290', 'createTime': 1759722025, 'createTimeISO': '2025-10-06T03:40:25.000Z', 'text': 'que belleza el oxxo más sercano lo tengo a 2 horas', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTot</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558210750176805633', 'createTime': 1759783101, 'createTimeISO': '2025-10-06T20:38:21.000Z', 'text': 'loooos amooooooo❤️❤️❤️❤️❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '736720890</t>
         </is>
       </c>
     </row>
@@ -5526,21 +5526,21 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>ami me sale pura cagada un día me salió un unicornio y hoy me salió un cocodrilo (T_T)</t>
+          <t>Por qué Oxxo :c, no hay otro lado?</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1759704239</v>
+        <v>1759768015</v>
       </c>
       <c r="H83" s="2" t="n">
-        <v>45935.94721064815</v>
-      </c>
-      <c r="I83" s="3" t="n">
-        <v>45935</v>
+        <v>45936.6853587963</v>
+      </c>
+      <c r="I83" s="2" t="n">
+        <v>45936</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>22:43:59</t>
+          <t>16:26:55</t>
         </is>
       </c>
       <c r="K83" t="n">
@@ -5560,7 +5560,7 @@
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557872085788656392', 'createTime': 1759704239, 'createTimeISO': '2025-10-05T22:43:59.000Z', 'text': '𝚊𝚖𝚒 𝚖𝚎 𝚜𝚊𝚕𝚎 𝚙𝚞𝚛𝚊 𝚌𝚊𝚐𝚊𝚍𝚊 𝚞𝚗 𝚍𝚒́𝚊 𝚖𝚎 𝚜𝚊𝚕𝚒𝚘́ 𝚞𝚗 𝚞𝚗𝚒𝚌𝚘𝚛𝚗𝚒𝚘 𝚢 𝚑𝚘𝚢 𝚖𝚎 𝚜𝚊𝚕𝚒𝚘́ 𝚞𝚗 𝚌𝚘𝚌𝚘𝚍𝚛𝚒𝚕𝚘 (T_T)', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558146025103590164', 'createTime': 1759768015, 'createTimeISO': '2025-10-06T16:26:55.000Z', 'text': 'Por qué Oxxo :c, no hay otro lado?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '</t>
         </is>
       </c>
     </row>
@@ -5586,21 +5586,21 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>yo ya tengo dos</t>
+          <t>do</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1759699645</v>
+        <v>1759766509</v>
       </c>
       <c r="H84" s="2" t="n">
-        <v>45935.89403935185</v>
-      </c>
-      <c r="I84" s="3" t="n">
-        <v>45935</v>
+        <v>45936.66792824074</v>
+      </c>
+      <c r="I84" s="2" t="n">
+        <v>45936</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>21:27:25</t>
+          <t>16:01:49</t>
         </is>
       </c>
       <c r="K84" t="n">
@@ -5620,7 +5620,7 @@
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557852299043078928', 'createTime': 1759699645, 'createTimeISO': '2025-10-05T21:27:25.000Z', 'text': 'yo ya tengo dos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7537517920412599352</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558139554667299585', 'createTime': 1759766509, 'createTimeISO': '2025-10-06T16:01:49.000Z', 'text': 'do', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7347759303850460166', 'uniqueId'</t>
         </is>
       </c>
     </row>
@@ -5646,28 +5646,28 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Que yo sepa que en Colombia no ay oxoxo</t>
+          <t>que belleza el oxxo más sercano lo tengo a 2 horas</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1759689305</v>
+        <v>1759722025</v>
       </c>
       <c r="H85" s="2" t="n">
-        <v>45935.77436342592</v>
-      </c>
-      <c r="I85" s="3" t="n">
-        <v>45935</v>
+        <v>45936.15306712963</v>
+      </c>
+      <c r="I85" s="2" t="n">
+        <v>45936</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>18:35:05</t>
+          <t>03:40:25</t>
         </is>
       </c>
       <c r="K85" t="n">
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M85" t="b">
         <v>0</v>
@@ -5680,7 +5680,7 @@
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557807940859937554', 'createTime': 1759689305, 'createTimeISO': '2025-10-05T18:35:05.000Z', 'text': 'Que yo sepa que en Colombia no ay oxoxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'ui</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557948494461846290', 'createTime': 1759722025, 'createTimeISO': '2025-10-06T03:40:25.000Z', 'text': 'que belleza el oxxo más sercano lo tengo a 2 horas', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTot</t>
         </is>
       </c>
     </row>
@@ -5706,21 +5706,21 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Yo quiero</t>
+          <t>ami me sale pura cagada un día me salió un unicornio y hoy me salió un cocodrilo (T_T)</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1759689270</v>
+        <v>1759704239</v>
       </c>
       <c r="H86" s="2" t="n">
-        <v>45935.77395833333</v>
-      </c>
-      <c r="I86" s="3" t="n">
+        <v>45935.94721064815</v>
+      </c>
+      <c r="I86" s="2" t="n">
         <v>45935</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>18:34:30</t>
+          <t>22:43:59</t>
         </is>
       </c>
       <c r="K86" t="n">
@@ -5740,7 +5740,7 @@
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557807836890645255', 'createTime': 1759689270, 'createTimeISO': '2025-10-05T18:34:30.000Z', 'text': 'Yo quiero', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7543462359529440276', 'un</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557872085788656392', 'createTime': 1759704239, 'createTimeISO': '2025-10-05T22:43:59.000Z', 'text': '𝚊𝚖𝚒 𝚖𝚎 𝚜𝚊𝚕𝚎 𝚙𝚞𝚛𝚊 𝚌𝚊𝚐𝚊𝚍𝚊 𝚞𝚗 𝚍𝚒́𝚊 𝚖𝚎 𝚜𝚊𝚕𝚒𝚘́ 𝚞𝚗 𝚞𝚗𝚒𝚌𝚘𝚛𝚗𝚒𝚘 𝚢 𝚑𝚘𝚢 𝚖𝚎 𝚜𝚊𝚕𝚒𝚘́ 𝚞𝚗 𝚌𝚘𝚌𝚘𝚍𝚛𝚒𝚕𝚘 (T_T)', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False</t>
         </is>
       </c>
     </row>
@@ -5766,21 +5766,21 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Ay yo pensaba que ya se avía acabado y tambien pensaba que ya no tenía oportunidad de reclamar mis 12 tarjetas y como 7 logos 😭😭😭😔</t>
+          <t>yo ya tengo dos</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1759680944</v>
+        <v>1759699645</v>
       </c>
       <c r="H87" s="2" t="n">
-        <v>45935.67759259259</v>
-      </c>
-      <c r="I87" s="3" t="n">
+        <v>45935.89403935185</v>
+      </c>
+      <c r="I87" s="2" t="n">
         <v>45935</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>16:15:44</t>
+          <t>21:27:25</t>
         </is>
       </c>
       <c r="K87" t="n">
@@ -5800,7 +5800,7 @@
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557772077760742152', 'createTime': 1759680944, 'createTimeISO': '2025-10-05T16:15:44.000Z', 'text': 'Ay yo pensaba que ya se avía acabado y tambien pensaba que ya no tenía oportunidad de reclamar mis 12 tarjetas y como 7 logos 😭😭😭😔', 'diggCount': 0, 'liked</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557852299043078928', 'createTime': 1759699645, 'createTimeISO': '2025-10-05T21:27:25.000Z', 'text': 'yo ya tengo dos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7537517920412599352</t>
         </is>
       </c>
     </row>
@@ -5826,25 +5826,25 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>he ido al los OXXO que aparecen y nunca los dan dicen que no tiene idea de que se trata</t>
+          <t>Que yo sepa que en Colombia no ay oxoxo</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1759611417</v>
+        <v>1759689305</v>
       </c>
       <c r="H88" s="2" t="n">
-        <v>45934.87288194444</v>
-      </c>
-      <c r="I88" s="3" t="n">
-        <v>45934</v>
+        <v>45935.77436342592</v>
+      </c>
+      <c r="I88" s="2" t="n">
+        <v>45935</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>20:56:57</t>
+          <t>18:35:05</t>
         </is>
       </c>
       <c r="K88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
         <v>1</v>
@@ -5860,7 +5860,7 @@
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
-          <t xml:space="preserve">{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557473388605375233', 'createTime': 1759611417, 'createTimeISO': '2025-10-04T20:56:57.000Z', 'text': 'he ido al los OXXO que aparecen y nunca los dan dicen que no tiene idea de que se trata', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, </t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557807940859937554', 'createTime': 1759689305, 'createTimeISO': '2025-10-05T18:35:05.000Z', 'text': 'Que yo sepa que en Colombia no ay oxoxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'ui</t>
         </is>
       </c>
     </row>
@@ -5886,21 +5886,21 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
-          <t>A QUIEN SIGOOOO❓ TEAM NEGRO[wicked]</t>
+          <t>Yo quiero</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1759546429</v>
+        <v>1759689270</v>
       </c>
       <c r="H89" s="2" t="n">
-        <v>45934.12070601852</v>
-      </c>
-      <c r="I89" s="3" t="n">
-        <v>45934</v>
+        <v>45935.77395833333</v>
+      </c>
+      <c r="I89" s="2" t="n">
+        <v>45935</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>02:53:49</t>
+          <t>18:34:30</t>
         </is>
       </c>
       <c r="K89" t="n">
@@ -5920,7 +5920,7 @@
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
-          <t xml:space="preserve">{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557194342633718546', 'createTime': 1759546429, 'createTimeISO': '2025-10-04T02:53:49.000Z', 'text': '𝘼 𝙌𝙐𝙄𝙀𝙉 𝙎𝙄𝙂𝙊𝙊𝙊𝙊❓ TEAM NEGRO[wicked]', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': </t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557807836890645255', 'createTime': 1759689270, 'createTimeISO': '2025-10-05T18:34:30.000Z', 'text': 'Yo quiero', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7543462359529440276', 'un</t>
         </is>
       </c>
     </row>
@@ -5946,25 +5946,25 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
-          <t>muy lindos pero huelen horrible🥺</t>
+          <t>Ay yo pensaba que ya se avía acabado y tambien pensaba que ya no tenía oportunidad de reclamar mis 12 tarjetas y como 7 logos 😭😭😭😔</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1759542541</v>
+        <v>1759680944</v>
       </c>
       <c r="H90" s="2" t="n">
-        <v>45934.07570601852</v>
-      </c>
-      <c r="I90" s="3" t="n">
-        <v>45934</v>
+        <v>45935.67759259259</v>
+      </c>
+      <c r="I90" s="2" t="n">
+        <v>45935</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>01:49:01</t>
+          <t>16:15:44</t>
         </is>
       </c>
       <c r="K90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
@@ -5980,7 +5980,7 @@
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557177612487262984', 'createTime': 1759542541, 'createTimeISO': '2025-10-04T01:49:01.000Z', 'text': 'muy lindos pero huelen horrible🥺', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '73</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557772077760742152', 'createTime': 1759680944, 'createTimeISO': '2025-10-05T16:15:44.000Z', 'text': 'Ay yo pensaba que ya se avía acabado y tambien pensaba que ya no tenía oportunidad de reclamar mis 12 tarjetas y como 7 logos 😭😭😭😔', 'diggCount': 0, 'liked</t>
         </is>
       </c>
     </row>
@@ -6006,28 +6006,28 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Asegurando puesto Pará un futuro</t>
+          <t>he ido al los OXXO que aparecen y nunca los dan dicen que no tiene idea de que se trata</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1759539543</v>
+        <v>1759611417</v>
       </c>
       <c r="H91" s="2" t="n">
-        <v>45934.04100694445</v>
-      </c>
-      <c r="I91" s="3" t="n">
+        <v>45934.87288194444</v>
+      </c>
+      <c r="I91" s="2" t="n">
         <v>45934</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>00:59:03</t>
+          <t>20:56:57</t>
         </is>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M91" t="b">
         <v>0</v>
@@ -6040,7 +6040,7 @@
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557164687345140488', 'createTime': 1759539543, 'createTimeISO': '2025-10-04T00:59:03.000Z', 'text': 'Asegurando puesto Pará un futuro', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '71</t>
+          <t xml:space="preserve">{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557473388605375233', 'createTime': 1759611417, 'createTimeISO': '2025-10-04T20:56:57.000Z', 'text': 'he ido al los OXXO que aparecen y nunca los dan dicen que no tiene idea de que se trata', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, </t>
         </is>
       </c>
     </row>
@@ -6066,21 +6066,21 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
-          <t>en San Andrés no hay oxxo</t>
+          <t>Yo ya los tengo los logos</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1759503549</v>
+        <v>1759593380</v>
       </c>
       <c r="H92" s="2" t="n">
-        <v>45933.62440972222</v>
+        <v>45934.66412037037</v>
       </c>
       <c r="I92" s="3" t="n">
-        <v>45933</v>
+        <v>45934</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>14:59:09</t>
+          <t>15:56:20</t>
         </is>
       </c>
       <c r="K92" t="n">
@@ -6100,7 +6100,7 @@
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557010184049443602', 'createTime': 1759503549, 'createTimeISO': '2025-10-03T14:59:09.000Z', 'text': 'en San Andrés no hay oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '752144968</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557395985225335570', 'createTime': 1759593380, 'createTimeISO': '2025-10-04T15:56:20.000Z', 'text': 'Yo ya los tengo los logos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '736420736</t>
         </is>
       </c>
     </row>
@@ -6126,21 +6126,21 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
-          <t>yo tengo el moradoro y el verde y otro morado que es igual al verde Pero morado y voy a ir al Oxxo que queda cerca de mi casa y reclamo varios ksjsjsjs</t>
+          <t>A QUIEN SIGOOOO❓ TEAM NEGRO[wicked]</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1759487921</v>
+        <v>1759546429</v>
       </c>
       <c r="H93" s="2" t="n">
-        <v>45933.44353009259</v>
-      </c>
-      <c r="I93" s="3" t="n">
-        <v>45933</v>
+        <v>45934.12070601852</v>
+      </c>
+      <c r="I93" s="2" t="n">
+        <v>45934</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>10:38:41</t>
+          <t>02:53:49</t>
         </is>
       </c>
       <c r="K93" t="n">
@@ -6160,7 +6160,7 @@
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556943055979332372', 'createTime': 1759487921, 'createTimeISO': '2025-10-03T10:38:41.000Z', 'text': 'yo tengo el moradoro y el verde y otro morado que es igual al verde Pero morado y voy a ir al Oxxo que queda cerca de mi casa y reclamo varios ksjsjsjs', '</t>
+          <t xml:space="preserve">{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557194342633718546', 'createTime': 1759546429, 'createTimeISO': '2025-10-04T02:53:49.000Z', 'text': '𝘼 𝙌𝙐𝙄𝙀𝙉 𝙎𝙄𝙂𝙊𝙊𝙊𝙊❓ TEAM NEGRO[wicked]', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': </t>
         </is>
       </c>
     </row>
@@ -6186,25 +6186,25 @@
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr">
         <is>
-          <t>esta vez está más facil conseguirlos en alkosto pasto , más barato , los encuentras de varios sabores el yogo premio 🥰</t>
+          <t>muy lindos pero huelen horrible🥺</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1759455103</v>
+        <v>1759542541</v>
       </c>
       <c r="H94" s="2" t="n">
-        <v>45933.06369212963</v>
-      </c>
-      <c r="I94" s="3" t="n">
-        <v>45933</v>
+        <v>45934.07570601852</v>
+      </c>
+      <c r="I94" s="2" t="n">
+        <v>45934</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>01:31:43</t>
+          <t>01:49:01</t>
         </is>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L94" t="n">
         <v>0</v>
@@ -6220,7 +6220,7 @@
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556802057828451090', 'createTime': 1759455103, 'createTimeISO': '2025-10-03T01:31:43.000Z', 'text': 'esta vez está más facil conseguirlos en alkosto pasto , más barato , los encuentras de varios sabores el yogo premio 🥰', 'diggCount': 0, 'likedByAuthor': F</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557177612487262984', 'createTime': 1759542541, 'createTimeISO': '2025-10-04T01:49:01.000Z', 'text': 'muy lindos pero huelen horrible🥺', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '73</t>
         </is>
       </c>
     </row>
@@ -6246,21 +6246,21 @@
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
-          <t>y para que sirve eso, que beneficios tiene 😳</t>
+          <t>Asegurando puesto Pará un futuro</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1759454531</v>
+        <v>1759539543</v>
       </c>
       <c r="H95" s="2" t="n">
-        <v>45933.05707175926</v>
-      </c>
-      <c r="I95" s="3" t="n">
-        <v>45933</v>
+        <v>45934.04100694445</v>
+      </c>
+      <c r="I95" s="2" t="n">
+        <v>45934</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>01:22:11</t>
+          <t>00:59:03</t>
         </is>
       </c>
       <c r="K95" t="n">
@@ -6280,7 +6280,7 @@
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556799608577458951', 'createTime': 1759454531, 'createTimeISO': '2025-10-03T01:22:11.000Z', 'text': 'y para que sirve eso, que beneficios tiene 😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557164687345140488', 'createTime': 1759539543, 'createTimeISO': '2025-10-04T00:59:03.000Z', 'text': 'Asegurando puesto Pará un futuro', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '71</t>
         </is>
       </c>
     </row>
@@ -6306,21 +6306,21 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Clarion esq en todos los países hay OXXO 🌚🌝</t>
+          <t>en San Andrés no hay oxxo</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1759438387</v>
+        <v>1759503549</v>
       </c>
       <c r="H96" s="2" t="n">
-        <v>45932.87021990741</v>
-      </c>
-      <c r="I96" s="3" t="n">
-        <v>45932</v>
+        <v>45933.62440972222</v>
+      </c>
+      <c r="I96" s="2" t="n">
+        <v>45933</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>20:53:07</t>
+          <t>14:59:09</t>
         </is>
       </c>
       <c r="K96" t="n">
@@ -6340,7 +6340,7 @@
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556730178652275472', 'createTime': 1759438387, 'createTimeISO': '2025-10-02T20:53:07.000Z', 'text': 'Clarion esq en todos los países hay OXXO 🌚🌝', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0,</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557010184049443602', 'createTime': 1759503549, 'createTimeISO': '2025-10-03T14:59:09.000Z', 'text': 'en San Andrés no hay oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '752144968</t>
         </is>
       </c>
     </row>
@@ -6366,21 +6366,21 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
-          <t>los dan todos</t>
+          <t>yo tengo el moradoro y el verde y otro morado que es igual al verde Pero morado y voy a ir al Oxxo que queda cerca de mi casa y reclamo varios ksjsjsjs</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1759435028</v>
+        <v>1759487921</v>
       </c>
       <c r="H97" s="2" t="n">
-        <v>45932.8313425926</v>
-      </c>
-      <c r="I97" s="3" t="n">
-        <v>45932</v>
+        <v>45933.44353009259</v>
+      </c>
+      <c r="I97" s="2" t="n">
+        <v>45933</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>19:57:08</t>
+          <t>10:38:41</t>
         </is>
       </c>
       <c r="K97" t="n">
@@ -6400,7 +6400,7 @@
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556715834195788562', 'createTime': 1759435028, 'createTimeISO': '2025-10-02T19:57:08.000Z', 'text': 'los dan todos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7193838219199251461',</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556943055979332372', 'createTime': 1759487921, 'createTimeISO': '2025-10-03T10:38:41.000Z', 'text': 'yo tengo el moradoro y el verde y otro morado que es igual al verde Pero morado y voy a ir al Oxxo que queda cerca de mi casa y reclamo varios ksjsjsjs', '</t>
         </is>
       </c>
     </row>
@@ -6426,21 +6426,21 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
         <is>
-          <t>oigan pero no encuentro mochisaurios solo ilumimochis</t>
+          <t>Va uno al Oxxo y qué no han llegado. No todas las tiendas tienen ese empaque marcado, tanto misterio para un muñeco, antes eran 3 logos ahora 4. Mejor me compro una Drácula</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1759433489</v>
+        <v>1759463277</v>
       </c>
       <c r="H98" s="2" t="n">
-        <v>45932.81353009259</v>
+        <v>45933.15829861111</v>
       </c>
       <c r="I98" s="3" t="n">
-        <v>45932</v>
+        <v>45933</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>19:31:29</t>
+          <t>03:47:57</t>
         </is>
       </c>
       <c r="K98" t="n">
@@ -6460,7 +6460,7 @@
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556709242481722130', 'createTime': 1759433489, 'createTimeISO': '2025-10-02T19:31:29.000Z', 'text': 'oigan pero no encuentro mochisaurios solo ilumimochis', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyComment</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556837188043227905', 'createTime': 1759463277, 'createTimeISO': '2025-10-03T03:47:57.000Z', 'text': 'Va uno al Oxxo y qué no han llegado. No todas las tiendas tienen ese empaque marcado, tanto misterio para un muñeco, antes eran 3 logos ahora 4. Mejor me c</t>
         </is>
       </c>
     </row>
@@ -6486,25 +6486,25 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Paso 1 compran un yogo yogo premio de tarrito y ya viene uno dentro.</t>
+          <t>esta vez está más facil conseguirlos en alkosto pasto , más barato , los encuentras de varios sabores el yogo premio 🥰</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1759421648</v>
+        <v>1759455103</v>
       </c>
       <c r="H99" s="2" t="n">
-        <v>45932.67648148148</v>
-      </c>
-      <c r="I99" s="3" t="n">
-        <v>45932</v>
+        <v>45933.06369212963</v>
+      </c>
+      <c r="I99" s="2" t="n">
+        <v>45933</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>16:14:08</t>
+          <t>01:31:43</t>
         </is>
       </c>
       <c r="K99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
@@ -6520,7 +6520,7 @@
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556658397476963090', 'createTime': 1759421648, 'createTimeISO': '2025-10-02T16:14:08.000Z', 'text': 'Paso 1 compran un yogo yogo premio de tarrito y ya viene uno dentro.', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556802057828451090', 'createTime': 1759455103, 'createTimeISO': '2025-10-03T01:31:43.000Z', 'text': 'esta vez está más facil conseguirlos en alkosto pasto , más barato , los encuentras de varios sabores el yogo premio 🥰', 'diggCount': 0, 'likedByAuthor': F</t>
         </is>
       </c>
     </row>
@@ -6546,389 +6546,389 @@
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr">
         <is>
+          <t>y para que sirve eso, que beneficios tiene 😳</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>1759454531</v>
+      </c>
+      <c r="H100" s="2" t="n">
+        <v>45933.05707175926</v>
+      </c>
+      <c r="I100" s="2" t="n">
+        <v>45933</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>01:22:11</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="b">
+        <v>0</v>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556799608577458951', 'createTime': 1759454531, 'createTimeISO': '2025-10-03T01:22:11.000Z', 'text': 'y para que sirve eso, que beneficios tiene 😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>10</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Ami me salió un unicornio en uno</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>1759442806</v>
+      </c>
+      <c r="H101" s="2" t="n">
+        <v>45932.92136574074</v>
+      </c>
+      <c r="I101" s="3" t="n">
+        <v>45932</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>22:06:46</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="b">
+        <v>0</v>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556749197270991637', 'createTime': 1759442806, 'createTimeISO': '2025-10-02T22:06:46.000Z', 'text': 'Ami me salió un unicornio en uno', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '73</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>10</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Clarion esq en todos los países hay OXXO 🌚🌝</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>1759438387</v>
+      </c>
+      <c r="H102" s="2" t="n">
+        <v>45932.87021990741</v>
+      </c>
+      <c r="I102" s="2" t="n">
+        <v>45932</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>20:53:07</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="b">
+        <v>0</v>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556730178652275472', 'createTime': 1759438387, 'createTimeISO': '2025-10-02T20:53:07.000Z', 'text': 'Clarion esq en todos los países hay OXXO 🌚🌝', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0,</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>10</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>los dan todos</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>1759435028</v>
+      </c>
+      <c r="H103" s="2" t="n">
+        <v>45932.8313425926</v>
+      </c>
+      <c r="I103" s="2" t="n">
+        <v>45932</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>19:57:08</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="b">
+        <v>0</v>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556715834195788562', 'createTime': 1759435028, 'createTimeISO': '2025-10-02T19:57:08.000Z', 'text': 'los dan todos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7193838219199251461',</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>10</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>oigan pero no encuentro mochisaurios solo ilumimochis</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>1759433489</v>
+      </c>
+      <c r="H104" s="2" t="n">
+        <v>45932.81353009259</v>
+      </c>
+      <c r="I104" s="2" t="n">
+        <v>45932</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>19:31:29</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="b">
+        <v>0</v>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556709242481722130', 'createTime': 1759433489, 'createTimeISO': '2025-10-02T19:31:29.000Z', 'text': 'oigan pero no encuentro mochisaurios solo ilumimochis', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyComment</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>10</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Paso 1 compran un yogo yogo premio de tarrito y ya viene uno dentro.</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>1759421648</v>
+      </c>
+      <c r="H105" s="2" t="n">
+        <v>45932.67648148148</v>
+      </c>
+      <c r="I105" s="2" t="n">
+        <v>45932</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>16:14:08</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>2</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="b">
+        <v>0</v>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556658397476963090', 'createTime': 1759421648, 'createTimeISO': '2025-10-02T16:14:08.000Z', 'text': 'Paso 1 compran un yogo yogo premio de tarrito y ya viene uno dentro.', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>10</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
           <t>me encantan estos mochis pero quisiera saber el nombre de 5
 los muñequitos 🥰</t>
         </is>
       </c>
-      <c r="G100" t="n">
+      <c r="G106" t="n">
         <v>1759407285</v>
       </c>
-      <c r="H100" s="2" t="n">
+      <c r="H106" s="2" t="n">
         <v>45932.51024305556</v>
       </c>
-      <c r="I100" s="3" t="n">
+      <c r="I106" s="2" t="n">
         <v>45932</v>
       </c>
-      <c r="J100" t="inlineStr">
+      <c r="J106" t="inlineStr">
         <is>
           <t>12:14:45</t>
-        </is>
-      </c>
-      <c r="K100" t="n">
-        <v>1</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2</v>
-      </c>
-      <c r="M100" t="b">
-        <v>0</v>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556596683191681808', 'createTime': 1759407285, 'createTimeISO': '2025-10-02T12:14:45.000Z', 'text': 'me encantan estos mochis pero quisiera saber el nombre de 5\nlos muñequitos 🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesTo</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>10</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Alpina me mandan la caja Porfavor y les subo un video abriéndola</t>
-        </is>
-      </c>
-      <c r="G101" t="n">
-        <v>1759357740</v>
-      </c>
-      <c r="H101" s="2" t="n">
-        <v>45931.93680555555</v>
-      </c>
-      <c r="I101" s="3" t="n">
-        <v>45931</v>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>22:29:00</t>
-        </is>
-      </c>
-      <c r="K101" t="n">
-        <v>2</v>
-      </c>
-      <c r="L101" t="n">
-        <v>0</v>
-      </c>
-      <c r="M101" t="b">
-        <v>0</v>
-      </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556383835371717396', 'createTime': 1759357740, 'createTimeISO': '2025-10-01T22:29:00.000Z', 'text': 'Alpina me mandan la caja Porfavor y les subo un video abriéndola', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'r</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>10</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>nena voy mal con la paleta Drácula y ya me pides que complete la de Mochis 🤣🤣</t>
-        </is>
-      </c>
-      <c r="G102" t="n">
-        <v>1759217751</v>
-      </c>
-      <c r="H102" s="2" t="n">
-        <v>45930.3165625</v>
-      </c>
-      <c r="I102" s="3" t="n">
-        <v>45930</v>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>07:35:51</t>
-        </is>
-      </c>
-      <c r="K102" t="n">
-        <v>1</v>
-      </c>
-      <c r="L102" t="n">
-        <v>0</v>
-      </c>
-      <c r="M102" t="b">
-        <v>0</v>
-      </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555782650826031873', 'createTime': 1759217751, 'createTimeISO': '2025-09-30T07:35:51.000Z', 'text': 'nena voy mal con la paleta Drácula y ya me pides que complete la de Mochis 🤣🤣', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesTo</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>10</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>oiga mano lastima que todavía no salen los mochisaurios en los yogopremios</t>
-        </is>
-      </c>
-      <c r="G103" t="n">
-        <v>1759216989</v>
-      </c>
-      <c r="H103" s="2" t="n">
-        <v>45930.30774305556</v>
-      </c>
-      <c r="I103" s="3" t="n">
-        <v>45930</v>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>07:23:09</t>
-        </is>
-      </c>
-      <c r="K103" t="n">
-        <v>0</v>
-      </c>
-      <c r="L103" t="n">
-        <v>2</v>
-      </c>
-      <c r="M103" t="b">
-        <v>0</v>
-      </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555779391944016647', 'createTime': 1759216989, 'createTimeISO': '2025-09-30T07:23:09.000Z', 'text': 'oiga mano lastima que todavía no salen los mochisaurios en los yogopremios', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId'</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>10</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>pueden quitar los mochis y volver a poner los muñequitos de gokuuuu por favor</t>
-        </is>
-      </c>
-      <c r="G104" t="n">
-        <v>1759207962</v>
-      </c>
-      <c r="H104" s="2" t="n">
-        <v>45930.20326388889</v>
-      </c>
-      <c r="I104" s="3" t="n">
-        <v>45930</v>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>04:52:42</t>
-        </is>
-      </c>
-      <c r="K104" t="n">
-        <v>0</v>
-      </c>
-      <c r="L104" t="n">
-        <v>0</v>
-      </c>
-      <c r="M104" t="b">
-        <v>0</v>
-      </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555740607941067527', 'createTime': 1759207962, 'createTimeISO': '2025-09-30T04:52:42.000Z', 'text': 'pueden quitar los mochis y volver a poner los muñequitos de gokuuuu por favor', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesTo</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>10</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>amooo los mochiss</t>
-        </is>
-      </c>
-      <c r="G105" t="n">
-        <v>1759203020</v>
-      </c>
-      <c r="H105" s="2" t="n">
-        <v>45930.14606481481</v>
-      </c>
-      <c r="I105" s="3" t="n">
-        <v>45930</v>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>03:30:20</t>
-        </is>
-      </c>
-      <c r="K105" t="n">
-        <v>0</v>
-      </c>
-      <c r="L105" t="n">
-        <v>0</v>
-      </c>
-      <c r="M105" t="b">
-        <v>0</v>
-      </c>
-      <c r="N105" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555719396933829377', 'createTime': 1759203020, 'createTimeISO': '2025-09-30T03:30:20.000Z', 'text': 'amooo los mochiss', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '73672089083496212</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>10</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>yo lo consigo en una papelera sin comprar el yogur</t>
-        </is>
-      </c>
-      <c r="G106" t="n">
-        <v>1759192491</v>
-      </c>
-      <c r="H106" s="2" t="n">
-        <v>45930.02420138889</v>
-      </c>
-      <c r="I106" s="3" t="n">
-        <v>45930</v>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>00:34:51</t>
         </is>
       </c>
       <c r="K106" t="n">
         <v>1</v>
       </c>
       <c r="L106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M106" t="b">
         <v>0</v>
@@ -6941,7 +6941,7 @@
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555674134270001927', 'createTime': 1759192491, 'createTimeISO': '2025-09-30T00:34:51.000Z', 'text': 'yo lo consigo en una papelera sin comprar el yogur', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTot</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556596683191681808', 'createTime': 1759407285, 'createTimeISO': '2025-10-02T12:14:45.000Z', 'text': 'me encantan estos mochis pero quisiera saber el nombre de 5\nlos muñequitos 🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesTo</t>
         </is>
       </c>
     </row>
@@ -6967,623 +6967,623 @@
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr">
         <is>
+          <t>Alpina me mandan la caja Porfavor y les subo un video abriéndola</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>1759357740</v>
+      </c>
+      <c r="H107" s="2" t="n">
+        <v>45931.93680555555</v>
+      </c>
+      <c r="I107" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>22:29:00</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>2</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="b">
+        <v>0</v>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556383835371717396', 'createTime': 1759357740, 'createTimeISO': '2025-10-01T22:29:00.000Z', 'text': 'Alpina me mandan la caja Porfavor y les subo un video abriéndola', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'r</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>10</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>nena voy mal con la paleta Drácula y ya me pides que complete la de Mochis 🤣🤣</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>1759217751</v>
+      </c>
+      <c r="H108" s="2" t="n">
+        <v>45930.3165625</v>
+      </c>
+      <c r="I108" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>07:35:51</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="b">
+        <v>0</v>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555782650826031873', 'createTime': 1759217751, 'createTimeISO': '2025-09-30T07:35:51.000Z', 'text': 'nena voy mal con la paleta Drácula y ya me pides que complete la de Mochis 🤣🤣', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesTo</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>10</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>oiga mano lastima que todavía no salen los mochisaurios en los yogopremios</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>1759216989</v>
+      </c>
+      <c r="H109" s="2" t="n">
+        <v>45930.30774305556</v>
+      </c>
+      <c r="I109" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>07:23:09</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>2</v>
+      </c>
+      <c r="M109" t="b">
+        <v>0</v>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555779391944016647', 'createTime': 1759216989, 'createTimeISO': '2025-09-30T07:23:09.000Z', 'text': 'oiga mano lastima que todavía no salen los mochisaurios en los yogopremios', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId'</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>10</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>pueden quitar los mochis y volver a poner los muñequitos de gokuuuu por favor</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>1759207962</v>
+      </c>
+      <c r="H110" s="2" t="n">
+        <v>45930.20326388889</v>
+      </c>
+      <c r="I110" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>04:52:42</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="b">
+        <v>0</v>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555740607941067527', 'createTime': 1759207962, 'createTimeISO': '2025-09-30T04:52:42.000Z', 'text': 'pueden quitar los mochis y volver a poner los muñequitos de gokuuuu por favor', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesTo</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>10</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>amooo los mochiss</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>1759203020</v>
+      </c>
+      <c r="H111" s="2" t="n">
+        <v>45930.14606481481</v>
+      </c>
+      <c r="I111" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>03:30:20</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="b">
+        <v>0</v>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555719396933829377', 'createTime': 1759203020, 'createTimeISO': '2025-09-30T03:30:20.000Z', 'text': 'amooo los mochiss', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '73672089083496212</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>10</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>ya los tengo</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>1759195888</v>
+      </c>
+      <c r="H112" s="2" t="n">
+        <v>45930.06351851852</v>
+      </c>
+      <c r="I112" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>01:31:28</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="b">
+        <v>0</v>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555688754276303624', 'createTime': 1759195888, 'createTimeISO': '2025-09-30T01:31:28.000Z', 'text': 'ya los tengo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7506596631263200262', </t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>10</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>y si estoy en Colombia</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>1759193568</v>
+      </c>
+      <c r="H113" s="2" t="n">
+        <v>45930.03666666667</v>
+      </c>
+      <c r="I113" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>00:52:48</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="b">
+        <v>0</v>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555678757781422856', 'createTime': 1759193568, 'createTimeISO': '2025-09-30T00:52:48.000Z', 'text': 'y si estoy en Colombia', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '751137034569</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>10</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>yo lo consigo en una papelera sin comprar el yogur</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>1759192491</v>
+      </c>
+      <c r="H114" s="2" t="n">
+        <v>45930.02420138889</v>
+      </c>
+      <c r="I114" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>00:34:51</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="b">
+        <v>0</v>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555674134270001927', 'createTime': 1759192491, 'createTimeISO': '2025-09-30T00:34:51.000Z', 'text': 'yo lo consigo en una papelera sin comprar el yogur', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTot</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>10</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>pero sola mente sonos logos que disen todo yogo</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>1759191179</v>
+      </c>
+      <c r="H115" s="2" t="n">
+        <v>45930.0090162037</v>
+      </c>
+      <c r="I115" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>00:12:59</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="b">
+        <v>0</v>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555668487608582928', 'createTime': 1759191179, 'createTimeISO': '2025-09-30T00:12:59.000Z', 'text': 'pero sola mente sonos logos que disen todo yogo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal'</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>10</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr">
+        <is>
           <t>Por que en oxxo por que e
 En Colombia no hay tantos oxxos</t>
         </is>
       </c>
-      <c r="G107" t="n">
+      <c r="G116" t="n">
         <v>1759190618</v>
       </c>
-      <c r="H107" s="2" t="n">
+      <c r="H116" s="2" t="n">
         <v>45930.00252314815</v>
       </c>
-      <c r="I107" s="3" t="n">
+      <c r="I116" s="2" t="n">
         <v>45930</v>
       </c>
-      <c r="J107" t="inlineStr">
+      <c r="J116" t="inlineStr">
         <is>
           <t>00:03:38</t>
         </is>
       </c>
-      <c r="K107" t="n">
-        <v>0</v>
-      </c>
-      <c r="L107" t="n">
-        <v>0</v>
-      </c>
-      <c r="M107" t="b">
-        <v>0</v>
-      </c>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr">
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="b">
+        <v>0</v>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr">
         <is>
           <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555666073921553160', 'createTime': 1759190618, 'createTimeISO': '2025-09-30T00:03:38.000Z', 'text': 'Por que en oxxo por que e\nEn Colombia no hay tantos oxxos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCo</t>
         </is>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>10</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr">
+    <row r="117">
+      <c r="A117" t="n">
+        <v>10</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
         <is>
           <t>el otro año mochisauros q iluminan
 te dio hambre yogo yogo [sticker]</t>
         </is>
       </c>
-      <c r="G108" t="n">
+      <c r="G117" t="n">
         <v>1759189595</v>
       </c>
-      <c r="H108" s="2" t="n">
+      <c r="H117" s="2" t="n">
         <v>45929.99068287037</v>
       </c>
-      <c r="I108" s="3" t="n">
+      <c r="I117" s="2" t="n">
         <v>45929</v>
       </c>
-      <c r="J108" t="inlineStr">
+      <c r="J117" t="inlineStr">
         <is>
           <t>23:46:35</t>
-        </is>
-      </c>
-      <c r="K108" t="n">
-        <v>0</v>
-      </c>
-      <c r="L108" t="n">
-        <v>0</v>
-      </c>
-      <c r="M108" t="b">
-        <v>0</v>
-      </c>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555661675728044807', 'createTime': 1759189595, 'createTimeISO': '2025-09-29T23:46:35.000Z', 'text': 'el otro año mochisauros q iluminan\nte dio hambre yogo yogo [sticker]', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': Non</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>10</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>en muchos lugares no hay Oxxo no pensaron en nosotros</t>
-        </is>
-      </c>
-      <c r="G109" t="n">
-        <v>1759189556</v>
-      </c>
-      <c r="H109" s="2" t="n">
-        <v>45929.99023148148</v>
-      </c>
-      <c r="I109" s="3" t="n">
-        <v>45929</v>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>23:45:56</t>
-        </is>
-      </c>
-      <c r="K109" t="n">
-        <v>0</v>
-      </c>
-      <c r="L109" t="n">
-        <v>0</v>
-      </c>
-      <c r="M109" t="b">
-        <v>0</v>
-      </c>
-      <c r="N109" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555661460748206849', 'createTime': 1759189556, 'createTimeISO': '2025-09-29T23:45:56.000Z', 'text': 'en muchos lugares no hay Oxxo no pensaron en nosotros', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyComment</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>10</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>todos los lugares no tiene esa tienda entonces para que hacen eso</t>
-        </is>
-      </c>
-      <c r="G110" t="n">
-        <v>1759189151</v>
-      </c>
-      <c r="H110" s="2" t="n">
-        <v>45929.98554398148</v>
-      </c>
-      <c r="I110" s="3" t="n">
-        <v>45929</v>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>23:39:11</t>
-        </is>
-      </c>
-      <c r="K110" t="n">
-        <v>1</v>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="b">
-        <v>0</v>
-      </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555659801544475400', 'createTime': 1759189151, 'createTimeISO': '2025-09-29T23:39:11.000Z', 'text': 'todos los lugares no tiene esa tienda entonces para que hacen eso', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, '</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>10</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>ayer compré el yogo premio con la etiqueta de mochisaurios mi hijo con ilusión lo abrió y va y le sale de la coleccion pasada....Nooo así si nooo al menos quiten los de la coleccion pasada para que no pase esto</t>
-        </is>
-      </c>
-      <c r="G111" t="n">
-        <v>1759180125</v>
-      </c>
-      <c r="H111" s="2" t="n">
-        <v>45929.88107638889</v>
-      </c>
-      <c r="I111" s="3" t="n">
-        <v>45929</v>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>21:08:45</t>
-        </is>
-      </c>
-      <c r="K111" t="n">
-        <v>0</v>
-      </c>
-      <c r="L111" t="n">
-        <v>0</v>
-      </c>
-      <c r="M111" t="b">
-        <v>0</v>
-      </c>
-      <c r="N111" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr">
-        <is>
-          <t xml:space="preserve">{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555620990967153409', 'createTime': 1759180125, 'createTimeISO': '2025-09-29T21:08:45.000Z', 'text': 'ayer compré el yogo premio con la etiqueta de mochisaurios mi hijo con ilusión lo abrió y va y le sale de la coleccion pasada....Nooo así si nooo al menos </t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>10</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>los originales plissss</t>
-        </is>
-      </c>
-      <c r="G112" t="n">
-        <v>1759178348</v>
-      </c>
-      <c r="H112" s="2" t="n">
-        <v>45929.86050925926</v>
-      </c>
-      <c r="I112" s="3" t="n">
-        <v>45929</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>20:39:08</t>
-        </is>
-      </c>
-      <c r="K112" t="n">
-        <v>1</v>
-      </c>
-      <c r="L112" t="n">
-        <v>0</v>
-      </c>
-      <c r="M112" t="b">
-        <v>0</v>
-      </c>
-      <c r="N112" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555613367218963217', 'createTime': 1759178348, 'createTimeISO': '2025-09-29T20:39:08.000Z', 'text': 'los originales plissss', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '739486462654</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>10</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>no hay en Neiva 😓</t>
-        </is>
-      </c>
-      <c r="G113" t="n">
-        <v>1759168683</v>
-      </c>
-      <c r="H113" s="2" t="n">
-        <v>45929.74864583334</v>
-      </c>
-      <c r="I113" s="3" t="n">
-        <v>45929</v>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>17:58:03</t>
-        </is>
-      </c>
-      <c r="K113" t="n">
-        <v>0</v>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="b">
-        <v>0</v>
-      </c>
-      <c r="N113" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555571926753313544', 'createTime': 1759168683, 'createTimeISO': '2025-09-29T17:58:03.000Z', 'text': 'no hay en Neiva 😓', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '71820109153488578</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>10</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>QUE CALIDAD🗣️🗣️🗣</t>
-        </is>
-      </c>
-      <c r="G114" t="n">
-        <v>1759168678</v>
-      </c>
-      <c r="H114" s="2" t="n">
-        <v>45929.74858796296</v>
-      </c>
-      <c r="I114" s="3" t="n">
-        <v>45929</v>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>17:57:58</t>
-        </is>
-      </c>
-      <c r="K114" t="n">
-        <v>0</v>
-      </c>
-      <c r="L114" t="n">
-        <v>0</v>
-      </c>
-      <c r="M114" t="b">
-        <v>0</v>
-      </c>
-      <c r="N114" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555571878653592340', 'createTime': 1759168678, 'createTimeISO': '2025-09-29T17:57:58.000Z', 'text': 'QUE CALIDAD🗣️🗣️🗣', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '745831460311161344</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>10</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>saquen mochis en forma de looney toons 😁</t>
-        </is>
-      </c>
-      <c r="G115" t="n">
-        <v>1759167789</v>
-      </c>
-      <c r="H115" s="2" t="n">
-        <v>45929.73829861111</v>
-      </c>
-      <c r="I115" s="3" t="n">
-        <v>45929</v>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>17:43:09</t>
-        </is>
-      </c>
-      <c r="K115" t="n">
-        <v>2</v>
-      </c>
-      <c r="L115" t="n">
-        <v>0</v>
-      </c>
-      <c r="M115" t="b">
-        <v>0</v>
-      </c>
-      <c r="N115" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555568041485681424', 'createTime': 1759167789, 'createTimeISO': '2025-09-29T17:43:09.000Z', 'text': 'saquen mochis en forma de looney toons 😁', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'u</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>10</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>en todas las tiendas</t>
-        </is>
-      </c>
-      <c r="G116" t="n">
-        <v>1759165995</v>
-      </c>
-      <c r="H116" s="2" t="n">
-        <v>45929.71753472222</v>
-      </c>
-      <c r="I116" s="3" t="n">
-        <v>45929</v>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>17:13:15</t>
-        </is>
-      </c>
-      <c r="K116" t="n">
-        <v>0</v>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="b">
-        <v>0</v>
-      </c>
-      <c r="N116" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555560366673462037', 'createTime': 1759165995, 'createTimeISO': '2025-09-29T17:13:15.000Z', 'text': 'en todas las tiendas', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '72853820012501</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>10</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Excelente. Hacen falta estas promociones en los productos y que mejoren la calidad de la leche en bolsa</t>
-        </is>
-      </c>
-      <c r="G117" t="n">
-        <v>1759119502</v>
-      </c>
-      <c r="H117" s="2" t="n">
-        <v>45929.1794212963</v>
-      </c>
-      <c r="I117" s="3" t="n">
-        <v>45929</v>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>04:18:22</t>
         </is>
       </c>
       <c r="K117" t="n">
@@ -7603,7 +7603,7 @@
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555360657135682321', 'createTime': 1759119502, 'createTimeISO': '2025-09-29T04:18:22.000Z', 'text': 'Excelente. Hacen falta estas promociones en los productos y que mejoren la calidad de la leche en bolsa', 'diggCount': 0, 'likedByAuthor': False, 'pinnedBy</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555661675728044807', 'createTime': 1759189595, 'createTimeISO': '2025-09-29T23:46:35.000Z', 'text': 'el otro año mochisauros q iluminan\nte dio hambre yogo yogo [sticker]', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': Non</t>
         </is>
       </c>
     </row>
@@ -7629,28 +7629,28 @@
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr">
         <is>
-          <t>pero si ya corte los logos y no corte lo que dice mochisaurios y tampoco tengo el código??</t>
+          <t>en muchos lugares no hay Oxxo no pensaron en nosotros</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1759113614</v>
+        <v>1759189556</v>
       </c>
       <c r="H118" s="2" t="n">
-        <v>45929.11127314815</v>
-      </c>
-      <c r="I118" s="3" t="n">
+        <v>45929.99023148148</v>
+      </c>
+      <c r="I118" s="2" t="n">
         <v>45929</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>02:40:14</t>
+          <t>23:45:56</t>
         </is>
       </c>
       <c r="K118" t="n">
         <v>0</v>
       </c>
       <c r="L118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M118" t="b">
         <v>0</v>
@@ -7663,7 +7663,7 @@
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555335413934981895', 'createTime': 1759113614, 'createTimeISO': '2025-09-29T02:40:14.000Z', 'text': 'pero si ya corte los logos y no corte lo que dice mochisaurios y tampoco tengo el código??', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': Fals</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555661460748206849', 'createTime': 1759189556, 'createTimeISO': '2025-09-29T23:45:56.000Z', 'text': 'en muchos lugares no hay Oxxo no pensaron en nosotros', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyComment</t>
         </is>
       </c>
     </row>
@@ -7689,28 +7689,28 @@
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr">
         <is>
-          <t>es mejor la paleta Drácula</t>
+          <t>todos los lugares no tiene esa tienda entonces para que hacen eso</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1759112434</v>
+        <v>1759189151</v>
       </c>
       <c r="H119" s="2" t="n">
-        <v>45929.09761574074</v>
-      </c>
-      <c r="I119" s="3" t="n">
+        <v>45929.98554398148</v>
+      </c>
+      <c r="I119" s="2" t="n">
         <v>45929</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>02:20:34</t>
+          <t>23:39:11</t>
         </is>
       </c>
       <c r="K119" t="n">
         <v>1</v>
       </c>
       <c r="L119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M119" t="b">
         <v>0</v>
@@ -7723,7 +7723,7 @@
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555330316220629781', 'createTime': 1759112434, 'createTimeISO': '2025-09-29T02:20:34.000Z', 'text': 'es mejor la paleta Drácula', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '74702433</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555659801544475400', 'createTime': 1759189151, 'createTimeISO': '2025-09-29T23:39:11.000Z', 'text': 'todos los lugares no tiene esa tienda entonces para que hacen eso', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, '</t>
         </is>
       </c>
     </row>
@@ -7749,25 +7749,25 @@
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Tanta cosa para uno</t>
+          <t>Siempre me toca el mismo caracol amarillo 🥺</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1759104165</v>
+        <v>1759186947</v>
       </c>
       <c r="H120" s="2" t="n">
-        <v>45929.00190972222</v>
+        <v>45929.96003472222</v>
       </c>
       <c r="I120" s="3" t="n">
         <v>45929</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>00:02:45</t>
+          <t>23:02:27</t>
         </is>
       </c>
       <c r="K120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
         <v>0</v>
@@ -7783,7 +7783,7 @@
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555294742864954119', 'createTime': 1759104165, 'createTimeISO': '2025-09-29T00:02:45.000Z', 'text': 'Tanta cosa para uno', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '724391215816946</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555650338171339527', 'createTime': 1759186947, 'createTimeISO': '2025-09-29T23:02:27.000Z', 'text': 'Siempre me toca el mismo caracol amarillo 🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0,</t>
         </is>
       </c>
     </row>
@@ -7809,25 +7809,25 @@
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr">
         <is>
-          <t>ya we déjenlo pasar🥀</t>
+          <t>ayer compré el yogo premio con la etiqueta de mochisaurios mi hijo con ilusión lo abrió y va y le sale de la coleccion pasada....Nooo así si nooo al menos quiten los de la coleccion pasada para que no pase esto</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1759100400</v>
+        <v>1759180125</v>
       </c>
       <c r="H121" s="2" t="n">
-        <v>45928.95833333334</v>
-      </c>
-      <c r="I121" s="3" t="n">
-        <v>45928</v>
+        <v>45929.88107638889</v>
+      </c>
+      <c r="I121" s="2" t="n">
+        <v>45929</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>23:00:00</t>
+          <t>21:08:45</t>
         </is>
       </c>
       <c r="K121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L121" t="n">
         <v>0</v>
@@ -7843,7 +7843,7 @@
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555278564566205204', 'createTime': 1759100400, 'createTimeISO': '2025-09-28T23:00:00.000Z', 'text': 'ya we déjenlo pasar🥀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '74429383902517</t>
+          <t xml:space="preserve">{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555620990967153409', 'createTime': 1759180125, 'createTimeISO': '2025-09-29T21:08:45.000Z', 'text': 'ayer compré el yogo premio con la etiqueta de mochisaurios mi hijo con ilusión lo abrió y va y le sale de la coleccion pasada....Nooo así si nooo al menos </t>
         </is>
       </c>
     </row>
@@ -7869,28 +7869,28 @@
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr">
         <is>
-          <t>en Colombia no hay OXXO</t>
+          <t>los originales plissss</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1759088333</v>
+        <v>1759178348</v>
       </c>
       <c r="H122" s="2" t="n">
-        <v>45928.81866898148</v>
-      </c>
-      <c r="I122" s="3" t="n">
-        <v>45928</v>
+        <v>45929.86050925926</v>
+      </c>
+      <c r="I122" s="2" t="n">
+        <v>45929</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>19:38:53</t>
+          <t>20:39:08</t>
         </is>
       </c>
       <c r="K122" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L122" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M122" t="b">
         <v>0</v>
@@ -7903,7 +7903,7 @@
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555226815825003282', 'createTime': 1759088333, 'createTimeISO': '2025-09-28T19:38:53.000Z', 'text': 'en Colombia no hay OXXO', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 10, 'uid': '7239017294</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555613367218963217', 'createTime': 1759178348, 'createTimeISO': '2025-09-29T20:39:08.000Z', 'text': 'los originales plissss', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '739486462654</t>
         </is>
       </c>
     </row>
@@ -7929,28 +7929,28 @@
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr">
         <is>
-          <t>son mejores los de colanta</t>
+          <t>Yo tengo el Oxxo a la esquina</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1759084089</v>
+        <v>1759175408</v>
       </c>
       <c r="H123" s="2" t="n">
-        <v>45928.76954861111</v>
+        <v>45929.82648148148</v>
       </c>
       <c r="I123" s="3" t="n">
-        <v>45928</v>
+        <v>45929</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>18:28:09</t>
+          <t>19:50:08</t>
         </is>
       </c>
       <c r="K123" t="n">
         <v>0</v>
       </c>
       <c r="L123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M123" t="b">
         <v>0</v>
@@ -7963,7 +7963,7 @@
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555208572725822228', 'createTime': 1759084089, 'createTimeISO': '2025-09-28T18:28:09.000Z', 'text': 'son mejores los de colanta', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '69700947</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555600732201698064', 'createTime': 1759175408, 'createTimeISO': '2025-09-29T19:50:08.000Z', 'text': 'Yo tengo el Oxxo a la esquina', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '69986</t>
         </is>
       </c>
     </row>
@@ -7989,28 +7989,28 @@
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Mucha vaina pa eso</t>
+          <t>no hay en Neiva 😓</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1759083275</v>
+        <v>1759168683</v>
       </c>
       <c r="H124" s="2" t="n">
-        <v>45928.76012731482</v>
-      </c>
-      <c r="I124" s="3" t="n">
-        <v>45928</v>
+        <v>45929.74864583334</v>
+      </c>
+      <c r="I124" s="2" t="n">
+        <v>45929</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>18:14:35</t>
+          <t>17:58:03</t>
         </is>
       </c>
       <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
         <v>1</v>
-      </c>
-      <c r="L124" t="n">
-        <v>0</v>
       </c>
       <c r="M124" t="b">
         <v>0</v>
@@ -8023,7 +8023,7 @@
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555205113074369287', 'createTime': 1759083275, 'createTimeISO': '2025-09-28T18:14:35.000Z', 'text': 'Mucha vaina pa eso', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6936408559421850</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555571926753313544', 'createTime': 1759168683, 'createTimeISO': '2025-09-29T17:58:03.000Z', 'text': 'no hay en Neiva 😓', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '71820109153488578</t>
         </is>
       </c>
     </row>
@@ -8049,25 +8049,25 @@
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Soy de Colombia y vivo alado de un oxxo!! Yeii qué bien 😭💓💓</t>
+          <t>QUE CALIDAD🗣️🗣️🗣</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1759077817</v>
+        <v>1759168678</v>
       </c>
       <c r="H125" s="2" t="n">
-        <v>45928.69695601852</v>
-      </c>
-      <c r="I125" s="3" t="n">
-        <v>45928</v>
+        <v>45929.74858796296</v>
+      </c>
+      <c r="I125" s="2" t="n">
+        <v>45929</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>16:43:37</t>
+          <t>17:57:58</t>
         </is>
       </c>
       <c r="K125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L125" t="n">
         <v>0</v>
@@ -8083,7 +8083,7 @@
       <c r="O125" t="inlineStr"/>
       <c r="P125" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555181660511683346', 'createTime': 1759077817, 'createTimeISO': '2025-09-28T16:43:37.000Z', 'text': 'Soy de Colombia y vivo alado de un oxxo!! Yeii qué bien 😭💓💓', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyC</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555571878653592340', 'createTime': 1759168678, 'createTimeISO': '2025-09-29T17:57:58.000Z', 'text': 'QUE CALIDAD🗣️🗣️🗣', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '745831460311161344</t>
         </is>
       </c>
     </row>
@@ -8109,28 +8109,28 @@
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr">
         <is>
-          <t>mucho trabajo para un muñeco</t>
+          <t>saquen mochis en forma de looney toons 😁</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1759028194</v>
+        <v>1759167789</v>
       </c>
       <c r="H126" s="2" t="n">
-        <v>45928.12261574074</v>
-      </c>
-      <c r="I126" s="3" t="n">
-        <v>45928</v>
+        <v>45929.73829861111</v>
+      </c>
+      <c r="I126" s="2" t="n">
+        <v>45929</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>02:56:34</t>
+          <t>17:43:09</t>
         </is>
       </c>
       <c r="K126" t="n">
-        <v>178</v>
+        <v>2</v>
       </c>
       <c r="L126" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M126" t="b">
         <v>0</v>
@@ -8143,7 +8143,7 @@
       <c r="O126" t="inlineStr"/>
       <c r="P126" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554968530820268818', 'createTime': 1759028194, 'createTimeISO': '2025-09-28T02:56:34.000Z', 'text': 'mucho trabajo para un muñeco', 'diggCount': 178, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 8, 'uid': '6900</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555568041485681424', 'createTime': 1759167789, 'createTimeISO': '2025-09-29T17:43:09.000Z', 'text': 'saquen mochis en forma de looney toons 😁', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'u</t>
         </is>
       </c>
     </row>
@@ -8169,28 +8169,28 @@
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Mas fácil conseguirlos en el yogo premio</t>
+          <t>en todas las tiendas</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1759017005</v>
+        <v>1759165995</v>
       </c>
       <c r="H127" s="2" t="n">
-        <v>45927.99311342592</v>
-      </c>
-      <c r="I127" s="3" t="n">
-        <v>45927</v>
+        <v>45929.71753472222</v>
+      </c>
+      <c r="I127" s="2" t="n">
+        <v>45929</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>23:50:05</t>
+          <t>17:13:15</t>
         </is>
       </c>
       <c r="K127" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="L127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M127" t="b">
         <v>0</v>
@@ -8203,7 +8203,7 @@
       <c r="O127" t="inlineStr"/>
       <c r="P127" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554920371642204949', 'createTime': 1759017005, 'createTimeISO': '2025-09-27T23:50:05.000Z', 'text': 'Mas fácil conseguirlos en el yogo premio', 'diggCount': 38, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, '</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555560366673462037', 'createTime': 1759165995, 'createTimeISO': '2025-09-29T17:13:15.000Z', 'text': 'en todas las tiendas', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '72853820012501</t>
         </is>
       </c>
     </row>
@@ -8229,28 +8229,28 @@
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr">
         <is>
-          <t>yo no los incuentroo</t>
+          <t>part 2</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1759015389</v>
+        <v>1759153267</v>
       </c>
       <c r="H128" s="2" t="n">
-        <v>45927.97440972222</v>
+        <v>45929.57021990741</v>
       </c>
       <c r="I128" s="3" t="n">
-        <v>45927</v>
+        <v>45929</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>23:23:09</t>
+          <t>13:41:07</t>
         </is>
       </c>
       <c r="K128" t="n">
         <v>0</v>
       </c>
       <c r="L128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M128" t="b">
         <v>0</v>
@@ -8263,7 +8263,7 @@
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554913487688909576', 'createTime': 1759015389, 'createTimeISO': '2025-09-27T23:23:09.000Z', 'text': 'yo no los incuentroo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '75193555878112</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555505705790538514', 'createTime': 1759153267, 'createTimeISO': '2025-09-29T13:41:07.000Z', 'text': 'part 2', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7518189866266526728', 'uniqu</t>
         </is>
       </c>
     </row>
@@ -8289,21 +8289,21 @@
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Y si en Neiva no hay Oxxo 😐</t>
+          <t>Los quieroooooo</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1759007960</v>
+        <v>1759146832</v>
       </c>
       <c r="H129" s="2" t="n">
-        <v>45927.88842592593</v>
+        <v>45929.49574074074</v>
       </c>
       <c r="I129" s="3" t="n">
-        <v>45927</v>
+        <v>45929</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>21:19:20</t>
+          <t>11:53:52</t>
         </is>
       </c>
       <c r="K129" t="n">
@@ -8323,7 +8323,7 @@
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554881592553718535', 'createTime': 1759007960, 'createTimeISO': '2025-09-27T21:19:20.000Z', 'text': 'Y si en Neiva no hay Oxxo 😐', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7525546</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555478087270515477', 'createTime': 1759146832, 'createTimeISO': '2025-09-29T11:53:52.000Z', 'text': 'Los quieroooooo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6886209614263403522</t>
         </is>
       </c>
     </row>
@@ -8349,28 +8349,28 @@
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Aquí en Cartagena no ha Oxxos 🥺🥺🥺</t>
+          <t>Excelente. Hacen falta estas promociones en los productos y que mejoren la calidad de la leche en bolsa</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1758990084</v>
+        <v>1759119502</v>
       </c>
       <c r="H130" s="2" t="n">
-        <v>45927.68152777778</v>
-      </c>
-      <c r="I130" s="3" t="n">
-        <v>45927</v>
+        <v>45929.1794212963</v>
+      </c>
+      <c r="I130" s="2" t="n">
+        <v>45929</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>16:21:24</t>
+          <t>04:18:22</t>
         </is>
       </c>
       <c r="K130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M130" t="b">
         <v>0</v>
@@ -8383,7 +8383,7 @@
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554804848962847506', 'createTime': 1758990084, 'createTimeISO': '2025-09-27T16:21:24.000Z', 'text': 'Aquí en Cartagena no ha Oxxos 🥺🥺🥺', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555360657135682321', 'createTime': 1759119502, 'createTimeISO': '2025-09-29T04:18:22.000Z', 'text': 'Excelente. Hacen falta estas promociones en los productos y que mejoren la calidad de la leche en bolsa', 'diggCount': 0, 'likedByAuthor': False, 'pinnedBy</t>
         </is>
       </c>
     </row>
@@ -8409,28 +8409,28 @@
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Que pereza tan vuelta!! y aquí estamos en Colombia porque una tienda de otra parte que no tiene presencia en toda Colombia.</t>
+          <t>pero si ya corte los logos y no corte lo que dice mochisaurios y tampoco tengo el código??</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1758988615</v>
+        <v>1759113614</v>
       </c>
       <c r="H131" s="2" t="n">
-        <v>45927.66452546296</v>
-      </c>
-      <c r="I131" s="3" t="n">
-        <v>45927</v>
+        <v>45929.11127314815</v>
+      </c>
+      <c r="I131" s="2" t="n">
+        <v>45929</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>15:56:55</t>
+          <t>02:40:14</t>
         </is>
       </c>
       <c r="K131" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M131" t="b">
         <v>0</v>
@@ -8443,7 +8443,7 @@
       <c r="O131" t="inlineStr"/>
       <c r="P131" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554798543229666055', 'createTime': 1758988615, 'createTimeISO': '2025-09-27T15:56:55.000Z', 'text': 'Que pereza tan vuelta!! y aquí estamos en Colombia porque una tienda de otra parte que no tiene presencia en toda Colombia.', 'diggCount': 11, 'likedByAuth</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555335413934981895', 'createTime': 1759113614, 'createTimeISO': '2025-09-29T02:40:14.000Z', 'text': 'pero si ya corte los logos y no corte lo que dice mochisaurios y tampoco tengo el código??', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': Fals</t>
         </is>
       </c>
     </row>
@@ -8469,21 +8469,21 @@
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Los Amooo pero Uyy un montón de cosas para el recambio!</t>
+          <t>es mejor la paleta Drácula</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1758943306</v>
+        <v>1759112434</v>
       </c>
       <c r="H132" s="2" t="n">
-        <v>45927.14011574074</v>
-      </c>
-      <c r="I132" s="3" t="n">
-        <v>45927</v>
+        <v>45929.09761574074</v>
+      </c>
+      <c r="I132" s="2" t="n">
+        <v>45929</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>03:21:46</t>
+          <t>02:20:34</t>
         </is>
       </c>
       <c r="K132" t="n">
@@ -8503,7 +8503,7 @@
       <c r="O132" t="inlineStr"/>
       <c r="P132" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554603916571640577', 'createTime': 1758943306, 'createTimeISO': '2025-09-27T03:21:46.000Z', 'text': 'Los Amooo pero Uyy un montón de cosas para el recambio!', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyComme</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555330316220629781', 'createTime': 1759112434, 'createTimeISO': '2025-09-29T02:20:34.000Z', 'text': 'es mejor la paleta Drácula', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '74702433</t>
         </is>
       </c>
     </row>
@@ -8529,28 +8529,28 @@
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr">
         <is>
-          <t>y si ya corte los logos y no dice mochi saurios y ya vote el empaque con el qr</t>
+          <t>Tanta cosa para uno</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1758935989</v>
+        <v>1759104165</v>
       </c>
       <c r="H133" s="2" t="n">
-        <v>45927.05542824074</v>
-      </c>
-      <c r="I133" s="3" t="n">
-        <v>45927</v>
+        <v>45929.00190972222</v>
+      </c>
+      <c r="I133" s="2" t="n">
+        <v>45929</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>01:19:49</t>
+          <t>00:02:45</t>
         </is>
       </c>
       <c r="K133" t="n">
         <v>1</v>
       </c>
       <c r="L133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M133" t="b">
         <v>0</v>
@@ -8563,7 +8563,7 @@
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554572506653803272', 'createTime': 1758935989, 'createTimeISO': '2025-09-27T01:19:49.000Z', 'text': 'y si ya corte los logos y no dice mochi saurios y ya vote el empaque con el qr', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesT</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555294742864954119', 'createTime': 1759104165, 'createTimeISO': '2025-09-29T00:02:45.000Z', 'text': 'Tanta cosa para uno', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '724391215816946</t>
         </is>
       </c>
     </row>
@@ -8589,21 +8589,21 @@
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr">
         <is>
-          <t>de cuánto se pueden reclamar</t>
+          <t>ya we déjenlo pasar🥀</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1758934166</v>
+        <v>1759100400</v>
       </c>
       <c r="H134" s="2" t="n">
-        <v>45927.0343287037</v>
-      </c>
-      <c r="I134" s="3" t="n">
-        <v>45927</v>
+        <v>45928.95833333334</v>
+      </c>
+      <c r="I134" s="2" t="n">
+        <v>45928</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>00:49:26</t>
+          <t>23:00:00</t>
         </is>
       </c>
       <c r="K134" t="n">
@@ -8623,7 +8623,7 @@
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554564660893696776', 'createTime': 1758934166, 'createTimeISO': '2025-09-27T00:49:26.000Z', 'text': 'de cuánto se pueden reclamar', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '719750</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555278564566205204', 'createTime': 1759100400, 'createTimeISO': '2025-09-28T23:00:00.000Z', 'text': 'ya we déjenlo pasar🥀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '74429383902517</t>
         </is>
       </c>
     </row>
@@ -8649,21 +8649,21 @@
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr">
         <is>
-          <t>ya me salio el morado</t>
+          <t>yo los tengo tengo el rosado y el azul</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1758929462</v>
+        <v>1759100154</v>
       </c>
       <c r="H135" s="2" t="n">
-        <v>45926.97988425926</v>
+        <v>45928.95548611111</v>
       </c>
       <c r="I135" s="3" t="n">
-        <v>45926</v>
+        <v>45928</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>23:31:02</t>
+          <t>22:55:54</t>
         </is>
       </c>
       <c r="K135" t="n">
@@ -8683,7 +8683,7 @@
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554544444331328263', 'createTime': 1758929462, 'createTimeISO': '2025-09-26T23:31:02.000Z', 'text': 'ya me salio el morado', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7343027455776</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555277557701575431', 'createTime': 1759100154, 'createTimeISO': '2025-09-28T22:55:54.000Z', 'text': 'yo los tengo tengo el rosado y el azul', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid</t>
         </is>
       </c>
     </row>
@@ -8709,28 +8709,28 @@
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr">
         <is>
-          <t>saquen ya otra colección 😕</t>
+          <t>acá en mi ciudad no hay</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1758928043</v>
+        <v>1759091657</v>
       </c>
       <c r="H136" s="2" t="n">
-        <v>45926.96346064815</v>
+        <v>45928.85714120371</v>
       </c>
       <c r="I136" s="3" t="n">
-        <v>45926</v>
+        <v>45928</v>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>23:07:23</t>
+          <t>20:34:17</t>
         </is>
       </c>
       <c r="K136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L136" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M136" t="b">
         <v>0</v>
@@ -8743,7 +8743,7 @@
       <c r="O136" t="inlineStr"/>
       <c r="P136" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554538366990189319', 'createTime': 1758928043, 'createTimeISO': '2025-09-26T23:07:23.000Z', 'text': 'saquen ya otra colección 😕', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 6, 'uid': '74305566</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555241088127124242', 'createTime': 1759091657, 'createTimeISO': '2025-09-28T20:34:17.000Z', 'text': 'acá en mi ciudad no hay', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '75471701674</t>
         </is>
       </c>
     </row>
@@ -8769,28 +8769,28 @@
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr">
         <is>
-          <t>y las lavadoras?</t>
+          <t>ya se dieron cuenta que Coca-Cola trajo nuevamente los hielocos.</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1758925068</v>
+        <v>1759089211</v>
       </c>
       <c r="H137" s="2" t="n">
-        <v>45926.92902777778</v>
+        <v>45928.82883101852</v>
       </c>
       <c r="I137" s="3" t="n">
-        <v>45926</v>
+        <v>45928</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>22:17:48</t>
+          <t>19:53:31</t>
         </is>
       </c>
       <c r="K137" t="n">
         <v>0</v>
       </c>
       <c r="L137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M137" t="b">
         <v>0</v>
@@ -8803,7 +8803,7 @@
       <c r="O137" t="inlineStr"/>
       <c r="P137" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554525489421386516', 'createTime': 1758925068, 'createTimeISO': '2025-09-26T22:17:48.000Z', 'text': 'y las lavadoras?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '739052414280066765</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555230564963648264', 'createTime': 1759089211, 'createTimeISO': '2025-09-28T19:53:31.000Z', 'text': 'ya se dieron cuenta que Coca-Cola trajo nuevamente los hielocos.', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'r</t>
         </is>
       </c>
     </row>
@@ -8829,28 +8829,28 @@
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Hay un Oxxo al lado de mi casa literalmente AJJAJAJAJA</t>
+          <t>en Colombia no hay OXXO</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1758922793</v>
+        <v>1759088333</v>
       </c>
       <c r="H138" s="2" t="n">
-        <v>45926.90269675926</v>
-      </c>
-      <c r="I138" s="3" t="n">
-        <v>45926</v>
+        <v>45928.81866898148</v>
+      </c>
+      <c r="I138" s="2" t="n">
+        <v>45928</v>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>21:39:53</t>
+          <t>19:38:53</t>
         </is>
       </c>
       <c r="K138" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L138" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M138" t="b">
         <v>0</v>
@@ -8863,7 +8863,7 @@
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554515810249687815', 'createTime': 1758922793, 'createTimeISO': '2025-09-26T21:39:53.000Z', 'text': 'Hay un Oxxo al lado de mi casa literalmente AJJAJAJAJA', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommen</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555226815825003282', 'createTime': 1759088333, 'createTimeISO': '2025-09-28T19:38:53.000Z', 'text': 'en Colombia no hay OXXO', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 10, 'uid': '7239017294</t>
         </is>
       </c>
     </row>
@@ -8889,25 +8889,25 @@
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr">
         <is>
-          <t>y si tengo repetidos no me los cambian 😂😂</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1758921475</v>
+        <v>1759087490</v>
       </c>
       <c r="H139" s="2" t="n">
-        <v>45926.88744212963</v>
+        <v>45928.80891203704</v>
       </c>
       <c r="I139" s="3" t="n">
-        <v>45926</v>
+        <v>45928</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>21:17:55</t>
+          <t>19:24:50</t>
         </is>
       </c>
       <c r="K139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L139" t="n">
         <v>0</v>
@@ -8923,7 +8923,7 @@
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554510104642650896', 'createTime': 1758921475, 'createTimeISO': '2025-09-26T21:17:55.000Z', 'text': 'y si tengo repetidos no me los cambian 😂😂', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, '</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555223199790154503', 'createTime': 1759087490, 'createTimeISO': '2025-09-28T19:24:50.000Z', 'text': 'ok', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6987105799349847046', 'uniqueId'</t>
         </is>
       </c>
     </row>
@@ -8949,21 +8949,21 @@
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr">
         <is>
-          <t>en colombia noa ah</t>
+          <t>alguien sabe si aceptan los mismos paquetes de los yogopremio? 🥹 los logos</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1758917604</v>
+        <v>1759086671</v>
       </c>
       <c r="H140" s="2" t="n">
-        <v>45926.84263888889</v>
+        <v>45928.79943287037</v>
       </c>
       <c r="I140" s="3" t="n">
-        <v>45926</v>
+        <v>45928</v>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>20:13:24</t>
+          <t>19:11:11</t>
         </is>
       </c>
       <c r="K140" t="n">
@@ -8983,7 +8983,7 @@
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554493529289638664', 'createTime': 1758917604, 'createTimeISO': '2025-09-26T20:13:24.000Z', 'text': 'en colombia noa ah', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7503310884556309</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555219507196871441', 'createTime': 1759086671, 'createTimeISO': '2025-09-28T19:11:11.000Z', 'text': 'alguien sabe si aceptan los mismos paquetes de los yogopremio? 🥹 los logos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId'</t>
         </is>
       </c>
     </row>
@@ -9009,28 +9009,28 @@
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr">
         <is>
-          <t>pero en mi ciudad no hay oxxo</t>
+          <t>yo soy de pitalito huila y no hay oxxo</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1758917152</v>
+        <v>1759084654</v>
       </c>
       <c r="H141" s="2" t="n">
-        <v>45926.83740740741</v>
+        <v>45928.77608796296</v>
       </c>
       <c r="I141" s="3" t="n">
-        <v>45926</v>
+        <v>45928</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>20:05:52</t>
+          <t>18:37:34</t>
         </is>
       </c>
       <c r="K141" t="n">
         <v>0</v>
       </c>
       <c r="L141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M141" t="b">
         <v>0</v>
@@ -9043,7 +9043,7 @@
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554491584386548498', 'createTime': 1758917152, 'createTimeISO': '2025-09-26T20:05:52.000Z', 'text': 'pero en mi ciudad no hay oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '72606</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555211031862461191', 'createTime': 1759084654, 'createTimeISO': '2025-09-28T18:37:34.000Z', 'text': 'yo soy de pitalito huila y no hay oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid</t>
         </is>
       </c>
     </row>
@@ -9069,25 +9069,25 @@
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr">
         <is>
-          <t>pasa lo mismo que con los Mochis anteriores va uno a reclamar y que no hay</t>
+          <t>son mejores los de colanta</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1758914668</v>
+        <v>1759084089</v>
       </c>
       <c r="H142" s="2" t="n">
-        <v>45926.8086574074</v>
-      </c>
-      <c r="I142" s="3" t="n">
-        <v>45926</v>
+        <v>45928.76954861111</v>
+      </c>
+      <c r="I142" s="2" t="n">
+        <v>45928</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>19:24:28</t>
+          <t>18:28:09</t>
         </is>
       </c>
       <c r="K142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L142" t="n">
         <v>0</v>
@@ -9103,7 +9103,7 @@
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554480920402084629', 'createTime': 1758914668, 'createTimeISO': '2025-09-26T19:24:28.000Z', 'text': 'pasa lo mismo que con los Mochis anteriores va uno a reclamar y que no hay', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId'</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555208572725822228', 'createTime': 1759084089, 'createTimeISO': '2025-09-28T18:28:09.000Z', 'text': 'son mejores los de colanta', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '69700947</t>
         </is>
       </c>
     </row>
@@ -9129,25 +9129,25 @@
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Y si me los regala😁😁</t>
+          <t>Mucha vaina pa eso</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1758913988</v>
+        <v>1759083275</v>
       </c>
       <c r="H143" s="2" t="n">
-        <v>45926.80078703703</v>
-      </c>
-      <c r="I143" s="3" t="n">
-        <v>45926</v>
+        <v>45928.76012731482</v>
+      </c>
+      <c r="I143" s="2" t="n">
+        <v>45928</v>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>19:13:08</t>
+          <t>18:14:35</t>
         </is>
       </c>
       <c r="K143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L143" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
       <c r="O143" t="inlineStr"/>
       <c r="P143" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554477929469657857', 'createTime': 1758913988, 'createTimeISO': '2025-09-26T19:13:08.000Z', 'text': 'Y si me los regala😁😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '75307607242570</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555205113074369287', 'createTime': 1759083275, 'createTimeISO': '2025-09-28T18:14:35.000Z', 'text': 'Mucha vaina pa eso', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6936408559421850</t>
         </is>
       </c>
     </row>
@@ -9189,28 +9189,28 @@
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Vuelvan los originales porfa😭</t>
+          <t>mi hijo tiene muchos ya</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1758909958</v>
+        <v>1759079658</v>
       </c>
       <c r="H144" s="2" t="n">
-        <v>45926.75414351852</v>
+        <v>45928.71826388889</v>
       </c>
       <c r="I144" s="3" t="n">
-        <v>45926</v>
+        <v>45928</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>18:05:58</t>
+          <t>17:14:18</t>
         </is>
       </c>
       <c r="K144" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="L144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M144" t="b">
         <v>0</v>
@@ -9223,7 +9223,7 @@
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554460671951520529', 'createTime': 1758909958, 'createTimeISO': '2025-09-26T18:05:58.000Z', 'text': 'Vuelvan los originales porfa😭', 'diggCount': 256, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '749</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555189568158171922', 'createTime': 1759079658, 'createTimeISO': '2025-09-28T17:14:18.000Z', 'text': 'mi hijo tiene muchos ya', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '71985917046</t>
         </is>
       </c>
     </row>
@@ -9249,28 +9249,28 @@
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr">
         <is>
-          <t>pero están en todos los países ?</t>
+          <t>Soy de Colombia y vivo alado de un oxxo!! Yeii qué bien 😭💓💓</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1758908149</v>
+        <v>1759077817</v>
       </c>
       <c r="H145" s="2" t="n">
-        <v>45926.73320601852</v>
-      </c>
-      <c r="I145" s="3" t="n">
-        <v>45926</v>
+        <v>45928.69695601852</v>
+      </c>
+      <c r="I145" s="2" t="n">
+        <v>45928</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>17:35:49</t>
+          <t>16:43:37</t>
         </is>
       </c>
       <c r="K145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M145" t="b">
         <v>0</v>
@@ -9283,7 +9283,7 @@
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554452916247216913', 'createTime': 1758908149, 'createTimeISO': '2025-09-26T17:35:49.000Z', 'text': 'pero están en todos los países ?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '75</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555181660511683346', 'createTime': 1759077817, 'createTimeISO': '2025-09-28T16:43:37.000Z', 'text': 'Soy de Colombia y vivo alado de un oxxo!! Yeii qué bien 😭💓💓', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyC</t>
         </is>
       </c>
     </row>
@@ -9309,28 +9309,28 @@
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr">
         <is>
-          <t>y si no hay en mi ciudad Oxxo?</t>
+          <t>eso pa que</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1758905800</v>
+        <v>1759037123</v>
       </c>
       <c r="H146" s="2" t="n">
-        <v>45926.70601851852</v>
+        <v>45928.22596064815</v>
       </c>
       <c r="I146" s="3" t="n">
-        <v>45926</v>
+        <v>45928</v>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>16:56:40</t>
+          <t>05:25:23</t>
         </is>
       </c>
       <c r="K146" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M146" t="b">
         <v>0</v>
@@ -9343,7 +9343,7 @@
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554442837019116305', 'createTime': 1758905800, 'createTimeISO': '2025-09-26T16:56:40.000Z', 'text': 'y si no hay en mi ciudad Oxxo?', 'diggCount': 11, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '705</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555006889290826503', 'createTime': 1759037123, 'createTimeISO': '2025-09-28T05:25:23.000Z', 'text': 'eso pa que', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7542870679370417160', 'u</t>
         </is>
       </c>
     </row>
@@ -9369,25 +9369,25 @@
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr">
         <is>
-          <t>tengo un montón de Mochis de la primera colección, valdrá mucho?</t>
+          <t>yo los compré y cuando lo abrí me salió una pa pegar en el bolso</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1758902700</v>
+        <v>1759029298</v>
       </c>
       <c r="H147" s="2" t="n">
-        <v>45926.67013888889</v>
+        <v>45928.13539351852</v>
       </c>
       <c r="I147" s="3" t="n">
-        <v>45926</v>
+        <v>45928</v>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>16:05:00</t>
+          <t>03:14:58</t>
         </is>
       </c>
       <c r="K147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L147" t="n">
         <v>0</v>
@@ -9402,6 +9402,1866 @@
       </c>
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554973274371982100', 'createTime': 1759029298, 'createTimeISO': '2025-09-28T03:14:58.000Z', 'text': 'yo los compré y cuando lo abrí me salió una pa pegar en el bolso', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'r</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>10</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>mucho trabajo para un muñeco</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>1759028194</v>
+      </c>
+      <c r="H148" s="2" t="n">
+        <v>45928.12261574074</v>
+      </c>
+      <c r="I148" s="2" t="n">
+        <v>45928</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>02:56:34</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>178</v>
+      </c>
+      <c r="L148" t="n">
+        <v>8</v>
+      </c>
+      <c r="M148" t="b">
+        <v>0</v>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554968530820268818', 'createTime': 1759028194, 'createTimeISO': '2025-09-28T02:56:34.000Z', 'text': 'mucho trabajo para un muñeco', 'diggCount': 178, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 8, 'uid': '6900</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>10</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>mi mala suerte, tenía dos abri un yogurt y me salió repetido</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>1759017803</v>
+      </c>
+      <c r="H149" s="2" t="n">
+        <v>45928.00234953704</v>
+      </c>
+      <c r="I149" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>00:03:23</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="b">
+        <v>0</v>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554923850959422215', 'createTime': 1759017803, 'createTimeISO': '2025-09-28T00:03:23.000Z', 'text': 'mi mala suerte, tenía dos abri un yogurt y me salió repetido', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'reply</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>10</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Mas fácil conseguirlos en el yogo premio</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>1759017005</v>
+      </c>
+      <c r="H150" s="2" t="n">
+        <v>45927.99311342592</v>
+      </c>
+      <c r="I150" s="2" t="n">
+        <v>45927</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>23:50:05</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>38</v>
+      </c>
+      <c r="L150" t="n">
+        <v>2</v>
+      </c>
+      <c r="M150" t="b">
+        <v>0</v>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554920371642204949', 'createTime': 1759017005, 'createTimeISO': '2025-09-27T23:50:05.000Z', 'text': 'Mas fácil conseguirlos en el yogo premio', 'diggCount': 38, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, '</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>10</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>pero en los yogo premio viene uno... no entiendo cuál es la diferencia</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>1759016158</v>
+      </c>
+      <c r="H151" s="2" t="n">
+        <v>45927.98331018518</v>
+      </c>
+      <c r="I151" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>23:35:58</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" t="b">
+        <v>0</v>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554916739622372116', 'createTime': 1759016158, 'createTimeISO': '2025-09-27T23:35:58.000Z', 'text': 'pero en los yogo premio viene uno... no entiendo cuál es la diferencia', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': No</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>10</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>yo no los incuentroo</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>1759015389</v>
+      </c>
+      <c r="H152" s="2" t="n">
+        <v>45927.97440972222</v>
+      </c>
+      <c r="I152" s="2" t="n">
+        <v>45927</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>23:23:09</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="b">
+        <v>0</v>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554913487688909576', 'createTime': 1759015389, 'createTimeISO': '2025-09-27T23:23:09.000Z', 'text': 'yo no los incuentroo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '75193555878112</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>10</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>GRQCIASS. ME DIOO UNOO😭💜</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>1759008261</v>
+      </c>
+      <c r="H153" s="2" t="n">
+        <v>45927.89190972222</v>
+      </c>
+      <c r="I153" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>21:24:21</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" t="b">
+        <v>0</v>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554882846906811137', 'createTime': 1759008261, 'createTimeISO': '2025-09-27T21:24:21.000Z', 'text': 'GRQCIASS. ME DIOO UNOO😭💜', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7306695570</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>10</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Y si en Neiva no hay Oxxo 😐</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>1759007960</v>
+      </c>
+      <c r="H154" s="2" t="n">
+        <v>45927.88842592593</v>
+      </c>
+      <c r="I154" s="2" t="n">
+        <v>45927</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>21:19:20</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="b">
+        <v>0</v>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554881592553718535', 'createTime': 1759007960, 'createTimeISO': '2025-09-27T21:19:20.000Z', 'text': 'Y si en Neiva no hay Oxxo 😐', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7525546</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>10</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>yo tengo el azul 🥹🥹🥹</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>1758994382</v>
+      </c>
+      <c r="H155" s="2" t="n">
+        <v>45927.73127314815</v>
+      </c>
+      <c r="I155" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>17:33:02</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="b">
+        <v>0</v>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554823300175905544', 'createTime': 1758994382, 'createTimeISO': '2025-09-27T17:33:02.000Z', 'text': 'yo tengo el azul 🥹🥹🥹', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '73578366161470</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>10</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Aquí en Cartagena no ha Oxxos 🥺🥺🥺</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>1758990084</v>
+      </c>
+      <c r="H156" s="2" t="n">
+        <v>45927.68152777778</v>
+      </c>
+      <c r="I156" s="2" t="n">
+        <v>45927</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>16:21:24</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="b">
+        <v>0</v>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554804848962847506', 'createTime': 1758990084, 'createTimeISO': '2025-09-27T16:21:24.000Z', 'text': 'Aquí en Cartagena no ha Oxxos 🥺🥺🥺', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>10</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Que pereza tan vuelta!! y aquí estamos en Colombia porque una tienda de otra parte que no tiene presencia en toda Colombia.</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>1758988615</v>
+      </c>
+      <c r="H157" s="2" t="n">
+        <v>45927.66452546296</v>
+      </c>
+      <c r="I157" s="2" t="n">
+        <v>45927</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>15:56:55</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>11</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M157" t="b">
+        <v>0</v>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554798543229666055', 'createTime': 1758988615, 'createTimeISO': '2025-09-27T15:56:55.000Z', 'text': 'Que pereza tan vuelta!! y aquí estamos en Colombia porque una tienda de otra parte que no tiene presencia en toda Colombia.', 'diggCount': 11, 'likedByAuth</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>10</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Los Amooo pero Uyy un montón de cosas para el recambio!</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>1758943306</v>
+      </c>
+      <c r="H158" s="2" t="n">
+        <v>45927.14011574074</v>
+      </c>
+      <c r="I158" s="2" t="n">
+        <v>45927</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>03:21:46</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" t="b">
+        <v>0</v>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554603916571640577', 'createTime': 1758943306, 'createTimeISO': '2025-09-27T03:21:46.000Z', 'text': 'Los Amooo pero Uyy un montón de cosas para el recambio!', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyComme</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>10</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>ami me salió un cocodrilo</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>1758936609</v>
+      </c>
+      <c r="H159" s="2" t="n">
+        <v>45927.06260416667</v>
+      </c>
+      <c r="I159" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>01:30:09</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M159" t="b">
+        <v>0</v>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O159" t="inlineStr"/>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554575152081535765', 'createTime': 1758936609, 'createTimeISO': '2025-09-27T01:30:09.000Z', 'text': 'ami me salió un cocodrilo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '688257028</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>10</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>y si ya corte los logos y no dice mochi saurios y ya vote el empaque con el qr</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>1758935989</v>
+      </c>
+      <c r="H160" s="2" t="n">
+        <v>45927.05542824074</v>
+      </c>
+      <c r="I160" s="2" t="n">
+        <v>45927</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>01:19:49</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="b">
+        <v>0</v>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O160" t="inlineStr"/>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554572506653803272', 'createTime': 1758935989, 'createTimeISO': '2025-09-27T01:19:49.000Z', 'text': 'y si ya corte los logos y no dice mochi saurios y ya vote el empaque con el qr', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesT</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>10</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Soy de Villavicencio acá no hay Oxxo</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>1758935985</v>
+      </c>
+      <c r="H161" s="2" t="n">
+        <v>45927.05538194445</v>
+      </c>
+      <c r="I161" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>01:19:45</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M161" t="b">
+        <v>0</v>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O161" t="inlineStr"/>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554572486869549832', 'createTime': 1758935985, 'createTimeISO': '2025-09-27T01:19:45.000Z', 'text': 'Soy de Villavicencio acá no hay Oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid':</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>10</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>y si en mi ciudad no hay OXXO 💔🥺</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>1758935082</v>
+      </c>
+      <c r="H162" s="2" t="n">
+        <v>45927.04493055555</v>
+      </c>
+      <c r="I162" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>01:04:42</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M162" t="b">
+        <v>0</v>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O162" t="inlineStr"/>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554568598334374674', 'createTime': 1758935082, 'createTimeISO': '2025-09-27T01:04:42.000Z', 'text': 'y si en mi ciudad no hay OXXO 💔🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '73</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>10</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>menos mal, porque esos mini Mochis nada que ver</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>1758934414</v>
+      </c>
+      <c r="H163" s="2" t="n">
+        <v>45927.03719907408</v>
+      </c>
+      <c r="I163" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>00:53:34</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M163" t="b">
+        <v>0</v>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O163" t="inlineStr"/>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554565731141354248', 'createTime': 1758934414, 'createTimeISO': '2025-09-27T00:53:34.000Z', 'text': 'menos mal, porque esos mini Mochis nada que ver', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal'</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>10</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>de cuánto se pueden reclamar</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>1758934166</v>
+      </c>
+      <c r="H164" s="2" t="n">
+        <v>45927.0343287037</v>
+      </c>
+      <c r="I164" s="2" t="n">
+        <v>45927</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>00:49:26</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M164" t="b">
+        <v>0</v>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O164" t="inlineStr"/>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554564660893696776', 'createTime': 1758934166, 'createTimeISO': '2025-09-27T00:49:26.000Z', 'text': 'de cuánto se pueden reclamar', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '719750</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>10</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>ya me salio el morado</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>1758929462</v>
+      </c>
+      <c r="H165" s="2" t="n">
+        <v>45926.97988425926</v>
+      </c>
+      <c r="I165" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>23:31:02</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M165" t="b">
+        <v>0</v>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O165" t="inlineStr"/>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554544444331328263', 'createTime': 1758929462, 'createTimeISO': '2025-09-26T23:31:02.000Z', 'text': 'ya me salio el morado', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7343027455776</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>10</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>saquen ya otra colección 😕</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>1758928043</v>
+      </c>
+      <c r="H166" s="2" t="n">
+        <v>45926.96346064815</v>
+      </c>
+      <c r="I166" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>23:07:23</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>3</v>
+      </c>
+      <c r="L166" t="n">
+        <v>6</v>
+      </c>
+      <c r="M166" t="b">
+        <v>0</v>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O166" t="inlineStr"/>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554538366990189319', 'createTime': 1758928043, 'createTimeISO': '2025-09-26T23:07:23.000Z', 'text': 'saquen ya otra colección 😕', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 6, 'uid': '74305566</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>10</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>y las lavadoras?</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>1758925068</v>
+      </c>
+      <c r="H167" s="2" t="n">
+        <v>45926.92902777778</v>
+      </c>
+      <c r="I167" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>22:17:48</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M167" t="b">
+        <v>0</v>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O167" t="inlineStr"/>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554525489421386516', 'createTime': 1758925068, 'createTimeISO': '2025-09-26T22:17:48.000Z', 'text': 'y las lavadoras?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '739052414280066765</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>10</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Hay un Oxxo al lado de mi casa literalmente AJJAJAJAJA</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>1758922793</v>
+      </c>
+      <c r="H168" s="2" t="n">
+        <v>45926.90269675926</v>
+      </c>
+      <c r="I168" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>21:39:53</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L168" t="n">
+        <v>2</v>
+      </c>
+      <c r="M168" t="b">
+        <v>0</v>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O168" t="inlineStr"/>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554515810249687815', 'createTime': 1758922793, 'createTimeISO': '2025-09-26T21:39:53.000Z', 'text': 'Hay un Oxxo al lado de mi casa literalmente AJJAJAJAJA', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommen</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>10</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>y si tengo repetidos no me los cambian 😂😂</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>1758921475</v>
+      </c>
+      <c r="H169" s="2" t="n">
+        <v>45926.88744212963</v>
+      </c>
+      <c r="I169" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>21:17:55</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M169" t="b">
+        <v>0</v>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O169" t="inlineStr"/>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554510104642650896', 'createTime': 1758921475, 'createTimeISO': '2025-09-26T21:17:55.000Z', 'text': 'y si tengo repetidos no me los cambian 😂😂', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, '</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>10</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>pero si no tengo un OXXO cerca 😃</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>1758920950</v>
+      </c>
+      <c r="H170" s="2" t="n">
+        <v>45926.88136574074</v>
+      </c>
+      <c r="I170" s="3" t="n">
+        <v>45926</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>21:09:10</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M170" t="b">
+        <v>0</v>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O170" t="inlineStr"/>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554507901999022866', 'createTime': 1758920950, 'createTimeISO': '2025-09-26T21:09:10.000Z', 'text': 'pero si no tengo un OXXO cerca 😃', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '75</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>10</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>en colombia noa ah</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>1758917604</v>
+      </c>
+      <c r="H171" s="2" t="n">
+        <v>45926.84263888889</v>
+      </c>
+      <c r="I171" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>20:13:24</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M171" t="b">
+        <v>0</v>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O171" t="inlineStr"/>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554493529289638664', 'createTime': 1758917604, 'createTimeISO': '2025-09-26T20:13:24.000Z', 'text': 'en colombia noa ah', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7503310884556309</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>10</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>pero en mi ciudad no hay oxxo</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>1758917152</v>
+      </c>
+      <c r="H172" s="2" t="n">
+        <v>45926.83740740741</v>
+      </c>
+      <c r="I172" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>20:05:52</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="b">
+        <v>0</v>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O172" t="inlineStr"/>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554491584386548498', 'createTime': 1758917152, 'createTimeISO': '2025-09-26T20:05:52.000Z', 'text': 'pero en mi ciudad no hay oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '72606</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>10</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>pasa lo mismo que con los Mochis anteriores va uno a reclamar y que no hay</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>1758914668</v>
+      </c>
+      <c r="H173" s="2" t="n">
+        <v>45926.8086574074</v>
+      </c>
+      <c r="I173" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>19:24:28</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>3</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M173" t="b">
+        <v>0</v>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O173" t="inlineStr"/>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554480920402084629', 'createTime': 1758914668, 'createTimeISO': '2025-09-26T19:24:28.000Z', 'text': 'pasa lo mismo que con los Mochis anteriores va uno a reclamar y que no hay', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId'</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>10</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Y si me los regala😁😁</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>1758913988</v>
+      </c>
+      <c r="H174" s="2" t="n">
+        <v>45926.80078703703</v>
+      </c>
+      <c r="I174" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>19:13:08</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" t="b">
+        <v>0</v>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O174" t="inlineStr"/>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554477929469657857', 'createTime': 1758913988, 'createTimeISO': '2025-09-26T19:13:08.000Z', 'text': 'Y si me los regala😁😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '75307607242570</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>10</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Vuelvan los originales porfa😭</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>1758909958</v>
+      </c>
+      <c r="H175" s="2" t="n">
+        <v>45926.75414351852</v>
+      </c>
+      <c r="I175" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>18:05:58</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>256</v>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="b">
+        <v>0</v>
+      </c>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O175" t="inlineStr"/>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554460671951520529', 'createTime': 1758909958, 'createTimeISO': '2025-09-26T18:05:58.000Z', 'text': 'Vuelvan los originales porfa😭', 'diggCount': 256, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '749</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>10</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>pero están en todos los países ?</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>1758908149</v>
+      </c>
+      <c r="H176" s="2" t="n">
+        <v>45926.73320601852</v>
+      </c>
+      <c r="I176" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>17:35:49</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" t="n">
+        <v>2</v>
+      </c>
+      <c r="M176" t="b">
+        <v>0</v>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O176" t="inlineStr"/>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554452916247216913', 'createTime': 1758908149, 'createTimeISO': '2025-09-26T17:35:49.000Z', 'text': 'pero están en todos los países ?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '75</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>10</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>y si no hay en mi ciudad Oxxo?</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>1758905800</v>
+      </c>
+      <c r="H177" s="2" t="n">
+        <v>45926.70601851852</v>
+      </c>
+      <c r="I177" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>16:56:40</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>11</v>
+      </c>
+      <c r="L177" t="n">
+        <v>3</v>
+      </c>
+      <c r="M177" t="b">
+        <v>0</v>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O177" t="inlineStr"/>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554442837019116305', 'createTime': 1758905800, 'createTimeISO': '2025-09-26T16:56:40.000Z', 'text': 'y si no hay en mi ciudad Oxxo?', 'diggCount': 11, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '705</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>10</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>tengo un montón de Mochis de la primera colección, valdrá mucho?</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>1758902700</v>
+      </c>
+      <c r="H178" s="2" t="n">
+        <v>45926.67013888889</v>
+      </c>
+      <c r="I178" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>16:05:00</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M178" t="b">
+        <v>0</v>
+      </c>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O178" t="inlineStr"/>
+      <c r="P178" t="inlineStr">
         <is>
           <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554429537663386376', 'createTime': 1758902700, 'createTimeISO': '2025-09-26T16:05:00.000Z', 'text': 'tengo un montón de Mochis de la primera colección, valdrá mucho?', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'r</t>
         </is>
@@ -9709,7 +11569,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E11" t="n">
         <v>537</v>
@@ -9815,10 +11675,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="D4" t="n">
-        <v>5.37</v>
+        <v>4.1</v>
       </c>
       <c r="E4" t="n">
         <v>537</v>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P178"/>
+  <dimension ref="A1:P187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3555,7 +3555,7 @@
       <c r="H50" s="2" t="n">
         <v>45945.00143518519</v>
       </c>
-      <c r="I50" s="3" t="n">
+      <c r="I50" s="2" t="n">
         <v>45945</v>
       </c>
       <c r="J50" t="inlineStr">
@@ -3966,21 +3966,21 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>no los venden? saldría más económico.</t>
+          <t>no hay plata 💔</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1760308078</v>
+        <v>1760324355</v>
       </c>
       <c r="H57" s="2" t="n">
-        <v>45942.93608796296</v>
-      </c>
-      <c r="I57" s="2" t="n">
-        <v>45942</v>
+        <v>45943.12447916667</v>
+      </c>
+      <c r="I57" s="3" t="n">
+        <v>45943</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>22:27:58</t>
+          <t>02:59:15</t>
         </is>
       </c>
       <c r="K57" t="n">
@@ -4000,7 +4000,7 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560465563730920199', 'createTime': 1760308078, 'createTimeISO': '2025-10-12T22:27:58.000Z', 'text': 'no los venden? saldría más económico.', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid'</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560535489130300168', 'createTime': 1760324355, 'createTimeISO': '2025-10-13T02:59:15.000Z', 'text': 'no hay plata 💔', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7455861170257249300'</t>
         </is>
       </c>
     </row>
@@ -4026,21 +4026,21 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Ya tengo 8</t>
+          <t>no los venden? saldría más económico.</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1760299910</v>
+        <v>1760308078</v>
       </c>
       <c r="H58" s="2" t="n">
-        <v>45942.84155092593</v>
+        <v>45942.93608796296</v>
       </c>
       <c r="I58" s="2" t="n">
         <v>45942</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>20:11:50</t>
+          <t>22:27:58</t>
         </is>
       </c>
       <c r="K58" t="n">
@@ -4060,7 +4060,7 @@
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560430479338930962', 'createTime': 1760299910, 'createTimeISO': '2025-10-12T20:11:50.000Z', 'text': 'Ya tengo 8', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7420101536925713413', 'u</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560465563730920199', 'createTime': 1760308078, 'createTimeISO': '2025-10-12T22:27:58.000Z', 'text': 'no los venden? saldría más económico.', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid'</t>
         </is>
       </c>
     </row>
@@ -4086,21 +4086,21 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>18,4</t>
+          <t>Ya tengo 8</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1760296080</v>
+        <v>1760299910</v>
       </c>
       <c r="H59" s="2" t="n">
-        <v>45942.79722222222</v>
+        <v>45942.84155092593</v>
       </c>
       <c r="I59" s="2" t="n">
         <v>45942</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>19:08:00</t>
+          <t>20:11:50</t>
         </is>
       </c>
       <c r="K59" t="n">
@@ -4120,7 +4120,7 @@
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560414054448366354', 'createTime': 1760296080, 'createTimeISO': '2025-10-12T19:08:00.000Z', 'text': '18,4', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7381118081303659525', 'uniqueI</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560430479338930962', 'createTime': 1760299910, 'createTimeISO': '2025-10-12T20:11:50.000Z', 'text': 'Ya tengo 8', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7420101536925713413', 'u</t>
         </is>
       </c>
     </row>
@@ -4146,21 +4146,21 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>si algo eso cuántos Mochis me dan</t>
+          <t>18,4</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1760290654</v>
+        <v>1760296080</v>
       </c>
       <c r="H60" s="2" t="n">
-        <v>45942.7344212963</v>
+        <v>45942.79722222222</v>
       </c>
       <c r="I60" s="2" t="n">
         <v>45942</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>17:37:34</t>
+          <t>19:08:00</t>
         </is>
       </c>
       <c r="K60" t="n">
@@ -4180,7 +4180,7 @@
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560390745014960912', 'createTime': 1760290654, 'createTimeISO': '2025-10-12T17:37:34.000Z', 'text': 'si algo eso cuántos Mochis me dan', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560414054448366354', 'createTime': 1760296080, 'createTimeISO': '2025-10-12T19:08:00.000Z', 'text': '18,4', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7381118081303659525', 'uniqueI</t>
         </is>
       </c>
     </row>
@@ -4206,21 +4206,21 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>4!? me e comprado 3 y no me sabía está :(</t>
+          <t>si algo eso cuántos Mochis me dan</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1760222183</v>
+        <v>1760290654</v>
       </c>
       <c r="H61" s="2" t="n">
-        <v>45941.94193287037</v>
+        <v>45942.7344212963</v>
       </c>
       <c r="I61" s="2" t="n">
-        <v>45941</v>
+        <v>45942</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>22:36:23</t>
+          <t>17:37:34</t>
         </is>
       </c>
       <c r="K61" t="n">
@@ -4240,7 +4240,7 @@
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560096565530116881', 'createTime': 1760222183, 'createTimeISO': '2025-10-11T22:36:23.000Z', 'text': '4!? me e comprado 3 y no me sabía está :(', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, '</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560390745014960912', 'createTime': 1760290654, 'createTimeISO': '2025-10-12T17:37:34.000Z', 'text': 'si algo eso cuántos Mochis me dan', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7</t>
         </is>
       </c>
     </row>
@@ -4266,21 +4266,21 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>mucha gestion para unos muñecos</t>
+          <t>4!? me e comprado 3 y no me sabía está :(</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1760204815</v>
+        <v>1760222183</v>
       </c>
       <c r="H62" s="2" t="n">
-        <v>45941.74091435185</v>
+        <v>45941.94193287037</v>
       </c>
       <c r="I62" s="2" t="n">
         <v>45941</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>17:46:55</t>
+          <t>22:36:23</t>
         </is>
       </c>
       <c r="K62" t="n">
@@ -4300,7 +4300,7 @@
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560022082038956808', 'createTime': 1760204815, 'createTimeISO': '2025-10-11T17:46:55.000Z', 'text': 'mucha gestion para unos muñecos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '688</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560096565530116881', 'createTime': 1760222183, 'createTimeISO': '2025-10-11T22:36:23.000Z', 'text': '4!? me e comprado 3 y no me sabía está :(', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, '</t>
         </is>
       </c>
     </row>
@@ -4326,28 +4326,28 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>en Colombia no hay OXXO y venden los yogo premio muy caros ):</t>
+          <t>mucha gestion para unos muñecos</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1760204031</v>
+        <v>1760204815</v>
       </c>
       <c r="H63" s="2" t="n">
-        <v>45941.73184027777</v>
+        <v>45941.74091435185</v>
       </c>
       <c r="I63" s="2" t="n">
         <v>45941</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>17:33:51</t>
+          <t>17:46:55</t>
         </is>
       </c>
       <c r="K63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M63" t="b">
         <v>0</v>
@@ -4360,7 +4360,7 @@
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560018722665284360', 'createTime': 1760204031, 'createTimeISO': '2025-10-11T17:33:51.000Z', 'text': 'en Colombia no hay OXXO y venden los yogo premio muy caros ):', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'repl</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560022082038956808', 'createTime': 1760204815, 'createTimeISO': '2025-10-11T17:46:55.000Z', 'text': 'mucha gestion para unos muñecos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '688</t>
         </is>
       </c>
     </row>
@@ -4386,28 +4386,28 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Estan mejor las paletas draculas y no se acaban</t>
+          <t>en Colombia no hay OXXO y venden los yogo premio muy caros ):</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1760146204</v>
+        <v>1760204031</v>
       </c>
       <c r="H64" s="2" t="n">
-        <v>45941.0625462963</v>
+        <v>45941.73184027777</v>
       </c>
       <c r="I64" s="2" t="n">
         <v>45941</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>01:30:04</t>
+          <t>17:33:51</t>
         </is>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" t="b">
         <v>0</v>
@@ -4420,7 +4420,7 @@
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559770330039436039', 'createTime': 1760146204, 'createTimeISO': '2025-10-11T01:30:04.000Z', 'text': 'Estan mejor las paletas draculas y no se acaban', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal'</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7560018722665284360', 'createTime': 1760204031, 'createTimeISO': '2025-10-11T17:33:51.000Z', 'text': 'en Colombia no hay OXXO y venden los yogo premio muy caros ):', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'repl</t>
         </is>
       </c>
     </row>
@@ -4446,21 +4446,21 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>pensándolo bien se ven hermosos 😻💗</t>
+          <t>Estan mejor las paletas draculas y no se acaban</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1760115557</v>
+        <v>1760146204</v>
       </c>
       <c r="H65" s="2" t="n">
-        <v>45940.70783564815</v>
+        <v>45941.0625462963</v>
       </c>
       <c r="I65" s="2" t="n">
-        <v>45940</v>
+        <v>45941</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>16:59:17</t>
+          <t>01:30:04</t>
         </is>
       </c>
       <c r="K65" t="n">
@@ -4480,7 +4480,7 @@
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559638710619226881', 'createTime': 1760115557, 'createTimeISO': '2025-10-10T16:59:17.000Z', 'text': 'pensándolo bien se ven hermosos 😻💗', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559770330039436039', 'createTime': 1760146204, 'createTimeISO': '2025-10-11T01:30:04.000Z', 'text': 'Estan mejor las paletas draculas y no se acaban', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal'</t>
         </is>
       </c>
     </row>
@@ -4506,21 +4506,21 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>don hermosos</t>
+          <t>Hola alpina yo tengo 16 mochi saurio soy su fan</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1760114751</v>
+        <v>1760138346</v>
       </c>
       <c r="H66" s="2" t="n">
-        <v>45940.69850694444</v>
-      </c>
-      <c r="I66" s="2" t="n">
+        <v>45940.97159722223</v>
+      </c>
+      <c r="I66" s="3" t="n">
         <v>45940</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>16:45:51</t>
+          <t>23:19:06</t>
         </is>
       </c>
       <c r="K66" t="n">
@@ -4540,7 +4540,7 @@
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t xml:space="preserve">{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559635269188829959', 'createTime': 1760114751, 'createTimeISO': '2025-10-10T16:45:51.000Z', 'text': 'don hermosos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7462015983667545094', </t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559736550297633544', 'createTime': 1760138346, 'createTimeISO': '2025-10-10T23:19:06.000Z', 'text': 'Hola alpina yo tengo 16 mochi saurio soy su fan', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal'</t>
         </is>
       </c>
     </row>
@@ -4566,25 +4566,25 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Una pregunta yo fui y lleve todas los logos de yogurt de vasito y me dijeron que esos no se ponían?</t>
+          <t>pensándolo bien se ven hermosos 😻💗</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1760075581</v>
+        <v>1760115557</v>
       </c>
       <c r="H67" s="2" t="n">
-        <v>45940.24515046296</v>
+        <v>45940.70783564815</v>
       </c>
       <c r="I67" s="2" t="n">
         <v>45940</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>05:53:01</t>
+          <t>16:59:17</t>
         </is>
       </c>
       <c r="K67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -4600,7 +4600,7 @@
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559467019110204168', 'createTime': 1760075581, 'createTimeISO': '2025-10-10T05:53:01.000Z', 'text': 'Una pregunta yo fui y lleve todas los logos de yogurt de vasito y me dijeron que esos no se ponían?', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuth</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559638710619226881', 'createTime': 1760115557, 'createTimeISO': '2025-10-10T16:59:17.000Z', 'text': 'pensándolo bien se ven hermosos 😻💗', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '</t>
         </is>
       </c>
     </row>
@@ -4626,21 +4626,21 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>tuve una bolsa entera sin todo lo que piden JAJSJWJSJW</t>
+          <t>don hermosos</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1760073654</v>
+        <v>1760114751</v>
       </c>
       <c r="H68" s="2" t="n">
-        <v>45940.22284722222</v>
+        <v>45940.69850694444</v>
       </c>
       <c r="I68" s="2" t="n">
         <v>45940</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>05:20:54</t>
+          <t>16:45:51</t>
         </is>
       </c>
       <c r="K68" t="n">
@@ -4660,7 +4660,7 @@
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559458753733739282', 'createTime': 1760073654, 'createTimeISO': '2025-10-10T05:20:54.000Z', 'text': 'tuve una bolsa entera sin todo lo que piden JAJSJWJSJW', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommen</t>
+          <t xml:space="preserve">{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559635269188829959', 'createTime': 1760114751, 'createTimeISO': '2025-10-10T16:45:51.000Z', 'text': 'don hermosos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7462015983667545094', </t>
         </is>
       </c>
     </row>
@@ -4686,25 +4686,25 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>ya no es lo mismo</t>
+          <t>Una pregunta yo fui y lleve todas los logos de yogurt de vasito y me dijeron que esos no se ponían?</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1760072308</v>
+        <v>1760075581</v>
       </c>
       <c r="H69" s="2" t="n">
-        <v>45940.20726851852</v>
+        <v>45940.24515046296</v>
       </c>
       <c r="I69" s="2" t="n">
         <v>45940</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>04:58:28</t>
+          <t>05:53:01</t>
         </is>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -4720,7 +4720,7 @@
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559452964297917200', 'createTime': 1760072308, 'createTimeISO': '2025-10-10T04:58:28.000Z', 'text': 'ya no es lo mismo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '74403095168463678</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559467019110204168', 'createTime': 1760075581, 'createTimeISO': '2025-10-10T05:53:01.000Z', 'text': 'Una pregunta yo fui y lleve todas los logos de yogurt de vasito y me dijeron que esos no se ponían?', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuth</t>
         </is>
       </c>
     </row>
@@ -4746,21 +4746,21 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Ya tengo 2 de los yogo yogo sorpresa comprando en el oxxo aquí en Bogotá</t>
+          <t>tuve una bolsa entera sin todo lo que piden JAJSJWJSJW</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1760054016</v>
+        <v>1760073654</v>
       </c>
       <c r="H70" s="2" t="n">
-        <v>45939.99555555556</v>
+        <v>45940.22284722222</v>
       </c>
       <c r="I70" s="2" t="n">
-        <v>45939</v>
+        <v>45940</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>23:53:36</t>
+          <t>05:20:54</t>
         </is>
       </c>
       <c r="K70" t="n">
@@ -4780,7 +4780,7 @@
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t xml:space="preserve">{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559374381328745234', 'createTime': 1760054016, 'createTimeISO': '2025-10-09T23:53:36.000Z', 'text': 'Ya tengo 2 de los yogo yogo sorpresa comprando en el oxxo aquí en Bogotá', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': </t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559458753733739282', 'createTime': 1760073654, 'createTimeISO': '2025-10-10T05:20:54.000Z', 'text': 'tuve una bolsa entera sin todo lo que piden JAJSJWJSJW', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommen</t>
         </is>
       </c>
     </row>
@@ -4806,21 +4806,21 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>me encantan los mochis mi mamá nunca me compra ninguno creo que me dejes hacer ⭐😍</t>
+          <t>ya no es lo mismo</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1760051473</v>
+        <v>1760072308</v>
       </c>
       <c r="H71" s="2" t="n">
-        <v>45939.96612268518</v>
+        <v>45940.20726851852</v>
       </c>
       <c r="I71" s="2" t="n">
-        <v>45939</v>
+        <v>45940</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>23:11:13</t>
+          <t>04:58:28</t>
         </is>
       </c>
       <c r="K71" t="n">
@@ -4840,7 +4840,7 @@
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559363418022249224', 'createTime': 1760051473, 'createTimeISO': '2025-10-09T23:11:13.000Z', 'text': 'me encantan los mochis mi mamá nunca me compra ninguno creo que me dejes hacer ⭐😍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repli</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559452964297917200', 'createTime': 1760072308, 'createTimeISO': '2025-10-10T04:58:28.000Z', 'text': 'ya no es lo mismo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '74403095168463678</t>
         </is>
       </c>
     </row>
@@ -4866,21 +4866,21 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>alpinaa eres el mejor me gustan tus productos❤</t>
+          <t>Ya tengo 2 de los yogo yogo sorpresa comprando en el oxxo aquí en Bogotá</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1760039410</v>
+        <v>1760054016</v>
       </c>
       <c r="H72" s="2" t="n">
-        <v>45939.82650462963</v>
+        <v>45939.99555555556</v>
       </c>
       <c r="I72" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>19:50:10</t>
+          <t>23:53:36</t>
         </is>
       </c>
       <c r="K72" t="n">
@@ -4900,7 +4900,7 @@
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559311644069757697', 'createTime': 1760039410, 'createTimeISO': '2025-10-09T19:50:10.000Z', 'text': 'alpinaa eres el mejor me gustan tus productos❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal':</t>
+          <t xml:space="preserve">{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559374381328745234', 'createTime': 1760054016, 'createTimeISO': '2025-10-09T23:53:36.000Z', 'text': 'Ya tengo 2 de los yogo yogo sorpresa comprando en el oxxo aquí en Bogotá', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': </t>
         </is>
       </c>
     </row>
@@ -4926,21 +4926,21 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Mi hija estaba muy comprometida haciendo la recolección de logos recortados de YogoYogo los llevamos a OXXO y le dijeron que los recortó mal y no le dieron premio. Terrible me parece 0 estrellitas no vale la pena.</t>
+          <t>me encantan los mochis mi mamá nunca me compra ninguno creo que me dejes hacer ⭐😍</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1760017424</v>
+        <v>1760051473</v>
       </c>
       <c r="H73" s="2" t="n">
-        <v>45939.57203703704</v>
+        <v>45939.96612268518</v>
       </c>
       <c r="I73" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>13:43:44</t>
+          <t>23:11:13</t>
         </is>
       </c>
       <c r="K73" t="n">
@@ -4960,7 +4960,7 @@
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559217240907399952', 'createTime': 1760017424, 'createTimeISO': '2025-10-09T13:43:44.000Z', 'text': 'Mi hija estaba muy comprometida haciendo la recolección de logos recortados de YogoYogo los llevamos a OXXO y le dijeron que los recortó mal y no le dieron</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559363418022249224', 'createTime': 1760051473, 'createTimeISO': '2025-10-09T23:11:13.000Z', 'text': 'me encantan los mochis mi mamá nunca me compra ninguno creo que me dejes hacer ⭐😍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repli</t>
         </is>
       </c>
     </row>
@@ -4986,25 +4986,25 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>en Montería no hay OXXO pero si un todo a 1000 hay los entran</t>
+          <t>alpinaa eres el mejor me gustan tus productos❤</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1759971032</v>
+        <v>1760039410</v>
       </c>
       <c r="H74" s="2" t="n">
-        <v>45939.0350925926</v>
+        <v>45939.82650462963</v>
       </c>
       <c r="I74" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>00:50:32</t>
+          <t>19:50:10</t>
         </is>
       </c>
       <c r="K74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -5020,7 +5020,7 @@
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559017957411767047', 'createTime': 1759971032, 'createTimeISO': '2025-10-09T00:50:32.000Z', 'text': 'en Montería no hay OXXO pero si un todo a 1000 hay los entran', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'repl</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559311644069757697', 'createTime': 1760039410, 'createTimeISO': '2025-10-09T19:50:10.000Z', 'text': 'alpinaa eres el mejor me gustan tus productos❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal':</t>
         </is>
       </c>
     </row>
@@ -5046,21 +5046,21 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>mochisaurios? es enserio? pongan figuritas buenas!!</t>
+          <t>Mi hija estaba muy comprometida haciendo la recolección de logos recortados de YogoYogo los llevamos a OXXO y le dijeron que los recortó mal y no le dieron premio. Terrible me parece 0 estrellitas no vale la pena.</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1759965649</v>
+        <v>1760017424</v>
       </c>
       <c r="H75" s="2" t="n">
-        <v>45938.97278935185</v>
+        <v>45939.57203703704</v>
       </c>
       <c r="I75" s="2" t="n">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>23:20:49</t>
+          <t>13:43:44</t>
         </is>
       </c>
       <c r="K75" t="n">
@@ -5080,7 +5080,7 @@
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558994733155123969', 'createTime': 1759965649, 'createTimeISO': '2025-10-08T23:20:49.000Z', 'text': 'mochisaurios? es enserio? pongan figuritas buenas!!', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTo</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559217240907399952', 'createTime': 1760017424, 'createTimeISO': '2025-10-09T13:43:44.000Z', 'text': 'Mi hija estaba muy comprometida haciendo la recolección de logos recortados de YogoYogo los llevamos a OXXO y le dijeron que los recortó mal y no le dieron</t>
         </is>
       </c>
     </row>
@@ -5106,25 +5106,25 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>tengo 14 en total ajaja</t>
+          <t>en Montería no hay OXXO pero si un todo a 1000 hay los entran</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1759946263</v>
+        <v>1759971032</v>
       </c>
       <c r="H76" s="2" t="n">
-        <v>45938.74841435185</v>
+        <v>45939.0350925926</v>
       </c>
       <c r="I76" s="2" t="n">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>17:57:43</t>
+          <t>00:50:32</t>
         </is>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -5140,7 +5140,7 @@
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558911601061217032', 'createTime': 1759946263, 'createTimeISO': '2025-10-08T17:57:43.000Z', 'text': 'tengo 14 en total ajaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '72902844495</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7559017957411767047', 'createTime': 1759971032, 'createTimeISO': '2025-10-09T00:50:32.000Z', 'text': 'en Montería no hay OXXO pero si un todo a 1000 hay los entran', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'repl</t>
         </is>
       </c>
     </row>
@@ -5166,28 +5166,28 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>a poco hay OXXO en colombia</t>
+          <t>mochisaurios? es enserio? pongan figuritas buenas!!</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1759856384</v>
+        <v>1759965649</v>
       </c>
       <c r="H77" s="2" t="n">
-        <v>45937.70814814815</v>
+        <v>45938.97278935185</v>
       </c>
       <c r="I77" s="2" t="n">
-        <v>45937</v>
+        <v>45938</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>16:59:44</t>
+          <t>23:20:49</t>
         </is>
       </c>
       <c r="K77" t="n">
         <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M77" t="b">
         <v>0</v>
@@ -5200,7 +5200,7 @@
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558525593814467336', 'createTime': 1759856384, 'createTimeISO': '2025-10-07T16:59:44.000Z', 'text': 'a poco hay OXXO en colombia', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7300666</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558994733155123969', 'createTime': 1759965649, 'createTimeISO': '2025-10-08T23:20:49.000Z', 'text': 'mochisaurios? es enserio? pongan figuritas buenas!!', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTo</t>
         </is>
       </c>
     </row>
@@ -5226,21 +5226,21 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>sale más fácil comprarles el yogo premio ahí vienen esos muñecos👌</t>
+          <t>tengo 14 en total ajaja</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1759810185</v>
+        <v>1759946263</v>
       </c>
       <c r="H78" s="2" t="n">
-        <v>45937.1734375</v>
-      </c>
-      <c r="I78" s="3" t="n">
-        <v>45937</v>
+        <v>45938.74841435185</v>
+      </c>
+      <c r="I78" s="2" t="n">
+        <v>45938</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>04:09:45</t>
+          <t>17:57:43</t>
         </is>
       </c>
       <c r="K78" t="n">
@@ -5260,7 +5260,7 @@
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558327143747928848', 'createTime': 1759810185, 'createTimeISO': '2025-10-07T04:09:45.000Z', 'text': 'sale más fácil comprarles el yogo premio ahí vienen esos muñecos👌', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, '</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558911601061217032', 'createTime': 1759946263, 'createTimeISO': '2025-10-08T17:57:43.000Z', 'text': 'tengo 14 en total ajaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '72902844495</t>
         </is>
       </c>
     </row>
@@ -5286,21 +5286,21 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>mejor me compro un jugo premio y ya,aparte que esa vaina se ensucia re facil</t>
+          <t>En cucuta no hay</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1759804811</v>
+        <v>1759939295</v>
       </c>
       <c r="H79" s="2" t="n">
-        <v>45937.11123842592</v>
-      </c>
-      <c r="I79" s="2" t="n">
-        <v>45937</v>
+        <v>45938.6677662037</v>
+      </c>
+      <c r="I79" s="3" t="n">
+        <v>45938</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>02:40:11</t>
+          <t>16:01:35</t>
         </is>
       </c>
       <c r="K79" t="n">
@@ -5320,7 +5320,7 @@
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558304062015718152', 'createTime': 1759804811, 'createTimeISO': '2025-10-07T02:40:11.000Z', 'text': 'mejor me compro un jugo premio y ya,aparte que esa vaina se ensucia re facil', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToI</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558881690249396999', 'createTime': 1759939295, 'createTimeISO': '2025-10-08T16:01:35.000Z', 'text': 'En cucuta no hay', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '720950902661895066</t>
         </is>
       </c>
     </row>
@@ -5346,28 +5346,28 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>brooo</t>
+          <t>a poco hay OXXO en colombia</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1759804153</v>
+        <v>1759856384</v>
       </c>
       <c r="H80" s="2" t="n">
-        <v>45937.10362268519</v>
+        <v>45937.70814814815</v>
       </c>
       <c r="I80" s="2" t="n">
         <v>45937</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>16:59:44</t>
         </is>
       </c>
       <c r="K80" t="n">
         <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80" t="b">
         <v>0</v>
@@ -5380,7 +5380,7 @@
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558301251185115912', 'createTime': 1759804153, 'createTimeISO': '2025-10-07T02:29:13.000Z', 'text': 'brooo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452245536629720070', 'unique</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558525593814467336', 'createTime': 1759856384, 'createTimeISO': '2025-10-07T16:59:44.000Z', 'text': 'a poco hay OXXO en colombia', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7300666</t>
         </is>
       </c>
     </row>
@@ -5406,28 +5406,28 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>cómo se limpian</t>
+          <t>Y para cuándo los YoYos de YogoYogo !!</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1759785422</v>
+        <v>1759848526</v>
       </c>
       <c r="H81" s="2" t="n">
-        <v>45936.8868287037</v>
+        <v>45937.61719907408</v>
       </c>
       <c r="I81" s="3" t="n">
-        <v>45936</v>
+        <v>45937</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>21:17:02</t>
+          <t>14:48:46</t>
         </is>
       </c>
       <c r="K81" t="n">
         <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M81" t="b">
         <v>0</v>
@@ -5440,7 +5440,7 @@
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558220575950537488', 'createTime': 1759785422, 'createTimeISO': '2025-10-06T21:17:02.000Z', 'text': 'cómo se limpian', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7269959536781378566</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558491815541441281', 'createTime': 1759848526, 'createTimeISO': '2025-10-07T14:48:46.000Z', 'text': 'Y para cuándo los YoYos de YogoYogo !!', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid</t>
         </is>
       </c>
     </row>
@@ -5466,21 +5466,21 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>loooos amooooooo❤️❤️❤️❤️❤</t>
+          <t>sale más fácil comprarles el yogo premio ahí vienen esos muñecos👌</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1759783101</v>
+        <v>1759810185</v>
       </c>
       <c r="H82" s="2" t="n">
-        <v>45936.85996527778</v>
+        <v>45937.1734375</v>
       </c>
       <c r="I82" s="2" t="n">
-        <v>45936</v>
+        <v>45937</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>20:38:21</t>
+          <t>04:09:45</t>
         </is>
       </c>
       <c r="K82" t="n">
@@ -5500,7 +5500,7 @@
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558210750176805633', 'createTime': 1759783101, 'createTimeISO': '2025-10-06T20:38:21.000Z', 'text': 'loooos amooooooo❤️❤️❤️❤️❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '736720890</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558327143747928848', 'createTime': 1759810185, 'createTimeISO': '2025-10-07T04:09:45.000Z', 'text': 'sale más fácil comprarles el yogo premio ahí vienen esos muñecos👌', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, '</t>
         </is>
       </c>
     </row>
@@ -5526,21 +5526,21 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Por qué Oxxo :c, no hay otro lado?</t>
+          <t>mejor me compro un jugo premio y ya,aparte que esa vaina se ensucia re facil</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1759768015</v>
+        <v>1759804811</v>
       </c>
       <c r="H83" s="2" t="n">
-        <v>45936.6853587963</v>
+        <v>45937.11123842592</v>
       </c>
       <c r="I83" s="2" t="n">
-        <v>45936</v>
+        <v>45937</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>16:26:55</t>
+          <t>02:40:11</t>
         </is>
       </c>
       <c r="K83" t="n">
@@ -5560,7 +5560,7 @@
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558146025103590164', 'createTime': 1759768015, 'createTimeISO': '2025-10-06T16:26:55.000Z', 'text': 'Por qué Oxxo :c, no hay otro lado?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558304062015718152', 'createTime': 1759804811, 'createTimeISO': '2025-10-07T02:40:11.000Z', 'text': 'mejor me compro un jugo premio y ya,aparte que esa vaina se ensucia re facil', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToI</t>
         </is>
       </c>
     </row>
@@ -5586,21 +5586,21 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>do</t>
+          <t>brooo</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1759766509</v>
+        <v>1759804153</v>
       </c>
       <c r="H84" s="2" t="n">
-        <v>45936.66792824074</v>
+        <v>45937.10362268519</v>
       </c>
       <c r="I84" s="2" t="n">
-        <v>45936</v>
+        <v>45937</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>16:01:49</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="K84" t="n">
@@ -5620,7 +5620,7 @@
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558139554667299585', 'createTime': 1759766509, 'createTimeISO': '2025-10-06T16:01:49.000Z', 'text': 'do', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7347759303850460166', 'uniqueId'</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558301251185115912', 'createTime': 1759804153, 'createTimeISO': '2025-10-07T02:29:13.000Z', 'text': 'brooo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452245536629720070', 'unique</t>
         </is>
       </c>
     </row>
@@ -5646,28 +5646,28 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>que belleza el oxxo más sercano lo tengo a 2 horas</t>
+          <t>cómo se limpian</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1759722025</v>
+        <v>1759785422</v>
       </c>
       <c r="H85" s="2" t="n">
-        <v>45936.15306712963</v>
+        <v>45936.8868287037</v>
       </c>
       <c r="I85" s="2" t="n">
         <v>45936</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>03:40:25</t>
+          <t>21:17:02</t>
         </is>
       </c>
       <c r="K85" t="n">
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85" t="b">
         <v>0</v>
@@ -5680,7 +5680,7 @@
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557948494461846290', 'createTime': 1759722025, 'createTimeISO': '2025-10-06T03:40:25.000Z', 'text': 'que belleza el oxxo más sercano lo tengo a 2 horas', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTot</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558220575950537488', 'createTime': 1759785422, 'createTimeISO': '2025-10-06T21:17:02.000Z', 'text': 'cómo se limpian', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7269959536781378566</t>
         </is>
       </c>
     </row>
@@ -5706,21 +5706,21 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>ami me sale pura cagada un día me salió un unicornio y hoy me salió un cocodrilo (T_T)</t>
+          <t>loooos amooooooo❤️❤️❤️❤️❤</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1759704239</v>
+        <v>1759783101</v>
       </c>
       <c r="H86" s="2" t="n">
-        <v>45935.94721064815</v>
+        <v>45936.85996527778</v>
       </c>
       <c r="I86" s="2" t="n">
-        <v>45935</v>
+        <v>45936</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>22:43:59</t>
+          <t>20:38:21</t>
         </is>
       </c>
       <c r="K86" t="n">
@@ -5740,7 +5740,7 @@
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557872085788656392', 'createTime': 1759704239, 'createTimeISO': '2025-10-05T22:43:59.000Z', 'text': '𝚊𝚖𝚒 𝚖𝚎 𝚜𝚊𝚕𝚎 𝚙𝚞𝚛𝚊 𝚌𝚊𝚐𝚊𝚍𝚊 𝚞𝚗 𝚍𝚒́𝚊 𝚖𝚎 𝚜𝚊𝚕𝚒𝚘́ 𝚞𝚗 𝚞𝚗𝚒𝚌𝚘𝚛𝚗𝚒𝚘 𝚢 𝚑𝚘𝚢 𝚖𝚎 𝚜𝚊𝚕𝚒𝚘́ 𝚞𝚗 𝚌𝚘𝚌𝚘𝚍𝚛𝚒𝚕𝚘 (T_T)', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558210750176805633', 'createTime': 1759783101, 'createTimeISO': '2025-10-06T20:38:21.000Z', 'text': 'loooos amooooooo❤️❤️❤️❤️❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '736720890</t>
         </is>
       </c>
     </row>
@@ -5766,21 +5766,21 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>yo ya tengo dos</t>
+          <t>Por qué Oxxo :c, no hay otro lado?</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1759699645</v>
+        <v>1759768015</v>
       </c>
       <c r="H87" s="2" t="n">
-        <v>45935.89403935185</v>
+        <v>45936.6853587963</v>
       </c>
       <c r="I87" s="2" t="n">
-        <v>45935</v>
+        <v>45936</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>21:27:25</t>
+          <t>16:26:55</t>
         </is>
       </c>
       <c r="K87" t="n">
@@ -5800,7 +5800,7 @@
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557852299043078928', 'createTime': 1759699645, 'createTimeISO': '2025-10-05T21:27:25.000Z', 'text': 'yo ya tengo dos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7537517920412599352</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558146025103590164', 'createTime': 1759768015, 'createTimeISO': '2025-10-06T16:26:55.000Z', 'text': 'Por qué Oxxo :c, no hay otro lado?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '</t>
         </is>
       </c>
     </row>
@@ -5826,28 +5826,28 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Que yo sepa que en Colombia no ay oxoxo</t>
+          <t>do</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1759689305</v>
+        <v>1759766509</v>
       </c>
       <c r="H88" s="2" t="n">
-        <v>45935.77436342592</v>
+        <v>45936.66792824074</v>
       </c>
       <c r="I88" s="2" t="n">
-        <v>45935</v>
+        <v>45936</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>18:35:05</t>
+          <t>16:01:49</t>
         </is>
       </c>
       <c r="K88" t="n">
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M88" t="b">
         <v>0</v>
@@ -5860,7 +5860,7 @@
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557807940859937554', 'createTime': 1759689305, 'createTimeISO': '2025-10-05T18:35:05.000Z', 'text': 'Que yo sepa que en Colombia no ay oxoxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'ui</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7558139554667299585', 'createTime': 1759766509, 'createTimeISO': '2025-10-06T16:01:49.000Z', 'text': 'do', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7347759303850460166', 'uniqueId'</t>
         </is>
       </c>
     </row>
@@ -5886,21 +5886,21 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Yo quiero</t>
+          <t>que belleza el oxxo más sercano lo tengo a 2 horas</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1759689270</v>
+        <v>1759722025</v>
       </c>
       <c r="H89" s="2" t="n">
-        <v>45935.77395833333</v>
+        <v>45936.15306712963</v>
       </c>
       <c r="I89" s="2" t="n">
-        <v>45935</v>
+        <v>45936</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>18:34:30</t>
+          <t>03:40:25</t>
         </is>
       </c>
       <c r="K89" t="n">
@@ -5920,7 +5920,7 @@
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557807836890645255', 'createTime': 1759689270, 'createTimeISO': '2025-10-05T18:34:30.000Z', 'text': 'Yo quiero', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7543462359529440276', 'un</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557948494461846290', 'createTime': 1759722025, 'createTimeISO': '2025-10-06T03:40:25.000Z', 'text': 'que belleza el oxxo más sercano lo tengo a 2 horas', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTot</t>
         </is>
       </c>
     </row>
@@ -5946,21 +5946,21 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Ay yo pensaba que ya se avía acabado y tambien pensaba que ya no tenía oportunidad de reclamar mis 12 tarjetas y como 7 logos 😭😭😭😔</t>
+          <t>ami me sale pura cagada un día me salió un unicornio y hoy me salió un cocodrilo (T_T)</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1759680944</v>
+        <v>1759704239</v>
       </c>
       <c r="H90" s="2" t="n">
-        <v>45935.67759259259</v>
+        <v>45935.94721064815</v>
       </c>
       <c r="I90" s="2" t="n">
         <v>45935</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>16:15:44</t>
+          <t>22:43:59</t>
         </is>
       </c>
       <c r="K90" t="n">
@@ -5980,7 +5980,7 @@
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557772077760742152', 'createTime': 1759680944, 'createTimeISO': '2025-10-05T16:15:44.000Z', 'text': 'Ay yo pensaba que ya se avía acabado y tambien pensaba que ya no tenía oportunidad de reclamar mis 12 tarjetas y como 7 logos 😭😭😭😔', 'diggCount': 0, 'liked</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557872085788656392', 'createTime': 1759704239, 'createTimeISO': '2025-10-05T22:43:59.000Z', 'text': '𝚊𝚖𝚒 𝚖𝚎 𝚜𝚊𝚕𝚎 𝚙𝚞𝚛𝚊 𝚌𝚊𝚐𝚊𝚍𝚊 𝚞𝚗 𝚍𝚒́𝚊 𝚖𝚎 𝚜𝚊𝚕𝚒𝚘́ 𝚞𝚗 𝚞𝚗𝚒𝚌𝚘𝚛𝚗𝚒𝚘 𝚢 𝚑𝚘𝚢 𝚖𝚎 𝚜𝚊𝚕𝚒𝚘́ 𝚞𝚗 𝚌𝚘𝚌𝚘𝚍𝚛𝚒𝚕𝚘 (T_T)', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False</t>
         </is>
       </c>
     </row>
@@ -6006,28 +6006,28 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t>he ido al los OXXO que aparecen y nunca los dan dicen que no tiene idea de que se trata</t>
+          <t>yo ya tengo dos</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1759611417</v>
+        <v>1759699645</v>
       </c>
       <c r="H91" s="2" t="n">
-        <v>45934.87288194444</v>
+        <v>45935.89403935185</v>
       </c>
       <c r="I91" s="2" t="n">
-        <v>45934</v>
+        <v>45935</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>20:56:57</t>
+          <t>21:27:25</t>
         </is>
       </c>
       <c r="K91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M91" t="b">
         <v>0</v>
@@ -6040,7 +6040,7 @@
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
-          <t xml:space="preserve">{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557473388605375233', 'createTime': 1759611417, 'createTimeISO': '2025-10-04T20:56:57.000Z', 'text': 'he ido al los OXXO que aparecen y nunca los dan dicen que no tiene idea de que se trata', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, </t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557852299043078928', 'createTime': 1759699645, 'createTimeISO': '2025-10-05T21:27:25.000Z', 'text': 'yo ya tengo dos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7537517920412599352</t>
         </is>
       </c>
     </row>
@@ -6066,28 +6066,28 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Yo ya los tengo los logos</t>
+          <t>Que yo sepa que en Colombia no ay oxoxo</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1759593380</v>
+        <v>1759689305</v>
       </c>
       <c r="H92" s="2" t="n">
-        <v>45934.66412037037</v>
-      </c>
-      <c r="I92" s="3" t="n">
-        <v>45934</v>
+        <v>45935.77436342592</v>
+      </c>
+      <c r="I92" s="2" t="n">
+        <v>45935</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>15:56:20</t>
+          <t>18:35:05</t>
         </is>
       </c>
       <c r="K92" t="n">
         <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M92" t="b">
         <v>0</v>
@@ -6100,7 +6100,7 @@
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557395985225335570', 'createTime': 1759593380, 'createTimeISO': '2025-10-04T15:56:20.000Z', 'text': 'Yo ya los tengo los logos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '736420736</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557807940859937554', 'createTime': 1759689305, 'createTimeISO': '2025-10-05T18:35:05.000Z', 'text': 'Que yo sepa que en Colombia no ay oxoxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'ui</t>
         </is>
       </c>
     </row>
@@ -6126,21 +6126,21 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
-          <t>A QUIEN SIGOOOO❓ TEAM NEGRO[wicked]</t>
+          <t>Yo quiero</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1759546429</v>
+        <v>1759689270</v>
       </c>
       <c r="H93" s="2" t="n">
-        <v>45934.12070601852</v>
+        <v>45935.77395833333</v>
       </c>
       <c r="I93" s="2" t="n">
-        <v>45934</v>
+        <v>45935</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>02:53:49</t>
+          <t>18:34:30</t>
         </is>
       </c>
       <c r="K93" t="n">
@@ -6160,7 +6160,7 @@
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
-          <t xml:space="preserve">{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557194342633718546', 'createTime': 1759546429, 'createTimeISO': '2025-10-04T02:53:49.000Z', 'text': '𝘼 𝙌𝙐𝙄𝙀𝙉 𝙎𝙄𝙂𝙊𝙊𝙊𝙊❓ TEAM NEGRO[wicked]', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': </t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557807836890645255', 'createTime': 1759689270, 'createTimeISO': '2025-10-05T18:34:30.000Z', 'text': 'Yo quiero', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7543462359529440276', 'un</t>
         </is>
       </c>
     </row>
@@ -6186,25 +6186,25 @@
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr">
         <is>
-          <t>muy lindos pero huelen horrible🥺</t>
+          <t>Ay yo pensaba que ya se avía acabado y tambien pensaba que ya no tenía oportunidad de reclamar mis 12 tarjetas y como 7 logos 😭😭😭😔</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1759542541</v>
+        <v>1759680944</v>
       </c>
       <c r="H94" s="2" t="n">
-        <v>45934.07570601852</v>
+        <v>45935.67759259259</v>
       </c>
       <c r="I94" s="2" t="n">
-        <v>45934</v>
+        <v>45935</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>01:49:01</t>
+          <t>16:15:44</t>
         </is>
       </c>
       <c r="K94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
         <v>0</v>
@@ -6220,7 +6220,7 @@
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557177612487262984', 'createTime': 1759542541, 'createTimeISO': '2025-10-04T01:49:01.000Z', 'text': 'muy lindos pero huelen horrible🥺', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '73</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557772077760742152', 'createTime': 1759680944, 'createTimeISO': '2025-10-05T16:15:44.000Z', 'text': 'Ay yo pensaba que ya se avía acabado y tambien pensaba que ya no tenía oportunidad de reclamar mis 12 tarjetas y como 7 logos 😭😭😭😔', 'diggCount': 0, 'liked</t>
         </is>
       </c>
     </row>
@@ -6246,21 +6246,21 @@
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Asegurando puesto Pará un futuro</t>
+          <t>Yo y los que reclamamos todos los que tenían en la tienda porque soy una adicta al yogo yogo (porfis déjenme patrocinar o regálenme algo tengo el peluche de la máquina y todas las colecciones incompletas pero las tengo)</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1759539543</v>
+        <v>1759629081</v>
       </c>
       <c r="H95" s="2" t="n">
-        <v>45934.04100694445</v>
-      </c>
-      <c r="I95" s="2" t="n">
-        <v>45934</v>
+        <v>45935.07732638889</v>
+      </c>
+      <c r="I95" s="3" t="n">
+        <v>45935</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>00:59:03</t>
+          <t>01:51:21</t>
         </is>
       </c>
       <c r="K95" t="n">
@@ -6280,7 +6280,7 @@
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557164687345140488', 'createTime': 1759539543, 'createTimeISO': '2025-10-04T00:59:03.000Z', 'text': 'Asegurando puesto Pará un futuro', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '71</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557549302736208647', 'createTime': 1759629081, 'createTimeISO': '2025-10-05T01:51:21.000Z', 'text': 'Yo y los que reclamamos todos los que tenían en la tienda porque soy una adicta al yogo yogo (porfis déjenme patrocinar o regálenme algo tengo el peluche d</t>
         </is>
       </c>
     </row>
@@ -6306,28 +6306,28 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
-          <t>en San Andrés no hay oxxo</t>
+          <t>he ido al los OXXO que aparecen y nunca los dan dicen que no tiene idea de que se trata</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1759503549</v>
+        <v>1759611417</v>
       </c>
       <c r="H96" s="2" t="n">
-        <v>45933.62440972222</v>
+        <v>45934.87288194444</v>
       </c>
       <c r="I96" s="2" t="n">
-        <v>45933</v>
+        <v>45934</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>14:59:09</t>
+          <t>20:56:57</t>
         </is>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M96" t="b">
         <v>0</v>
@@ -6340,7 +6340,7 @@
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557010184049443602', 'createTime': 1759503549, 'createTimeISO': '2025-10-03T14:59:09.000Z', 'text': 'en San Andrés no hay oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '752144968</t>
+          <t xml:space="preserve">{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557473388605375233', 'createTime': 1759611417, 'createTimeISO': '2025-10-04T20:56:57.000Z', 'text': 'he ido al los OXXO que aparecen y nunca los dan dicen que no tiene idea de que se trata', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, </t>
         </is>
       </c>
     </row>
@@ -6366,21 +6366,21 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
-          <t>yo tengo el moradoro y el verde y otro morado que es igual al verde Pero morado y voy a ir al Oxxo que queda cerca de mi casa y reclamo varios ksjsjsjs</t>
+          <t>Yo ya los tengo los logos</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1759487921</v>
+        <v>1759593380</v>
       </c>
       <c r="H97" s="2" t="n">
-        <v>45933.44353009259</v>
+        <v>45934.66412037037</v>
       </c>
       <c r="I97" s="2" t="n">
-        <v>45933</v>
+        <v>45934</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>10:38:41</t>
+          <t>15:56:20</t>
         </is>
       </c>
       <c r="K97" t="n">
@@ -6400,7 +6400,7 @@
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556943055979332372', 'createTime': 1759487921, 'createTimeISO': '2025-10-03T10:38:41.000Z', 'text': 'yo tengo el moradoro y el verde y otro morado que es igual al verde Pero morado y voy a ir al Oxxo que queda cerca de mi casa y reclamo varios ksjsjsjs', '</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557395985225335570', 'createTime': 1759593380, 'createTimeISO': '2025-10-04T15:56:20.000Z', 'text': 'Yo ya los tengo los logos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '736420736</t>
         </is>
       </c>
     </row>
@@ -6426,21 +6426,21 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Va uno al Oxxo y qué no han llegado. No todas las tiendas tienen ese empaque marcado, tanto misterio para un muñeco, antes eran 3 logos ahora 4. Mejor me compro una Drácula</t>
+          <t>A QUIEN SIGOOOO❓ TEAM NEGRO[wicked]</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1759463277</v>
+        <v>1759546429</v>
       </c>
       <c r="H98" s="2" t="n">
-        <v>45933.15829861111</v>
-      </c>
-      <c r="I98" s="3" t="n">
-        <v>45933</v>
+        <v>45934.12070601852</v>
+      </c>
+      <c r="I98" s="2" t="n">
+        <v>45934</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>03:47:57</t>
+          <t>02:53:49</t>
         </is>
       </c>
       <c r="K98" t="n">
@@ -6460,7 +6460,7 @@
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556837188043227905', 'createTime': 1759463277, 'createTimeISO': '2025-10-03T03:47:57.000Z', 'text': 'Va uno al Oxxo y qué no han llegado. No todas las tiendas tienen ese empaque marcado, tanto misterio para un muñeco, antes eran 3 logos ahora 4. Mejor me c</t>
+          <t xml:space="preserve">{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557194342633718546', 'createTime': 1759546429, 'createTimeISO': '2025-10-04T02:53:49.000Z', 'text': '𝘼 𝙌𝙐𝙄𝙀𝙉 𝙎𝙄𝙂𝙊𝙊𝙊𝙊❓ TEAM NEGRO[wicked]', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': </t>
         </is>
       </c>
     </row>
@@ -6486,25 +6486,25 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
         <is>
-          <t>esta vez está más facil conseguirlos en alkosto pasto , más barato , los encuentras de varios sabores el yogo premio 🥰</t>
+          <t>muy lindos pero huelen horrible🥺</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1759455103</v>
+        <v>1759542541</v>
       </c>
       <c r="H99" s="2" t="n">
-        <v>45933.06369212963</v>
+        <v>45934.07570601852</v>
       </c>
       <c r="I99" s="2" t="n">
-        <v>45933</v>
+        <v>45934</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>01:31:43</t>
+          <t>01:49:01</t>
         </is>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
@@ -6520,7 +6520,7 @@
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556802057828451090', 'createTime': 1759455103, 'createTimeISO': '2025-10-03T01:31:43.000Z', 'text': 'esta vez está más facil conseguirlos en alkosto pasto , más barato , los encuentras de varios sabores el yogo premio 🥰', 'diggCount': 0, 'likedByAuthor': F</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557177612487262984', 'createTime': 1759542541, 'createTimeISO': '2025-10-04T01:49:01.000Z', 'text': 'muy lindos pero huelen horrible🥺', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '73</t>
         </is>
       </c>
     </row>
@@ -6546,21 +6546,21 @@
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr">
         <is>
-          <t>y para que sirve eso, que beneficios tiene 😳</t>
+          <t>Asegurando puesto Pará un futuro</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1759454531</v>
+        <v>1759539543</v>
       </c>
       <c r="H100" s="2" t="n">
-        <v>45933.05707175926</v>
+        <v>45934.04100694445</v>
       </c>
       <c r="I100" s="2" t="n">
-        <v>45933</v>
+        <v>45934</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>01:22:11</t>
+          <t>00:59:03</t>
         </is>
       </c>
       <c r="K100" t="n">
@@ -6580,7 +6580,7 @@
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556799608577458951', 'createTime': 1759454531, 'createTimeISO': '2025-10-03T01:22:11.000Z', 'text': 'y para que sirve eso, que beneficios tiene 😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557164687345140488', 'createTime': 1759539543, 'createTimeISO': '2025-10-04T00:59:03.000Z', 'text': 'Asegurando puesto Pará un futuro', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '71</t>
         </is>
       </c>
     </row>
@@ -6606,21 +6606,21 @@
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Ami me salió un unicornio en uno</t>
+          <t>en San Andrés no hay oxxo</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1759442806</v>
+        <v>1759503549</v>
       </c>
       <c r="H101" s="2" t="n">
-        <v>45932.92136574074</v>
-      </c>
-      <c r="I101" s="3" t="n">
-        <v>45932</v>
+        <v>45933.62440972222</v>
+      </c>
+      <c r="I101" s="2" t="n">
+        <v>45933</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>22:06:46</t>
+          <t>14:59:09</t>
         </is>
       </c>
       <c r="K101" t="n">
@@ -6640,7 +6640,7 @@
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556749197270991637', 'createTime': 1759442806, 'createTimeISO': '2025-10-02T22:06:46.000Z', 'text': 'Ami me salió un unicornio en uno', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '73</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7557010184049443602', 'createTime': 1759503549, 'createTimeISO': '2025-10-03T14:59:09.000Z', 'text': 'en San Andrés no hay oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '752144968</t>
         </is>
       </c>
     </row>
@@ -6666,21 +6666,21 @@
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Clarion esq en todos los países hay OXXO 🌚🌝</t>
+          <t>yo tengo el moradoro y el verde y otro morado que es igual al verde Pero morado y voy a ir al Oxxo que queda cerca de mi casa y reclamo varios ksjsjsjs</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1759438387</v>
+        <v>1759487921</v>
       </c>
       <c r="H102" s="2" t="n">
-        <v>45932.87021990741</v>
+        <v>45933.44353009259</v>
       </c>
       <c r="I102" s="2" t="n">
-        <v>45932</v>
+        <v>45933</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>20:53:07</t>
+          <t>10:38:41</t>
         </is>
       </c>
       <c r="K102" t="n">
@@ -6700,7 +6700,7 @@
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556730178652275472', 'createTime': 1759438387, 'createTimeISO': '2025-10-02T20:53:07.000Z', 'text': 'Clarion esq en todos los países hay OXXO 🌚🌝', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0,</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556943055979332372', 'createTime': 1759487921, 'createTimeISO': '2025-10-03T10:38:41.000Z', 'text': 'yo tengo el moradoro y el verde y otro morado que es igual al verde Pero morado y voy a ir al Oxxo que queda cerca de mi casa y reclamo varios ksjsjsjs', '</t>
         </is>
       </c>
     </row>
@@ -6726,21 +6726,21 @@
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr">
         <is>
-          <t>los dan todos</t>
+          <t>Va uno al Oxxo y qué no han llegado. No todas las tiendas tienen ese empaque marcado, tanto misterio para un muñeco, antes eran 3 logos ahora 4. Mejor me compro una Drácula</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1759435028</v>
+        <v>1759463277</v>
       </c>
       <c r="H103" s="2" t="n">
-        <v>45932.8313425926</v>
+        <v>45933.15829861111</v>
       </c>
       <c r="I103" s="2" t="n">
-        <v>45932</v>
+        <v>45933</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>19:57:08</t>
+          <t>03:47:57</t>
         </is>
       </c>
       <c r="K103" t="n">
@@ -6760,7 +6760,7 @@
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556715834195788562', 'createTime': 1759435028, 'createTimeISO': '2025-10-02T19:57:08.000Z', 'text': 'los dan todos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7193838219199251461',</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556837188043227905', 'createTime': 1759463277, 'createTimeISO': '2025-10-03T03:47:57.000Z', 'text': 'Va uno al Oxxo y qué no han llegado. No todas las tiendas tienen ese empaque marcado, tanto misterio para un muñeco, antes eran 3 logos ahora 4. Mejor me c</t>
         </is>
       </c>
     </row>
@@ -6786,21 +6786,21 @@
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr">
         <is>
-          <t>oigan pero no encuentro mochisaurios solo ilumimochis</t>
+          <t>esta vez está más facil conseguirlos en alkosto pasto , más barato , los encuentras de varios sabores el yogo premio 🥰</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1759433489</v>
+        <v>1759455103</v>
       </c>
       <c r="H104" s="2" t="n">
-        <v>45932.81353009259</v>
+        <v>45933.06369212963</v>
       </c>
       <c r="I104" s="2" t="n">
-        <v>45932</v>
+        <v>45933</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>19:31:29</t>
+          <t>01:31:43</t>
         </is>
       </c>
       <c r="K104" t="n">
@@ -6820,7 +6820,7 @@
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556709242481722130', 'createTime': 1759433489, 'createTimeISO': '2025-10-02T19:31:29.000Z', 'text': 'oigan pero no encuentro mochisaurios solo ilumimochis', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyComment</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556802057828451090', 'createTime': 1759455103, 'createTimeISO': '2025-10-03T01:31:43.000Z', 'text': 'esta vez está más facil conseguirlos en alkosto pasto , más barato , los encuentras de varios sabores el yogo premio 🥰', 'diggCount': 0, 'likedByAuthor': F</t>
         </is>
       </c>
     </row>
@@ -6846,25 +6846,25 @@
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Paso 1 compran un yogo yogo premio de tarrito y ya viene uno dentro.</t>
+          <t>y para que sirve eso, que beneficios tiene 😳</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1759421648</v>
+        <v>1759454531</v>
       </c>
       <c r="H105" s="2" t="n">
-        <v>45932.67648148148</v>
+        <v>45933.05707175926</v>
       </c>
       <c r="I105" s="2" t="n">
-        <v>45932</v>
+        <v>45933</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>16:14:08</t>
+          <t>01:22:11</t>
         </is>
       </c>
       <c r="K105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L105" t="n">
         <v>0</v>
@@ -6880,7 +6880,7 @@
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556658397476963090', 'createTime': 1759421648, 'createTimeISO': '2025-10-02T16:14:08.000Z', 'text': 'Paso 1 compran un yogo yogo premio de tarrito y ya viene uno dentro.', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556799608577458951', 'createTime': 1759454531, 'createTimeISO': '2025-10-03T01:22:11.000Z', 'text': 'y para que sirve eso, que beneficios tiene 😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0</t>
         </is>
       </c>
     </row>
@@ -6906,389 +6906,389 @@
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr">
         <is>
+          <t>Ami me salió un unicornio en uno</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>1759442806</v>
+      </c>
+      <c r="H106" s="2" t="n">
+        <v>45932.92136574074</v>
+      </c>
+      <c r="I106" s="2" t="n">
+        <v>45932</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>22:06:46</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="b">
+        <v>0</v>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556749197270991637', 'createTime': 1759442806, 'createTimeISO': '2025-10-02T22:06:46.000Z', 'text': 'Ami me salió un unicornio en uno', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '73</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>10</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Clarion esq en todos los países hay OXXO 🌚🌝</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>1759438387</v>
+      </c>
+      <c r="H107" s="2" t="n">
+        <v>45932.87021990741</v>
+      </c>
+      <c r="I107" s="2" t="n">
+        <v>45932</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>20:53:07</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="b">
+        <v>0</v>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556730178652275472', 'createTime': 1759438387, 'createTimeISO': '2025-10-02T20:53:07.000Z', 'text': 'Clarion esq en todos los países hay OXXO 🌚🌝', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0,</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>10</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>los dan todos</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>1759435028</v>
+      </c>
+      <c r="H108" s="2" t="n">
+        <v>45932.8313425926</v>
+      </c>
+      <c r="I108" s="2" t="n">
+        <v>45932</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>19:57:08</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="b">
+        <v>0</v>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556715834195788562', 'createTime': 1759435028, 'createTimeISO': '2025-10-02T19:57:08.000Z', 'text': 'los dan todos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7193838219199251461',</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>10</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>oigan pero no encuentro mochisaurios solo ilumimochis</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>1759433489</v>
+      </c>
+      <c r="H109" s="2" t="n">
+        <v>45932.81353009259</v>
+      </c>
+      <c r="I109" s="2" t="n">
+        <v>45932</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>19:31:29</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="b">
+        <v>0</v>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556709242481722130', 'createTime': 1759433489, 'createTimeISO': '2025-10-02T19:31:29.000Z', 'text': 'oigan pero no encuentro mochisaurios solo ilumimochis', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyComment</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>10</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Yo ese muñeco me lo encontré en el baño de la escuela y nuevo estaba</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>1759432656</v>
+      </c>
+      <c r="H110" s="2" t="n">
+        <v>45932.80388888889</v>
+      </c>
+      <c r="I110" s="3" t="n">
+        <v>45932</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>19:17:36</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="b">
+        <v>0</v>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556705655765648146', 'createTime': 1759432656, 'createTimeISO': '2025-10-02T19:17:36.000Z', 'text': 'Yo ese muñeco me lo encontré en el baño de la escuela y nuevo estaba', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>10</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Paso 1 compran un yogo yogo premio de tarrito y ya viene uno dentro.</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>1759421648</v>
+      </c>
+      <c r="H111" s="2" t="n">
+        <v>45932.67648148148</v>
+      </c>
+      <c r="I111" s="2" t="n">
+        <v>45932</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>16:14:08</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>2</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="b">
+        <v>0</v>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556658397476963090', 'createTime': 1759421648, 'createTimeISO': '2025-10-02T16:14:08.000Z', 'text': 'Paso 1 compran un yogo yogo premio de tarrito y ya viene uno dentro.', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>10</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
           <t>me encantan estos mochis pero quisiera saber el nombre de 5
 los muñequitos 🥰</t>
         </is>
       </c>
-      <c r="G106" t="n">
+      <c r="G112" t="n">
         <v>1759407285</v>
       </c>
-      <c r="H106" s="2" t="n">
+      <c r="H112" s="2" t="n">
         <v>45932.51024305556</v>
       </c>
-      <c r="I106" s="2" t="n">
+      <c r="I112" s="2" t="n">
         <v>45932</v>
       </c>
-      <c r="J106" t="inlineStr">
+      <c r="J112" t="inlineStr">
         <is>
           <t>12:14:45</t>
         </is>
       </c>
-      <c r="K106" t="n">
+      <c r="K112" t="n">
         <v>1</v>
       </c>
-      <c r="L106" t="n">
+      <c r="L112" t="n">
         <v>2</v>
-      </c>
-      <c r="M106" t="b">
-        <v>0</v>
-      </c>
-      <c r="N106" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556596683191681808', 'createTime': 1759407285, 'createTimeISO': '2025-10-02T12:14:45.000Z', 'text': 'me encantan estos mochis pero quisiera saber el nombre de 5\nlos muñequitos 🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesTo</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>10</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Alpina me mandan la caja Porfavor y les subo un video abriéndola</t>
-        </is>
-      </c>
-      <c r="G107" t="n">
-        <v>1759357740</v>
-      </c>
-      <c r="H107" s="2" t="n">
-        <v>45931.93680555555</v>
-      </c>
-      <c r="I107" s="2" t="n">
-        <v>45931</v>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>22:29:00</t>
-        </is>
-      </c>
-      <c r="K107" t="n">
-        <v>2</v>
-      </c>
-      <c r="L107" t="n">
-        <v>0</v>
-      </c>
-      <c r="M107" t="b">
-        <v>0</v>
-      </c>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556383835371717396', 'createTime': 1759357740, 'createTimeISO': '2025-10-01T22:29:00.000Z', 'text': 'Alpina me mandan la caja Porfavor y les subo un video abriéndola', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'r</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>10</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>nena voy mal con la paleta Drácula y ya me pides que complete la de Mochis 🤣🤣</t>
-        </is>
-      </c>
-      <c r="G108" t="n">
-        <v>1759217751</v>
-      </c>
-      <c r="H108" s="2" t="n">
-        <v>45930.3165625</v>
-      </c>
-      <c r="I108" s="2" t="n">
-        <v>45930</v>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>07:35:51</t>
-        </is>
-      </c>
-      <c r="K108" t="n">
-        <v>1</v>
-      </c>
-      <c r="L108" t="n">
-        <v>0</v>
-      </c>
-      <c r="M108" t="b">
-        <v>0</v>
-      </c>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555782650826031873', 'createTime': 1759217751, 'createTimeISO': '2025-09-30T07:35:51.000Z', 'text': 'nena voy mal con la paleta Drácula y ya me pides que complete la de Mochis 🤣🤣', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesTo</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>10</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>oiga mano lastima que todavía no salen los mochisaurios en los yogopremios</t>
-        </is>
-      </c>
-      <c r="G109" t="n">
-        <v>1759216989</v>
-      </c>
-      <c r="H109" s="2" t="n">
-        <v>45930.30774305556</v>
-      </c>
-      <c r="I109" s="2" t="n">
-        <v>45930</v>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>07:23:09</t>
-        </is>
-      </c>
-      <c r="K109" t="n">
-        <v>0</v>
-      </c>
-      <c r="L109" t="n">
-        <v>2</v>
-      </c>
-      <c r="M109" t="b">
-        <v>0</v>
-      </c>
-      <c r="N109" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555779391944016647', 'createTime': 1759216989, 'createTimeISO': '2025-09-30T07:23:09.000Z', 'text': 'oiga mano lastima que todavía no salen los mochisaurios en los yogopremios', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId'</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>10</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>pueden quitar los mochis y volver a poner los muñequitos de gokuuuu por favor</t>
-        </is>
-      </c>
-      <c r="G110" t="n">
-        <v>1759207962</v>
-      </c>
-      <c r="H110" s="2" t="n">
-        <v>45930.20326388889</v>
-      </c>
-      <c r="I110" s="2" t="n">
-        <v>45930</v>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>04:52:42</t>
-        </is>
-      </c>
-      <c r="K110" t="n">
-        <v>0</v>
-      </c>
-      <c r="L110" t="n">
-        <v>0</v>
-      </c>
-      <c r="M110" t="b">
-        <v>0</v>
-      </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555740607941067527', 'createTime': 1759207962, 'createTimeISO': '2025-09-30T04:52:42.000Z', 'text': 'pueden quitar los mochis y volver a poner los muñequitos de gokuuuu por favor', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesTo</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>10</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>amooo los mochiss</t>
-        </is>
-      </c>
-      <c r="G111" t="n">
-        <v>1759203020</v>
-      </c>
-      <c r="H111" s="2" t="n">
-        <v>45930.14606481481</v>
-      </c>
-      <c r="I111" s="2" t="n">
-        <v>45930</v>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>03:30:20</t>
-        </is>
-      </c>
-      <c r="K111" t="n">
-        <v>0</v>
-      </c>
-      <c r="L111" t="n">
-        <v>0</v>
-      </c>
-      <c r="M111" t="b">
-        <v>0</v>
-      </c>
-      <c r="N111" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555719396933829377', 'createTime': 1759203020, 'createTimeISO': '2025-09-30T03:30:20.000Z', 'text': 'amooo los mochiss', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '73672089083496212</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>10</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>ya los tengo</t>
-        </is>
-      </c>
-      <c r="G112" t="n">
-        <v>1759195888</v>
-      </c>
-      <c r="H112" s="2" t="n">
-        <v>45930.06351851852</v>
-      </c>
-      <c r="I112" s="3" t="n">
-        <v>45930</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>01:31:28</t>
-        </is>
-      </c>
-      <c r="K112" t="n">
-        <v>0</v>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
       </c>
       <c r="M112" t="b">
         <v>0</v>
@@ -7301,7 +7301,7 @@
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="inlineStr">
         <is>
-          <t xml:space="preserve">{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555688754276303624', 'createTime': 1759195888, 'createTimeISO': '2025-09-30T01:31:28.000Z', 'text': 'ya los tengo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7506596631263200262', </t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556596683191681808', 'createTime': 1759407285, 'createTimeISO': '2025-10-02T12:14:45.000Z', 'text': 'me encantan estos mochis pero quisiera saber el nombre de 5\nlos muñequitos 🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesTo</t>
         </is>
       </c>
     </row>
@@ -7327,28 +7327,28 @@
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr">
         <is>
-          <t>y si estoy en Colombia</t>
+          <t>me encantan</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1759193568</v>
+        <v>1759366401</v>
       </c>
       <c r="H113" s="2" t="n">
-        <v>45930.03666666667</v>
+        <v>45932.03704861111</v>
       </c>
       <c r="I113" s="3" t="n">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>00:52:48</t>
+          <t>00:53:21</t>
         </is>
       </c>
       <c r="K113" t="n">
         <v>0</v>
       </c>
       <c r="L113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M113" t="b">
         <v>0</v>
@@ -7361,7 +7361,7 @@
       <c r="O113" t="inlineStr"/>
       <c r="P113" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555678757781422856', 'createTime': 1759193568, 'createTimeISO': '2025-09-30T00:52:48.000Z', 'text': 'y si estoy en Colombia', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '751137034569</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556421084930458375', 'createTime': 1759366401, 'createTimeISO': '2025-10-02T00:53:21.000Z', 'text': 'me encantan', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7321905632369361926', '</t>
         </is>
       </c>
     </row>
@@ -7387,25 +7387,25 @@
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr">
         <is>
-          <t>yo lo consigo en una papelera sin comprar el yogur</t>
+          <t>como</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1759192491</v>
+        <v>1759363843</v>
       </c>
       <c r="H114" s="2" t="n">
-        <v>45930.02420138889</v>
-      </c>
-      <c r="I114" s="2" t="n">
-        <v>45930</v>
+        <v>45932.00744212963</v>
+      </c>
+      <c r="I114" s="3" t="n">
+        <v>45932</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>00:34:51</t>
+          <t>00:10:43</t>
         </is>
       </c>
       <c r="K114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L114" t="n">
         <v>0</v>
@@ -7421,7 +7421,7 @@
       <c r="O114" t="inlineStr"/>
       <c r="P114" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555674134270001927', 'createTime': 1759192491, 'createTimeISO': '2025-09-30T00:34:51.000Z', 'text': 'yo lo consigo en una papelera sin comprar el yogur', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTot</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556410076190638855', 'createTime': 1759363843, 'createTimeISO': '2025-10-02T00:10:43.000Z', 'text': 'como', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7529699467920409601', 'uniqueI</t>
         </is>
       </c>
     </row>
@@ -7447,25 +7447,25 @@
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr">
         <is>
-          <t>pero sola mente sonos logos que disen todo yogo</t>
+          <t>Alpina me mandan la caja Porfavor y les subo un video abriéndola</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1759191179</v>
+        <v>1759357740</v>
       </c>
       <c r="H115" s="2" t="n">
-        <v>45930.0090162037</v>
-      </c>
-      <c r="I115" s="3" t="n">
-        <v>45930</v>
+        <v>45931.93680555555</v>
+      </c>
+      <c r="I115" s="2" t="n">
+        <v>45931</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>00:12:59</t>
+          <t>22:29:00</t>
         </is>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L115" t="n">
         <v>0</v>
@@ -7481,7 +7481,7 @@
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555668487608582928', 'createTime': 1759191179, 'createTimeISO': '2025-09-30T00:12:59.000Z', 'text': 'pero sola mente sonos logos que disen todo yogo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal'</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7556383835371717396', 'createTime': 1759357740, 'createTimeISO': '2025-10-01T22:29:00.000Z', 'text': 'Alpina me mandan la caja Porfavor y les subo un video abriéndola', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'r</t>
         </is>
       </c>
     </row>
@@ -7507,563 +7507,563 @@
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr">
         <is>
+          <t>nena voy mal con la paleta Drácula y ya me pides que complete la de Mochis 🤣🤣</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>1759217751</v>
+      </c>
+      <c r="H116" s="2" t="n">
+        <v>45930.3165625</v>
+      </c>
+      <c r="I116" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>07:35:51</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="b">
+        <v>0</v>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555782650826031873', 'createTime': 1759217751, 'createTimeISO': '2025-09-30T07:35:51.000Z', 'text': 'nena voy mal con la paleta Drácula y ya me pides que complete la de Mochis 🤣🤣', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesTo</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>10</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>oiga mano lastima que todavía no salen los mochisaurios en los yogopremios</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>1759216989</v>
+      </c>
+      <c r="H117" s="2" t="n">
+        <v>45930.30774305556</v>
+      </c>
+      <c r="I117" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>07:23:09</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>2</v>
+      </c>
+      <c r="M117" t="b">
+        <v>0</v>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555779391944016647', 'createTime': 1759216989, 'createTimeISO': '2025-09-30T07:23:09.000Z', 'text': 'oiga mano lastima que todavía no salen los mochisaurios en los yogopremios', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId'</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>10</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>pueden quitar los mochis y volver a poner los muñequitos de gokuuuu por favor</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>1759207962</v>
+      </c>
+      <c r="H118" s="2" t="n">
+        <v>45930.20326388889</v>
+      </c>
+      <c r="I118" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>04:52:42</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="b">
+        <v>0</v>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555740607941067527', 'createTime': 1759207962, 'createTimeISO': '2025-09-30T04:52:42.000Z', 'text': 'pueden quitar los mochis y volver a poner los muñequitos de gokuuuu por favor', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesTo</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>10</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>amooo los mochiss</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>1759203020</v>
+      </c>
+      <c r="H119" s="2" t="n">
+        <v>45930.14606481481</v>
+      </c>
+      <c r="I119" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>03:30:20</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="b">
+        <v>0</v>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555719396933829377', 'createTime': 1759203020, 'createTimeISO': '2025-09-30T03:30:20.000Z', 'text': 'amooo los mochiss', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '73672089083496212</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>10</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>ya los tengo</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>1759195888</v>
+      </c>
+      <c r="H120" s="2" t="n">
+        <v>45930.06351851852</v>
+      </c>
+      <c r="I120" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>01:31:28</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="b">
+        <v>0</v>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555688754276303624', 'createTime': 1759195888, 'createTimeISO': '2025-09-30T01:31:28.000Z', 'text': 'ya los tengo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7506596631263200262', </t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>10</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>y si estoy en Colombia</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>1759193568</v>
+      </c>
+      <c r="H121" s="2" t="n">
+        <v>45930.03666666667</v>
+      </c>
+      <c r="I121" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>00:52:48</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="b">
+        <v>0</v>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555678757781422856', 'createTime': 1759193568, 'createTimeISO': '2025-09-30T00:52:48.000Z', 'text': 'y si estoy en Colombia', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '751137034569</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>10</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>yo lo consigo en una papelera sin comprar el yogur</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>1759192491</v>
+      </c>
+      <c r="H122" s="2" t="n">
+        <v>45930.02420138889</v>
+      </c>
+      <c r="I122" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>00:34:51</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="b">
+        <v>0</v>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555674134270001927', 'createTime': 1759192491, 'createTimeISO': '2025-09-30T00:34:51.000Z', 'text': 'yo lo consigo en una papelera sin comprar el yogur', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTot</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>10</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>pero sola mente sonos logos que disen todo yogo</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>1759191179</v>
+      </c>
+      <c r="H123" s="2" t="n">
+        <v>45930.0090162037</v>
+      </c>
+      <c r="I123" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>00:12:59</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="b">
+        <v>0</v>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555668487608582928', 'createTime': 1759191179, 'createTimeISO': '2025-09-30T00:12:59.000Z', 'text': 'pero sola mente sonos logos que disen todo yogo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal'</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>10</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
+        <is>
           <t>Por que en oxxo por que e
 En Colombia no hay tantos oxxos</t>
         </is>
       </c>
-      <c r="G116" t="n">
+      <c r="G124" t="n">
         <v>1759190618</v>
       </c>
-      <c r="H116" s="2" t="n">
+      <c r="H124" s="2" t="n">
         <v>45930.00252314815</v>
       </c>
-      <c r="I116" s="2" t="n">
+      <c r="I124" s="2" t="n">
         <v>45930</v>
       </c>
-      <c r="J116" t="inlineStr">
+      <c r="J124" t="inlineStr">
         <is>
           <t>00:03:38</t>
         </is>
       </c>
-      <c r="K116" t="n">
-        <v>0</v>
-      </c>
-      <c r="L116" t="n">
-        <v>0</v>
-      </c>
-      <c r="M116" t="b">
-        <v>0</v>
-      </c>
-      <c r="N116" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr">
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="b">
+        <v>0</v>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr">
         <is>
           <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555666073921553160', 'createTime': 1759190618, 'createTimeISO': '2025-09-30T00:03:38.000Z', 'text': 'Por que en oxxo por que e\nEn Colombia no hay tantos oxxos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCo</t>
         </is>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>10</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr">
+    <row r="125">
+      <c r="A125" t="n">
+        <v>10</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
         <is>
           <t>el otro año mochisauros q iluminan
 te dio hambre yogo yogo [sticker]</t>
         </is>
       </c>
-      <c r="G117" t="n">
+      <c r="G125" t="n">
         <v>1759189595</v>
       </c>
-      <c r="H117" s="2" t="n">
+      <c r="H125" s="2" t="n">
         <v>45929.99068287037</v>
-      </c>
-      <c r="I117" s="2" t="n">
-        <v>45929</v>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>23:46:35</t>
-        </is>
-      </c>
-      <c r="K117" t="n">
-        <v>0</v>
-      </c>
-      <c r="L117" t="n">
-        <v>0</v>
-      </c>
-      <c r="M117" t="b">
-        <v>0</v>
-      </c>
-      <c r="N117" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555661675728044807', 'createTime': 1759189595, 'createTimeISO': '2025-09-29T23:46:35.000Z', 'text': 'el otro año mochisauros q iluminan\nte dio hambre yogo yogo [sticker]', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': Non</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>10</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>en muchos lugares no hay Oxxo no pensaron en nosotros</t>
-        </is>
-      </c>
-      <c r="G118" t="n">
-        <v>1759189556</v>
-      </c>
-      <c r="H118" s="2" t="n">
-        <v>45929.99023148148</v>
-      </c>
-      <c r="I118" s="2" t="n">
-        <v>45929</v>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>23:45:56</t>
-        </is>
-      </c>
-      <c r="K118" t="n">
-        <v>0</v>
-      </c>
-      <c r="L118" t="n">
-        <v>0</v>
-      </c>
-      <c r="M118" t="b">
-        <v>0</v>
-      </c>
-      <c r="N118" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555661460748206849', 'createTime': 1759189556, 'createTimeISO': '2025-09-29T23:45:56.000Z', 'text': 'en muchos lugares no hay Oxxo no pensaron en nosotros', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyComment</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>10</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>todos los lugares no tiene esa tienda entonces para que hacen eso</t>
-        </is>
-      </c>
-      <c r="G119" t="n">
-        <v>1759189151</v>
-      </c>
-      <c r="H119" s="2" t="n">
-        <v>45929.98554398148</v>
-      </c>
-      <c r="I119" s="2" t="n">
-        <v>45929</v>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>23:39:11</t>
-        </is>
-      </c>
-      <c r="K119" t="n">
-        <v>1</v>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="b">
-        <v>0</v>
-      </c>
-      <c r="N119" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555659801544475400', 'createTime': 1759189151, 'createTimeISO': '2025-09-29T23:39:11.000Z', 'text': 'todos los lugares no tiene esa tienda entonces para que hacen eso', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, '</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>10</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Siempre me toca el mismo caracol amarillo 🥺</t>
-        </is>
-      </c>
-      <c r="G120" t="n">
-        <v>1759186947</v>
-      </c>
-      <c r="H120" s="2" t="n">
-        <v>45929.96003472222</v>
-      </c>
-      <c r="I120" s="3" t="n">
-        <v>45929</v>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>23:02:27</t>
-        </is>
-      </c>
-      <c r="K120" t="n">
-        <v>0</v>
-      </c>
-      <c r="L120" t="n">
-        <v>0</v>
-      </c>
-      <c r="M120" t="b">
-        <v>0</v>
-      </c>
-      <c r="N120" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555650338171339527', 'createTime': 1759186947, 'createTimeISO': '2025-09-29T23:02:27.000Z', 'text': 'Siempre me toca el mismo caracol amarillo 🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0,</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>10</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>ayer compré el yogo premio con la etiqueta de mochisaurios mi hijo con ilusión lo abrió y va y le sale de la coleccion pasada....Nooo así si nooo al menos quiten los de la coleccion pasada para que no pase esto</t>
-        </is>
-      </c>
-      <c r="G121" t="n">
-        <v>1759180125</v>
-      </c>
-      <c r="H121" s="2" t="n">
-        <v>45929.88107638889</v>
-      </c>
-      <c r="I121" s="2" t="n">
-        <v>45929</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>21:08:45</t>
-        </is>
-      </c>
-      <c r="K121" t="n">
-        <v>0</v>
-      </c>
-      <c r="L121" t="n">
-        <v>0</v>
-      </c>
-      <c r="M121" t="b">
-        <v>0</v>
-      </c>
-      <c r="N121" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr">
-        <is>
-          <t xml:space="preserve">{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555620990967153409', 'createTime': 1759180125, 'createTimeISO': '2025-09-29T21:08:45.000Z', 'text': 'ayer compré el yogo premio con la etiqueta de mochisaurios mi hijo con ilusión lo abrió y va y le sale de la coleccion pasada....Nooo así si nooo al menos </t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>10</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>los originales plissss</t>
-        </is>
-      </c>
-      <c r="G122" t="n">
-        <v>1759178348</v>
-      </c>
-      <c r="H122" s="2" t="n">
-        <v>45929.86050925926</v>
-      </c>
-      <c r="I122" s="2" t="n">
-        <v>45929</v>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>20:39:08</t>
-        </is>
-      </c>
-      <c r="K122" t="n">
-        <v>1</v>
-      </c>
-      <c r="L122" t="n">
-        <v>0</v>
-      </c>
-      <c r="M122" t="b">
-        <v>0</v>
-      </c>
-      <c r="N122" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555613367218963217', 'createTime': 1759178348, 'createTimeISO': '2025-09-29T20:39:08.000Z', 'text': 'los originales plissss', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '739486462654</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>10</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Yo tengo el Oxxo a la esquina</t>
-        </is>
-      </c>
-      <c r="G123" t="n">
-        <v>1759175408</v>
-      </c>
-      <c r="H123" s="2" t="n">
-        <v>45929.82648148148</v>
-      </c>
-      <c r="I123" s="3" t="n">
-        <v>45929</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>19:50:08</t>
-        </is>
-      </c>
-      <c r="K123" t="n">
-        <v>0</v>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="b">
-        <v>0</v>
-      </c>
-      <c r="N123" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555600732201698064', 'createTime': 1759175408, 'createTimeISO': '2025-09-29T19:50:08.000Z', 'text': 'Yo tengo el Oxxo a la esquina', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '69986</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>10</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>no hay en Neiva 😓</t>
-        </is>
-      </c>
-      <c r="G124" t="n">
-        <v>1759168683</v>
-      </c>
-      <c r="H124" s="2" t="n">
-        <v>45929.74864583334</v>
-      </c>
-      <c r="I124" s="2" t="n">
-        <v>45929</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>17:58:03</t>
-        </is>
-      </c>
-      <c r="K124" t="n">
-        <v>0</v>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="b">
-        <v>0</v>
-      </c>
-      <c r="N124" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555571926753313544', 'createTime': 1759168683, 'createTimeISO': '2025-09-29T17:58:03.000Z', 'text': 'no hay en Neiva 😓', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '71820109153488578</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>10</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>QUE CALIDAD🗣️🗣️🗣</t>
-        </is>
-      </c>
-      <c r="G125" t="n">
-        <v>1759168678</v>
-      </c>
-      <c r="H125" s="2" t="n">
-        <v>45929.74858796296</v>
       </c>
       <c r="I125" s="2" t="n">
         <v>45929</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>17:57:58</t>
+          <t>23:46:35</t>
         </is>
       </c>
       <c r="K125" t="n">
@@ -8083,7 +8083,7 @@
       <c r="O125" t="inlineStr"/>
       <c r="P125" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555571878653592340', 'createTime': 1759168678, 'createTimeISO': '2025-09-29T17:57:58.000Z', 'text': 'QUE CALIDAD🗣️🗣️🗣', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '745831460311161344</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555661675728044807', 'createTime': 1759189595, 'createTimeISO': '2025-09-29T23:46:35.000Z', 'text': 'el otro año mochisauros q iluminan\nte dio hambre yogo yogo [sticker]', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': Non</t>
         </is>
       </c>
     </row>
@@ -8109,25 +8109,25 @@
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr">
         <is>
-          <t>saquen mochis en forma de looney toons 😁</t>
+          <t>en muchos lugares no hay Oxxo no pensaron en nosotros</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1759167789</v>
+        <v>1759189556</v>
       </c>
       <c r="H126" s="2" t="n">
-        <v>45929.73829861111</v>
+        <v>45929.99023148148</v>
       </c>
       <c r="I126" s="2" t="n">
         <v>45929</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>17:43:09</t>
+          <t>23:45:56</t>
         </is>
       </c>
       <c r="K126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L126" t="n">
         <v>0</v>
@@ -8143,7 +8143,7 @@
       <c r="O126" t="inlineStr"/>
       <c r="P126" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555568041485681424', 'createTime': 1759167789, 'createTimeISO': '2025-09-29T17:43:09.000Z', 'text': 'saquen mochis en forma de looney toons 😁', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'u</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555661460748206849', 'createTime': 1759189556, 'createTimeISO': '2025-09-29T23:45:56.000Z', 'text': 'en muchos lugares no hay Oxxo no pensaron en nosotros', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyComment</t>
         </is>
       </c>
     </row>
@@ -8169,25 +8169,25 @@
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr">
         <is>
-          <t>en todas las tiendas</t>
+          <t>todos los lugares no tiene esa tienda entonces para que hacen eso</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1759165995</v>
+        <v>1759189151</v>
       </c>
       <c r="H127" s="2" t="n">
-        <v>45929.71753472222</v>
+        <v>45929.98554398148</v>
       </c>
       <c r="I127" s="2" t="n">
         <v>45929</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>17:13:15</t>
+          <t>23:39:11</t>
         </is>
       </c>
       <c r="K127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L127" t="n">
         <v>1</v>
@@ -8203,7 +8203,7 @@
       <c r="O127" t="inlineStr"/>
       <c r="P127" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555560366673462037', 'createTime': 1759165995, 'createTimeISO': '2025-09-29T17:13:15.000Z', 'text': 'en todas las tiendas', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '72853820012501</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555659801544475400', 'createTime': 1759189151, 'createTimeISO': '2025-09-29T23:39:11.000Z', 'text': 'todos los lugares no tiene esa tienda entonces para que hacen eso', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, '</t>
         </is>
       </c>
     </row>
@@ -8229,21 +8229,21 @@
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr">
         <is>
-          <t>part 2</t>
+          <t>Siempre me toca el mismo caracol amarillo 🥺</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1759153267</v>
+        <v>1759186947</v>
       </c>
       <c r="H128" s="2" t="n">
-        <v>45929.57021990741</v>
-      </c>
-      <c r="I128" s="3" t="n">
+        <v>45929.96003472222</v>
+      </c>
+      <c r="I128" s="2" t="n">
         <v>45929</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>13:41:07</t>
+          <t>23:02:27</t>
         </is>
       </c>
       <c r="K128" t="n">
@@ -8263,7 +8263,7 @@
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555505705790538514', 'createTime': 1759153267, 'createTimeISO': '2025-09-29T13:41:07.000Z', 'text': 'part 2', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7518189866266526728', 'uniqu</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555650338171339527', 'createTime': 1759186947, 'createTimeISO': '2025-09-29T23:02:27.000Z', 'text': 'Siempre me toca el mismo caracol amarillo 🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0,</t>
         </is>
       </c>
     </row>
@@ -8289,28 +8289,28 @@
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Los quieroooooo</t>
+          <t>ayer compré el yogo premio con la etiqueta de mochisaurios mi hijo con ilusión lo abrió y va y le sale de la coleccion pasada....Nooo así si nooo al menos quiten los de la coleccion pasada para que no pase esto</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1759146832</v>
+        <v>1759180125</v>
       </c>
       <c r="H129" s="2" t="n">
-        <v>45929.49574074074</v>
-      </c>
-      <c r="I129" s="3" t="n">
+        <v>45929.88107638889</v>
+      </c>
+      <c r="I129" s="2" t="n">
         <v>45929</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>11:53:52</t>
+          <t>21:08:45</t>
         </is>
       </c>
       <c r="K129" t="n">
         <v>0</v>
       </c>
       <c r="L129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M129" t="b">
         <v>0</v>
@@ -8323,7 +8323,7 @@
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555478087270515477', 'createTime': 1759146832, 'createTimeISO': '2025-09-29T11:53:52.000Z', 'text': 'Los quieroooooo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6886209614263403522</t>
+          <t xml:space="preserve">{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555620990967153409', 'createTime': 1759180125, 'createTimeISO': '2025-09-29T21:08:45.000Z', 'text': 'ayer compré el yogo premio con la etiqueta de mochisaurios mi hijo con ilusión lo abrió y va y le sale de la coleccion pasada....Nooo así si nooo al menos </t>
         </is>
       </c>
     </row>
@@ -8349,25 +8349,25 @@
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Excelente. Hacen falta estas promociones en los productos y que mejoren la calidad de la leche en bolsa</t>
+          <t>los originales plissss</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1759119502</v>
+        <v>1759178348</v>
       </c>
       <c r="H130" s="2" t="n">
-        <v>45929.1794212963</v>
+        <v>45929.86050925926</v>
       </c>
       <c r="I130" s="2" t="n">
         <v>45929</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>04:18:22</t>
+          <t>20:39:08</t>
         </is>
       </c>
       <c r="K130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L130" t="n">
         <v>0</v>
@@ -8383,7 +8383,7 @@
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555360657135682321', 'createTime': 1759119502, 'createTimeISO': '2025-09-29T04:18:22.000Z', 'text': 'Excelente. Hacen falta estas promociones en los productos y que mejoren la calidad de la leche en bolsa', 'diggCount': 0, 'likedByAuthor': False, 'pinnedBy</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555613367218963217', 'createTime': 1759178348, 'createTimeISO': '2025-09-29T20:39:08.000Z', 'text': 'los originales plissss', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '739486462654</t>
         </is>
       </c>
     </row>
@@ -8409,21 +8409,21 @@
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr">
         <is>
-          <t>pero si ya corte los logos y no corte lo que dice mochisaurios y tampoco tengo el código??</t>
+          <t>Yo tengo el Oxxo a la esquina</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1759113614</v>
+        <v>1759175408</v>
       </c>
       <c r="H131" s="2" t="n">
-        <v>45929.11127314815</v>
+        <v>45929.82648148148</v>
       </c>
       <c r="I131" s="2" t="n">
         <v>45929</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>02:40:14</t>
+          <t>19:50:08</t>
         </is>
       </c>
       <c r="K131" t="n">
@@ -8443,7 +8443,7 @@
       <c r="O131" t="inlineStr"/>
       <c r="P131" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555335413934981895', 'createTime': 1759113614, 'createTimeISO': '2025-09-29T02:40:14.000Z', 'text': 'pero si ya corte los logos y no corte lo que dice mochisaurios y tampoco tengo el código??', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': Fals</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555600732201698064', 'createTime': 1759175408, 'createTimeISO': '2025-09-29T19:50:08.000Z', 'text': 'Yo tengo el Oxxo a la esquina', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '69986</t>
         </is>
       </c>
     </row>
@@ -8469,28 +8469,28 @@
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr">
         <is>
-          <t>es mejor la paleta Drácula</t>
+          <t>no hay en Neiva 😓</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1759112434</v>
+        <v>1759168683</v>
       </c>
       <c r="H132" s="2" t="n">
-        <v>45929.09761574074</v>
+        <v>45929.74864583334</v>
       </c>
       <c r="I132" s="2" t="n">
         <v>45929</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>02:20:34</t>
+          <t>17:58:03</t>
         </is>
       </c>
       <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
         <v>1</v>
-      </c>
-      <c r="L132" t="n">
-        <v>0</v>
       </c>
       <c r="M132" t="b">
         <v>0</v>
@@ -8503,7 +8503,7 @@
       <c r="O132" t="inlineStr"/>
       <c r="P132" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555330316220629781', 'createTime': 1759112434, 'createTimeISO': '2025-09-29T02:20:34.000Z', 'text': 'es mejor la paleta Drácula', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '74702433</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555571926753313544', 'createTime': 1759168683, 'createTimeISO': '2025-09-29T17:58:03.000Z', 'text': 'no hay en Neiva 😓', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '71820109153488578</t>
         </is>
       </c>
     </row>
@@ -8529,25 +8529,25 @@
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Tanta cosa para uno</t>
+          <t>QUE CALIDAD🗣️🗣️🗣</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1759104165</v>
+        <v>1759168678</v>
       </c>
       <c r="H133" s="2" t="n">
-        <v>45929.00190972222</v>
+        <v>45929.74858796296</v>
       </c>
       <c r="I133" s="2" t="n">
         <v>45929</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>00:02:45</t>
+          <t>17:57:58</t>
         </is>
       </c>
       <c r="K133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L133" t="n">
         <v>0</v>
@@ -8563,7 +8563,7 @@
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555294742864954119', 'createTime': 1759104165, 'createTimeISO': '2025-09-29T00:02:45.000Z', 'text': 'Tanta cosa para uno', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '724391215816946</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555571878653592340', 'createTime': 1759168678, 'createTimeISO': '2025-09-29T17:57:58.000Z', 'text': 'QUE CALIDAD🗣️🗣️🗣', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '745831460311161344</t>
         </is>
       </c>
     </row>
@@ -8589,25 +8589,25 @@
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr">
         <is>
-          <t>ya we déjenlo pasar🥀</t>
+          <t>saquen mochis en forma de looney toons 😁</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1759100400</v>
+        <v>1759167789</v>
       </c>
       <c r="H134" s="2" t="n">
-        <v>45928.95833333334</v>
+        <v>45929.73829861111</v>
       </c>
       <c r="I134" s="2" t="n">
-        <v>45928</v>
+        <v>45929</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>23:00:00</t>
+          <t>17:43:09</t>
         </is>
       </c>
       <c r="K134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L134" t="n">
         <v>0</v>
@@ -8623,7 +8623,7 @@
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555278564566205204', 'createTime': 1759100400, 'createTimeISO': '2025-09-28T23:00:00.000Z', 'text': 'ya we déjenlo pasar🥀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '74429383902517</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555568041485681424', 'createTime': 1759167789, 'createTimeISO': '2025-09-29T17:43:09.000Z', 'text': 'saquen mochis en forma de looney toons 😁', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'u</t>
         </is>
       </c>
     </row>
@@ -8649,28 +8649,28 @@
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr">
         <is>
-          <t>yo los tengo tengo el rosado y el azul</t>
+          <t>en todas las tiendas</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1759100154</v>
+        <v>1759165995</v>
       </c>
       <c r="H135" s="2" t="n">
-        <v>45928.95548611111</v>
-      </c>
-      <c r="I135" s="3" t="n">
-        <v>45928</v>
+        <v>45929.71753472222</v>
+      </c>
+      <c r="I135" s="2" t="n">
+        <v>45929</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>22:55:54</t>
+          <t>17:13:15</t>
         </is>
       </c>
       <c r="K135" t="n">
         <v>0</v>
       </c>
       <c r="L135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M135" t="b">
         <v>0</v>
@@ -8683,7 +8683,7 @@
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555277557701575431', 'createTime': 1759100154, 'createTimeISO': '2025-09-28T22:55:54.000Z', 'text': 'yo los tengo tengo el rosado y el azul', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555560366673462037', 'createTime': 1759165995, 'createTimeISO': '2025-09-29T17:13:15.000Z', 'text': 'en todas las tiendas', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '72853820012501</t>
         </is>
       </c>
     </row>
@@ -8709,21 +8709,21 @@
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr">
         <is>
-          <t>acá en mi ciudad no hay</t>
+          <t>part 2</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1759091657</v>
+        <v>1759153267</v>
       </c>
       <c r="H136" s="2" t="n">
-        <v>45928.85714120371</v>
-      </c>
-      <c r="I136" s="3" t="n">
-        <v>45928</v>
+        <v>45929.57021990741</v>
+      </c>
+      <c r="I136" s="2" t="n">
+        <v>45929</v>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>20:34:17</t>
+          <t>13:41:07</t>
         </is>
       </c>
       <c r="K136" t="n">
@@ -8743,7 +8743,7 @@
       <c r="O136" t="inlineStr"/>
       <c r="P136" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555241088127124242', 'createTime': 1759091657, 'createTimeISO': '2025-09-28T20:34:17.000Z', 'text': 'acá en mi ciudad no hay', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '75471701674</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555505705790538514', 'createTime': 1759153267, 'createTimeISO': '2025-09-29T13:41:07.000Z', 'text': 'part 2', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7518189866266526728', 'uniqu</t>
         </is>
       </c>
     </row>
@@ -8769,21 +8769,21 @@
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr">
         <is>
-          <t>ya se dieron cuenta que Coca-Cola trajo nuevamente los hielocos.</t>
+          <t>Los quieroooooo</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1759089211</v>
+        <v>1759146832</v>
       </c>
       <c r="H137" s="2" t="n">
-        <v>45928.82883101852</v>
-      </c>
-      <c r="I137" s="3" t="n">
-        <v>45928</v>
+        <v>45929.49574074074</v>
+      </c>
+      <c r="I137" s="2" t="n">
+        <v>45929</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>19:53:31</t>
+          <t>11:53:52</t>
         </is>
       </c>
       <c r="K137" t="n">
@@ -8803,7 +8803,7 @@
       <c r="O137" t="inlineStr"/>
       <c r="P137" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555230564963648264', 'createTime': 1759089211, 'createTimeISO': '2025-09-28T19:53:31.000Z', 'text': 'ya se dieron cuenta que Coca-Cola trajo nuevamente los hielocos.', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'r</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555478087270515477', 'createTime': 1759146832, 'createTimeISO': '2025-09-29T11:53:52.000Z', 'text': 'Los quieroooooo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6886209614263403522</t>
         </is>
       </c>
     </row>
@@ -8829,28 +8829,28 @@
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr">
         <is>
-          <t>en Colombia no hay OXXO</t>
+          <t>Excelente. Hacen falta estas promociones en los productos y que mejoren la calidad de la leche en bolsa</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1759088333</v>
+        <v>1759119502</v>
       </c>
       <c r="H138" s="2" t="n">
-        <v>45928.81866898148</v>
+        <v>45929.1794212963</v>
       </c>
       <c r="I138" s="2" t="n">
-        <v>45928</v>
+        <v>45929</v>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>19:38:53</t>
+          <t>04:18:22</t>
         </is>
       </c>
       <c r="K138" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L138" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M138" t="b">
         <v>0</v>
@@ -8863,7 +8863,7 @@
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555226815825003282', 'createTime': 1759088333, 'createTimeISO': '2025-09-28T19:38:53.000Z', 'text': 'en Colombia no hay OXXO', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 10, 'uid': '7239017294</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555360657135682321', 'createTime': 1759119502, 'createTimeISO': '2025-09-29T04:18:22.000Z', 'text': 'Excelente. Hacen falta estas promociones en los productos y que mejoren la calidad de la leche en bolsa', 'diggCount': 0, 'likedByAuthor': False, 'pinnedBy</t>
         </is>
       </c>
     </row>
@@ -8889,28 +8889,28 @@
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>pero si ya corte los logos y no corte lo que dice mochisaurios y tampoco tengo el código??</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1759087490</v>
+        <v>1759113614</v>
       </c>
       <c r="H139" s="2" t="n">
-        <v>45928.80891203704</v>
-      </c>
-      <c r="I139" s="3" t="n">
-        <v>45928</v>
+        <v>45929.11127314815</v>
+      </c>
+      <c r="I139" s="2" t="n">
+        <v>45929</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>19:24:50</t>
+          <t>02:40:14</t>
         </is>
       </c>
       <c r="K139" t="n">
         <v>0</v>
       </c>
       <c r="L139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M139" t="b">
         <v>0</v>
@@ -8923,7 +8923,7 @@
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555223199790154503', 'createTime': 1759087490, 'createTimeISO': '2025-09-28T19:24:50.000Z', 'text': 'ok', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6987105799349847046', 'uniqueId'</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555335413934981895', 'createTime': 1759113614, 'createTimeISO': '2025-09-29T02:40:14.000Z', 'text': 'pero si ya corte los logos y no corte lo que dice mochisaurios y tampoco tengo el código??', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': Fals</t>
         </is>
       </c>
     </row>
@@ -8949,25 +8949,25 @@
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr">
         <is>
-          <t>alguien sabe si aceptan los mismos paquetes de los yogopremio? 🥹 los logos</t>
+          <t>es mejor la paleta Drácula</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1759086671</v>
+        <v>1759112434</v>
       </c>
       <c r="H140" s="2" t="n">
-        <v>45928.79943287037</v>
-      </c>
-      <c r="I140" s="3" t="n">
-        <v>45928</v>
+        <v>45929.09761574074</v>
+      </c>
+      <c r="I140" s="2" t="n">
+        <v>45929</v>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>19:11:11</t>
+          <t>02:20:34</t>
         </is>
       </c>
       <c r="K140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L140" t="n">
         <v>0</v>
@@ -8983,7 +8983,7 @@
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555219507196871441', 'createTime': 1759086671, 'createTimeISO': '2025-09-28T19:11:11.000Z', 'text': 'alguien sabe si aceptan los mismos paquetes de los yogopremio? 🥹 los logos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId'</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555330316220629781', 'createTime': 1759112434, 'createTimeISO': '2025-09-29T02:20:34.000Z', 'text': 'es mejor la paleta Drácula', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '74702433</t>
         </is>
       </c>
     </row>
@@ -9009,25 +9009,25 @@
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr">
         <is>
-          <t>yo soy de pitalito huila y no hay oxxo</t>
+          <t>Tanta cosa para uno</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1759084654</v>
+        <v>1759104165</v>
       </c>
       <c r="H141" s="2" t="n">
-        <v>45928.77608796296</v>
-      </c>
-      <c r="I141" s="3" t="n">
-        <v>45928</v>
+        <v>45929.00190972222</v>
+      </c>
+      <c r="I141" s="2" t="n">
+        <v>45929</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>18:37:34</t>
+          <t>00:02:45</t>
         </is>
       </c>
       <c r="K141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L141" t="n">
         <v>0</v>
@@ -9043,7 +9043,7 @@
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555211031862461191', 'createTime': 1759084654, 'createTimeISO': '2025-09-28T18:37:34.000Z', 'text': 'yo soy de pitalito huila y no hay oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555294742864954119', 'createTime': 1759104165, 'createTimeISO': '2025-09-29T00:02:45.000Z', 'text': 'Tanta cosa para uno', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '724391215816946</t>
         </is>
       </c>
     </row>
@@ -9069,25 +9069,25 @@
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr">
         <is>
-          <t>son mejores los de colanta</t>
+          <t>ya we déjenlo pasar🥀</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1759084089</v>
+        <v>1759100400</v>
       </c>
       <c r="H142" s="2" t="n">
-        <v>45928.76954861111</v>
+        <v>45928.95833333334</v>
       </c>
       <c r="I142" s="2" t="n">
         <v>45928</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>18:28:09</t>
+          <t>23:00:00</t>
         </is>
       </c>
       <c r="K142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L142" t="n">
         <v>0</v>
@@ -9103,7 +9103,7 @@
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555208572725822228', 'createTime': 1759084089, 'createTimeISO': '2025-09-28T18:28:09.000Z', 'text': 'son mejores los de colanta', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '69700947</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555278564566205204', 'createTime': 1759100400, 'createTimeISO': '2025-09-28T23:00:00.000Z', 'text': 'ya we déjenlo pasar🥀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '74429383902517</t>
         </is>
       </c>
     </row>
@@ -9129,25 +9129,25 @@
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Mucha vaina pa eso</t>
+          <t>yo los tengo tengo el rosado y el azul</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1759083275</v>
+        <v>1759100154</v>
       </c>
       <c r="H143" s="2" t="n">
-        <v>45928.76012731482</v>
+        <v>45928.95548611111</v>
       </c>
       <c r="I143" s="2" t="n">
         <v>45928</v>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>18:14:35</t>
+          <t>22:55:54</t>
         </is>
       </c>
       <c r="K143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L143" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
       <c r="O143" t="inlineStr"/>
       <c r="P143" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555205113074369287', 'createTime': 1759083275, 'createTimeISO': '2025-09-28T18:14:35.000Z', 'text': 'Mucha vaina pa eso', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6936408559421850</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555277557701575431', 'createTime': 1759100154, 'createTimeISO': '2025-09-28T22:55:54.000Z', 'text': 'yo los tengo tengo el rosado y el azul', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid</t>
         </is>
       </c>
     </row>
@@ -9189,21 +9189,21 @@
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr">
         <is>
-          <t>mi hijo tiene muchos ya</t>
+          <t>acá en mi ciudad no hay</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1759079658</v>
+        <v>1759091657</v>
       </c>
       <c r="H144" s="2" t="n">
-        <v>45928.71826388889</v>
-      </c>
-      <c r="I144" s="3" t="n">
+        <v>45928.85714120371</v>
+      </c>
+      <c r="I144" s="2" t="n">
         <v>45928</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>17:14:18</t>
+          <t>20:34:17</t>
         </is>
       </c>
       <c r="K144" t="n">
@@ -9223,7 +9223,7 @@
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555189568158171922', 'createTime': 1759079658, 'createTimeISO': '2025-09-28T17:14:18.000Z', 'text': 'mi hijo tiene muchos ya', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '71985917046</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555241088127124242', 'createTime': 1759091657, 'createTimeISO': '2025-09-28T20:34:17.000Z', 'text': 'acá en mi ciudad no hay', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '75471701674</t>
         </is>
       </c>
     </row>
@@ -9249,28 +9249,28 @@
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Soy de Colombia y vivo alado de un oxxo!! Yeii qué bien 😭💓💓</t>
+          <t>ya se dieron cuenta que Coca-Cola trajo nuevamente los hielocos.</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1759077817</v>
+        <v>1759089211</v>
       </c>
       <c r="H145" s="2" t="n">
-        <v>45928.69695601852</v>
+        <v>45928.82883101852</v>
       </c>
       <c r="I145" s="2" t="n">
         <v>45928</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>16:43:37</t>
+          <t>19:53:31</t>
         </is>
       </c>
       <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" t="n">
         <v>1</v>
-      </c>
-      <c r="L145" t="n">
-        <v>0</v>
       </c>
       <c r="M145" t="b">
         <v>0</v>
@@ -9283,7 +9283,7 @@
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555181660511683346', 'createTime': 1759077817, 'createTimeISO': '2025-09-28T16:43:37.000Z', 'text': 'Soy de Colombia y vivo alado de un oxxo!! Yeii qué bien 😭💓💓', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyC</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555230564963648264', 'createTime': 1759089211, 'createTimeISO': '2025-09-28T19:53:31.000Z', 'text': 'ya se dieron cuenta que Coca-Cola trajo nuevamente los hielocos.', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'r</t>
         </is>
       </c>
     </row>
@@ -9309,28 +9309,28 @@
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr">
         <is>
-          <t>eso pa que</t>
+          <t>en Colombia no hay OXXO</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1759037123</v>
+        <v>1759088333</v>
       </c>
       <c r="H146" s="2" t="n">
-        <v>45928.22596064815</v>
-      </c>
-      <c r="I146" s="3" t="n">
+        <v>45928.81866898148</v>
+      </c>
+      <c r="I146" s="2" t="n">
         <v>45928</v>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>05:25:23</t>
+          <t>19:38:53</t>
         </is>
       </c>
       <c r="K146" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L146" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M146" t="b">
         <v>0</v>
@@ -9343,7 +9343,7 @@
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555006889290826503', 'createTime': 1759037123, 'createTimeISO': '2025-09-28T05:25:23.000Z', 'text': 'eso pa que', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7542870679370417160', 'u</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555226815825003282', 'createTime': 1759088333, 'createTimeISO': '2025-09-28T19:38:53.000Z', 'text': 'en Colombia no hay OXXO', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 10, 'uid': '7239017294</t>
         </is>
       </c>
     </row>
@@ -9369,21 +9369,21 @@
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr">
         <is>
-          <t>yo los compré y cuando lo abrí me salió una pa pegar en el bolso</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1759029298</v>
+        <v>1759087490</v>
       </c>
       <c r="H147" s="2" t="n">
-        <v>45928.13539351852</v>
-      </c>
-      <c r="I147" s="3" t="n">
+        <v>45928.80891203704</v>
+      </c>
+      <c r="I147" s="2" t="n">
         <v>45928</v>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>03:14:58</t>
+          <t>19:24:50</t>
         </is>
       </c>
       <c r="K147" t="n">
@@ -9403,7 +9403,7 @@
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554973274371982100', 'createTime': 1759029298, 'createTimeISO': '2025-09-28T03:14:58.000Z', 'text': 'yo los compré y cuando lo abrí me salió una pa pegar en el bolso', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'r</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555223199790154503', 'createTime': 1759087490, 'createTimeISO': '2025-09-28T19:24:50.000Z', 'text': 'ok', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6987105799349847046', 'uniqueId'</t>
         </is>
       </c>
     </row>
@@ -9429,28 +9429,28 @@
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr">
         <is>
-          <t>mucho trabajo para un muñeco</t>
+          <t>alguien sabe si aceptan los mismos paquetes de los yogopremio? 🥹 los logos</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1759028194</v>
+        <v>1759086671</v>
       </c>
       <c r="H148" s="2" t="n">
-        <v>45928.12261574074</v>
+        <v>45928.79943287037</v>
       </c>
       <c r="I148" s="2" t="n">
         <v>45928</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>02:56:34</t>
+          <t>19:11:11</t>
         </is>
       </c>
       <c r="K148" t="n">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="L148" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M148" t="b">
         <v>0</v>
@@ -9463,7 +9463,7 @@
       <c r="O148" t="inlineStr"/>
       <c r="P148" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554968530820268818', 'createTime': 1759028194, 'createTimeISO': '2025-09-28T02:56:34.000Z', 'text': 'mucho trabajo para un muñeco', 'diggCount': 178, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 8, 'uid': '6900</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555219507196871441', 'createTime': 1759086671, 'createTimeISO': '2025-09-28T19:11:11.000Z', 'text': 'alguien sabe si aceptan los mismos paquetes de los yogopremio? 🥹 los logos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId'</t>
         </is>
       </c>
     </row>
@@ -9489,21 +9489,21 @@
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr">
         <is>
-          <t>mi mala suerte, tenía dos abri un yogurt y me salió repetido</t>
+          <t>una pregunta soy de Colombia pero vivo en un lugar un poco lejos 🥺 cuando llegan es Arauca</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1759017803</v>
+        <v>1759085862</v>
       </c>
       <c r="H149" s="2" t="n">
-        <v>45928.00234953704</v>
+        <v>45928.79006944445</v>
       </c>
       <c r="I149" s="3" t="n">
         <v>45928</v>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>00:03:23</t>
+          <t>18:57:42</t>
         </is>
       </c>
       <c r="K149" t="n">
@@ -9523,7 +9523,7 @@
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554923850959422215', 'createTime': 1759017803, 'createTimeISO': '2025-09-28T00:03:23.000Z', 'text': 'mi mala suerte, tenía dos abri un yogurt y me salió repetido', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'reply</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555216216953078536', 'createTime': 1759085862, 'createTimeISO': '2025-09-28T18:57:42.000Z', 'text': 'una pregunta soy de Colombia pero vivo en un lugar un poco lejos 🥺 cuando llegan es Arauca', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': Fals</t>
         </is>
       </c>
     </row>
@@ -9549,28 +9549,28 @@
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Mas fácil conseguirlos en el yogo premio</t>
+          <t>yo soy de pitalito huila y no hay oxxo</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1759017005</v>
+        <v>1759084654</v>
       </c>
       <c r="H150" s="2" t="n">
-        <v>45927.99311342592</v>
+        <v>45928.77608796296</v>
       </c>
       <c r="I150" s="2" t="n">
-        <v>45927</v>
+        <v>45928</v>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>23:50:05</t>
+          <t>18:37:34</t>
         </is>
       </c>
       <c r="K150" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="L150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M150" t="b">
         <v>0</v>
@@ -9583,7 +9583,7 @@
       <c r="O150" t="inlineStr"/>
       <c r="P150" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554920371642204949', 'createTime': 1759017005, 'createTimeISO': '2025-09-27T23:50:05.000Z', 'text': 'Mas fácil conseguirlos en el yogo premio', 'diggCount': 38, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, '</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555211031862461191', 'createTime': 1759084654, 'createTimeISO': '2025-09-28T18:37:34.000Z', 'text': 'yo soy de pitalito huila y no hay oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid</t>
         </is>
       </c>
     </row>
@@ -9609,21 +9609,21 @@
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr">
         <is>
-          <t>pero en los yogo premio viene uno... no entiendo cuál es la diferencia</t>
+          <t>son mejores los de colanta</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1759016158</v>
+        <v>1759084089</v>
       </c>
       <c r="H151" s="2" t="n">
-        <v>45927.98331018518</v>
-      </c>
-      <c r="I151" s="3" t="n">
-        <v>45927</v>
+        <v>45928.76954861111</v>
+      </c>
+      <c r="I151" s="2" t="n">
+        <v>45928</v>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>23:35:58</t>
+          <t>18:28:09</t>
         </is>
       </c>
       <c r="K151" t="n">
@@ -9643,7 +9643,7 @@
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554916739622372116', 'createTime': 1759016158, 'createTimeISO': '2025-09-27T23:35:58.000Z', 'text': 'pero en los yogo premio viene uno... no entiendo cuál es la diferencia', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': No</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555208572725822228', 'createTime': 1759084089, 'createTimeISO': '2025-09-28T18:28:09.000Z', 'text': 'son mejores los de colanta', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '69700947</t>
         </is>
       </c>
     </row>
@@ -9669,28 +9669,28 @@
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr">
         <is>
-          <t>yo no los incuentroo</t>
+          <t>Mucha vaina pa eso</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1759015389</v>
+        <v>1759083275</v>
       </c>
       <c r="H152" s="2" t="n">
-        <v>45927.97440972222</v>
+        <v>45928.76012731482</v>
       </c>
       <c r="I152" s="2" t="n">
-        <v>45927</v>
+        <v>45928</v>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>23:23:09</t>
+          <t>18:14:35</t>
         </is>
       </c>
       <c r="K152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M152" t="b">
         <v>0</v>
@@ -9703,7 +9703,7 @@
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554913487688909576', 'createTime': 1759015389, 'createTimeISO': '2025-09-27T23:23:09.000Z', 'text': 'yo no los incuentroo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '75193555878112</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555205113074369287', 'createTime': 1759083275, 'createTimeISO': '2025-09-28T18:14:35.000Z', 'text': 'Mucha vaina pa eso', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6936408559421850</t>
         </is>
       </c>
     </row>
@@ -9729,21 +9729,21 @@
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr">
         <is>
-          <t>GRQCIASS. ME DIOO UNOO😭💜</t>
+          <t>mi hijo tiene muchos ya</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1759008261</v>
+        <v>1759079658</v>
       </c>
       <c r="H153" s="2" t="n">
-        <v>45927.89190972222</v>
-      </c>
-      <c r="I153" s="3" t="n">
-        <v>45927</v>
+        <v>45928.71826388889</v>
+      </c>
+      <c r="I153" s="2" t="n">
+        <v>45928</v>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>21:24:21</t>
+          <t>17:14:18</t>
         </is>
       </c>
       <c r="K153" t="n">
@@ -9763,7 +9763,7 @@
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554882846906811137', 'createTime': 1759008261, 'createTimeISO': '2025-09-27T21:24:21.000Z', 'text': 'GRQCIASS. ME DIOO UNOO😭💜', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7306695570</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555189568158171922', 'createTime': 1759079658, 'createTimeISO': '2025-09-28T17:14:18.000Z', 'text': 'mi hijo tiene muchos ya', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '71985917046</t>
         </is>
       </c>
     </row>
@@ -9789,28 +9789,28 @@
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Y si en Neiva no hay Oxxo 😐</t>
+          <t>Soy de Colombia y vivo alado de un oxxo!! Yeii qué bien 😭💓💓</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1759007960</v>
+        <v>1759077817</v>
       </c>
       <c r="H154" s="2" t="n">
-        <v>45927.88842592593</v>
+        <v>45928.69695601852</v>
       </c>
       <c r="I154" s="2" t="n">
-        <v>45927</v>
+        <v>45928</v>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>21:19:20</t>
+          <t>16:43:37</t>
         </is>
       </c>
       <c r="K154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M154" t="b">
         <v>0</v>
@@ -9823,7 +9823,7 @@
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554881592553718535', 'createTime': 1759007960, 'createTimeISO': '2025-09-27T21:19:20.000Z', 'text': 'Y si en Neiva no hay Oxxo 😐', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7525546</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555181660511683346', 'createTime': 1759077817, 'createTimeISO': '2025-09-28T16:43:37.000Z', 'text': 'Soy de Colombia y vivo alado de un oxxo!! Yeii qué bien 😭💓💓', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyC</t>
         </is>
       </c>
     </row>
@@ -9849,21 +9849,21 @@
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr">
         <is>
-          <t>yo tengo el azul 🥹🥹🥹</t>
+          <t>eso pa que</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1758994382</v>
+        <v>1759037123</v>
       </c>
       <c r="H155" s="2" t="n">
-        <v>45927.73127314815</v>
-      </c>
-      <c r="I155" s="3" t="n">
-        <v>45927</v>
+        <v>45928.22596064815</v>
+      </c>
+      <c r="I155" s="2" t="n">
+        <v>45928</v>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>17:33:02</t>
+          <t>05:25:23</t>
         </is>
       </c>
       <c r="K155" t="n">
@@ -9883,7 +9883,7 @@
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554823300175905544', 'createTime': 1758994382, 'createTimeISO': '2025-09-27T17:33:02.000Z', 'text': 'yo tengo el azul 🥹🥹🥹', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '73578366161470</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7555006889290826503', 'createTime': 1759037123, 'createTimeISO': '2025-09-28T05:25:23.000Z', 'text': 'eso pa que', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7542870679370417160', 'u</t>
         </is>
       </c>
     </row>
@@ -9909,28 +9909,28 @@
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Aquí en Cartagena no ha Oxxos 🥺🥺🥺</t>
+          <t>yo los compré y cuando lo abrí me salió una pa pegar en el bolso</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1758990084</v>
+        <v>1759029298</v>
       </c>
       <c r="H156" s="2" t="n">
-        <v>45927.68152777778</v>
+        <v>45928.13539351852</v>
       </c>
       <c r="I156" s="2" t="n">
-        <v>45927</v>
+        <v>45928</v>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>16:21:24</t>
+          <t>03:14:58</t>
         </is>
       </c>
       <c r="K156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M156" t="b">
         <v>0</v>
@@ -9943,7 +9943,7 @@
       <c r="O156" t="inlineStr"/>
       <c r="P156" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554804848962847506', 'createTime': 1758990084, 'createTimeISO': '2025-09-27T16:21:24.000Z', 'text': 'Aquí en Cartagena no ha Oxxos 🥺🥺🥺', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554973274371982100', 'createTime': 1759029298, 'createTimeISO': '2025-09-28T03:14:58.000Z', 'text': 'yo los compré y cuando lo abrí me salió una pa pegar en el bolso', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'r</t>
         </is>
       </c>
     </row>
@@ -9969,28 +9969,28 @@
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Que pereza tan vuelta!! y aquí estamos en Colombia porque una tienda de otra parte que no tiene presencia en toda Colombia.</t>
+          <t>mucho trabajo para un muñeco</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1758988615</v>
+        <v>1759028194</v>
       </c>
       <c r="H157" s="2" t="n">
-        <v>45927.66452546296</v>
+        <v>45928.12261574074</v>
       </c>
       <c r="I157" s="2" t="n">
-        <v>45927</v>
+        <v>45928</v>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>15:56:55</t>
+          <t>02:56:34</t>
         </is>
       </c>
       <c r="K157" t="n">
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="L157" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M157" t="b">
         <v>0</v>
@@ -10003,7 +10003,7 @@
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554798543229666055', 'createTime': 1758988615, 'createTimeISO': '2025-09-27T15:56:55.000Z', 'text': 'Que pereza tan vuelta!! y aquí estamos en Colombia porque una tienda de otra parte que no tiene presencia en toda Colombia.', 'diggCount': 11, 'likedByAuth</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554968530820268818', 'createTime': 1759028194, 'createTimeISO': '2025-09-28T02:56:34.000Z', 'text': 'mucho trabajo para un muñeco', 'diggCount': 178, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 8, 'uid': '6900</t>
         </is>
       </c>
     </row>
@@ -10029,25 +10029,25 @@
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Los Amooo pero Uyy un montón de cosas para el recambio!</t>
+          <t>mi mala suerte, tenía dos abri un yogurt y me salió repetido</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1758943306</v>
+        <v>1759017803</v>
       </c>
       <c r="H158" s="2" t="n">
-        <v>45927.14011574074</v>
+        <v>45928.00234953704</v>
       </c>
       <c r="I158" s="2" t="n">
-        <v>45927</v>
+        <v>45928</v>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>03:21:46</t>
+          <t>00:03:23</t>
         </is>
       </c>
       <c r="K158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L158" t="n">
         <v>0</v>
@@ -10063,7 +10063,7 @@
       <c r="O158" t="inlineStr"/>
       <c r="P158" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554603916571640577', 'createTime': 1758943306, 'createTimeISO': '2025-09-27T03:21:46.000Z', 'text': 'Los Amooo pero Uyy un montón de cosas para el recambio!', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyComme</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554923850959422215', 'createTime': 1759017803, 'createTimeISO': '2025-09-28T00:03:23.000Z', 'text': 'mi mala suerte, tenía dos abri un yogurt y me salió repetido', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'reply</t>
         </is>
       </c>
     </row>
@@ -10089,28 +10089,28 @@
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr">
         <is>
-          <t>ami me salió un cocodrilo</t>
+          <t>Mas fácil conseguirlos en el yogo premio</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1758936609</v>
+        <v>1759017005</v>
       </c>
       <c r="H159" s="2" t="n">
-        <v>45927.06260416667</v>
-      </c>
-      <c r="I159" s="3" t="n">
+        <v>45927.99311342592</v>
+      </c>
+      <c r="I159" s="2" t="n">
         <v>45927</v>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>01:30:09</t>
+          <t>23:50:05</t>
         </is>
       </c>
       <c r="K159" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="L159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M159" t="b">
         <v>0</v>
@@ -10123,7 +10123,7 @@
       <c r="O159" t="inlineStr"/>
       <c r="P159" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554575152081535765', 'createTime': 1758936609, 'createTimeISO': '2025-09-27T01:30:09.000Z', 'text': 'ami me salió un cocodrilo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '688257028</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554920371642204949', 'createTime': 1759017005, 'createTimeISO': '2025-09-27T23:50:05.000Z', 'text': 'Mas fácil conseguirlos en el yogo premio', 'diggCount': 38, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, '</t>
         </is>
       </c>
     </row>
@@ -10149,28 +10149,28 @@
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr">
         <is>
-          <t>y si ya corte los logos y no dice mochi saurios y ya vote el empaque con el qr</t>
+          <t>pero en los yogo premio viene uno... no entiendo cuál es la diferencia</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1758935989</v>
+        <v>1759016158</v>
       </c>
       <c r="H160" s="2" t="n">
-        <v>45927.05542824074</v>
+        <v>45927.98331018518</v>
       </c>
       <c r="I160" s="2" t="n">
         <v>45927</v>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>01:19:49</t>
+          <t>23:35:58</t>
         </is>
       </c>
       <c r="K160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M160" t="b">
         <v>0</v>
@@ -10183,7 +10183,7 @@
       <c r="O160" t="inlineStr"/>
       <c r="P160" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554572506653803272', 'createTime': 1758935989, 'createTimeISO': '2025-09-27T01:19:49.000Z', 'text': 'y si ya corte los logos y no dice mochi saurios y ya vote el empaque con el qr', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesT</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554916739622372116', 'createTime': 1759016158, 'createTimeISO': '2025-09-27T23:35:58.000Z', 'text': 'pero en los yogo premio viene uno... no entiendo cuál es la diferencia', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': No</t>
         </is>
       </c>
     </row>
@@ -10209,28 +10209,28 @@
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Soy de Villavicencio acá no hay Oxxo</t>
+          <t>yo no los incuentroo</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1758935985</v>
+        <v>1759015389</v>
       </c>
       <c r="H161" s="2" t="n">
-        <v>45927.05538194445</v>
-      </c>
-      <c r="I161" s="3" t="n">
+        <v>45927.97440972222</v>
+      </c>
+      <c r="I161" s="2" t="n">
         <v>45927</v>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>01:19:45</t>
+          <t>23:23:09</t>
         </is>
       </c>
       <c r="K161" t="n">
         <v>0</v>
       </c>
       <c r="L161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M161" t="b">
         <v>0</v>
@@ -10243,7 +10243,7 @@
       <c r="O161" t="inlineStr"/>
       <c r="P161" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554572486869549832', 'createTime': 1758935985, 'createTimeISO': '2025-09-27T01:19:45.000Z', 'text': 'Soy de Villavicencio acá no hay Oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid':</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554913487688909576', 'createTime': 1759015389, 'createTimeISO': '2025-09-27T23:23:09.000Z', 'text': 'yo no los incuentroo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '75193555878112</t>
         </is>
       </c>
     </row>
@@ -10269,21 +10269,21 @@
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr">
         <is>
-          <t>y si en mi ciudad no hay OXXO 💔🥺</t>
+          <t>GRQCIASS. ME DIOO UNOO😭💜</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1758935082</v>
+        <v>1759008261</v>
       </c>
       <c r="H162" s="2" t="n">
-        <v>45927.04493055555</v>
-      </c>
-      <c r="I162" s="3" t="n">
+        <v>45927.89190972222</v>
+      </c>
+      <c r="I162" s="2" t="n">
         <v>45927</v>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>01:04:42</t>
+          <t>21:24:21</t>
         </is>
       </c>
       <c r="K162" t="n">
@@ -10303,7 +10303,7 @@
       <c r="O162" t="inlineStr"/>
       <c r="P162" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554568598334374674', 'createTime': 1758935082, 'createTimeISO': '2025-09-27T01:04:42.000Z', 'text': 'y si en mi ciudad no hay OXXO 💔🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '73</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554882846906811137', 'createTime': 1759008261, 'createTimeISO': '2025-09-27T21:24:21.000Z', 'text': 'GRQCIASS. ME DIOO UNOO😭💜', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7306695570</t>
         </is>
       </c>
     </row>
@@ -10329,28 +10329,28 @@
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr">
         <is>
-          <t>menos mal, porque esos mini Mochis nada que ver</t>
+          <t>Y si en Neiva no hay Oxxo 😐</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1758934414</v>
+        <v>1759007960</v>
       </c>
       <c r="H163" s="2" t="n">
-        <v>45927.03719907408</v>
-      </c>
-      <c r="I163" s="3" t="n">
+        <v>45927.88842592593</v>
+      </c>
+      <c r="I163" s="2" t="n">
         <v>45927</v>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>00:53:34</t>
+          <t>21:19:20</t>
         </is>
       </c>
       <c r="K163" t="n">
         <v>0</v>
       </c>
       <c r="L163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M163" t="b">
         <v>0</v>
@@ -10363,7 +10363,7 @@
       <c r="O163" t="inlineStr"/>
       <c r="P163" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554565731141354248', 'createTime': 1758934414, 'createTimeISO': '2025-09-27T00:53:34.000Z', 'text': 'menos mal, porque esos mini Mochis nada que ver', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal'</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554881592553718535', 'createTime': 1759007960, 'createTimeISO': '2025-09-27T21:19:20.000Z', 'text': 'Y si en Neiva no hay Oxxo 😐', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7525546</t>
         </is>
       </c>
     </row>
@@ -10389,25 +10389,25 @@
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr">
         <is>
-          <t>de cuánto se pueden reclamar</t>
+          <t>yo tengo el azul 🥹🥹🥹</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1758934166</v>
+        <v>1758994382</v>
       </c>
       <c r="H164" s="2" t="n">
-        <v>45927.0343287037</v>
+        <v>45927.73127314815</v>
       </c>
       <c r="I164" s="2" t="n">
         <v>45927</v>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>00:49:26</t>
+          <t>17:33:02</t>
         </is>
       </c>
       <c r="K164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L164" t="n">
         <v>0</v>
@@ -10423,7 +10423,7 @@
       <c r="O164" t="inlineStr"/>
       <c r="P164" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554564660893696776', 'createTime': 1758934166, 'createTimeISO': '2025-09-27T00:49:26.000Z', 'text': 'de cuánto se pueden reclamar', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '719750</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554823300175905544', 'createTime': 1758994382, 'createTimeISO': '2025-09-27T17:33:02.000Z', 'text': 'yo tengo el azul 🥹🥹🥹', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '73578366161470</t>
         </is>
       </c>
     </row>
@@ -10449,28 +10449,28 @@
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr">
         <is>
-          <t>ya me salio el morado</t>
+          <t>Aquí en Cartagena no ha Oxxos 🥺🥺🥺</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1758929462</v>
+        <v>1758990084</v>
       </c>
       <c r="H165" s="2" t="n">
-        <v>45926.97988425926</v>
+        <v>45927.68152777778</v>
       </c>
       <c r="I165" s="2" t="n">
-        <v>45926</v>
+        <v>45927</v>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>23:31:02</t>
+          <t>16:21:24</t>
         </is>
       </c>
       <c r="K165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M165" t="b">
         <v>0</v>
@@ -10483,7 +10483,7 @@
       <c r="O165" t="inlineStr"/>
       <c r="P165" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554544444331328263', 'createTime': 1758929462, 'createTimeISO': '2025-09-26T23:31:02.000Z', 'text': 'ya me salio el morado', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7343027455776</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554804848962847506', 'createTime': 1758990084, 'createTimeISO': '2025-09-27T16:21:24.000Z', 'text': 'Aquí en Cartagena no ha Oxxos 🥺🥺🥺', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6</t>
         </is>
       </c>
     </row>
@@ -10509,28 +10509,28 @@
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr">
         <is>
-          <t>saquen ya otra colección 😕</t>
+          <t>Que pereza tan vuelta!! y aquí estamos en Colombia porque una tienda de otra parte que no tiene presencia en toda Colombia.</t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1758928043</v>
+        <v>1758988615</v>
       </c>
       <c r="H166" s="2" t="n">
-        <v>45926.96346064815</v>
+        <v>45927.66452546296</v>
       </c>
       <c r="I166" s="2" t="n">
-        <v>45926</v>
+        <v>45927</v>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>23:07:23</t>
+          <t>15:56:55</t>
         </is>
       </c>
       <c r="K166" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="L166" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M166" t="b">
         <v>0</v>
@@ -10543,7 +10543,7 @@
       <c r="O166" t="inlineStr"/>
       <c r="P166" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554538366990189319', 'createTime': 1758928043, 'createTimeISO': '2025-09-26T23:07:23.000Z', 'text': 'saquen ya otra colección 😕', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 6, 'uid': '74305566</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554798543229666055', 'createTime': 1758988615, 'createTimeISO': '2025-09-27T15:56:55.000Z', 'text': 'Que pereza tan vuelta!! y aquí estamos en Colombia porque una tienda de otra parte que no tiene presencia en toda Colombia.', 'diggCount': 11, 'likedByAuth</t>
         </is>
       </c>
     </row>
@@ -10569,25 +10569,25 @@
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr">
         <is>
-          <t>y las lavadoras?</t>
+          <t>Los Amooo pero Uyy un montón de cosas para el recambio!</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1758925068</v>
+        <v>1758943306</v>
       </c>
       <c r="H167" s="2" t="n">
-        <v>45926.92902777778</v>
+        <v>45927.14011574074</v>
       </c>
       <c r="I167" s="2" t="n">
-        <v>45926</v>
+        <v>45927</v>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>22:17:48</t>
+          <t>03:21:46</t>
         </is>
       </c>
       <c r="K167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L167" t="n">
         <v>0</v>
@@ -10603,7 +10603,7 @@
       <c r="O167" t="inlineStr"/>
       <c r="P167" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554525489421386516', 'createTime': 1758925068, 'createTimeISO': '2025-09-26T22:17:48.000Z', 'text': 'y las lavadoras?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '739052414280066765</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554603916571640577', 'createTime': 1758943306, 'createTimeISO': '2025-09-27T03:21:46.000Z', 'text': 'Los Amooo pero Uyy un montón de cosas para el recambio!', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyComme</t>
         </is>
       </c>
     </row>
@@ -10629,28 +10629,28 @@
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Hay un Oxxo al lado de mi casa literalmente AJJAJAJAJA</t>
+          <t>ami me salió un cocodrilo</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1758922793</v>
+        <v>1758936609</v>
       </c>
       <c r="H168" s="2" t="n">
-        <v>45926.90269675926</v>
+        <v>45927.06260416667</v>
       </c>
       <c r="I168" s="2" t="n">
-        <v>45926</v>
+        <v>45927</v>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>21:39:53</t>
+          <t>01:30:09</t>
         </is>
       </c>
       <c r="K168" t="n">
         <v>0</v>
       </c>
       <c r="L168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M168" t="b">
         <v>0</v>
@@ -10663,7 +10663,7 @@
       <c r="O168" t="inlineStr"/>
       <c r="P168" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554515810249687815', 'createTime': 1758922793, 'createTimeISO': '2025-09-26T21:39:53.000Z', 'text': 'Hay un Oxxo al lado de mi casa literalmente AJJAJAJAJA', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommen</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554575152081535765', 'createTime': 1758936609, 'createTimeISO': '2025-09-27T01:30:09.000Z', 'text': 'ami me salió un cocodrilo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '688257028</t>
         </is>
       </c>
     </row>
@@ -10689,28 +10689,28 @@
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr">
         <is>
-          <t>y si tengo repetidos no me los cambian 😂😂</t>
+          <t>y si ya corte los logos y no dice mochi saurios y ya vote el empaque con el qr</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1758921475</v>
+        <v>1758935989</v>
       </c>
       <c r="H169" s="2" t="n">
-        <v>45926.88744212963</v>
+        <v>45927.05542824074</v>
       </c>
       <c r="I169" s="2" t="n">
-        <v>45926</v>
+        <v>45927</v>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>21:17:55</t>
+          <t>01:19:49</t>
         </is>
       </c>
       <c r="K169" t="n">
         <v>1</v>
       </c>
       <c r="L169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M169" t="b">
         <v>0</v>
@@ -10723,7 +10723,7 @@
       <c r="O169" t="inlineStr"/>
       <c r="P169" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554510104642650896', 'createTime': 1758921475, 'createTimeISO': '2025-09-26T21:17:55.000Z', 'text': 'y si tengo repetidos no me los cambian 😂😂', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, '</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554572506653803272', 'createTime': 1758935989, 'createTimeISO': '2025-09-27T01:19:49.000Z', 'text': 'y si ya corte los logos y no dice mochi saurios y ya vote el empaque con el qr', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesT</t>
         </is>
       </c>
     </row>
@@ -10749,21 +10749,21 @@
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr">
         <is>
-          <t>pero si no tengo un OXXO cerca 😃</t>
+          <t>Soy de Villavicencio acá no hay Oxxo</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1758920950</v>
+        <v>1758935985</v>
       </c>
       <c r="H170" s="2" t="n">
-        <v>45926.88136574074</v>
-      </c>
-      <c r="I170" s="3" t="n">
-        <v>45926</v>
+        <v>45927.05538194445</v>
+      </c>
+      <c r="I170" s="2" t="n">
+        <v>45927</v>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>21:09:10</t>
+          <t>01:19:45</t>
         </is>
       </c>
       <c r="K170" t="n">
@@ -10783,7 +10783,7 @@
       <c r="O170" t="inlineStr"/>
       <c r="P170" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554507901999022866', 'createTime': 1758920950, 'createTimeISO': '2025-09-26T21:09:10.000Z', 'text': 'pero si no tengo un OXXO cerca 😃', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '75</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554572486869549832', 'createTime': 1758935985, 'createTimeISO': '2025-09-27T01:19:45.000Z', 'text': 'Soy de Villavicencio acá no hay Oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid':</t>
         </is>
       </c>
     </row>
@@ -10809,21 +10809,21 @@
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr">
         <is>
-          <t>en colombia noa ah</t>
+          <t>y si en mi ciudad no hay OXXO 💔🥺</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1758917604</v>
+        <v>1758935082</v>
       </c>
       <c r="H171" s="2" t="n">
-        <v>45926.84263888889</v>
+        <v>45927.04493055555</v>
       </c>
       <c r="I171" s="2" t="n">
-        <v>45926</v>
+        <v>45927</v>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>20:13:24</t>
+          <t>01:04:42</t>
         </is>
       </c>
       <c r="K171" t="n">
@@ -10843,7 +10843,7 @@
       <c r="O171" t="inlineStr"/>
       <c r="P171" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554493529289638664', 'createTime': 1758917604, 'createTimeISO': '2025-09-26T20:13:24.000Z', 'text': 'en colombia noa ah', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7503310884556309</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554568598334374674', 'createTime': 1758935082, 'createTimeISO': '2025-09-27T01:04:42.000Z', 'text': 'y si en mi ciudad no hay OXXO 💔🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '73</t>
         </is>
       </c>
     </row>
@@ -10869,28 +10869,28 @@
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr">
         <is>
-          <t>pero en mi ciudad no hay oxxo</t>
+          <t>menos mal, porque esos mini Mochis nada que ver</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1758917152</v>
+        <v>1758934414</v>
       </c>
       <c r="H172" s="2" t="n">
-        <v>45926.83740740741</v>
+        <v>45927.03719907408</v>
       </c>
       <c r="I172" s="2" t="n">
-        <v>45926</v>
+        <v>45927</v>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>20:05:52</t>
+          <t>00:53:34</t>
         </is>
       </c>
       <c r="K172" t="n">
         <v>0</v>
       </c>
       <c r="L172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M172" t="b">
         <v>0</v>
@@ -10903,7 +10903,7 @@
       <c r="O172" t="inlineStr"/>
       <c r="P172" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554491584386548498', 'createTime': 1758917152, 'createTimeISO': '2025-09-26T20:05:52.000Z', 'text': 'pero en mi ciudad no hay oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '72606</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554565731141354248', 'createTime': 1758934414, 'createTimeISO': '2025-09-27T00:53:34.000Z', 'text': 'menos mal, porque esos mini Mochis nada que ver', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal'</t>
         </is>
       </c>
     </row>
@@ -10929,25 +10929,25 @@
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr">
         <is>
-          <t>pasa lo mismo que con los Mochis anteriores va uno a reclamar y que no hay</t>
+          <t>de cuánto se pueden reclamar</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1758914668</v>
+        <v>1758934166</v>
       </c>
       <c r="H173" s="2" t="n">
-        <v>45926.8086574074</v>
+        <v>45927.0343287037</v>
       </c>
       <c r="I173" s="2" t="n">
-        <v>45926</v>
+        <v>45927</v>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>19:24:28</t>
+          <t>00:49:26</t>
         </is>
       </c>
       <c r="K173" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L173" t="n">
         <v>0</v>
@@ -10963,7 +10963,7 @@
       <c r="O173" t="inlineStr"/>
       <c r="P173" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554480920402084629', 'createTime': 1758914668, 'createTimeISO': '2025-09-26T19:24:28.000Z', 'text': 'pasa lo mismo que con los Mochis anteriores va uno a reclamar y que no hay', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId'</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554564660893696776', 'createTime': 1758934166, 'createTimeISO': '2025-09-27T00:49:26.000Z', 'text': 'de cuánto se pueden reclamar', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '719750</t>
         </is>
       </c>
     </row>
@@ -10989,21 +10989,21 @@
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Y si me los regala😁😁</t>
+          <t>ya me salio el morado</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1758913988</v>
+        <v>1758929462</v>
       </c>
       <c r="H174" s="2" t="n">
-        <v>45926.80078703703</v>
+        <v>45926.97988425926</v>
       </c>
       <c r="I174" s="2" t="n">
         <v>45926</v>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>19:13:08</t>
+          <t>23:31:02</t>
         </is>
       </c>
       <c r="K174" t="n">
@@ -11023,7 +11023,7 @@
       <c r="O174" t="inlineStr"/>
       <c r="P174" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554477929469657857', 'createTime': 1758913988, 'createTimeISO': '2025-09-26T19:13:08.000Z', 'text': 'Y si me los regala😁😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '75307607242570</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554544444331328263', 'createTime': 1758929462, 'createTimeISO': '2025-09-26T23:31:02.000Z', 'text': 'ya me salio el morado', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7343027455776</t>
         </is>
       </c>
     </row>
@@ -11049,28 +11049,28 @@
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Vuelvan los originales porfa😭</t>
+          <t>saquen ya otra colección 😕</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1758909958</v>
+        <v>1758928043</v>
       </c>
       <c r="H175" s="2" t="n">
-        <v>45926.75414351852</v>
+        <v>45926.96346064815</v>
       </c>
       <c r="I175" s="2" t="n">
         <v>45926</v>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>18:05:58</t>
+          <t>23:07:23</t>
         </is>
       </c>
       <c r="K175" t="n">
-        <v>256</v>
+        <v>3</v>
       </c>
       <c r="L175" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M175" t="b">
         <v>0</v>
@@ -11083,7 +11083,7 @@
       <c r="O175" t="inlineStr"/>
       <c r="P175" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554460671951520529', 'createTime': 1758909958, 'createTimeISO': '2025-09-26T18:05:58.000Z', 'text': 'Vuelvan los originales porfa😭', 'diggCount': 256, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '749</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554538366990189319', 'createTime': 1758928043, 'createTimeISO': '2025-09-26T23:07:23.000Z', 'text': 'saquen ya otra colección 😕', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 6, 'uid': '74305566</t>
         </is>
       </c>
     </row>
@@ -11109,28 +11109,28 @@
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr">
         <is>
-          <t>pero están en todos los países ?</t>
+          <t>y las lavadoras?</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1758908149</v>
+        <v>1758925068</v>
       </c>
       <c r="H176" s="2" t="n">
-        <v>45926.73320601852</v>
+        <v>45926.92902777778</v>
       </c>
       <c r="I176" s="2" t="n">
         <v>45926</v>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>17:35:49</t>
+          <t>22:17:48</t>
         </is>
       </c>
       <c r="K176" t="n">
         <v>0</v>
       </c>
       <c r="L176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M176" t="b">
         <v>0</v>
@@ -11143,7 +11143,7 @@
       <c r="O176" t="inlineStr"/>
       <c r="P176" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554452916247216913', 'createTime': 1758908149, 'createTimeISO': '2025-09-26T17:35:49.000Z', 'text': 'pero están en todos los países ?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '75</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554525489421386516', 'createTime': 1758925068, 'createTimeISO': '2025-09-26T22:17:48.000Z', 'text': 'y las lavadoras?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '739052414280066765</t>
         </is>
       </c>
     </row>
@@ -11169,28 +11169,28 @@
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr">
         <is>
-          <t>y si no hay en mi ciudad Oxxo?</t>
+          <t>Hay un Oxxo al lado de mi casa literalmente AJJAJAJAJA</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1758905800</v>
+        <v>1758922793</v>
       </c>
       <c r="H177" s="2" t="n">
-        <v>45926.70601851852</v>
+        <v>45926.90269675926</v>
       </c>
       <c r="I177" s="2" t="n">
         <v>45926</v>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>16:56:40</t>
+          <t>21:39:53</t>
         </is>
       </c>
       <c r="K177" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M177" t="b">
         <v>0</v>
@@ -11203,7 +11203,7 @@
       <c r="O177" t="inlineStr"/>
       <c r="P177" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554442837019116305', 'createTime': 1758905800, 'createTimeISO': '2025-09-26T16:56:40.000Z', 'text': 'y si no hay en mi ciudad Oxxo?', 'diggCount': 11, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '705</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554515810249687815', 'createTime': 1758922793, 'createTimeISO': '2025-09-26T21:39:53.000Z', 'text': 'Hay un Oxxo al lado de mi casa literalmente AJJAJAJAJA', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommen</t>
         </is>
       </c>
     </row>
@@ -11229,21 +11229,21 @@
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr">
         <is>
-          <t>tengo un montón de Mochis de la primera colección, valdrá mucho?</t>
+          <t>y si tengo repetidos no me los cambian 😂😂</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1758902700</v>
+        <v>1758921475</v>
       </c>
       <c r="H178" s="2" t="n">
-        <v>45926.67013888889</v>
+        <v>45926.88744212963</v>
       </c>
       <c r="I178" s="2" t="n">
         <v>45926</v>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>16:05:00</t>
+          <t>21:17:55</t>
         </is>
       </c>
       <c r="K178" t="n">
@@ -11262,6 +11262,546 @@
       </c>
       <c r="O178" t="inlineStr"/>
       <c r="P178" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554510104642650896', 'createTime': 1758921475, 'createTimeISO': '2025-09-26T21:17:55.000Z', 'text': 'y si tengo repetidos no me los cambian 😂😂', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, '</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>10</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>pero si no tengo un OXXO cerca 😃</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>1758920950</v>
+      </c>
+      <c r="H179" s="2" t="n">
+        <v>45926.88136574074</v>
+      </c>
+      <c r="I179" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>21:09:10</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M179" t="b">
+        <v>0</v>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O179" t="inlineStr"/>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554507901999022866', 'createTime': 1758920950, 'createTimeISO': '2025-09-26T21:09:10.000Z', 'text': 'pero si no tengo un OXXO cerca 😃', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '75</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>10</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>en colombia noa ah</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>1758917604</v>
+      </c>
+      <c r="H180" s="2" t="n">
+        <v>45926.84263888889</v>
+      </c>
+      <c r="I180" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>20:13:24</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M180" t="b">
+        <v>0</v>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O180" t="inlineStr"/>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554493529289638664', 'createTime': 1758917604, 'createTimeISO': '2025-09-26T20:13:24.000Z', 'text': 'en colombia noa ah', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7503310884556309</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>10</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>pero en mi ciudad no hay oxxo</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>1758917152</v>
+      </c>
+      <c r="H181" s="2" t="n">
+        <v>45926.83740740741</v>
+      </c>
+      <c r="I181" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>20:05:52</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="b">
+        <v>0</v>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O181" t="inlineStr"/>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554491584386548498', 'createTime': 1758917152, 'createTimeISO': '2025-09-26T20:05:52.000Z', 'text': 'pero en mi ciudad no hay oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '72606</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>10</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>pasa lo mismo que con los Mochis anteriores va uno a reclamar y que no hay</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>1758914668</v>
+      </c>
+      <c r="H182" s="2" t="n">
+        <v>45926.8086574074</v>
+      </c>
+      <c r="I182" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>19:24:28</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>3</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M182" t="b">
+        <v>0</v>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O182" t="inlineStr"/>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554480920402084629', 'createTime': 1758914668, 'createTimeISO': '2025-09-26T19:24:28.000Z', 'text': 'pasa lo mismo que con los Mochis anteriores va uno a reclamar y que no hay', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId'</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>10</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Y si me los regala😁😁</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>1758913988</v>
+      </c>
+      <c r="H183" s="2" t="n">
+        <v>45926.80078703703</v>
+      </c>
+      <c r="I183" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>19:13:08</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M183" t="b">
+        <v>0</v>
+      </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554477929469657857', 'createTime': 1758913988, 'createTimeISO': '2025-09-26T19:13:08.000Z', 'text': 'Y si me los regala😁😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '75307607242570</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>10</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Vuelvan los originales porfa😭</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>1758909958</v>
+      </c>
+      <c r="H184" s="2" t="n">
+        <v>45926.75414351852</v>
+      </c>
+      <c r="I184" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>18:05:58</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>256</v>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="b">
+        <v>0</v>
+      </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O184" t="inlineStr"/>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554460671951520529', 'createTime': 1758909958, 'createTimeISO': '2025-09-26T18:05:58.000Z', 'text': 'Vuelvan los originales porfa😭', 'diggCount': 256, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '749</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>10</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>pero están en todos los países ?</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>1758908149</v>
+      </c>
+      <c r="H185" s="2" t="n">
+        <v>45926.73320601852</v>
+      </c>
+      <c r="I185" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>17:35:49</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L185" t="n">
+        <v>2</v>
+      </c>
+      <c r="M185" t="b">
+        <v>0</v>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O185" t="inlineStr"/>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554452916247216913', 'createTime': 1758908149, 'createTimeISO': '2025-09-26T17:35:49.000Z', 'text': 'pero están en todos los países ?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '75</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>10</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>y si no hay en mi ciudad Oxxo?</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>1758905800</v>
+      </c>
+      <c r="H186" s="2" t="n">
+        <v>45926.70601851852</v>
+      </c>
+      <c r="I186" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>16:56:40</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>11</v>
+      </c>
+      <c r="L186" t="n">
+        <v>3</v>
+      </c>
+      <c r="M186" t="b">
+        <v>0</v>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O186" t="inlineStr"/>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554442837019116305', 'createTime': 1758905800, 'createTimeISO': '2025-09-26T16:56:40.000Z', 'text': 'y si no hay en mi ciudad Oxxo?', 'diggCount': 11, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '705</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>10</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7554409105977330965</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>tengo un montón de Mochis de la primera colección, valdrá mucho?</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>1758902700</v>
+      </c>
+      <c r="H187" s="2" t="n">
+        <v>45926.67013888889</v>
+      </c>
+      <c r="I187" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>16:05:00</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M187" t="b">
+        <v>0</v>
+      </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O187" t="inlineStr"/>
+      <c r="P187" t="inlineStr">
         <is>
           <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'input': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'cid': '7554429537663386376', 'createTime': 1758902700, 'createTimeISO': '2025-09-26T16:05:00.000Z', 'text': 'tengo un montón de Mochis de la primera colección, valdrá mucho?', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'r</t>
         </is>
@@ -11569,7 +12109,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E11" t="n">
         <v>537</v>
@@ -11675,10 +12215,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="D4" t="n">
-        <v>4.1</v>
+        <v>3.84</v>
       </c>
       <c r="E4" t="n">
         <v>537</v>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -19,11 +19,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -63,13 +61,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -435,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,6 +513,11 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>extraction_status</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>created_time_raw</t>
         </is>
       </c>
@@ -551,7 +553,7 @@
       <c r="H2" s="2" t="n">
         <v>45983.16740740741</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="2" t="n">
         <v>45983</v>
       </c>
       <c r="J2" t="inlineStr">
@@ -573,7 +575,8 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
         <is>
           <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574526148311289096', 'submittedVideoUrl': 'https://www.tiktok.com/@/video/7574526148311289096', 'input': 'https://www.tiktok.com/@/video/7574526148311289096', 'cid': '7575394784510427922', 'createTime': 1763784064, 'createTimeISO': '2025-11-22T04:01:04.000Z', 'text': '🥰 Que lindo que no es IA', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7061039853035422725', 'uniqu</t>
         </is>
@@ -610,7 +613,7 @@
       <c r="H3" s="2" t="n">
         <v>45983.07935185185</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="2" t="n">
         <v>45983</v>
       </c>
       <c r="J3" t="inlineStr">
@@ -632,7 +635,8 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
         <is>
           <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574526148311289096', 'submittedVideoUrl': 'https://www.tiktok.com/@/video/7574526148311289096', 'input': 'https://www.tiktok.com/@/video/7574526148311289096', 'cid': '7575362101340324626', 'createTime': 1763776456, 'createTimeISO': '2025-11-22T01:54:16.000Z', 'text': 'por qué no explica qué clase de mascarilla de vino hacer cómo se prepara qué ingredientes le hecho', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'replie</t>
         </is>
@@ -669,7 +673,7 @@
       <c r="H4" s="2" t="n">
         <v>45983.07155092592</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="2" t="n">
         <v>45983</v>
       </c>
       <c r="J4" t="inlineStr">
@@ -691,7 +695,8 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
         <is>
           <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574526148311289096', 'submittedVideoUrl': 'https://www.tiktok.com/@/video/7574526148311289096', 'input': 'https://www.tiktok.com/@/video/7574526148311289096', 'cid': '7575359261501408018', 'createTime': 1763775782, 'createTimeISO': '2025-11-22T01:43:02.000Z', 'text': 'ese es el mapa al one piece?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7178493082228442117', 'u</t>
         </is>
@@ -728,7 +733,7 @@
       <c r="H5" s="2" t="n">
         <v>45982.95052083334</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="J5" t="inlineStr">
@@ -750,7 +755,8 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
         <is>
           <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574526148311289096', 'submittedVideoUrl': 'https://www.tiktok.com/@/video/7574526148311289096', 'input': 'https://www.tiktok.com/@/video/7574526148311289096', 'cid': '7575314301649797906', 'createTime': 1763765325, 'createTimeISO': '2025-11-21T22:48:45.000Z', 'text': 'Me gusta que no es IA', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7476626177487537207', 'uniqueId</t>
         </is>
@@ -787,7 +793,7 @@
       <c r="H6" s="2" t="n">
         <v>45982.81633101852</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="J6" t="inlineStr">
@@ -809,7 +815,8 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
         <is>
           <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574526148311289096', 'submittedVideoUrl': 'https://www.tiktok.com/@/video/7574526148311289096', 'input': 'https://www.tiktok.com/@/video/7574526148311289096', 'cid': '7575264519527105300', 'createTime': 1763753731, 'createTimeISO': '2025-11-21T19:35:31.000Z', 'text': 'Bendiciones 🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7392723576502043654', 'uniqueId': 'ana0</t>
         </is>
@@ -846,7 +853,7 @@
       <c r="H7" s="2" t="n">
         <v>45982.78439814815</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="J7" t="inlineStr">
@@ -868,7 +875,8 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
         <is>
           <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574526148311289096', 'submittedVideoUrl': 'https://www.tiktok.com/@/video/7574526148311289096', 'input': 'https://www.tiktok.com/@/video/7574526148311289096', 'cid': '7575251936485180178', 'createTime': 1763750972, 'createTimeISO': '2025-11-21T18:49:32.000Z', 'text': 'Que bello video gracias Alpina😊', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7520408854468035602',</t>
         </is>
@@ -905,7 +913,7 @@
       <c r="H8" s="2" t="n">
         <v>45982.61332175926</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="J8" t="inlineStr">
@@ -927,7 +935,8 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
         <is>
           <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574526148311289096', 'submittedVideoUrl': 'https://www.tiktok.com/@/video/7574526148311289096', 'input': 'https://www.tiktok.com/@/video/7574526148311289096', 'cid': '7575188600700011271', 'createTime': 1763736191, 'createTimeISO': '2025-11-21T14:43:11.000Z', 'text': '☺️☺️😊', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7417587759336457222', 'uniqueId': 'user72252409</t>
         </is>
@@ -964,7 +973,7 @@
       <c r="H9" s="2" t="n">
         <v>45981.19731481482</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="I9" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J9" t="inlineStr">
@@ -986,7 +995,8 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
         <is>
           <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574526148311289096', 'submittedVideoUrl': 'https://www.tiktok.com/@/video/7574526148311289096', 'input': 'https://www.tiktok.com/@/video/7574526148311289096', 'cid': '7574663024414688001', 'createTime': 1763613848, 'createTimeISO': '2025-11-20T04:44:08.000Z', 'text': '6', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7515116442964198418', 'uniqueId': 'excelmerysalazar</t>
         </is>
@@ -1025,7 +1035,7 @@
       <c r="H10" s="2" t="n">
         <v>45984.98431712963</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="I10" s="2" t="n">
         <v>45984</v>
       </c>
       <c r="J10" t="inlineStr">
@@ -1033,10 +1043,8 @@
           <t>23:37:25</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K10" t="n">
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1045,7 +1053,8 @@
         <v>0</v>
       </c>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr">
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02qLKsWnTscnt4fxoxbp2H8DLmNMVurZcBpUBuwZEZzTwyX1YkYmYENbHa5UHu6Dg8l', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02eoWzQNzHoYKoC98YGYQmLBqznN2TMr5HX4ynYsYVThQemN3AJ7CW8VMq65vm1JcZl?comment_id=1631648168208831', 'id': 'Y29tbWVudDoxMjc5Nzc0NDQ0MTk0NzkyXzE2MzE2NDgxNjgyMDg4MzE=', 'feedbackId': 'ZmVlZGJhY2s6MTI3OTc3NDQ0NDE5NDc5Ml8xNjMxNjQ4MTY4MjA4ODMx', 'date': '2025-11-23T23:37:25.000Z', 'text': 'Pp0⁹9p9⁹', 'profileU</t>
         </is>
@@ -1084,7 +1093,7 @@
       <c r="H11" s="2" t="n">
         <v>45982.97696759259</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="J11" t="inlineStr">
@@ -1092,10 +1101,8 @@
           <t>23:26:50</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1104,7 +1111,8 @@
         <v>0</v>
       </c>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr">
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02qLKsWnTscnt4fxoxbp2H8DLmNMVurZcBpUBuwZEZzTwyX1YkYmYENbHa5UHu6Dg8l', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02eoWzQNzHoYKoC98YGYQmLBqznN2TMr5HX4ynYsYVThQemN3AJ7CW8VMq65vm1JcZl?comment_id=848516504333779', 'id': 'Y29tbWVudDoxMjc5Nzc0NDQ0MTk0NzkyXzg0ODUxNjUwNDMzMzc3OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI3OTc3NDQ0NDE5NDc5Ml84NDg1MTY1MDQzMzM3Nzk=', 'date': '2025-11-21T23:26:50.000Z', 'text': 'Hola te ves bn tienes</t>
         </is>
@@ -1143,7 +1151,7 @@
       <c r="H12" s="2" t="n">
         <v>45982.26106481482</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="I12" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="J12" t="inlineStr">
@@ -1151,10 +1159,8 @@
           <t>06:15:56</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K12" t="n">
+        <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1163,7 +1169,8 @@
         <v>0</v>
       </c>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr">
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02qLKsWnTscnt4fxoxbp2H8DLmNMVurZcBpUBuwZEZzTwyX1YkYmYENbHa5UHu6Dg8l', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02eoWzQNzHoYKoC98YGYQmLBqznN2TMr5HX4ynYsYVThQemN3AJ7CW8VMq65vm1JcZl?comment_id=789278630809884', 'id': 'Y29tbWVudDoxMjc5Nzc0NDQ0MTk0NzkyXzc4OTI3ODYzMDgwOTg4NA==', 'feedbackId': 'ZmVlZGJhY2s6MTI3OTc3NDQ0NDE5NDc5Ml83ODkyNzg2MzA4MDk4ODQ=', 'date': '2025-11-21T06:15:56.000Z', 'text': 'Tinga linga linga tin</t>
         </is>
@@ -1202,7 +1209,7 @@
       <c r="H13" s="2" t="n">
         <v>45980.89395833333</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="I13" s="2" t="n">
         <v>45980</v>
       </c>
       <c r="J13" t="inlineStr">
@@ -1210,10 +1217,8 @@
           <t>21:27:18</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K13" t="n">
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1222,7 +1227,8 @@
         <v>0</v>
       </c>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr">
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02qLKsWnTscnt4fxoxbp2H8DLmNMVurZcBpUBuwZEZzTwyX1YkYmYENbHa5UHu6Dg8l', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02eoWzQNzHoYKoC98YGYQmLBqznN2TMr5HX4ynYsYVThQemN3AJ7CW8VMq65vm1JcZl?comment_id=703351456156856', 'id': 'Y29tbWVudDoxMjc5Nzc0NDQ0MTk0NzkyXzcwMzM1MTQ1NjE1Njg1Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTI3OTc3NDQ0NDE5NDc5Ml83MDMzNTE0NTYxNTY4NTY=', 'date': '2025-11-19T21:27:18.000Z', 'text': 'Yamen l al policía pa</t>
         </is>
@@ -1261,7 +1267,7 @@
       <c r="H14" s="2" t="n">
         <v>45981.53131944445</v>
       </c>
-      <c r="I14" s="3" t="n">
+      <c r="I14" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J14" t="inlineStr">
@@ -1269,10 +1275,8 @@
           <t>12:45:06</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K14" t="n">
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1281,7 +1285,8 @@
         <v>0</v>
       </c>
       <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr">
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid036iaCTpHgEiiR2DT4ZQ8FoZtCogRjyg3nAXxtVXh3XXRdduTJDg4fThnwZ742KgvPl', 'commentUrl': 'https://www.facebook.com/reel/2001022834075363/?comment_id=1011405657841959', 'id': 'Y29tbWVudDoxMjc5NzgxMDMwODYwODAwXzEwMTE0MDU2NTc4NDE5NTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI3OTc4MTAzMDg2MDgwMF8xMDExNDA1NjU3ODQxOTU5', 'date': '2025-11-20T12:45:06.000Z', 'text': 'Listo', 'profileUrl': 'https://www.facebook.com/esperanza.londono.35325', 'profileP</t>
         </is>
@@ -1320,7 +1325,7 @@
       <c r="H15" s="2" t="n">
         <v>45981.46748842593</v>
       </c>
-      <c r="I15" s="3" t="n">
+      <c r="I15" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J15" t="inlineStr">
@@ -1328,10 +1333,8 @@
           <t>11:13:11</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K15" t="n">
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1340,7 +1343,8 @@
         <v>0</v>
       </c>
       <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr">
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid036iaCTpHgEiiR2DT4ZQ8FoZtCogRjyg3nAXxtVXh3XXRdduTJDg4fThnwZ742KgvPl', 'commentUrl': 'https://www.facebook.com/reel/2001022834075363/?comment_id=1201407255170646', 'id': 'Y29tbWVudDoxMjc5NzgxMDMwODYwODAwXzEyMDE0MDcyNTUxNzA2NDY=', 'feedbackId': 'ZmVlZGJhY2s6MTI3OTc4MTAzMDg2MDgwMF8xMjAxNDA3MjU1MTcwNjQ2', 'date': '2025-11-20T11:13:11.000Z', 'text': 'ZAMBRANO UNA  VERGUENSA!!! APROVECHADO Y AMBICIOSO!! Q PENA!!!!', 'profileUrl': 'ht</t>
         </is>
@@ -1379,7 +1383,7 @@
       <c r="H16" s="2" t="n">
         <v>45986.21601851852</v>
       </c>
-      <c r="I16" s="3" t="n">
+      <c r="I16" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J16" t="inlineStr">
@@ -1387,10 +1391,8 @@
           <t>05:11:04</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K16" t="n">
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1399,7 +1401,8 @@
         <v>0</v>
       </c>
       <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr">
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02vDjJopkwJ1E4ttEJPs8Q5WtCbkyYAnJ22tMuNREZgXTVE7PAeoMpaduR3LMCgVnAl?comment_id=861351922903088', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzg2MTM1MTkyMjkwMzA4OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV84NjEzNTE5MjI5MDMwODg=', 'date': '2025-11-25T05:11:04.000Z', 'text': 'Esq eso era muy caro un riñón prácticamente ps pero vale la pena', 'p</t>
         </is>
@@ -1438,7 +1441,7 @@
       <c r="H17" s="2" t="n">
         <v>45986.19047453703</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="I17" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J17" t="inlineStr">
@@ -1446,10 +1449,8 @@
           <t>04:34:17</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K17" t="n">
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1458,7 +1459,8 @@
         <v>0</v>
       </c>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr">
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02vDjJopkwJ1E4ttEJPs8Q5WtCbkyYAnJ22tMuNREZgXTVE7PAeoMpaduR3LMCgVnAl?comment_id=1820814188796053', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzE4MjA4MTQxODg3OTYwNTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV8xODIwODE0MTg4Nzk2MDUz', 'date': '2025-11-25T04:34:17.000Z', 'text': 'Cuando eran ricos y traían más que aire', 'profileUrl': 'https://www</t>
         </is>
@@ -1497,7 +1499,7 @@
       <c r="H18" s="2" t="n">
         <v>45986.14106481482</v>
       </c>
-      <c r="I18" s="3" t="n">
+      <c r="I18" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J18" t="inlineStr">
@@ -1505,10 +1507,8 @@
           <t>03:23:08</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K18" t="n">
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1517,7 +1517,8 @@
         <v>0</v>
       </c>
       <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr">
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02vDjJopkwJ1E4ttEJPs8Q5WtCbkyYAnJ22tMuNREZgXTVE7PAeoMpaduR3LMCgVnAl?comment_id=843566781589283', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzg0MzU2Njc4MTU4OTI4Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV84NDM1NjY3ODE1ODkyODM=', 'date': '2025-11-25T03:23:08.000Z', 'text': 'Pos si como tres me da un coma diabético....', 'profileUrl': 'https:/</t>
         </is>
@@ -1560,7 +1561,7 @@
       <c r="H19" s="2" t="n">
         <v>45981.26364583334</v>
       </c>
-      <c r="I19" s="3" t="n">
+      <c r="I19" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J19" t="inlineStr">
@@ -1582,7 +1583,8 @@
           <t>https://instagram.com/angelodominic61</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
         <is>
           <t>{'postUrl': 'https://www.instagram.com/p/DRPexY8jPUB/', 'commentUrl': 'https://www.instagram.com/p/DRPexY8jPUB/c/18364850800091592', 'id': '18364850800091592', 'text': 'De la Moradita', 'ownerUsername': 'angelodominic61', 'ownerProfilePicUrl': 'https://scontent-sea5-1.cdninstagram.com/v/t51.2885-19/451569933_490434486865115_7000517521910309172_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=109&amp;ig_cache_key=GA1p6hrbDGAtDL4BADShXImY1SZhbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3Rh</t>
         </is>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -19,9 +19,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -61,12 +63,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -432,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1587,6 +1590,2108 @@
       <c r="P19" t="inlineStr">
         <is>
           <t>{'postUrl': 'https://www.instagram.com/p/DRPexY8jPUB/', 'commentUrl': 'https://www.instagram.com/p/DRPexY8jPUB/c/18364850800091592', 'id': '18364850800091592', 'text': 'De la Moradita', 'ownerUsername': 'angelodominic61', 'ownerProfilePicUrl': 'https://scontent-sea5-1.cdninstagram.com/v/t51.2885-19/451569933_490434486865115_7000517521910309172_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=109&amp;ig_cache_key=GA1p6hrbDGAtDL4BADShXImY1SZhbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3Rh</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>6</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Traigan de vuelta el sabor original del kumis y los chocokrispis rojos</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2025-11-25T20:12:00.000Z</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>45986.84166666667</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>20:12:00</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1150071166850358', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNTAwNzExNjY4NTAzNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTUwMDcxMTY2ODUwMzU4', 'date': '2025-11-25T20:12:00.000Z', 'text': 'Traigan de vuelta el sabor original del kumis y los chocokrispis roj</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>¿Van a sacar la versión clásica? Uy, sería genial. Existía una versión de ninjas con historietas.</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2025-11-25T18:47:26.000Z</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>45986.78293981482</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>18:47:26</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1175232757386966', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNzUyMzI3NTczODY5NjY=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTc1MjMyNzU3Mzg2OTY2', 'date': '2025-11-25T18:47:26.000Z', 'text': '¿Van a sacar la versión clásica? Uy, sería genial. Existía una versi</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>6</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Cuando vuelven a sacar los sacapuntas tío Bon Yurt se les recuerda con cariño.</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2025-11-25T17:30:48.000Z</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>45986.72972222222</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>17:30:48</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=4316274151993029', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzQzMTYyNzQxNTE5OTMwMjk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N180MzE2Mjc0MTUxOTkzMDI5', 'date': '2025-11-25T17:30:48.000Z', 'text': 'Cuando vuelven a sacar los sacapuntas tío Bon Yurt se les recuerda c</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>6</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Desde cuándo el CHAMBON del INGENIERO Obando, sirve de IA para promocionar Bonyurt jaja</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-11-25T16:51:29.000Z</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>45986.70241898148</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>16:51:29</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=724688210136182', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzcyNDY4ODIxMDEzNjE4Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N183MjQ2ODgyMTAxMzYxODI=', 'date': '2025-11-25T16:51:29.000Z', 'text': 'Desde cuándo el CHAMBON del INGENIERO Obando, sirve de IA para promoc</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>6</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>A mi me parece un muy buen producto y una excelente alianza. Que la calidad a bajado después de 2006,  si así es pero agradezcan a la mano de impuestos que tenemos en el país, antes es que la empresa aún sigue dando empleo a miles de colombianos, a dado la pelea. Y estos gobiernos son lo mismo pidan y pidan y solo den contentillo al pueblo. No hablen mal de las empresas y sus productos antes agradezcamos que aún tenemos empresas en colombia.</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-11-25T16:19:54.000Z</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>45986.68048611111</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>16:19:54</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=2677048389302225', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzI2NzcwNDgzODkzMDIyMjU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yNjc3MDQ4Mzg5MzAyMjI1', 'date': '2025-11-25T16:19:54.000Z', 'text': 'A mi me parece un muy buen producto y una excelente alianza. Que la </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>6</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Alpina, los mejores lácteos de Colombia</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2025-11-25T14:08:33.000Z</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>45986.58927083333</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>14:08:33</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1152499160382981', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNTI0OTkxNjAzODI5ODE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTUyNDk5MTYwMzgyOTgx', 'date': '2025-11-25T14:08:33.000Z', 'text': 'Alpina, los mejores lácteos de Colombia', 'profileUrl': 'https://www</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>6</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Con esos precios na  gracias lo hago en casa me sale más barato  y más rico</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2025-11-25T12:09:19.000Z</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>45986.50646990741</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>12:09:19</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=2045961822830627', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIwNDU5NjE4MjI4MzA2Mjc=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMDQ1OTYxODIyODMwNjI3', 'date': '2025-11-25T12:09:19.000Z', 'text': 'Con esos precios na  gracias lo hago en casa me sale más barato  y m</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>6</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Un mundo lleno de azúcar con seres humanos enfermos por esto mismo, el azúcar comida de muchas enfermedades entre ellas el cáncer, alimento ultraprocesado que hacen pasar por un alimento saludable  y ahora quien quiere contaminar a sus hijos o dañar sus sistemas digestivos .... Consume bon yurt te ayuda a estar mal si o si .........</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2025-11-25T11:28:52.000Z</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>45986.47837962963</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>11:28:52</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=740299422427121', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzc0MDI5OTQyMjQyNzEyMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N183NDAyOTk0MjI0MjcxMjE=', 'date': '2025-11-25T11:28:52.000Z', 'text': 'Un mundo lleno de azúcar con seres humanos enfermos por esto mismo, e</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>6</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>35 años robando a las familias... Excelente como se han enriquecido</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2025-11-25T11:25:29.000Z</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>45986.47603009259</v>
+      </c>
+      <c r="I28" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>11:25:29</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1557146152191245', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE1NTcxNDYxNTIxOTEyNDU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNTU3MTQ2MTUyMTkxMjQ1', 'date': '2025-11-25T11:25:29.000Z', 'text': '35 años robando a las familias... Excelente como se han enriquecido'</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>6</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>35 años vendiendo plástico, felicitaciones, que gran empresa</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2025-11-25T10:08:53.000Z</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>45986.42283564815</v>
+      </c>
+      <c r="I29" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>10:08:53</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="b">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=837830755559105', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzgzNzgzMDc1NTU1OTEwNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184Mzc4MzA3NTU1NTkxMDU=', 'date': '2025-11-25T10:08:53.000Z', 'text': '35 años vendiendo plástico, felicitaciones, que gran empresa', 'profi</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>BEBIDA LÁCTEA QUE NO ES YOGURT</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2025-11-25T07:48:46.000Z</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>45986.32553240741</v>
+      </c>
+      <c r="I30" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>07:48:46</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1351672526428164', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzNTE2NzI1MjY0MjgxNjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzUxNjcyNTI2NDI4MTY0', 'date': '2025-11-25T07:48:46.000Z', 'text': 'BEBIDA LÁCTEA QUE NO ES YOGURT', 'profileUrl': 'https://www.facebook</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>6</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Muy poquito para el valor! Se pasan...</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2025-11-25T05:44:34.000Z</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>45986.2392824074</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>05:44:34</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1616838652836190', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE2MTY4Mzg2NTI4MzYxOTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNjE2ODM4NjUyODM2MTkw', 'date': '2025-11-25T05:44:34.000Z', 'text': 'Muy poquito para el valor! Se pasan...', 'profileUrl': 'https://www.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>6</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Sobrevalorado, es rico siii pero fácilmente me pasan años sin probarlo, su precio aleja para ser tan básico</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2025-11-25T05:06:42.000Z</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>45986.21298611111</v>
+      </c>
+      <c r="I32" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>05:06:42</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="b">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1306741007870493', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzMDY3NDEwMDc4NzA0OTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzA2NzQxMDA3ODcwNDkz', 'date': '2025-11-25T05:06:42.000Z', 'text': 'Sobrevalorado, es rico siii pero fácilmente me pasan años sin probar</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>6</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>No les da verguenza, vivir del negocio d los alimentos y causar enfermedades con sus productos...</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2025-11-25T04:29:31.000Z</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>45986.18716435185</v>
+      </c>
+      <c r="I33" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>04:29:31</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="b">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1382763526625753', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzODI3NjM1MjY2MjU3NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzgyNzYzNTI2NjI1NzUz', 'date': '2025-11-25T04:29:31.000Z', 'text': 'No les da verguenza, vivir del negocio d los alimentos y causar enfe</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>6</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>35 años vendiendo productos sobrevalorados, bravo!</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2025-11-25T03:13:53.000Z</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>45986.1346412037</v>
+      </c>
+      <c r="I34" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>03:13:53</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="b">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1152991517044181', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNTI5OTE1MTcwNDQxODE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTUyOTkxNTE3MDQ0MTgx', 'date': '2025-11-25T03:13:53.000Z', 'text': '35 años vendiendo productos sobrevalorados, bravo!', 'profilePicture</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>6</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5 lucas un bon yurt nee jeeedaaa</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2025-11-25T03:02:34.000Z</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>45986.12678240741</v>
+      </c>
+      <c r="I35" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>03:02:34</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="b">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=2057651748323375', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIwNTc2NTE3NDgzMjMzNzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMDU3NjUxNzQ4MzIzMzc1', 'date': '2025-11-25T03:02:34.000Z', 'text': '5 lucas un bon yurt nee jeeedaaa', 'profilePicture': 'https://sconte</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>6</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Tan bueno.</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2025-11-25T02:23:58.000Z</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>45986.09997685185</v>
+      </c>
+      <c r="I36" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>02:23:58</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="b">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1388063563103759', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzODgwNjM1NjMxMDM3NTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzg4MDYzNTYzMTAzNzU5', 'date': '2025-11-25T02:23:58.000Z', 'text': 'Tan bueno.', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>6</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Todo un lujo jjj</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2025-11-25T02:21:17.000Z</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>45986.09811342593</v>
+      </c>
+      <c r="I37" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>02:21:17</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="b">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=829854586452459', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzgyOTg1NDU4NjQ1MjQ1OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184Mjk4NTQ1ODY0NTI0NTk=', 'date': '2025-11-25T02:21:17.000Z', 'text': 'Todo un lujo jjj', 'profileUrl': 'https://www.facebook.com/luzbell.ye</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>6</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Esa época cuando el yogurt  era el propio sin derivados de sueros</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2025-11-25T02:19:43.000Z</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>45986.09702546296</v>
+      </c>
+      <c r="I38" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>02:19:43</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="b">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1177485643784836', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNzc0ODU2NDM3ODQ4MzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTc3NDg1NjQzNzg0ODM2', 'date': '2025-11-25T02:19:43.000Z', 'text': 'Esa época cuando el yogurt  era el propio sin derivados de sueros', </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>6</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Este man no es el que hizo de Vaselino en vecinos?</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2025-11-25T01:31:24.000Z</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>45986.06347222222</v>
+      </c>
+      <c r="I39" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>01:31:24</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="b">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1383064816735090', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzODMwNjQ4MTY3MzUwOTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzgzMDY0ODE2NzM1MDkw', 'date': '2025-11-25T01:31:24.000Z', 'text': 'Este man no es el que hizo de Vaselino en vecinos?', 'profilePicture</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>6</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Me acordé de la propaganda que le preguntaban a la gente que cree que es bon yurt
+Y una señora toda elegante dice : en francés significa BUENOS DÍAS 
+Fue la primera palabra en otro idioma que aprendí gracias a ese marketing</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2025-11-25T01:17:30.000Z</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>45986.05381944445</v>
+      </c>
+      <c r="I40" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>01:17:30</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=2077627949641833', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIwNzc2Mjc5NDk2NDE4MzM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMDc3NjI3OTQ5NjQxODMz', 'date': '2025-11-25T01:17:30.000Z', 'text': 'Me acordé de la propaganda que le preguntaban a la gente que cree qu</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>6</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Semejante cara de bobo este personaje...</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2025-11-25T00:51:15.000Z</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>45986.03559027778</v>
+      </c>
+      <c r="I41" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>00:51:15</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="b">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1178608700915001', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNzg2MDg3MDA5MTUwMDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTc4NjA4NzAwOTE1MDAx', 'date': '2025-11-25T00:51:15.000Z', 'text': 'Semejante cara de bobo este personaje...', 'profilePicture': 'https:</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>6</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Ojalá el precio también sea retro.</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2025-11-25T00:51:12.000Z</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>45986.03555555556</v>
+      </c>
+      <c r="I42" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>00:51:12</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1597679538060212', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE1OTc2Nzk1MzgwNjAyMTI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNTk3Njc5NTM4MDYwMjEy', 'date': '2025-11-25T00:51:12.000Z', 'text': 'Ojalá el precio también sea retro.', 'profileUrl': 'https://www.face</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>6</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Salió como a finales del 88</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2025-11-25T00:08:11.000Z</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>45986.00568287037</v>
+      </c>
+      <c r="I43" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>00:08:11</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="b">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=2154810411989541', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIxNTQ4MTA0MTE5ODk1NDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMTU0ODEwNDExOTg5NTQx', 'date': '2025-11-25T00:08:11.000Z', 'text': 'Salió como a finales del 88', 'profileUrl': 'https://www.facebook.co</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>6</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Deberían más BN de bajar esos precios</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2025-11-24T23:29:34.000Z</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>45985.97886574074</v>
+      </c>
+      <c r="I44" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>23:29:34</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1180817223396975', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExODA4MTcyMjMzOTY5NzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTgwODE3MjIzMzk2OTc1', 'date': '2025-11-24T23:29:34.000Z', 'text': 'Deberían más BN de bajar esos precios', 'profileUrl': 'https://www.f</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Ahora el precio es el del 2035, qué gonorrea si es caro un bon yurt.</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2025-11-24T23:08:21.000Z</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>45985.96413194444</v>
+      </c>
+      <c r="I45" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>23:08:21</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1141110784879560', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNDExMTA3ODQ4Nzk1NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTQxMTEwNzg0ODc5NTYw', 'date': '2025-11-24T23:08:21.000Z', 'text': 'Ahora el precio es el del 2035, qué gonorrea si es caro un bon yurt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>6</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Que hpta joda tan cara. Rem@lpäridos abusadores</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2025-11-24T22:58:44.000Z</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>45985.9574537037</v>
+      </c>
+      <c r="I46" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>22:58:44</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1505629667162278', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE1MDU2Mjk2NjcxNjIyNzg=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNTA1NjI5NjY3MTYyMjc4', 'date': '2025-11-24T22:58:44.000Z', 'text': 'Que hpta joda tan cara. Rem@lpäridos abusadores', 'profileUrl': 'htt</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>6</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Antes traía más , le undieron el fondo al envase</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2025-11-24T22:39:03.000Z</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>45985.94378472222</v>
+      </c>
+      <c r="I47" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>22:39:03</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="b">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=3091916754347395', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzMwOTE5MTY3NTQzNDczOTU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18zMDkxOTE2NzU0MzQ3Mzk1', 'date': '2025-11-24T22:39:03.000Z', 'text': 'Antes traía más , le undieron el fondo al envase', 'profileUrl': 'ht</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>6</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Con ese precio mejor tomo aguapanelita con limon</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2025-11-24T22:21:36.000Z</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>45985.93166666666</v>
+      </c>
+      <c r="I48" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>22:21:36</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=809611618734196', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzgwOTYxMTYxODczNDE5Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184MDk2MTE2MTg3MzQxOTY=', 'date': '2025-11-24T22:21:36.000Z', 'text': 'Con ese precio mejor tomo aguapanelita con limon', 'profilePicture': </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>6</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Recuerdo esa primera propaganda: "¿Sabe usted qué es Bon Yurt? Bon Yurt... Bon Yurt..."</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2025-11-24T21:39:47.000Z</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>45985.90262731481</v>
+      </c>
+      <c r="I49" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>21:39:47</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1871869833723454', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE4NzE4Njk4MzM3MjM0NTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xODcxODY5ODMzNzIzNDU0', 'date': '2025-11-24T21:39:47.000Z', 'text': 'Recuerdo esa primera propaganda: "¿Sabe usted qué es Bon Yurt? Bon Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>6</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Lástima lo inflado del precio</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2025-11-24T19:39:52.000Z</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>45985.81935185185</v>
+      </c>
+      <c r="I50" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>19:39:52</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1149425460681635', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNDk0MjU0NjA2ODE2MzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTQ5NDI1NDYwNjgxNjM1', 'date': '2025-11-24T19:39:52.000Z', 'text': 'Lástima lo inflado del precio', 'profileUrl': 'https://www.facebook.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>6</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Ese es peso pluma ?</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2025-11-24T19:08:34.000Z</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="n">
+        <v>45985.79761574074</v>
+      </c>
+      <c r="I51" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>19:08:34</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="b">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=745583734460698', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzc0NTU4MzczNDQ2MDY5OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N183NDU1ODM3MzQ0NjA2OTg=', 'date': '2025-11-24T19:08:34.000Z', 'text': 'Ese es peso pluma ?', 'profileUrl': 'https://www.facebook.com/mike.wi</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>6</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Inaccesible muy caro 🫰</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2025-11-24T18:58:53.000Z</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="n">
+        <v>45985.7908912037</v>
+      </c>
+      <c r="I52" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>18:58:53</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=860109699855760', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzg2MDEwOTY5OTg1NTc2MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184NjAxMDk2OTk4NTU3NjA=', 'date': '2025-11-24T18:58:53.000Z', 'text': 'Inaccesible muy caro 🫰', 'profileUrl': 'https://www.facebook.com/fred</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>6</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Como pasa el tiempo 😳</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2025-11-24T18:39:10.000Z</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="n">
+        <v>45985.77719907407</v>
+      </c>
+      <c r="I53" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>18:39:10</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="b">
+        <v>0</v>
+      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1387173373123562', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzODcxNzMzNzMxMjM1NjI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzg3MTczMzczMTIzNTYy', 'date': '2025-11-24T18:39:10.000Z', 'text': 'Como pasa el tiempo 😳', 'attachments': [{'__typename': 'Photo', 'blu</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>6</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Eso para que SIRVE</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2025-11-24T18:37:25.000Z</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="n">
+        <v>45985.77598379629</v>
+      </c>
+      <c r="I54" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>18:37:25</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="b">
+        <v>0</v>
+      </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=24232223896453338', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzI0MjMyMjIzODk2NDUzMzM4', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yNDIzMjIyMzg5NjQ1MzMzOA==', 'date': '2025-11-24T18:37:25.000Z', 'text': 'Eso para que SIRVE', 'profileUrl': 'https://www.facebook.com/pe</t>
         </is>
       </c>
     </row>
@@ -1601,7 +3706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1779,6 +3884,33 @@
       </c>
       <c r="G6" s="2" t="n">
         <v>45981.26364583334</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>35</v>
+      </c>
+      <c r="E7" t="n">
+        <v>52</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>45985.77598379629</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>45986.84166666667</v>
       </c>
     </row>
   </sheetData>
@@ -1834,16 +3966,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D2" t="n">
-        <v>0.11</v>
+        <v>1.2</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -1932,10 +4064,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -19,11 +19,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -63,13 +61,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1626,7 +1623,7 @@
       <c r="H20" s="2" t="n">
         <v>45986.84166666667</v>
       </c>
-      <c r="I20" s="3" t="n">
+      <c r="I20" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J20" t="inlineStr">
@@ -1634,10 +1631,8 @@
           <t>20:12:00</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K20" t="n">
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -1686,7 +1681,7 @@
       <c r="H21" s="2" t="n">
         <v>45986.78293981482</v>
       </c>
-      <c r="I21" s="3" t="n">
+      <c r="I21" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J21" t="inlineStr">
@@ -1694,10 +1689,8 @@
           <t>18:47:26</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K21" t="n">
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -1746,7 +1739,7 @@
       <c r="H22" s="2" t="n">
         <v>45986.72972222222</v>
       </c>
-      <c r="I22" s="3" t="n">
+      <c r="I22" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J22" t="inlineStr">
@@ -1754,10 +1747,8 @@
           <t>17:30:48</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K22" t="n">
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -1806,7 +1797,7 @@
       <c r="H23" s="2" t="n">
         <v>45986.70241898148</v>
       </c>
-      <c r="I23" s="3" t="n">
+      <c r="I23" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J23" t="inlineStr">
@@ -1814,10 +1805,8 @@
           <t>16:51:29</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K23" t="n">
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -1866,7 +1855,7 @@
       <c r="H24" s="2" t="n">
         <v>45986.68048611111</v>
       </c>
-      <c r="I24" s="3" t="n">
+      <c r="I24" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J24" t="inlineStr">
@@ -1874,10 +1863,8 @@
           <t>16:19:54</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K24" t="n">
+        <v>2</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -1926,7 +1913,7 @@
       <c r="H25" s="2" t="n">
         <v>45986.58927083333</v>
       </c>
-      <c r="I25" s="3" t="n">
+      <c r="I25" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J25" t="inlineStr">
@@ -1934,10 +1921,8 @@
           <t>14:08:33</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K25" t="n">
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -1986,7 +1971,7 @@
       <c r="H26" s="2" t="n">
         <v>45986.50646990741</v>
       </c>
-      <c r="I26" s="3" t="n">
+      <c r="I26" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J26" t="inlineStr">
@@ -1994,10 +1979,8 @@
           <t>12:09:19</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="K26" t="n">
+        <v>4</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2046,7 +2029,7 @@
       <c r="H27" s="2" t="n">
         <v>45986.47837962963</v>
       </c>
-      <c r="I27" s="3" t="n">
+      <c r="I27" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J27" t="inlineStr">
@@ -2054,10 +2037,8 @@
           <t>11:28:52</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K27" t="n">
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2106,7 +2087,7 @@
       <c r="H28" s="2" t="n">
         <v>45986.47603009259</v>
       </c>
-      <c r="I28" s="3" t="n">
+      <c r="I28" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J28" t="inlineStr">
@@ -2114,10 +2095,8 @@
           <t>11:25:29</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K28" t="n">
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2166,7 +2145,7 @@
       <c r="H29" s="2" t="n">
         <v>45986.42283564815</v>
       </c>
-      <c r="I29" s="3" t="n">
+      <c r="I29" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J29" t="inlineStr">
@@ -2174,10 +2153,8 @@
           <t>10:08:53</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K29" t="n">
+        <v>1</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -2226,7 +2203,7 @@
       <c r="H30" s="2" t="n">
         <v>45986.32553240741</v>
       </c>
-      <c r="I30" s="3" t="n">
+      <c r="I30" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J30" t="inlineStr">
@@ -2234,10 +2211,8 @@
           <t>07:48:46</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K30" t="n">
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -2286,7 +2261,7 @@
       <c r="H31" s="2" t="n">
         <v>45986.2392824074</v>
       </c>
-      <c r="I31" s="3" t="n">
+      <c r="I31" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J31" t="inlineStr">
@@ -2294,10 +2269,8 @@
           <t>05:44:34</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K31" t="n">
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -2346,7 +2319,7 @@
       <c r="H32" s="2" t="n">
         <v>45986.21298611111</v>
       </c>
-      <c r="I32" s="3" t="n">
+      <c r="I32" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J32" t="inlineStr">
@@ -2354,10 +2327,8 @@
           <t>05:06:42</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K32" t="n">
+        <v>1</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -2406,7 +2377,7 @@
       <c r="H33" s="2" t="n">
         <v>45986.18716435185</v>
       </c>
-      <c r="I33" s="3" t="n">
+      <c r="I33" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J33" t="inlineStr">
@@ -2414,10 +2385,8 @@
           <t>04:29:31</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K33" t="n">
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -2466,7 +2435,7 @@
       <c r="H34" s="2" t="n">
         <v>45986.1346412037</v>
       </c>
-      <c r="I34" s="3" t="n">
+      <c r="I34" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J34" t="inlineStr">
@@ -2474,10 +2443,8 @@
           <t>03:13:53</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="K34" t="n">
+        <v>11</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -2526,7 +2493,7 @@
       <c r="H35" s="2" t="n">
         <v>45986.12678240741</v>
       </c>
-      <c r="I35" s="3" t="n">
+      <c r="I35" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J35" t="inlineStr">
@@ -2534,10 +2501,8 @@
           <t>03:02:34</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K35" t="n">
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -2586,7 +2551,7 @@
       <c r="H36" s="2" t="n">
         <v>45986.09997685185</v>
       </c>
-      <c r="I36" s="3" t="n">
+      <c r="I36" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J36" t="inlineStr">
@@ -2594,10 +2559,8 @@
           <t>02:23:58</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K36" t="n">
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -2646,7 +2609,7 @@
       <c r="H37" s="2" t="n">
         <v>45986.09811342593</v>
       </c>
-      <c r="I37" s="3" t="n">
+      <c r="I37" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J37" t="inlineStr">
@@ -2654,10 +2617,8 @@
           <t>02:21:17</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K37" t="n">
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -2706,7 +2667,7 @@
       <c r="H38" s="2" t="n">
         <v>45986.09702546296</v>
       </c>
-      <c r="I38" s="3" t="n">
+      <c r="I38" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J38" t="inlineStr">
@@ -2714,10 +2675,8 @@
           <t>02:19:43</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K38" t="n">
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -2766,7 +2725,7 @@
       <c r="H39" s="2" t="n">
         <v>45986.06347222222</v>
       </c>
-      <c r="I39" s="3" t="n">
+      <c r="I39" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J39" t="inlineStr">
@@ -2774,10 +2733,8 @@
           <t>01:31:24</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K39" t="n">
+        <v>1</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -2828,7 +2785,7 @@
       <c r="H40" s="2" t="n">
         <v>45986.05381944445</v>
       </c>
-      <c r="I40" s="3" t="n">
+      <c r="I40" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J40" t="inlineStr">
@@ -2836,10 +2793,8 @@
           <t>01:17:30</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K40" t="n">
+        <v>2</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -2888,7 +2843,7 @@
       <c r="H41" s="2" t="n">
         <v>45986.03559027778</v>
       </c>
-      <c r="I41" s="3" t="n">
+      <c r="I41" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J41" t="inlineStr">
@@ -2896,10 +2851,8 @@
           <t>00:51:15</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K41" t="n">
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -2948,7 +2901,7 @@
       <c r="H42" s="2" t="n">
         <v>45986.03555555556</v>
       </c>
-      <c r="I42" s="3" t="n">
+      <c r="I42" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J42" t="inlineStr">
@@ -2956,10 +2909,8 @@
           <t>00:51:12</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="K42" t="n">
+        <v>4</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -3008,7 +2959,7 @@
       <c r="H43" s="2" t="n">
         <v>45986.00568287037</v>
       </c>
-      <c r="I43" s="3" t="n">
+      <c r="I43" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J43" t="inlineStr">
@@ -3016,10 +2967,8 @@
           <t>00:08:11</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K43" t="n">
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3068,7 +3017,7 @@
       <c r="H44" s="2" t="n">
         <v>45985.97886574074</v>
       </c>
-      <c r="I44" s="3" t="n">
+      <c r="I44" s="2" t="n">
         <v>45985</v>
       </c>
       <c r="J44" t="inlineStr">
@@ -3076,10 +3025,8 @@
           <t>23:29:34</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K44" t="n">
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -3128,7 +3075,7 @@
       <c r="H45" s="2" t="n">
         <v>45985.96413194444</v>
       </c>
-      <c r="I45" s="3" t="n">
+      <c r="I45" s="2" t="n">
         <v>45985</v>
       </c>
       <c r="J45" t="inlineStr">
@@ -3136,10 +3083,8 @@
           <t>23:08:21</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K45" t="n">
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -3188,7 +3133,7 @@
       <c r="H46" s="2" t="n">
         <v>45985.9574537037</v>
       </c>
-      <c r="I46" s="3" t="n">
+      <c r="I46" s="2" t="n">
         <v>45985</v>
       </c>
       <c r="J46" t="inlineStr">
@@ -3196,10 +3141,8 @@
           <t>22:58:44</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K46" t="n">
+        <v>2</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -3248,7 +3191,7 @@
       <c r="H47" s="2" t="n">
         <v>45985.94378472222</v>
       </c>
-      <c r="I47" s="3" t="n">
+      <c r="I47" s="2" t="n">
         <v>45985</v>
       </c>
       <c r="J47" t="inlineStr">
@@ -3256,10 +3199,8 @@
           <t>22:39:03</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K47" t="n">
+        <v>1</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -3308,7 +3249,7 @@
       <c r="H48" s="2" t="n">
         <v>45985.93166666666</v>
       </c>
-      <c r="I48" s="3" t="n">
+      <c r="I48" s="2" t="n">
         <v>45985</v>
       </c>
       <c r="J48" t="inlineStr">
@@ -3316,10 +3257,8 @@
           <t>22:21:36</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="K48" t="n">
+        <v>13</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -3368,7 +3307,7 @@
       <c r="H49" s="2" t="n">
         <v>45985.90262731481</v>
       </c>
-      <c r="I49" s="3" t="n">
+      <c r="I49" s="2" t="n">
         <v>45985</v>
       </c>
       <c r="J49" t="inlineStr">
@@ -3376,10 +3315,8 @@
           <t>21:39:47</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K49" t="n">
+        <v>2</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -3428,7 +3365,7 @@
       <c r="H50" s="2" t="n">
         <v>45985.81935185185</v>
       </c>
-      <c r="I50" s="3" t="n">
+      <c r="I50" s="2" t="n">
         <v>45985</v>
       </c>
       <c r="J50" t="inlineStr">
@@ -3436,10 +3373,8 @@
           <t>19:39:52</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K50" t="n">
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -3488,7 +3423,7 @@
       <c r="H51" s="2" t="n">
         <v>45985.79761574074</v>
       </c>
-      <c r="I51" s="3" t="n">
+      <c r="I51" s="2" t="n">
         <v>45985</v>
       </c>
       <c r="J51" t="inlineStr">
@@ -3496,10 +3431,8 @@
           <t>19:08:34</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K51" t="n">
+        <v>1</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -3548,7 +3481,7 @@
       <c r="H52" s="2" t="n">
         <v>45985.7908912037</v>
       </c>
-      <c r="I52" s="3" t="n">
+      <c r="I52" s="2" t="n">
         <v>45985</v>
       </c>
       <c r="J52" t="inlineStr">
@@ -3556,10 +3489,8 @@
           <t>18:58:53</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K52" t="n">
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -3608,7 +3539,7 @@
       <c r="H53" s="2" t="n">
         <v>45985.77719907407</v>
       </c>
-      <c r="I53" s="3" t="n">
+      <c r="I53" s="2" t="n">
         <v>45985</v>
       </c>
       <c r="J53" t="inlineStr">
@@ -3616,10 +3547,8 @@
           <t>18:39:10</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="K53" t="n">
+        <v>6</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -3668,7 +3597,7 @@
       <c r="H54" s="2" t="n">
         <v>45985.77598379629</v>
       </c>
-      <c r="I54" s="3" t="n">
+      <c r="I54" s="2" t="n">
         <v>45985</v>
       </c>
       <c r="J54" t="inlineStr">
@@ -3676,10 +3605,8 @@
           <t>18:37:25</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K54" t="n">
+        <v>1</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -4064,10 +3991,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -10,7 +10,8 @@
     <sheet name="Comentarios" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Resumen_Posts" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Stats_Plataforma" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Stats_Extraccion" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="URLs_Fallidas" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Stats_Extraccion" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19,9 +20,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -61,12 +64,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -432,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:P72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1612,27 +1616,29 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Traigan de vuelta el sabor original del kumis y los chocokrispis rojos</t>
+          <t>Que será de la vida de ese man, deberían buscarlo y hacer de nuevo la foto</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-11-25T20:12:00.000Z</t>
+          <t>2025-11-25T21:28:51.000Z</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45986.84166666667</v>
-      </c>
-      <c r="I20" s="2" t="n">
+        <v>45986.89503472222</v>
+      </c>
+      <c r="I20" s="3" t="n">
         <v>45986</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>20:12:00</t>
-        </is>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
+          <t>21:28:51</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -1644,7 +1650,7 @@
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1150071166850358', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNTAwNzExNjY4NTAzNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTUwMDcxMTY2ODUwMzU4', 'date': '2025-11-25T20:12:00.000Z', 'text': 'Traigan de vuelta el sabor original del kumis y los chocokrispis roj</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1749236129073465', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE3NDkyMzYxMjkwNzM0NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNzQ5MjM2MTI5MDczNDY1', 'date': '2025-11-25T21:28:51.000Z', 'text': 'Que será de la vida de ese man, deberían buscarlo y hacer de nuevo l</t>
         </is>
       </c>
     </row>
@@ -1670,27 +1676,31 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>¿Van a sacar la versión clásica? Uy, sería genial. Existía una versión de ninjas con historietas.</t>
+          <t>La mayoría de productos alpina, son de excelente calidad.
+Yo personalmente no le doy a mis hijos Bon yurt, por los altos contenidos de azúcar.
+No es para nada un alimento, y mucho menos para niños.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-11-25T18:47:26.000Z</t>
+          <t>2025-11-25T21:24:21.000Z</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45986.78293981482</v>
-      </c>
-      <c r="I21" s="2" t="n">
+        <v>45986.89190972222</v>
+      </c>
+      <c r="I21" s="3" t="n">
         <v>45986</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>18:47:26</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
+          <t>21:24:21</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -1702,7 +1712,7 @@
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1175232757386966', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNzUyMzI3NTczODY5NjY=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTc1MjMyNzU3Mzg2OTY2', 'date': '2025-11-25T18:47:26.000Z', 'text': '¿Van a sacar la versión clásica? Uy, sería genial. Existía una versi</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1424902262582540', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE0MjQ5MDIyNjI1ODI1NDA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNDI0OTAyMjYyNTgyNTQw', 'date': '2025-11-25T21:24:21.000Z', 'text': 'La mayoría de productos alpina, son de excelente calidad.\nYo person</t>
         </is>
       </c>
     </row>
@@ -1728,23 +1738,23 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Cuando vuelven a sacar los sacapuntas tío Bon Yurt se les recuerda con cariño.</t>
+          <t>Traigan de vuelta el sabor original del kumis y los chocokrispis rojos</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-11-25T17:30:48.000Z</t>
+          <t>2025-11-25T20:12:00.000Z</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45986.72972222222</v>
+        <v>45986.84166666667</v>
       </c>
       <c r="I22" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>17:30:48</t>
+          <t>20:12:00</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -1760,7 +1770,7 @@
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=4316274151993029', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzQzMTYyNzQxNTE5OTMwMjk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N180MzE2Mjc0MTUxOTkzMDI5', 'date': '2025-11-25T17:30:48.000Z', 'text': 'Cuando vuelven a sacar los sacapuntas tío Bon Yurt se les recuerda c</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1150071166850358', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNTAwNzExNjY4NTAzNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTUwMDcxMTY2ODUwMzU4', 'date': '2025-11-25T20:12:00.000Z', 'text': 'Traigan de vuelta el sabor original del kumis y los chocokrispis roj</t>
         </is>
       </c>
     </row>
@@ -1786,23 +1796,23 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Desde cuándo el CHAMBON del INGENIERO Obando, sirve de IA para promocionar Bonyurt jaja</t>
+          <t>¿Van a sacar la versión clásica? Uy, sería genial. Existía una versión de ninjas con historietas.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-11-25T16:51:29.000Z</t>
+          <t>2025-11-25T18:47:26.000Z</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45986.70241898148</v>
+        <v>45986.78293981482</v>
       </c>
       <c r="I23" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>16:51:29</t>
+          <t>18:47:26</t>
         </is>
       </c>
       <c r="K23" t="n">
@@ -1818,7 +1828,7 @@
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=724688210136182', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzcyNDY4ODIxMDEzNjE4Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N183MjQ2ODgyMTAxMzYxODI=', 'date': '2025-11-25T16:51:29.000Z', 'text': 'Desde cuándo el CHAMBON del INGENIERO Obando, sirve de IA para promoc</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1175232757386966', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNzUyMzI3NTczODY5NjY=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTc1MjMyNzU3Mzg2OTY2', 'date': '2025-11-25T18:47:26.000Z', 'text': '¿Van a sacar la versión clásica? Uy, sería genial. Existía una versi</t>
         </is>
       </c>
     </row>
@@ -1844,27 +1854,27 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>A mi me parece un muy buen producto y una excelente alianza. Que la calidad a bajado después de 2006,  si así es pero agradezcan a la mano de impuestos que tenemos en el país, antes es que la empresa aún sigue dando empleo a miles de colombianos, a dado la pelea. Y estos gobiernos son lo mismo pidan y pidan y solo den contentillo al pueblo. No hablen mal de las empresas y sus productos antes agradezcamos que aún tenemos empresas en colombia.</t>
+          <t>Cuando vuelven a sacar los sacapuntas tío Bon Yurt se les recuerda con cariño.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-11-25T16:19:54.000Z</t>
+          <t>2025-11-25T17:30:48.000Z</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45986.68048611111</v>
+        <v>45986.72972222222</v>
       </c>
       <c r="I24" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>16:19:54</t>
+          <t>17:30:48</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -1876,7 +1886,7 @@
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=2677048389302225', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzI2NzcwNDgzODkzMDIyMjU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yNjc3MDQ4Mzg5MzAyMjI1', 'date': '2025-11-25T16:19:54.000Z', 'text': 'A mi me parece un muy buen producto y una excelente alianza. Que la </t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=4316274151993029', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzQzMTYyNzQxNTE5OTMwMjk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N180MzE2Mjc0MTUxOTkzMDI5', 'date': '2025-11-25T17:30:48.000Z', 'text': 'Cuando vuelven a sacar los sacapuntas tío Bon Yurt se les recuerda c</t>
         </is>
       </c>
     </row>
@@ -1902,23 +1912,23 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Alpina, los mejores lácteos de Colombia</t>
+          <t>Desde cuándo el CHAMBON del INGENIERO Obando, sirve de IA para promocionar Bonyurt jaja</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-11-25T14:08:33.000Z</t>
+          <t>2025-11-25T16:51:29.000Z</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
-        <v>45986.58927083333</v>
+        <v>45986.70241898148</v>
       </c>
       <c r="I25" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>14:08:33</t>
+          <t>16:51:29</t>
         </is>
       </c>
       <c r="K25" t="n">
@@ -1934,7 +1944,7 @@
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1152499160382981', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNTI0OTkxNjAzODI5ODE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTUyNDk5MTYwMzgyOTgx', 'date': '2025-11-25T14:08:33.000Z', 'text': 'Alpina, los mejores lácteos de Colombia', 'profileUrl': 'https://www</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=724688210136182', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzcyNDY4ODIxMDEzNjE4Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N183MjQ2ODgyMTAxMzYxODI=', 'date': '2025-11-25T16:51:29.000Z', 'text': 'Desde cuándo el CHAMBON del INGENIERO Obando, sirve de IA para promoc</t>
         </is>
       </c>
     </row>
@@ -1960,27 +1970,27 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Con esos precios na  gracias lo hago en casa me sale más barato  y más rico</t>
+          <t>A mi me parece un muy buen producto y una excelente alianza. Que la calidad a bajado después de 2006,  si así es pero agradezcan a la mano de impuestos que tenemos en el país, antes es que la empresa aún sigue dando empleo a miles de colombianos, a dado la pelea. Y estos gobiernos son lo mismo pidan y pidan y solo den contentillo al pueblo. No hablen mal de las empresas y sus productos antes agradezcamos que aún tenemos empresas en colombia.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-11-25T12:09:19.000Z</t>
+          <t>2025-11-25T16:19:54.000Z</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
-        <v>45986.50646990741</v>
+        <v>45986.68048611111</v>
       </c>
       <c r="I26" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>12:09:19</t>
+          <t>16:19:54</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -1992,7 +2002,7 @@
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=2045961822830627', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIwNDU5NjE4MjI4MzA2Mjc=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMDQ1OTYxODIyODMwNjI3', 'date': '2025-11-25T12:09:19.000Z', 'text': 'Con esos precios na  gracias lo hago en casa me sale más barato  y m</t>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=2677048389302225', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzI2NzcwNDgzODkzMDIyMjU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yNjc3MDQ4Mzg5MzAyMjI1', 'date': '2025-11-25T16:19:54.000Z', 'text': 'A mi me parece un muy buen producto y una excelente alianza. Que la </t>
         </is>
       </c>
     </row>
@@ -2018,23 +2028,23 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Un mundo lleno de azúcar con seres humanos enfermos por esto mismo, el azúcar comida de muchas enfermedades entre ellas el cáncer, alimento ultraprocesado que hacen pasar por un alimento saludable  y ahora quien quiere contaminar a sus hijos o dañar sus sistemas digestivos .... Consume bon yurt te ayuda a estar mal si o si .........</t>
+          <t>Alpina, los mejores lácteos de Colombia</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-11-25T11:28:52.000Z</t>
+          <t>2025-11-25T14:08:33.000Z</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
-        <v>45986.47837962963</v>
+        <v>45986.58927083333</v>
       </c>
       <c r="I27" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>11:28:52</t>
+          <t>14:08:33</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -2050,7 +2060,7 @@
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=740299422427121', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzc0MDI5OTQyMjQyNzEyMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N183NDAyOTk0MjI0MjcxMjE=', 'date': '2025-11-25T11:28:52.000Z', 'text': 'Un mundo lleno de azúcar con seres humanos enfermos por esto mismo, e</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1152499160382981', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNTI0OTkxNjAzODI5ODE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTUyNDk5MTYwMzgyOTgx', 'date': '2025-11-25T14:08:33.000Z', 'text': 'Alpina, los mejores lácteos de Colombia', 'profileUrl': 'https://www</t>
         </is>
       </c>
     </row>
@@ -2076,27 +2086,27 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>35 años robando a las familias... Excelente como se han enriquecido</t>
+          <t>Con esos precios na  gracias lo hago en casa me sale más barato  y más rico</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-11-25T11:25:29.000Z</t>
+          <t>2025-11-25T12:09:19.000Z</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
-        <v>45986.47603009259</v>
+        <v>45986.50646990741</v>
       </c>
       <c r="I28" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>11:25:29</t>
+          <t>12:09:19</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2108,7 +2118,7 @@
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1557146152191245', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE1NTcxNDYxNTIxOTEyNDU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNTU3MTQ2MTUyMTkxMjQ1', 'date': '2025-11-25T11:25:29.000Z', 'text': '35 años robando a las familias... Excelente como se han enriquecido'</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=2045961822830627', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIwNDU5NjE4MjI4MzA2Mjc=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMDQ1OTYxODIyODMwNjI3', 'date': '2025-11-25T12:09:19.000Z', 'text': 'Con esos precios na  gracias lo hago en casa me sale más barato  y m</t>
         </is>
       </c>
     </row>
@@ -2134,27 +2144,27 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>35 años vendiendo plástico, felicitaciones, que gran empresa</t>
+          <t>Un mundo lleno de azúcar con seres humanos enfermos por esto mismo, el azúcar comida de muchas enfermedades entre ellas el cáncer, alimento ultraprocesado que hacen pasar por un alimento saludable  y ahora quien quiere contaminar a sus hijos o dañar sus sistemas digestivos .... Consume bon yurt te ayuda a estar mal si o si .........</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-11-25T10:08:53.000Z</t>
+          <t>2025-11-25T11:28:52.000Z</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
-        <v>45986.42283564815</v>
+        <v>45986.47837962963</v>
       </c>
       <c r="I29" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>10:08:53</t>
+          <t>11:28:52</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -2166,7 +2176,7 @@
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=837830755559105', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzgzNzgzMDc1NTU1OTEwNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184Mzc4MzA3NTU1NTkxMDU=', 'date': '2025-11-25T10:08:53.000Z', 'text': '35 años vendiendo plástico, felicitaciones, que gran empresa', 'profi</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=740299422427121', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzc0MDI5OTQyMjQyNzEyMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N183NDAyOTk0MjI0MjcxMjE=', 'date': '2025-11-25T11:28:52.000Z', 'text': 'Un mundo lleno de azúcar con seres humanos enfermos por esto mismo, e</t>
         </is>
       </c>
     </row>
@@ -2192,23 +2202,23 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>BEBIDA LÁCTEA QUE NO ES YOGURT</t>
+          <t>35 años robando a las familias... Excelente como se han enriquecido</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-11-25T07:48:46.000Z</t>
+          <t>2025-11-25T11:25:29.000Z</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
-        <v>45986.32553240741</v>
+        <v>45986.47603009259</v>
       </c>
       <c r="I30" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>07:48:46</t>
+          <t>11:25:29</t>
         </is>
       </c>
       <c r="K30" t="n">
@@ -2224,7 +2234,7 @@
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1351672526428164', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzNTE2NzI1MjY0MjgxNjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzUxNjcyNTI2NDI4MTY0', 'date': '2025-11-25T07:48:46.000Z', 'text': 'BEBIDA LÁCTEA QUE NO ES YOGURT', 'profileUrl': 'https://www.facebook</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1557146152191245', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE1NTcxNDYxNTIxOTEyNDU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNTU3MTQ2MTUyMTkxMjQ1', 'date': '2025-11-25T11:25:29.000Z', 'text': '35 años robando a las familias... Excelente como se han enriquecido'</t>
         </is>
       </c>
     </row>
@@ -2250,27 +2260,27 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Muy poquito para el valor! Se pasan...</t>
+          <t>35 años vendiendo plástico, felicitaciones, que gran empresa</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-11-25T05:44:34.000Z</t>
+          <t>2025-11-25T10:08:53.000Z</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
-        <v>45986.2392824074</v>
+        <v>45986.42283564815</v>
       </c>
       <c r="I31" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>05:44:34</t>
+          <t>10:08:53</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -2282,7 +2292,7 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1616838652836190', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE2MTY4Mzg2NTI4MzYxOTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNjE2ODM4NjUyODM2MTkw', 'date': '2025-11-25T05:44:34.000Z', 'text': 'Muy poquito para el valor! Se pasan...', 'profileUrl': 'https://www.</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=837830755559105', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzgzNzgzMDc1NTU1OTEwNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184Mzc4MzA3NTU1NTkxMDU=', 'date': '2025-11-25T10:08:53.000Z', 'text': '35 años vendiendo plástico, felicitaciones, que gran empresa', 'profi</t>
         </is>
       </c>
     </row>
@@ -2308,27 +2318,27 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Sobrevalorado, es rico siii pero fácilmente me pasan años sin probarlo, su precio aleja para ser tan básico</t>
+          <t>BEBIDA LÁCTEA QUE NO ES YOGURT</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-11-25T05:06:42.000Z</t>
+          <t>2025-11-25T07:48:46.000Z</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
-        <v>45986.21298611111</v>
+        <v>45986.32553240741</v>
       </c>
       <c r="I32" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>05:06:42</t>
+          <t>07:48:46</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -2340,7 +2350,7 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1306741007870493', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzMDY3NDEwMDc4NzA0OTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzA2NzQxMDA3ODcwNDkz', 'date': '2025-11-25T05:06:42.000Z', 'text': 'Sobrevalorado, es rico siii pero fácilmente me pasan años sin probar</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1351672526428164', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzNTE2NzI1MjY0MjgxNjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzUxNjcyNTI2NDI4MTY0', 'date': '2025-11-25T07:48:46.000Z', 'text': 'BEBIDA LÁCTEA QUE NO ES YOGURT', 'profileUrl': 'https://www.facebook</t>
         </is>
       </c>
     </row>
@@ -2366,23 +2376,23 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>No les da verguenza, vivir del negocio d los alimentos y causar enfermedades con sus productos...</t>
+          <t>Muy poquito para el valor! Se pasan...</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-11-25T04:29:31.000Z</t>
+          <t>2025-11-25T05:44:34.000Z</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
-        <v>45986.18716435185</v>
+        <v>45986.2392824074</v>
       </c>
       <c r="I33" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>04:29:31</t>
+          <t>05:44:34</t>
         </is>
       </c>
       <c r="K33" t="n">
@@ -2398,7 +2408,7 @@
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1382763526625753', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzODI3NjM1MjY2MjU3NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzgyNzYzNTI2NjI1NzUz', 'date': '2025-11-25T04:29:31.000Z', 'text': 'No les da verguenza, vivir del negocio d los alimentos y causar enfe</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1616838652836190', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE2MTY4Mzg2NTI4MzYxOTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNjE2ODM4NjUyODM2MTkw', 'date': '2025-11-25T05:44:34.000Z', 'text': 'Muy poquito para el valor! Se pasan...', 'profileUrl': 'https://www.</t>
         </is>
       </c>
     </row>
@@ -2424,27 +2434,27 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>35 años vendiendo productos sobrevalorados, bravo!</t>
+          <t>Sobrevalorado, es rico siii pero fácilmente me pasan años sin probarlo, su precio aleja para ser tan básico</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-11-25T03:13:53.000Z</t>
+          <t>2025-11-25T05:06:42.000Z</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
-        <v>45986.1346412037</v>
+        <v>45986.21298611111</v>
       </c>
       <c r="I34" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>03:13:53</t>
+          <t>05:06:42</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -2456,7 +2466,7 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1152991517044181', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNTI5OTE1MTcwNDQxODE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTUyOTkxNTE3MDQ0MTgx', 'date': '2025-11-25T03:13:53.000Z', 'text': '35 años vendiendo productos sobrevalorados, bravo!', 'profilePicture</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1306741007870493', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzMDY3NDEwMDc4NzA0OTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzA2NzQxMDA3ODcwNDkz', 'date': '2025-11-25T05:06:42.000Z', 'text': 'Sobrevalorado, es rico siii pero fácilmente me pasan años sin probar</t>
         </is>
       </c>
     </row>
@@ -2482,23 +2492,23 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>5 lucas un bon yurt nee jeeedaaa</t>
+          <t>No les da verguenza, vivir del negocio d los alimentos y causar enfermedades con sus productos...</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-11-25T03:02:34.000Z</t>
+          <t>2025-11-25T04:29:31.000Z</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
-        <v>45986.12678240741</v>
+        <v>45986.18716435185</v>
       </c>
       <c r="I35" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>03:02:34</t>
+          <t>04:29:31</t>
         </is>
       </c>
       <c r="K35" t="n">
@@ -2514,7 +2524,7 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=2057651748323375', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIwNTc2NTE3NDgzMjMzNzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMDU3NjUxNzQ4MzIzMzc1', 'date': '2025-11-25T03:02:34.000Z', 'text': '5 lucas un bon yurt nee jeeedaaa', 'profilePicture': 'https://sconte</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1382763526625753', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzODI3NjM1MjY2MjU3NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzgyNzYzNTI2NjI1NzUz', 'date': '2025-11-25T04:29:31.000Z', 'text': 'No les da verguenza, vivir del negocio d los alimentos y causar enfe</t>
         </is>
       </c>
     </row>
@@ -2540,27 +2550,27 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tan bueno.</t>
+          <t>35 años vendiendo productos sobrevalorados, bravo!</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-11-25T02:23:58.000Z</t>
+          <t>2025-11-25T03:13:53.000Z</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
-        <v>45986.09997685185</v>
+        <v>45986.1346412037</v>
       </c>
       <c r="I36" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>02:23:58</t>
+          <t>03:13:53</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -2572,7 +2582,7 @@
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1388063563103759', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzODgwNjM1NjMxMDM3NTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzg4MDYzNTYzMTAzNzU5', 'date': '2025-11-25T02:23:58.000Z', 'text': 'Tan bueno.', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1152991517044181', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNTI5OTE1MTcwNDQxODE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTUyOTkxNTE3MDQ0MTgx', 'date': '2025-11-25T03:13:53.000Z', 'text': '35 años vendiendo productos sobrevalorados, bravo!', 'profilePicture</t>
         </is>
       </c>
     </row>
@@ -2598,23 +2608,23 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Todo un lujo jjj</t>
+          <t>5 lucas un bon yurt nee jeeedaaa</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-11-25T02:21:17.000Z</t>
+          <t>2025-11-25T03:02:34.000Z</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
-        <v>45986.09811342593</v>
+        <v>45986.12678240741</v>
       </c>
       <c r="I37" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>02:21:17</t>
+          <t>03:02:34</t>
         </is>
       </c>
       <c r="K37" t="n">
@@ -2630,7 +2640,7 @@
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=829854586452459', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzgyOTg1NDU4NjQ1MjQ1OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184Mjk4NTQ1ODY0NTI0NTk=', 'date': '2025-11-25T02:21:17.000Z', 'text': 'Todo un lujo jjj', 'profileUrl': 'https://www.facebook.com/luzbell.ye</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=2057651748323375', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIwNTc2NTE3NDgzMjMzNzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMDU3NjUxNzQ4MzIzMzc1', 'date': '2025-11-25T03:02:34.000Z', 'text': '5 lucas un bon yurt nee jeeedaaa', 'profilePicture': 'https://sconte</t>
         </is>
       </c>
     </row>
@@ -2656,23 +2666,23 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Esa época cuando el yogurt  era el propio sin derivados de sueros</t>
+          <t>Tan bueno.</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-11-25T02:19:43.000Z</t>
+          <t>2025-11-25T02:23:58.000Z</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
-        <v>45986.09702546296</v>
+        <v>45986.09997685185</v>
       </c>
       <c r="I38" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>02:19:43</t>
+          <t>02:23:58</t>
         </is>
       </c>
       <c r="K38" t="n">
@@ -2688,7 +2698,7 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1177485643784836', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNzc0ODU2NDM3ODQ4MzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTc3NDg1NjQzNzg0ODM2', 'date': '2025-11-25T02:19:43.000Z', 'text': 'Esa época cuando el yogurt  era el propio sin derivados de sueros', </t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1388063563103759', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzODgwNjM1NjMxMDM3NTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzg4MDYzNTYzMTAzNzU5', 'date': '2025-11-25T02:23:58.000Z', 'text': 'Tan bueno.', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net</t>
         </is>
       </c>
     </row>
@@ -2714,27 +2724,27 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Este man no es el que hizo de Vaselino en vecinos?</t>
+          <t>Todo un lujo jjj</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-11-25T01:31:24.000Z</t>
+          <t>2025-11-25T02:21:17.000Z</t>
         </is>
       </c>
       <c r="H39" s="2" t="n">
-        <v>45986.06347222222</v>
+        <v>45986.09811342593</v>
       </c>
       <c r="I39" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>01:31:24</t>
+          <t>02:21:17</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -2746,7 +2756,7 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1383064816735090', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzODMwNjQ4MTY3MzUwOTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzgzMDY0ODE2NzM1MDkw', 'date': '2025-11-25T01:31:24.000Z', 'text': 'Este man no es el que hizo de Vaselino en vecinos?', 'profilePicture</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=829854586452459', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzgyOTg1NDU4NjQ1MjQ1OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184Mjk4NTQ1ODY0NTI0NTk=', 'date': '2025-11-25T02:21:17.000Z', 'text': 'Todo un lujo jjj', 'profileUrl': 'https://www.facebook.com/luzbell.ye</t>
         </is>
       </c>
     </row>
@@ -2772,145 +2782,145 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
+          <t>Esa época cuando el yogurt  era el propio sin derivados de sueros</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2025-11-25T02:19:43.000Z</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>45986.09702546296</v>
+      </c>
+      <c r="I40" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>02:19:43</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1177485643784836', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNzc0ODU2NDM3ODQ4MzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTc3NDg1NjQzNzg0ODM2', 'date': '2025-11-25T02:19:43.000Z', 'text': 'Esa época cuando el yogurt  era el propio sin derivados de sueros', </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>6</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Este man no es el que hizo de Vaselino en vecinos?</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2025-11-25T01:31:24.000Z</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>45986.06347222222</v>
+      </c>
+      <c r="I41" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>01:31:24</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="b">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1383064816735090', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzODMwNjQ4MTY3MzUwOTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzgzMDY0ODE2NzM1MDkw', 'date': '2025-11-25T01:31:24.000Z', 'text': 'Este man no es el que hizo de Vaselino en vecinos?', 'profilePicture</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>6</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
           <t>Me acordé de la propaganda que le preguntaban a la gente que cree que es bon yurt
 Y una señora toda elegante dice : en francés significa BUENOS DÍAS 
 Fue la primera palabra en otro idioma que aprendí gracias a ese marketing</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>2025-11-25T01:17:30.000Z</t>
         </is>
       </c>
-      <c r="H40" s="2" t="n">
+      <c r="H42" s="2" t="n">
         <v>45986.05381944445</v>
-      </c>
-      <c r="I40" s="2" t="n">
-        <v>45986</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>01:17:30</t>
-        </is>
-      </c>
-      <c r="K40" t="n">
-        <v>2</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="b">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=2077627949641833', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIwNzc2Mjc5NDk2NDE4MzM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMDc3NjI3OTQ5NjQxODMz', 'date': '2025-11-25T01:17:30.000Z', 'text': 'Me acordé de la propaganda que le preguntaban a la gente que cree qu</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>6</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Semejante cara de bobo este personaje...</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>2025-11-25T00:51:15.000Z</t>
-        </is>
-      </c>
-      <c r="H41" s="2" t="n">
-        <v>45986.03559027778</v>
-      </c>
-      <c r="I41" s="2" t="n">
-        <v>45986</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>00:51:15</t>
-        </is>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="b">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1178608700915001', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNzg2MDg3MDA5MTUwMDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTc4NjA4NzAwOTE1MDAx', 'date': '2025-11-25T00:51:15.000Z', 'text': 'Semejante cara de bobo este personaje...', 'profilePicture': 'https:</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>6</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Ojalá el precio también sea retro.</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>2025-11-25T00:51:12.000Z</t>
-        </is>
-      </c>
-      <c r="H42" s="2" t="n">
-        <v>45986.03555555556</v>
       </c>
       <c r="I42" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>00:51:12</t>
+          <t>01:17:30</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -2922,7 +2932,7 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1597679538060212', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE1OTc2Nzk1MzgwNjAyMTI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNTk3Njc5NTM4MDYwMjEy', 'date': '2025-11-25T00:51:12.000Z', 'text': 'Ojalá el precio también sea retro.', 'profileUrl': 'https://www.face</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=2077627949641833', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIwNzc2Mjc5NDk2NDE4MzM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMDc3NjI3OTQ5NjQxODMz', 'date': '2025-11-25T01:17:30.000Z', 'text': 'Me acordé de la propaganda que le preguntaban a la gente que cree qu</t>
         </is>
       </c>
     </row>
@@ -2948,23 +2958,23 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Salió como a finales del 88</t>
+          <t>Semejante cara de bobo este personaje...</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-11-25T00:08:11.000Z</t>
+          <t>2025-11-25T00:51:15.000Z</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
-        <v>45986.00568287037</v>
+        <v>45986.03559027778</v>
       </c>
       <c r="I43" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>00:08:11</t>
+          <t>00:51:15</t>
         </is>
       </c>
       <c r="K43" t="n">
@@ -2980,7 +2990,7 @@
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=2154810411989541', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIxNTQ4MTA0MTE5ODk1NDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMTU0ODEwNDExOTg5NTQx', 'date': '2025-11-25T00:08:11.000Z', 'text': 'Salió como a finales del 88', 'profileUrl': 'https://www.facebook.co</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1178608700915001', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNzg2MDg3MDA5MTUwMDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTc4NjA4NzAwOTE1MDAx', 'date': '2025-11-25T00:51:15.000Z', 'text': 'Semejante cara de bobo este personaje...', 'profilePicture': 'https:</t>
         </is>
       </c>
     </row>
@@ -3006,27 +3016,27 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Deberían más BN de bajar esos precios</t>
+          <t>Ojalá el precio también sea retro.</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-11-24T23:29:34.000Z</t>
+          <t>2025-11-25T00:51:12.000Z</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
-        <v>45985.97886574074</v>
+        <v>45986.03555555556</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>45985</v>
+        <v>45986</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>23:29:34</t>
+          <t>00:51:12</t>
         </is>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -3038,7 +3048,7 @@
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1180817223396975', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExODA4MTcyMjMzOTY5NzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTgwODE3MjIzMzk2OTc1', 'date': '2025-11-24T23:29:34.000Z', 'text': 'Deberían más BN de bajar esos precios', 'profileUrl': 'https://www.f</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1597679538060212', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE1OTc2Nzk1MzgwNjAyMTI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNTk3Njc5NTM4MDYwMjEy', 'date': '2025-11-25T00:51:12.000Z', 'text': 'Ojalá el precio también sea retro.', 'profileUrl': 'https://www.face</t>
         </is>
       </c>
     </row>
@@ -3064,23 +3074,23 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Ahora el precio es el del 2035, qué gonorrea si es caro un bon yurt.</t>
+          <t>Salió como a finales del 88</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-11-24T23:08:21.000Z</t>
+          <t>2025-11-25T00:08:11.000Z</t>
         </is>
       </c>
       <c r="H45" s="2" t="n">
-        <v>45985.96413194444</v>
+        <v>45986.00568287037</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>45985</v>
+        <v>45986</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>23:08:21</t>
+          <t>00:08:11</t>
         </is>
       </c>
       <c r="K45" t="n">
@@ -3096,7 +3106,7 @@
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1141110784879560', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNDExMTA3ODQ4Nzk1NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTQxMTEwNzg0ODc5NTYw', 'date': '2025-11-24T23:08:21.000Z', 'text': 'Ahora el precio es el del 2035, qué gonorrea si es caro un bon yurt.</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=2154810411989541', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIxNTQ4MTA0MTE5ODk1NDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMTU0ODEwNDExOTg5NTQx', 'date': '2025-11-25T00:08:11.000Z', 'text': 'Salió como a finales del 88', 'profileUrl': 'https://www.facebook.co</t>
         </is>
       </c>
     </row>
@@ -3122,27 +3132,27 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Que hpta joda tan cara. Rem@lpäridos abusadores</t>
+          <t>Deberían más BN de bajar esos precios</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-11-24T22:58:44.000Z</t>
+          <t>2025-11-24T23:29:34.000Z</t>
         </is>
       </c>
       <c r="H46" s="2" t="n">
-        <v>45985.9574537037</v>
+        <v>45985.97886574074</v>
       </c>
       <c r="I46" s="2" t="n">
         <v>45985</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>22:58:44</t>
+          <t>23:29:34</t>
         </is>
       </c>
       <c r="K46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -3154,7 +3164,7 @@
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1505629667162278', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE1MDU2Mjk2NjcxNjIyNzg=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNTA1NjI5NjY3MTYyMjc4', 'date': '2025-11-24T22:58:44.000Z', 'text': 'Que hpta joda tan cara. Rem@lpäridos abusadores', 'profileUrl': 'htt</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1180817223396975', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExODA4MTcyMjMzOTY5NzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTgwODE3MjIzMzk2OTc1', 'date': '2025-11-24T23:29:34.000Z', 'text': 'Deberían más BN de bajar esos precios', 'profileUrl': 'https://www.f</t>
         </is>
       </c>
     </row>
@@ -3180,27 +3190,27 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Antes traía más , le undieron el fondo al envase</t>
+          <t>Ahora el precio es el del 2035, qué gonorrea si es caro un bon yurt.</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-11-24T22:39:03.000Z</t>
+          <t>2025-11-24T23:08:21.000Z</t>
         </is>
       </c>
       <c r="H47" s="2" t="n">
-        <v>45985.94378472222</v>
+        <v>45985.96413194444</v>
       </c>
       <c r="I47" s="2" t="n">
         <v>45985</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>22:39:03</t>
+          <t>23:08:21</t>
         </is>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -3212,7 +3222,7 @@
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=3091916754347395', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzMwOTE5MTY3NTQzNDczOTU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18zMDkxOTE2NzU0MzQ3Mzk1', 'date': '2025-11-24T22:39:03.000Z', 'text': 'Antes traía más , le undieron el fondo al envase', 'profileUrl': 'ht</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1141110784879560', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNDExMTA3ODQ4Nzk1NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTQxMTEwNzg0ODc5NTYw', 'date': '2025-11-24T23:08:21.000Z', 'text': 'Ahora el precio es el del 2035, qué gonorrea si es caro un bon yurt.</t>
         </is>
       </c>
     </row>
@@ -3238,27 +3248,27 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Con ese precio mejor tomo aguapanelita con limon</t>
+          <t>Que hpta joda tan cara. Rem@lpäridos abusadores</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-11-24T22:21:36.000Z</t>
+          <t>2025-11-24T22:58:44.000Z</t>
         </is>
       </c>
       <c r="H48" s="2" t="n">
-        <v>45985.93166666666</v>
+        <v>45985.9574537037</v>
       </c>
       <c r="I48" s="2" t="n">
         <v>45985</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>22:21:36</t>
+          <t>22:58:44</t>
         </is>
       </c>
       <c r="K48" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -3270,7 +3280,7 @@
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=809611618734196', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzgwOTYxMTYxODczNDE5Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184MDk2MTE2MTg3MzQxOTY=', 'date': '2025-11-24T22:21:36.000Z', 'text': 'Con ese precio mejor tomo aguapanelita con limon', 'profilePicture': </t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1505629667162278', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE1MDU2Mjk2NjcxNjIyNzg=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNTA1NjI5NjY3MTYyMjc4', 'date': '2025-11-24T22:58:44.000Z', 'text': 'Que hpta joda tan cara. Rem@lpäridos abusadores', 'profileUrl': 'htt</t>
         </is>
       </c>
     </row>
@@ -3296,27 +3306,27 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Recuerdo esa primera propaganda: "¿Sabe usted qué es Bon Yurt? Bon Yurt... Bon Yurt..."</t>
+          <t>Antes traía más , le undieron el fondo al envase</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-11-24T21:39:47.000Z</t>
+          <t>2025-11-24T22:39:03.000Z</t>
         </is>
       </c>
       <c r="H49" s="2" t="n">
-        <v>45985.90262731481</v>
+        <v>45985.94378472222</v>
       </c>
       <c r="I49" s="2" t="n">
         <v>45985</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>21:39:47</t>
+          <t>22:39:03</t>
         </is>
       </c>
       <c r="K49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -3328,7 +3338,7 @@
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1871869833723454', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE4NzE4Njk4MzM3MjM0NTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xODcxODY5ODMzNzIzNDU0', 'date': '2025-11-24T21:39:47.000Z', 'text': 'Recuerdo esa primera propaganda: "¿Sabe usted qué es Bon Yurt? Bon Y</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=3091916754347395', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzMwOTE5MTY3NTQzNDczOTU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18zMDkxOTE2NzU0MzQ3Mzk1', 'date': '2025-11-24T22:39:03.000Z', 'text': 'Antes traía más , le undieron el fondo al envase', 'profileUrl': 'ht</t>
         </is>
       </c>
     </row>
@@ -3354,27 +3364,27 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Lástima lo inflado del precio</t>
+          <t>Con ese precio mejor tomo aguapanelita con limon</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-11-24T19:39:52.000Z</t>
+          <t>2025-11-24T22:21:36.000Z</t>
         </is>
       </c>
       <c r="H50" s="2" t="n">
-        <v>45985.81935185185</v>
+        <v>45985.93166666666</v>
       </c>
       <c r="I50" s="2" t="n">
         <v>45985</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>19:39:52</t>
+          <t>22:21:36</t>
         </is>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -3386,7 +3396,7 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1149425460681635', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNDk0MjU0NjA2ODE2MzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTQ5NDI1NDYwNjgxNjM1', 'date': '2025-11-24T19:39:52.000Z', 'text': 'Lástima lo inflado del precio', 'profileUrl': 'https://www.facebook.</t>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=809611618734196', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzgwOTYxMTYxODczNDE5Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184MDk2MTE2MTg3MzQxOTY=', 'date': '2025-11-24T22:21:36.000Z', 'text': 'Con ese precio mejor tomo aguapanelita con limon', 'profilePicture': </t>
         </is>
       </c>
     </row>
@@ -3412,27 +3422,27 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Ese es peso pluma ?</t>
+          <t>Recuerdo esa primera propaganda: "¿Sabe usted qué es Bon Yurt? Bon Yurt... Bon Yurt..."</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-11-24T19:08:34.000Z</t>
+          <t>2025-11-24T21:39:47.000Z</t>
         </is>
       </c>
       <c r="H51" s="2" t="n">
-        <v>45985.79761574074</v>
+        <v>45985.90262731481</v>
       </c>
       <c r="I51" s="2" t="n">
         <v>45985</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>19:08:34</t>
+          <t>21:39:47</t>
         </is>
       </c>
       <c r="K51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -3444,7 +3454,7 @@
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=745583734460698', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzc0NTU4MzczNDQ2MDY5OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N183NDU1ODM3MzQ0NjA2OTg=', 'date': '2025-11-24T19:08:34.000Z', 'text': 'Ese es peso pluma ?', 'profileUrl': 'https://www.facebook.com/mike.wi</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1871869833723454', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE4NzE4Njk4MzM3MjM0NTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xODcxODY5ODMzNzIzNDU0', 'date': '2025-11-24T21:39:47.000Z', 'text': 'Recuerdo esa primera propaganda: "¿Sabe usted qué es Bon Yurt? Bon Y</t>
         </is>
       </c>
     </row>
@@ -3470,23 +3480,23 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Inaccesible muy caro 🫰</t>
+          <t>Lástima lo inflado del precio</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-11-24T18:58:53.000Z</t>
+          <t>2025-11-24T19:39:52.000Z</t>
         </is>
       </c>
       <c r="H52" s="2" t="n">
-        <v>45985.7908912037</v>
+        <v>45985.81935185185</v>
       </c>
       <c r="I52" s="2" t="n">
         <v>45985</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>18:58:53</t>
+          <t>19:39:52</t>
         </is>
       </c>
       <c r="K52" t="n">
@@ -3502,7 +3512,7 @@
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=860109699855760', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzg2MDEwOTY5OTg1NTc2MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184NjAxMDk2OTk4NTU3NjA=', 'date': '2025-11-24T18:58:53.000Z', 'text': 'Inaccesible muy caro 🫰', 'profileUrl': 'https://www.facebook.com/fred</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1149425460681635', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNDk0MjU0NjA2ODE2MzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTQ5NDI1NDYwNjgxNjM1', 'date': '2025-11-24T19:39:52.000Z', 'text': 'Lástima lo inflado del precio', 'profileUrl': 'https://www.facebook.</t>
         </is>
       </c>
     </row>
@@ -3528,27 +3538,27 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Como pasa el tiempo 😳</t>
+          <t>Ese es peso pluma ?</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-11-24T18:39:10.000Z</t>
+          <t>2025-11-24T19:08:34.000Z</t>
         </is>
       </c>
       <c r="H53" s="2" t="n">
-        <v>45985.77719907407</v>
+        <v>45985.79761574074</v>
       </c>
       <c r="I53" s="2" t="n">
         <v>45985</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>18:39:10</t>
+          <t>19:08:34</t>
         </is>
       </c>
       <c r="K53" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -3560,7 +3570,7 @@
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1387173373123562', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzODcxNzMzNzMxMjM1NjI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzg3MTczMzczMTIzNTYy', 'date': '2025-11-24T18:39:10.000Z', 'text': 'Como pasa el tiempo 😳', 'attachments': [{'__typename': 'Photo', 'blu</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=745583734460698', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzc0NTU4MzczNDQ2MDY5OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N183NDU1ODM3MzQ0NjA2OTg=', 'date': '2025-11-24T19:08:34.000Z', 'text': 'Ese es peso pluma ?', 'profileUrl': 'https://www.facebook.com/mike.wi</t>
         </is>
       </c>
     </row>
@@ -3586,27 +3596,27 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Eso para que SIRVE</t>
+          <t>Inaccesible muy caro 🫰</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-11-24T18:37:25.000Z</t>
+          <t>2025-11-24T18:58:53.000Z</t>
         </is>
       </c>
       <c r="H54" s="2" t="n">
-        <v>45985.77598379629</v>
+        <v>45985.7908912037</v>
       </c>
       <c r="I54" s="2" t="n">
         <v>45985</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>18:37:25</t>
+          <t>18:58:53</t>
         </is>
       </c>
       <c r="K54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -3618,9 +3628,959 @@
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=860109699855760', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzg2MDEwOTY5OTg1NTc2MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184NjAxMDk2OTk4NTU3NjA=', 'date': '2025-11-24T18:58:53.000Z', 'text': 'Inaccesible muy caro 🫰', 'profileUrl': 'https://www.facebook.com/fred</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>6</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Como pasa el tiempo 😳</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2025-11-24T18:39:10.000Z</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="n">
+        <v>45985.77719907407</v>
+      </c>
+      <c r="I55" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>18:39:10</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>6</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="b">
+        <v>0</v>
+      </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1387173373123562', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzODcxNzMzNzMxMjM1NjI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzg3MTczMzczMTIzNTYy', 'date': '2025-11-24T18:39:10.000Z', 'text': 'Como pasa el tiempo 😳', 'attachments': [{'__typename': 'Photo', 'blu</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>6</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Eso para que SIRVE</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2025-11-24T18:37:25.000Z</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="n">
+        <v>45985.77598379629</v>
+      </c>
+      <c r="I56" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>18:37:25</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="b">
+        <v>0</v>
+      </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
           <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=24232223896453338', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzI0MjMyMjIzODk2NDUzMzM4', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yNDIzMjIyMzg5NjQ1MzMzOA==', 'date': '2025-11-24T18:37:25.000Z', 'text': 'Eso para que SIRVE', 'profileUrl': 'https://www.facebook.com/pe</t>
         </is>
       </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>7</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1247221154110296/</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1247221154110296/</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="b">
+        <v>0</v>
+      </c>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>8</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="b">
+        <v>0</v>
+      </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>9</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1247217804110631/</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1247217804110631/</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="b">
+        <v>0</v>
+      </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>10</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1247221017443643/</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1247221017443643/</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="b">
+        <v>0</v>
+      </c>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>11</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258767226289022/</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258767226289022/</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="b">
+        <v>0</v>
+      </c>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>12</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258767296289015/</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258767296289015/</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="b">
+        <v>0</v>
+      </c>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>13</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Medio vaso de yogur, 6 morenitas, la calidad del yogur baja y el precio alto 🤦🏼‍♀️</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2025-11-25T20:18:02.000Z</t>
+        </is>
+      </c>
+      <c r="H63" s="2" t="n">
+        <v>45986.84585648148</v>
+      </c>
+      <c r="I63" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>20:18:02</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="b">
+        <v>0</v>
+      </c>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=1382018550229999', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzEzODIwMTg1NTAyMjk5OTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xMzgyMDE4NTUwMjI5OTk5', 'date': '2025-11-25T20:18:02.000Z', 'text': 'Medio vaso de yogur, 6 morenitas, la calidad del yogur baja y el pre</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>13</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Perfecto!!!!❤️</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2025-11-25T03:25:21.000Z</t>
+        </is>
+      </c>
+      <c r="H64" s="2" t="n">
+        <v>45986.14260416666</v>
+      </c>
+      <c r="I64" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>03:25:21</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="b">
+        <v>0</v>
+      </c>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=1952455178667084', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzE5NTI0NTUxNzg2NjcwODQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xOTUyNDU1MTc4NjY3MDg0', 'date': '2025-11-25T03:25:21.000Z', 'text': 'Perfecto!!!!❤️', 'profileUrl': 'https://www.facebook.com/rosa.lopez.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>13</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Antes de conocer la diabetes eras mi snack favorito y como a alpina LE QUEDO GRANDE sacar productos saludables....... Paila!</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2025-11-25T01:17:33.000Z</t>
+        </is>
+      </c>
+      <c r="H65" s="2" t="n">
+        <v>45986.05385416667</v>
+      </c>
+      <c r="I65" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>01:17:33</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="b">
+        <v>0</v>
+      </c>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=1520253749021206', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzE1MjAyNTM3NDkwMjEyMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xNTIwMjUzNzQ5MDIxMjA2', 'date': '2025-11-25T01:17:33.000Z', 'text': 'Antes de conocer la diabetes eras mi snack favorito y como a alpina </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>13</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Es verdad</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2025-11-25T00:59:35.000Z</t>
+        </is>
+      </c>
+      <c r="H66" s="2" t="n">
+        <v>45986.04137731482</v>
+      </c>
+      <c r="I66" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>00:59:35</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="b">
+        <v>0</v>
+      </c>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=1576500203505837', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzE1NzY1MDAyMDM1MDU4Mzc=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xNTc2NTAwMjAzNTA1ODM3', 'date': '2025-11-25T00:59:35.000Z', 'text': 'Es verdad', 'profileUrl': 'https://www.facebook.com/marcela.cardonaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>13</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>777</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2025-11-25T00:47:16.000Z</t>
+        </is>
+      </c>
+      <c r="H67" s="2" t="n">
+        <v>45986.03282407407</v>
+      </c>
+      <c r="I67" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>00:47:16</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="b">
+        <v>0</v>
+      </c>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=819552860968519', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzgxOTU1Mjg2MDk2ODUxOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM184MTk1NTI4NjA5Njg1MTk=', 'date': '2025-11-25T00:47:16.000Z', 'text': '777', 'profileUrl': 'https://www.facebook.com/margarita.gomezanichiar</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>13</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Cuando valía 300 pesos</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2025-11-25T00:07:35.000Z</t>
+        </is>
+      </c>
+      <c r="H68" s="2" t="n">
+        <v>45986.00526620371</v>
+      </c>
+      <c r="I68" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>00:07:35</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="b">
+        <v>0</v>
+      </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=1475494833548118', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzE0NzU0OTQ4MzM1NDgxMTg=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xNDc1NDk0ODMzNTQ4MTE4', 'date': '2025-11-25T00:07:35.000Z', 'text': 'Cuando valía 300 pesos', 'profileUrl': 'https://www.facebook.com/jim</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>13</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>No, porque es una estafa, solo empaque y bien costoso</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2025-11-24T22:34:20.000Z</t>
+        </is>
+      </c>
+      <c r="H69" s="2" t="n">
+        <v>45985.94050925926</v>
+      </c>
+      <c r="I69" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>22:34:20</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="b">
+        <v>0</v>
+      </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=1260657349235501', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzEyNjA2NTczNDkyMzU1MDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xMjYwNjU3MzQ5MjM1NTAx', 'date': '2025-11-24T22:34:20.000Z', 'text': 'No, porque es una estafa, solo empaque y bien costoso', 'profileUrl'</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>13</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>No han pensado en mejorar la fórmula? Para mi gusto es muy aguado, poco  y demasiado dulce.</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2025-11-24T21:56:14.000Z</t>
+        </is>
+      </c>
+      <c r="H70" s="2" t="n">
+        <v>45985.91405092592</v>
+      </c>
+      <c r="I70" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>21:56:14</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="b">
+        <v>0</v>
+      </c>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=1192728072737622', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzExOTI3MjgwNzI3Mzc2MjI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xMTkyNzI4MDcyNzM3NjIy', 'date': '2025-11-24T21:56:14.000Z', 'text': 'No han pensado en mejorar la fórmula? Para mi gusto es muy aguado, p</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>13</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Y la propaganda si quedo bien,, con ese precio ni uno se puede probar</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2025-11-24T18:49:49.000Z</t>
+        </is>
+      </c>
+      <c r="H71" s="2" t="n">
+        <v>45985.78459490741</v>
+      </c>
+      <c r="I71" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>18:49:49</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="b">
+        <v>0</v>
+      </c>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=25132294313095996', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzI1MTMyMjk0MzEzMDk1OTk2', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18yNTEzMjI5NDMxMzA5NTk5Ng==', 'date': '2025-11-24T18:49:49.000Z', 'text': 'Y la propaganda si quedo bien,, con ese precio ni uno se puede </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>14</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://adsmanager.facebook.com/adsmanager/manage/ads?act=204764998104490&amp;business_id=1527284254245944&amp;global_scope_id=1527284254245944&amp;date=2025-11-24_2025-11-25&amp;insights_date=2025-11-24_2025-11-25&amp;selected_campaign_ids=120238665420150295&amp;selected_adset_ids=120238665420140295&amp;selected_ad_ids=120238665420160295</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://adsmanager.facebook.com/adsmanager/manage/ads?act=204764998104490&amp;business_id=1527284254245944&amp;global_scope_id=1527284254245944&amp;date=2025-11-24_2025-11-25&amp;insights_date=2025-11-24_2025-11-25&amp;selected_campaign_ids=120238665420150295&amp;selected_adset_ids=120238665420140295&amp;selected_ad_ids=120238665420160295</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="b">
+        <v>0</v>
+      </c>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3633,7 +4593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3828,7 +4788,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E7" t="n">
         <v>52</v>
@@ -3837,8 +4797,196 @@
         <v>45985.77598379629</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>45986.84166666667</v>
-      </c>
+        <v>45986.89503472222</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1247221154110296/</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1247217804110631/</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1247221017443643/</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258767226289022/</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258767296289015/</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>20</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>45985.78459490741</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>45986.84585648148</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://adsmanager.facebook.com/adsmanager/manage/ads?act=204764998104490&amp;business_id=1527284254245944&amp;global_scope_id=1527284254245944&amp;date=2025-11-24_2025-11-25&amp;insights_date=2025-11-24_2025-11-25&amp;selected_campaign_ids=120238665420150295&amp;selected_adset_ids=120238665420140295&amp;selected_ad_ids=120238665420160295</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3893,16 +5041,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D2" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="E2" t="n">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -3949,6 +5097,121 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1247221154110296/</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1247217804110631/</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1247221017443643/</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258767226289022/</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258767296289015/</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://adsmanager.facebook.com/adsmanager/manage/ads?act=204764998104490&amp;business_id=1527284254245944&amp;global_scope_id=1527284254245944&amp;date=2025-11-24_2025-11-25&amp;insights_date=2025-11-24_2025-11-25&amp;selected_campaign_ids=120238665420150295&amp;selected_adset_ids=120238665420140295&amp;selected_ad_ids=120238665420160295</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3991,19 +5254,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P72"/>
+  <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1376,27 +1376,29 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Esq eso era muy caro un riñón prácticamente ps pero vale la pena</t>
+          <t>Ni uno ni dos ni tres ya es imposible poder comer un bon yurt su costo cada día esta por las nubes, solía ser mi postre 🍨 favorito pero esta tan costoso que ni recuerdo su sabor 😔</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-11-25T05:11:04.000Z</t>
+          <t>2025-11-26T04:06:53.000Z</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45986.21601851852</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>45986</v>
+        <v>45987.17144675926</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>45987</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>05:11:04</t>
-        </is>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
+          <t>04:06:53</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1408,7 +1410,7 @@
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02vDjJopkwJ1E4ttEJPs8Q5WtCbkyYAnJ22tMuNREZgXTVE7PAeoMpaduR3LMCgVnAl?comment_id=861351922903088', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzg2MTM1MTkyMjkwMzA4OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV84NjEzNTE5MjI5MDMwODg=', 'date': '2025-11-25T05:11:04.000Z', 'text': 'Esq eso era muy caro un riñón prácticamente ps pero vale la pena', 'p</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02vDjJopkwJ1E4ttEJPs8Q5WtCbkyYAnJ22tMuNREZgXTVE7PAeoMpaduR3LMCgVnAl?comment_id=879171581131006', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzg3OTE3MTU4MTEzMTAwNg==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV84NzkxNzE1ODExMzEwMDY=', 'date': '2025-11-26T04:06:53.000Z', 'text': 'Ni uno ni dos ni tres ya es imposible poder comer un bon yurt su cost</t>
         </is>
       </c>
     </row>
@@ -1434,27 +1436,29 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Cuando eran ricos y traían más que aire</t>
+          <t>Ni uno ni dos ni tres ya es imposible poder comer un bon yurt su costo cada día esta por las nubes, solía ser mi postre 🍨 favorito pero esta tan costoso que ni recuerdo su sabor 😔</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-11-25T04:34:17.000Z</t>
+          <t>2025-11-26T04:06:53.000Z</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45986.19047453703</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>45986</v>
+        <v>45987.17144675926</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>45987</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>04:34:17</t>
-        </is>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
+          <t>04:06:53</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1466,7 +1470,7 @@
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02vDjJopkwJ1E4ttEJPs8Q5WtCbkyYAnJ22tMuNREZgXTVE7PAeoMpaduR3LMCgVnAl?comment_id=1820814188796053', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzE4MjA4MTQxODg3OTYwNTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV8xODIwODE0MTg4Nzk2MDUz', 'date': '2025-11-25T04:34:17.000Z', 'text': 'Cuando eran ricos y traían más que aire', 'profileUrl': 'https://www</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02vDjJopkwJ1E4ttEJPs8Q5WtCbkyYAnJ22tMuNREZgXTVE7PAeoMpaduR3LMCgVnAl?comment_id=879171581131006', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzg3OTE3MTU4MTEzMTAwNg==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV84NzkxNzE1ODExMzEwMDY=', 'date': '2025-11-26T04:06:53.000Z', 'text': 'Ni uno ni dos ni tres ya es imposible poder comer un bon yurt su cost</t>
         </is>
       </c>
     </row>
@@ -1492,27 +1496,29 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Pos si como tres me da un coma diabético....</t>
+          <t>Como los de me infancia</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-11-25T03:23:08.000Z</t>
+          <t>2025-11-26T03:38:22.000Z</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45986.14106481482</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>45986</v>
+        <v>45987.15164351852</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>45987</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>03:23:08</t>
-        </is>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
+          <t>03:38:22</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1524,57 +1530,55 @@
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02vDjJopkwJ1E4ttEJPs8Q5WtCbkyYAnJ22tMuNREZgXTVE7PAeoMpaduR3LMCgVnAl?comment_id=843566781589283', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzg0MzU2Njc4MTU4OTI4Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV84NDM1NjY3ODE1ODkyODM=', 'date': '2025-11-25T03:23:08.000Z', 'text': 'Pos si como tres me da un coma diabético....', 'profileUrl': 'https:/</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02vDjJopkwJ1E4ttEJPs8Q5WtCbkyYAnJ22tMuNREZgXTVE7PAeoMpaduR3LMCgVnAl?comment_id=1707136334025082', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzE3MDcxMzYzMzQwMjUwODI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV8xNzA3MTM2MzM0MDI1MDgy', 'date': '2025-11-26T03:38:22.000Z', 'text': 'Como los de me infancia', 'profilePicture': 'https://scontent.fhnl3-</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DRPexY8jPUB/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258767229622355/</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DRPexY8jPUB/</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>angelodominic61</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/100064672685926/posts/1258767229622355/</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>De la Moradita</t>
+          <t>Como los de me infancia</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-11-20T06:19:39.000Z</t>
+          <t>2025-11-26T03:38:22.000Z</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45981.26364583334</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>45981</v>
+        <v>45987.15164351852</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>45987</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>06:19:39</t>
-        </is>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
+          <t>03:38:22</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -1582,21 +1586,17 @@
       <c r="M19" t="b">
         <v>0</v>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>https://instagram.com/angelodominic61</t>
-        </is>
-      </c>
+      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DRPexY8jPUB/', 'commentUrl': 'https://www.instagram.com/p/DRPexY8jPUB/c/18364850800091592', 'id': '18364850800091592', 'text': 'De la Moradita', 'ownerUsername': 'angelodominic61', 'ownerProfilePicUrl': 'https://scontent-sea5-1.cdninstagram.com/v/t51.2885-19/451569933_490434486865115_7000517521910309172_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=109&amp;ig_cache_key=GA1p6hrbDGAtDL4BADShXImY1SZhbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3Rh</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02vDjJopkwJ1E4ttEJPs8Q5WtCbkyYAnJ22tMuNREZgXTVE7PAeoMpaduR3LMCgVnAl?comment_id=1707136334025082', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzE3MDcxMzYzMzQwMjUwODI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV8xNzA3MTM2MzM0MDI1MDgy', 'date': '2025-11-26T03:38:22.000Z', 'text': 'Como los de me infancia', 'profilePicture': 'https://scontent.find2-</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1605,40 +1605,38 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258767229622355/</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258767229622355/</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Que será de la vida de ese man, deberían buscarlo y hacer de nuevo la foto</t>
+          <t>Esq eso era muy caro un riñón prácticamente ps pero vale la pena</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-11-25T21:28:51.000Z</t>
+          <t>2025-11-25T05:11:04.000Z</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45986.89503472222</v>
-      </c>
-      <c r="I20" s="3" t="n">
+        <v>45986.21601851852</v>
+      </c>
+      <c r="I20" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>21:28:51</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>05:11:04</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -1650,13 +1648,13 @@
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1749236129073465', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE3NDkyMzYxMjkwNzM0NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNzQ5MjM2MTI5MDczNDY1', 'date': '2025-11-25T21:28:51.000Z', 'text': 'Que será de la vida de ese man, deberían buscarlo y hacer de nuevo l</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02vDjJopkwJ1E4ttEJPs8Q5WtCbkyYAnJ22tMuNREZgXTVE7PAeoMpaduR3LMCgVnAl?comment_id=861351922903088', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzg2MTM1MTkyMjkwMzA4OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV84NjEzNTE5MjI5MDMwODg=', 'date': '2025-11-25T05:11:04.000Z', 'text': 'Esq eso era muy caro un riñón prácticamente ps pero vale la pena', 'p</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1665,2386 +1663,2521 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258767229622355/</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258767229622355/</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
+        <is>
+          <t>Cuando eran ricos y traían más que aire</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2025-11-25T04:34:17.000Z</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>45986.19047453703</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>04:34:17</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02vDjJopkwJ1E4ttEJPs8Q5WtCbkyYAnJ22tMuNREZgXTVE7PAeoMpaduR3LMCgVnAl?comment_id=1820814188796053', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzE4MjA4MTQxODg3OTYwNTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV8xODIwODE0MTg4Nzk2MDUz', 'date': '2025-11-25T04:34:17.000Z', 'text': 'Cuando eran ricos y traían más que aire', 'profileUrl': 'https://www</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>4</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258767229622355/</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258767229622355/</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Pos si como tres me da un coma diabético....</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2025-11-25T03:23:08.000Z</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>45986.14106481482</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>03:23:08</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02vDjJopkwJ1E4ttEJPs8Q5WtCbkyYAnJ22tMuNREZgXTVE7PAeoMpaduR3LMCgVnAl?comment_id=843566781589283', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzg0MzU2Njc4MTU4OTI4Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV84NDM1NjY3ODE1ODkyODM=', 'date': '2025-11-25T03:23:08.000Z', 'text': 'Pos si como tres me da un coma diabético....', 'profileUrl': 'https:/</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRPexY8jPUB/</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRPexY8jPUB/</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>angelodominic61</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>De la Moradita</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-11-20T06:19:39.000Z</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>45981.26364583334</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>06:19:39</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>https://instagram.com/angelodominic61</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DRPexY8jPUB/', 'commentUrl': 'https://www.instagram.com/p/DRPexY8jPUB/c/18364850800091592', 'id': '18364850800091592', 'text': 'De la Moradita', 'ownerUsername': 'angelodominic61', 'ownerProfilePicUrl': 'https://scontent-sea5-1.cdninstagram.com/v/t51.2885-19/451569933_490434486865115_7000517521910309172_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=109&amp;ig_cache_key=GA1p6hrbDGAtDL4BADShXImY1SZhbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3Rh</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>6</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Bonito recuerdo cuando lo comí por primera vez,me lo compro mi hermano que ya no esta.😔</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-11-26T03:35:44.000Z</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>45987.14981481482</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <v>45987</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>03:35:44</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=702194206278282', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzcwMjE5NDIwNjI3ODI4Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N183MDIxOTQyMDYyNzgyODI=', 'date': '2025-11-26T03:35:44.000Z', 'text': 'Bonito recuerdo cuando lo comí por primera vez,me lo compro mi hermano</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>6</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Gxxxĝ</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2025-11-26T03:34:49.000Z</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>45987.14917824074</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>45987</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>03:34:49</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=2315324775557493', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIzMTUzMjQ3NzU1NTc0OTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMzE1MzI0Nzc1NTU3NDkz', 'date': '2025-11-26T03:34:49.000Z', 'text': 'Gxxxĝ', 'profileUrl': 'https://www.facebook.com/fernando.vargas.18892</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>6</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Recuerdo que reclamé un borrador de la forma del bonyurt en el año 92 o 93  y los muñecos eso pelos parados los tolw algo asi</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2025-11-26T03:33:56.000Z</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>45987.14856481482</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>45987</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>03:33:56</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=1888526355075070', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE4ODg1MjYzNTUwNzUwNzA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xODg4NTI2MzU1MDc1MDcw', 'date': '2025-11-26T03:33:56.000Z', 'text': 'Recuerdo que reclamé un borrador de la forma del bonyurt en el año 92</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>6</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Joda si</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2025-11-26T03:28:59.000Z</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>45987.14512731481</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>45987</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>03:28:59</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=1189320129825469', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExODkzMjAxMjk4MjU0Njk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTg5MzIwMTI5ODI1NDY5', 'date': '2025-11-26T03:28:59.000Z', 'text': 'Joda si', 'profileUrl': 'https://www.facebook.com/odasir.bovea.2025',</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>6</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>ES MUY CARO</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2025-11-26T03:21:58.000Z</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>45987.14025462963</v>
+      </c>
+      <c r="I28" s="3" t="n">
+        <v>45987</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>03:21:58</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=1573691613912258', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE1NzM2OTE2MTM5MTIyNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNTczNjkxNjEzOTEyMjU4', 'date': '2025-11-26T03:21:58.000Z', 'text': 'ES MUY CARO', 'profileUrl': 'https://www.facebook.com/kbotiva', 'prof</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>6</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Chévere que hubiese publicado la foto original.
+Se nota el montaje por los sellitos negros de "exceso en azúcares" en el envase 😁</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2025-11-26T02:51:33.000Z</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>45987.11913194445</v>
+      </c>
+      <c r="I29" s="3" t="n">
+        <v>45987</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>02:51:33</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="b">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=1166068235132001', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNjYwNjgyMzUxMzIwMDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTY2MDY4MjM1MTMyMDAx', 'date': '2025-11-26T02:51:33.000Z', 'text': 'Chévere que hubiese publicado la foto original.\nSe nota el montaje p</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Ya no saben igual y mucho más poquito</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2025-11-26T02:37:51.000Z</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>45987.10961805555</v>
+      </c>
+      <c r="I30" s="3" t="n">
+        <v>45987</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>02:37:51</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=1727270721277307', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE3MjcyNzA3MjEyNzczMDc=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNzI3MjcwNzIxMjc3MzA3', 'date': '2025-11-26T02:37:51.000Z', 'text': 'Ya no saben igual y mucho más poquito', 'profilePicture': 'https://sc</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>6</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2025-11-26T02:11:19.000Z</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>45987.09119212963</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>45987</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>02:11:19</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=866995402501722', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzg2Njk5NTQwMjUwMTcyMg==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184NjY5OTU0MDI1MDE3MjI=', 'date': '2025-11-26T02:11:19.000Z', 'text': '@', 'profileUrl': 'https://www.facebook.com/jose.del.c.mahecha.2025', </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>6</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>PARA COMPRAR UNO EN ESTOS DIAS HAY QUE VENDER UN RIÑON</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2025-11-26T01:27:20.000Z</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>45987.06064814814</v>
+      </c>
+      <c r="I32" s="3" t="n">
+        <v>45987</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>01:27:20</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="b">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=1394764695697246', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzOTQ3NjQ2OTU2OTcyNDY=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzk0NzY0Njk1Njk3MjQ2', 'date': '2025-11-26T01:27:20.000Z', 'text': 'PARA COMPRAR UNO EN ESTOS DIAS HAY QUE VENDER UN RIÑON', 'profilePict</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>6</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Si la i as kierda no le pone problema a avelardo llorenla yose ke porlas vias legales no le ganan la is la III erda tiene la ventaja con la a rejistraduria coprada ellos  dejan en pueblos las botasiones astala 6 dela tarde nunca avia pasao sea ke votaron por ellos</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2025-11-26T01:10:11.000Z</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>45987.04873842592</v>
+      </c>
+      <c r="I33" s="3" t="n">
+        <v>45987</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>01:10:11</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="b">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=3387224181452602', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzMzODcyMjQxODE0NTI2MDI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18zMzg3MjI0MTgxNDUyNjAy', 'date': '2025-11-26T01:10:11.000Z', 'text': 'Si la i as kierda no le pone problema a avelardo llorenla yose ke por</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>6</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Ya no sabe lo mismo...</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2025-11-26T00:37:03.000Z</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>45987.02572916666</v>
+      </c>
+      <c r="I34" s="3" t="n">
+        <v>45987</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>00:37:03</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="b">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=2942130725965941', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzI5NDIxMzA3MjU5NjU5NDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yOTQyMTMwNzI1OTY1OTQx', 'date': '2025-11-26T00:37:03.000Z', 'text': 'Ya no sabe lo mismo...', 'profileUrl': 'https://www.facebook.com/pher</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>6</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Y cuánto plástico acumulado en estas décadas???? ya debería haber dejado de usar tanto plástico👎🏼</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2025-11-26T00:18:26.000Z</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>45987.01280092593</v>
+      </c>
+      <c r="I35" s="3" t="n">
+        <v>45987</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>00:18:26</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="b">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=772382055843885', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzc3MjM4MjA1NTg0Mzg4NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N183NzIzODIwNTU4NDM4ODU=', 'date': '2025-11-26T00:18:26.000Z', 'text': 'Y cuánto plástico acumulado en estas décadas???? ya debería haber deja</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>6</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Pensé que el de la foto era Dante Gebel 😅</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2025-11-25T23:58:47.000Z</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>45986.99915509259</v>
+      </c>
+      <c r="I36" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>23:58:47</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="b">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=4187311174822779', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzQxODczMTExNzQ4MjI3Nzk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N180MTg3MzExMTc0ODIyNzc5', 'date': '2025-11-25T23:58:47.000Z', 'text': 'Pensé que el de la foto era Dante Gebel 😅', 'profileUrl': 'https://ww</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>6</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Ojalá traiga la misma cantidad de antes y no lo poco que trae ahora</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2025-11-25T23:51:03.000Z</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>45986.99378472222</v>
+      </c>
+      <c r="I37" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>23:51:03</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="b">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=1924670054749279', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE5MjQ2NzAwNTQ3NDkyNzk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xOTI0NjcwMDU0NzQ5Mjc5', 'date': '2025-11-25T23:51:03.000Z', 'text': 'Ojalá traiga la misma cantidad de antes y no lo poco que trae ahora',</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>6</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Ay nooo, mis 35 años ￼￼😣😣</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2025-11-25T23:47:18.000Z</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>45986.99118055555</v>
+      </c>
+      <c r="I38" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>23:47:18</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="b">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=25455168007442408', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzI1NDU1MTY4MDA3NDQyNDA4', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yNTQ1NTE2ODAwNzQ0MjQwOA==', 'date': '2025-11-25T23:47:18.000Z', 'text': 'Ay nooo, mis 35 años ￼￼😣😣', 'profilePicture': 'https://scontent.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>6</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>En otros 35 años van a vender los tarros vacíos jaja</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2025-11-25T22:29:42.000Z</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>45986.93729166667</v>
+      </c>
+      <c r="I39" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>22:29:42</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="b">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=1637569370732699', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE2Mzc1NjkzNzA3MzI2OTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNjM3NTY5MzcwNzMyNjk5', 'date': '2025-11-25T22:29:42.000Z', 'text': 'En otros 35 años van a vender los tarros vacíos jaja', 'profileUrl': </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>6</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Me gustaba más cuando era barato 🥲😅😅</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2025-11-25T22:01:36.000Z</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>45986.91777777778</v>
+      </c>
+      <c r="I40" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>22:01:36</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=833502609502751', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzgzMzUwMjYwOTUwMjc1MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184MzM1MDI2MDk1MDI3NTE=', 'date': '2025-11-25T22:01:36.000Z', 'text': 'Me gustaba más cuando era barato 🥲😅😅', 'profileUrl': 'https://www.face</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>6</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Que será de la vida de ese man, deberían buscarlo y hacer de nuevo la foto</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2025-11-25T21:28:51.000Z</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>45986.89503472222</v>
+      </c>
+      <c r="I41" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>21:28:51</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="b">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1749236129073465', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE3NDkyMzYxMjkwNzM0NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNzQ5MjM2MTI5MDczNDY1', 'date': '2025-11-25T21:28:51.000Z', 'text': 'Que será de la vida de ese man, deberían buscarlo y hacer de nuevo l</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>6</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
         <is>
           <t>La mayoría de productos alpina, son de excelente calidad.
 Yo personalmente no le doy a mis hijos Bon yurt, por los altos contenidos de azúcar.
 No es para nada un alimento, y mucho menos para niños.</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>2025-11-25T21:24:21.000Z</t>
         </is>
       </c>
-      <c r="H21" s="2" t="n">
+      <c r="H42" s="2" t="n">
         <v>45986.89190972222</v>
       </c>
-      <c r="I21" s="3" t="n">
+      <c r="I42" s="2" t="n">
         <v>45986</v>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>21:24:21</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="b">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr">
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1424902262582540', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE0MjQ5MDIyNjI1ODI1NDA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNDI0OTAyMjYyNTgyNTQw', 'date': '2025-11-25T21:24:21.000Z', 'text': 'La mayoría de productos alpina, son de excelente calidad.\nYo person</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="43">
+      <c r="A43" t="n">
         <v>6</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
         <is>
           <t>Traigan de vuelta el sabor original del kumis y los chocokrispis rojos</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>2025-11-25T20:12:00.000Z</t>
         </is>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H43" s="2" t="n">
         <v>45986.84166666667</v>
       </c>
-      <c r="I22" s="2" t="n">
+      <c r="I43" s="2" t="n">
         <v>45986</v>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>20:12:00</t>
         </is>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="b">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr">
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="b">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1150071166850358', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNTAwNzExNjY4NTAzNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTUwMDcxMTY2ODUwMzU4', 'date': '2025-11-25T20:12:00.000Z', 'text': 'Traigan de vuelta el sabor original del kumis y los chocokrispis roj</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="44">
+      <c r="A44" t="n">
         <v>6</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
         <is>
           <t>¿Van a sacar la versión clásica? Uy, sería genial. Existía una versión de ninjas con historietas.</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>2025-11-25T18:47:26.000Z</t>
         </is>
       </c>
-      <c r="H23" s="2" t="n">
+      <c r="H44" s="2" t="n">
         <v>45986.78293981482</v>
       </c>
-      <c r="I23" s="2" t="n">
+      <c r="I44" s="2" t="n">
         <v>45986</v>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>18:47:26</t>
         </is>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="b">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr">
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1175232757386966', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNzUyMzI3NTczODY5NjY=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTc1MjMyNzU3Mzg2OTY2', 'date': '2025-11-25T18:47:26.000Z', 'text': '¿Van a sacar la versión clásica? Uy, sería genial. Existía una versi</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="45">
+      <c r="A45" t="n">
         <v>6</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
         <is>
           <t>Cuando vuelven a sacar los sacapuntas tío Bon Yurt se les recuerda con cariño.</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>2025-11-25T17:30:48.000Z</t>
         </is>
       </c>
-      <c r="H24" s="2" t="n">
+      <c r="H45" s="2" t="n">
         <v>45986.72972222222</v>
       </c>
-      <c r="I24" s="2" t="n">
+      <c r="I45" s="2" t="n">
         <v>45986</v>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>17:30:48</t>
         </is>
       </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="b">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr">
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=4316274151993029', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzQzMTYyNzQxNTE5OTMwMjk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N180MzE2Mjc0MTUxOTkzMDI5', 'date': '2025-11-25T17:30:48.000Z', 'text': 'Cuando vuelven a sacar los sacapuntas tío Bon Yurt se les recuerda c</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="46">
+      <c r="A46" t="n">
         <v>6</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
         <is>
           <t>Desde cuándo el CHAMBON del INGENIERO Obando, sirve de IA para promocionar Bonyurt jaja</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>2025-11-25T16:51:29.000Z</t>
         </is>
       </c>
-      <c r="H25" s="2" t="n">
+      <c r="H46" s="2" t="n">
         <v>45986.70241898148</v>
       </c>
-      <c r="I25" s="2" t="n">
+      <c r="I46" s="2" t="n">
         <v>45986</v>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>16:51:29</t>
         </is>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="b">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr">
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=724688210136182', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzcyNDY4ODIxMDEzNjE4Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N183MjQ2ODgyMTAxMzYxODI=', 'date': '2025-11-25T16:51:29.000Z', 'text': 'Desde cuándo el CHAMBON del INGENIERO Obando, sirve de IA para promoc</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="47">
+      <c r="A47" t="n">
         <v>6</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
         <is>
           <t>A mi me parece un muy buen producto y una excelente alianza. Que la calidad a bajado después de 2006,  si así es pero agradezcan a la mano de impuestos que tenemos en el país, antes es que la empresa aún sigue dando empleo a miles de colombianos, a dado la pelea. Y estos gobiernos son lo mismo pidan y pidan y solo den contentillo al pueblo. No hablen mal de las empresas y sus productos antes agradezcamos que aún tenemos empresas en colombia.</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>2025-11-25T16:19:54.000Z</t>
         </is>
       </c>
-      <c r="H26" s="2" t="n">
+      <c r="H47" s="2" t="n">
         <v>45986.68048611111</v>
       </c>
-      <c r="I26" s="2" t="n">
+      <c r="I47" s="2" t="n">
         <v>45986</v>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>16:19:54</t>
         </is>
       </c>
-      <c r="K26" t="n">
+      <c r="K47" t="n">
         <v>2</v>
       </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr">
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="b">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
         <is>
           <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=2677048389302225', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzI2NzcwNDgzODkzMDIyMjU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yNjc3MDQ4Mzg5MzAyMjI1', 'date': '2025-11-25T16:19:54.000Z', 'text': 'A mi me parece un muy buen producto y una excelente alianza. Que la </t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="48">
+      <c r="A48" t="n">
         <v>6</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
         <is>
           <t>Alpina, los mejores lácteos de Colombia</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>2025-11-25T14:08:33.000Z</t>
         </is>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="H48" s="2" t="n">
         <v>45986.58927083333</v>
       </c>
-      <c r="I27" s="2" t="n">
+      <c r="I48" s="2" t="n">
         <v>45986</v>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>14:08:33</t>
         </is>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="b">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr">
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1152499160382981', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNTI0OTkxNjAzODI5ODE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTUyNDk5MTYwMzgyOTgx', 'date': '2025-11-25T14:08:33.000Z', 'text': 'Alpina, los mejores lácteos de Colombia', 'profileUrl': 'https://www</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="49">
+      <c r="A49" t="n">
         <v>6</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
         <is>
           <t>Con esos precios na  gracias lo hago en casa me sale más barato  y más rico</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>2025-11-25T12:09:19.000Z</t>
         </is>
       </c>
-      <c r="H28" s="2" t="n">
+      <c r="H49" s="2" t="n">
         <v>45986.50646990741</v>
       </c>
-      <c r="I28" s="2" t="n">
+      <c r="I49" s="2" t="n">
         <v>45986</v>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>12:09:19</t>
         </is>
       </c>
-      <c r="K28" t="n">
+      <c r="K49" t="n">
         <v>4</v>
       </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="b">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr">
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=2045961822830627', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIwNDU5NjE4MjI4MzA2Mjc=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMDQ1OTYxODIyODMwNjI3', 'date': '2025-11-25T12:09:19.000Z', 'text': 'Con esos precios na  gracias lo hago en casa me sale más barato  y m</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="50">
+      <c r="A50" t="n">
         <v>6</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
         <is>
           <t>Un mundo lleno de azúcar con seres humanos enfermos por esto mismo, el azúcar comida de muchas enfermedades entre ellas el cáncer, alimento ultraprocesado que hacen pasar por un alimento saludable  y ahora quien quiere contaminar a sus hijos o dañar sus sistemas digestivos .... Consume bon yurt te ayuda a estar mal si o si .........</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>2025-11-25T11:28:52.000Z</t>
         </is>
       </c>
-      <c r="H29" s="2" t="n">
+      <c r="H50" s="2" t="n">
         <v>45986.47837962963</v>
       </c>
-      <c r="I29" s="2" t="n">
+      <c r="I50" s="2" t="n">
         <v>45986</v>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>11:28:52</t>
         </is>
       </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="b">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr">
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=740299422427121', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzc0MDI5OTQyMjQyNzEyMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N183NDAyOTk0MjI0MjcxMjE=', 'date': '2025-11-25T11:28:52.000Z', 'text': 'Un mundo lleno de azúcar con seres humanos enfermos por esto mismo, e</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="51">
+      <c r="A51" t="n">
         <v>6</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
         <is>
           <t>35 años robando a las familias... Excelente como se han enriquecido</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>2025-11-25T11:25:29.000Z</t>
         </is>
       </c>
-      <c r="H30" s="2" t="n">
+      <c r="H51" s="2" t="n">
         <v>45986.47603009259</v>
       </c>
-      <c r="I30" s="2" t="n">
+      <c r="I51" s="2" t="n">
         <v>45986</v>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>11:25:29</t>
         </is>
       </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="b">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr">
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="b">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1557146152191245', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE1NTcxNDYxNTIxOTEyNDU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNTU3MTQ2MTUyMTkxMjQ1', 'date': '2025-11-25T11:25:29.000Z', 'text': '35 años robando a las familias... Excelente como se han enriquecido'</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="52">
+      <c r="A52" t="n">
         <v>6</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
         <is>
           <t>35 años vendiendo plástico, felicitaciones, que gran empresa</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>2025-11-25T10:08:53.000Z</t>
         </is>
       </c>
-      <c r="H31" s="2" t="n">
+      <c r="H52" s="2" t="n">
         <v>45986.42283564815</v>
       </c>
-      <c r="I31" s="2" t="n">
+      <c r="I52" s="2" t="n">
         <v>45986</v>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>10:08:53</t>
         </is>
       </c>
-      <c r="K31" t="n">
+      <c r="K52" t="n">
         <v>1</v>
       </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="b">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr">
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=837830755559105', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzgzNzgzMDc1NTU1OTEwNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184Mzc4MzA3NTU1NTkxMDU=', 'date': '2025-11-25T10:08:53.000Z', 'text': '35 años vendiendo plástico, felicitaciones, que gran empresa', 'profi</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="53">
+      <c r="A53" t="n">
         <v>6</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
         <is>
           <t>BEBIDA LÁCTEA QUE NO ES YOGURT</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>2025-11-25T07:48:46.000Z</t>
         </is>
       </c>
-      <c r="H32" s="2" t="n">
+      <c r="H53" s="2" t="n">
         <v>45986.32553240741</v>
       </c>
-      <c r="I32" s="2" t="n">
+      <c r="I53" s="2" t="n">
         <v>45986</v>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>07:48:46</t>
         </is>
       </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="b">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr">
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="b">
+        <v>0</v>
+      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1351672526428164', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzNTE2NzI1MjY0MjgxNjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzUxNjcyNTI2NDI4MTY0', 'date': '2025-11-25T07:48:46.000Z', 'text': 'BEBIDA LÁCTEA QUE NO ES YOGURT', 'profileUrl': 'https://www.facebook</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="54">
+      <c r="A54" t="n">
         <v>6</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
         <is>
           <t>Muy poquito para el valor! Se pasan...</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>2025-11-25T05:44:34.000Z</t>
         </is>
       </c>
-      <c r="H33" s="2" t="n">
+      <c r="H54" s="2" t="n">
         <v>45986.2392824074</v>
       </c>
-      <c r="I33" s="2" t="n">
+      <c r="I54" s="2" t="n">
         <v>45986</v>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>05:44:34</t>
         </is>
       </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="b">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr">
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="b">
+        <v>0</v>
+      </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1616838652836190', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE2MTY4Mzg2NTI4MzYxOTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNjE2ODM4NjUyODM2MTkw', 'date': '2025-11-25T05:44:34.000Z', 'text': 'Muy poquito para el valor! Se pasan...', 'profileUrl': 'https://www.</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="55">
+      <c r="A55" t="n">
         <v>6</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
         <is>
           <t>Sobrevalorado, es rico siii pero fácilmente me pasan años sin probarlo, su precio aleja para ser tan básico</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>2025-11-25T05:06:42.000Z</t>
         </is>
       </c>
-      <c r="H34" s="2" t="n">
+      <c r="H55" s="2" t="n">
         <v>45986.21298611111</v>
       </c>
-      <c r="I34" s="2" t="n">
+      <c r="I55" s="2" t="n">
         <v>45986</v>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>05:06:42</t>
         </is>
       </c>
-      <c r="K34" t="n">
+      <c r="K55" t="n">
         <v>1</v>
       </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="b">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr">
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="b">
+        <v>0</v>
+      </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1306741007870493', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzMDY3NDEwMDc4NzA0OTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzA2NzQxMDA3ODcwNDkz', 'date': '2025-11-25T05:06:42.000Z', 'text': 'Sobrevalorado, es rico siii pero fácilmente me pasan años sin probar</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="56">
+      <c r="A56" t="n">
         <v>6</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
         <is>
           <t>No les da verguenza, vivir del negocio d los alimentos y causar enfermedades con sus productos...</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>2025-11-25T04:29:31.000Z</t>
         </is>
       </c>
-      <c r="H35" s="2" t="n">
+      <c r="H56" s="2" t="n">
         <v>45986.18716435185</v>
       </c>
-      <c r="I35" s="2" t="n">
+      <c r="I56" s="2" t="n">
         <v>45986</v>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>04:29:31</t>
         </is>
       </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="b">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr">
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="b">
+        <v>0</v>
+      </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1382763526625753', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzODI3NjM1MjY2MjU3NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzgyNzYzNTI2NjI1NzUz', 'date': '2025-11-25T04:29:31.000Z', 'text': 'No les da verguenza, vivir del negocio d los alimentos y causar enfe</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="57">
+      <c r="A57" t="n">
         <v>6</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
         <is>
           <t>35 años vendiendo productos sobrevalorados, bravo!</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>2025-11-25T03:13:53.000Z</t>
         </is>
       </c>
-      <c r="H36" s="2" t="n">
+      <c r="H57" s="2" t="n">
         <v>45986.1346412037</v>
       </c>
-      <c r="I36" s="2" t="n">
+      <c r="I57" s="2" t="n">
         <v>45986</v>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>03:13:53</t>
         </is>
       </c>
-      <c r="K36" t="n">
+      <c r="K57" t="n">
         <v>11</v>
       </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="b">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr">
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="b">
+        <v>0</v>
+      </c>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1152991517044181', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNTI5OTE1MTcwNDQxODE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTUyOTkxNTE3MDQ0MTgx', 'date': '2025-11-25T03:13:53.000Z', 'text': '35 años vendiendo productos sobrevalorados, bravo!', 'profilePicture</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="58">
+      <c r="A58" t="n">
         <v>6</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
         <is>
           <t>5 lucas un bon yurt nee jeeedaaa</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>2025-11-25T03:02:34.000Z</t>
         </is>
       </c>
-      <c r="H37" s="2" t="n">
+      <c r="H58" s="2" t="n">
         <v>45986.12678240741</v>
       </c>
-      <c r="I37" s="2" t="n">
+      <c r="I58" s="2" t="n">
         <v>45986</v>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>03:02:34</t>
         </is>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="b">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr">
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="b">
+        <v>0</v>
+      </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=2057651748323375', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIwNTc2NTE3NDgzMjMzNzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMDU3NjUxNzQ4MzIzMzc1', 'date': '2025-11-25T03:02:34.000Z', 'text': '5 lucas un bon yurt nee jeeedaaa', 'profilePicture': 'https://sconte</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="59">
+      <c r="A59" t="n">
         <v>6</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
         <is>
           <t>Tan bueno.</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>2025-11-25T02:23:58.000Z</t>
         </is>
       </c>
-      <c r="H38" s="2" t="n">
+      <c r="H59" s="2" t="n">
         <v>45986.09997685185</v>
       </c>
-      <c r="I38" s="2" t="n">
+      <c r="I59" s="2" t="n">
         <v>45986</v>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>02:23:58</t>
         </is>
       </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="b">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr">
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="b">
+        <v>0</v>
+      </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1388063563103759', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzODgwNjM1NjMxMDM3NTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzg4MDYzNTYzMTAzNzU5', 'date': '2025-11-25T02:23:58.000Z', 'text': 'Tan bueno.', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="60">
+      <c r="A60" t="n">
         <v>6</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
         <is>
           <t>Todo un lujo jjj</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>2025-11-25T02:21:17.000Z</t>
         </is>
       </c>
-      <c r="H39" s="2" t="n">
+      <c r="H60" s="2" t="n">
         <v>45986.09811342593</v>
       </c>
-      <c r="I39" s="2" t="n">
+      <c r="I60" s="2" t="n">
         <v>45986</v>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>02:21:17</t>
         </is>
       </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="b">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr">
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="b">
+        <v>0</v>
+      </c>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=829854586452459', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzgyOTg1NDU4NjQ1MjQ1OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184Mjk4NTQ1ODY0NTI0NTk=', 'date': '2025-11-25T02:21:17.000Z', 'text': 'Todo un lujo jjj', 'profileUrl': 'https://www.facebook.com/luzbell.ye</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="61">
+      <c r="A61" t="n">
         <v>6</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
         <is>
           <t>Esa época cuando el yogurt  era el propio sin derivados de sueros</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>2025-11-25T02:19:43.000Z</t>
         </is>
       </c>
-      <c r="H40" s="2" t="n">
+      <c r="H61" s="2" t="n">
         <v>45986.09702546296</v>
       </c>
-      <c r="I40" s="2" t="n">
+      <c r="I61" s="2" t="n">
         <v>45986</v>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>02:19:43</t>
         </is>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="b">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr">
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="b">
+        <v>0</v>
+      </c>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
         <is>
           <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1177485643784836', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNzc0ODU2NDM3ODQ4MzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTc3NDg1NjQzNzg0ODM2', 'date': '2025-11-25T02:19:43.000Z', 'text': 'Esa época cuando el yogurt  era el propio sin derivados de sueros', </t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="62">
+      <c r="A62" t="n">
         <v>6</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
         <is>
           <t>Este man no es el que hizo de Vaselino en vecinos?</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>2025-11-25T01:31:24.000Z</t>
         </is>
       </c>
-      <c r="H41" s="2" t="n">
+      <c r="H62" s="2" t="n">
         <v>45986.06347222222</v>
       </c>
-      <c r="I41" s="2" t="n">
+      <c r="I62" s="2" t="n">
         <v>45986</v>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>01:31:24</t>
         </is>
       </c>
-      <c r="K41" t="n">
+      <c r="K62" t="n">
         <v>1</v>
       </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="b">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr">
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="b">
+        <v>0</v>
+      </c>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1383064816735090', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzODMwNjQ4MTY3MzUwOTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzgzMDY0ODE2NzM1MDkw', 'date': '2025-11-25T01:31:24.000Z', 'text': 'Este man no es el que hizo de Vaselino en vecinos?', 'profilePicture</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="63">
+      <c r="A63" t="n">
         <v>6</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
         <is>
           <t>Me acordé de la propaganda que le preguntaban a la gente que cree que es bon yurt
 Y una señora toda elegante dice : en francés significa BUENOS DÍAS 
 Fue la primera palabra en otro idioma que aprendí gracias a ese marketing</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>2025-11-25T01:17:30.000Z</t>
         </is>
       </c>
-      <c r="H42" s="2" t="n">
+      <c r="H63" s="2" t="n">
         <v>45986.05381944445</v>
       </c>
-      <c r="I42" s="2" t="n">
+      <c r="I63" s="2" t="n">
         <v>45986</v>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>01:17:30</t>
         </is>
       </c>
-      <c r="K42" t="n">
+      <c r="K63" t="n">
         <v>2</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="b">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=2077627949641833', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIwNzc2Mjc5NDk2NDE4MzM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMDc3NjI3OTQ5NjQxODMz', 'date': '2025-11-25T01:17:30.000Z', 'text': 'Me acordé de la propaganda que le preguntaban a la gente que cree qu</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>6</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Semejante cara de bobo este personaje...</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>2025-11-25T00:51:15.000Z</t>
-        </is>
-      </c>
-      <c r="H43" s="2" t="n">
-        <v>45986.03559027778</v>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>45986</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>00:51:15</t>
-        </is>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="b">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1178608700915001', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNzg2MDg3MDA5MTUwMDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTc4NjA4NzAwOTE1MDAx', 'date': '2025-11-25T00:51:15.000Z', 'text': 'Semejante cara de bobo este personaje...', 'profilePicture': 'https:</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>6</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Ojalá el precio también sea retro.</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>2025-11-25T00:51:12.000Z</t>
-        </is>
-      </c>
-      <c r="H44" s="2" t="n">
-        <v>45986.03555555556</v>
-      </c>
-      <c r="I44" s="2" t="n">
-        <v>45986</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>00:51:12</t>
-        </is>
-      </c>
-      <c r="K44" t="n">
-        <v>4</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="b">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1597679538060212', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE1OTc2Nzk1MzgwNjAyMTI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNTk3Njc5NTM4MDYwMjEy', 'date': '2025-11-25T00:51:12.000Z', 'text': 'Ojalá el precio también sea retro.', 'profileUrl': 'https://www.face</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>6</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Salió como a finales del 88</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>2025-11-25T00:08:11.000Z</t>
-        </is>
-      </c>
-      <c r="H45" s="2" t="n">
-        <v>45986.00568287037</v>
-      </c>
-      <c r="I45" s="2" t="n">
-        <v>45986</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>00:08:11</t>
-        </is>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="b">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=2154810411989541', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIxNTQ4MTA0MTE5ODk1NDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMTU0ODEwNDExOTg5NTQx', 'date': '2025-11-25T00:08:11.000Z', 'text': 'Salió como a finales del 88', 'profileUrl': 'https://www.facebook.co</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>6</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Deberían más BN de bajar esos precios</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>2025-11-24T23:29:34.000Z</t>
-        </is>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>45985.97886574074</v>
-      </c>
-      <c r="I46" s="2" t="n">
-        <v>45985</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>23:29:34</t>
-        </is>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="b">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1180817223396975', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExODA4MTcyMjMzOTY5NzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTgwODE3MjIzMzk2OTc1', 'date': '2025-11-24T23:29:34.000Z', 'text': 'Deberían más BN de bajar esos precios', 'profileUrl': 'https://www.f</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>6</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Ahora el precio es el del 2035, qué gonorrea si es caro un bon yurt.</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>2025-11-24T23:08:21.000Z</t>
-        </is>
-      </c>
-      <c r="H47" s="2" t="n">
-        <v>45985.96413194444</v>
-      </c>
-      <c r="I47" s="2" t="n">
-        <v>45985</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>23:08:21</t>
-        </is>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="b">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1141110784879560', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNDExMTA3ODQ4Nzk1NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTQxMTEwNzg0ODc5NTYw', 'date': '2025-11-24T23:08:21.000Z', 'text': 'Ahora el precio es el del 2035, qué gonorrea si es caro un bon yurt.</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>6</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Que hpta joda tan cara. Rem@lpäridos abusadores</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>2025-11-24T22:58:44.000Z</t>
-        </is>
-      </c>
-      <c r="H48" s="2" t="n">
-        <v>45985.9574537037</v>
-      </c>
-      <c r="I48" s="2" t="n">
-        <v>45985</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>22:58:44</t>
-        </is>
-      </c>
-      <c r="K48" t="n">
-        <v>2</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="b">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1505629667162278', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE1MDU2Mjk2NjcxNjIyNzg=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNTA1NjI5NjY3MTYyMjc4', 'date': '2025-11-24T22:58:44.000Z', 'text': 'Que hpta joda tan cara. Rem@lpäridos abusadores', 'profileUrl': 'htt</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>6</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Antes traía más , le undieron el fondo al envase</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>2025-11-24T22:39:03.000Z</t>
-        </is>
-      </c>
-      <c r="H49" s="2" t="n">
-        <v>45985.94378472222</v>
-      </c>
-      <c r="I49" s="2" t="n">
-        <v>45985</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>22:39:03</t>
-        </is>
-      </c>
-      <c r="K49" t="n">
-        <v>1</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="b">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=3091916754347395', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzMwOTE5MTY3NTQzNDczOTU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18zMDkxOTE2NzU0MzQ3Mzk1', 'date': '2025-11-24T22:39:03.000Z', 'text': 'Antes traía más , le undieron el fondo al envase', 'profileUrl': 'ht</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>6</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Con ese precio mejor tomo aguapanelita con limon</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>2025-11-24T22:21:36.000Z</t>
-        </is>
-      </c>
-      <c r="H50" s="2" t="n">
-        <v>45985.93166666666</v>
-      </c>
-      <c r="I50" s="2" t="n">
-        <v>45985</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>22:21:36</t>
-        </is>
-      </c>
-      <c r="K50" t="n">
-        <v>13</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" t="b">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=809611618734196', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzgwOTYxMTYxODczNDE5Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184MDk2MTE2MTg3MzQxOTY=', 'date': '2025-11-24T22:21:36.000Z', 'text': 'Con ese precio mejor tomo aguapanelita con limon', 'profilePicture': </t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>6</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Recuerdo esa primera propaganda: "¿Sabe usted qué es Bon Yurt? Bon Yurt... Bon Yurt..."</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>2025-11-24T21:39:47.000Z</t>
-        </is>
-      </c>
-      <c r="H51" s="2" t="n">
-        <v>45985.90262731481</v>
-      </c>
-      <c r="I51" s="2" t="n">
-        <v>45985</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>21:39:47</t>
-        </is>
-      </c>
-      <c r="K51" t="n">
-        <v>2</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="b">
-        <v>0</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1871869833723454', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE4NzE4Njk4MzM3MjM0NTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xODcxODY5ODMzNzIzNDU0', 'date': '2025-11-24T21:39:47.000Z', 'text': 'Recuerdo esa primera propaganda: "¿Sabe usted qué es Bon Yurt? Bon Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>6</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Lástima lo inflado del precio</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>2025-11-24T19:39:52.000Z</t>
-        </is>
-      </c>
-      <c r="H52" s="2" t="n">
-        <v>45985.81935185185</v>
-      </c>
-      <c r="I52" s="2" t="n">
-        <v>45985</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>19:39:52</t>
-        </is>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="b">
-        <v>0</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1149425460681635', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNDk0MjU0NjA2ODE2MzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTQ5NDI1NDYwNjgxNjM1', 'date': '2025-11-24T19:39:52.000Z', 'text': 'Lástima lo inflado del precio', 'profileUrl': 'https://www.facebook.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>6</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Ese es peso pluma ?</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>2025-11-24T19:08:34.000Z</t>
-        </is>
-      </c>
-      <c r="H53" s="2" t="n">
-        <v>45985.79761574074</v>
-      </c>
-      <c r="I53" s="2" t="n">
-        <v>45985</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>19:08:34</t>
-        </is>
-      </c>
-      <c r="K53" t="n">
-        <v>1</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="b">
-        <v>0</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=745583734460698', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzc0NTU4MzczNDQ2MDY5OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N183NDU1ODM3MzQ0NjA2OTg=', 'date': '2025-11-24T19:08:34.000Z', 'text': 'Ese es peso pluma ?', 'profileUrl': 'https://www.facebook.com/mike.wi</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>6</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Inaccesible muy caro 🫰</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>2025-11-24T18:58:53.000Z</t>
-        </is>
-      </c>
-      <c r="H54" s="2" t="n">
-        <v>45985.7908912037</v>
-      </c>
-      <c r="I54" s="2" t="n">
-        <v>45985</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>18:58:53</t>
-        </is>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="b">
-        <v>0</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=860109699855760', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzg2MDEwOTY5OTg1NTc2MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184NjAxMDk2OTk4NTU3NjA=', 'date': '2025-11-24T18:58:53.000Z', 'text': 'Inaccesible muy caro 🫰', 'profileUrl': 'https://www.facebook.com/fred</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>6</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Como pasa el tiempo 😳</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>2025-11-24T18:39:10.000Z</t>
-        </is>
-      </c>
-      <c r="H55" s="2" t="n">
-        <v>45985.77719907407</v>
-      </c>
-      <c r="I55" s="2" t="n">
-        <v>45985</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>18:39:10</t>
-        </is>
-      </c>
-      <c r="K55" t="n">
-        <v>6</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" t="b">
-        <v>0</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1387173373123562', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzODcxNzMzNzMxMjM1NjI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzg3MTczMzczMTIzNTYy', 'date': '2025-11-24T18:39:10.000Z', 'text': 'Como pasa el tiempo 😳', 'attachments': [{'__typename': 'Photo', 'blu</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>6</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Eso para que SIRVE</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>2025-11-24T18:37:25.000Z</t>
-        </is>
-      </c>
-      <c r="H56" s="2" t="n">
-        <v>45985.77598379629</v>
-      </c>
-      <c r="I56" s="2" t="n">
-        <v>45985</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>18:37:25</t>
-        </is>
-      </c>
-      <c r="K56" t="n">
-        <v>1</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" t="b">
-        <v>0</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=24232223896453338', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzI0MjMyMjIzODk2NDUzMzM4', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yNDIzMjIyMzg5NjQ1MzMzOA==', 'date': '2025-11-24T18:37:25.000Z', 'text': 'Eso para que SIRVE', 'profileUrl': 'https://www.facebook.com/pe</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>7</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221154110296/</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221154110296/</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="b">
-        <v>0</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>8</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" t="b">
-        <v>0</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>9</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247217804110631/</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247217804110631/</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" t="b">
-        <v>0</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>10</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221017443643/</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221017443643/</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" t="b">
-        <v>0</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>11</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258767226289022/</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258767226289022/</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" t="b">
-        <v>0</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>12</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258767296289015/</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258767296289015/</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="b">
-        <v>0</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>13</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Medio vaso de yogur, 6 morenitas, la calidad del yogur baja y el precio alto 🤦🏼‍♀️</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>2025-11-25T20:18:02.000Z</t>
-        </is>
-      </c>
-      <c r="H63" s="2" t="n">
-        <v>45986.84585648148</v>
-      </c>
-      <c r="I63" s="3" t="n">
-        <v>45986</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>20:18:02</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -4056,13 +4189,13 @@
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=1382018550229999', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzEzODIwMTg1NTAyMjk5OTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xMzgyMDE4NTUwMjI5OTk5', 'date': '2025-11-25T20:18:02.000Z', 'text': 'Medio vaso de yogur, 6 morenitas, la calidad del yogur baja y el pre</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=2077627949641833', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIwNzc2Mjc5NDk2NDE4MzM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMDc3NjI3OTQ5NjQxODMz', 'date': '2025-11-25T01:17:30.000Z', 'text': 'Me acordé de la propaganda que le preguntaban a la gente que cree qu</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -4071,40 +4204,38 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Perfecto!!!!❤️</t>
+          <t>Semejante cara de bobo este personaje...</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-11-25T03:25:21.000Z</t>
+          <t>2025-11-25T00:51:15.000Z</t>
         </is>
       </c>
       <c r="H64" s="2" t="n">
-        <v>45986.14260416666</v>
-      </c>
-      <c r="I64" s="3" t="n">
+        <v>45986.03559027778</v>
+      </c>
+      <c r="I64" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>03:25:21</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>00:51:15</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -4116,13 +4247,13 @@
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=1952455178667084', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzE5NTI0NTUxNzg2NjcwODQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xOTUyNDU1MTc4NjY3MDg0', 'date': '2025-11-25T03:25:21.000Z', 'text': 'Perfecto!!!!❤️', 'profileUrl': 'https://www.facebook.com/rosa.lopez.</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1178608700915001', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNzg2MDg3MDA5MTUwMDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTc4NjA4NzAwOTE1MDAx', 'date': '2025-11-25T00:51:15.000Z', 'text': 'Semejante cara de bobo este personaje...', 'profilePicture': 'https:</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -4131,40 +4262,38 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Antes de conocer la diabetes eras mi snack favorito y como a alpina LE QUEDO GRANDE sacar productos saludables....... Paila!</t>
+          <t>Ojalá el precio también sea retro.</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-11-25T01:17:33.000Z</t>
+          <t>2025-11-25T00:51:12.000Z</t>
         </is>
       </c>
       <c r="H65" s="2" t="n">
-        <v>45986.05385416667</v>
-      </c>
-      <c r="I65" s="3" t="n">
+        <v>45986.03555555556</v>
+      </c>
+      <c r="I65" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>01:17:33</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+          <t>00:51:12</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>4</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -4176,13 +4305,13 @@
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=1520253749021206', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzE1MjAyNTM3NDkwMjEyMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xNTIwMjUzNzQ5MDIxMjA2', 'date': '2025-11-25T01:17:33.000Z', 'text': 'Antes de conocer la diabetes eras mi snack favorito y como a alpina </t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1597679538060212', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE1OTc2Nzk1MzgwNjAyMTI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNTk3Njc5NTM4MDYwMjEy', 'date': '2025-11-25T00:51:12.000Z', 'text': 'Ojalá el precio también sea retro.', 'profileUrl': 'https://www.face</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -4191,40 +4320,38 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Es verdad</t>
+          <t>Salió como a finales del 88</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-11-25T00:59:35.000Z</t>
+          <t>2025-11-25T00:08:11.000Z</t>
         </is>
       </c>
       <c r="H66" s="2" t="n">
-        <v>45986.04137731482</v>
-      </c>
-      <c r="I66" s="3" t="n">
+        <v>45986.00568287037</v>
+      </c>
+      <c r="I66" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>00:59:35</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>00:08:11</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -4236,13 +4363,13 @@
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=1576500203505837', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzE1NzY1MDAyMDM1MDU4Mzc=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xNTc2NTAwMjAzNTA1ODM3', 'date': '2025-11-25T00:59:35.000Z', 'text': 'Es verdad', 'profileUrl': 'https://www.facebook.com/marcela.cardonaa</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=2154810411989541', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIxNTQ4MTA0MTE5ODk1NDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMTU0ODEwNDExOTg5NTQx', 'date': '2025-11-25T00:08:11.000Z', 'text': 'Salió como a finales del 88', 'profileUrl': 'https://www.facebook.co</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -4251,40 +4378,38 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>Deberían más BN de bajar esos precios</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-11-25T00:47:16.000Z</t>
+          <t>2025-11-24T23:29:34.000Z</t>
         </is>
       </c>
       <c r="H67" s="2" t="n">
-        <v>45986.03282407407</v>
-      </c>
-      <c r="I67" s="3" t="n">
-        <v>45986</v>
+        <v>45985.97886574074</v>
+      </c>
+      <c r="I67" s="2" t="n">
+        <v>45985</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>00:47:16</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>23:29:34</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -4296,13 +4421,13 @@
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=819552860968519', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzgxOTU1Mjg2MDk2ODUxOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM184MTk1NTI4NjA5Njg1MTk=', 'date': '2025-11-25T00:47:16.000Z', 'text': '777', 'profileUrl': 'https://www.facebook.com/margarita.gomezanichiar</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1180817223396975', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExODA4MTcyMjMzOTY5NzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTgwODE3MjIzMzk2OTc1', 'date': '2025-11-24T23:29:34.000Z', 'text': 'Deberían más BN de bajar esos precios', 'profileUrl': 'https://www.f</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -4311,40 +4436,38 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Cuando valía 300 pesos</t>
+          <t>Ahora el precio es el del 2035, qué gonorrea si es caro un bon yurt.</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-11-25T00:07:35.000Z</t>
+          <t>2025-11-24T23:08:21.000Z</t>
         </is>
       </c>
       <c r="H68" s="2" t="n">
-        <v>45986.00526620371</v>
-      </c>
-      <c r="I68" s="3" t="n">
-        <v>45986</v>
+        <v>45985.96413194444</v>
+      </c>
+      <c r="I68" s="2" t="n">
+        <v>45985</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>00:07:35</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>23:08:21</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -4356,13 +4479,13 @@
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=1475494833548118', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzE0NzU0OTQ4MzM1NDgxMTg=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xNDc1NDk0ODMzNTQ4MTE4', 'date': '2025-11-25T00:07:35.000Z', 'text': 'Cuando valía 300 pesos', 'profileUrl': 'https://www.facebook.com/jim</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1141110784879560', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNDExMTA3ODQ4Nzk1NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTQxMTEwNzg0ODc5NTYw', 'date': '2025-11-24T23:08:21.000Z', 'text': 'Ahora el precio es el del 2035, qué gonorrea si es caro un bon yurt.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -4371,40 +4494,38 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>No, porque es una estafa, solo empaque y bien costoso</t>
+          <t>Que hpta joda tan cara. Rem@lpäridos abusadores</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-11-24T22:34:20.000Z</t>
+          <t>2025-11-24T22:58:44.000Z</t>
         </is>
       </c>
       <c r="H69" s="2" t="n">
-        <v>45985.94050925926</v>
-      </c>
-      <c r="I69" s="3" t="n">
+        <v>45985.9574537037</v>
+      </c>
+      <c r="I69" s="2" t="n">
         <v>45985</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>22:34:20</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>22:58:44</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>2</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -4416,13 +4537,13 @@
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=1260657349235501', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzEyNjA2NTczNDkyMzU1MDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xMjYwNjU3MzQ5MjM1NTAx', 'date': '2025-11-24T22:34:20.000Z', 'text': 'No, porque es una estafa, solo empaque y bien costoso', 'profileUrl'</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1505629667162278', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE1MDU2Mjk2NjcxNjIyNzg=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNTA1NjI5NjY3MTYyMjc4', 'date': '2025-11-24T22:58:44.000Z', 'text': 'Que hpta joda tan cara. Rem@lpäridos abusadores', 'profileUrl': 'htt</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -4431,40 +4552,38 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>No han pensado en mejorar la fórmula? Para mi gusto es muy aguado, poco  y demasiado dulce.</t>
+          <t>Antes traía más , le undieron el fondo al envase</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-11-24T21:56:14.000Z</t>
+          <t>2025-11-24T22:39:03.000Z</t>
         </is>
       </c>
       <c r="H70" s="2" t="n">
-        <v>45985.91405092592</v>
-      </c>
-      <c r="I70" s="3" t="n">
+        <v>45985.94378472222</v>
+      </c>
+      <c r="I70" s="2" t="n">
         <v>45985</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>21:56:14</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>22:39:03</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -4476,13 +4595,13 @@
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=1192728072737622', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzExOTI3MjgwNzI3Mzc2MjI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xMTkyNzI4MDcyNzM3NjIy', 'date': '2025-11-24T21:56:14.000Z', 'text': 'No han pensado en mejorar la fórmula? Para mi gusto es muy aguado, p</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=3091916754347395', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzMwOTE5MTY3NTQzNDczOTU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18zMDkxOTE2NzU0MzQ3Mzk1', 'date': '2025-11-24T22:39:03.000Z', 'text': 'Antes traía más , le undieron el fondo al envase', 'profileUrl': 'ht</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -4491,40 +4610,38 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Y la propaganda si quedo bien,, con ese precio ni uno se puede probar</t>
+          <t>Con ese precio mejor tomo aguapanelita con limon</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-11-24T18:49:49.000Z</t>
+          <t>2025-11-24T22:21:36.000Z</t>
         </is>
       </c>
       <c r="H71" s="2" t="n">
-        <v>45985.78459490741</v>
-      </c>
-      <c r="I71" s="3" t="n">
+        <v>45985.93166666666</v>
+      </c>
+      <c r="I71" s="2" t="n">
         <v>45985</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>18:49:49</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>22:21:36</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>13</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -4536,51 +4653,1713 @@
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=25132294313095996', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzI1MTMyMjk0MzEzMDk1OTk2', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18yNTEzMjI5NDMxMzA5NTk5Ng==', 'date': '2025-11-24T18:49:49.000Z', 'text': 'Y la propaganda si quedo bien,, con ese precio ni uno se puede </t>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=809611618734196', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzgwOTYxMTYxODczNDE5Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184MDk2MTE2MTg3MzQxOTY=', 'date': '2025-11-24T22:21:36.000Z', 'text': 'Con ese precio mejor tomo aguapanelita con limon', 'profilePicture': </t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
+        <v>6</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Recuerdo esa primera propaganda: "¿Sabe usted qué es Bon Yurt? Bon Yurt... Bon Yurt..."</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2025-11-24T21:39:47.000Z</t>
+        </is>
+      </c>
+      <c r="H72" s="2" t="n">
+        <v>45985.90262731481</v>
+      </c>
+      <c r="I72" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>21:39:47</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>2</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="b">
+        <v>0</v>
+      </c>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1871869833723454', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE4NzE4Njk4MzM3MjM0NTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xODcxODY5ODMzNzIzNDU0', 'date': '2025-11-24T21:39:47.000Z', 'text': 'Recuerdo esa primera propaganda: "¿Sabe usted qué es Bon Yurt? Bon Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>6</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Lástima lo inflado del precio</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>2025-11-24T19:39:52.000Z</t>
+        </is>
+      </c>
+      <c r="H73" s="2" t="n">
+        <v>45985.81935185185</v>
+      </c>
+      <c r="I73" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>19:39:52</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="b">
+        <v>0</v>
+      </c>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1149425460681635', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNDk0MjU0NjA2ODE2MzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTQ5NDI1NDYwNjgxNjM1', 'date': '2025-11-24T19:39:52.000Z', 'text': 'Lástima lo inflado del precio', 'profileUrl': 'https://www.facebook.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>6</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Ese es peso pluma ?</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2025-11-24T19:08:34.000Z</t>
+        </is>
+      </c>
+      <c r="H74" s="2" t="n">
+        <v>45985.79761574074</v>
+      </c>
+      <c r="I74" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>19:08:34</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="b">
+        <v>0</v>
+      </c>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=745583734460698', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzc0NTU4MzczNDQ2MDY5OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N183NDU1ODM3MzQ0NjA2OTg=', 'date': '2025-11-24T19:08:34.000Z', 'text': 'Ese es peso pluma ?', 'profileUrl': 'https://www.facebook.com/mike.wi</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>6</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Inaccesible muy caro 🫰</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2025-11-24T18:58:53.000Z</t>
+        </is>
+      </c>
+      <c r="H75" s="2" t="n">
+        <v>45985.7908912037</v>
+      </c>
+      <c r="I75" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>18:58:53</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="b">
+        <v>0</v>
+      </c>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=860109699855760', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzg2MDEwOTY5OTg1NTc2MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184NjAxMDk2OTk4NTU3NjA=', 'date': '2025-11-24T18:58:53.000Z', 'text': 'Inaccesible muy caro 🫰', 'profileUrl': 'https://www.facebook.com/fred</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>6</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Como pasa el tiempo 😳</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2025-11-24T18:39:10.000Z</t>
+        </is>
+      </c>
+      <c r="H76" s="2" t="n">
+        <v>45985.77719907407</v>
+      </c>
+      <c r="I76" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>18:39:10</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>6</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="b">
+        <v>0</v>
+      </c>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1387173373123562', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzODcxNzMzNzMxMjM1NjI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzg3MTczMzczMTIzNTYy', 'date': '2025-11-24T18:39:10.000Z', 'text': 'Como pasa el tiempo 😳', 'attachments': [{'__typename': 'Photo', 'blu</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>6</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Eso para que SIRVE</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2025-11-24T18:37:25.000Z</t>
+        </is>
+      </c>
+      <c r="H77" s="2" t="n">
+        <v>45985.77598379629</v>
+      </c>
+      <c r="I77" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>18:37:25</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="b">
+        <v>0</v>
+      </c>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=24232223896453338', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzI0MjMyMjIzODk2NDUzMzM4', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yNDIzMjIyMzg5NjQ1MzMzOA==', 'date': '2025-11-24T18:37:25.000Z', 'text': 'Eso para que SIRVE', 'profileUrl': 'https://www.facebook.com/pe</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>7</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1247221154110296/</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1247221154110296/</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="b">
+        <v>0</v>
+      </c>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>8</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="b">
+        <v>0</v>
+      </c>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>9</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1247217804110631/</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1247217804110631/</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="b">
+        <v>0</v>
+      </c>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>10</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1247221017443643/</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1247221017443643/</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="b">
+        <v>0</v>
+      </c>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>11</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258767226289022/</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258767226289022/</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="b">
+        <v>0</v>
+      </c>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>12</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258767296289015/</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258767296289015/</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Y la de su hijo cuando sale,o por esa sentencia que la oculten.</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2025-11-26T02:59:40.000Z</t>
+        </is>
+      </c>
+      <c r="H83" s="2" t="n">
+        <v>45987.12476851852</v>
+      </c>
+      <c r="I83" s="3" t="n">
+        <v>45987</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>02:59:40</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="b">
+        <v>0</v>
+      </c>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767296289015/', 'commentUrl': 'https://www.facebook.com/reel/1837323323843066/?comment_id=1995575221176205', 'id': 'Y29tbWVudDoxMjU4NzY4OTYyOTU1NTE1XzE5OTU1NzUyMjExNzYyMDU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2ODk2Mjk1NTUxNV8xOTk1NTc1MjIxMTc2MjA1', 'date': '2025-11-26T02:59:40.000Z', 'text': 'Y la de su hijo cuando sale,o por esa sentencia que la oculten.', 'profileUrl': 'https://www.facebook.com/people/Maria-Alejo/pfbid0dPB6g2T</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>12</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258767296289015/</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258767296289015/</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>El kumis es pura agua y dulce</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2025-11-26T01:57:43.000Z</t>
+        </is>
+      </c>
+      <c r="H84" s="2" t="n">
+        <v>45987.08174768519</v>
+      </c>
+      <c r="I84" s="3" t="n">
+        <v>45987</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>01:57:43</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="b">
+        <v>0</v>
+      </c>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767296289015/', 'commentUrl': 'https://www.facebook.com/reel/1837323323843066/?comment_id=829490193278336', 'id': 'Y29tbWVudDoxMjU4NzY4OTYyOTU1NTE1XzgyOTQ5MDE5MzI3ODMzNg==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2ODk2Mjk1NTUxNV84Mjk0OTAxOTMyNzgzMzY=', 'date': '2025-11-26T01:57:43.000Z', 'text': 'El kumis es pura agua y dulce', 'profileUrl': 'https://www.facebook.com/yohana.martin.77178', 'profilePicture': 'https://scontent-iad3-1.xx</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>12</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258767296289015/</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258767296289015/</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="b">
+        <v>0</v>
+      </c>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>13</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Yo compro kumis litros y ojuelas azucaradas marca tigrillo atracardo y resulta que es igual</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2025-11-26T09:57:15.000Z</t>
+        </is>
+      </c>
+      <c r="H86" s="2" t="n">
+        <v>45987.41475694445</v>
+      </c>
+      <c r="I86" s="3" t="n">
+        <v>45987</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>09:57:15</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="b">
+        <v>0</v>
+      </c>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pWAoWyvS35gEbmNY4iroXRHxr3bJCapgrXMBVhverDdwtJKE2NaqkMfEvMvMjiBBl?comment_id=816873427884424', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzgxNjg3MzQyNzg4NDQyNA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM184MTY4NzM0Mjc4ODQ0MjQ=', 'date': '2025-11-26T09:57:15.000Z', 'text': 'Yo compro kumis litros y ojuelas azucaradas marca tigrillo atracardo y</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>13</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Bofff</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2025-11-26T05:16:54.000Z</t>
+        </is>
+      </c>
+      <c r="H87" s="2" t="n">
+        <v>45987.22006944445</v>
+      </c>
+      <c r="I87" s="3" t="n">
+        <v>45987</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>05:16:54</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="b">
+        <v>0</v>
+      </c>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pWAoWyvS35gEbmNY4iroXRHxr3bJCapgrXMBVhverDdwtJKE2NaqkMfEvMvMjiBBl?comment_id=25039922978949409', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzI1MDM5OTIyOTc4OTQ5NDA5', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18yNTAzOTkyMjk3ODk0OTQwOQ==', 'date': '2025-11-26T05:16:54.000Z', 'text': 'Bofff', 'profileUrl': 'https://www.facebook.com/daniela.motato.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>13</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Caro y feo 🙈🙈🙈</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2025-11-26T04:57:24.000Z</t>
+        </is>
+      </c>
+      <c r="H88" s="2" t="n">
+        <v>45987.20652777778</v>
+      </c>
+      <c r="I88" s="3" t="n">
+        <v>45987</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>04:57:24</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="b">
+        <v>0</v>
+      </c>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pWAoWyvS35gEbmNY4iroXRHxr3bJCapgrXMBVhverDdwtJKE2NaqkMfEvMvMjiBBl?comment_id=874050021630534', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzg3NDA1MDAyMTYzMDUzNA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM184NzQwNTAwMjE2MzA1MzQ=', 'date': '2025-11-26T04:57:24.000Z', 'text': 'Caro y feo 🙈🙈🙈', 'profilePicture': 'https://scontent-phx1-1.xx.fbcdn.n</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>13</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Elaine Ramírez 🤤</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2025-11-26T03:24:23.000Z</t>
+        </is>
+      </c>
+      <c r="H89" s="2" t="n">
+        <v>45987.14193287037</v>
+      </c>
+      <c r="I89" s="3" t="n">
+        <v>45987</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>03:24:23</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="b">
+        <v>0</v>
+      </c>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pWAoWyvS35gEbmNY4iroXRHxr3bJCapgrXMBVhverDdwtJKE2NaqkMfEvMvMjiBBl?comment_id=813744634893571', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzgxMzc0NDYzNDg5MzU3MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM184MTM3NDQ2MzQ4OTM1NzE=', 'date': '2025-11-26T03:24:23.000Z', 'text': 'Elaine Ramírez 🤤', 'profileUrl': 'https://www.facebook.com/elys.delaho</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>13</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>La verdad me parecía tan ricos antes de k le cambiarán la fórmula</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2025-11-26T03:13:49.000Z</t>
+        </is>
+      </c>
+      <c r="H90" s="2" t="n">
+        <v>45987.13459490741</v>
+      </c>
+      <c r="I90" s="3" t="n">
+        <v>45987</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>03:13:49</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="b">
+        <v>0</v>
+      </c>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pWAoWyvS35gEbmNY4iroXRHxr3bJCapgrXMBVhverDdwtJKE2NaqkMfEvMvMjiBBl?comment_id=1111242237572829', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzExMTEyNDIyMzc1NzI4Mjk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xMTExMjQyMjM3NTcyODI5', 'date': '2025-11-26T03:13:49.000Z', 'text': 'La verdad me parecía tan ricos antes de k le cambiarán la fórmula', '</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>13</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Hoy toca probar uno cada 6 meses😂 se volvieron intocables y pequeños</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2025-11-26T02:45:12.000Z</t>
+        </is>
+      </c>
+      <c r="H91" s="2" t="n">
+        <v>45987.11472222222</v>
+      </c>
+      <c r="I91" s="3" t="n">
+        <v>45987</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>02:45:12</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="b">
+        <v>0</v>
+      </c>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pWAoWyvS35gEbmNY4iroXRHxr3bJCapgrXMBVhverDdwtJKE2NaqkMfEvMvMjiBBl?comment_id=845111814882138', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzg0NTExMTgxNDg4MjEzOA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM184NDUxMTE4MTQ4ODIxMzg=', 'date': '2025-11-26T02:45:12.000Z', 'text': 'Hoy toca probar uno cada 6 meses😂 se volvieron intocables y pequeños',</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>13</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>ALPINA es una de las empresas más sobrevaloradas de Colombia.</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>2025-11-25T22:42:33.000Z</t>
+        </is>
+      </c>
+      <c r="H92" s="2" t="n">
+        <v>45986.94621527778</v>
+      </c>
+      <c r="I92" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>22:42:33</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="b">
+        <v>0</v>
+      </c>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pWAoWyvS35gEbmNY4iroXRHxr3bJCapgrXMBVhverDdwtJKE2NaqkMfEvMvMjiBBl?comment_id=1392442662241880', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzEzOTI0NDI2NjIyNDE4ODA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xMzkyNDQyNjYyMjQxODgw', 'date': '2025-11-25T22:42:33.000Z', 'text': 'ALPINA es una de las empresas más sobrevaloradas de Colombia.', 'prof</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>13</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Medio vaso de yogur, 6 morenitas, la calidad del yogur baja y el precio alto 🤦🏼‍♀️</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>2025-11-25T20:18:02.000Z</t>
+        </is>
+      </c>
+      <c r="H93" s="2" t="n">
+        <v>45986.84585648148</v>
+      </c>
+      <c r="I93" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>20:18:02</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="b">
+        <v>0</v>
+      </c>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=1382018550229999', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzEzODIwMTg1NTAyMjk5OTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xMzgyMDE4NTUwMjI5OTk5', 'date': '2025-11-25T20:18:02.000Z', 'text': 'Medio vaso de yogur, 6 morenitas, la calidad del yogur baja y el pre</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>13</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Perfecto!!!!❤️</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>2025-11-25T03:25:21.000Z</t>
+        </is>
+      </c>
+      <c r="H94" s="2" t="n">
+        <v>45986.14260416666</v>
+      </c>
+      <c r="I94" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>03:25:21</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="b">
+        <v>0</v>
+      </c>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=1952455178667084', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzE5NTI0NTUxNzg2NjcwODQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xOTUyNDU1MTc4NjY3MDg0', 'date': '2025-11-25T03:25:21.000Z', 'text': 'Perfecto!!!!❤️', 'profileUrl': 'https://www.facebook.com/rosa.lopez.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>13</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Antes de conocer la diabetes eras mi snack favorito y como a alpina LE QUEDO GRANDE sacar productos saludables....... Paila!</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>2025-11-25T01:17:33.000Z</t>
+        </is>
+      </c>
+      <c r="H95" s="2" t="n">
+        <v>45986.05385416667</v>
+      </c>
+      <c r="I95" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>01:17:33</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>8</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="b">
+        <v>0</v>
+      </c>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=1520253749021206', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzE1MjAyNTM3NDkwMjEyMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xNTIwMjUzNzQ5MDIxMjA2', 'date': '2025-11-25T01:17:33.000Z', 'text': 'Antes de conocer la diabetes eras mi snack favorito y como a alpina </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>13</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Es verdad</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>2025-11-25T00:59:35.000Z</t>
+        </is>
+      </c>
+      <c r="H96" s="2" t="n">
+        <v>45986.04137731482</v>
+      </c>
+      <c r="I96" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>00:59:35</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="b">
+        <v>0</v>
+      </c>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=1576500203505837', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzE1NzY1MDAyMDM1MDU4Mzc=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xNTc2NTAwMjAzNTA1ODM3', 'date': '2025-11-25T00:59:35.000Z', 'text': 'Es verdad', 'profileUrl': 'https://www.facebook.com/marcela.cardonaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>13</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>777</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>2025-11-25T00:47:16.000Z</t>
+        </is>
+      </c>
+      <c r="H97" s="2" t="n">
+        <v>45986.03282407407</v>
+      </c>
+      <c r="I97" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>00:47:16</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="b">
+        <v>0</v>
+      </c>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=819552860968519', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzgxOTU1Mjg2MDk2ODUxOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM184MTk1NTI4NjA5Njg1MTk=', 'date': '2025-11-25T00:47:16.000Z', 'text': '777', 'profileUrl': 'https://www.facebook.com/margarita.gomezanichiar</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>13</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Cuando valía 300 pesos</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>2025-11-25T00:07:35.000Z</t>
+        </is>
+      </c>
+      <c r="H98" s="2" t="n">
+        <v>45986.00526620371</v>
+      </c>
+      <c r="I98" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>00:07:35</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="b">
+        <v>0</v>
+      </c>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=1475494833548118', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzE0NzU0OTQ4MzM1NDgxMTg=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xNDc1NDk0ODMzNTQ4MTE4', 'date': '2025-11-25T00:07:35.000Z', 'text': 'Cuando valía 300 pesos', 'profileUrl': 'https://www.facebook.com/jim</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>13</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>No, porque es una estafa, solo empaque y bien costoso</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>2025-11-24T22:34:20.000Z</t>
+        </is>
+      </c>
+      <c r="H99" s="2" t="n">
+        <v>45985.94050925926</v>
+      </c>
+      <c r="I99" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>22:34:20</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="b">
+        <v>0</v>
+      </c>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=1260657349235501', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzEyNjA2NTczNDkyMzU1MDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xMjYwNjU3MzQ5MjM1NTAx', 'date': '2025-11-24T22:34:20.000Z', 'text': 'No, porque es una estafa, solo empaque y bien costoso', 'profileUrl'</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>13</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>No han pensado en mejorar la fórmula? Para mi gusto es muy aguado, poco  y demasiado dulce.</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>2025-11-24T21:56:14.000Z</t>
+        </is>
+      </c>
+      <c r="H100" s="2" t="n">
+        <v>45985.91405092592</v>
+      </c>
+      <c r="I100" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>21:56:14</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>10</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="b">
+        <v>0</v>
+      </c>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=1192728072737622', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzExOTI3MjgwNzI3Mzc2MjI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xMTkyNzI4MDcyNzM3NjIy', 'date': '2025-11-24T21:56:14.000Z', 'text': 'No han pensado en mejorar la fórmula? Para mi gusto es muy aguado, p</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>13</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Y la propaganda si quedo bien,, con ese precio ni uno se puede probar</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>2025-11-24T18:49:49.000Z</t>
+        </is>
+      </c>
+      <c r="H101" s="2" t="n">
+        <v>45985.78459490741</v>
+      </c>
+      <c r="I101" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>18:49:49</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="b">
+        <v>0</v>
+      </c>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=25132294313095996', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzI1MTMyMjk0MzEzMDk1OTk2', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18yNTEzMjI5NDMxMzA5NTk5Ng==', 'date': '2025-11-24T18:49:49.000Z', 'text': 'Y la propaganda si quedo bien,, con ese precio ni uno se puede </t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
         <v>14</v>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
         <is>
           <t>https://adsmanager.facebook.com/adsmanager/manage/ads?act=204764998104490&amp;business_id=1527284254245944&amp;global_scope_id=1527284254245944&amp;date=2025-11-24_2025-11-25&amp;insights_date=2025-11-24_2025-11-25&amp;selected_campaign_ids=120238665420150295&amp;selected_adset_ids=120238665420140295&amp;selected_ad_ids=120238665420160295</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D102" t="inlineStr">
         <is>
           <t>https://adsmanager.facebook.com/adsmanager/manage/ads?act=204764998104490&amp;business_id=1527284254245944&amp;global_scope_id=1527284254245944&amp;date=2025-11-24_2025-11-25&amp;insights_date=2025-11-24_2025-11-25&amp;selected_campaign_ids=120238665420150295&amp;selected_adset_ids=120238665420140295&amp;selected_ad_ids=120238665420160295</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0</v>
-      </c>
-      <c r="M72" t="b">
-        <v>0</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr">
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="b">
+        <v>0</v>
+      </c>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr">
         <is>
           <t>FAILED</t>
         </is>
       </c>
-      <c r="P72" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4734,7 +6513,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -4743,7 +6522,7 @@
         <v>45986.14106481482</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>45986.21601851852</v>
+        <v>45987.17144675926</v>
       </c>
     </row>
     <row r="6">
@@ -4788,16 +6567,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E7" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>45985.77598379629</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>45986.89503472222</v>
+        <v>45987.14981481482</v>
       </c>
     </row>
     <row r="8">
@@ -4930,13 +6709,17 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="F13" s="2" t="n">
+        <v>45987.08174768519</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>45987.12476851852</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -4953,16 +6736,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>45985.78459490741</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>45986.84585648148</v>
+        <v>45987.41475694445</v>
       </c>
     </row>
     <row r="15">
@@ -5041,16 +6824,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="D2" t="n">
-        <v>1.33</v>
+        <v>0.89</v>
       </c>
       <c r="E2" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -5102,7 +6885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5185,22 +6968,10 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258767296289015/</t>
+          <t>https://adsmanager.facebook.com/adsmanager/manage/ads?act=204764998104490&amp;business_id=1527284254245944&amp;global_scope_id=1527284254245944&amp;date=2025-11-24_2025-11-25&amp;insights_date=2025-11-24_2025-11-25&amp;selected_campaign_ids=120238665420150295&amp;selected_adset_ids=120238665420140295&amp;selected_ad_ids=120238665420160295</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
-        <is>
-          <t>FAILED_ALL_ATTEMPTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://adsmanager.facebook.com/adsmanager/manage/ads?act=204764998104490&amp;business_id=1527284254245944&amp;global_scope_id=1527284254245944&amp;date=2025-11-24_2025-11-25&amp;insights_date=2025-11-24_2025-11-25&amp;selected_campaign_ids=120238665420150295&amp;selected_adset_ids=120238665420140295&amp;selected_ad_ids=120238665420160295</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
         <is>
           <t>FAILED_ALL_ATTEMPTS</t>
         </is>
@@ -5257,16 +7028,16 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -20,11 +20,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -64,13 +62,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -557,7 +554,7 @@
       <c r="H2" s="2" t="n">
         <v>45987.54113425926</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="2" t="n">
         <v>45987</v>
       </c>
       <c r="J2" t="inlineStr">
@@ -617,7 +614,7 @@
       <c r="H3" s="2" t="n">
         <v>45983.16740740741</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="2" t="n">
         <v>45983</v>
       </c>
       <c r="J3" t="inlineStr">
@@ -677,7 +674,7 @@
       <c r="H4" s="2" t="n">
         <v>45983.07935185185</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="2" t="n">
         <v>45983</v>
       </c>
       <c r="J4" t="inlineStr">
@@ -737,7 +734,7 @@
       <c r="H5" s="2" t="n">
         <v>45983.07155092592</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="2" t="n">
         <v>45983</v>
       </c>
       <c r="J5" t="inlineStr">
@@ -797,7 +794,7 @@
       <c r="H6" s="2" t="n">
         <v>45982.95052083334</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="J6" t="inlineStr">
@@ -857,7 +854,7 @@
       <c r="H7" s="2" t="n">
         <v>45982.81633101852</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="J7" t="inlineStr">
@@ -917,7 +914,7 @@
       <c r="H8" s="2" t="n">
         <v>45982.78439814815</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="J8" t="inlineStr">
@@ -977,7 +974,7 @@
       <c r="H9" s="2" t="n">
         <v>45982.61332175926</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="I9" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="J9" t="inlineStr">
@@ -1037,7 +1034,7 @@
       <c r="H10" s="2" t="n">
         <v>45981.19731481482</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="I10" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J10" t="inlineStr">
@@ -1099,7 +1096,7 @@
       <c r="H11" s="2" t="n">
         <v>45984.98431712963</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" s="2" t="n">
         <v>45984</v>
       </c>
       <c r="J11" t="inlineStr">
@@ -1107,10 +1104,8 @@
           <t>23:37:25</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1159,7 +1154,7 @@
       <c r="H12" s="2" t="n">
         <v>45982.97696759259</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="I12" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="J12" t="inlineStr">
@@ -1167,10 +1162,8 @@
           <t>23:26:50</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K12" t="n">
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1219,7 +1212,7 @@
       <c r="H13" s="2" t="n">
         <v>45982.26106481482</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="I13" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="J13" t="inlineStr">
@@ -1227,10 +1220,8 @@
           <t>06:15:56</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K13" t="n">
+        <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1279,7 +1270,7 @@
       <c r="H14" s="2" t="n">
         <v>45980.89395833333</v>
       </c>
-      <c r="I14" s="3" t="n">
+      <c r="I14" s="2" t="n">
         <v>45980</v>
       </c>
       <c r="J14" t="inlineStr">
@@ -1287,10 +1278,8 @@
           <t>21:27:18</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K14" t="n">
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1339,7 +1328,7 @@
       <c r="H15" s="2" t="n">
         <v>45981.53131944445</v>
       </c>
-      <c r="I15" s="3" t="n">
+      <c r="I15" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J15" t="inlineStr">
@@ -1347,10 +1336,8 @@
           <t>12:45:06</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K15" t="n">
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1399,7 +1386,7 @@
       <c r="H16" s="2" t="n">
         <v>45981.46748842593</v>
       </c>
-      <c r="I16" s="3" t="n">
+      <c r="I16" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J16" t="inlineStr">
@@ -1407,10 +1394,8 @@
           <t>11:13:11</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K16" t="n">
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1459,7 +1444,7 @@
       <c r="H17" s="2" t="n">
         <v>45987.17144675926</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="I17" s="2" t="n">
         <v>45987</v>
       </c>
       <c r="J17" t="inlineStr">
@@ -1467,10 +1452,8 @@
           <t>04:06:53</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K17" t="n">
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1519,7 +1502,7 @@
       <c r="H18" s="2" t="n">
         <v>45987.17144675926</v>
       </c>
-      <c r="I18" s="3" t="n">
+      <c r="I18" s="2" t="n">
         <v>45987</v>
       </c>
       <c r="J18" t="inlineStr">
@@ -1527,10 +1510,8 @@
           <t>04:06:53</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K18" t="n">
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1579,7 +1560,7 @@
       <c r="H19" s="2" t="n">
         <v>45987.15164351852</v>
       </c>
-      <c r="I19" s="3" t="n">
+      <c r="I19" s="2" t="n">
         <v>45987</v>
       </c>
       <c r="J19" t="inlineStr">
@@ -1587,10 +1568,8 @@
           <t>03:38:22</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K19" t="n">
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -1639,7 +1618,7 @@
       <c r="H20" s="2" t="n">
         <v>45987.15164351852</v>
       </c>
-      <c r="I20" s="3" t="n">
+      <c r="I20" s="2" t="n">
         <v>45987</v>
       </c>
       <c r="J20" t="inlineStr">
@@ -1647,10 +1626,8 @@
           <t>03:38:22</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K20" t="n">
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -1699,7 +1676,7 @@
       <c r="H21" s="2" t="n">
         <v>45986.21601851852</v>
       </c>
-      <c r="I21" s="3" t="n">
+      <c r="I21" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J21" t="inlineStr">
@@ -1707,10 +1684,8 @@
           <t>05:11:04</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K21" t="n">
+        <v>1</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -1759,7 +1734,7 @@
       <c r="H22" s="2" t="n">
         <v>45986.21601851852</v>
       </c>
-      <c r="I22" s="3" t="n">
+      <c r="I22" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J22" t="inlineStr">
@@ -1767,10 +1742,8 @@
           <t>05:11:04</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K22" t="n">
+        <v>1</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -1819,7 +1792,7 @@
       <c r="H23" s="2" t="n">
         <v>45986.19047453703</v>
       </c>
-      <c r="I23" s="3" t="n">
+      <c r="I23" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J23" t="inlineStr">
@@ -1827,10 +1800,8 @@
           <t>04:34:17</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K23" t="n">
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -1879,7 +1850,7 @@
       <c r="H24" s="2" t="n">
         <v>45986.19047453703</v>
       </c>
-      <c r="I24" s="3" t="n">
+      <c r="I24" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J24" t="inlineStr">
@@ -1887,10 +1858,8 @@
           <t>04:34:17</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K24" t="n">
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -1939,7 +1908,7 @@
       <c r="H25" s="2" t="n">
         <v>45986.14106481482</v>
       </c>
-      <c r="I25" s="3" t="n">
+      <c r="I25" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J25" t="inlineStr">
@@ -1947,10 +1916,8 @@
           <t>03:23:08</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K25" t="n">
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -1999,7 +1966,7 @@
       <c r="H26" s="2" t="n">
         <v>45986.14106481482</v>
       </c>
-      <c r="I26" s="3" t="n">
+      <c r="I26" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J26" t="inlineStr">
@@ -2007,10 +1974,8 @@
           <t>03:23:08</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K26" t="n">
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2101,7 +2066,7 @@
       <c r="H28" s="2" t="n">
         <v>45987.12476851852</v>
       </c>
-      <c r="I28" s="3" t="n">
+      <c r="I28" s="2" t="n">
         <v>45987</v>
       </c>
       <c r="J28" t="inlineStr">
@@ -2109,10 +2074,8 @@
           <t>02:59:40</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K28" t="n">
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2161,7 +2124,7 @@
       <c r="H29" s="2" t="n">
         <v>45987.08174768519</v>
       </c>
-      <c r="I29" s="3" t="n">
+      <c r="I29" s="2" t="n">
         <v>45987</v>
       </c>
       <c r="J29" t="inlineStr">
@@ -2169,10 +2132,8 @@
           <t>01:57:43</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K29" t="n">
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -2225,7 +2186,7 @@
       <c r="H30" s="2" t="n">
         <v>45981.26364583334</v>
       </c>
-      <c r="I30" s="3" t="n">
+      <c r="I30" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J30" t="inlineStr">

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -20,11 +20,9 @@
 
 <file p